--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-04.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-04.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2403"/>
+  <dimension ref="A1:H2426"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71556,873 +71556,999 @@
     <row r="2201">
       <c r="A2201" t="inlineStr">
         <is>
-          <t>Thursday January 30 2025</t>
-        </is>
-      </c>
-      <c r="B2201" t="inlineStr"/>
-      <c r="C2201" t="inlineStr"/>
+          <t>01:30 PM</t>
+        </is>
+      </c>
+      <c r="B2201" t="inlineStr">
+        <is>
+          <t>ES</t>
+        </is>
+      </c>
+      <c r="C2201" t="inlineStr">
+        <is>
+          <t>Inflation Rate MoM PrelJAN</t>
+        </is>
+      </c>
       <c r="D2201" t="inlineStr"/>
-      <c r="E2201" t="inlineStr"/>
+      <c r="E2201" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="F2201" t="inlineStr"/>
-      <c r="G2201" t="inlineStr"/>
-      <c r="H2201" t="inlineStr"/>
+      <c r="G2201" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="H2201" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="2202">
       <c r="A2202" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2202" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2202" t="inlineStr">
         <is>
-          <t>Fed Interest Rate Decision</t>
+          <t>Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2202" t="inlineStr"/>
       <c r="E2202" t="inlineStr">
         <is>
-          <t>4.5%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="F2202" t="inlineStr">
         <is>
-          <t>4.5%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="G2202" t="inlineStr">
         <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="H2202" t="n">
-        <v>1</v>
+          <t>2.7%</t>
+        </is>
+      </c>
+      <c r="H2202" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2203">
       <c r="A2203" t="inlineStr">
         <is>
-          <t>01:00 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2203" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2203" t="inlineStr">
         <is>
-          <t>Fed Press Conference</t>
+          <t>Core Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2203" t="inlineStr"/>
-      <c r="E2203" t="inlineStr"/>
+      <c r="E2203" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="F2203" t="inlineStr"/>
-      <c r="G2203" t="inlineStr"/>
-      <c r="H2203" t="n">
-        <v>1</v>
+      <c r="G2203" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
+      <c r="H2203" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2204">
       <c r="A2204" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2204" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2204" t="inlineStr">
         <is>
-          <t>Interest Rate Decision</t>
+          <t>Harmonised Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2204" t="inlineStr"/>
       <c r="E2204" t="inlineStr">
         <is>
-          <t>12.25%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F2204" t="inlineStr"/>
       <c r="G2204" t="inlineStr">
         <is>
-          <t>12.25%</t>
-        </is>
-      </c>
-      <c r="H2204" t="n">
-        <v>2</v>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="H2204" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2205">
       <c r="A2205" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2205" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2205" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentJAN/25</t>
+          <t>Harmonised Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2205" t="inlineStr"/>
       <c r="E2205" t="inlineStr">
         <is>
-          <t>¥819.3B</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="F2205" t="inlineStr"/>
-      <c r="G2205" t="inlineStr"/>
-      <c r="H2205" t="n">
-        <v>3</v>
+      <c r="G2205" t="inlineStr">
+        <is>
+          <t>2.9%</t>
+        </is>
+      </c>
+      <c r="H2205" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2206">
       <c r="A2206" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2206" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2206" t="inlineStr">
         <is>
-          <t>Stock Investment by ForeignersJAN/25</t>
+          <t>GDP Growth Rate QoQ FlashQ4</t>
         </is>
       </c>
       <c r="D2206" t="inlineStr"/>
       <c r="E2206" t="inlineStr">
         <is>
-          <t>¥-66.1B</t>
-        </is>
-      </c>
-      <c r="F2206" t="inlineStr"/>
-      <c r="G2206" t="inlineStr"/>
-      <c r="H2206" t="n">
-        <v>3</v>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F2206" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="G2206" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="H2206" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="2207">
       <c r="A2207" t="inlineStr">
         <is>
-          <t>05:31 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2207" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2207" t="inlineStr">
         <is>
-          <t>Car Production YoYDEC</t>
+          <t>GDP Growth Rate YoY FlashQ4</t>
         </is>
       </c>
       <c r="D2207" t="inlineStr"/>
       <c r="E2207" t="inlineStr">
         <is>
-          <t>-30%</t>
-        </is>
-      </c>
-      <c r="F2207" t="inlineStr"/>
+          <t>-0.3%</t>
+        </is>
+      </c>
+      <c r="F2207" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
       <c r="G2207" t="inlineStr">
         <is>
-          <t>-20.0%</t>
-        </is>
-      </c>
-      <c r="H2207" t="n">
-        <v>3</v>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="H2207" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="2208">
       <c r="A2208" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2208" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2208" t="inlineStr">
         <is>
-          <t>RBA Bulletin</t>
+          <t>GDP Growth Rate QoQ AdvQ4</t>
         </is>
       </c>
       <c r="D2208" t="inlineStr"/>
-      <c r="E2208" t="inlineStr"/>
-      <c r="F2208" t="inlineStr"/>
-      <c r="G2208" t="inlineStr"/>
-      <c r="H2208" t="n">
-        <v>2</v>
+      <c r="E2208" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F2208" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="G2208" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="H2208" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="2209">
       <c r="A2209" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2209" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2209" t="inlineStr">
         <is>
-          <t>Export Prices QoQQ4</t>
+          <t>GDP Growth Rate YoY AdvQ4</t>
         </is>
       </c>
       <c r="D2209" t="inlineStr"/>
       <c r="E2209" t="inlineStr">
         <is>
-          <t>-4.3%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F2209" t="inlineStr"/>
       <c r="G2209" t="inlineStr">
         <is>
-          <t>-6.6%</t>
-        </is>
-      </c>
-      <c r="H2209" t="n">
-        <v>3</v>
+          <t>0.6%</t>
+        </is>
+      </c>
+      <c r="H2209" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="2210">
       <c r="A2210" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B2210" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2210" t="inlineStr">
         <is>
-          <t>Import Prices QoQQ4</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D2210" t="inlineStr"/>
       <c r="E2210" t="inlineStr">
         <is>
-          <t>-1.4%</t>
-        </is>
-      </c>
-      <c r="F2210" t="inlineStr">
-        <is>
-          <t>-1.5%</t>
-        </is>
-      </c>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F2210" t="inlineStr"/>
       <c r="G2210" t="inlineStr">
         <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="H2210" t="n">
-        <v>3</v>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="H2210" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2211">
       <c r="A2211" t="inlineStr">
         <is>
-          <t>08:50 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B2211" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2211" t="inlineStr">
         <is>
-          <t>RBA Jones Speech</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D2211" t="inlineStr"/>
-      <c r="E2211" t="inlineStr"/>
+      <c r="E2211" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
       <c r="F2211" t="inlineStr"/>
-      <c r="G2211" t="inlineStr"/>
-      <c r="H2211" t="n">
-        <v>2</v>
+      <c r="G2211" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="H2211" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2212">
       <c r="A2212" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B2212" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2212" t="inlineStr">
         <is>
-          <t>GDP Growth Rate YoY PrelQ4</t>
+          <t>BoE Consumer CreditDEC</t>
         </is>
       </c>
       <c r="D2212" t="inlineStr"/>
       <c r="E2212" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>£0.878B</t>
         </is>
       </c>
       <c r="F2212" t="inlineStr"/>
       <c r="G2212" t="inlineStr">
         <is>
-          <t>3.0%</t>
-        </is>
-      </c>
-      <c r="H2212" t="n">
-        <v>2</v>
+          <t>£ 1.3B</t>
+        </is>
+      </c>
+      <c r="H2212" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2213">
       <c r="A2213" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B2213" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2213" t="inlineStr">
         <is>
-          <t>M3 Money Supply YoYDEC</t>
+          <t>Mortgage ApprovalsDEC</t>
         </is>
       </c>
       <c r="D2213" t="inlineStr"/>
       <c r="E2213" t="inlineStr">
         <is>
-          <t>7.77%</t>
-        </is>
-      </c>
-      <c r="F2213" t="inlineStr"/>
-      <c r="G2213" t="inlineStr"/>
-      <c r="H2213" t="n">
-        <v>3</v>
+          <t>65.72K</t>
+        </is>
+      </c>
+      <c r="F2213" t="inlineStr">
+        <is>
+          <t>65K</t>
+        </is>
+      </c>
+      <c r="G2213" t="inlineStr">
+        <is>
+          <t>65.1K</t>
+        </is>
+      </c>
+      <c r="H2213" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2214">
       <c r="A2214" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B2214" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2214" t="inlineStr">
         <is>
-          <t>Private Sector Credit YoYDEC</t>
+          <t>Mortgage LendingDEC</t>
         </is>
       </c>
       <c r="D2214" t="inlineStr"/>
       <c r="E2214" t="inlineStr">
         <is>
-          <t>4.16%</t>
+          <t>£2.47B</t>
         </is>
       </c>
       <c r="F2214" t="inlineStr"/>
       <c r="G2214" t="inlineStr">
         <is>
-          <t>3.8%</t>
-        </is>
-      </c>
-      <c r="H2214" t="n">
-        <v>3</v>
+          <t>£ 2.2B</t>
+        </is>
+      </c>
+      <c r="H2214" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2215">
       <c r="A2215" t="inlineStr">
         <is>
-          <t>11:40 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B2215" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2215" t="inlineStr">
         <is>
-          <t>BoJ Himino Speech</t>
+          <t>M4 Money Supply MoMDEC</t>
         </is>
       </c>
       <c r="D2215" t="inlineStr"/>
-      <c r="E2215" t="inlineStr"/>
-      <c r="F2215" t="inlineStr"/>
-      <c r="G2215" t="inlineStr"/>
-      <c r="H2215" t="n">
-        <v>2</v>
+      <c r="E2215" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F2215" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="G2215" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="H2215" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2216">
       <c r="A2216" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B2216" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2216" t="inlineStr">
         <is>
-          <t>GDP Growth Rate QoQ PrelQ4</t>
+          <t>Net Lending to Individuals MoMDEC</t>
         </is>
       </c>
       <c r="D2216" t="inlineStr"/>
       <c r="E2216" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>£3.4B</t>
         </is>
       </c>
       <c r="F2216" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>£3.6B</t>
         </is>
       </c>
       <c r="G2216" t="inlineStr">
         <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="H2216" t="n">
-        <v>1</v>
+          <t>£3.5B</t>
+        </is>
+      </c>
+      <c r="H2216" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2217">
       <c r="A2217" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2217" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2217" t="inlineStr">
         <is>
-          <t>GDP Growth Rate YoY PrelQ4</t>
+          <t>GDP Growth Rate QoQ FlashQ4</t>
         </is>
       </c>
       <c r="D2217" t="inlineStr"/>
       <c r="E2217" t="inlineStr">
         <is>
-          <t>1.2%</t>
-        </is>
-      </c>
-      <c r="F2217" t="inlineStr"/>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="F2217" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="G2217" t="inlineStr">
         <is>
-          <t>1.1%</t>
-        </is>
-      </c>
-      <c r="H2217" t="n">
-        <v>2</v>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="H2217" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="2218">
       <c r="A2218" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2218" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2218" t="inlineStr">
         <is>
-          <t>Household Consumption MoMDEC</t>
+          <t>Unemployment RateDEC</t>
         </is>
       </c>
       <c r="D2218" t="inlineStr"/>
       <c r="E2218" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>6.3%</t>
         </is>
       </c>
       <c r="F2218" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>6.3%</t>
         </is>
       </c>
       <c r="G2218" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H2218" t="n">
-        <v>3</v>
+          <t>6.4%</t>
+        </is>
+      </c>
+      <c r="H2218" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="2219">
       <c r="A2219" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2219" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2219" t="inlineStr">
         <is>
-          <t>Import Prices MoMDEC</t>
+          <t>Consumer Confidence FinalJAN</t>
         </is>
       </c>
       <c r="D2219" t="inlineStr"/>
       <c r="E2219" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>-14.5</t>
         </is>
       </c>
       <c r="F2219" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G2219" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H2219" t="n">
-        <v>3</v>
+          <t>-14.2</t>
+        </is>
+      </c>
+      <c r="G2219" t="inlineStr"/>
+      <c r="H2219" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2220">
       <c r="A2220" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2220" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2220" t="inlineStr">
         <is>
-          <t>Import Prices YoYDEC</t>
+          <t>Economic SentimentJAN</t>
         </is>
       </c>
       <c r="D2220" t="inlineStr"/>
       <c r="E2220" t="inlineStr">
         <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="F2220" t="inlineStr"/>
+          <t>93.7</t>
+        </is>
+      </c>
+      <c r="F2220" t="inlineStr">
+        <is>
+          <t>93.3</t>
+        </is>
+      </c>
       <c r="G2220" t="inlineStr">
         <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="H2220" t="n">
-        <v>3</v>
+          <t>93.5</t>
+        </is>
+      </c>
+      <c r="H2220" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2221">
       <c r="A2221" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2221" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2221" t="inlineStr">
         <is>
-          <t>Economic Confidence IndexJAN</t>
+          <t>GDP Growth Rate YoY FlashQ4</t>
         </is>
       </c>
       <c r="D2221" t="inlineStr"/>
       <c r="E2221" t="inlineStr">
         <is>
-          <t>98.8</t>
-        </is>
-      </c>
-      <c r="F2221" t="inlineStr"/>
+          <t>0.9%</t>
+        </is>
+      </c>
+      <c r="F2221" t="inlineStr">
+        <is>
+          <t>1%</t>
+        </is>
+      </c>
       <c r="G2221" t="inlineStr">
         <is>
-          <t>98.3</t>
-        </is>
-      </c>
-      <c r="H2221" t="n">
-        <v>3</v>
+          <t>1.2%</t>
+        </is>
+      </c>
+      <c r="H2221" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2222">
       <c r="A2222" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2222" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2222" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM PrelJAN</t>
+          <t>Consumer Inflation ExpectationsJAN</t>
         </is>
       </c>
       <c r="D2222" t="inlineStr"/>
       <c r="E2222" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>21.0</t>
         </is>
       </c>
       <c r="F2222" t="inlineStr"/>
       <c r="G2222" t="inlineStr">
         <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="H2222" t="n">
-        <v>2</v>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="H2222" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2223">
       <c r="A2223" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2223" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2223" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelJAN</t>
+          <t>Industrial SentimentJAN</t>
         </is>
       </c>
       <c r="D2223" t="inlineStr"/>
       <c r="E2223" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F2223" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
+          <t>-14.1</t>
+        </is>
+      </c>
+      <c r="F2223" t="inlineStr"/>
       <c r="G2223" t="inlineStr">
         <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="H2223" t="n">
-        <v>2</v>
+          <t>-14.5</t>
+        </is>
+      </c>
+      <c r="H2223" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2224">
       <c r="A2224" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2224" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2224" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoY PrelJAN</t>
+          <t>Selling Price ExpectationsJAN</t>
         </is>
       </c>
       <c r="D2224" t="inlineStr"/>
       <c r="E2224" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>7.6</t>
         </is>
       </c>
       <c r="F2224" t="inlineStr"/>
       <c r="G2224" t="inlineStr">
         <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="H2224" t="n">
-        <v>3</v>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H2224" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2225">
       <c r="A2225" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2225" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2225" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM PrelJAN</t>
+          <t>Services SentimentJAN</t>
         </is>
       </c>
       <c r="D2225" t="inlineStr"/>
       <c r="E2225" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>5.9</t>
         </is>
       </c>
       <c r="F2225" t="inlineStr"/>
       <c r="G2225" t="inlineStr">
         <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="H2225" t="n">
-        <v>3</v>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H2225" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2226">
       <c r="A2226" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2226" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2226" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY PrelJAN</t>
+          <t>Unemployment RateDEC</t>
         </is>
       </c>
       <c r="D2226" t="inlineStr"/>
       <c r="E2226" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F2226" t="inlineStr"/>
+          <t>5.7%</t>
+        </is>
+      </c>
+      <c r="F2226" t="inlineStr">
+        <is>
+          <t>5.7%</t>
+        </is>
+      </c>
       <c r="G2226" t="inlineStr">
         <is>
-          <t>2.9%</t>
-        </is>
-      </c>
-      <c r="H2226" t="n">
-        <v>3</v>
+          <t>5.6%</t>
+        </is>
+      </c>
+      <c r="H2226" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="2227">
       <c r="A2227" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>03:40 PM</t>
         </is>
       </c>
       <c r="B2227" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2227" t="inlineStr">
         <is>
-          <t>GDP Growth Rate QoQ FlashQ4</t>
+          <t>BTP Auction</t>
         </is>
       </c>
       <c r="D2227" t="inlineStr"/>
-      <c r="E2227" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F2227" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="G2227" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="H2227" t="n">
-        <v>1</v>
+      <c r="E2227" t="inlineStr"/>
+      <c r="F2227" t="inlineStr"/>
+      <c r="G2227" t="inlineStr"/>
+      <c r="H2227" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2228">
       <c r="A2228" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B2228" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2228" t="inlineStr">
         <is>
-          <t>GDP Growth Rate YoY FlashQ4</t>
+          <t>IGP-M Inflation MoMJAN</t>
         </is>
       </c>
       <c r="D2228" t="inlineStr"/>
       <c r="E2228" t="inlineStr">
         <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="F2228" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
+          <t>0.94%</t>
+        </is>
+      </c>
+      <c r="F2228" t="inlineStr"/>
       <c r="G2228" t="inlineStr">
         <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="H2228" t="n">
-        <v>1</v>
+          <t>0.9%</t>
+        </is>
+      </c>
+      <c r="H2228" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2229">
       <c r="A2229" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B2229" t="inlineStr">
@@ -72432,33 +72558,31 @@
       </c>
       <c r="C2229" t="inlineStr">
         <is>
-          <t>GDP Growth Rate QoQ AdvQ4</t>
+          <t>Industrial Sales MoMNOV</t>
         </is>
       </c>
       <c r="D2229" t="inlineStr"/>
       <c r="E2229" t="inlineStr">
         <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F2229" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="F2229" t="inlineStr"/>
       <c r="G2229" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H2229" t="n">
-        <v>1</v>
+          <t>-0.2%</t>
+        </is>
+      </c>
+      <c r="H2229" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2230">
       <c r="A2230" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B2230" t="inlineStr">
@@ -72468,301 +72592,295 @@
       </c>
       <c r="C2230" t="inlineStr">
         <is>
-          <t>GDP Growth Rate YoY AdvQ4</t>
+          <t>Industrial Sales YoYNOV</t>
         </is>
       </c>
       <c r="D2230" t="inlineStr"/>
       <c r="E2230" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>-5.3%</t>
         </is>
       </c>
       <c r="F2230" t="inlineStr"/>
       <c r="G2230" t="inlineStr">
         <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="H2230" t="n">
-        <v>1</v>
+          <t>-5.1%</t>
+        </is>
+      </c>
+      <c r="H2230" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2231">
       <c r="A2231" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B2231" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2231" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>MPC Meeting Summary</t>
         </is>
       </c>
       <c r="D2231" t="inlineStr"/>
-      <c r="E2231" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
+      <c r="E2231" t="inlineStr"/>
       <c r="F2231" t="inlineStr"/>
-      <c r="G2231" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="H2231" t="n">
-        <v>3</v>
+      <c r="G2231" t="inlineStr"/>
+      <c r="H2231" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2232">
       <c r="A2232" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2232" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2232" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Foreign Exchange ReservesJAN/24</t>
         </is>
       </c>
       <c r="D2232" t="inlineStr"/>
       <c r="E2232" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>$96.79B</t>
         </is>
       </c>
       <c r="F2232" t="inlineStr"/>
-      <c r="G2232" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H2232" t="n">
-        <v>3</v>
+      <c r="G2232" t="inlineStr"/>
+      <c r="H2232" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2233">
       <c r="A2233" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2233" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2233" t="inlineStr">
         <is>
-          <t>BoE Consumer CreditDEC</t>
+          <t>CFIB Business BarometerJAN</t>
         </is>
       </c>
       <c r="D2233" t="inlineStr"/>
       <c r="E2233" t="inlineStr">
         <is>
-          <t>£0.878B</t>
+          <t>56.4</t>
         </is>
       </c>
       <c r="F2233" t="inlineStr"/>
       <c r="G2233" t="inlineStr">
         <is>
-          <t>£ 1.3B</t>
-        </is>
-      </c>
-      <c r="H2233" t="n">
-        <v>2</v>
+          <t>56.2</t>
+        </is>
+      </c>
+      <c r="H2233" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2234">
       <c r="A2234" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2234" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2234" t="inlineStr">
         <is>
-          <t>Mortgage ApprovalsDEC</t>
+          <t>GDP Growth Rate QoQ PrelQ4</t>
         </is>
       </c>
       <c r="D2234" t="inlineStr"/>
       <c r="E2234" t="inlineStr">
         <is>
-          <t>65.72K</t>
-        </is>
-      </c>
-      <c r="F2234" t="inlineStr">
-        <is>
-          <t>65K</t>
-        </is>
-      </c>
+          <t>1.1%</t>
+        </is>
+      </c>
+      <c r="F2234" t="inlineStr"/>
       <c r="G2234" t="inlineStr">
         <is>
-          <t>65.1K</t>
-        </is>
-      </c>
-      <c r="H2234" t="n">
-        <v>2</v>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="H2234" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2235">
       <c r="A2235" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2235" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2235" t="inlineStr">
         <is>
-          <t>Mortgage LendingDEC</t>
+          <t>GDP Growth Rate YoY PrelQ4</t>
         </is>
       </c>
       <c r="D2235" t="inlineStr"/>
       <c r="E2235" t="inlineStr">
         <is>
-          <t>£2.47B</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="F2235" t="inlineStr"/>
       <c r="G2235" t="inlineStr">
         <is>
-          <t>£ 2.2B</t>
-        </is>
-      </c>
-      <c r="H2235" t="n">
-        <v>2</v>
+          <t>1.2%</t>
+        </is>
+      </c>
+      <c r="H2235" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2236">
       <c r="A2236" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>05:45 PM</t>
         </is>
       </c>
       <c r="B2236" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2236" t="inlineStr">
         <is>
-          <t>M4 Money Supply MoMDEC</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D2236" t="inlineStr"/>
       <c r="E2236" t="inlineStr">
         <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F2236" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>-4.6</t>
+        </is>
+      </c>
+      <c r="F2236" t="inlineStr"/>
       <c r="G2236" t="inlineStr">
         <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="H2236" t="n">
-        <v>3</v>
+          <t>-5</t>
+        </is>
+      </c>
+      <c r="H2236" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2237">
       <c r="A2237" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2237" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2237" t="inlineStr">
         <is>
-          <t>Net Lending to Individuals MoMDEC</t>
+          <t>Interest Rate Decision</t>
         </is>
       </c>
       <c r="D2237" t="inlineStr"/>
       <c r="E2237" t="inlineStr">
         <is>
-          <t>£3.4B</t>
+          <t>7.75%</t>
         </is>
       </c>
       <c r="F2237" t="inlineStr">
         <is>
-          <t>£3.6B</t>
+          <t>7.50%</t>
         </is>
       </c>
       <c r="G2237" t="inlineStr">
         <is>
-          <t>£3.5B</t>
-        </is>
-      </c>
-      <c r="H2237" t="n">
-        <v>3</v>
+          <t>7.50%</t>
+        </is>
+      </c>
+      <c r="H2237" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2238">
       <c r="A2238" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2238" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2238" t="inlineStr">
         <is>
-          <t>GDP Growth Rate QoQ FlashQ4</t>
+          <t>Prime Overdraft Rate</t>
         </is>
       </c>
       <c r="D2238" t="inlineStr"/>
       <c r="E2238" t="inlineStr">
         <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F2238" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+          <t>11.25%</t>
+        </is>
+      </c>
+      <c r="F2238" t="inlineStr"/>
       <c r="G2238" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H2238" t="n">
-        <v>1</v>
+          <t>11.0%</t>
+        </is>
+      </c>
+      <c r="H2238" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2239">
       <c r="A2239" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>06:45 PM</t>
         </is>
       </c>
       <c r="B2239" t="inlineStr">
@@ -72772,33 +72890,35 @@
       </c>
       <c r="C2239" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>Deposit Facility Rate</t>
         </is>
       </c>
       <c r="D2239" t="inlineStr"/>
       <c r="E2239" t="inlineStr">
         <is>
-          <t>6.3%</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="F2239" t="inlineStr">
         <is>
-          <t>6.3%</t>
+          <t>2.75%</t>
         </is>
       </c>
       <c r="G2239" t="inlineStr">
         <is>
-          <t>6.4%</t>
-        </is>
-      </c>
-      <c r="H2239" t="n">
-        <v>1</v>
+          <t>2.75%</t>
+        </is>
+      </c>
+      <c r="H2239" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="2240">
       <c r="A2240" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>06:45 PM</t>
         </is>
       </c>
       <c r="B2240" t="inlineStr">
@@ -72808,29 +72928,35 @@
       </c>
       <c r="C2240" t="inlineStr">
         <is>
-          <t>Consumer Confidence FinalJAN</t>
+          <t>ECB Interest Rate Decision</t>
         </is>
       </c>
       <c r="D2240" t="inlineStr"/>
       <c r="E2240" t="inlineStr">
         <is>
-          <t>-14.5</t>
+          <t>3.15%</t>
         </is>
       </c>
       <c r="F2240" t="inlineStr">
         <is>
-          <t>-14.2</t>
-        </is>
-      </c>
-      <c r="G2240" t="inlineStr"/>
-      <c r="H2240" t="n">
-        <v>2</v>
+          <t>2.9%</t>
+        </is>
+      </c>
+      <c r="G2240" t="inlineStr">
+        <is>
+          <t>2.9%</t>
+        </is>
+      </c>
+      <c r="H2240" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="2241">
       <c r="A2241" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>06:45 PM</t>
         </is>
       </c>
       <c r="B2241" t="inlineStr">
@@ -72840,845 +72966,817 @@
       </c>
       <c r="C2241" t="inlineStr">
         <is>
-          <t>Economic SentimentJAN</t>
+          <t>Marginal Lending Rate</t>
         </is>
       </c>
       <c r="D2241" t="inlineStr"/>
       <c r="E2241" t="inlineStr">
         <is>
-          <t>93.7</t>
-        </is>
-      </c>
-      <c r="F2241" t="inlineStr">
-        <is>
-          <t>93.3</t>
-        </is>
-      </c>
+          <t>3.4%</t>
+        </is>
+      </c>
+      <c r="F2241" t="inlineStr"/>
       <c r="G2241" t="inlineStr">
         <is>
-          <t>93.5</t>
-        </is>
-      </c>
-      <c r="H2241" t="n">
-        <v>2</v>
+          <t>3.15%</t>
+        </is>
+      </c>
+      <c r="H2241" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2242">
       <c r="A2242" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2242" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2242" t="inlineStr">
         <is>
-          <t>GDP Growth Rate YoY FlashQ4</t>
+          <t>Average Weekly Earnings YoYNOV</t>
         </is>
       </c>
       <c r="D2242" t="inlineStr"/>
       <c r="E2242" t="inlineStr">
         <is>
-          <t>0.9%</t>
-        </is>
-      </c>
-      <c r="F2242" t="inlineStr">
-        <is>
-          <t>1%</t>
-        </is>
-      </c>
+          <t>5.3%</t>
+        </is>
+      </c>
+      <c r="F2242" t="inlineStr"/>
       <c r="G2242" t="inlineStr">
         <is>
-          <t>1.2%</t>
-        </is>
-      </c>
-      <c r="H2242" t="n">
-        <v>2</v>
+          <t>5.0%</t>
+        </is>
+      </c>
+      <c r="H2242" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2243">
       <c r="A2243" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2243" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2243" t="inlineStr">
         <is>
-          <t>Consumer Inflation ExpectationsJAN</t>
+          <t>GDP Growth Rate QoQ AdvQ4</t>
         </is>
       </c>
       <c r="D2243" t="inlineStr"/>
       <c r="E2243" t="inlineStr">
         <is>
-          <t>21.0</t>
-        </is>
-      </c>
-      <c r="F2243" t="inlineStr"/>
+          <t>3.1%</t>
+        </is>
+      </c>
+      <c r="F2243" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
       <c r="G2243" t="inlineStr">
         <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="H2243" t="n">
-        <v>3</v>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="H2243" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="2244">
       <c r="A2244" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2244" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2244" t="inlineStr">
         <is>
-          <t>Industrial SentimentJAN</t>
+          <t>GDP Price Index QoQ AdvQ4</t>
         </is>
       </c>
       <c r="D2244" t="inlineStr"/>
       <c r="E2244" t="inlineStr">
         <is>
-          <t>-14.1</t>
-        </is>
-      </c>
-      <c r="F2244" t="inlineStr"/>
+          <t>1.9%</t>
+        </is>
+      </c>
+      <c r="F2244" t="inlineStr">
+        <is>
+          <t>2.5%</t>
+        </is>
+      </c>
       <c r="G2244" t="inlineStr">
         <is>
-          <t>-14.5</t>
-        </is>
-      </c>
-      <c r="H2244" t="n">
-        <v>3</v>
+          <t>2.3%</t>
+        </is>
+      </c>
+      <c r="H2244" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2245">
       <c r="A2245" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2245" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2245" t="inlineStr">
         <is>
-          <t>Selling Price ExpectationsJAN</t>
+          <t>Initial Jobless ClaimsJAN/25</t>
         </is>
       </c>
       <c r="D2245" t="inlineStr"/>
       <c r="E2245" t="inlineStr">
         <is>
-          <t>7.6</t>
-        </is>
-      </c>
-      <c r="F2245" t="inlineStr"/>
+          <t>223K</t>
+        </is>
+      </c>
+      <c r="F2245" t="inlineStr">
+        <is>
+          <t>225K</t>
+        </is>
+      </c>
       <c r="G2245" t="inlineStr">
         <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="H2245" t="n">
-        <v>3</v>
+          <t>228.0K</t>
+        </is>
+      </c>
+      <c r="H2245" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2246">
       <c r="A2246" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2246" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2246" t="inlineStr">
         <is>
-          <t>Services SentimentJAN</t>
+          <t>Continuing Jobless ClaimsJAN/18</t>
         </is>
       </c>
       <c r="D2246" t="inlineStr"/>
       <c r="E2246" t="inlineStr">
         <is>
-          <t>5.9</t>
+          <t>1899K</t>
         </is>
       </c>
       <c r="F2246" t="inlineStr"/>
       <c r="G2246" t="inlineStr">
         <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="H2246" t="n">
-        <v>3</v>
+          <t>1885.0K</t>
+        </is>
+      </c>
+      <c r="H2246" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2247">
       <c r="A2247" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2247" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2247" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>Core PCE Prices QoQ AdvQ4</t>
         </is>
       </c>
       <c r="D2247" t="inlineStr"/>
       <c r="E2247" t="inlineStr">
         <is>
-          <t>5.7%</t>
-        </is>
-      </c>
-      <c r="F2247" t="inlineStr">
-        <is>
-          <t>5.7%</t>
-        </is>
-      </c>
+          <t>2.2%</t>
+        </is>
+      </c>
+      <c r="F2247" t="inlineStr"/>
       <c r="G2247" t="inlineStr">
         <is>
-          <t>5.6%</t>
-        </is>
-      </c>
-      <c r="H2247" t="n">
-        <v>1</v>
+          <t>1.9%</t>
+        </is>
+      </c>
+      <c r="H2247" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2248">
       <c r="A2248" t="inlineStr">
         <is>
-          <t>03:40 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2248" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2248" t="inlineStr">
         <is>
-          <t>BTP Auction</t>
+          <t>GDP Sales QoQ AdvQ4</t>
         </is>
       </c>
       <c r="D2248" t="inlineStr"/>
-      <c r="E2248" t="inlineStr"/>
+      <c r="E2248" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
       <c r="F2248" t="inlineStr"/>
-      <c r="G2248" t="inlineStr"/>
-      <c r="H2248" t="n">
-        <v>3</v>
+      <c r="G2248" t="inlineStr">
+        <is>
+          <t>2.9%</t>
+        </is>
+      </c>
+      <c r="H2248" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2249">
       <c r="A2249" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2249" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2249" t="inlineStr">
         <is>
-          <t>IGP-M Inflation MoMJAN</t>
+          <t>Jobless Claims 4-week AverageJAN/25</t>
         </is>
       </c>
       <c r="D2249" t="inlineStr"/>
       <c r="E2249" t="inlineStr">
         <is>
-          <t>0.94%</t>
+          <t>213.5K</t>
         </is>
       </c>
       <c r="F2249" t="inlineStr"/>
       <c r="G2249" t="inlineStr">
         <is>
-          <t>0.9%</t>
-        </is>
-      </c>
-      <c r="H2249" t="n">
-        <v>3</v>
+          <t>214.0K</t>
+        </is>
+      </c>
+      <c r="H2249" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2250">
       <c r="A2250" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2250" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2250" t="inlineStr">
         <is>
-          <t>Industrial Sales MoMNOV</t>
+          <t>PCE Prices QoQ AdvQ4</t>
         </is>
       </c>
       <c r="D2250" t="inlineStr"/>
       <c r="E2250" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="F2250" t="inlineStr"/>
       <c r="G2250" t="inlineStr">
         <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="H2250" t="n">
-        <v>3</v>
+          <t>1.1%</t>
+        </is>
+      </c>
+      <c r="H2250" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2251">
       <c r="A2251" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2251" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2251" t="inlineStr">
         <is>
-          <t>Industrial Sales YoYNOV</t>
+          <t>Real Consumer Spending QoQ AdvQ4</t>
         </is>
       </c>
       <c r="D2251" t="inlineStr"/>
       <c r="E2251" t="inlineStr">
         <is>
-          <t>-5.3%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="F2251" t="inlineStr"/>
       <c r="G2251" t="inlineStr">
         <is>
-          <t>-5.1%</t>
-        </is>
-      </c>
-      <c r="H2251" t="n">
-        <v>3</v>
+          <t>2.9%</t>
+        </is>
+      </c>
+      <c r="H2251" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2252">
       <c r="A2252" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>07:15 PM</t>
         </is>
       </c>
       <c r="B2252" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2252" t="inlineStr">
         <is>
-          <t>MPC Meeting Summary</t>
+          <t>ECB Press Conference</t>
         </is>
       </c>
       <c r="D2252" t="inlineStr"/>
       <c r="E2252" t="inlineStr"/>
       <c r="F2252" t="inlineStr"/>
       <c r="G2252" t="inlineStr"/>
-      <c r="H2252" t="n">
-        <v>2</v>
+      <c r="H2252" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="2253">
       <c r="A2253" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2253" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2253" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/24</t>
+          <t>Pending Home Sales MoMDEC</t>
         </is>
       </c>
       <c r="D2253" t="inlineStr"/>
       <c r="E2253" t="inlineStr">
         <is>
-          <t>$96.79B</t>
-        </is>
-      </c>
-      <c r="F2253" t="inlineStr"/>
-      <c r="G2253" t="inlineStr"/>
-      <c r="H2253" t="n">
-        <v>3</v>
+          <t>2.2%</t>
+        </is>
+      </c>
+      <c r="F2253" t="inlineStr">
+        <is>
+          <t>-0.9%</t>
+        </is>
+      </c>
+      <c r="G2253" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="H2253" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2254">
       <c r="A2254" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2254" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2254" t="inlineStr">
         <is>
-          <t>CFIB Business BarometerJAN</t>
+          <t>Pending Home Sales YoYDEC</t>
         </is>
       </c>
       <c r="D2254" t="inlineStr"/>
       <c r="E2254" t="inlineStr">
         <is>
-          <t>56.4</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="F2254" t="inlineStr"/>
       <c r="G2254" t="inlineStr">
         <is>
-          <t>56.2</t>
-        </is>
-      </c>
-      <c r="H2254" t="n">
-        <v>3</v>
+          <t>4.0%</t>
+        </is>
+      </c>
+      <c r="H2254" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2255">
       <c r="A2255" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B2255" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2255" t="inlineStr">
         <is>
-          <t>GDP Growth Rate QoQ PrelQ4</t>
+          <t>EIA Natural Gas Stocks ChangeJAN/24</t>
         </is>
       </c>
       <c r="D2255" t="inlineStr"/>
       <c r="E2255" t="inlineStr">
         <is>
-          <t>1.1%</t>
+          <t>-233Bcf</t>
         </is>
       </c>
       <c r="F2255" t="inlineStr"/>
-      <c r="G2255" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H2255" t="n">
-        <v>2</v>
+      <c r="G2255" t="inlineStr"/>
+      <c r="H2255" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2256">
       <c r="A2256" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B2256" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2256" t="inlineStr">
         <is>
-          <t>GDP Growth Rate YoY PrelQ4</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D2256" t="inlineStr"/>
       <c r="E2256" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>4.265%</t>
         </is>
       </c>
       <c r="F2256" t="inlineStr"/>
-      <c r="G2256" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
-      <c r="H2256" t="n">
-        <v>2</v>
+      <c r="G2256" t="inlineStr"/>
+      <c r="H2256" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2257">
       <c r="A2257" t="inlineStr">
         <is>
-          <t>05:45 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B2257" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2257" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="D2257" t="inlineStr"/>
       <c r="E2257" t="inlineStr">
         <is>
-          <t>-4.6</t>
+          <t>4.250%</t>
         </is>
       </c>
       <c r="F2257" t="inlineStr"/>
-      <c r="G2257" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="H2257" t="n">
-        <v>2</v>
+      <c r="G2257" t="inlineStr"/>
+      <c r="H2257" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2258">
       <c r="A2258" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B2258" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2258" t="inlineStr">
         <is>
-          <t>Interest Rate Decision</t>
+          <t>15-Year Mortgage RateJAN/30</t>
         </is>
       </c>
       <c r="D2258" t="inlineStr"/>
       <c r="E2258" t="inlineStr">
         <is>
-          <t>7.75%</t>
-        </is>
-      </c>
-      <c r="F2258" t="inlineStr">
-        <is>
-          <t>7.50%</t>
-        </is>
-      </c>
-      <c r="G2258" t="inlineStr">
-        <is>
-          <t>7.50%</t>
-        </is>
-      </c>
-      <c r="H2258" t="n">
-        <v>3</v>
+          <t>6.16%</t>
+        </is>
+      </c>
+      <c r="F2258" t="inlineStr"/>
+      <c r="G2258" t="inlineStr"/>
+      <c r="H2258" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2259">
       <c r="A2259" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B2259" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2259" t="inlineStr">
         <is>
-          <t>Prime Overdraft Rate</t>
+          <t>30-Year Mortgage RateJAN/30</t>
         </is>
       </c>
       <c r="D2259" t="inlineStr"/>
       <c r="E2259" t="inlineStr">
         <is>
-          <t>11.25%</t>
+          <t>6.96%</t>
         </is>
       </c>
       <c r="F2259" t="inlineStr"/>
-      <c r="G2259" t="inlineStr">
-        <is>
-          <t>11.0%</t>
-        </is>
-      </c>
-      <c r="H2259" t="n">
-        <v>3</v>
+      <c r="G2259" t="inlineStr"/>
+      <c r="H2259" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2260">
-      <c r="A2260" t="inlineStr">
-        <is>
-          <t>06:45 PM</t>
-        </is>
-      </c>
+      <c r="A2260" t="inlineStr"/>
       <c r="B2260" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2260" t="inlineStr">
         <is>
-          <t>Deposit Facility Rate</t>
+          <t>Budget BalanceDEC</t>
         </is>
       </c>
       <c r="D2260" t="inlineStr"/>
       <c r="E2260" t="inlineStr">
         <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="F2260" t="inlineStr">
-        <is>
-          <t>2.75%</t>
-        </is>
-      </c>
+          <t>ZAR-4.46B</t>
+        </is>
+      </c>
+      <c r="F2260" t="inlineStr"/>
       <c r="G2260" t="inlineStr">
         <is>
-          <t>2.75%</t>
-        </is>
-      </c>
-      <c r="H2260" t="n">
-        <v>1</v>
+          <t>ZAR14.0B</t>
+        </is>
+      </c>
+      <c r="H2260" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2261">
-      <c r="A2261" t="inlineStr">
-        <is>
-          <t>06:45 PM</t>
-        </is>
-      </c>
+      <c r="A2261" t="inlineStr"/>
       <c r="B2261" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C2261" t="inlineStr">
         <is>
-          <t>ECB Interest Rate Decision</t>
+          <t>M3 Money Supply YoYDEC</t>
         </is>
       </c>
       <c r="D2261" t="inlineStr"/>
       <c r="E2261" t="inlineStr">
         <is>
-          <t>3.15%</t>
-        </is>
-      </c>
-      <c r="F2261" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
+          <t>10.3%</t>
+        </is>
+      </c>
+      <c r="F2261" t="inlineStr"/>
       <c r="G2261" t="inlineStr">
         <is>
-          <t>2.9%</t>
-        </is>
-      </c>
-      <c r="H2261" t="n">
-        <v>1</v>
+          <t>10.6%</t>
+        </is>
+      </c>
+      <c r="H2261" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2262">
-      <c r="A2262" t="inlineStr">
-        <is>
-          <t>06:45 PM</t>
-        </is>
-      </c>
+      <c r="A2262" t="inlineStr"/>
       <c r="B2262" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C2262" t="inlineStr">
         <is>
-          <t>Marginal Lending Rate</t>
+          <t>Private Bank Lending YoYDEC</t>
         </is>
       </c>
       <c r="D2262" t="inlineStr"/>
       <c r="E2262" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>12.7%</t>
         </is>
       </c>
       <c r="F2262" t="inlineStr"/>
       <c r="G2262" t="inlineStr">
         <is>
-          <t>3.15%</t>
-        </is>
-      </c>
-      <c r="H2262" t="n">
-        <v>3</v>
+          <t>12.8%</t>
+        </is>
+      </c>
+      <c r="H2262" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2263">
-      <c r="A2263" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A2263" t="inlineStr"/>
       <c r="B2263" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2263" t="inlineStr">
         <is>
-          <t>Average Weekly Earnings YoYNOV</t>
+          <t>10-Year NTN-F Auction</t>
         </is>
       </c>
       <c r="D2263" t="inlineStr"/>
       <c r="E2263" t="inlineStr">
         <is>
-          <t>5.3%</t>
+          <t>15.1819%</t>
         </is>
       </c>
       <c r="F2263" t="inlineStr"/>
-      <c r="G2263" t="inlineStr">
-        <is>
-          <t>5.0%</t>
-        </is>
-      </c>
-      <c r="H2263" t="n">
-        <v>3</v>
+      <c r="G2263" t="inlineStr"/>
+      <c r="H2263" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2264">
-      <c r="A2264" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A2264" t="inlineStr"/>
       <c r="B2264" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2264" t="inlineStr">
         <is>
-          <t>GDP Growth Rate QoQ AdvQ4</t>
+          <t>2-Year LTN Auction</t>
         </is>
       </c>
       <c r="D2264" t="inlineStr"/>
       <c r="E2264" t="inlineStr">
         <is>
-          <t>3.1%</t>
-        </is>
-      </c>
-      <c r="F2264" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="G2264" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="H2264" t="n">
-        <v>1</v>
+          <t>15.2840%</t>
+        </is>
+      </c>
+      <c r="F2264" t="inlineStr"/>
+      <c r="G2264" t="inlineStr"/>
+      <c r="H2264" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2265">
-      <c r="A2265" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A2265" t="inlineStr"/>
       <c r="B2265" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2265" t="inlineStr">
         <is>
-          <t>GDP Price Index QoQ AdvQ4</t>
+          <t>Net PayrollsDEC</t>
         </is>
       </c>
       <c r="D2265" t="inlineStr"/>
       <c r="E2265" t="inlineStr">
         <is>
-          <t>1.9%</t>
-        </is>
-      </c>
-      <c r="F2265" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
+          <t>106.63K</t>
+        </is>
+      </c>
+      <c r="F2265" t="inlineStr"/>
       <c r="G2265" t="inlineStr">
         <is>
-          <t>2.3%</t>
-        </is>
-      </c>
-      <c r="H2265" t="n">
-        <v>2</v>
+          <t>90.0K</t>
+        </is>
+      </c>
+      <c r="H2265" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2266">
       <c r="A2266" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2266" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2266" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsJAN/25</t>
-        </is>
-      </c>
+          <t>Friday January 31 2025</t>
+        </is>
+      </c>
+      <c r="B2266" t="inlineStr"/>
+      <c r="C2266" t="inlineStr"/>
       <c r="D2266" t="inlineStr"/>
-      <c r="E2266" t="inlineStr">
-        <is>
-          <t>223K</t>
-        </is>
-      </c>
-      <c r="F2266" t="inlineStr">
-        <is>
-          <t>225K</t>
-        </is>
-      </c>
-      <c r="G2266" t="inlineStr">
-        <is>
-          <t>228.0K</t>
-        </is>
-      </c>
-      <c r="H2266" t="n">
-        <v>2</v>
-      </c>
+      <c r="E2266" t="inlineStr"/>
+      <c r="F2266" t="inlineStr"/>
+      <c r="G2266" t="inlineStr"/>
+      <c r="H2266" t="inlineStr"/>
     </row>
     <row r="2267">
       <c r="A2267" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B2267" t="inlineStr">
@@ -73688,611 +73786,721 @@
       </c>
       <c r="C2267" t="inlineStr">
         <is>
-          <t>Continuing Jobless ClaimsJAN/18</t>
+          <t>Fed Balance SheetJAN/29</t>
         </is>
       </c>
       <c r="D2267" t="inlineStr"/>
       <c r="E2267" t="inlineStr">
         <is>
-          <t>1899K</t>
+          <t>$6.88T</t>
         </is>
       </c>
       <c r="F2267" t="inlineStr"/>
-      <c r="G2267" t="inlineStr">
-        <is>
-          <t>1885.0K</t>
-        </is>
-      </c>
-      <c r="H2267" t="n">
-        <v>3</v>
+      <c r="G2267" t="inlineStr"/>
+      <c r="H2267" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2268">
       <c r="A2268" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2268" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2268" t="inlineStr">
         <is>
-          <t>Core PCE Prices QoQ AdvQ4</t>
+          <t>Unemployment RateDEC</t>
         </is>
       </c>
       <c r="D2268" t="inlineStr"/>
       <c r="E2268" t="inlineStr">
         <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="F2268" t="inlineStr"/>
+          <t>2.5%</t>
+        </is>
+      </c>
+      <c r="F2268" t="inlineStr">
+        <is>
+          <t>2.5%</t>
+        </is>
+      </c>
       <c r="G2268" t="inlineStr">
         <is>
-          <t>1.9%</t>
-        </is>
-      </c>
-      <c r="H2268" t="n">
-        <v>3</v>
+          <t>2.50%</t>
+        </is>
+      </c>
+      <c r="H2268" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2269">
       <c r="A2269" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2269" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2269" t="inlineStr">
         <is>
-          <t>GDP Sales QoQ AdvQ4</t>
+          <t>Jobs/applications ratioDEC</t>
         </is>
       </c>
       <c r="D2269" t="inlineStr"/>
       <c r="E2269" t="inlineStr">
         <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="F2269" t="inlineStr"/>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="F2269" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
       <c r="G2269" t="inlineStr">
         <is>
-          <t>2.9%</t>
-        </is>
-      </c>
-      <c r="H2269" t="n">
-        <v>3</v>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="H2269" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2270">
       <c r="A2270" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2270" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2270" t="inlineStr">
         <is>
-          <t>Jobless Claims 4-week AverageJAN/25</t>
+          <t>Tokyo Core CPI YoYJAN</t>
         </is>
       </c>
       <c r="D2270" t="inlineStr"/>
       <c r="E2270" t="inlineStr">
         <is>
-          <t>213.5K</t>
-        </is>
-      </c>
-      <c r="F2270" t="inlineStr"/>
+          <t>2.4%</t>
+        </is>
+      </c>
+      <c r="F2270" t="inlineStr">
+        <is>
+          <t>2.5%</t>
+        </is>
+      </c>
       <c r="G2270" t="inlineStr">
         <is>
-          <t>214.0K</t>
-        </is>
-      </c>
-      <c r="H2270" t="n">
-        <v>3</v>
+          <t>2.5%</t>
+        </is>
+      </c>
+      <c r="H2270" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2271">
       <c r="A2271" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2271" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2271" t="inlineStr">
         <is>
-          <t>PCE Prices QoQ AdvQ4</t>
+          <t>Tokyo CPI Ex Food and Energy YoYJAN</t>
         </is>
       </c>
       <c r="D2271" t="inlineStr"/>
       <c r="E2271" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>1.1%</t>
         </is>
       </c>
       <c r="F2271" t="inlineStr"/>
       <c r="G2271" t="inlineStr">
         <is>
-          <t>1.1%</t>
-        </is>
-      </c>
-      <c r="H2271" t="n">
-        <v>3</v>
+          <t>1.2%</t>
+        </is>
+      </c>
+      <c r="H2271" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2272">
       <c r="A2272" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2272" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2272" t="inlineStr">
         <is>
-          <t>Real Consumer Spending QoQ AdvQ4</t>
+          <t>Tokyo CPI YoYJAN</t>
         </is>
       </c>
       <c r="D2272" t="inlineStr"/>
       <c r="E2272" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="F2272" t="inlineStr"/>
       <c r="G2272" t="inlineStr">
         <is>
-          <t>2.9%</t>
-        </is>
-      </c>
-      <c r="H2272" t="n">
-        <v>3</v>
+          <t>3.1%</t>
+        </is>
+      </c>
+      <c r="H2272" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2273">
       <c r="A2273" t="inlineStr">
         <is>
-          <t>07:15 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B2273" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2273" t="inlineStr">
         <is>
-          <t>ECB Press Conference</t>
+          <t>Industrial Production MoM PrelDEC</t>
         </is>
       </c>
       <c r="D2273" t="inlineStr"/>
-      <c r="E2273" t="inlineStr"/>
-      <c r="F2273" t="inlineStr"/>
-      <c r="G2273" t="inlineStr"/>
-      <c r="H2273" t="n">
-        <v>1</v>
+      <c r="E2273" t="inlineStr">
+        <is>
+          <t>-2.2%</t>
+        </is>
+      </c>
+      <c r="F2273" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="G2273" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="H2273" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2274">
       <c r="A2274" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B2274" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2274" t="inlineStr">
         <is>
-          <t>Pending Home Sales MoMDEC</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="D2274" t="inlineStr"/>
       <c r="E2274" t="inlineStr">
         <is>
-          <t>2.2%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="F2274" t="inlineStr">
         <is>
-          <t>-0.9%</t>
+          <t>3.2%</t>
         </is>
       </c>
       <c r="G2274" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H2274" t="n">
-        <v>2</v>
+          <t>2%</t>
+        </is>
+      </c>
+      <c r="H2274" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2275">
       <c r="A2275" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B2275" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2275" t="inlineStr">
         <is>
-          <t>Pending Home Sales YoYDEC</t>
+          <t>Industrial Production YoY PrelDEC</t>
         </is>
       </c>
       <c r="D2275" t="inlineStr"/>
       <c r="E2275" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>-2.8%</t>
         </is>
       </c>
       <c r="F2275" t="inlineStr"/>
       <c r="G2275" t="inlineStr">
         <is>
-          <t>4.0%</t>
-        </is>
-      </c>
-      <c r="H2275" t="n">
-        <v>2</v>
+          <t>-1.6%</t>
+        </is>
+      </c>
+      <c r="H2275" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2276">
       <c r="A2276" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B2276" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2276" t="inlineStr">
         <is>
-          <t>EIA Natural Gas Stocks ChangeJAN/24</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D2276" t="inlineStr"/>
       <c r="E2276" t="inlineStr">
         <is>
-          <t>-233Bcf</t>
+          <t>1.8%</t>
         </is>
       </c>
       <c r="F2276" t="inlineStr"/>
-      <c r="G2276" t="inlineStr"/>
-      <c r="H2276" t="n">
-        <v>3</v>
+      <c r="G2276" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="H2276" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2277">
       <c r="A2277" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2277" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2277" t="inlineStr">
         <is>
-          <t>4-Week Bill Auction</t>
+          <t>PPI QoQQ4</t>
         </is>
       </c>
       <c r="D2277" t="inlineStr"/>
       <c r="E2277" t="inlineStr">
         <is>
-          <t>4.265%</t>
+          <t>0.9%</t>
         </is>
       </c>
       <c r="F2277" t="inlineStr"/>
-      <c r="G2277" t="inlineStr"/>
-      <c r="H2277" t="n">
-        <v>3</v>
+      <c r="G2277" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
+      <c r="H2277" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2278">
       <c r="A2278" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2278" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2278" t="inlineStr">
         <is>
-          <t>8-Week Bill Auction</t>
+          <t>Housing Credit MoMDEC</t>
         </is>
       </c>
       <c r="D2278" t="inlineStr"/>
       <c r="E2278" t="inlineStr">
         <is>
-          <t>4.250%</t>
-        </is>
-      </c>
-      <c r="F2278" t="inlineStr"/>
-      <c r="G2278" t="inlineStr"/>
-      <c r="H2278" t="n">
-        <v>3</v>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="F2278" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="G2278" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="H2278" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2279">
       <c r="A2279" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2279" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2279" t="inlineStr">
         <is>
-          <t>15-Year Mortgage RateJAN/30</t>
+          <t>PPI YoYQ4</t>
         </is>
       </c>
       <c r="D2279" t="inlineStr"/>
       <c r="E2279" t="inlineStr">
         <is>
-          <t>6.16%</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="F2279" t="inlineStr"/>
-      <c r="G2279" t="inlineStr"/>
-      <c r="H2279" t="n">
-        <v>3</v>
+      <c r="G2279" t="inlineStr">
+        <is>
+          <t>3.6%</t>
+        </is>
+      </c>
+      <c r="H2279" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2280">
       <c r="A2280" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2280" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2280" t="inlineStr">
         <is>
-          <t>30-Year Mortgage RateJAN/30</t>
+          <t>Private Sector Credit MoMDEC</t>
         </is>
       </c>
       <c r="D2280" t="inlineStr"/>
       <c r="E2280" t="inlineStr">
         <is>
-          <t>6.96%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F2280" t="inlineStr"/>
-      <c r="G2280" t="inlineStr"/>
-      <c r="H2280" t="n">
-        <v>3</v>
+      <c r="G2280" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="H2280" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2281">
-      <c r="A2281" t="inlineStr"/>
+      <c r="A2281" t="inlineStr">
+        <is>
+          <t>06:00 AM</t>
+        </is>
+      </c>
       <c r="B2281" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2281" t="inlineStr">
         <is>
-          <t>Budget BalanceDEC</t>
+          <t>Private Sector Credit YoYDEC</t>
         </is>
       </c>
       <c r="D2281" t="inlineStr"/>
       <c r="E2281" t="inlineStr">
         <is>
-          <t>ZAR-4.46B</t>
+          <t>6.2%</t>
         </is>
       </c>
       <c r="F2281" t="inlineStr"/>
       <c r="G2281" t="inlineStr">
         <is>
-          <t>ZAR14.0B</t>
-        </is>
-      </c>
-      <c r="H2281" t="n">
-        <v>3</v>
+          <t>5.7%</t>
+        </is>
+      </c>
+      <c r="H2281" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2282">
-      <c r="A2282" t="inlineStr"/>
+      <c r="A2282" t="inlineStr">
+        <is>
+          <t>07:30 AM</t>
+        </is>
+      </c>
       <c r="B2282" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2282" t="inlineStr">
         <is>
-          <t>M3 Money Supply YoYDEC</t>
+          <t>Bank LendingDEC</t>
         </is>
       </c>
       <c r="D2282" t="inlineStr"/>
       <c r="E2282" t="inlineStr">
         <is>
-          <t>10.3%</t>
+          <t>S$819.4B</t>
         </is>
       </c>
       <c r="F2282" t="inlineStr"/>
       <c r="G2282" t="inlineStr">
         <is>
-          <t>10.6%</t>
-        </is>
-      </c>
-      <c r="H2282" t="n">
-        <v>3</v>
+          <t>S$ 818.2B</t>
+        </is>
+      </c>
+      <c r="H2282" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2283">
-      <c r="A2283" t="inlineStr"/>
+      <c r="A2283" t="inlineStr">
+        <is>
+          <t>09:05 AM</t>
+        </is>
+      </c>
       <c r="B2283" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2283" t="inlineStr">
         <is>
-          <t>Private Bank Lending YoYDEC</t>
+          <t>2-Year JGB Auction</t>
         </is>
       </c>
       <c r="D2283" t="inlineStr"/>
       <c r="E2283" t="inlineStr">
         <is>
-          <t>12.7%</t>
+          <t>0.602%</t>
         </is>
       </c>
       <c r="F2283" t="inlineStr"/>
-      <c r="G2283" t="inlineStr">
-        <is>
-          <t>12.8%</t>
-        </is>
-      </c>
-      <c r="H2283" t="n">
-        <v>3</v>
+      <c r="G2283" t="inlineStr"/>
+      <c r="H2283" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2284">
-      <c r="A2284" t="inlineStr"/>
+      <c r="A2284" t="inlineStr">
+        <is>
+          <t>09:05 AM</t>
+        </is>
+      </c>
       <c r="B2284" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2284" t="inlineStr">
         <is>
-          <t>10-Year NTN-F Auction</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2284" t="inlineStr"/>
       <c r="E2284" t="inlineStr">
         <is>
-          <t>15.1819%</t>
+          <t>0.3657%</t>
         </is>
       </c>
       <c r="F2284" t="inlineStr"/>
       <c r="G2284" t="inlineStr"/>
-      <c r="H2284" t="n">
-        <v>3</v>
+      <c r="H2284" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2285">
-      <c r="A2285" t="inlineStr"/>
+      <c r="A2285" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
       <c r="B2285" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2285" t="inlineStr">
         <is>
-          <t>2-Year LTN Auction</t>
+          <t>Housing Starts YoYDEC</t>
         </is>
       </c>
       <c r="D2285" t="inlineStr"/>
       <c r="E2285" t="inlineStr">
         <is>
-          <t>15.2840%</t>
-        </is>
-      </c>
-      <c r="F2285" t="inlineStr"/>
-      <c r="G2285" t="inlineStr"/>
-      <c r="H2285" t="n">
-        <v>3</v>
+          <t>-1.8%</t>
+        </is>
+      </c>
+      <c r="F2285" t="inlineStr">
+        <is>
+          <t>-3.9%</t>
+        </is>
+      </c>
+      <c r="G2285" t="inlineStr">
+        <is>
+          <t>-3.3%</t>
+        </is>
+      </c>
+      <c r="H2285" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2286">
-      <c r="A2286" t="inlineStr"/>
+      <c r="A2286" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
       <c r="B2286" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2286" t="inlineStr">
         <is>
-          <t>Net PayrollsDEC</t>
+          <t>Construction Orders YoYDEC</t>
         </is>
       </c>
       <c r="D2286" t="inlineStr"/>
       <c r="E2286" t="inlineStr">
         <is>
-          <t>106.63K</t>
+          <t>-10.2%</t>
         </is>
       </c>
       <c r="F2286" t="inlineStr"/>
       <c r="G2286" t="inlineStr">
         <is>
-          <t>90.0K</t>
-        </is>
-      </c>
-      <c r="H2286" t="n">
-        <v>3</v>
+          <t>5.5%</t>
+        </is>
+      </c>
+      <c r="H2286" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2287">
       <c r="A2287" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2287" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2287" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Business ConfidenceQ4</t>
         </is>
       </c>
       <c r="D2287" t="inlineStr"/>
       <c r="E2287" t="inlineStr">
         <is>
-          <t>-0.6%</t>
-        </is>
-      </c>
-      <c r="F2287" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F2287" t="inlineStr"/>
       <c r="G2287" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H2287" t="n">
-        <v>2</v>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H2287" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2288">
@@ -74308,23 +74516,29 @@
       </c>
       <c r="C2288" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D2288" t="inlineStr"/>
       <c r="E2288" t="inlineStr">
         <is>
-          <t>2.5%</t>
-        </is>
-      </c>
-      <c r="F2288" t="inlineStr"/>
+          <t>-0.6%</t>
+        </is>
+      </c>
+      <c r="F2288" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
       <c r="G2288" t="inlineStr">
         <is>
-          <t>1.9%</t>
-        </is>
-      </c>
-      <c r="H2288" t="n">
-        <v>2</v>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="H2288" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2289">
@@ -74335,28 +74549,30 @@
       </c>
       <c r="B2289" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2289" t="inlineStr">
         <is>
-          <t>Balance of Trade FinalDEC</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="D2289" t="inlineStr"/>
       <c r="E2289" t="inlineStr">
         <is>
-          <t>$-7.46B</t>
+          <t>2.5%</t>
         </is>
       </c>
       <c r="F2289" t="inlineStr"/>
       <c r="G2289" t="inlineStr">
         <is>
-          <t>$-8.82B</t>
-        </is>
-      </c>
-      <c r="H2289" t="n">
-        <v>2</v>
+          <t>1.9%</t>
+        </is>
+      </c>
+      <c r="H2289" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2290">
@@ -74372,27 +74588,25 @@
       </c>
       <c r="C2290" t="inlineStr">
         <is>
-          <t>Exports FinalDEC</t>
+          <t>Balance of Trade FinalDEC</t>
         </is>
       </c>
       <c r="D2290" t="inlineStr"/>
       <c r="E2290" t="inlineStr">
         <is>
-          <t>$22.29B</t>
-        </is>
-      </c>
-      <c r="F2290" t="inlineStr">
-        <is>
-          <t>$23.46B</t>
-        </is>
-      </c>
+          <t>$-7.46B</t>
+        </is>
+      </c>
+      <c r="F2290" t="inlineStr"/>
       <c r="G2290" t="inlineStr">
         <is>
-          <t>$ 23.46B</t>
-        </is>
-      </c>
-      <c r="H2290" t="n">
-        <v>3</v>
+          <t>$-8.82B</t>
+        </is>
+      </c>
+      <c r="H2290" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2291">
@@ -74408,23 +74622,29 @@
       </c>
       <c r="C2291" t="inlineStr">
         <is>
-          <t>Imports FinalDEC</t>
+          <t>Exports FinalDEC</t>
         </is>
       </c>
       <c r="D2291" t="inlineStr"/>
       <c r="E2291" t="inlineStr">
         <is>
-          <t>$29.75B</t>
-        </is>
-      </c>
-      <c r="F2291" t="inlineStr"/>
+          <t>$22.29B</t>
+        </is>
+      </c>
+      <c r="F2291" t="inlineStr">
+        <is>
+          <t>$23.46B</t>
+        </is>
+      </c>
       <c r="G2291" t="inlineStr">
         <is>
-          <t>$32.29B</t>
-        </is>
-      </c>
-      <c r="H2291" t="n">
-        <v>3</v>
+          <t>$ 23.46B</t>
+        </is>
+      </c>
+      <c r="H2291" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2292">
@@ -74440,23 +74660,25 @@
       </c>
       <c r="C2292" t="inlineStr">
         <is>
-          <t>Tourism RevenuesQ4</t>
+          <t>Imports FinalDEC</t>
         </is>
       </c>
       <c r="D2292" t="inlineStr"/>
       <c r="E2292" t="inlineStr">
         <is>
-          <t>$23.22B</t>
+          <t>$29.75B</t>
         </is>
       </c>
       <c r="F2292" t="inlineStr"/>
       <c r="G2292" t="inlineStr">
         <is>
-          <t>$ 23.5B</t>
-        </is>
-      </c>
-      <c r="H2292" t="n">
-        <v>3</v>
+          <t>$32.29B</t>
+        </is>
+      </c>
+      <c r="H2292" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2293">
@@ -74467,28 +74689,30 @@
       </c>
       <c r="B2293" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2293" t="inlineStr">
         <is>
-          <t>Nationwide Housing Prices MoMJAN</t>
+          <t>Tourism RevenuesQ4</t>
         </is>
       </c>
       <c r="D2293" t="inlineStr"/>
       <c r="E2293" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>$23.22B</t>
         </is>
       </c>
       <c r="F2293" t="inlineStr"/>
       <c r="G2293" t="inlineStr">
         <is>
-          <t>0.9%</t>
-        </is>
-      </c>
-      <c r="H2293" t="n">
-        <v>2</v>
+          <t>$ 23.5B</t>
+        </is>
+      </c>
+      <c r="H2293" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2294">
@@ -74504,55 +74728,59 @@
       </c>
       <c r="C2294" t="inlineStr">
         <is>
-          <t>Nationwide Housing Prices YoYJAN</t>
+          <t>Nationwide Housing Prices MoMJAN</t>
         </is>
       </c>
       <c r="D2294" t="inlineStr"/>
       <c r="E2294" t="inlineStr">
         <is>
-          <t>4.7%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="F2294" t="inlineStr"/>
       <c r="G2294" t="inlineStr">
         <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="H2294" t="n">
-        <v>2</v>
+          <t>0.9%</t>
+        </is>
+      </c>
+      <c r="H2294" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2295">
       <c r="A2295" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2295" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2295" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelJAN</t>
+          <t>Nationwide Housing Prices YoYJAN</t>
         </is>
       </c>
       <c r="D2295" t="inlineStr"/>
       <c r="E2295" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>4.7%</t>
         </is>
       </c>
       <c r="F2295" t="inlineStr"/>
       <c r="G2295" t="inlineStr">
         <is>
-          <t>1.5%</t>
-        </is>
-      </c>
-      <c r="H2295" t="n">
-        <v>1</v>
+          <t>3.3%</t>
+        </is>
+      </c>
+      <c r="H2295" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2296">
@@ -74568,27 +74796,25 @@
       </c>
       <c r="C2296" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM PrelJAN</t>
+          <t>Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2296" t="inlineStr"/>
       <c r="E2296" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F2296" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
+          <t>1.3%</t>
+        </is>
+      </c>
+      <c r="F2296" t="inlineStr"/>
       <c r="G2296" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H2296" t="n">
-        <v>2</v>
+          <t>1.5%</t>
+        </is>
+      </c>
+      <c r="H2296" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="2297">
@@ -74604,7 +74830,7 @@
       </c>
       <c r="C2297" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM PrelJAN</t>
+          <t>Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2297" t="inlineStr"/>
@@ -74613,14 +74839,20 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="F2297" t="inlineStr"/>
+      <c r="F2297" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
       <c r="G2297" t="inlineStr">
         <is>
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2297" t="n">
-        <v>3</v>
+      <c r="H2297" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2298">
@@ -74636,23 +74868,25 @@
       </c>
       <c r="C2298" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY PrelJAN</t>
+          <t>Harmonised Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2298" t="inlineStr"/>
       <c r="E2298" t="inlineStr">
         <is>
-          <t>1.8%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F2298" t="inlineStr"/>
       <c r="G2298" t="inlineStr">
         <is>
-          <t>2.0%</t>
-        </is>
-      </c>
-      <c r="H2298" t="n">
-        <v>3</v>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="H2298" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2299">
@@ -74668,23 +74902,25 @@
       </c>
       <c r="C2299" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Harmonised Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2299" t="inlineStr"/>
       <c r="E2299" t="inlineStr">
         <is>
-          <t>3.2%</t>
+          <t>1.8%</t>
         </is>
       </c>
       <c r="F2299" t="inlineStr"/>
       <c r="G2299" t="inlineStr">
         <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H2299" t="n">
-        <v>3</v>
+          <t>2.0%</t>
+        </is>
+      </c>
+      <c r="H2299" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2300">
@@ -74700,55 +74936,59 @@
       </c>
       <c r="C2300" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D2300" t="inlineStr"/>
       <c r="E2300" t="inlineStr">
         <is>
-          <t>-5.2%</t>
+          <t>3.2%</t>
         </is>
       </c>
       <c r="F2300" t="inlineStr"/>
       <c r="G2300" t="inlineStr">
         <is>
-          <t>-4.3%</t>
-        </is>
-      </c>
-      <c r="H2300" t="n">
-        <v>3</v>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="H2300" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2301">
       <c r="A2301" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2301" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2301" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D2301" t="inlineStr"/>
       <c r="E2301" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>-5.2%</t>
         </is>
       </c>
       <c r="F2301" t="inlineStr"/>
       <c r="G2301" t="inlineStr">
         <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="H2301" t="n">
-        <v>3</v>
+          <t>-4.3%</t>
+        </is>
+      </c>
+      <c r="H2301" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2302">
@@ -74764,23 +75004,25 @@
       </c>
       <c r="C2302" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D2302" t="inlineStr"/>
       <c r="E2302" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>-0.6%</t>
         </is>
       </c>
       <c r="F2302" t="inlineStr"/>
       <c r="G2302" t="inlineStr">
         <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H2302" t="n">
-        <v>3</v>
+          <t>0.6%</t>
+        </is>
+      </c>
+      <c r="H2302" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2303">
@@ -74791,60 +75033,60 @@
       </c>
       <c r="B2303" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2303" t="inlineStr">
         <is>
-          <t>Tourist Arrivals YoYDEC</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="D2303" t="inlineStr"/>
       <c r="E2303" t="inlineStr">
         <is>
-          <t>8.25%</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="F2303" t="inlineStr"/>
-      <c r="G2303" t="inlineStr"/>
-      <c r="H2303" t="n">
-        <v>3</v>
+      <c r="G2303" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="H2303" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2304">
       <c r="A2304" t="inlineStr">
         <is>
-          <t>02:25 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2304" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2304" t="inlineStr">
         <is>
-          <t>Unemployment ChangeJAN</t>
+          <t>Tourist Arrivals YoYDEC</t>
         </is>
       </c>
       <c r="D2304" t="inlineStr"/>
       <c r="E2304" t="inlineStr">
         <is>
-          <t>10K</t>
-        </is>
-      </c>
-      <c r="F2304" t="inlineStr">
-        <is>
-          <t>15K</t>
-        </is>
-      </c>
-      <c r="G2304" t="inlineStr">
-        <is>
-          <t>7.0K</t>
-        </is>
-      </c>
-      <c r="H2304" t="n">
-        <v>1</v>
+          <t>8.25%</t>
+        </is>
+      </c>
+      <c r="F2304" t="inlineStr"/>
+      <c r="G2304" t="inlineStr"/>
+      <c r="H2304" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2305">
@@ -74860,23 +75102,29 @@
       </c>
       <c r="C2305" t="inlineStr">
         <is>
-          <t>Unemployed PersonsJAN</t>
+          <t>Unemployment ChangeJAN</t>
         </is>
       </c>
       <c r="D2305" t="inlineStr"/>
       <c r="E2305" t="inlineStr">
         <is>
-          <t>2.869M</t>
-        </is>
-      </c>
-      <c r="F2305" t="inlineStr"/>
+          <t>10K</t>
+        </is>
+      </c>
+      <c r="F2305" t="inlineStr">
+        <is>
+          <t>15K</t>
+        </is>
+      </c>
       <c r="G2305" t="inlineStr">
         <is>
-          <t>2.876M</t>
-        </is>
-      </c>
-      <c r="H2305" t="n">
-        <v>2</v>
+          <t>7.0K</t>
+        </is>
+      </c>
+      <c r="H2305" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="2306">
@@ -74892,51 +75140,63 @@
       </c>
       <c r="C2306" t="inlineStr">
         <is>
-          <t>Unemployment RateJAN</t>
+          <t>Unemployed PersonsJAN</t>
         </is>
       </c>
       <c r="D2306" t="inlineStr"/>
       <c r="E2306" t="inlineStr">
         <is>
-          <t>6.1%</t>
-        </is>
-      </c>
-      <c r="F2306" t="inlineStr">
-        <is>
-          <t>6.2%</t>
-        </is>
-      </c>
+          <t>2.869M</t>
+        </is>
+      </c>
+      <c r="F2306" t="inlineStr"/>
       <c r="G2306" t="inlineStr">
         <is>
-          <t>6.2%</t>
-        </is>
-      </c>
-      <c r="H2306" t="n">
-        <v>2</v>
+          <t>2.876M</t>
+        </is>
+      </c>
+      <c r="H2306" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2307">
       <c r="A2307" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>02:25 PM</t>
         </is>
       </c>
       <c r="B2307" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2307" t="inlineStr">
         <is>
-          <t>ECB Survey of Professional Forecasters</t>
+          <t>Unemployment RateJAN</t>
         </is>
       </c>
       <c r="D2307" t="inlineStr"/>
-      <c r="E2307" t="inlineStr"/>
-      <c r="F2307" t="inlineStr"/>
-      <c r="G2307" t="inlineStr"/>
-      <c r="H2307" t="n">
-        <v>2</v>
+      <c r="E2307" t="inlineStr">
+        <is>
+          <t>6.1%</t>
+        </is>
+      </c>
+      <c r="F2307" t="inlineStr">
+        <is>
+          <t>6.2%</t>
+        </is>
+      </c>
+      <c r="G2307" t="inlineStr">
+        <is>
+          <t>6.2%</t>
+        </is>
+      </c>
+      <c r="H2307" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2308">
@@ -74947,24 +75207,22 @@
       </c>
       <c r="B2308" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2308" t="inlineStr">
         <is>
-          <t>Baden Wuerttemberg CPI MoMJAN</t>
+          <t>ECB Survey of Professional Forecasters</t>
         </is>
       </c>
       <c r="D2308" t="inlineStr"/>
-      <c r="E2308" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="E2308" t="inlineStr"/>
       <c r="F2308" t="inlineStr"/>
       <c r="G2308" t="inlineStr"/>
-      <c r="H2308" t="n">
-        <v>3</v>
+      <c r="H2308" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2309">
@@ -74980,19 +75238,21 @@
       </c>
       <c r="C2309" t="inlineStr">
         <is>
-          <t>Baden Wuerttemberg CPI YoYJAN</t>
+          <t>Baden Wuerttemberg CPI MoMJAN</t>
         </is>
       </c>
       <c r="D2309" t="inlineStr"/>
       <c r="E2309" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F2309" t="inlineStr"/>
       <c r="G2309" t="inlineStr"/>
-      <c r="H2309" t="n">
-        <v>3</v>
+      <c r="H2309" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2310">
@@ -75008,19 +75268,21 @@
       </c>
       <c r="C2310" t="inlineStr">
         <is>
-          <t>Bavaria CPI MoMJAN</t>
+          <t>Baden Wuerttemberg CPI YoYJAN</t>
         </is>
       </c>
       <c r="D2310" t="inlineStr"/>
       <c r="E2310" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F2310" t="inlineStr"/>
       <c r="G2310" t="inlineStr"/>
-      <c r="H2310" t="n">
-        <v>3</v>
+      <c r="H2310" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2311">
@@ -75036,19 +75298,21 @@
       </c>
       <c r="C2311" t="inlineStr">
         <is>
-          <t>Bavaria CPI YoYJAN</t>
+          <t>Bavaria CPI MoMJAN</t>
         </is>
       </c>
       <c r="D2311" t="inlineStr"/>
       <c r="E2311" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F2311" t="inlineStr"/>
       <c r="G2311" t="inlineStr"/>
-      <c r="H2311" t="n">
-        <v>3</v>
+      <c r="H2311" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2312">
@@ -75064,19 +75328,21 @@
       </c>
       <c r="C2312" t="inlineStr">
         <is>
-          <t>Brandenburg CPI MoMJAN</t>
+          <t>Bavaria CPI YoYJAN</t>
         </is>
       </c>
       <c r="D2312" t="inlineStr"/>
       <c r="E2312" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="F2312" t="inlineStr"/>
       <c r="G2312" t="inlineStr"/>
-      <c r="H2312" t="n">
-        <v>3</v>
+      <c r="H2312" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2313">
@@ -75092,19 +75358,21 @@
       </c>
       <c r="C2313" t="inlineStr">
         <is>
-          <t>Brandenburg CPI YoYJAN</t>
+          <t>Brandenburg CPI MoMJAN</t>
         </is>
       </c>
       <c r="D2313" t="inlineStr"/>
       <c r="E2313" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F2313" t="inlineStr"/>
       <c r="G2313" t="inlineStr"/>
-      <c r="H2313" t="n">
-        <v>3</v>
+      <c r="H2313" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2314">
@@ -75120,19 +75388,21 @@
       </c>
       <c r="C2314" t="inlineStr">
         <is>
-          <t>Hesse CPI MoMJAN</t>
+          <t>Brandenburg CPI YoYJAN</t>
         </is>
       </c>
       <c r="D2314" t="inlineStr"/>
       <c r="E2314" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F2314" t="inlineStr"/>
       <c r="G2314" t="inlineStr"/>
-      <c r="H2314" t="n">
-        <v>3</v>
+      <c r="H2314" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2315">
@@ -75148,19 +75418,21 @@
       </c>
       <c r="C2315" t="inlineStr">
         <is>
-          <t>Hesse CPI YoYJAN</t>
+          <t>Hesse CPI MoMJAN</t>
         </is>
       </c>
       <c r="D2315" t="inlineStr"/>
       <c r="E2315" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F2315" t="inlineStr"/>
       <c r="G2315" t="inlineStr"/>
-      <c r="H2315" t="n">
-        <v>3</v>
+      <c r="H2315" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2316">
@@ -75176,19 +75448,21 @@
       </c>
       <c r="C2316" t="inlineStr">
         <is>
-          <t>North Rhine Westphalia CPI MoMJAN</t>
+          <t>Hesse CPI YoYJAN</t>
         </is>
       </c>
       <c r="D2316" t="inlineStr"/>
       <c r="E2316" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F2316" t="inlineStr"/>
       <c r="G2316" t="inlineStr"/>
-      <c r="H2316" t="n">
-        <v>3</v>
+      <c r="H2316" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2317">
@@ -75204,19 +75478,21 @@
       </c>
       <c r="C2317" t="inlineStr">
         <is>
-          <t>North Rhine Westphalia CPI YoYJAN</t>
+          <t>North Rhine Westphalia CPI MoMJAN</t>
         </is>
       </c>
       <c r="D2317" t="inlineStr"/>
       <c r="E2317" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F2317" t="inlineStr"/>
       <c r="G2317" t="inlineStr"/>
-      <c r="H2317" t="n">
-        <v>3</v>
+      <c r="H2317" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2318">
@@ -75232,19 +75508,21 @@
       </c>
       <c r="C2318" t="inlineStr">
         <is>
-          <t>Saxony CPI MoMJAN</t>
+          <t>North Rhine Westphalia CPI YoYJAN</t>
         </is>
       </c>
       <c r="D2318" t="inlineStr"/>
       <c r="E2318" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>2.5%</t>
         </is>
       </c>
       <c r="F2318" t="inlineStr"/>
       <c r="G2318" t="inlineStr"/>
-      <c r="H2318" t="n">
-        <v>3</v>
+      <c r="H2318" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2319">
@@ -75260,19 +75538,21 @@
       </c>
       <c r="C2319" t="inlineStr">
         <is>
-          <t>Saxony CPI YoYJAN</t>
+          <t>Saxony CPI MoMJAN</t>
         </is>
       </c>
       <c r="D2319" t="inlineStr"/>
       <c r="E2319" t="inlineStr">
         <is>
-          <t>3.2%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F2319" t="inlineStr"/>
       <c r="G2319" t="inlineStr"/>
-      <c r="H2319" t="n">
-        <v>3</v>
+      <c r="H2319" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2320">
@@ -75283,60 +75563,60 @@
       </c>
       <c r="B2320" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2320" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>Saxony CPI YoYJAN</t>
         </is>
       </c>
       <c r="D2320" t="inlineStr"/>
       <c r="E2320" t="inlineStr">
         <is>
-          <t>€4.9B</t>
+          <t>3.2%</t>
         </is>
       </c>
       <c r="F2320" t="inlineStr"/>
-      <c r="G2320" t="inlineStr">
-        <is>
-          <t>€5.0B</t>
-        </is>
-      </c>
-      <c r="H2320" t="n">
-        <v>3</v>
+      <c r="G2320" t="inlineStr"/>
+      <c r="H2320" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2321">
       <c r="A2321" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2321" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2321" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Current AccountNOV</t>
         </is>
       </c>
       <c r="D2321" t="inlineStr"/>
       <c r="E2321" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>€4.9B</t>
         </is>
       </c>
       <c r="F2321" t="inlineStr"/>
       <c r="G2321" t="inlineStr">
         <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="H2321" t="n">
-        <v>3</v>
+          <t>€5.0B</t>
+        </is>
+      </c>
+      <c r="H2321" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2322">
@@ -75352,87 +75632,93 @@
       </c>
       <c r="C2322" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D2322" t="inlineStr"/>
       <c r="E2322" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="F2322" t="inlineStr"/>
       <c r="G2322" t="inlineStr">
         <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H2322" t="n">
-        <v>3</v>
+          <t>0.6%</t>
+        </is>
+      </c>
+      <c r="H2322" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2323">
       <c r="A2323" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2323" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2323" t="inlineStr">
         <is>
-          <t>Government Budget ValueDEC</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D2323" t="inlineStr"/>
       <c r="E2323" t="inlineStr">
         <is>
-          <t>INR-8465.9B</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="F2323" t="inlineStr"/>
       <c r="G2323" t="inlineStr">
         <is>
-          <t>INR-9700.0B</t>
-        </is>
-      </c>
-      <c r="H2323" t="n">
-        <v>3</v>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="H2323" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2324">
       <c r="A2324" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B2324" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2324" t="inlineStr">
         <is>
-          <t>Gross Debt to GDPDEC</t>
+          <t>Government Budget ValueDEC</t>
         </is>
       </c>
       <c r="D2324" t="inlineStr"/>
       <c r="E2324" t="inlineStr">
         <is>
-          <t>77.7%</t>
+          <t>INR-8465.9B</t>
         </is>
       </c>
       <c r="F2324" t="inlineStr"/>
       <c r="G2324" t="inlineStr">
         <is>
-          <t>77.9%</t>
-        </is>
-      </c>
-      <c r="H2324" t="n">
-        <v>3</v>
+          <t>INR-9700.0B</t>
+        </is>
+      </c>
+      <c r="H2324" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2325">
@@ -75448,23 +75734,25 @@
       </c>
       <c r="C2325" t="inlineStr">
         <is>
-          <t>Nominal Budget BalanceDEC</t>
+          <t>Gross Debt to GDPDEC</t>
         </is>
       </c>
       <c r="D2325" t="inlineStr"/>
       <c r="E2325" t="inlineStr">
         <is>
-          <t>BRL-99.1B</t>
+          <t>77.7%</t>
         </is>
       </c>
       <c r="F2325" t="inlineStr"/>
       <c r="G2325" t="inlineStr">
         <is>
-          <t>BRL-103.0B</t>
-        </is>
-      </c>
-      <c r="H2325" t="n">
-        <v>3</v>
+          <t>77.9%</t>
+        </is>
+      </c>
+      <c r="H2325" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2326">
@@ -75475,24 +75763,30 @@
       </c>
       <c r="B2326" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2326" t="inlineStr">
         <is>
-          <t>Bank Loan Growth YoYJAN/17</t>
+          <t>Nominal Budget BalanceDEC</t>
         </is>
       </c>
       <c r="D2326" t="inlineStr"/>
       <c r="E2326" t="inlineStr">
         <is>
-          <t>11.2%</t>
+          <t>BRL-99.1B</t>
         </is>
       </c>
       <c r="F2326" t="inlineStr"/>
-      <c r="G2326" t="inlineStr"/>
-      <c r="H2326" t="n">
-        <v>3</v>
+      <c r="G2326" t="inlineStr">
+        <is>
+          <t>BRL-103.0B</t>
+        </is>
+      </c>
+      <c r="H2326" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2327">
@@ -75508,19 +75802,21 @@
       </c>
       <c r="C2327" t="inlineStr">
         <is>
-          <t>Deposit Growth YoYJAN/17</t>
+          <t>Bank Loan Growth YoYJAN/17</t>
         </is>
       </c>
       <c r="D2327" t="inlineStr"/>
       <c r="E2327" t="inlineStr">
         <is>
-          <t>9.8%</t>
+          <t>11.2%</t>
         </is>
       </c>
       <c r="F2327" t="inlineStr"/>
       <c r="G2327" t="inlineStr"/>
-      <c r="H2327" t="n">
-        <v>3</v>
+      <c r="H2327" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2328">
@@ -75536,19 +75832,21 @@
       </c>
       <c r="C2328" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/24</t>
+          <t>Deposit Growth YoYJAN/17</t>
         </is>
       </c>
       <c r="D2328" t="inlineStr"/>
       <c r="E2328" t="inlineStr">
         <is>
-          <t>$623.98B</t>
+          <t>9.8%</t>
         </is>
       </c>
       <c r="F2328" t="inlineStr"/>
       <c r="G2328" t="inlineStr"/>
-      <c r="H2328" t="n">
-        <v>3</v>
+      <c r="H2328" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2329">
@@ -75564,55 +75862,55 @@
       </c>
       <c r="C2329" t="inlineStr">
         <is>
-          <t>Infrastructure Output YoYDEC</t>
+          <t>Foreign Exchange ReservesJAN/24</t>
         </is>
       </c>
       <c r="D2329" t="inlineStr"/>
       <c r="E2329" t="inlineStr">
         <is>
-          <t>4.3%</t>
+          <t>$623.98B</t>
         </is>
       </c>
       <c r="F2329" t="inlineStr"/>
-      <c r="G2329" t="inlineStr">
-        <is>
-          <t>4.8%</t>
-        </is>
-      </c>
-      <c r="H2329" t="n">
-        <v>3</v>
+      <c r="G2329" t="inlineStr"/>
+      <c r="H2329" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2330">
       <c r="A2330" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2330" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2330" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>Infrastructure Output YoYDEC</t>
         </is>
       </c>
       <c r="D2330" t="inlineStr"/>
       <c r="E2330" t="inlineStr">
         <is>
-          <t>6.1%</t>
+          <t>4.3%</t>
         </is>
       </c>
       <c r="F2330" t="inlineStr"/>
       <c r="G2330" t="inlineStr">
         <is>
-          <t>6.1%</t>
-        </is>
-      </c>
-      <c r="H2330" t="n">
-        <v>2</v>
+          <t>4.8%</t>
+        </is>
+      </c>
+      <c r="H2330" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2331">
@@ -75623,64 +75921,64 @@
       </c>
       <c r="B2331" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2331" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Unemployment RateDEC</t>
         </is>
       </c>
       <c r="D2331" t="inlineStr"/>
       <c r="E2331" t="inlineStr">
         <is>
-          <t>ZAR34.7B</t>
+          <t>6.1%</t>
         </is>
       </c>
       <c r="F2331" t="inlineStr"/>
       <c r="G2331" t="inlineStr">
         <is>
-          <t>ZAR 27.0B</t>
-        </is>
-      </c>
-      <c r="H2331" t="n">
-        <v>2</v>
+          <t>6.1%</t>
+        </is>
+      </c>
+      <c r="H2331" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2332">
       <c r="A2332" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2332" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2332" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelJAN</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D2332" t="inlineStr"/>
       <c r="E2332" t="inlineStr">
         <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="F2332" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
+          <t>ZAR34.7B</t>
+        </is>
+      </c>
+      <c r="F2332" t="inlineStr"/>
       <c r="G2332" t="inlineStr">
         <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="H2332" t="n">
-        <v>1</v>
+          <t>ZAR 27.0B</t>
+        </is>
+      </c>
+      <c r="H2332" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2333">
@@ -75696,27 +75994,29 @@
       </c>
       <c r="C2333" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM PrelJAN</t>
+          <t>Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2333" t="inlineStr"/>
       <c r="E2333" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F2333" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>2.7%</t>
         </is>
       </c>
       <c r="G2333" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H2333" t="n">
-        <v>2</v>
+          <t>2.6%</t>
+        </is>
+      </c>
+      <c r="H2333" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="2334">
@@ -75732,23 +76032,29 @@
       </c>
       <c r="C2334" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM PrelJAN</t>
+          <t>Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2334" t="inlineStr"/>
       <c r="E2334" t="inlineStr">
         <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="F2334" t="inlineStr"/>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="F2334" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
       <c r="G2334" t="inlineStr">
         <is>
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2334" t="n">
-        <v>3</v>
+      <c r="H2334" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2335">
@@ -75764,63 +76070,63 @@
       </c>
       <c r="C2335" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY PrelJAN</t>
+          <t>Harmonised Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2335" t="inlineStr"/>
       <c r="E2335" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F2335" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
+          <t>0.7%</t>
+        </is>
+      </c>
+      <c r="F2335" t="inlineStr"/>
       <c r="G2335" t="inlineStr">
         <is>
-          <t>3.0%</t>
-        </is>
-      </c>
-      <c r="H2335" t="n">
-        <v>3</v>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="H2335" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2336">
       <c r="A2336" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2336" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2336" t="inlineStr">
         <is>
-          <t>GDP MoMNOV</t>
+          <t>Harmonised Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2336" t="inlineStr"/>
       <c r="E2336" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="F2336" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>2.9%</t>
         </is>
       </c>
       <c r="G2336" t="inlineStr">
         <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="H2336" t="n">
-        <v>2</v>
+          <t>3.0%</t>
+        </is>
+      </c>
+      <c r="H2336" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2337">
@@ -75836,23 +76142,29 @@
       </c>
       <c r="C2337" t="inlineStr">
         <is>
-          <t>GDP MoM PrelDEC</t>
+          <t>GDP MoMNOV</t>
         </is>
       </c>
       <c r="D2337" t="inlineStr"/>
       <c r="E2337" t="inlineStr">
         <is>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="F2337" t="inlineStr">
+        <is>
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="F2337" t="inlineStr"/>
       <c r="G2337" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H2337" t="n">
-        <v>2</v>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="H2337" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2338">
@@ -75863,32 +76175,30 @@
       </c>
       <c r="B2338" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2338" t="inlineStr">
         <is>
-          <t>Core PCE Price Index MoMDEC</t>
+          <t>GDP MoM PrelDEC</t>
         </is>
       </c>
       <c r="D2338" t="inlineStr"/>
       <c r="E2338" t="inlineStr">
         <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F2338" t="inlineStr">
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="F2338" t="inlineStr"/>
+      <c r="G2338" t="inlineStr">
         <is>
           <t>0.2%</t>
         </is>
       </c>
-      <c r="G2338" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H2338" t="n">
-        <v>1</v>
+      <c r="H2338" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2339">
@@ -75904,27 +76214,29 @@
       </c>
       <c r="C2339" t="inlineStr">
         <is>
-          <t>Personal Income MoMDEC</t>
+          <t>Core PCE Price Index MoMDEC</t>
         </is>
       </c>
       <c r="D2339" t="inlineStr"/>
       <c r="E2339" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2339" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="G2339" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H2339" t="n">
-        <v>1</v>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="H2339" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="2340">
@@ -75940,27 +76252,29 @@
       </c>
       <c r="C2340" t="inlineStr">
         <is>
-          <t>Personal Spending MoMDEC</t>
+          <t>Personal Income MoMDEC</t>
         </is>
       </c>
       <c r="D2340" t="inlineStr"/>
       <c r="E2340" t="inlineStr">
         <is>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="F2340" t="inlineStr">
+        <is>
           <t>0.4%</t>
         </is>
       </c>
-      <c r="F2340" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
       <c r="G2340" t="inlineStr">
         <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H2340" t="n">
-        <v>1</v>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="H2340" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="2341">
@@ -75976,23 +76290,29 @@
       </c>
       <c r="C2341" t="inlineStr">
         <is>
-          <t>Employment Cost - Benefits QoQQ4</t>
+          <t>Personal Spending MoMDEC</t>
         </is>
       </c>
       <c r="D2341" t="inlineStr"/>
       <c r="E2341" t="inlineStr">
         <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="F2341" t="inlineStr"/>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="F2341" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="G2341" t="inlineStr">
         <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="H2341" t="n">
-        <v>2</v>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="H2341" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="2342">
@@ -76008,7 +76328,7 @@
       </c>
       <c r="C2342" t="inlineStr">
         <is>
-          <t>Employment Cost - Wages QoQQ4</t>
+          <t>Employment Cost - Benefits QoQQ4</t>
         </is>
       </c>
       <c r="D2342" t="inlineStr"/>
@@ -76023,8 +76343,10 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2342" t="n">
-        <v>2</v>
+      <c r="H2342" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2343">
@@ -76040,7 +76362,7 @@
       </c>
       <c r="C2343" t="inlineStr">
         <is>
-          <t>Employment Cost Index QoQQ4</t>
+          <t>Employment Cost - Wages QoQQ4</t>
         </is>
       </c>
       <c r="D2343" t="inlineStr"/>
@@ -76049,18 +76371,16 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="F2343" t="inlineStr">
-        <is>
-          <t>1%</t>
-        </is>
-      </c>
+      <c r="F2343" t="inlineStr"/>
       <c r="G2343" t="inlineStr">
         <is>
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2343" t="n">
-        <v>2</v>
+      <c r="H2343" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2344">
@@ -76076,15 +76396,29 @@
       </c>
       <c r="C2344" t="inlineStr">
         <is>
-          <t>Fed Bowman Speech</t>
+          <t>Employment Cost Index QoQQ4</t>
         </is>
       </c>
       <c r="D2344" t="inlineStr"/>
-      <c r="E2344" t="inlineStr"/>
-      <c r="F2344" t="inlineStr"/>
-      <c r="G2344" t="inlineStr"/>
-      <c r="H2344" t="n">
-        <v>2</v>
+      <c r="E2344" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
+      <c r="F2344" t="inlineStr">
+        <is>
+          <t>1%</t>
+        </is>
+      </c>
+      <c r="G2344" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
+      <c r="H2344" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2345">
@@ -76100,23 +76434,17 @@
       </c>
       <c r="C2345" t="inlineStr">
         <is>
-          <t>PCE Price Index MoMDEC</t>
+          <t>Fed Bowman Speech</t>
         </is>
       </c>
       <c r="D2345" t="inlineStr"/>
-      <c r="E2345" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="E2345" t="inlineStr"/>
       <c r="F2345" t="inlineStr"/>
-      <c r="G2345" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H2345" t="n">
-        <v>2</v>
+      <c r="G2345" t="inlineStr"/>
+      <c r="H2345" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2346">
@@ -76132,23 +76460,25 @@
       </c>
       <c r="C2346" t="inlineStr">
         <is>
-          <t>PCE Price Index YoYDEC</t>
+          <t>PCE Price Index MoMDEC</t>
         </is>
       </c>
       <c r="D2346" t="inlineStr"/>
       <c r="E2346" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2346" t="inlineStr"/>
       <c r="G2346" t="inlineStr">
         <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="H2346" t="n">
-        <v>2</v>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="H2346" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2347">
@@ -76164,29 +76494,31 @@
       </c>
       <c r="C2347" t="inlineStr">
         <is>
-          <t>Core PCE Price Index YoYDEC</t>
+          <t>PCE Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D2347" t="inlineStr"/>
       <c r="E2347" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F2347" t="inlineStr"/>
       <c r="G2347" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="H2347" t="n">
-        <v>3</v>
+          <t>2.6%</t>
+        </is>
+      </c>
+      <c r="H2347" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2348">
       <c r="A2348" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2348" t="inlineStr">
@@ -76196,87 +76528,97 @@
       </c>
       <c r="C2348" t="inlineStr">
         <is>
-          <t>Chicago PMIJAN</t>
+          <t>Core PCE Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D2348" t="inlineStr"/>
       <c r="E2348" t="inlineStr">
         <is>
-          <t>36.9</t>
-        </is>
-      </c>
-      <c r="F2348" t="inlineStr">
-        <is>
-          <t>39.9</t>
-        </is>
-      </c>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="F2348" t="inlineStr"/>
       <c r="G2348" t="inlineStr">
         <is>
-          <t>37.2</t>
-        </is>
-      </c>
-      <c r="H2348" t="n">
-        <v>2</v>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="H2348" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2349">
       <c r="A2349" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B2349" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2349" t="inlineStr">
         <is>
-          <t>Budget BalanceNOV</t>
+          <t>Chicago PMIJAN</t>
         </is>
       </c>
       <c r="D2349" t="inlineStr"/>
       <c r="E2349" t="inlineStr">
         <is>
-          <t>C$-1.49B</t>
-        </is>
-      </c>
-      <c r="F2349" t="inlineStr"/>
+          <t>36.9</t>
+        </is>
+      </c>
+      <c r="F2349" t="inlineStr">
+        <is>
+          <t>39.9</t>
+        </is>
+      </c>
       <c r="G2349" t="inlineStr">
         <is>
-          <t>C$-1.9B</t>
-        </is>
-      </c>
-      <c r="H2349" t="n">
-        <v>3</v>
+          <t>37.2</t>
+        </is>
+      </c>
+      <c r="H2349" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2350">
       <c r="A2350" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B2350" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2350" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/31</t>
+          <t>Budget BalanceNOV</t>
         </is>
       </c>
       <c r="D2350" t="inlineStr"/>
       <c r="E2350" t="inlineStr">
         <is>
-          <t>472</t>
+          <t>C$-1.49B</t>
         </is>
       </c>
       <c r="F2350" t="inlineStr"/>
-      <c r="G2350" t="inlineStr"/>
-      <c r="H2350" t="n">
-        <v>3</v>
+      <c r="G2350" t="inlineStr">
+        <is>
+          <t>C$-1.9B</t>
+        </is>
+      </c>
+      <c r="H2350" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2351">
@@ -76292,121 +76634,129 @@
       </c>
       <c r="C2351" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/31</t>
+          <t>Baker Hughes Oil Rig CountJAN/31</t>
         </is>
       </c>
       <c r="D2351" t="inlineStr"/>
       <c r="E2351" t="inlineStr">
         <is>
-          <t>576</t>
+          <t>472</t>
         </is>
       </c>
       <c r="F2351" t="inlineStr"/>
       <c r="G2351" t="inlineStr"/>
-      <c r="H2351" t="n">
-        <v>3</v>
+      <c r="H2351" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2352">
-      <c r="A2352" t="inlineStr"/>
+      <c r="A2352" t="inlineStr">
+        <is>
+          <t>11:30 PM</t>
+        </is>
+      </c>
       <c r="B2352" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2352" t="inlineStr">
         <is>
-          <t>Fiscal BalanceDEC</t>
+          <t>Baker Hughes Total Rigs CountJAN/31</t>
         </is>
       </c>
       <c r="D2352" t="inlineStr"/>
       <c r="E2352" t="inlineStr">
         <is>
-          <t>MXN-1064.93B</t>
+          <t>576</t>
         </is>
       </c>
       <c r="F2352" t="inlineStr"/>
-      <c r="G2352" t="inlineStr">
-        <is>
-          <t>MXN-1120.0B</t>
-        </is>
-      </c>
-      <c r="H2352" t="n">
-        <v>3</v>
+      <c r="G2352" t="inlineStr"/>
+      <c r="H2352" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2353">
       <c r="A2353" t="inlineStr"/>
       <c r="B2353" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2353" t="inlineStr">
         <is>
-          <t>CoreLogic Dwelling Prices MoMJAN</t>
+          <t>Fiscal BalanceDEC</t>
         </is>
       </c>
       <c r="D2353" t="inlineStr"/>
       <c r="E2353" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>MXN-1064.93B</t>
         </is>
       </c>
       <c r="F2353" t="inlineStr"/>
       <c r="G2353" t="inlineStr">
         <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="H2353" t="n">
-        <v>3</v>
+          <t>MXN-1120.0B</t>
+        </is>
+      </c>
+      <c r="H2353" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2354">
       <c r="A2354" t="inlineStr"/>
       <c r="B2354" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2354" t="inlineStr">
         <is>
-          <t>Consumer Inflation ExpectationsDEC</t>
+          <t>CoreLogic Dwelling Prices MoMJAN</t>
         </is>
       </c>
       <c r="D2354" t="inlineStr"/>
       <c r="E2354" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F2354" t="inlineStr"/>
       <c r="G2354" t="inlineStr">
         <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="H2354" t="n">
-        <v>3</v>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="H2354" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2355">
       <c r="A2355" t="inlineStr"/>
       <c r="B2355" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2355" t="inlineStr">
         <is>
-          <t>New Car Registrations YoYJAN</t>
+          <t>Consumer Inflation ExpectationsDEC</t>
         </is>
       </c>
       <c r="D2355" t="inlineStr"/>
       <c r="E2355" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F2355" t="inlineStr"/>
@@ -76415,124 +76765,124 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H2355" t="n">
-        <v>3</v>
+      <c r="H2355" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2356">
       <c r="A2356" t="inlineStr"/>
       <c r="B2356" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2356" t="inlineStr">
         <is>
-          <t>New Car Sales YoYJAN</t>
+          <t>New Car Registrations YoYJAN</t>
         </is>
       </c>
       <c r="D2356" t="inlineStr"/>
       <c r="E2356" t="inlineStr">
         <is>
-          <t>28.8%</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="F2356" t="inlineStr"/>
       <c r="G2356" t="inlineStr">
         <is>
-          <t>2.5%</t>
-        </is>
-      </c>
-      <c r="H2356" t="n">
-        <v>3</v>
+          <t>2.2%</t>
+        </is>
+      </c>
+      <c r="H2356" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2357">
       <c r="A2357" t="inlineStr"/>
       <c r="B2357" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2357" t="inlineStr">
         <is>
-          <t>New Car Registrations YoYJAN</t>
+          <t>New Car Sales YoYJAN</t>
         </is>
       </c>
       <c r="D2357" t="inlineStr"/>
       <c r="E2357" t="inlineStr">
         <is>
-          <t>-4.9%</t>
+          <t>28.8%</t>
         </is>
       </c>
       <c r="F2357" t="inlineStr"/>
       <c r="G2357" t="inlineStr">
         <is>
-          <t>-4.0%</t>
-        </is>
-      </c>
-      <c r="H2357" t="n">
-        <v>3</v>
+          <t>2.5%</t>
+        </is>
+      </c>
+      <c r="H2357" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2358">
       <c r="A2358" t="inlineStr"/>
       <c r="B2358" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2358" t="inlineStr">
         <is>
-          <t>M2 Money Supply YoYDEC</t>
+          <t>New Car Registrations YoYJAN</t>
         </is>
       </c>
       <c r="D2358" t="inlineStr"/>
       <c r="E2358" t="inlineStr">
         <is>
-          <t>20%</t>
+          <t>-4.9%</t>
         </is>
       </c>
       <c r="F2358" t="inlineStr"/>
       <c r="G2358" t="inlineStr">
         <is>
-          <t>20.7%</t>
-        </is>
-      </c>
-      <c r="H2358" t="n">
-        <v>3</v>
+          <t>-4.0%</t>
+        </is>
+      </c>
+      <c r="H2358" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2359">
-      <c r="A2359" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
+      <c r="A2359" t="inlineStr"/>
       <c r="B2359" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2359" t="inlineStr">
         <is>
-          <t>HSBC Manufacturing PMI FinalJAN</t>
+          <t>M2 Money Supply YoYDEC</t>
         </is>
       </c>
       <c r="D2359" t="inlineStr"/>
       <c r="E2359" t="inlineStr">
         <is>
-          <t>56.4</t>
-        </is>
-      </c>
-      <c r="F2359" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
+          <t>20%</t>
+        </is>
+      </c>
+      <c r="F2359" t="inlineStr"/>
       <c r="G2359" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>20.7%</t>
         </is>
       </c>
       <c r="H2359" t="inlineStr">
@@ -76544,207 +76894,191 @@
     <row r="2360">
       <c r="A2360" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B2360" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C2360" t="inlineStr">
-        <is>
-          <t>2-Year KTB Auction</t>
-        </is>
-      </c>
+          <t>Saturday February 01 2025</t>
+        </is>
+      </c>
+      <c r="B2360" t="inlineStr"/>
+      <c r="C2360" t="inlineStr"/>
       <c r="D2360" t="inlineStr"/>
-      <c r="E2360" t="inlineStr">
-        <is>
-          <t>2.670%</t>
-        </is>
-      </c>
+      <c r="E2360" t="inlineStr"/>
       <c r="F2360" t="inlineStr"/>
       <c r="G2360" t="inlineStr"/>
-      <c r="H2360" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H2360" t="inlineStr"/>
     </row>
     <row r="2361">
       <c r="A2361" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B2361" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2361" t="inlineStr">
         <is>
-          <t>Commodity Prices YoYJAN</t>
+          <t>Exports YoYJAN</t>
         </is>
       </c>
       <c r="D2361" t="inlineStr"/>
       <c r="E2361" t="inlineStr">
         <is>
-          <t>-10.7%</t>
+          <t>6.6%</t>
         </is>
       </c>
       <c r="F2361" t="inlineStr"/>
-      <c r="G2361" t="inlineStr"/>
+      <c r="G2361" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H2361" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2362">
       <c r="A2362" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B2362" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2362" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>Balance of TradeJAN</t>
         </is>
       </c>
       <c r="D2362" t="inlineStr"/>
       <c r="E2362" t="inlineStr">
         <is>
-          <t>50.8</t>
+          <t>$6.49B</t>
         </is>
       </c>
       <c r="F2362" t="inlineStr"/>
-      <c r="G2362" t="inlineStr"/>
+      <c r="G2362" t="inlineStr">
+        <is>
+          <t>$0.9B</t>
+        </is>
+      </c>
       <c r="H2362" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2363">
       <c r="A2363" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B2363" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2363" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Imports YoYJAN</t>
         </is>
       </c>
       <c r="D2363" t="inlineStr"/>
       <c r="E2363" t="inlineStr">
         <is>
-          <t>1.03%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="F2363" t="inlineStr"/>
-      <c r="G2363" t="inlineStr"/>
+      <c r="G2363" t="inlineStr">
+        <is>
+          <t>3.4%</t>
+        </is>
+      </c>
       <c r="H2363" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2364">
       <c r="A2364" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
-        </is>
-      </c>
-      <c r="B2364" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2364" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoYJAN</t>
-        </is>
-      </c>
+          <t>Monday February 03 2025</t>
+        </is>
+      </c>
+      <c r="B2364" t="inlineStr"/>
+      <c r="C2364" t="inlineStr"/>
       <c r="D2364" t="inlineStr"/>
-      <c r="E2364" t="inlineStr">
-        <is>
-          <t>44.38%</t>
-        </is>
-      </c>
+      <c r="E2364" t="inlineStr"/>
       <c r="F2364" t="inlineStr"/>
       <c r="G2364" t="inlineStr"/>
-      <c r="H2364" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="H2364" t="inlineStr"/>
     </row>
     <row r="2365">
       <c r="A2365" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>03:30 AM</t>
         </is>
       </c>
       <c r="B2365" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2365" t="inlineStr">
         <is>
-          <t>Istanbul Chamber of Industry Manufacturing PMIJAN</t>
+          <t>S&amp;P Global Australia Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2365" t="inlineStr"/>
       <c r="E2365" t="inlineStr">
         <is>
-          <t>49.1</t>
+          <t>47.8</t>
         </is>
       </c>
       <c r="F2365" t="inlineStr"/>
       <c r="G2365" t="inlineStr"/>
       <c r="H2365" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2366">
       <c r="A2366" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B2366" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2366" t="inlineStr">
         <is>
-          <t>PPI MoMJAN</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="D2366" t="inlineStr"/>
       <c r="E2366" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="F2366" t="inlineStr"/>
-      <c r="G2366" t="inlineStr"/>
+      <c r="G2366" t="inlineStr">
+        <is>
+          <t>1.2%</t>
+        </is>
+      </c>
       <c r="H2366" t="inlineStr">
         <is>
           <t>3</t>
@@ -76754,27 +77088,31 @@
     <row r="2367">
       <c r="A2367" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B2367" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2367" t="inlineStr">
         <is>
-          <t>PPI YoYJAN</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D2367" t="inlineStr"/>
       <c r="E2367" t="inlineStr">
         <is>
-          <t>28.52%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2367" t="inlineStr"/>
-      <c r="G2367" t="inlineStr"/>
+      <c r="G2367" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="H2367" t="inlineStr">
         <is>
           <t>3</t>
@@ -76784,47 +77122,51 @@
     <row r="2368">
       <c r="A2368" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B2368" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2368" t="inlineStr">
         <is>
-          <t>Unemployment ChangeJAN</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D2368" t="inlineStr"/>
       <c r="E2368" t="inlineStr">
         <is>
-          <t>-25.3K</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F2368" t="inlineStr"/>
-      <c r="G2368" t="inlineStr"/>
+      <c r="G2368" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H2368" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2369">
       <c r="A2369" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B2369" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2369" t="inlineStr">
         <is>
-          <t>Tourist Arrivals YoYDEC</t>
+          <t>BoJ Summary of Opinions</t>
         </is>
       </c>
       <c r="D2369" t="inlineStr"/>
@@ -76833,34 +77175,38 @@
       <c r="G2369" t="inlineStr"/>
       <c r="H2369" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2370">
       <c r="A2370" t="inlineStr">
         <is>
-          <t>01:45 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2370" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2370" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMIJAN</t>
+          <t>Building Permits MoM PrelDEC</t>
         </is>
       </c>
       <c r="D2370" t="inlineStr"/>
       <c r="E2370" t="inlineStr">
         <is>
-          <t>53.3</t>
+          <t>-3.6%</t>
         </is>
       </c>
       <c r="F2370" t="inlineStr"/>
-      <c r="G2370" t="inlineStr"/>
+      <c r="G2370" t="inlineStr">
+        <is>
+          <t>1.5%</t>
+        </is>
+      </c>
       <c r="H2370" t="inlineStr">
         <is>
           <t>2</t>
@@ -76870,27 +77216,31 @@
     <row r="2371">
       <c r="A2371" t="inlineStr">
         <is>
-          <t>02:15 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2371" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2371" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMIJAN</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D2371" t="inlineStr"/>
       <c r="E2371" t="inlineStr">
         <is>
-          <t>46.2</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F2371" t="inlineStr"/>
-      <c r="G2371" t="inlineStr"/>
+      <c r="G2371" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H2371" t="inlineStr">
         <is>
           <t>2</t>
@@ -76900,181 +77250,161 @@
     <row r="2372">
       <c r="A2372" t="inlineStr">
         <is>
-          <t>02:20 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2372" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2372" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>ANZ-Indeed Job Ads MoMJAN</t>
         </is>
       </c>
       <c r="D2372" t="inlineStr"/>
       <c r="E2372" t="inlineStr">
         <is>
-          <t>41.9</t>
-        </is>
-      </c>
-      <c r="F2372" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
-      <c r="G2372" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="F2372" t="inlineStr"/>
+      <c r="G2372" t="inlineStr"/>
       <c r="H2372" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2373">
       <c r="A2373" t="inlineStr">
         <is>
-          <t>02:25 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2373" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2373" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>Private House Approvals MoM PrelDEC</t>
         </is>
       </c>
       <c r="D2373" t="inlineStr"/>
       <c r="E2373" t="inlineStr">
         <is>
-          <t>42.5</t>
-        </is>
-      </c>
-      <c r="F2373" t="inlineStr">
-        <is>
-          <t>44.1</t>
-        </is>
-      </c>
-      <c r="G2373" t="inlineStr">
-        <is>
-          <t>44.1</t>
-        </is>
-      </c>
+          <t>-1.7%</t>
+        </is>
+      </c>
+      <c r="F2373" t="inlineStr"/>
+      <c r="G2373" t="inlineStr"/>
       <c r="H2373" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2374">
       <c r="A2374" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2374" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2374" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2374" t="inlineStr"/>
       <c r="E2374" t="inlineStr">
         <is>
-          <t>45.1</t>
-        </is>
-      </c>
-      <c r="F2374" t="inlineStr">
-        <is>
-          <t>46.1</t>
-        </is>
-      </c>
+          <t>51.2</t>
+        </is>
+      </c>
+      <c r="F2374" t="inlineStr"/>
       <c r="G2374" t="inlineStr">
         <is>
-          <t>46.1</t>
+          <t>51.6</t>
         </is>
       </c>
       <c r="H2374" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2375">
       <c r="A2375" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2375" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2375" t="inlineStr">
         <is>
-          <t>ABSA Manufacturing PMIJAN</t>
+          <t>Jibun Bank Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2375" t="inlineStr"/>
       <c r="E2375" t="inlineStr">
         <is>
-          <t>46.2</t>
-        </is>
-      </c>
-      <c r="F2375" t="inlineStr"/>
+          <t>49.6</t>
+        </is>
+      </c>
+      <c r="F2375" t="inlineStr">
+        <is>
+          <t>48.8</t>
+        </is>
+      </c>
       <c r="G2375" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>48.8</t>
         </is>
       </c>
       <c r="H2375" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2376">
       <c r="A2376" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2376" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2376" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2376" t="inlineStr"/>
       <c r="E2376" t="inlineStr">
         <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="F2376" t="inlineStr">
-        <is>
-          <t>48.2</t>
-        </is>
-      </c>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="F2376" t="inlineStr"/>
       <c r="G2376" t="inlineStr">
         <is>
-          <t>48.2</t>
+          <t>49.5</t>
         </is>
       </c>
       <c r="H2376" t="inlineStr">
@@ -77086,23 +77416,35 @@
     <row r="2377">
       <c r="A2377" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:15 AM</t>
         </is>
       </c>
       <c r="B2377" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2377" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FlashJAN</t>
+          <t>Caixin Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2377" t="inlineStr"/>
-      <c r="E2377" t="inlineStr"/>
-      <c r="F2377" t="inlineStr"/>
-      <c r="G2377" t="inlineStr"/>
+      <c r="E2377" t="inlineStr">
+        <is>
+          <t>50.5</t>
+        </is>
+      </c>
+      <c r="F2377" t="inlineStr">
+        <is>
+          <t>50.5</t>
+        </is>
+      </c>
+      <c r="G2377" t="inlineStr">
+        <is>
+          <t>50.5</t>
+        </is>
+      </c>
       <c r="H2377" t="inlineStr">
         <is>
           <t>1</t>
@@ -77112,27 +77454,31 @@
     <row r="2378">
       <c r="A2378" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2378" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2378" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoY FlashJAN</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2378" t="inlineStr"/>
       <c r="E2378" t="inlineStr">
         <is>
-          <t>2.7%</t>
+          <t>1.57%</t>
         </is>
       </c>
       <c r="F2378" t="inlineStr"/>
-      <c r="G2378" t="inlineStr"/>
+      <c r="G2378" t="inlineStr">
+        <is>
+          <t>1.7%</t>
+        </is>
+      </c>
       <c r="H2378" t="inlineStr">
         <is>
           <t>2</t>
@@ -77142,53 +77488,65 @@
     <row r="2379">
       <c r="A2379" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2379" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2379" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM FlashJAN</t>
+          <t>Core Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2379" t="inlineStr"/>
-      <c r="E2379" t="inlineStr"/>
+      <c r="E2379" t="inlineStr">
+        <is>
+          <t>2.26%</t>
+        </is>
+      </c>
       <c r="F2379" t="inlineStr"/>
-      <c r="G2379" t="inlineStr"/>
+      <c r="G2379" t="inlineStr">
+        <is>
+          <t>2.3%</t>
+        </is>
+      </c>
       <c r="H2379" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2380">
       <c r="A2380" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2380" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2380" t="inlineStr">
         <is>
-          <t>CPI FlashJAN</t>
+          <t>Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2380" t="inlineStr"/>
       <c r="E2380" t="inlineStr">
         <is>
-          <t>127.07</t>
+          <t>0.44%</t>
         </is>
       </c>
       <c r="F2380" t="inlineStr"/>
-      <c r="G2380" t="inlineStr"/>
+      <c r="G2380" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H2380" t="inlineStr">
         <is>
           <t>3</t>
@@ -77198,83 +77556,95 @@
     <row r="2381">
       <c r="A2381" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>10:15 AM</t>
         </is>
       </c>
       <c r="B2381" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2381" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelJAN</t>
+          <t>Tourist Arrivals YoYDEC</t>
         </is>
       </c>
       <c r="D2381" t="inlineStr"/>
       <c r="E2381" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>17.27%</t>
         </is>
       </c>
       <c r="F2381" t="inlineStr"/>
-      <c r="G2381" t="inlineStr"/>
+      <c r="G2381" t="inlineStr">
+        <is>
+          <t>18.0%</t>
+        </is>
+      </c>
       <c r="H2381" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2382">
       <c r="A2382" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2382" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2382" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM PrelJAN</t>
+          <t>HSBC Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2382" t="inlineStr"/>
       <c r="E2382" t="inlineStr">
         <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F2382" t="inlineStr"/>
-      <c r="G2382" t="inlineStr"/>
+          <t>56.4</t>
+        </is>
+      </c>
+      <c r="F2382" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="G2382" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
       <c r="H2382" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2383">
       <c r="A2383" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2383" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2383" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM PrelJAN</t>
+          <t>2-Year KTB Auction</t>
         </is>
       </c>
       <c r="D2383" t="inlineStr"/>
       <c r="E2383" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>2.670%</t>
         </is>
       </c>
       <c r="F2383" t="inlineStr"/>
@@ -77288,23 +77658,23 @@
     <row r="2384">
       <c r="A2384" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B2384" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2384" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY PrelJAN</t>
+          <t>Commodity Prices YoYJAN</t>
         </is>
       </c>
       <c r="D2384" t="inlineStr"/>
       <c r="E2384" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>-10.7%</t>
         </is>
       </c>
       <c r="F2384" t="inlineStr"/>
@@ -77318,149 +77688,145 @@
     <row r="2385">
       <c r="A2385" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B2385" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2385" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesDEC</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2385" t="inlineStr"/>
       <c r="E2385" t="inlineStr">
         <is>
-          <t>$232.2B</t>
+          <t>50.8</t>
         </is>
       </c>
       <c r="F2385" t="inlineStr"/>
-      <c r="G2385" t="inlineStr">
-        <is>
-          <t>$ 230B</t>
-        </is>
-      </c>
+      <c r="G2385" t="inlineStr"/>
       <c r="H2385" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2386">
       <c r="A2386" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2386" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2386" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2386" t="inlineStr"/>
       <c r="E2386" t="inlineStr">
         <is>
-          <t>50.4</t>
+          <t>1.03%</t>
         </is>
       </c>
       <c r="F2386" t="inlineStr"/>
-      <c r="G2386" t="inlineStr">
-        <is>
-          <t>49.8</t>
-        </is>
-      </c>
+      <c r="G2386" t="inlineStr"/>
       <c r="H2386" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2387">
       <c r="A2387" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2387" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2387" t="inlineStr">
         <is>
-          <t>SIPMM Manufacturing PMIJAN</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2387" t="inlineStr"/>
       <c r="E2387" t="inlineStr">
         <is>
-          <t>51.1</t>
+          <t>44.38%</t>
         </is>
       </c>
       <c r="F2387" t="inlineStr"/>
-      <c r="G2387" t="inlineStr">
-        <is>
-          <t>51.4</t>
-        </is>
-      </c>
+      <c r="G2387" t="inlineStr"/>
       <c r="H2387" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2388">
       <c r="A2388" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2388" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2388" t="inlineStr">
         <is>
-          <t>Fed Bostic Speech</t>
+          <t>Istanbul Chamber of Industry Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2388" t="inlineStr"/>
-      <c r="E2388" t="inlineStr"/>
+      <c r="E2388" t="inlineStr">
+        <is>
+          <t>49.1</t>
+        </is>
+      </c>
       <c r="F2388" t="inlineStr"/>
       <c r="G2388" t="inlineStr"/>
       <c r="H2388" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2389">
       <c r="A2389" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2389" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2389" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>PPI MoMJAN</t>
         </is>
       </c>
       <c r="D2389" t="inlineStr"/>
-      <c r="E2389" t="inlineStr"/>
+      <c r="E2389" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="F2389" t="inlineStr"/>
       <c r="G2389" t="inlineStr"/>
       <c r="H2389" t="inlineStr">
@@ -77472,21 +77838,25 @@
     <row r="2390">
       <c r="A2390" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2390" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2390" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>PPI YoYJAN</t>
         </is>
       </c>
       <c r="D2390" t="inlineStr"/>
-      <c r="E2390" t="inlineStr"/>
+      <c r="E2390" t="inlineStr">
+        <is>
+          <t>28.52%</t>
+        </is>
+      </c>
       <c r="F2390" t="inlineStr"/>
       <c r="G2390" t="inlineStr"/>
       <c r="H2390" t="inlineStr">
@@ -77498,91 +77868,83 @@
     <row r="2391">
       <c r="A2391" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2391" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2391" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>Unemployment ChangeJAN</t>
         </is>
       </c>
       <c r="D2391" t="inlineStr"/>
-      <c r="E2391" t="inlineStr"/>
+      <c r="E2391" t="inlineStr">
+        <is>
+          <t>-25.3K</t>
+        </is>
+      </c>
       <c r="F2391" t="inlineStr"/>
       <c r="G2391" t="inlineStr"/>
       <c r="H2391" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2392">
       <c r="A2392" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2392" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2392" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>Tourist Arrivals YoYDEC</t>
         </is>
       </c>
       <c r="D2392" t="inlineStr"/>
-      <c r="E2392" t="inlineStr">
-        <is>
-          <t>52.2</t>
-        </is>
-      </c>
+      <c r="E2392" t="inlineStr"/>
       <c r="F2392" t="inlineStr"/>
       <c r="G2392" t="inlineStr"/>
       <c r="H2392" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2393">
       <c r="A2393" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B2393" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2393" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
+          <t>HCOB Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2393" t="inlineStr"/>
       <c r="E2393" t="inlineStr">
         <is>
-          <t>49.4</t>
-        </is>
-      </c>
-      <c r="F2393" t="inlineStr">
-        <is>
-          <t>50.1</t>
-        </is>
-      </c>
-      <c r="G2393" t="inlineStr">
-        <is>
-          <t>50.1</t>
-        </is>
-      </c>
+          <t>53.3</t>
+        </is>
+      </c>
+      <c r="F2393" t="inlineStr"/>
+      <c r="G2393" t="inlineStr"/>
       <c r="H2393" t="inlineStr">
         <is>
           <t>2</t>
@@ -77592,57 +77954,65 @@
     <row r="2394">
       <c r="A2394" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>02:15 PM</t>
         </is>
       </c>
       <c r="B2394" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2394" t="inlineStr">
         <is>
-          <t>ISM Manufacturing PMIJAN</t>
+          <t>HCOB Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2394" t="inlineStr"/>
       <c r="E2394" t="inlineStr">
         <is>
-          <t>49.3</t>
+          <t>46.2</t>
         </is>
       </c>
       <c r="F2394" t="inlineStr"/>
       <c r="G2394" t="inlineStr"/>
       <c r="H2394" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2395">
       <c r="A2395" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>02:20 PM</t>
         </is>
       </c>
       <c r="B2395" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2395" t="inlineStr">
         <is>
-          <t>ISM Manufacturing EmploymentJAN</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2395" t="inlineStr"/>
       <c r="E2395" t="inlineStr">
         <is>
+          <t>41.9</t>
+        </is>
+      </c>
+      <c r="F2395" t="inlineStr">
+        <is>
           <t>45.3</t>
         </is>
       </c>
-      <c r="F2395" t="inlineStr"/>
-      <c r="G2395" t="inlineStr"/>
+      <c r="G2395" t="inlineStr">
+        <is>
+          <t>45.3</t>
+        </is>
+      </c>
       <c r="H2395" t="inlineStr">
         <is>
           <t>2</t>
@@ -77652,83 +78022,107 @@
     <row r="2396">
       <c r="A2396" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>02:25 PM</t>
         </is>
       </c>
       <c r="B2396" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2396" t="inlineStr">
         <is>
-          <t>Construction Spending MoMDEC</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2396" t="inlineStr"/>
       <c r="E2396" t="inlineStr">
         <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F2396" t="inlineStr"/>
+          <t>42.5</t>
+        </is>
+      </c>
+      <c r="F2396" t="inlineStr">
+        <is>
+          <t>44.1</t>
+        </is>
+      </c>
       <c r="G2396" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>44.1</t>
         </is>
       </c>
       <c r="H2396" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2397">
       <c r="A2397" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2397" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2397" t="inlineStr">
         <is>
-          <t>ISM Manufacturing New OrdersJAN</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2397" t="inlineStr"/>
-      <c r="E2397" t="inlineStr"/>
-      <c r="F2397" t="inlineStr"/>
-      <c r="G2397" t="inlineStr"/>
+      <c r="E2397" t="inlineStr">
+        <is>
+          <t>45.1</t>
+        </is>
+      </c>
+      <c r="F2397" t="inlineStr">
+        <is>
+          <t>46.1</t>
+        </is>
+      </c>
+      <c r="G2397" t="inlineStr">
+        <is>
+          <t>46.1</t>
+        </is>
+      </c>
       <c r="H2397" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2398">
       <c r="A2398" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2398" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2398" t="inlineStr">
         <is>
-          <t>ISM Manufacturing PricesJAN</t>
+          <t>ABSA Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2398" t="inlineStr"/>
-      <c r="E2398" t="inlineStr"/>
+      <c r="E2398" t="inlineStr">
+        <is>
+          <t>46.2</t>
+        </is>
+      </c>
       <c r="F2398" t="inlineStr"/>
-      <c r="G2398" t="inlineStr"/>
+      <c r="G2398" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
       <c r="H2398" t="inlineStr">
         <is>
           <t>3</t>
@@ -77738,43 +78132,55 @@
     <row r="2399">
       <c r="A2399" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B2399" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2399" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2399" t="inlineStr"/>
-      <c r="E2399" t="inlineStr"/>
-      <c r="F2399" t="inlineStr"/>
-      <c r="G2399" t="inlineStr"/>
+      <c r="E2399" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="F2399" t="inlineStr">
+        <is>
+          <t>48.2</t>
+        </is>
+      </c>
+      <c r="G2399" t="inlineStr">
+        <is>
+          <t>48.2</t>
+        </is>
+      </c>
       <c r="H2399" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2400">
       <c r="A2400" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2400" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2400" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Inflation Rate YoY FlashJAN</t>
         </is>
       </c>
       <c r="D2400" t="inlineStr"/>
@@ -77783,75 +78189,753 @@
       <c r="G2400" t="inlineStr"/>
       <c r="H2400" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2401">
-      <c r="A2401" t="inlineStr"/>
+      <c r="A2401" t="inlineStr">
+        <is>
+          <t>03:30 PM</t>
+        </is>
+      </c>
       <c r="B2401" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2401" t="inlineStr">
         <is>
-          <t>Total New Vehicle SalesJAN</t>
+          <t>Core Inflation Rate YoY FlashJAN</t>
         </is>
       </c>
       <c r="D2401" t="inlineStr"/>
       <c r="E2401" t="inlineStr">
         <is>
-          <t>41.27K</t>
+          <t>2.7%</t>
         </is>
       </c>
       <c r="F2401" t="inlineStr"/>
-      <c r="G2401" t="inlineStr">
-        <is>
-          <t>43.0K</t>
-        </is>
-      </c>
+      <c r="G2401" t="inlineStr"/>
       <c r="H2401" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2402">
       <c r="A2402" t="inlineStr">
         <is>
-          <t>Tuesday February 04 2025</t>
-        </is>
-      </c>
-      <c r="B2402" t="inlineStr"/>
-      <c r="C2402" t="inlineStr"/>
+          <t>03:30 PM</t>
+        </is>
+      </c>
+      <c r="B2402" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="C2402" t="inlineStr">
+        <is>
+          <t>Inflation Rate MoM FlashJAN</t>
+        </is>
+      </c>
       <c r="D2402" t="inlineStr"/>
       <c r="E2402" t="inlineStr"/>
       <c r="F2402" t="inlineStr"/>
       <c r="G2402" t="inlineStr"/>
-      <c r="H2402" t="inlineStr"/>
+      <c r="H2402" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="2403">
       <c r="A2403" t="inlineStr">
         <is>
-          <t>01:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2403" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2403" t="inlineStr">
         <is>
-          <t>Treasury Refunding Financing Estimates</t>
+          <t>CPI FlashJAN</t>
         </is>
       </c>
       <c r="D2403" t="inlineStr"/>
-      <c r="E2403" t="inlineStr"/>
+      <c r="E2403" t="inlineStr">
+        <is>
+          <t>127.07</t>
+        </is>
+      </c>
       <c r="F2403" t="inlineStr"/>
       <c r="G2403" t="inlineStr"/>
       <c r="H2403" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2404">
+      <c r="A2404" t="inlineStr">
+        <is>
+          <t>03:30 PM</t>
+        </is>
+      </c>
+      <c r="B2404" t="inlineStr">
+        <is>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="C2404" t="inlineStr">
+        <is>
+          <t>Inflation Rate YoY PrelJAN</t>
+        </is>
+      </c>
+      <c r="D2404" t="inlineStr"/>
+      <c r="E2404" t="inlineStr">
+        <is>
+          <t>1.3%</t>
+        </is>
+      </c>
+      <c r="F2404" t="inlineStr"/>
+      <c r="G2404" t="inlineStr"/>
+      <c r="H2404" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="2405">
+      <c r="A2405" t="inlineStr">
+        <is>
+          <t>03:30 PM</t>
+        </is>
+      </c>
+      <c r="B2405" t="inlineStr">
+        <is>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="C2405" t="inlineStr">
+        <is>
+          <t>Inflation Rate MoM PrelJAN</t>
+        </is>
+      </c>
+      <c r="D2405" t="inlineStr"/>
+      <c r="E2405" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F2405" t="inlineStr"/>
+      <c r="G2405" t="inlineStr"/>
+      <c r="H2405" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2406">
+      <c r="A2406" t="inlineStr">
+        <is>
+          <t>03:30 PM</t>
+        </is>
+      </c>
+      <c r="B2406" t="inlineStr">
+        <is>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="C2406" t="inlineStr">
+        <is>
+          <t>Harmonised Inflation Rate MoM PrelJAN</t>
+        </is>
+      </c>
+      <c r="D2406" t="inlineStr"/>
+      <c r="E2406" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F2406" t="inlineStr"/>
+      <c r="G2406" t="inlineStr"/>
+      <c r="H2406" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2407">
+      <c r="A2407" t="inlineStr">
+        <is>
+          <t>03:30 PM</t>
+        </is>
+      </c>
+      <c r="B2407" t="inlineStr">
+        <is>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="C2407" t="inlineStr">
+        <is>
+          <t>Harmonised Inflation Rate YoY PrelJAN</t>
+        </is>
+      </c>
+      <c r="D2407" t="inlineStr"/>
+      <c r="E2407" t="inlineStr">
+        <is>
+          <t>1.4%</t>
+        </is>
+      </c>
+      <c r="F2407" t="inlineStr"/>
+      <c r="G2407" t="inlineStr"/>
+      <c r="H2407" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2408">
+      <c r="A2408" t="inlineStr">
+        <is>
+          <t>03:30 PM</t>
+        </is>
+      </c>
+      <c r="B2408" t="inlineStr">
+        <is>
+          <t>MX</t>
+        </is>
+      </c>
+      <c r="C2408" t="inlineStr">
+        <is>
+          <t>Foreign Exchange ReservesDEC</t>
+        </is>
+      </c>
+      <c r="D2408" t="inlineStr"/>
+      <c r="E2408" t="inlineStr">
+        <is>
+          <t>$232.2B</t>
+        </is>
+      </c>
+      <c r="F2408" t="inlineStr"/>
+      <c r="G2408" t="inlineStr">
+        <is>
+          <t>$ 230B</t>
+        </is>
+      </c>
+      <c r="H2408" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2409">
+      <c r="A2409" t="inlineStr">
+        <is>
+          <t>06:30 PM</t>
+        </is>
+      </c>
+      <c r="B2409" t="inlineStr">
+        <is>
+          <t>BR</t>
+        </is>
+      </c>
+      <c r="C2409" t="inlineStr">
+        <is>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
+        </is>
+      </c>
+      <c r="D2409" t="inlineStr"/>
+      <c r="E2409" t="inlineStr">
+        <is>
+          <t>50.4</t>
+        </is>
+      </c>
+      <c r="F2409" t="inlineStr"/>
+      <c r="G2409" t="inlineStr">
+        <is>
+          <t>49.8</t>
+        </is>
+      </c>
+      <c r="H2409" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2410">
+      <c r="A2410" t="inlineStr">
+        <is>
+          <t>06:30 PM</t>
+        </is>
+      </c>
+      <c r="B2410" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="C2410" t="inlineStr">
+        <is>
+          <t>SIPMM Manufacturing PMIJAN</t>
+        </is>
+      </c>
+      <c r="D2410" t="inlineStr"/>
+      <c r="E2410" t="inlineStr">
+        <is>
+          <t>51.1</t>
+        </is>
+      </c>
+      <c r="F2410" t="inlineStr"/>
+      <c r="G2410" t="inlineStr">
+        <is>
+          <t>51.4</t>
+        </is>
+      </c>
+      <c r="H2410" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2411">
+      <c r="A2411" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B2411" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2411" t="inlineStr">
+        <is>
+          <t>Fed Bostic Speech</t>
+        </is>
+      </c>
+      <c r="D2411" t="inlineStr"/>
+      <c r="E2411" t="inlineStr"/>
+      <c r="F2411" t="inlineStr"/>
+      <c r="G2411" t="inlineStr"/>
+      <c r="H2411" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2412">
+      <c r="A2412" t="inlineStr">
+        <is>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B2412" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C2412" t="inlineStr">
+        <is>
+          <t>12-Month BTF Auction</t>
+        </is>
+      </c>
+      <c r="D2412" t="inlineStr"/>
+      <c r="E2412" t="inlineStr"/>
+      <c r="F2412" t="inlineStr"/>
+      <c r="G2412" t="inlineStr"/>
+      <c r="H2412" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2413">
+      <c r="A2413" t="inlineStr">
+        <is>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B2413" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C2413" t="inlineStr">
+        <is>
+          <t>3-Month BTF Auction</t>
+        </is>
+      </c>
+      <c r="D2413" t="inlineStr"/>
+      <c r="E2413" t="inlineStr"/>
+      <c r="F2413" t="inlineStr"/>
+      <c r="G2413" t="inlineStr"/>
+      <c r="H2413" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2414">
+      <c r="A2414" t="inlineStr">
+        <is>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B2414" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C2414" t="inlineStr">
+        <is>
+          <t>6-Month BTF Auction</t>
+        </is>
+      </c>
+      <c r="D2414" t="inlineStr"/>
+      <c r="E2414" t="inlineStr"/>
+      <c r="F2414" t="inlineStr"/>
+      <c r="G2414" t="inlineStr"/>
+      <c r="H2414" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2415">
+      <c r="A2415" t="inlineStr">
+        <is>
+          <t>08:00 PM</t>
+        </is>
+      </c>
+      <c r="B2415" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="C2415" t="inlineStr">
+        <is>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
+        </is>
+      </c>
+      <c r="D2415" t="inlineStr"/>
+      <c r="E2415" t="inlineStr">
+        <is>
+          <t>52.2</t>
+        </is>
+      </c>
+      <c r="F2415" t="inlineStr"/>
+      <c r="G2415" t="inlineStr"/>
+      <c r="H2415" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2416">
+      <c r="A2416" t="inlineStr">
+        <is>
+          <t>08:15 PM</t>
+        </is>
+      </c>
+      <c r="B2416" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2416" t="inlineStr">
+        <is>
+          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
+        </is>
+      </c>
+      <c r="D2416" t="inlineStr"/>
+      <c r="E2416" t="inlineStr">
+        <is>
+          <t>49.4</t>
+        </is>
+      </c>
+      <c r="F2416" t="inlineStr">
+        <is>
+          <t>50.1</t>
+        </is>
+      </c>
+      <c r="G2416" t="inlineStr">
+        <is>
+          <t>50.1</t>
+        </is>
+      </c>
+      <c r="H2416" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2417">
+      <c r="A2417" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B2417" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2417" t="inlineStr">
+        <is>
+          <t>ISM Manufacturing PMIJAN</t>
+        </is>
+      </c>
+      <c r="D2417" t="inlineStr"/>
+      <c r="E2417" t="inlineStr">
+        <is>
+          <t>49.3</t>
+        </is>
+      </c>
+      <c r="F2417" t="inlineStr"/>
+      <c r="G2417" t="inlineStr"/>
+      <c r="H2417" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="2418">
+      <c r="A2418" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B2418" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2418" t="inlineStr">
+        <is>
+          <t>ISM Manufacturing EmploymentJAN</t>
+        </is>
+      </c>
+      <c r="D2418" t="inlineStr"/>
+      <c r="E2418" t="inlineStr">
+        <is>
+          <t>45.3</t>
+        </is>
+      </c>
+      <c r="F2418" t="inlineStr"/>
+      <c r="G2418" t="inlineStr"/>
+      <c r="H2418" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2419">
+      <c r="A2419" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B2419" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2419" t="inlineStr">
+        <is>
+          <t>Construction Spending MoMDEC</t>
+        </is>
+      </c>
+      <c r="D2419" t="inlineStr"/>
+      <c r="E2419" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F2419" t="inlineStr"/>
+      <c r="G2419" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="H2419" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2420">
+      <c r="A2420" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B2420" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2420" t="inlineStr">
+        <is>
+          <t>ISM Manufacturing New OrdersJAN</t>
+        </is>
+      </c>
+      <c r="D2420" t="inlineStr"/>
+      <c r="E2420" t="inlineStr"/>
+      <c r="F2420" t="inlineStr"/>
+      <c r="G2420" t="inlineStr"/>
+      <c r="H2420" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2421">
+      <c r="A2421" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B2421" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2421" t="inlineStr">
+        <is>
+          <t>ISM Manufacturing PricesJAN</t>
+        </is>
+      </c>
+      <c r="D2421" t="inlineStr"/>
+      <c r="E2421" t="inlineStr"/>
+      <c r="F2421" t="inlineStr"/>
+      <c r="G2421" t="inlineStr"/>
+      <c r="H2421" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2422">
+      <c r="A2422" t="inlineStr">
+        <is>
+          <t>10:00 PM</t>
+        </is>
+      </c>
+      <c r="B2422" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2422" t="inlineStr">
+        <is>
+          <t>3-Month Bill Auction</t>
+        </is>
+      </c>
+      <c r="D2422" t="inlineStr"/>
+      <c r="E2422" t="inlineStr"/>
+      <c r="F2422" t="inlineStr"/>
+      <c r="G2422" t="inlineStr"/>
+      <c r="H2422" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2423">
+      <c r="A2423" t="inlineStr">
+        <is>
+          <t>10:00 PM</t>
+        </is>
+      </c>
+      <c r="B2423" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2423" t="inlineStr">
+        <is>
+          <t>6-Month Bill Auction</t>
+        </is>
+      </c>
+      <c r="D2423" t="inlineStr"/>
+      <c r="E2423" t="inlineStr"/>
+      <c r="F2423" t="inlineStr"/>
+      <c r="G2423" t="inlineStr"/>
+      <c r="H2423" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2424">
+      <c r="A2424" t="inlineStr"/>
+      <c r="B2424" t="inlineStr">
+        <is>
+          <t>ZA</t>
+        </is>
+      </c>
+      <c r="C2424" t="inlineStr">
+        <is>
+          <t>Total New Vehicle SalesJAN</t>
+        </is>
+      </c>
+      <c r="D2424" t="inlineStr"/>
+      <c r="E2424" t="inlineStr">
+        <is>
+          <t>41.27K</t>
+        </is>
+      </c>
+      <c r="F2424" t="inlineStr"/>
+      <c r="G2424" t="inlineStr">
+        <is>
+          <t>43.0K</t>
+        </is>
+      </c>
+      <c r="H2424" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2425">
+      <c r="A2425" t="inlineStr">
+        <is>
+          <t>Tuesday February 04 2025</t>
+        </is>
+      </c>
+      <c r="B2425" t="inlineStr"/>
+      <c r="C2425" t="inlineStr"/>
+      <c r="D2425" t="inlineStr"/>
+      <c r="E2425" t="inlineStr"/>
+      <c r="F2425" t="inlineStr"/>
+      <c r="G2425" t="inlineStr"/>
+      <c r="H2425" t="inlineStr"/>
+    </row>
+    <row r="2426">
+      <c r="A2426" t="inlineStr">
+        <is>
+          <t>01:30 AM</t>
+        </is>
+      </c>
+      <c r="B2426" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2426" t="inlineStr">
+        <is>
+          <t>Treasury Refunding Financing Estimates</t>
+        </is>
+      </c>
+      <c r="D2426" t="inlineStr"/>
+      <c r="E2426" t="inlineStr"/>
+      <c r="F2426" t="inlineStr"/>
+      <c r="G2426" t="inlineStr"/>
+      <c r="H2426" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-04.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-04.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2426"/>
+  <dimension ref="A1:H2405"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71581,10 +71581,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H2201" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2201" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2202">
@@ -71619,10 +71617,8 @@
           <t>2.7%</t>
         </is>
       </c>
-      <c r="H2202" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2202" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2203">
@@ -71653,10 +71649,8 @@
           <t>2.7%</t>
         </is>
       </c>
-      <c r="H2203" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2203" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2204">
@@ -71687,10 +71681,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H2204" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2204" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2205">
@@ -71721,10 +71713,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H2205" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2205" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2206">
@@ -71759,10 +71749,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H2206" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2206" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2207">
@@ -71797,10 +71785,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H2207" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2207" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2208">
@@ -71835,10 +71821,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2208" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2208" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2209">
@@ -71869,10 +71853,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2209" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2209" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2210">
@@ -71903,10 +71885,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H2210" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2210" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2211">
@@ -71937,10 +71917,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2211" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2211" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2212">
@@ -71971,10 +71949,8 @@
           <t>£ 1.3B</t>
         </is>
       </c>
-      <c r="H2212" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2212" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2213">
@@ -72009,10 +71985,8 @@
           <t>65.1K</t>
         </is>
       </c>
-      <c r="H2213" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2213" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2214">
@@ -72043,10 +72017,8 @@
           <t>£ 2.2B</t>
         </is>
       </c>
-      <c r="H2214" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2214" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2215">
@@ -72081,10 +72053,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H2215" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2215" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2216">
@@ -72119,10 +72089,8 @@
           <t>£3.5B</t>
         </is>
       </c>
-      <c r="H2216" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2216" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2217">
@@ -72157,10 +72125,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2217" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2217" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2218">
@@ -72195,10 +72161,8 @@
           <t>6.4%</t>
         </is>
       </c>
-      <c r="H2218" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2218" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2219">
@@ -72229,10 +72193,8 @@
         </is>
       </c>
       <c r="G2219" t="inlineStr"/>
-      <c r="H2219" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2219" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2220">
@@ -72267,10 +72229,8 @@
           <t>93.5</t>
         </is>
       </c>
-      <c r="H2220" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2220" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2221">
@@ -72305,10 +72265,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H2221" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2221" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2222">
@@ -72339,10 +72297,8 @@
           <t>22</t>
         </is>
       </c>
-      <c r="H2222" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2222" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2223">
@@ -72373,10 +72329,8 @@
           <t>-14.5</t>
         </is>
       </c>
-      <c r="H2223" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2223" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2224">
@@ -72407,10 +72361,8 @@
           <t>8</t>
         </is>
       </c>
-      <c r="H2224" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2224" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2225">
@@ -72441,10 +72393,8 @@
           <t>6</t>
         </is>
       </c>
-      <c r="H2225" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2225" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2226">
@@ -72479,10 +72429,8 @@
           <t>5.6%</t>
         </is>
       </c>
-      <c r="H2226" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2226" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2227">
@@ -72505,10 +72453,8 @@
       <c r="E2227" t="inlineStr"/>
       <c r="F2227" t="inlineStr"/>
       <c r="G2227" t="inlineStr"/>
-      <c r="H2227" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2227" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2228">
@@ -72539,10 +72485,8 @@
           <t>0.9%</t>
         </is>
       </c>
-      <c r="H2228" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2228" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2229">
@@ -72573,10 +72517,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H2229" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2229" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2230">
@@ -72607,10 +72549,8 @@
           <t>-5.1%</t>
         </is>
       </c>
-      <c r="H2230" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2230" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2231">
@@ -72633,10 +72573,8 @@
       <c r="E2231" t="inlineStr"/>
       <c r="F2231" t="inlineStr"/>
       <c r="G2231" t="inlineStr"/>
-      <c r="H2231" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2231" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2232">
@@ -72663,10 +72601,8 @@
       </c>
       <c r="F2232" t="inlineStr"/>
       <c r="G2232" t="inlineStr"/>
-      <c r="H2232" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2232" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2233">
@@ -72697,10 +72633,8 @@
           <t>56.2</t>
         </is>
       </c>
-      <c r="H2233" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2233" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2234">
@@ -72731,10 +72665,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2234" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2234" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2235">
@@ -72765,10 +72697,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H2235" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2235" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2236">
@@ -72799,10 +72729,8 @@
           <t>-5</t>
         </is>
       </c>
-      <c r="H2236" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2236" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2237">
@@ -72837,10 +72765,8 @@
           <t>7.50%</t>
         </is>
       </c>
-      <c r="H2237" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2237" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2238">
@@ -72871,10 +72797,8 @@
           <t>11.0%</t>
         </is>
       </c>
-      <c r="H2238" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2238" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2239">
@@ -72909,10 +72833,8 @@
           <t>2.75%</t>
         </is>
       </c>
-      <c r="H2239" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2239" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2240">
@@ -72947,10 +72869,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H2240" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2240" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2241">
@@ -72981,10 +72901,8 @@
           <t>3.15%</t>
         </is>
       </c>
-      <c r="H2241" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2241" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2242">
@@ -73015,10 +72933,8 @@
           <t>5.0%</t>
         </is>
       </c>
-      <c r="H2242" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2242" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2243">
@@ -73053,10 +72969,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H2243" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2243" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2244">
@@ -73091,10 +73005,8 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="H2244" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2244" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2245">
@@ -73129,10 +73041,8 @@
           <t>228.0K</t>
         </is>
       </c>
-      <c r="H2245" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2245" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2246">
@@ -73163,10 +73073,8 @@
           <t>1885.0K</t>
         </is>
       </c>
-      <c r="H2246" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2246" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2247">
@@ -73197,10 +73105,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="H2247" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2247" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2248">
@@ -73231,10 +73137,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H2248" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2248" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2249">
@@ -73265,10 +73169,8 @@
           <t>214.0K</t>
         </is>
       </c>
-      <c r="H2249" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2249" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2250">
@@ -73299,10 +73201,8 @@
           <t>1.1%</t>
         </is>
       </c>
-      <c r="H2250" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2250" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2251">
@@ -73333,10 +73233,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H2251" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2251" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2252">
@@ -73359,10 +73257,8 @@
       <c r="E2252" t="inlineStr"/>
       <c r="F2252" t="inlineStr"/>
       <c r="G2252" t="inlineStr"/>
-      <c r="H2252" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2252" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2253">
@@ -73397,10 +73293,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2253" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2253" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2254">
@@ -73431,10 +73325,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H2254" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2254" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2255">
@@ -73461,10 +73353,8 @@
       </c>
       <c r="F2255" t="inlineStr"/>
       <c r="G2255" t="inlineStr"/>
-      <c r="H2255" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2255" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2256">
@@ -73491,10 +73381,8 @@
       </c>
       <c r="F2256" t="inlineStr"/>
       <c r="G2256" t="inlineStr"/>
-      <c r="H2256" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2256" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2257">
@@ -73521,10 +73409,8 @@
       </c>
       <c r="F2257" t="inlineStr"/>
       <c r="G2257" t="inlineStr"/>
-      <c r="H2257" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2257" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2258">
@@ -73551,10 +73437,8 @@
       </c>
       <c r="F2258" t="inlineStr"/>
       <c r="G2258" t="inlineStr"/>
-      <c r="H2258" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2258" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2259">
@@ -73581,10 +73465,8 @@
       </c>
       <c r="F2259" t="inlineStr"/>
       <c r="G2259" t="inlineStr"/>
-      <c r="H2259" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2259" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2260">
@@ -73611,10 +73493,8 @@
           <t>ZAR14.0B</t>
         </is>
       </c>
-      <c r="H2260" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2260" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2261">
@@ -73641,10 +73521,8 @@
           <t>10.6%</t>
         </is>
       </c>
-      <c r="H2261" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2261" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2262">
@@ -73671,10 +73549,8 @@
           <t>12.8%</t>
         </is>
       </c>
-      <c r="H2262" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2262" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2263">
@@ -73697,10 +73573,8 @@
       </c>
       <c r="F2263" t="inlineStr"/>
       <c r="G2263" t="inlineStr"/>
-      <c r="H2263" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2263" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2264">
@@ -73723,10 +73597,8 @@
       </c>
       <c r="F2264" t="inlineStr"/>
       <c r="G2264" t="inlineStr"/>
-      <c r="H2264" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2264" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2265">
@@ -73753,86 +73625,108 @@
           <t>90.0K</t>
         </is>
       </c>
-      <c r="H2265" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2265" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2266">
       <c r="A2266" t="inlineStr">
         <is>
-          <t>Friday January 31 2025</t>
-        </is>
-      </c>
-      <c r="B2266" t="inlineStr"/>
-      <c r="C2266" t="inlineStr"/>
+          <t>12:30 PM</t>
+        </is>
+      </c>
+      <c r="B2266" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="C2266" t="inlineStr">
+        <is>
+          <t>Retail Sales MoMDEC</t>
+        </is>
+      </c>
       <c r="D2266" t="inlineStr"/>
-      <c r="E2266" t="inlineStr"/>
-      <c r="F2266" t="inlineStr"/>
-      <c r="G2266" t="inlineStr"/>
-      <c r="H2266" t="inlineStr"/>
+      <c r="E2266" t="inlineStr">
+        <is>
+          <t>-0.6%</t>
+        </is>
+      </c>
+      <c r="F2266" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="G2266" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="H2266" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="2267">
       <c r="A2267" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2267" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2267" t="inlineStr">
         <is>
-          <t>Fed Balance SheetJAN/29</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="D2267" t="inlineStr"/>
       <c r="E2267" t="inlineStr">
         <is>
-          <t>$6.88T</t>
+          <t>2.5%</t>
         </is>
       </c>
       <c r="F2267" t="inlineStr"/>
-      <c r="G2267" t="inlineStr"/>
+      <c r="G2267" t="inlineStr">
+        <is>
+          <t>1.9%</t>
+        </is>
+      </c>
       <c r="H2267" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2268">
       <c r="A2268" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2268" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2268" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>Balance of Trade FinalDEC</t>
         </is>
       </c>
       <c r="D2268" t="inlineStr"/>
       <c r="E2268" t="inlineStr">
         <is>
-          <t>2.5%</t>
-        </is>
-      </c>
-      <c r="F2268" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
+          <t>$-7.46B</t>
+        </is>
+      </c>
+      <c r="F2268" t="inlineStr"/>
       <c r="G2268" t="inlineStr">
         <is>
-          <t>2.50%</t>
+          <t>$-8.82B</t>
         </is>
       </c>
       <c r="H2268" t="inlineStr">
@@ -73844,33 +73738,33 @@
     <row r="2269">
       <c r="A2269" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2269" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2269" t="inlineStr">
         <is>
-          <t>Jobs/applications ratioDEC</t>
+          <t>Exports FinalDEC</t>
         </is>
       </c>
       <c r="D2269" t="inlineStr"/>
       <c r="E2269" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>$22.29B</t>
         </is>
       </c>
       <c r="F2269" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>$23.46B</t>
         </is>
       </c>
       <c r="G2269" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>$ 23.46B</t>
         </is>
       </c>
       <c r="H2269" t="inlineStr">
@@ -73882,33 +73776,29 @@
     <row r="2270">
       <c r="A2270" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2270" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2270" t="inlineStr">
         <is>
-          <t>Tokyo Core CPI YoYJAN</t>
+          <t>Imports FinalDEC</t>
         </is>
       </c>
       <c r="D2270" t="inlineStr"/>
       <c r="E2270" t="inlineStr">
         <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="F2270" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
+          <t>$29.75B</t>
+        </is>
+      </c>
+      <c r="F2270" t="inlineStr"/>
       <c r="G2270" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>$32.29B</t>
         </is>
       </c>
       <c r="H2270" t="inlineStr">
@@ -73920,29 +73810,29 @@
     <row r="2271">
       <c r="A2271" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2271" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2271" t="inlineStr">
         <is>
-          <t>Tokyo CPI Ex Food and Energy YoYJAN</t>
+          <t>Tourism RevenuesQ4</t>
         </is>
       </c>
       <c r="D2271" t="inlineStr"/>
       <c r="E2271" t="inlineStr">
         <is>
-          <t>1.1%</t>
+          <t>$23.22B</t>
         </is>
       </c>
       <c r="F2271" t="inlineStr"/>
       <c r="G2271" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>$ 23.5B</t>
         </is>
       </c>
       <c r="H2271" t="inlineStr">
@@ -73954,67 +73844,63 @@
     <row r="2272">
       <c r="A2272" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2272" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2272" t="inlineStr">
         <is>
-          <t>Tokyo CPI YoYJAN</t>
+          <t>Nationwide Housing Prices MoMJAN</t>
         </is>
       </c>
       <c r="D2272" t="inlineStr"/>
       <c r="E2272" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="F2272" t="inlineStr"/>
       <c r="G2272" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>0.9%</t>
         </is>
       </c>
       <c r="H2272" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2273">
       <c r="A2273" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2273" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2273" t="inlineStr">
         <is>
-          <t>Industrial Production MoM PrelDEC</t>
+          <t>Nationwide Housing Prices YoYJAN</t>
         </is>
       </c>
       <c r="D2273" t="inlineStr"/>
       <c r="E2273" t="inlineStr">
         <is>
-          <t>-2.2%</t>
-        </is>
-      </c>
-      <c r="F2273" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+          <t>4.7%</t>
+        </is>
+      </c>
+      <c r="F2273" t="inlineStr"/>
       <c r="G2273" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H2273" t="inlineStr">
@@ -74026,101 +73912,101 @@
     <row r="2274">
       <c r="A2274" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2274" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2274" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2274" t="inlineStr"/>
       <c r="E2274" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F2274" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
+          <t>1.3%</t>
+        </is>
+      </c>
+      <c r="F2274" t="inlineStr"/>
       <c r="G2274" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="H2274" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2275">
       <c r="A2275" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2275" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2275" t="inlineStr">
         <is>
-          <t>Industrial Production YoY PrelDEC</t>
+          <t>Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2275" t="inlineStr"/>
       <c r="E2275" t="inlineStr">
         <is>
-          <t>-2.8%</t>
-        </is>
-      </c>
-      <c r="F2275" t="inlineStr"/>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="F2275" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
       <c r="G2275" t="inlineStr">
         <is>
-          <t>-1.6%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H2275" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2276">
       <c r="A2276" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2276" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2276" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Harmonised Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2276" t="inlineStr"/>
       <c r="E2276" t="inlineStr">
         <is>
-          <t>1.8%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F2276" t="inlineStr"/>
       <c r="G2276" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H2276" t="inlineStr">
@@ -74132,67 +74018,63 @@
     <row r="2277">
       <c r="A2277" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2277" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2277" t="inlineStr">
         <is>
-          <t>PPI QoQQ4</t>
+          <t>Harmonised Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2277" t="inlineStr"/>
       <c r="E2277" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>1.8%</t>
         </is>
       </c>
       <c r="F2277" t="inlineStr"/>
       <c r="G2277" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>2.0%</t>
         </is>
       </c>
       <c r="H2277" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2278">
       <c r="A2278" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2278" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2278" t="inlineStr">
         <is>
-          <t>Housing Credit MoMDEC</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D2278" t="inlineStr"/>
       <c r="E2278" t="inlineStr">
         <is>
+          <t>3.2%</t>
+        </is>
+      </c>
+      <c r="F2278" t="inlineStr"/>
+      <c r="G2278" t="inlineStr">
+        <is>
           <t>0.5%</t>
-        </is>
-      </c>
-      <c r="F2278" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="G2278" t="inlineStr">
-        <is>
-          <t>0.4%</t>
         </is>
       </c>
       <c r="H2278" t="inlineStr">
@@ -74204,29 +74086,29 @@
     <row r="2279">
       <c r="A2279" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2279" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2279" t="inlineStr">
         <is>
-          <t>PPI YoYQ4</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D2279" t="inlineStr"/>
       <c r="E2279" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>-5.2%</t>
         </is>
       </c>
       <c r="F2279" t="inlineStr"/>
       <c r="G2279" t="inlineStr">
         <is>
-          <t>3.6%</t>
+          <t>-4.3%</t>
         </is>
       </c>
       <c r="H2279" t="inlineStr">
@@ -74238,29 +74120,29 @@
     <row r="2280">
       <c r="A2280" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2280" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2280" t="inlineStr">
         <is>
-          <t>Private Sector Credit MoMDEC</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D2280" t="inlineStr"/>
       <c r="E2280" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>-0.6%</t>
         </is>
       </c>
       <c r="F2280" t="inlineStr"/>
       <c r="G2280" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="H2280" t="inlineStr">
@@ -74272,29 +74154,29 @@
     <row r="2281">
       <c r="A2281" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2281" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2281" t="inlineStr">
         <is>
-          <t>Private Sector Credit YoYDEC</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="D2281" t="inlineStr"/>
       <c r="E2281" t="inlineStr">
         <is>
-          <t>6.2%</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="F2281" t="inlineStr"/>
       <c r="G2281" t="inlineStr">
         <is>
-          <t>5.7%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H2281" t="inlineStr">
@@ -74306,31 +74188,27 @@
     <row r="2282">
       <c r="A2282" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2282" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2282" t="inlineStr">
         <is>
-          <t>Bank LendingDEC</t>
+          <t>Tourist Arrivals YoYDEC</t>
         </is>
       </c>
       <c r="D2282" t="inlineStr"/>
       <c r="E2282" t="inlineStr">
         <is>
-          <t>S$819.4B</t>
+          <t>8.25%</t>
         </is>
       </c>
       <c r="F2282" t="inlineStr"/>
-      <c r="G2282" t="inlineStr">
-        <is>
-          <t>S$ 818.2B</t>
-        </is>
-      </c>
+      <c r="G2282" t="inlineStr"/>
       <c r="H2282" t="inlineStr">
         <is>
           <t>3</t>
@@ -74340,93 +74218,105 @@
     <row r="2283">
       <c r="A2283" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>02:25 PM</t>
         </is>
       </c>
       <c r="B2283" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2283" t="inlineStr">
         <is>
-          <t>2-Year JGB Auction</t>
+          <t>Unemployment ChangeJAN</t>
         </is>
       </c>
       <c r="D2283" t="inlineStr"/>
       <c r="E2283" t="inlineStr">
         <is>
-          <t>0.602%</t>
-        </is>
-      </c>
-      <c r="F2283" t="inlineStr"/>
-      <c r="G2283" t="inlineStr"/>
+          <t>10K</t>
+        </is>
+      </c>
+      <c r="F2283" t="inlineStr">
+        <is>
+          <t>15K</t>
+        </is>
+      </c>
+      <c r="G2283" t="inlineStr">
+        <is>
+          <t>7.0K</t>
+        </is>
+      </c>
       <c r="H2283" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2284">
       <c r="A2284" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>02:25 PM</t>
         </is>
       </c>
       <c r="B2284" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2284" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Unemployed PersonsJAN</t>
         </is>
       </c>
       <c r="D2284" t="inlineStr"/>
       <c r="E2284" t="inlineStr">
         <is>
-          <t>0.3657%</t>
+          <t>2.869M</t>
         </is>
       </c>
       <c r="F2284" t="inlineStr"/>
-      <c r="G2284" t="inlineStr"/>
+      <c r="G2284" t="inlineStr">
+        <is>
+          <t>2.876M</t>
+        </is>
+      </c>
       <c r="H2284" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2285">
       <c r="A2285" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>02:25 PM</t>
         </is>
       </c>
       <c r="B2285" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2285" t="inlineStr">
         <is>
-          <t>Housing Starts YoYDEC</t>
+          <t>Unemployment RateJAN</t>
         </is>
       </c>
       <c r="D2285" t="inlineStr"/>
       <c r="E2285" t="inlineStr">
         <is>
-          <t>-1.8%</t>
+          <t>6.1%</t>
         </is>
       </c>
       <c r="F2285" t="inlineStr">
         <is>
-          <t>-3.9%</t>
+          <t>6.2%</t>
         </is>
       </c>
       <c r="G2285" t="inlineStr">
         <is>
-          <t>-3.3%</t>
+          <t>6.2%</t>
         </is>
       </c>
       <c r="H2285" t="inlineStr">
@@ -74438,65 +74328,53 @@
     <row r="2286">
       <c r="A2286" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2286" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2286" t="inlineStr">
         <is>
-          <t>Construction Orders YoYDEC</t>
+          <t>ECB Survey of Professional Forecasters</t>
         </is>
       </c>
       <c r="D2286" t="inlineStr"/>
-      <c r="E2286" t="inlineStr">
-        <is>
-          <t>-10.2%</t>
-        </is>
-      </c>
+      <c r="E2286" t="inlineStr"/>
       <c r="F2286" t="inlineStr"/>
-      <c r="G2286" t="inlineStr">
-        <is>
-          <t>5.5%</t>
-        </is>
-      </c>
+      <c r="G2286" t="inlineStr"/>
       <c r="H2286" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2287">
       <c r="A2287" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2287" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2287" t="inlineStr">
         <is>
-          <t>Business ConfidenceQ4</t>
+          <t>Baden Wuerttemberg CPI MoMJAN</t>
         </is>
       </c>
       <c r="D2287" t="inlineStr"/>
       <c r="E2287" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F2287" t="inlineStr"/>
-      <c r="G2287" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
+      <c r="G2287" t="inlineStr"/>
       <c r="H2287" t="inlineStr">
         <is>
           <t>3</t>
@@ -74506,7 +74384,7 @@
     <row r="2288">
       <c r="A2288" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2288" t="inlineStr">
@@ -74516,35 +74394,27 @@
       </c>
       <c r="C2288" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Baden Wuerttemberg CPI YoYJAN</t>
         </is>
       </c>
       <c r="D2288" t="inlineStr"/>
       <c r="E2288" t="inlineStr">
         <is>
-          <t>-0.6%</t>
-        </is>
-      </c>
-      <c r="F2288" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="G2288" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>2.6%</t>
+        </is>
+      </c>
+      <c r="F2288" t="inlineStr"/>
+      <c r="G2288" t="inlineStr"/>
       <c r="H2288" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2289">
       <c r="A2289" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2289" t="inlineStr">
@@ -74554,93 +74424,77 @@
       </c>
       <c r="C2289" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Bavaria CPI MoMJAN</t>
         </is>
       </c>
       <c r="D2289" t="inlineStr"/>
       <c r="E2289" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F2289" t="inlineStr"/>
-      <c r="G2289" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
+      <c r="G2289" t="inlineStr"/>
       <c r="H2289" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2290">
       <c r="A2290" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2290" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2290" t="inlineStr">
         <is>
-          <t>Balance of Trade FinalDEC</t>
+          <t>Bavaria CPI YoYJAN</t>
         </is>
       </c>
       <c r="D2290" t="inlineStr"/>
       <c r="E2290" t="inlineStr">
         <is>
-          <t>$-7.46B</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="F2290" t="inlineStr"/>
-      <c r="G2290" t="inlineStr">
-        <is>
-          <t>$-8.82B</t>
-        </is>
-      </c>
+      <c r="G2290" t="inlineStr"/>
       <c r="H2290" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2291">
       <c r="A2291" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2291" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2291" t="inlineStr">
         <is>
-          <t>Exports FinalDEC</t>
+          <t>Brandenburg CPI MoMJAN</t>
         </is>
       </c>
       <c r="D2291" t="inlineStr"/>
       <c r="E2291" t="inlineStr">
         <is>
-          <t>$22.29B</t>
-        </is>
-      </c>
-      <c r="F2291" t="inlineStr">
-        <is>
-          <t>$23.46B</t>
-        </is>
-      </c>
-      <c r="G2291" t="inlineStr">
-        <is>
-          <t>$ 23.46B</t>
-        </is>
-      </c>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="F2291" t="inlineStr"/>
+      <c r="G2291" t="inlineStr"/>
       <c r="H2291" t="inlineStr">
         <is>
           <t>3</t>
@@ -74650,31 +74504,27 @@
     <row r="2292">
       <c r="A2292" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2292" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2292" t="inlineStr">
         <is>
-          <t>Imports FinalDEC</t>
+          <t>Brandenburg CPI YoYJAN</t>
         </is>
       </c>
       <c r="D2292" t="inlineStr"/>
       <c r="E2292" t="inlineStr">
         <is>
-          <t>$29.75B</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F2292" t="inlineStr"/>
-      <c r="G2292" t="inlineStr">
-        <is>
-          <t>$32.29B</t>
-        </is>
-      </c>
+      <c r="G2292" t="inlineStr"/>
       <c r="H2292" t="inlineStr">
         <is>
           <t>3</t>
@@ -74684,31 +74534,27 @@
     <row r="2293">
       <c r="A2293" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2293" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2293" t="inlineStr">
         <is>
-          <t>Tourism RevenuesQ4</t>
+          <t>Hesse CPI MoMJAN</t>
         </is>
       </c>
       <c r="D2293" t="inlineStr"/>
       <c r="E2293" t="inlineStr">
         <is>
-          <t>$23.22B</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F2293" t="inlineStr"/>
-      <c r="G2293" t="inlineStr">
-        <is>
-          <t>$ 23.5B</t>
-        </is>
-      </c>
+      <c r="G2293" t="inlineStr"/>
       <c r="H2293" t="inlineStr">
         <is>
           <t>3</t>
@@ -74718,171 +74564,147 @@
     <row r="2294">
       <c r="A2294" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2294" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2294" t="inlineStr">
         <is>
-          <t>Nationwide Housing Prices MoMJAN</t>
+          <t>Hesse CPI YoYJAN</t>
         </is>
       </c>
       <c r="D2294" t="inlineStr"/>
       <c r="E2294" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F2294" t="inlineStr"/>
-      <c r="G2294" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
+      <c r="G2294" t="inlineStr"/>
       <c r="H2294" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2295">
       <c r="A2295" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2295" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2295" t="inlineStr">
         <is>
-          <t>Nationwide Housing Prices YoYJAN</t>
+          <t>North Rhine Westphalia CPI MoMJAN</t>
         </is>
       </c>
       <c r="D2295" t="inlineStr"/>
       <c r="E2295" t="inlineStr">
         <is>
-          <t>4.7%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F2295" t="inlineStr"/>
-      <c r="G2295" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+      <c r="G2295" t="inlineStr"/>
       <c r="H2295" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2296">
       <c r="A2296" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2296" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2296" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelJAN</t>
+          <t>North Rhine Westphalia CPI YoYJAN</t>
         </is>
       </c>
       <c r="D2296" t="inlineStr"/>
       <c r="E2296" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>2.5%</t>
         </is>
       </c>
       <c r="F2296" t="inlineStr"/>
-      <c r="G2296" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
+      <c r="G2296" t="inlineStr"/>
       <c r="H2296" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2297">
       <c r="A2297" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2297" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2297" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM PrelJAN</t>
+          <t>Saxony CPI MoMJAN</t>
         </is>
       </c>
       <c r="D2297" t="inlineStr"/>
       <c r="E2297" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F2297" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="G2297" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="F2297" t="inlineStr"/>
+      <c r="G2297" t="inlineStr"/>
       <c r="H2297" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2298">
       <c r="A2298" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2298" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2298" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM PrelJAN</t>
+          <t>Saxony CPI YoYJAN</t>
         </is>
       </c>
       <c r="D2298" t="inlineStr"/>
       <c r="E2298" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>3.2%</t>
         </is>
       </c>
       <c r="F2298" t="inlineStr"/>
-      <c r="G2298" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G2298" t="inlineStr"/>
       <c r="H2298" t="inlineStr">
         <is>
           <t>3</t>
@@ -74892,29 +74714,29 @@
     <row r="2299">
       <c r="A2299" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2299" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2299" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY PrelJAN</t>
+          <t>Current AccountNOV</t>
         </is>
       </c>
       <c r="D2299" t="inlineStr"/>
       <c r="E2299" t="inlineStr">
         <is>
-          <t>1.8%</t>
+          <t>€4.9B</t>
         </is>
       </c>
       <c r="F2299" t="inlineStr"/>
       <c r="G2299" t="inlineStr">
         <is>
-          <t>2.0%</t>
+          <t>€5.0B</t>
         </is>
       </c>
       <c r="H2299" t="inlineStr">
@@ -74926,12 +74748,12 @@
     <row r="2300">
       <c r="A2300" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2300" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2300" t="inlineStr">
@@ -74942,13 +74764,13 @@
       <c r="D2300" t="inlineStr"/>
       <c r="E2300" t="inlineStr">
         <is>
-          <t>3.2%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="F2300" t="inlineStr"/>
       <c r="G2300" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="H2300" t="inlineStr">
@@ -74960,12 +74782,12 @@
     <row r="2301">
       <c r="A2301" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2301" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2301" t="inlineStr">
@@ -74976,13 +74798,13 @@
       <c r="D2301" t="inlineStr"/>
       <c r="E2301" t="inlineStr">
         <is>
-          <t>-5.2%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="F2301" t="inlineStr"/>
       <c r="G2301" t="inlineStr">
         <is>
-          <t>-4.3%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H2301" t="inlineStr">
@@ -74994,29 +74816,29 @@
     <row r="2302">
       <c r="A2302" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B2302" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2302" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Government Budget ValueDEC</t>
         </is>
       </c>
       <c r="D2302" t="inlineStr"/>
       <c r="E2302" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>INR-8465.9B</t>
         </is>
       </c>
       <c r="F2302" t="inlineStr"/>
       <c r="G2302" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>INR-9700.0B</t>
         </is>
       </c>
       <c r="H2302" t="inlineStr">
@@ -75028,29 +74850,29 @@
     <row r="2303">
       <c r="A2303" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2303" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2303" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Gross Debt to GDPDEC</t>
         </is>
       </c>
       <c r="D2303" t="inlineStr"/>
       <c r="E2303" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>77.7%</t>
         </is>
       </c>
       <c r="F2303" t="inlineStr"/>
       <c r="G2303" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>77.9%</t>
         </is>
       </c>
       <c r="H2303" t="inlineStr">
@@ -75062,27 +74884,31 @@
     <row r="2304">
       <c r="A2304" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2304" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2304" t="inlineStr">
         <is>
-          <t>Tourist Arrivals YoYDEC</t>
+          <t>Nominal Budget BalanceDEC</t>
         </is>
       </c>
       <c r="D2304" t="inlineStr"/>
       <c r="E2304" t="inlineStr">
         <is>
-          <t>8.25%</t>
+          <t>BRL-99.1B</t>
         </is>
       </c>
       <c r="F2304" t="inlineStr"/>
-      <c r="G2304" t="inlineStr"/>
+      <c r="G2304" t="inlineStr">
+        <is>
+          <t>BRL-103.0B</t>
+        </is>
+      </c>
       <c r="H2304" t="inlineStr">
         <is>
           <t>3</t>
@@ -75092,203 +74918,199 @@
     <row r="2305">
       <c r="A2305" t="inlineStr">
         <is>
-          <t>02:25 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2305" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2305" t="inlineStr">
         <is>
-          <t>Unemployment ChangeJAN</t>
+          <t>Bank Loan Growth YoYJAN/17</t>
         </is>
       </c>
       <c r="D2305" t="inlineStr"/>
       <c r="E2305" t="inlineStr">
         <is>
-          <t>10K</t>
-        </is>
-      </c>
-      <c r="F2305" t="inlineStr">
-        <is>
-          <t>15K</t>
-        </is>
-      </c>
-      <c r="G2305" t="inlineStr">
-        <is>
-          <t>7.0K</t>
-        </is>
-      </c>
+          <t>11.2%</t>
+        </is>
+      </c>
+      <c r="F2305" t="inlineStr"/>
+      <c r="G2305" t="inlineStr"/>
       <c r="H2305" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2306">
       <c r="A2306" t="inlineStr">
         <is>
-          <t>02:25 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2306" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2306" t="inlineStr">
         <is>
-          <t>Unemployed PersonsJAN</t>
+          <t>Deposit Growth YoYJAN/17</t>
         </is>
       </c>
       <c r="D2306" t="inlineStr"/>
       <c r="E2306" t="inlineStr">
         <is>
-          <t>2.869M</t>
+          <t>9.8%</t>
         </is>
       </c>
       <c r="F2306" t="inlineStr"/>
-      <c r="G2306" t="inlineStr">
-        <is>
-          <t>2.876M</t>
-        </is>
-      </c>
+      <c r="G2306" t="inlineStr"/>
       <c r="H2306" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2307">
       <c r="A2307" t="inlineStr">
         <is>
-          <t>02:25 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2307" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2307" t="inlineStr">
         <is>
-          <t>Unemployment RateJAN</t>
+          <t>Foreign Exchange ReservesJAN/24</t>
         </is>
       </c>
       <c r="D2307" t="inlineStr"/>
       <c r="E2307" t="inlineStr">
         <is>
-          <t>6.1%</t>
-        </is>
-      </c>
-      <c r="F2307" t="inlineStr">
-        <is>
-          <t>6.2%</t>
-        </is>
-      </c>
-      <c r="G2307" t="inlineStr">
-        <is>
-          <t>6.2%</t>
-        </is>
-      </c>
+          <t>$623.98B</t>
+        </is>
+      </c>
+      <c r="F2307" t="inlineStr"/>
+      <c r="G2307" t="inlineStr"/>
       <c r="H2307" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2308">
       <c r="A2308" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2308" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2308" t="inlineStr">
         <is>
-          <t>ECB Survey of Professional Forecasters</t>
+          <t>Infrastructure Output YoYDEC</t>
         </is>
       </c>
       <c r="D2308" t="inlineStr"/>
-      <c r="E2308" t="inlineStr"/>
+      <c r="E2308" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
       <c r="F2308" t="inlineStr"/>
-      <c r="G2308" t="inlineStr"/>
+      <c r="G2308" t="inlineStr">
+        <is>
+          <t>4.8%</t>
+        </is>
+      </c>
       <c r="H2308" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2309">
       <c r="A2309" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2309" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2309" t="inlineStr">
         <is>
-          <t>Baden Wuerttemberg CPI MoMJAN</t>
+          <t>Unemployment RateDEC</t>
         </is>
       </c>
       <c r="D2309" t="inlineStr"/>
       <c r="E2309" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>6.1%</t>
         </is>
       </c>
       <c r="F2309" t="inlineStr"/>
-      <c r="G2309" t="inlineStr"/>
+      <c r="G2309" t="inlineStr">
+        <is>
+          <t>6.1%</t>
+        </is>
+      </c>
       <c r="H2309" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2310">
       <c r="A2310" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2310" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2310" t="inlineStr">
         <is>
-          <t>Baden Wuerttemberg CPI YoYJAN</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D2310" t="inlineStr"/>
       <c r="E2310" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>ZAR34.7B</t>
         </is>
       </c>
       <c r="F2310" t="inlineStr"/>
-      <c r="G2310" t="inlineStr"/>
+      <c r="G2310" t="inlineStr">
+        <is>
+          <t>ZAR 27.0B</t>
+        </is>
+      </c>
       <c r="H2310" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2311">
       <c r="A2311" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2311" t="inlineStr">
@@ -75298,27 +75120,35 @@
       </c>
       <c r="C2311" t="inlineStr">
         <is>
-          <t>Bavaria CPI MoMJAN</t>
+          <t>Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2311" t="inlineStr"/>
       <c r="E2311" t="inlineStr">
         <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="F2311" t="inlineStr"/>
-      <c r="G2311" t="inlineStr"/>
+          <t>2.6%</t>
+        </is>
+      </c>
+      <c r="F2311" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
+      <c r="G2311" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="H2311" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2312">
       <c r="A2312" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2312" t="inlineStr">
@@ -75328,27 +75158,35 @@
       </c>
       <c r="C2312" t="inlineStr">
         <is>
-          <t>Bavaria CPI YoYJAN</t>
+          <t>Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2312" t="inlineStr"/>
       <c r="E2312" t="inlineStr">
         <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="F2312" t="inlineStr"/>
-      <c r="G2312" t="inlineStr"/>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="F2312" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="G2312" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H2312" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2313">
       <c r="A2313" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2313" t="inlineStr">
@@ -75358,17 +75196,21 @@
       </c>
       <c r="C2313" t="inlineStr">
         <is>
-          <t>Brandenburg CPI MoMJAN</t>
+          <t>Harmonised Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2313" t="inlineStr"/>
       <c r="E2313" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="F2313" t="inlineStr"/>
-      <c r="G2313" t="inlineStr"/>
+      <c r="G2313" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H2313" t="inlineStr">
         <is>
           <t>3</t>
@@ -75378,7 +75220,7 @@
     <row r="2314">
       <c r="A2314" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2314" t="inlineStr">
@@ -75388,17 +75230,25 @@
       </c>
       <c r="C2314" t="inlineStr">
         <is>
-          <t>Brandenburg CPI YoYJAN</t>
+          <t>Harmonised Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2314" t="inlineStr"/>
       <c r="E2314" t="inlineStr">
         <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="F2314" t="inlineStr"/>
-      <c r="G2314" t="inlineStr"/>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="F2314" t="inlineStr">
+        <is>
+          <t>2.9%</t>
+        </is>
+      </c>
+      <c r="G2314" t="inlineStr">
+        <is>
+          <t>3.0%</t>
+        </is>
+      </c>
       <c r="H2314" t="inlineStr">
         <is>
           <t>3</t>
@@ -75408,379 +75258,415 @@
     <row r="2315">
       <c r="A2315" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2315" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2315" t="inlineStr">
         <is>
-          <t>Hesse CPI MoMJAN</t>
+          <t>GDP MoMNOV</t>
         </is>
       </c>
       <c r="D2315" t="inlineStr"/>
       <c r="E2315" t="inlineStr">
         <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F2315" t="inlineStr"/>
-      <c r="G2315" t="inlineStr"/>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="F2315" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="G2315" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
       <c r="H2315" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2316">
       <c r="A2316" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2316" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2316" t="inlineStr">
         <is>
-          <t>Hesse CPI YoYJAN</t>
+          <t>GDP MoM PrelDEC</t>
         </is>
       </c>
       <c r="D2316" t="inlineStr"/>
       <c r="E2316" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F2316" t="inlineStr"/>
-      <c r="G2316" t="inlineStr"/>
+      <c r="G2316" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H2316" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2317">
       <c r="A2317" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2317" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2317" t="inlineStr">
         <is>
-          <t>North Rhine Westphalia CPI MoMJAN</t>
+          <t>Core PCE Price Index MoMDEC</t>
         </is>
       </c>
       <c r="D2317" t="inlineStr"/>
       <c r="E2317" t="inlineStr">
         <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="F2317" t="inlineStr"/>
-      <c r="G2317" t="inlineStr"/>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F2317" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="G2317" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H2317" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2318">
       <c r="A2318" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2318" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2318" t="inlineStr">
         <is>
-          <t>North Rhine Westphalia CPI YoYJAN</t>
+          <t>Personal Income MoMDEC</t>
         </is>
       </c>
       <c r="D2318" t="inlineStr"/>
       <c r="E2318" t="inlineStr">
         <is>
-          <t>2.5%</t>
-        </is>
-      </c>
-      <c r="F2318" t="inlineStr"/>
-      <c r="G2318" t="inlineStr"/>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="F2318" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="G2318" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H2318" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2319">
       <c r="A2319" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2319" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2319" t="inlineStr">
         <is>
-          <t>Saxony CPI MoMJAN</t>
+          <t>Personal Spending MoMDEC</t>
         </is>
       </c>
       <c r="D2319" t="inlineStr"/>
       <c r="E2319" t="inlineStr">
         <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="F2319" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="G2319" t="inlineStr">
+        <is>
           <t>0.5%</t>
         </is>
       </c>
-      <c r="F2319" t="inlineStr"/>
-      <c r="G2319" t="inlineStr"/>
       <c r="H2319" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2320">
       <c r="A2320" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2320" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2320" t="inlineStr">
         <is>
-          <t>Saxony CPI YoYJAN</t>
+          <t>Employment Cost - Benefits QoQQ4</t>
         </is>
       </c>
       <c r="D2320" t="inlineStr"/>
       <c r="E2320" t="inlineStr">
         <is>
-          <t>3.2%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F2320" t="inlineStr"/>
-      <c r="G2320" t="inlineStr"/>
+      <c r="G2320" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
       <c r="H2320" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2321">
       <c r="A2321" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2321" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2321" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>Employment Cost - Wages QoQQ4</t>
         </is>
       </c>
       <c r="D2321" t="inlineStr"/>
       <c r="E2321" t="inlineStr">
         <is>
-          <t>€4.9B</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F2321" t="inlineStr"/>
       <c r="G2321" t="inlineStr">
         <is>
-          <t>€5.0B</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="H2321" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2322">
       <c r="A2322" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2322" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2322" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Employment Cost Index QoQQ4</t>
         </is>
       </c>
       <c r="D2322" t="inlineStr"/>
       <c r="E2322" t="inlineStr">
         <is>
-          <t>1.2%</t>
-        </is>
-      </c>
-      <c r="F2322" t="inlineStr"/>
+          <t>0.8%</t>
+        </is>
+      </c>
+      <c r="F2322" t="inlineStr">
+        <is>
+          <t>1%</t>
+        </is>
+      </c>
       <c r="G2322" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="H2322" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2323">
       <c r="A2323" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2323" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2323" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Fed Bowman Speech</t>
         </is>
       </c>
       <c r="D2323" t="inlineStr"/>
-      <c r="E2323" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
+      <c r="E2323" t="inlineStr"/>
       <c r="F2323" t="inlineStr"/>
-      <c r="G2323" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G2323" t="inlineStr"/>
       <c r="H2323" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2324">
       <c r="A2324" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2324" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2324" t="inlineStr">
         <is>
-          <t>Government Budget ValueDEC</t>
+          <t>PCE Price Index MoMDEC</t>
         </is>
       </c>
       <c r="D2324" t="inlineStr"/>
       <c r="E2324" t="inlineStr">
         <is>
-          <t>INR-8465.9B</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2324" t="inlineStr"/>
       <c r="G2324" t="inlineStr">
         <is>
-          <t>INR-9700.0B</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H2324" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2325">
       <c r="A2325" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2325" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2325" t="inlineStr">
         <is>
-          <t>Gross Debt to GDPDEC</t>
+          <t>PCE Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D2325" t="inlineStr"/>
       <c r="E2325" t="inlineStr">
         <is>
-          <t>77.7%</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F2325" t="inlineStr"/>
       <c r="G2325" t="inlineStr">
         <is>
-          <t>77.9%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="H2325" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2326">
       <c r="A2326" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2326" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2326" t="inlineStr">
         <is>
-          <t>Nominal Budget BalanceDEC</t>
+          <t>Core PCE Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D2326" t="inlineStr"/>
       <c r="E2326" t="inlineStr">
         <is>
-          <t>BRL-99.1B</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="F2326" t="inlineStr"/>
       <c r="G2326" t="inlineStr">
         <is>
-          <t>BRL-103.0B</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="H2326" t="inlineStr">
@@ -75792,57 +75678,69 @@
     <row r="2327">
       <c r="A2327" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B2327" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2327" t="inlineStr">
         <is>
-          <t>Bank Loan Growth YoYJAN/17</t>
+          <t>Chicago PMIJAN</t>
         </is>
       </c>
       <c r="D2327" t="inlineStr"/>
       <c r="E2327" t="inlineStr">
         <is>
-          <t>11.2%</t>
-        </is>
-      </c>
-      <c r="F2327" t="inlineStr"/>
-      <c r="G2327" t="inlineStr"/>
+          <t>36.9</t>
+        </is>
+      </c>
+      <c r="F2327" t="inlineStr">
+        <is>
+          <t>39.9</t>
+        </is>
+      </c>
+      <c r="G2327" t="inlineStr">
+        <is>
+          <t>37.2</t>
+        </is>
+      </c>
       <c r="H2327" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2328">
       <c r="A2328" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B2328" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2328" t="inlineStr">
         <is>
-          <t>Deposit Growth YoYJAN/17</t>
+          <t>Budget BalanceNOV</t>
         </is>
       </c>
       <c r="D2328" t="inlineStr"/>
       <c r="E2328" t="inlineStr">
         <is>
-          <t>9.8%</t>
+          <t>C$-1.49B</t>
         </is>
       </c>
       <c r="F2328" t="inlineStr"/>
-      <c r="G2328" t="inlineStr"/>
+      <c r="G2328" t="inlineStr">
+        <is>
+          <t>C$-1.9B</t>
+        </is>
+      </c>
       <c r="H2328" t="inlineStr">
         <is>
           <t>3</t>
@@ -75852,23 +75750,23 @@
     <row r="2329">
       <c r="A2329" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B2329" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2329" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/24</t>
+          <t>Baker Hughes Oil Rig CountJAN/31</t>
         </is>
       </c>
       <c r="D2329" t="inlineStr"/>
       <c r="E2329" t="inlineStr">
         <is>
-          <t>$623.98B</t>
+          <t>472</t>
         </is>
       </c>
       <c r="F2329" t="inlineStr"/>
@@ -75882,31 +75780,27 @@
     <row r="2330">
       <c r="A2330" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B2330" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2330" t="inlineStr">
         <is>
-          <t>Infrastructure Output YoYDEC</t>
+          <t>Baker Hughes Total Rigs CountJAN/31</t>
         </is>
       </c>
       <c r="D2330" t="inlineStr"/>
       <c r="E2330" t="inlineStr">
         <is>
-          <t>4.3%</t>
+          <t>576</t>
         </is>
       </c>
       <c r="F2330" t="inlineStr"/>
-      <c r="G2330" t="inlineStr">
-        <is>
-          <t>4.8%</t>
-        </is>
-      </c>
+      <c r="G2330" t="inlineStr"/>
       <c r="H2330" t="inlineStr">
         <is>
           <t>3</t>
@@ -75914,87 +75808,75 @@
       </c>
     </row>
     <row r="2331">
-      <c r="A2331" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
+      <c r="A2331" t="inlineStr"/>
       <c r="B2331" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2331" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>Fiscal BalanceDEC</t>
         </is>
       </c>
       <c r="D2331" t="inlineStr"/>
       <c r="E2331" t="inlineStr">
         <is>
-          <t>6.1%</t>
+          <t>MXN-1064.93B</t>
         </is>
       </c>
       <c r="F2331" t="inlineStr"/>
       <c r="G2331" t="inlineStr">
         <is>
-          <t>6.1%</t>
+          <t>MXN-1120.0B</t>
         </is>
       </c>
       <c r="H2331" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2332">
-      <c r="A2332" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
+      <c r="A2332" t="inlineStr"/>
       <c r="B2332" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2332" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>CoreLogic Dwelling Prices MoMJAN</t>
         </is>
       </c>
       <c r="D2332" t="inlineStr"/>
       <c r="E2332" t="inlineStr">
         <is>
-          <t>ZAR34.7B</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F2332" t="inlineStr"/>
       <c r="G2332" t="inlineStr">
         <is>
-          <t>ZAR 27.0B</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="H2332" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2333">
-      <c r="A2333" t="inlineStr">
-        <is>
-          <t>06:30 PM</t>
-        </is>
-      </c>
+      <c r="A2333" t="inlineStr"/>
       <c r="B2333" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2333" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelJAN</t>
+          <t>Consumer Inflation ExpectationsDEC</t>
         </is>
       </c>
       <c r="D2333" t="inlineStr"/>
@@ -76003,86 +75885,70 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="F2333" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
+      <c r="F2333" t="inlineStr"/>
       <c r="G2333" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="H2333" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2334">
-      <c r="A2334" t="inlineStr">
-        <is>
-          <t>06:30 PM</t>
-        </is>
-      </c>
+      <c r="A2334" t="inlineStr"/>
       <c r="B2334" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2334" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM PrelJAN</t>
+          <t>New Car Registrations YoYJAN</t>
         </is>
       </c>
       <c r="D2334" t="inlineStr"/>
       <c r="E2334" t="inlineStr">
         <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="F2334" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
+          <t>1.5%</t>
+        </is>
+      </c>
+      <c r="F2334" t="inlineStr"/>
       <c r="G2334" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="H2334" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2335">
-      <c r="A2335" t="inlineStr">
-        <is>
-          <t>06:30 PM</t>
-        </is>
-      </c>
+      <c r="A2335" t="inlineStr"/>
       <c r="B2335" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2335" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM PrelJAN</t>
+          <t>New Car Sales YoYJAN</t>
         </is>
       </c>
       <c r="D2335" t="inlineStr"/>
       <c r="E2335" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>28.8%</t>
         </is>
       </c>
       <c r="F2335" t="inlineStr"/>
       <c r="G2335" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>2.5%</t>
         </is>
       </c>
       <c r="H2335" t="inlineStr">
@@ -76092,35 +75958,27 @@
       </c>
     </row>
     <row r="2336">
-      <c r="A2336" t="inlineStr">
-        <is>
-          <t>06:30 PM</t>
-        </is>
-      </c>
+      <c r="A2336" t="inlineStr"/>
       <c r="B2336" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2336" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY PrelJAN</t>
+          <t>New Car Registrations YoYJAN</t>
         </is>
       </c>
       <c r="D2336" t="inlineStr"/>
       <c r="E2336" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F2336" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
+          <t>-4.9%</t>
+        </is>
+      </c>
+      <c r="F2336" t="inlineStr"/>
       <c r="G2336" t="inlineStr">
         <is>
-          <t>3.0%</t>
+          <t>-4.0%</t>
         </is>
       </c>
       <c r="H2336" t="inlineStr">
@@ -76130,253 +75988,189 @@
       </c>
     </row>
     <row r="2337">
-      <c r="A2337" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A2337" t="inlineStr"/>
       <c r="B2337" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2337" t="inlineStr">
         <is>
-          <t>GDP MoMNOV</t>
+          <t>M2 Money Supply YoYDEC</t>
         </is>
       </c>
       <c r="D2337" t="inlineStr"/>
       <c r="E2337" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F2337" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
+          <t>20%</t>
+        </is>
+      </c>
+      <c r="F2337" t="inlineStr"/>
       <c r="G2337" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>20.7%</t>
         </is>
       </c>
       <c r="H2337" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2338">
       <c r="A2338" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2338" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C2338" t="inlineStr">
-        <is>
-          <t>GDP MoM PrelDEC</t>
-        </is>
-      </c>
+          <t>Saturday February 01 2025</t>
+        </is>
+      </c>
+      <c r="B2338" t="inlineStr"/>
+      <c r="C2338" t="inlineStr"/>
       <c r="D2338" t="inlineStr"/>
-      <c r="E2338" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
+      <c r="E2338" t="inlineStr"/>
       <c r="F2338" t="inlineStr"/>
-      <c r="G2338" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H2338" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G2338" t="inlineStr"/>
+      <c r="H2338" t="inlineStr"/>
     </row>
     <row r="2339">
       <c r="A2339" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B2339" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2339" t="inlineStr">
         <is>
-          <t>Core PCE Price Index MoMDEC</t>
+          <t>Exports YoYJAN</t>
         </is>
       </c>
       <c r="D2339" t="inlineStr"/>
       <c r="E2339" t="inlineStr">
         <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F2339" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>6.6%</t>
+        </is>
+      </c>
+      <c r="F2339" t="inlineStr"/>
       <c r="G2339" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H2339" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2340">
       <c r="A2340" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B2340" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2340" t="inlineStr">
         <is>
-          <t>Personal Income MoMDEC</t>
+          <t>Balance of TradeJAN</t>
         </is>
       </c>
       <c r="D2340" t="inlineStr"/>
       <c r="E2340" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F2340" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>$6.49B</t>
+        </is>
+      </c>
+      <c r="F2340" t="inlineStr"/>
       <c r="G2340" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>$0.9B</t>
         </is>
       </c>
       <c r="H2340" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2341">
       <c r="A2341" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B2341" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2341" t="inlineStr">
         <is>
-          <t>Personal Spending MoMDEC</t>
+          <t>Imports YoYJAN</t>
         </is>
       </c>
       <c r="D2341" t="inlineStr"/>
       <c r="E2341" t="inlineStr">
         <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F2341" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>3.3%</t>
+        </is>
+      </c>
+      <c r="F2341" t="inlineStr"/>
       <c r="G2341" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H2341" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2342">
       <c r="A2342" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2342" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2342" t="inlineStr">
-        <is>
-          <t>Employment Cost - Benefits QoQQ4</t>
-        </is>
-      </c>
+          <t>Monday February 03 2025</t>
+        </is>
+      </c>
+      <c r="B2342" t="inlineStr"/>
+      <c r="C2342" t="inlineStr"/>
       <c r="D2342" t="inlineStr"/>
-      <c r="E2342" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="E2342" t="inlineStr"/>
       <c r="F2342" t="inlineStr"/>
-      <c r="G2342" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="H2342" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G2342" t="inlineStr"/>
+      <c r="H2342" t="inlineStr"/>
     </row>
     <row r="2343">
       <c r="A2343" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>03:30 AM</t>
         </is>
       </c>
       <c r="B2343" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2343" t="inlineStr">
         <is>
-          <t>Employment Cost - Wages QoQQ4</t>
+          <t>S&amp;P Global Australia Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2343" t="inlineStr"/>
       <c r="E2343" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>47.8</t>
         </is>
       </c>
       <c r="F2343" t="inlineStr"/>
-      <c r="G2343" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
+      <c r="G2343" t="inlineStr"/>
       <c r="H2343" t="inlineStr">
         <is>
           <t>2</t>
@@ -76386,129 +76180,125 @@
     <row r="2344">
       <c r="A2344" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B2344" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2344" t="inlineStr">
         <is>
-          <t>Employment Cost Index QoQQ4</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="D2344" t="inlineStr"/>
       <c r="E2344" t="inlineStr">
         <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="F2344" t="inlineStr">
-        <is>
-          <t>1%</t>
-        </is>
-      </c>
+          <t>-0.7%</t>
+        </is>
+      </c>
+      <c r="F2344" t="inlineStr"/>
       <c r="G2344" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="H2344" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2345">
       <c r="A2345" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B2345" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2345" t="inlineStr">
         <is>
-          <t>Fed Bowman Speech</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D2345" t="inlineStr"/>
-      <c r="E2345" t="inlineStr"/>
+      <c r="E2345" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="F2345" t="inlineStr"/>
-      <c r="G2345" t="inlineStr"/>
+      <c r="G2345" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="H2345" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2346">
       <c r="A2346" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B2346" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2346" t="inlineStr">
         <is>
-          <t>PCE Price Index MoMDEC</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D2346" t="inlineStr"/>
       <c r="E2346" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F2346" t="inlineStr"/>
       <c r="G2346" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H2346" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2347">
       <c r="A2347" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B2347" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2347" t="inlineStr">
         <is>
-          <t>PCE Price Index YoYDEC</t>
+          <t>BoJ Summary of Opinions</t>
         </is>
       </c>
       <c r="D2347" t="inlineStr"/>
-      <c r="E2347" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
+      <c r="E2347" t="inlineStr"/>
       <c r="F2347" t="inlineStr"/>
-      <c r="G2347" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
+      <c r="G2347" t="inlineStr"/>
       <c r="H2347" t="inlineStr">
         <is>
           <t>2</t>
@@ -76518,67 +76308,63 @@
     <row r="2348">
       <c r="A2348" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2348" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2348" t="inlineStr">
         <is>
-          <t>Core PCE Price Index YoYDEC</t>
+          <t>Building Permits MoM PrelDEC</t>
         </is>
       </c>
       <c r="D2348" t="inlineStr"/>
       <c r="E2348" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>-3.6%</t>
         </is>
       </c>
       <c r="F2348" t="inlineStr"/>
       <c r="G2348" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="H2348" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2349">
       <c r="A2349" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2349" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2349" t="inlineStr">
         <is>
-          <t>Chicago PMIJAN</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D2349" t="inlineStr"/>
       <c r="E2349" t="inlineStr">
         <is>
-          <t>36.9</t>
-        </is>
-      </c>
-      <c r="F2349" t="inlineStr">
-        <is>
-          <t>39.9</t>
-        </is>
-      </c>
+          <t>0.8%</t>
+        </is>
+      </c>
+      <c r="F2349" t="inlineStr"/>
       <c r="G2349" t="inlineStr">
         <is>
-          <t>37.2</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H2349" t="inlineStr">
@@ -76590,31 +76376,27 @@
     <row r="2350">
       <c r="A2350" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2350" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2350" t="inlineStr">
         <is>
-          <t>Budget BalanceNOV</t>
+          <t>ANZ-Indeed Job Ads MoMJAN</t>
         </is>
       </c>
       <c r="D2350" t="inlineStr"/>
       <c r="E2350" t="inlineStr">
         <is>
-          <t>C$-1.49B</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F2350" t="inlineStr"/>
-      <c r="G2350" t="inlineStr">
-        <is>
-          <t>C$-1.9B</t>
-        </is>
-      </c>
+      <c r="G2350" t="inlineStr"/>
       <c r="H2350" t="inlineStr">
         <is>
           <t>3</t>
@@ -76624,23 +76406,23 @@
     <row r="2351">
       <c r="A2351" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2351" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2351" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/31</t>
+          <t>Private House Approvals MoM PrelDEC</t>
         </is>
       </c>
       <c r="D2351" t="inlineStr"/>
       <c r="E2351" t="inlineStr">
         <is>
-          <t>472</t>
+          <t>-1.7%</t>
         </is>
       </c>
       <c r="F2351" t="inlineStr"/>
@@ -76654,27 +76436,31 @@
     <row r="2352">
       <c r="A2352" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2352" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2352" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/31</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2352" t="inlineStr"/>
       <c r="E2352" t="inlineStr">
         <is>
-          <t>576</t>
+          <t>51.2</t>
         </is>
       </c>
       <c r="F2352" t="inlineStr"/>
-      <c r="G2352" t="inlineStr"/>
+      <c r="G2352" t="inlineStr">
+        <is>
+          <t>51.6</t>
+        </is>
+      </c>
       <c r="H2352" t="inlineStr">
         <is>
           <t>3</t>
@@ -76682,147 +76468,175 @@
       </c>
     </row>
     <row r="2353">
-      <c r="A2353" t="inlineStr"/>
+      <c r="A2353" t="inlineStr">
+        <is>
+          <t>06:00 AM</t>
+        </is>
+      </c>
       <c r="B2353" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2353" t="inlineStr">
         <is>
-          <t>Fiscal BalanceDEC</t>
+          <t>Jibun Bank Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2353" t="inlineStr"/>
       <c r="E2353" t="inlineStr">
         <is>
-          <t>MXN-1064.93B</t>
-        </is>
-      </c>
-      <c r="F2353" t="inlineStr"/>
+          <t>49.6</t>
+        </is>
+      </c>
+      <c r="F2353" t="inlineStr">
+        <is>
+          <t>48.8</t>
+        </is>
+      </c>
       <c r="G2353" t="inlineStr">
         <is>
-          <t>MXN-1120.0B</t>
+          <t>48.8</t>
         </is>
       </c>
       <c r="H2353" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2354">
-      <c r="A2354" t="inlineStr"/>
+      <c r="A2354" t="inlineStr">
+        <is>
+          <t>06:00 AM</t>
+        </is>
+      </c>
       <c r="B2354" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2354" t="inlineStr">
         <is>
-          <t>CoreLogic Dwelling Prices MoMJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2354" t="inlineStr"/>
       <c r="E2354" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>49</t>
         </is>
       </c>
       <c r="F2354" t="inlineStr"/>
       <c r="G2354" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>49.5</t>
         </is>
       </c>
       <c r="H2354" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2355">
-      <c r="A2355" t="inlineStr"/>
+      <c r="A2355" t="inlineStr">
+        <is>
+          <t>07:15 AM</t>
+        </is>
+      </c>
       <c r="B2355" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2355" t="inlineStr">
         <is>
-          <t>Consumer Inflation ExpectationsDEC</t>
+          <t>Caixin Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2355" t="inlineStr"/>
       <c r="E2355" t="inlineStr">
         <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="F2355" t="inlineStr"/>
+          <t>50.5</t>
+        </is>
+      </c>
+      <c r="F2355" t="inlineStr">
+        <is>
+          <t>50.5</t>
+        </is>
+      </c>
       <c r="G2355" t="inlineStr">
         <is>
-          <t>2.2%</t>
+          <t>50.5</t>
         </is>
       </c>
       <c r="H2355" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2356">
-      <c r="A2356" t="inlineStr"/>
+      <c r="A2356" t="inlineStr">
+        <is>
+          <t>09:30 AM</t>
+        </is>
+      </c>
       <c r="B2356" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2356" t="inlineStr">
         <is>
-          <t>New Car Registrations YoYJAN</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2356" t="inlineStr"/>
       <c r="E2356" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>1.57%</t>
         </is>
       </c>
       <c r="F2356" t="inlineStr"/>
       <c r="G2356" t="inlineStr">
         <is>
-          <t>2.2%</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="H2356" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2357">
-      <c r="A2357" t="inlineStr"/>
+      <c r="A2357" t="inlineStr">
+        <is>
+          <t>09:30 AM</t>
+        </is>
+      </c>
       <c r="B2357" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2357" t="inlineStr">
         <is>
-          <t>New Car Sales YoYJAN</t>
+          <t>Core Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2357" t="inlineStr"/>
       <c r="E2357" t="inlineStr">
         <is>
-          <t>28.8%</t>
+          <t>2.26%</t>
         </is>
       </c>
       <c r="F2357" t="inlineStr"/>
       <c r="G2357" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>2.3%</t>
         </is>
       </c>
       <c r="H2357" t="inlineStr">
@@ -76832,27 +76646,31 @@
       </c>
     </row>
     <row r="2358">
-      <c r="A2358" t="inlineStr"/>
+      <c r="A2358" t="inlineStr">
+        <is>
+          <t>09:30 AM</t>
+        </is>
+      </c>
       <c r="B2358" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2358" t="inlineStr">
         <is>
-          <t>New Car Registrations YoYJAN</t>
+          <t>Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2358" t="inlineStr"/>
       <c r="E2358" t="inlineStr">
         <is>
-          <t>-4.9%</t>
+          <t>0.44%</t>
         </is>
       </c>
       <c r="F2358" t="inlineStr"/>
       <c r="G2358" t="inlineStr">
         <is>
-          <t>-4.0%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H2358" t="inlineStr">
@@ -76862,27 +76680,31 @@
       </c>
     </row>
     <row r="2359">
-      <c r="A2359" t="inlineStr"/>
+      <c r="A2359" t="inlineStr">
+        <is>
+          <t>10:15 AM</t>
+        </is>
+      </c>
       <c r="B2359" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2359" t="inlineStr">
         <is>
-          <t>M2 Money Supply YoYDEC</t>
+          <t>Tourist Arrivals YoYDEC</t>
         </is>
       </c>
       <c r="D2359" t="inlineStr"/>
       <c r="E2359" t="inlineStr">
         <is>
-          <t>20%</t>
+          <t>17.27%</t>
         </is>
       </c>
       <c r="F2359" t="inlineStr"/>
       <c r="G2359" t="inlineStr">
         <is>
-          <t>20.7%</t>
+          <t>18.0%</t>
         </is>
       </c>
       <c r="H2359" t="inlineStr">
@@ -76894,21 +76716,45 @@
     <row r="2360">
       <c r="A2360" t="inlineStr">
         <is>
-          <t>Saturday February 01 2025</t>
-        </is>
-      </c>
-      <c r="B2360" t="inlineStr"/>
-      <c r="C2360" t="inlineStr"/>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B2360" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="C2360" t="inlineStr">
+        <is>
+          <t>HSBC Manufacturing PMI FinalJAN</t>
+        </is>
+      </c>
       <c r="D2360" t="inlineStr"/>
-      <c r="E2360" t="inlineStr"/>
-      <c r="F2360" t="inlineStr"/>
-      <c r="G2360" t="inlineStr"/>
-      <c r="H2360" t="inlineStr"/>
+      <c r="E2360" t="inlineStr">
+        <is>
+          <t>56.4</t>
+        </is>
+      </c>
+      <c r="F2360" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="G2360" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="H2360" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2361">
       <c r="A2361" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2361" t="inlineStr">
@@ -76918,55 +76764,47 @@
       </c>
       <c r="C2361" t="inlineStr">
         <is>
-          <t>Exports YoYJAN</t>
+          <t>2-Year KTB Auction</t>
         </is>
       </c>
       <c r="D2361" t="inlineStr"/>
       <c r="E2361" t="inlineStr">
         <is>
-          <t>6.6%</t>
+          <t>2.670%</t>
         </is>
       </c>
       <c r="F2361" t="inlineStr"/>
-      <c r="G2361" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G2361" t="inlineStr"/>
       <c r="H2361" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2362">
       <c r="A2362" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B2362" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2362" t="inlineStr">
         <is>
-          <t>Balance of TradeJAN</t>
+          <t>Commodity Prices YoYJAN</t>
         </is>
       </c>
       <c r="D2362" t="inlineStr"/>
       <c r="E2362" t="inlineStr">
         <is>
-          <t>$6.49B</t>
+          <t>-10.7%</t>
         </is>
       </c>
       <c r="F2362" t="inlineStr"/>
-      <c r="G2362" t="inlineStr">
-        <is>
-          <t>$0.9B</t>
-        </is>
-      </c>
+      <c r="G2362" t="inlineStr"/>
       <c r="H2362" t="inlineStr">
         <is>
           <t>3</t>
@@ -76976,71 +76814,83 @@
     <row r="2363">
       <c r="A2363" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B2363" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2363" t="inlineStr">
         <is>
-          <t>Imports YoYJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2363" t="inlineStr"/>
       <c r="E2363" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>50.8</t>
         </is>
       </c>
       <c r="F2363" t="inlineStr"/>
-      <c r="G2363" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
+      <c r="G2363" t="inlineStr"/>
       <c r="H2363" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2364">
       <c r="A2364" t="inlineStr">
         <is>
-          <t>Monday February 03 2025</t>
-        </is>
-      </c>
-      <c r="B2364" t="inlineStr"/>
-      <c r="C2364" t="inlineStr"/>
+          <t>12:30 PM</t>
+        </is>
+      </c>
+      <c r="B2364" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="C2364" t="inlineStr">
+        <is>
+          <t>Inflation Rate MoMJAN</t>
+        </is>
+      </c>
       <c r="D2364" t="inlineStr"/>
-      <c r="E2364" t="inlineStr"/>
+      <c r="E2364" t="inlineStr">
+        <is>
+          <t>1.03%</t>
+        </is>
+      </c>
       <c r="F2364" t="inlineStr"/>
       <c r="G2364" t="inlineStr"/>
-      <c r="H2364" t="inlineStr"/>
+      <c r="H2364" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="2365">
       <c r="A2365" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2365" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2365" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Manufacturing PMI FinalJAN</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2365" t="inlineStr"/>
       <c r="E2365" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>44.38%</t>
         </is>
       </c>
       <c r="F2365" t="inlineStr"/>
@@ -77054,31 +76904,27 @@
     <row r="2366">
       <c r="A2366" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2366" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2366" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>Istanbul Chamber of Industry Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2366" t="inlineStr"/>
       <c r="E2366" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>49.1</t>
         </is>
       </c>
       <c r="F2366" t="inlineStr"/>
-      <c r="G2366" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
+      <c r="G2366" t="inlineStr"/>
       <c r="H2366" t="inlineStr">
         <is>
           <t>3</t>
@@ -77088,31 +76934,27 @@
     <row r="2367">
       <c r="A2367" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2367" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2367" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>PPI MoMJAN</t>
         </is>
       </c>
       <c r="D2367" t="inlineStr"/>
       <c r="E2367" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F2367" t="inlineStr"/>
-      <c r="G2367" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="G2367" t="inlineStr"/>
       <c r="H2367" t="inlineStr">
         <is>
           <t>3</t>
@@ -77122,31 +76964,27 @@
     <row r="2368">
       <c r="A2368" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2368" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2368" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>PPI YoYJAN</t>
         </is>
       </c>
       <c r="D2368" t="inlineStr"/>
       <c r="E2368" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>28.52%</t>
         </is>
       </c>
       <c r="F2368" t="inlineStr"/>
-      <c r="G2368" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G2368" t="inlineStr"/>
       <c r="H2368" t="inlineStr">
         <is>
           <t>3</t>
@@ -77156,21 +76994,25 @@
     <row r="2369">
       <c r="A2369" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2369" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2369" t="inlineStr">
         <is>
-          <t>BoJ Summary of Opinions</t>
+          <t>Unemployment ChangeJAN</t>
         </is>
       </c>
       <c r="D2369" t="inlineStr"/>
-      <c r="E2369" t="inlineStr"/>
+      <c r="E2369" t="inlineStr">
+        <is>
+          <t>-25.3K</t>
+        </is>
+      </c>
       <c r="F2369" t="inlineStr"/>
       <c r="G2369" t="inlineStr"/>
       <c r="H2369" t="inlineStr">
@@ -77182,65 +77024,53 @@
     <row r="2370">
       <c r="A2370" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2370" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2370" t="inlineStr">
         <is>
-          <t>Building Permits MoM PrelDEC</t>
+          <t>Tourist Arrivals YoYDEC</t>
         </is>
       </c>
       <c r="D2370" t="inlineStr"/>
-      <c r="E2370" t="inlineStr">
-        <is>
-          <t>-3.6%</t>
-        </is>
-      </c>
+      <c r="E2370" t="inlineStr"/>
       <c r="F2370" t="inlineStr"/>
-      <c r="G2370" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
+      <c r="G2370" t="inlineStr"/>
       <c r="H2370" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2371">
       <c r="A2371" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B2371" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2371" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>HCOB Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2371" t="inlineStr"/>
       <c r="E2371" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>53.3</t>
         </is>
       </c>
       <c r="F2371" t="inlineStr"/>
-      <c r="G2371" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G2371" t="inlineStr"/>
       <c r="H2371" t="inlineStr">
         <is>
           <t>2</t>
@@ -77250,127 +77080,139 @@
     <row r="2372">
       <c r="A2372" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:15 PM</t>
         </is>
       </c>
       <c r="B2372" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2372" t="inlineStr">
         <is>
-          <t>ANZ-Indeed Job Ads MoMJAN</t>
+          <t>HCOB Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2372" t="inlineStr"/>
       <c r="E2372" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>46.2</t>
         </is>
       </c>
       <c r="F2372" t="inlineStr"/>
       <c r="G2372" t="inlineStr"/>
       <c r="H2372" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2373">
       <c r="A2373" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:20 PM</t>
         </is>
       </c>
       <c r="B2373" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2373" t="inlineStr">
         <is>
-          <t>Private House Approvals MoM PrelDEC</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2373" t="inlineStr"/>
       <c r="E2373" t="inlineStr">
         <is>
-          <t>-1.7%</t>
-        </is>
-      </c>
-      <c r="F2373" t="inlineStr"/>
-      <c r="G2373" t="inlineStr"/>
+          <t>41.9</t>
+        </is>
+      </c>
+      <c r="F2373" t="inlineStr">
+        <is>
+          <t>45.3</t>
+        </is>
+      </c>
+      <c r="G2373" t="inlineStr">
+        <is>
+          <t>45.3</t>
+        </is>
+      </c>
       <c r="H2373" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2374">
       <c r="A2374" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:25 PM</t>
         </is>
       </c>
       <c r="B2374" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2374" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2374" t="inlineStr"/>
       <c r="E2374" t="inlineStr">
         <is>
-          <t>51.2</t>
-        </is>
-      </c>
-      <c r="F2374" t="inlineStr"/>
+          <t>42.5</t>
+        </is>
+      </c>
+      <c r="F2374" t="inlineStr">
+        <is>
+          <t>44.1</t>
+        </is>
+      </c>
       <c r="G2374" t="inlineStr">
         <is>
-          <t>51.6</t>
+          <t>44.1</t>
         </is>
       </c>
       <c r="H2374" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2375">
       <c r="A2375" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2375" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2375" t="inlineStr">
         <is>
-          <t>Jibun Bank Manufacturing PMI FinalJAN</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2375" t="inlineStr"/>
       <c r="E2375" t="inlineStr">
         <is>
-          <t>49.6</t>
+          <t>45.1</t>
         </is>
       </c>
       <c r="F2375" t="inlineStr">
         <is>
-          <t>48.8</t>
+          <t>46.1</t>
         </is>
       </c>
       <c r="G2375" t="inlineStr">
         <is>
-          <t>48.8</t>
+          <t>46.1</t>
         </is>
       </c>
       <c r="H2375" t="inlineStr">
@@ -77382,205 +77224,181 @@
     <row r="2376">
       <c r="A2376" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2376" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2376" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>ABSA Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2376" t="inlineStr"/>
       <c r="E2376" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>46.2</t>
         </is>
       </c>
       <c r="F2376" t="inlineStr"/>
       <c r="G2376" t="inlineStr">
         <is>
-          <t>49.5</t>
+          <t>47</t>
         </is>
       </c>
       <c r="H2376" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2377">
       <c r="A2377" t="inlineStr">
         <is>
-          <t>07:15 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B2377" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2377" t="inlineStr">
         <is>
-          <t>Caixin Manufacturing PMIJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2377" t="inlineStr"/>
       <c r="E2377" t="inlineStr">
         <is>
-          <t>50.5</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F2377" t="inlineStr">
         <is>
-          <t>50.5</t>
+          <t>48.2</t>
         </is>
       </c>
       <c r="G2377" t="inlineStr">
         <is>
-          <t>50.5</t>
+          <t>48.2</t>
         </is>
       </c>
       <c r="H2377" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2378">
       <c r="A2378" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2378" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2378" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>Inflation Rate YoY FlashJAN</t>
         </is>
       </c>
       <c r="D2378" t="inlineStr"/>
-      <c r="E2378" t="inlineStr">
-        <is>
-          <t>1.57%</t>
-        </is>
-      </c>
+      <c r="E2378" t="inlineStr"/>
       <c r="F2378" t="inlineStr"/>
-      <c r="G2378" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
+      <c r="G2378" t="inlineStr"/>
       <c r="H2378" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2379">
       <c r="A2379" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2379" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2379" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYJAN</t>
+          <t>Core Inflation Rate YoY FlashJAN</t>
         </is>
       </c>
       <c r="D2379" t="inlineStr"/>
       <c r="E2379" t="inlineStr">
         <is>
-          <t>2.26%</t>
+          <t>2.7%</t>
         </is>
       </c>
       <c r="F2379" t="inlineStr"/>
-      <c r="G2379" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
+      <c r="G2379" t="inlineStr"/>
       <c r="H2379" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2380">
       <c r="A2380" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2380" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2380" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Inflation Rate MoM FlashJAN</t>
         </is>
       </c>
       <c r="D2380" t="inlineStr"/>
-      <c r="E2380" t="inlineStr">
-        <is>
-          <t>0.44%</t>
-        </is>
-      </c>
+      <c r="E2380" t="inlineStr"/>
       <c r="F2380" t="inlineStr"/>
-      <c r="G2380" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G2380" t="inlineStr"/>
       <c r="H2380" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2381">
       <c r="A2381" t="inlineStr">
         <is>
-          <t>10:15 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2381" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2381" t="inlineStr">
         <is>
-          <t>Tourist Arrivals YoYDEC</t>
+          <t>CPI FlashJAN</t>
         </is>
       </c>
       <c r="D2381" t="inlineStr"/>
       <c r="E2381" t="inlineStr">
         <is>
-          <t>17.27%</t>
+          <t>127.07</t>
         </is>
       </c>
       <c r="F2381" t="inlineStr"/>
-      <c r="G2381" t="inlineStr">
-        <is>
-          <t>18.0%</t>
-        </is>
-      </c>
+      <c r="G2381" t="inlineStr"/>
       <c r="H2381" t="inlineStr">
         <is>
           <t>3</t>
@@ -77590,91 +77408,83 @@
     <row r="2382">
       <c r="A2382" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2382" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2382" t="inlineStr">
         <is>
-          <t>HSBC Manufacturing PMI FinalJAN</t>
+          <t>Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2382" t="inlineStr"/>
       <c r="E2382" t="inlineStr">
         <is>
-          <t>56.4</t>
-        </is>
-      </c>
-      <c r="F2382" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="G2382" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
+          <t>1.3%</t>
+        </is>
+      </c>
+      <c r="F2382" t="inlineStr"/>
+      <c r="G2382" t="inlineStr"/>
       <c r="H2382" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2383">
       <c r="A2383" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2383" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2383" t="inlineStr">
         <is>
-          <t>2-Year KTB Auction</t>
+          <t>Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2383" t="inlineStr"/>
       <c r="E2383" t="inlineStr">
         <is>
-          <t>2.670%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2383" t="inlineStr"/>
       <c r="G2383" t="inlineStr"/>
       <c r="H2383" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2384">
       <c r="A2384" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2384" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2384" t="inlineStr">
         <is>
-          <t>Commodity Prices YoYJAN</t>
+          <t>Harmonised Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2384" t="inlineStr"/>
       <c r="E2384" t="inlineStr">
         <is>
-          <t>-10.7%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2384" t="inlineStr"/>
@@ -77688,117 +77498,129 @@
     <row r="2385">
       <c r="A2385" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2385" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2385" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>Harmonised Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2385" t="inlineStr"/>
       <c r="E2385" t="inlineStr">
         <is>
-          <t>50.8</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F2385" t="inlineStr"/>
       <c r="G2385" t="inlineStr"/>
       <c r="H2385" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2386">
       <c r="A2386" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2386" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2386" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Foreign Exchange ReservesDEC</t>
         </is>
       </c>
       <c r="D2386" t="inlineStr"/>
       <c r="E2386" t="inlineStr">
         <is>
-          <t>1.03%</t>
+          <t>$232.2B</t>
         </is>
       </c>
       <c r="F2386" t="inlineStr"/>
-      <c r="G2386" t="inlineStr"/>
+      <c r="G2386" t="inlineStr">
+        <is>
+          <t>$ 230B</t>
+        </is>
+      </c>
       <c r="H2386" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2387">
       <c r="A2387" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2387" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2387" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2387" t="inlineStr"/>
       <c r="E2387" t="inlineStr">
         <is>
-          <t>44.38%</t>
+          <t>50.4</t>
         </is>
       </c>
       <c r="F2387" t="inlineStr"/>
-      <c r="G2387" t="inlineStr"/>
+      <c r="G2387" t="inlineStr">
+        <is>
+          <t>49.8</t>
+        </is>
+      </c>
       <c r="H2387" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2388">
       <c r="A2388" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2388" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2388" t="inlineStr">
         <is>
-          <t>Istanbul Chamber of Industry Manufacturing PMIJAN</t>
+          <t>SIPMM Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2388" t="inlineStr"/>
       <c r="E2388" t="inlineStr">
         <is>
-          <t>49.1</t>
+          <t>51.1</t>
         </is>
       </c>
       <c r="F2388" t="inlineStr"/>
-      <c r="G2388" t="inlineStr"/>
+      <c r="G2388" t="inlineStr">
+        <is>
+          <t>51.4</t>
+        </is>
+      </c>
       <c r="H2388" t="inlineStr">
         <is>
           <t>3</t>
@@ -77808,55 +77630,47 @@
     <row r="2389">
       <c r="A2389" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2389" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2389" t="inlineStr">
         <is>
-          <t>PPI MoMJAN</t>
+          <t>Fed Bostic Speech</t>
         </is>
       </c>
       <c r="D2389" t="inlineStr"/>
-      <c r="E2389" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="E2389" t="inlineStr"/>
       <c r="F2389" t="inlineStr"/>
       <c r="G2389" t="inlineStr"/>
       <c r="H2389" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2390">
       <c r="A2390" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2390" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2390" t="inlineStr">
         <is>
-          <t>PPI YoYJAN</t>
+          <t>12-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2390" t="inlineStr"/>
-      <c r="E2390" t="inlineStr">
-        <is>
-          <t>28.52%</t>
-        </is>
-      </c>
+      <c r="E2390" t="inlineStr"/>
       <c r="F2390" t="inlineStr"/>
       <c r="G2390" t="inlineStr"/>
       <c r="H2390" t="inlineStr">
@@ -77868,47 +77682,43 @@
     <row r="2391">
       <c r="A2391" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2391" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2391" t="inlineStr">
         <is>
-          <t>Unemployment ChangeJAN</t>
+          <t>3-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2391" t="inlineStr"/>
-      <c r="E2391" t="inlineStr">
-        <is>
-          <t>-25.3K</t>
-        </is>
-      </c>
+      <c r="E2391" t="inlineStr"/>
       <c r="F2391" t="inlineStr"/>
       <c r="G2391" t="inlineStr"/>
       <c r="H2391" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2392">
       <c r="A2392" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2392" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2392" t="inlineStr">
         <is>
-          <t>Tourist Arrivals YoYDEC</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2392" t="inlineStr"/>
@@ -77924,23 +77734,23 @@
     <row r="2393">
       <c r="A2393" t="inlineStr">
         <is>
-          <t>01:45 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B2393" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2393" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMIJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2393" t="inlineStr"/>
       <c r="E2393" t="inlineStr">
         <is>
-          <t>53.3</t>
+          <t>52.2</t>
         </is>
       </c>
       <c r="F2393" t="inlineStr"/>
@@ -77954,27 +77764,35 @@
     <row r="2394">
       <c r="A2394" t="inlineStr">
         <is>
-          <t>02:15 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B2394" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2394" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMIJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2394" t="inlineStr"/>
       <c r="E2394" t="inlineStr">
         <is>
-          <t>46.2</t>
-        </is>
-      </c>
-      <c r="F2394" t="inlineStr"/>
-      <c r="G2394" t="inlineStr"/>
+          <t>49.4</t>
+        </is>
+      </c>
+      <c r="F2394" t="inlineStr">
+        <is>
+          <t>50.1</t>
+        </is>
+      </c>
+      <c r="G2394" t="inlineStr">
+        <is>
+          <t>50.1</t>
+        </is>
+      </c>
       <c r="H2394" t="inlineStr">
         <is>
           <t>2</t>
@@ -77984,73 +77802,57 @@
     <row r="2395">
       <c r="A2395" t="inlineStr">
         <is>
-          <t>02:20 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2395" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2395" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>ISM Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2395" t="inlineStr"/>
       <c r="E2395" t="inlineStr">
         <is>
-          <t>41.9</t>
-        </is>
-      </c>
-      <c r="F2395" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
-      <c r="G2395" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
+          <t>49.3</t>
+        </is>
+      </c>
+      <c r="F2395" t="inlineStr"/>
+      <c r="G2395" t="inlineStr"/>
       <c r="H2395" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2396">
       <c r="A2396" t="inlineStr">
         <is>
-          <t>02:25 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2396" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2396" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>ISM Manufacturing EmploymentJAN</t>
         </is>
       </c>
       <c r="D2396" t="inlineStr"/>
       <c r="E2396" t="inlineStr">
         <is>
-          <t>42.5</t>
-        </is>
-      </c>
-      <c r="F2396" t="inlineStr">
-        <is>
-          <t>44.1</t>
-        </is>
-      </c>
-      <c r="G2396" t="inlineStr">
-        <is>
-          <t>44.1</t>
-        </is>
-      </c>
+          <t>45.3</t>
+        </is>
+      </c>
+      <c r="F2396" t="inlineStr"/>
+      <c r="G2396" t="inlineStr"/>
       <c r="H2396" t="inlineStr">
         <is>
           <t>2</t>
@@ -78060,69 +77862,57 @@
     <row r="2397">
       <c r="A2397" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2397" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2397" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>Construction Spending MoMDEC</t>
         </is>
       </c>
       <c r="D2397" t="inlineStr"/>
       <c r="E2397" t="inlineStr">
         <is>
-          <t>45.1</t>
-        </is>
-      </c>
-      <c r="F2397" t="inlineStr">
-        <is>
-          <t>46.1</t>
-        </is>
-      </c>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F2397" t="inlineStr"/>
       <c r="G2397" t="inlineStr">
         <is>
-          <t>46.1</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H2397" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2398">
       <c r="A2398" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2398" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2398" t="inlineStr">
         <is>
-          <t>ABSA Manufacturing PMIJAN</t>
+          <t>ISM Manufacturing New OrdersJAN</t>
         </is>
       </c>
       <c r="D2398" t="inlineStr"/>
-      <c r="E2398" t="inlineStr">
-        <is>
-          <t>46.2</t>
-        </is>
-      </c>
+      <c r="E2398" t="inlineStr"/>
       <c r="F2398" t="inlineStr"/>
-      <c r="G2398" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
+      <c r="G2398" t="inlineStr"/>
       <c r="H2398" t="inlineStr">
         <is>
           <t>3</t>
@@ -78132,55 +77922,43 @@
     <row r="2399">
       <c r="A2399" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2399" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2399" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
+          <t>ISM Manufacturing PricesJAN</t>
         </is>
       </c>
       <c r="D2399" t="inlineStr"/>
-      <c r="E2399" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="F2399" t="inlineStr">
-        <is>
-          <t>48.2</t>
-        </is>
-      </c>
-      <c r="G2399" t="inlineStr">
-        <is>
-          <t>48.2</t>
-        </is>
-      </c>
+      <c r="E2399" t="inlineStr"/>
+      <c r="F2399" t="inlineStr"/>
+      <c r="G2399" t="inlineStr"/>
       <c r="H2399" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2400">
       <c r="A2400" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B2400" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2400" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FlashJAN</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2400" t="inlineStr"/>
@@ -78189,753 +77967,131 @@
       <c r="G2400" t="inlineStr"/>
       <c r="H2400" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2401">
       <c r="A2401" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B2401" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2401" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoY FlashJAN</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2401" t="inlineStr"/>
-      <c r="E2401" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
+      <c r="E2401" t="inlineStr"/>
       <c r="F2401" t="inlineStr"/>
       <c r="G2401" t="inlineStr"/>
       <c r="H2401" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2402">
-      <c r="A2402" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
+      <c r="A2402" t="inlineStr"/>
       <c r="B2402" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2402" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM FlashJAN</t>
+          <t>Total New Vehicle SalesJAN</t>
         </is>
       </c>
       <c r="D2402" t="inlineStr"/>
-      <c r="E2402" t="inlineStr"/>
+      <c r="E2402" t="inlineStr">
+        <is>
+          <t>41.27K</t>
+        </is>
+      </c>
       <c r="F2402" t="inlineStr"/>
-      <c r="G2402" t="inlineStr"/>
+      <c r="G2402" t="inlineStr">
+        <is>
+          <t>43.0K</t>
+        </is>
+      </c>
       <c r="H2402" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2403">
       <c r="A2403" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B2403" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C2403" t="inlineStr">
-        <is>
-          <t>CPI FlashJAN</t>
-        </is>
-      </c>
+          <t>Tuesday February 04 2025</t>
+        </is>
+      </c>
+      <c r="B2403" t="inlineStr"/>
+      <c r="C2403" t="inlineStr"/>
       <c r="D2403" t="inlineStr"/>
-      <c r="E2403" t="inlineStr">
-        <is>
-          <t>127.07</t>
-        </is>
-      </c>
+      <c r="E2403" t="inlineStr"/>
       <c r="F2403" t="inlineStr"/>
       <c r="G2403" t="inlineStr"/>
-      <c r="H2403" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H2403" t="inlineStr"/>
     </row>
     <row r="2404">
       <c r="A2404" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B2404" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2404" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelJAN</t>
+          <t>Treasury Refunding Financing Estimates</t>
         </is>
       </c>
       <c r="D2404" t="inlineStr"/>
-      <c r="E2404" t="inlineStr">
-        <is>
-          <t>1.3%</t>
-        </is>
-      </c>
+      <c r="E2404" t="inlineStr"/>
       <c r="F2404" t="inlineStr"/>
       <c r="G2404" t="inlineStr"/>
       <c r="H2404" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2405">
       <c r="A2405" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>03:30 AM</t>
         </is>
       </c>
       <c r="B2405" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C2405" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM PrelJAN</t>
+          <t>Tax RevenueJAN</t>
         </is>
       </c>
       <c r="D2405" t="inlineStr"/>
       <c r="E2405" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>ARS13015B</t>
         </is>
       </c>
       <c r="F2405" t="inlineStr"/>
       <c r="G2405" t="inlineStr"/>
       <c r="H2405" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2406">
-      <c r="A2406" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B2406" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C2406" t="inlineStr">
-        <is>
-          <t>Harmonised Inflation Rate MoM PrelJAN</t>
-        </is>
-      </c>
-      <c r="D2406" t="inlineStr"/>
-      <c r="E2406" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F2406" t="inlineStr"/>
-      <c r="G2406" t="inlineStr"/>
-      <c r="H2406" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2407">
-      <c r="A2407" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B2407" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C2407" t="inlineStr">
-        <is>
-          <t>Harmonised Inflation Rate YoY PrelJAN</t>
-        </is>
-      </c>
-      <c r="D2407" t="inlineStr"/>
-      <c r="E2407" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
-      <c r="F2407" t="inlineStr"/>
-      <c r="G2407" t="inlineStr"/>
-      <c r="H2407" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2408">
-      <c r="A2408" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B2408" t="inlineStr">
-        <is>
-          <t>MX</t>
-        </is>
-      </c>
-      <c r="C2408" t="inlineStr">
-        <is>
-          <t>Foreign Exchange ReservesDEC</t>
-        </is>
-      </c>
-      <c r="D2408" t="inlineStr"/>
-      <c r="E2408" t="inlineStr">
-        <is>
-          <t>$232.2B</t>
-        </is>
-      </c>
-      <c r="F2408" t="inlineStr"/>
-      <c r="G2408" t="inlineStr">
-        <is>
-          <t>$ 230B</t>
-        </is>
-      </c>
-      <c r="H2408" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2409">
-      <c r="A2409" t="inlineStr">
-        <is>
-          <t>06:30 PM</t>
-        </is>
-      </c>
-      <c r="B2409" t="inlineStr">
-        <is>
-          <t>BR</t>
-        </is>
-      </c>
-      <c r="C2409" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
-        </is>
-      </c>
-      <c r="D2409" t="inlineStr"/>
-      <c r="E2409" t="inlineStr">
-        <is>
-          <t>50.4</t>
-        </is>
-      </c>
-      <c r="F2409" t="inlineStr"/>
-      <c r="G2409" t="inlineStr">
-        <is>
-          <t>49.8</t>
-        </is>
-      </c>
-      <c r="H2409" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2410">
-      <c r="A2410" t="inlineStr">
-        <is>
-          <t>06:30 PM</t>
-        </is>
-      </c>
-      <c r="B2410" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="C2410" t="inlineStr">
-        <is>
-          <t>SIPMM Manufacturing PMIJAN</t>
-        </is>
-      </c>
-      <c r="D2410" t="inlineStr"/>
-      <c r="E2410" t="inlineStr">
-        <is>
-          <t>51.1</t>
-        </is>
-      </c>
-      <c r="F2410" t="inlineStr"/>
-      <c r="G2410" t="inlineStr">
-        <is>
-          <t>51.4</t>
-        </is>
-      </c>
-      <c r="H2410" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2411">
-      <c r="A2411" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2411" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2411" t="inlineStr">
-        <is>
-          <t>Fed Bostic Speech</t>
-        </is>
-      </c>
-      <c r="D2411" t="inlineStr"/>
-      <c r="E2411" t="inlineStr"/>
-      <c r="F2411" t="inlineStr"/>
-      <c r="G2411" t="inlineStr"/>
-      <c r="H2411" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2412">
-      <c r="A2412" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2412" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C2412" t="inlineStr">
-        <is>
-          <t>12-Month BTF Auction</t>
-        </is>
-      </c>
-      <c r="D2412" t="inlineStr"/>
-      <c r="E2412" t="inlineStr"/>
-      <c r="F2412" t="inlineStr"/>
-      <c r="G2412" t="inlineStr"/>
-      <c r="H2412" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2413">
-      <c r="A2413" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2413" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C2413" t="inlineStr">
-        <is>
-          <t>3-Month BTF Auction</t>
-        </is>
-      </c>
-      <c r="D2413" t="inlineStr"/>
-      <c r="E2413" t="inlineStr"/>
-      <c r="F2413" t="inlineStr"/>
-      <c r="G2413" t="inlineStr"/>
-      <c r="H2413" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2414">
-      <c r="A2414" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2414" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C2414" t="inlineStr">
-        <is>
-          <t>6-Month BTF Auction</t>
-        </is>
-      </c>
-      <c r="D2414" t="inlineStr"/>
-      <c r="E2414" t="inlineStr"/>
-      <c r="F2414" t="inlineStr"/>
-      <c r="G2414" t="inlineStr"/>
-      <c r="H2414" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2415">
-      <c r="A2415" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B2415" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C2415" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
-        </is>
-      </c>
-      <c r="D2415" t="inlineStr"/>
-      <c r="E2415" t="inlineStr">
-        <is>
-          <t>52.2</t>
-        </is>
-      </c>
-      <c r="F2415" t="inlineStr"/>
-      <c r="G2415" t="inlineStr"/>
-      <c r="H2415" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2416">
-      <c r="A2416" t="inlineStr">
-        <is>
-          <t>08:15 PM</t>
-        </is>
-      </c>
-      <c r="B2416" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2416" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
-        </is>
-      </c>
-      <c r="D2416" t="inlineStr"/>
-      <c r="E2416" t="inlineStr">
-        <is>
-          <t>49.4</t>
-        </is>
-      </c>
-      <c r="F2416" t="inlineStr">
-        <is>
-          <t>50.1</t>
-        </is>
-      </c>
-      <c r="G2416" t="inlineStr">
-        <is>
-          <t>50.1</t>
-        </is>
-      </c>
-      <c r="H2416" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2417">
-      <c r="A2417" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2417" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2417" t="inlineStr">
-        <is>
-          <t>ISM Manufacturing PMIJAN</t>
-        </is>
-      </c>
-      <c r="D2417" t="inlineStr"/>
-      <c r="E2417" t="inlineStr">
-        <is>
-          <t>49.3</t>
-        </is>
-      </c>
-      <c r="F2417" t="inlineStr"/>
-      <c r="G2417" t="inlineStr"/>
-      <c r="H2417" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2418">
-      <c r="A2418" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2418" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2418" t="inlineStr">
-        <is>
-          <t>ISM Manufacturing EmploymentJAN</t>
-        </is>
-      </c>
-      <c r="D2418" t="inlineStr"/>
-      <c r="E2418" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
-      <c r="F2418" t="inlineStr"/>
-      <c r="G2418" t="inlineStr"/>
-      <c r="H2418" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2419">
-      <c r="A2419" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2419" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2419" t="inlineStr">
-        <is>
-          <t>Construction Spending MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2419" t="inlineStr"/>
-      <c r="E2419" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F2419" t="inlineStr"/>
-      <c r="G2419" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H2419" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2420">
-      <c r="A2420" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2420" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2420" t="inlineStr">
-        <is>
-          <t>ISM Manufacturing New OrdersJAN</t>
-        </is>
-      </c>
-      <c r="D2420" t="inlineStr"/>
-      <c r="E2420" t="inlineStr"/>
-      <c r="F2420" t="inlineStr"/>
-      <c r="G2420" t="inlineStr"/>
-      <c r="H2420" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2421">
-      <c r="A2421" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2421" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2421" t="inlineStr">
-        <is>
-          <t>ISM Manufacturing PricesJAN</t>
-        </is>
-      </c>
-      <c r="D2421" t="inlineStr"/>
-      <c r="E2421" t="inlineStr"/>
-      <c r="F2421" t="inlineStr"/>
-      <c r="G2421" t="inlineStr"/>
-      <c r="H2421" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2422">
-      <c r="A2422" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B2422" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2422" t="inlineStr">
-        <is>
-          <t>3-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="D2422" t="inlineStr"/>
-      <c r="E2422" t="inlineStr"/>
-      <c r="F2422" t="inlineStr"/>
-      <c r="G2422" t="inlineStr"/>
-      <c r="H2422" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2423">
-      <c r="A2423" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B2423" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2423" t="inlineStr">
-        <is>
-          <t>6-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="D2423" t="inlineStr"/>
-      <c r="E2423" t="inlineStr"/>
-      <c r="F2423" t="inlineStr"/>
-      <c r="G2423" t="inlineStr"/>
-      <c r="H2423" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2424">
-      <c r="A2424" t="inlineStr"/>
-      <c r="B2424" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C2424" t="inlineStr">
-        <is>
-          <t>Total New Vehicle SalesJAN</t>
-        </is>
-      </c>
-      <c r="D2424" t="inlineStr"/>
-      <c r="E2424" t="inlineStr">
-        <is>
-          <t>41.27K</t>
-        </is>
-      </c>
-      <c r="F2424" t="inlineStr"/>
-      <c r="G2424" t="inlineStr">
-        <is>
-          <t>43.0K</t>
-        </is>
-      </c>
-      <c r="H2424" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2425">
-      <c r="A2425" t="inlineStr">
-        <is>
-          <t>Tuesday February 04 2025</t>
-        </is>
-      </c>
-      <c r="B2425" t="inlineStr"/>
-      <c r="C2425" t="inlineStr"/>
-      <c r="D2425" t="inlineStr"/>
-      <c r="E2425" t="inlineStr"/>
-      <c r="F2425" t="inlineStr"/>
-      <c r="G2425" t="inlineStr"/>
-      <c r="H2425" t="inlineStr"/>
-    </row>
-    <row r="2426">
-      <c r="A2426" t="inlineStr">
-        <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
-      <c r="B2426" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2426" t="inlineStr">
-        <is>
-          <t>Treasury Refunding Financing Estimates</t>
-        </is>
-      </c>
-      <c r="D2426" t="inlineStr"/>
-      <c r="E2426" t="inlineStr"/>
-      <c r="F2426" t="inlineStr"/>
-      <c r="G2426" t="inlineStr"/>
-      <c r="H2426" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-04.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-04.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2405"/>
+  <dimension ref="A1:H2382"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73661,10 +73661,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2266" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2266" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2267">
@@ -73695,10 +73693,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="H2267" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2267" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2268">
@@ -73729,10 +73725,8 @@
           <t>$-8.82B</t>
         </is>
       </c>
-      <c r="H2268" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2268" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2269">
@@ -73767,10 +73761,8 @@
           <t>$ 23.46B</t>
         </is>
       </c>
-      <c r="H2269" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2269" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2270">
@@ -73801,10 +73793,8 @@
           <t>$32.29B</t>
         </is>
       </c>
-      <c r="H2270" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2270" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2271">
@@ -73835,10 +73825,8 @@
           <t>$ 23.5B</t>
         </is>
       </c>
-      <c r="H2271" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2271" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2272">
@@ -73869,10 +73857,8 @@
           <t>0.9%</t>
         </is>
       </c>
-      <c r="H2272" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2272" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2273">
@@ -73903,10 +73889,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="H2273" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2273" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2274">
@@ -73937,10 +73921,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H2274" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2274" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2275">
@@ -73975,10 +73957,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2275" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2275" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2276">
@@ -74009,10 +73989,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2276" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2276" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2277">
@@ -74043,10 +74021,8 @@
           <t>2.0%</t>
         </is>
       </c>
-      <c r="H2277" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2277" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2278">
@@ -74077,10 +74053,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2278" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2278" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2279">
@@ -74111,10 +74085,8 @@
           <t>-4.3%</t>
         </is>
       </c>
-      <c r="H2279" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2279" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2280">
@@ -74145,10 +74117,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2280" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2280" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2281">
@@ -74179,10 +74149,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2281" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2281" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2282">
@@ -74209,10 +74177,8 @@
       </c>
       <c r="F2282" t="inlineStr"/>
       <c r="G2282" t="inlineStr"/>
-      <c r="H2282" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2282" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2283">
@@ -74247,10 +74213,8 @@
           <t>7.0K</t>
         </is>
       </c>
-      <c r="H2283" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2283" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2284">
@@ -74281,10 +74245,8 @@
           <t>2.876M</t>
         </is>
       </c>
-      <c r="H2284" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2284" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2285">
@@ -74319,10 +74281,8 @@
           <t>6.2%</t>
         </is>
       </c>
-      <c r="H2285" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2285" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2286">
@@ -74345,10 +74305,8 @@
       <c r="E2286" t="inlineStr"/>
       <c r="F2286" t="inlineStr"/>
       <c r="G2286" t="inlineStr"/>
-      <c r="H2286" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2286" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2287">
@@ -74375,10 +74333,8 @@
       </c>
       <c r="F2287" t="inlineStr"/>
       <c r="G2287" t="inlineStr"/>
-      <c r="H2287" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2287" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2288">
@@ -74405,10 +74361,8 @@
       </c>
       <c r="F2288" t="inlineStr"/>
       <c r="G2288" t="inlineStr"/>
-      <c r="H2288" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2288" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2289">
@@ -74435,10 +74389,8 @@
       </c>
       <c r="F2289" t="inlineStr"/>
       <c r="G2289" t="inlineStr"/>
-      <c r="H2289" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2289" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2290">
@@ -74465,10 +74417,8 @@
       </c>
       <c r="F2290" t="inlineStr"/>
       <c r="G2290" t="inlineStr"/>
-      <c r="H2290" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2290" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2291">
@@ -74495,10 +74445,8 @@
       </c>
       <c r="F2291" t="inlineStr"/>
       <c r="G2291" t="inlineStr"/>
-      <c r="H2291" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2291" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2292">
@@ -74525,10 +74473,8 @@
       </c>
       <c r="F2292" t="inlineStr"/>
       <c r="G2292" t="inlineStr"/>
-      <c r="H2292" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2292" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2293">
@@ -74555,10 +74501,8 @@
       </c>
       <c r="F2293" t="inlineStr"/>
       <c r="G2293" t="inlineStr"/>
-      <c r="H2293" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2293" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2294">
@@ -74585,10 +74529,8 @@
       </c>
       <c r="F2294" t="inlineStr"/>
       <c r="G2294" t="inlineStr"/>
-      <c r="H2294" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2294" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2295">
@@ -74615,10 +74557,8 @@
       </c>
       <c r="F2295" t="inlineStr"/>
       <c r="G2295" t="inlineStr"/>
-      <c r="H2295" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2295" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2296">
@@ -74645,10 +74585,8 @@
       </c>
       <c r="F2296" t="inlineStr"/>
       <c r="G2296" t="inlineStr"/>
-      <c r="H2296" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2296" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2297">
@@ -74675,10 +74613,8 @@
       </c>
       <c r="F2297" t="inlineStr"/>
       <c r="G2297" t="inlineStr"/>
-      <c r="H2297" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2297" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2298">
@@ -74705,10 +74641,8 @@
       </c>
       <c r="F2298" t="inlineStr"/>
       <c r="G2298" t="inlineStr"/>
-      <c r="H2298" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2298" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2299">
@@ -74739,10 +74673,8 @@
           <t>€5.0B</t>
         </is>
       </c>
-      <c r="H2299" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2299" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2300">
@@ -74773,10 +74705,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2300" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2300" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2301">
@@ -74807,10 +74737,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2301" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2301" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2302">
@@ -74841,10 +74769,8 @@
           <t>INR-9700.0B</t>
         </is>
       </c>
-      <c r="H2302" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2302" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2303">
@@ -74875,10 +74801,8 @@
           <t>77.9%</t>
         </is>
       </c>
-      <c r="H2303" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2303" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2304">
@@ -74909,10 +74833,8 @@
           <t>BRL-103.0B</t>
         </is>
       </c>
-      <c r="H2304" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2304" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2305">
@@ -74939,10 +74861,8 @@
       </c>
       <c r="F2305" t="inlineStr"/>
       <c r="G2305" t="inlineStr"/>
-      <c r="H2305" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2305" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2306">
@@ -74969,10 +74889,8 @@
       </c>
       <c r="F2306" t="inlineStr"/>
       <c r="G2306" t="inlineStr"/>
-      <c r="H2306" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2306" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2307">
@@ -74999,10 +74917,8 @@
       </c>
       <c r="F2307" t="inlineStr"/>
       <c r="G2307" t="inlineStr"/>
-      <c r="H2307" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2307" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2308">
@@ -75033,10 +74949,8 @@
           <t>4.8%</t>
         </is>
       </c>
-      <c r="H2308" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2308" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2309">
@@ -75067,10 +74981,8 @@
           <t>6.1%</t>
         </is>
       </c>
-      <c r="H2309" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2309" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2310">
@@ -75101,10 +75013,8 @@
           <t>ZAR 27.0B</t>
         </is>
       </c>
-      <c r="H2310" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2310" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2311">
@@ -75139,10 +75049,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H2311" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2311" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2312">
@@ -75177,10 +75085,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2312" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2312" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2313">
@@ -75211,10 +75117,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2313" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2313" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2314">
@@ -75249,10 +75153,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H2314" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2314" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2315">
@@ -75287,10 +75189,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H2315" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2315" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2316">
@@ -75321,10 +75221,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2316" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2316" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2317">
@@ -75359,10 +75257,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2317" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2317" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2318">
@@ -75397,10 +75293,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2318" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2318" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2319">
@@ -75435,10 +75329,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2319" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2319" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2320">
@@ -75469,10 +75361,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2320" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2320" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2321">
@@ -75503,10 +75393,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2321" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2321" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2322">
@@ -75541,10 +75429,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2322" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2322" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2323">
@@ -75567,10 +75453,8 @@
       <c r="E2323" t="inlineStr"/>
       <c r="F2323" t="inlineStr"/>
       <c r="G2323" t="inlineStr"/>
-      <c r="H2323" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2323" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2324">
@@ -75601,10 +75485,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2324" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2324" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2325">
@@ -75635,10 +75517,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H2325" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2325" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2326">
@@ -75669,10 +75549,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H2326" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2326" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2327">
@@ -75707,10 +75585,8 @@
           <t>37.2</t>
         </is>
       </c>
-      <c r="H2327" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2327" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2328">
@@ -75741,10 +75617,8 @@
           <t>C$-1.9B</t>
         </is>
       </c>
-      <c r="H2328" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2328" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2329">
@@ -75771,10 +75645,8 @@
       </c>
       <c r="F2329" t="inlineStr"/>
       <c r="G2329" t="inlineStr"/>
-      <c r="H2329" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2329" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2330">
@@ -75801,10 +75673,8 @@
       </c>
       <c r="F2330" t="inlineStr"/>
       <c r="G2330" t="inlineStr"/>
-      <c r="H2330" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2330" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2331">
@@ -75831,10 +75701,8 @@
           <t>MXN-1120.0B</t>
         </is>
       </c>
-      <c r="H2331" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2331" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2332">
@@ -75861,10 +75729,8 @@
           <t>0.0%</t>
         </is>
       </c>
-      <c r="H2332" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2332" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2333">
@@ -75891,10 +75757,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H2333" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2333" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2334">
@@ -75921,10 +75785,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H2334" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2334" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2335">
@@ -75951,10 +75813,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H2335" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2335" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2336">
@@ -75981,10 +75841,8 @@
           <t>-4.0%</t>
         </is>
       </c>
-      <c r="H2336" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2336" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2337">
@@ -76011,10 +75869,8 @@
           <t>20.7%</t>
         </is>
       </c>
-      <c r="H2337" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2337" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2338">
@@ -76059,10 +75915,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2339" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2339" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2340">
@@ -76093,10 +75947,8 @@
           <t>$0.9B</t>
         </is>
       </c>
-      <c r="H2340" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2340" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2341">
@@ -76127,84 +75979,94 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H2341" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2341" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2342">
       <c r="A2342" t="inlineStr">
         <is>
-          <t>Monday February 03 2025</t>
-        </is>
-      </c>
-      <c r="B2342" t="inlineStr"/>
-      <c r="C2342" t="inlineStr"/>
+          <t>12:30 PM</t>
+        </is>
+      </c>
+      <c r="B2342" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="C2342" t="inlineStr">
+        <is>
+          <t>Inflation Rate YoYJAN</t>
+        </is>
+      </c>
       <c r="D2342" t="inlineStr"/>
-      <c r="E2342" t="inlineStr"/>
+      <c r="E2342" t="inlineStr">
+        <is>
+          <t>44.38%</t>
+        </is>
+      </c>
       <c r="F2342" t="inlineStr"/>
       <c r="G2342" t="inlineStr"/>
-      <c r="H2342" t="inlineStr"/>
+      <c r="H2342" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="2343">
       <c r="A2343" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2343" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2343" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Manufacturing PMI FinalJAN</t>
+          <t>Istanbul Chamber of Industry Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2343" t="inlineStr"/>
       <c r="E2343" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>49.1</t>
         </is>
       </c>
       <c r="F2343" t="inlineStr"/>
       <c r="G2343" t="inlineStr"/>
       <c r="H2343" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2344">
       <c r="A2344" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2344" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2344" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>PPI MoMJAN</t>
         </is>
       </c>
       <c r="D2344" t="inlineStr"/>
       <c r="E2344" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F2344" t="inlineStr"/>
-      <c r="G2344" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
+      <c r="G2344" t="inlineStr"/>
       <c r="H2344" t="inlineStr">
         <is>
           <t>3</t>
@@ -76214,31 +76076,27 @@
     <row r="2345">
       <c r="A2345" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2345" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2345" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>PPI YoYJAN</t>
         </is>
       </c>
       <c r="D2345" t="inlineStr"/>
       <c r="E2345" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>28.52%</t>
         </is>
       </c>
       <c r="F2345" t="inlineStr"/>
-      <c r="G2345" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="G2345" t="inlineStr"/>
       <c r="H2345" t="inlineStr">
         <is>
           <t>3</t>
@@ -76248,51 +76106,47 @@
     <row r="2346">
       <c r="A2346" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2346" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2346" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Unemployment ChangeJAN</t>
         </is>
       </c>
       <c r="D2346" t="inlineStr"/>
       <c r="E2346" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>-25.3K</t>
         </is>
       </c>
       <c r="F2346" t="inlineStr"/>
-      <c r="G2346" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G2346" t="inlineStr"/>
       <c r="H2346" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2347">
       <c r="A2347" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2347" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2347" t="inlineStr">
         <is>
-          <t>BoJ Summary of Opinions</t>
+          <t>Tourist Arrivals YoYDEC</t>
         </is>
       </c>
       <c r="D2347" t="inlineStr"/>
@@ -76301,38 +76155,34 @@
       <c r="G2347" t="inlineStr"/>
       <c r="H2347" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2348">
       <c r="A2348" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B2348" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2348" t="inlineStr">
         <is>
-          <t>Building Permits MoM PrelDEC</t>
+          <t>HCOB Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2348" t="inlineStr"/>
       <c r="E2348" t="inlineStr">
         <is>
-          <t>-3.6%</t>
+          <t>53.3</t>
         </is>
       </c>
       <c r="F2348" t="inlineStr"/>
-      <c r="G2348" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
+      <c r="G2348" t="inlineStr"/>
       <c r="H2348" t="inlineStr">
         <is>
           <t>2</t>
@@ -76342,31 +76192,27 @@
     <row r="2349">
       <c r="A2349" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:15 PM</t>
         </is>
       </c>
       <c r="B2349" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2349" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>HCOB Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2349" t="inlineStr"/>
       <c r="E2349" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>46.2</t>
         </is>
       </c>
       <c r="F2349" t="inlineStr"/>
-      <c r="G2349" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G2349" t="inlineStr"/>
       <c r="H2349" t="inlineStr">
         <is>
           <t>2</t>
@@ -76376,161 +76222,181 @@
     <row r="2350">
       <c r="A2350" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:20 PM</t>
         </is>
       </c>
       <c r="B2350" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2350" t="inlineStr">
         <is>
-          <t>ANZ-Indeed Job Ads MoMJAN</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2350" t="inlineStr"/>
       <c r="E2350" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F2350" t="inlineStr"/>
-      <c r="G2350" t="inlineStr"/>
+          <t>41.9</t>
+        </is>
+      </c>
+      <c r="F2350" t="inlineStr">
+        <is>
+          <t>45.3</t>
+        </is>
+      </c>
+      <c r="G2350" t="inlineStr">
+        <is>
+          <t>45.3</t>
+        </is>
+      </c>
       <c r="H2350" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2351">
       <c r="A2351" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:25 PM</t>
         </is>
       </c>
       <c r="B2351" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2351" t="inlineStr">
         <is>
-          <t>Private House Approvals MoM PrelDEC</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2351" t="inlineStr"/>
       <c r="E2351" t="inlineStr">
         <is>
-          <t>-1.7%</t>
-        </is>
-      </c>
-      <c r="F2351" t="inlineStr"/>
-      <c r="G2351" t="inlineStr"/>
+          <t>42.5</t>
+        </is>
+      </c>
+      <c r="F2351" t="inlineStr">
+        <is>
+          <t>44.1</t>
+        </is>
+      </c>
+      <c r="G2351" t="inlineStr">
+        <is>
+          <t>44.1</t>
+        </is>
+      </c>
       <c r="H2351" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2352">
       <c r="A2352" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2352" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2352" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2352" t="inlineStr"/>
       <c r="E2352" t="inlineStr">
         <is>
-          <t>51.2</t>
-        </is>
-      </c>
-      <c r="F2352" t="inlineStr"/>
+          <t>45.1</t>
+        </is>
+      </c>
+      <c r="F2352" t="inlineStr">
+        <is>
+          <t>46.1</t>
+        </is>
+      </c>
       <c r="G2352" t="inlineStr">
         <is>
-          <t>51.6</t>
+          <t>46.1</t>
         </is>
       </c>
       <c r="H2352" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2353">
       <c r="A2353" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2353" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2353" t="inlineStr">
         <is>
-          <t>Jibun Bank Manufacturing PMI FinalJAN</t>
+          <t>ABSA Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2353" t="inlineStr"/>
       <c r="E2353" t="inlineStr">
         <is>
-          <t>49.6</t>
-        </is>
-      </c>
-      <c r="F2353" t="inlineStr">
-        <is>
-          <t>48.8</t>
-        </is>
-      </c>
+          <t>46.2</t>
+        </is>
+      </c>
+      <c r="F2353" t="inlineStr"/>
       <c r="G2353" t="inlineStr">
         <is>
-          <t>48.8</t>
+          <t>47</t>
         </is>
       </c>
       <c r="H2353" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2354">
       <c r="A2354" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B2354" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2354" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2354" t="inlineStr"/>
       <c r="E2354" t="inlineStr">
         <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="F2354" t="inlineStr"/>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="F2354" t="inlineStr">
+        <is>
+          <t>48.2</t>
+        </is>
+      </c>
       <c r="G2354" t="inlineStr">
         <is>
-          <t>49.5</t>
+          <t>48.2</t>
         </is>
       </c>
       <c r="H2354" t="inlineStr">
@@ -76542,35 +76408,23 @@
     <row r="2355">
       <c r="A2355" t="inlineStr">
         <is>
-          <t>07:15 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2355" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2355" t="inlineStr">
         <is>
-          <t>Caixin Manufacturing PMIJAN</t>
+          <t>Inflation Rate YoY FlashJAN</t>
         </is>
       </c>
       <c r="D2355" t="inlineStr"/>
-      <c r="E2355" t="inlineStr">
-        <is>
-          <t>50.5</t>
-        </is>
-      </c>
-      <c r="F2355" t="inlineStr">
-        <is>
-          <t>50.5</t>
-        </is>
-      </c>
-      <c r="G2355" t="inlineStr">
-        <is>
-          <t>50.5</t>
-        </is>
-      </c>
+      <c r="E2355" t="inlineStr"/>
+      <c r="F2355" t="inlineStr"/>
+      <c r="G2355" t="inlineStr"/>
       <c r="H2355" t="inlineStr">
         <is>
           <t>1</t>
@@ -76580,31 +76434,27 @@
     <row r="2356">
       <c r="A2356" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2356" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2356" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>Core Inflation Rate YoY FlashJAN</t>
         </is>
       </c>
       <c r="D2356" t="inlineStr"/>
       <c r="E2356" t="inlineStr">
         <is>
-          <t>1.57%</t>
+          <t>2.7%</t>
         </is>
       </c>
       <c r="F2356" t="inlineStr"/>
-      <c r="G2356" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
+      <c r="G2356" t="inlineStr"/>
       <c r="H2356" t="inlineStr">
         <is>
           <t>2</t>
@@ -76614,65 +76464,53 @@
     <row r="2357">
       <c r="A2357" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2357" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2357" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYJAN</t>
+          <t>Inflation Rate MoM FlashJAN</t>
         </is>
       </c>
       <c r="D2357" t="inlineStr"/>
-      <c r="E2357" t="inlineStr">
-        <is>
-          <t>2.26%</t>
-        </is>
-      </c>
+      <c r="E2357" t="inlineStr"/>
       <c r="F2357" t="inlineStr"/>
-      <c r="G2357" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
+      <c r="G2357" t="inlineStr"/>
       <c r="H2357" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2358">
       <c r="A2358" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2358" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2358" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>CPI FlashJAN</t>
         </is>
       </c>
       <c r="D2358" t="inlineStr"/>
       <c r="E2358" t="inlineStr">
         <is>
-          <t>0.44%</t>
+          <t>127.07</t>
         </is>
       </c>
       <c r="F2358" t="inlineStr"/>
-      <c r="G2358" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G2358" t="inlineStr"/>
       <c r="H2358" t="inlineStr">
         <is>
           <t>3</t>
@@ -76682,95 +76520,83 @@
     <row r="2359">
       <c r="A2359" t="inlineStr">
         <is>
-          <t>10:15 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2359" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2359" t="inlineStr">
         <is>
-          <t>Tourist Arrivals YoYDEC</t>
+          <t>Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2359" t="inlineStr"/>
       <c r="E2359" t="inlineStr">
         <is>
-          <t>17.27%</t>
+          <t>1.3%</t>
         </is>
       </c>
       <c r="F2359" t="inlineStr"/>
-      <c r="G2359" t="inlineStr">
-        <is>
-          <t>18.0%</t>
-        </is>
-      </c>
+      <c r="G2359" t="inlineStr"/>
       <c r="H2359" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2360">
       <c r="A2360" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2360" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2360" t="inlineStr">
         <is>
-          <t>HSBC Manufacturing PMI FinalJAN</t>
+          <t>Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2360" t="inlineStr"/>
       <c r="E2360" t="inlineStr">
         <is>
-          <t>56.4</t>
-        </is>
-      </c>
-      <c r="F2360" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="G2360" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F2360" t="inlineStr"/>
+      <c r="G2360" t="inlineStr"/>
       <c r="H2360" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2361">
       <c r="A2361" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2361" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2361" t="inlineStr">
         <is>
-          <t>2-Year KTB Auction</t>
+          <t>Harmonised Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2361" t="inlineStr"/>
       <c r="E2361" t="inlineStr">
         <is>
-          <t>2.670%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2361" t="inlineStr"/>
@@ -76784,23 +76610,23 @@
     <row r="2362">
       <c r="A2362" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2362" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2362" t="inlineStr">
         <is>
-          <t>Commodity Prices YoYJAN</t>
+          <t>Harmonised Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2362" t="inlineStr"/>
       <c r="E2362" t="inlineStr">
         <is>
-          <t>-10.7%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F2362" t="inlineStr"/>
@@ -76814,145 +76640,149 @@
     <row r="2363">
       <c r="A2363" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2363" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2363" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>Foreign Exchange ReservesDEC</t>
         </is>
       </c>
       <c r="D2363" t="inlineStr"/>
       <c r="E2363" t="inlineStr">
         <is>
-          <t>50.8</t>
+          <t>$232.2B</t>
         </is>
       </c>
       <c r="F2363" t="inlineStr"/>
-      <c r="G2363" t="inlineStr"/>
+      <c r="G2363" t="inlineStr">
+        <is>
+          <t>$ 230B</t>
+        </is>
+      </c>
       <c r="H2363" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2364">
       <c r="A2364" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2364" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2364" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2364" t="inlineStr"/>
       <c r="E2364" t="inlineStr">
         <is>
-          <t>1.03%</t>
+          <t>50.4</t>
         </is>
       </c>
       <c r="F2364" t="inlineStr"/>
-      <c r="G2364" t="inlineStr"/>
+      <c r="G2364" t="inlineStr">
+        <is>
+          <t>49.8</t>
+        </is>
+      </c>
       <c r="H2364" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2365">
       <c r="A2365" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2365" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2365" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>SIPMM Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2365" t="inlineStr"/>
       <c r="E2365" t="inlineStr">
         <is>
-          <t>44.38%</t>
+          <t>51.1</t>
         </is>
       </c>
       <c r="F2365" t="inlineStr"/>
-      <c r="G2365" t="inlineStr"/>
+      <c r="G2365" t="inlineStr">
+        <is>
+          <t>51.4</t>
+        </is>
+      </c>
       <c r="H2365" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2366">
       <c r="A2366" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2366" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2366" t="inlineStr">
         <is>
-          <t>Istanbul Chamber of Industry Manufacturing PMIJAN</t>
+          <t>Fed Bostic Speech</t>
         </is>
       </c>
       <c r="D2366" t="inlineStr"/>
-      <c r="E2366" t="inlineStr">
-        <is>
-          <t>49.1</t>
-        </is>
-      </c>
+      <c r="E2366" t="inlineStr"/>
       <c r="F2366" t="inlineStr"/>
       <c r="G2366" t="inlineStr"/>
       <c r="H2366" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2367">
       <c r="A2367" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2367" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2367" t="inlineStr">
         <is>
-          <t>PPI MoMJAN</t>
+          <t>12-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2367" t="inlineStr"/>
-      <c r="E2367" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="E2367" t="inlineStr"/>
       <c r="F2367" t="inlineStr"/>
       <c r="G2367" t="inlineStr"/>
       <c r="H2367" t="inlineStr">
@@ -76964,25 +76794,21 @@
     <row r="2368">
       <c r="A2368" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2368" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2368" t="inlineStr">
         <is>
-          <t>PPI YoYJAN</t>
+          <t>3-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2368" t="inlineStr"/>
-      <c r="E2368" t="inlineStr">
-        <is>
-          <t>28.52%</t>
-        </is>
-      </c>
+      <c r="E2368" t="inlineStr"/>
       <c r="F2368" t="inlineStr"/>
       <c r="G2368" t="inlineStr"/>
       <c r="H2368" t="inlineStr">
@@ -76994,83 +76820,91 @@
     <row r="2369">
       <c r="A2369" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2369" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2369" t="inlineStr">
         <is>
-          <t>Unemployment ChangeJAN</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2369" t="inlineStr"/>
-      <c r="E2369" t="inlineStr">
-        <is>
-          <t>-25.3K</t>
-        </is>
-      </c>
+      <c r="E2369" t="inlineStr"/>
       <c r="F2369" t="inlineStr"/>
       <c r="G2369" t="inlineStr"/>
       <c r="H2369" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2370">
       <c r="A2370" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B2370" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2370" t="inlineStr">
         <is>
-          <t>Tourist Arrivals YoYDEC</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2370" t="inlineStr"/>
-      <c r="E2370" t="inlineStr"/>
+      <c r="E2370" t="inlineStr">
+        <is>
+          <t>52.2</t>
+        </is>
+      </c>
       <c r="F2370" t="inlineStr"/>
       <c r="G2370" t="inlineStr"/>
       <c r="H2370" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2371">
       <c r="A2371" t="inlineStr">
         <is>
-          <t>01:45 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B2371" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2371" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMIJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2371" t="inlineStr"/>
       <c r="E2371" t="inlineStr">
         <is>
-          <t>53.3</t>
-        </is>
-      </c>
-      <c r="F2371" t="inlineStr"/>
-      <c r="G2371" t="inlineStr"/>
+          <t>49.4</t>
+        </is>
+      </c>
+      <c r="F2371" t="inlineStr">
+        <is>
+          <t>50.1</t>
+        </is>
+      </c>
+      <c r="G2371" t="inlineStr">
+        <is>
+          <t>50.1</t>
+        </is>
+      </c>
       <c r="H2371" t="inlineStr">
         <is>
           <t>2</t>
@@ -77080,65 +76914,57 @@
     <row r="2372">
       <c r="A2372" t="inlineStr">
         <is>
-          <t>02:15 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2372" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2372" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMIJAN</t>
+          <t>ISM Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2372" t="inlineStr"/>
       <c r="E2372" t="inlineStr">
         <is>
-          <t>46.2</t>
+          <t>49.3</t>
         </is>
       </c>
       <c r="F2372" t="inlineStr"/>
       <c r="G2372" t="inlineStr"/>
       <c r="H2372" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2373">
       <c r="A2373" t="inlineStr">
         <is>
-          <t>02:20 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2373" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2373" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>ISM Manufacturing EmploymentJAN</t>
         </is>
       </c>
       <c r="D2373" t="inlineStr"/>
       <c r="E2373" t="inlineStr">
         <is>
-          <t>41.9</t>
-        </is>
-      </c>
-      <c r="F2373" t="inlineStr">
-        <is>
           <t>45.3</t>
         </is>
       </c>
-      <c r="G2373" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
+      <c r="F2373" t="inlineStr"/>
+      <c r="G2373" t="inlineStr"/>
       <c r="H2373" t="inlineStr">
         <is>
           <t>2</t>
@@ -77148,107 +76974,83 @@
     <row r="2374">
       <c r="A2374" t="inlineStr">
         <is>
-          <t>02:25 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2374" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2374" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>Construction Spending MoMDEC</t>
         </is>
       </c>
       <c r="D2374" t="inlineStr"/>
       <c r="E2374" t="inlineStr">
         <is>
-          <t>42.5</t>
-        </is>
-      </c>
-      <c r="F2374" t="inlineStr">
-        <is>
-          <t>44.1</t>
-        </is>
-      </c>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F2374" t="inlineStr"/>
       <c r="G2374" t="inlineStr">
         <is>
-          <t>44.1</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H2374" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2375">
       <c r="A2375" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2375" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2375" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>ISM Manufacturing New OrdersJAN</t>
         </is>
       </c>
       <c r="D2375" t="inlineStr"/>
-      <c r="E2375" t="inlineStr">
-        <is>
-          <t>45.1</t>
-        </is>
-      </c>
-      <c r="F2375" t="inlineStr">
-        <is>
-          <t>46.1</t>
-        </is>
-      </c>
-      <c r="G2375" t="inlineStr">
-        <is>
-          <t>46.1</t>
-        </is>
-      </c>
+      <c r="E2375" t="inlineStr"/>
+      <c r="F2375" t="inlineStr"/>
+      <c r="G2375" t="inlineStr"/>
       <c r="H2375" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2376">
       <c r="A2376" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2376" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2376" t="inlineStr">
         <is>
-          <t>ABSA Manufacturing PMIJAN</t>
+          <t>ISM Manufacturing PricesJAN</t>
         </is>
       </c>
       <c r="D2376" t="inlineStr"/>
-      <c r="E2376" t="inlineStr">
-        <is>
-          <t>46.2</t>
-        </is>
-      </c>
+      <c r="E2376" t="inlineStr"/>
       <c r="F2376" t="inlineStr"/>
-      <c r="G2376" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
+      <c r="G2376" t="inlineStr"/>
       <c r="H2376" t="inlineStr">
         <is>
           <t>3</t>
@@ -77258,55 +77060,43 @@
     <row r="2377">
       <c r="A2377" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B2377" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2377" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2377" t="inlineStr"/>
-      <c r="E2377" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="F2377" t="inlineStr">
-        <is>
-          <t>48.2</t>
-        </is>
-      </c>
-      <c r="G2377" t="inlineStr">
-        <is>
-          <t>48.2</t>
-        </is>
-      </c>
+      <c r="E2377" t="inlineStr"/>
+      <c r="F2377" t="inlineStr"/>
+      <c r="G2377" t="inlineStr"/>
       <c r="H2377" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2378">
       <c r="A2378" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B2378" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2378" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FlashJAN</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2378" t="inlineStr"/>
@@ -77315,88 +77105,72 @@
       <c r="G2378" t="inlineStr"/>
       <c r="H2378" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2379">
-      <c r="A2379" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
+      <c r="A2379" t="inlineStr"/>
       <c r="B2379" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2379" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoY FlashJAN</t>
+          <t>Total New Vehicle SalesJAN</t>
         </is>
       </c>
       <c r="D2379" t="inlineStr"/>
       <c r="E2379" t="inlineStr">
         <is>
-          <t>2.7%</t>
+          <t>41.27K</t>
         </is>
       </c>
       <c r="F2379" t="inlineStr"/>
-      <c r="G2379" t="inlineStr"/>
+      <c r="G2379" t="inlineStr">
+        <is>
+          <t>43.0K</t>
+        </is>
+      </c>
       <c r="H2379" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2380">
       <c r="A2380" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B2380" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C2380" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoM FlashJAN</t>
-        </is>
-      </c>
+          <t>Tuesday February 04 2025</t>
+        </is>
+      </c>
+      <c r="B2380" t="inlineStr"/>
+      <c r="C2380" t="inlineStr"/>
       <c r="D2380" t="inlineStr"/>
       <c r="E2380" t="inlineStr"/>
       <c r="F2380" t="inlineStr"/>
       <c r="G2380" t="inlineStr"/>
-      <c r="H2380" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="H2380" t="inlineStr"/>
     </row>
     <row r="2381">
       <c r="A2381" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B2381" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2381" t="inlineStr">
         <is>
-          <t>CPI FlashJAN</t>
+          <t>Treasury Refunding Financing Estimates</t>
         </is>
       </c>
       <c r="D2381" t="inlineStr"/>
-      <c r="E2381" t="inlineStr">
-        <is>
-          <t>127.07</t>
-        </is>
-      </c>
+      <c r="E2381" t="inlineStr"/>
       <c r="F2381" t="inlineStr"/>
       <c r="G2381" t="inlineStr"/>
       <c r="H2381" t="inlineStr">
@@ -77408,690 +77182,28 @@
     <row r="2382">
       <c r="A2382" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>03:30 AM</t>
         </is>
       </c>
       <c r="B2382" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C2382" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelJAN</t>
+          <t>Tax RevenueJAN</t>
         </is>
       </c>
       <c r="D2382" t="inlineStr"/>
       <c r="E2382" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>ARS13015B</t>
         </is>
       </c>
       <c r="F2382" t="inlineStr"/>
       <c r="G2382" t="inlineStr"/>
       <c r="H2382" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2383">
-      <c r="A2383" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B2383" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C2383" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoM PrelJAN</t>
-        </is>
-      </c>
-      <c r="D2383" t="inlineStr"/>
-      <c r="E2383" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F2383" t="inlineStr"/>
-      <c r="G2383" t="inlineStr"/>
-      <c r="H2383" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2384">
-      <c r="A2384" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B2384" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C2384" t="inlineStr">
-        <is>
-          <t>Harmonised Inflation Rate MoM PrelJAN</t>
-        </is>
-      </c>
-      <c r="D2384" t="inlineStr"/>
-      <c r="E2384" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F2384" t="inlineStr"/>
-      <c r="G2384" t="inlineStr"/>
-      <c r="H2384" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2385">
-      <c r="A2385" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B2385" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C2385" t="inlineStr">
-        <is>
-          <t>Harmonised Inflation Rate YoY PrelJAN</t>
-        </is>
-      </c>
-      <c r="D2385" t="inlineStr"/>
-      <c r="E2385" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
-      <c r="F2385" t="inlineStr"/>
-      <c r="G2385" t="inlineStr"/>
-      <c r="H2385" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2386">
-      <c r="A2386" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B2386" t="inlineStr">
-        <is>
-          <t>MX</t>
-        </is>
-      </c>
-      <c r="C2386" t="inlineStr">
-        <is>
-          <t>Foreign Exchange ReservesDEC</t>
-        </is>
-      </c>
-      <c r="D2386" t="inlineStr"/>
-      <c r="E2386" t="inlineStr">
-        <is>
-          <t>$232.2B</t>
-        </is>
-      </c>
-      <c r="F2386" t="inlineStr"/>
-      <c r="G2386" t="inlineStr">
-        <is>
-          <t>$ 230B</t>
-        </is>
-      </c>
-      <c r="H2386" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2387">
-      <c r="A2387" t="inlineStr">
-        <is>
-          <t>06:30 PM</t>
-        </is>
-      </c>
-      <c r="B2387" t="inlineStr">
-        <is>
-          <t>BR</t>
-        </is>
-      </c>
-      <c r="C2387" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
-        </is>
-      </c>
-      <c r="D2387" t="inlineStr"/>
-      <c r="E2387" t="inlineStr">
-        <is>
-          <t>50.4</t>
-        </is>
-      </c>
-      <c r="F2387" t="inlineStr"/>
-      <c r="G2387" t="inlineStr">
-        <is>
-          <t>49.8</t>
-        </is>
-      </c>
-      <c r="H2387" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2388">
-      <c r="A2388" t="inlineStr">
-        <is>
-          <t>06:30 PM</t>
-        </is>
-      </c>
-      <c r="B2388" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="C2388" t="inlineStr">
-        <is>
-          <t>SIPMM Manufacturing PMIJAN</t>
-        </is>
-      </c>
-      <c r="D2388" t="inlineStr"/>
-      <c r="E2388" t="inlineStr">
-        <is>
-          <t>51.1</t>
-        </is>
-      </c>
-      <c r="F2388" t="inlineStr"/>
-      <c r="G2388" t="inlineStr">
-        <is>
-          <t>51.4</t>
-        </is>
-      </c>
-      <c r="H2388" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2389">
-      <c r="A2389" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2389" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2389" t="inlineStr">
-        <is>
-          <t>Fed Bostic Speech</t>
-        </is>
-      </c>
-      <c r="D2389" t="inlineStr"/>
-      <c r="E2389" t="inlineStr"/>
-      <c r="F2389" t="inlineStr"/>
-      <c r="G2389" t="inlineStr"/>
-      <c r="H2389" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2390">
-      <c r="A2390" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2390" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C2390" t="inlineStr">
-        <is>
-          <t>12-Month BTF Auction</t>
-        </is>
-      </c>
-      <c r="D2390" t="inlineStr"/>
-      <c r="E2390" t="inlineStr"/>
-      <c r="F2390" t="inlineStr"/>
-      <c r="G2390" t="inlineStr"/>
-      <c r="H2390" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2391">
-      <c r="A2391" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2391" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C2391" t="inlineStr">
-        <is>
-          <t>3-Month BTF Auction</t>
-        </is>
-      </c>
-      <c r="D2391" t="inlineStr"/>
-      <c r="E2391" t="inlineStr"/>
-      <c r="F2391" t="inlineStr"/>
-      <c r="G2391" t="inlineStr"/>
-      <c r="H2391" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2392">
-      <c r="A2392" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2392" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C2392" t="inlineStr">
-        <is>
-          <t>6-Month BTF Auction</t>
-        </is>
-      </c>
-      <c r="D2392" t="inlineStr"/>
-      <c r="E2392" t="inlineStr"/>
-      <c r="F2392" t="inlineStr"/>
-      <c r="G2392" t="inlineStr"/>
-      <c r="H2392" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2393">
-      <c r="A2393" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B2393" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C2393" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
-        </is>
-      </c>
-      <c r="D2393" t="inlineStr"/>
-      <c r="E2393" t="inlineStr">
-        <is>
-          <t>52.2</t>
-        </is>
-      </c>
-      <c r="F2393" t="inlineStr"/>
-      <c r="G2393" t="inlineStr"/>
-      <c r="H2393" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2394">
-      <c r="A2394" t="inlineStr">
-        <is>
-          <t>08:15 PM</t>
-        </is>
-      </c>
-      <c r="B2394" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2394" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
-        </is>
-      </c>
-      <c r="D2394" t="inlineStr"/>
-      <c r="E2394" t="inlineStr">
-        <is>
-          <t>49.4</t>
-        </is>
-      </c>
-      <c r="F2394" t="inlineStr">
-        <is>
-          <t>50.1</t>
-        </is>
-      </c>
-      <c r="G2394" t="inlineStr">
-        <is>
-          <t>50.1</t>
-        </is>
-      </c>
-      <c r="H2394" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2395">
-      <c r="A2395" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2395" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2395" t="inlineStr">
-        <is>
-          <t>ISM Manufacturing PMIJAN</t>
-        </is>
-      </c>
-      <c r="D2395" t="inlineStr"/>
-      <c r="E2395" t="inlineStr">
-        <is>
-          <t>49.3</t>
-        </is>
-      </c>
-      <c r="F2395" t="inlineStr"/>
-      <c r="G2395" t="inlineStr"/>
-      <c r="H2395" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2396">
-      <c r="A2396" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2396" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2396" t="inlineStr">
-        <is>
-          <t>ISM Manufacturing EmploymentJAN</t>
-        </is>
-      </c>
-      <c r="D2396" t="inlineStr"/>
-      <c r="E2396" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
-      <c r="F2396" t="inlineStr"/>
-      <c r="G2396" t="inlineStr"/>
-      <c r="H2396" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2397">
-      <c r="A2397" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2397" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2397" t="inlineStr">
-        <is>
-          <t>Construction Spending MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2397" t="inlineStr"/>
-      <c r="E2397" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F2397" t="inlineStr"/>
-      <c r="G2397" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H2397" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2398">
-      <c r="A2398" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2398" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2398" t="inlineStr">
-        <is>
-          <t>ISM Manufacturing New OrdersJAN</t>
-        </is>
-      </c>
-      <c r="D2398" t="inlineStr"/>
-      <c r="E2398" t="inlineStr"/>
-      <c r="F2398" t="inlineStr"/>
-      <c r="G2398" t="inlineStr"/>
-      <c r="H2398" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2399">
-      <c r="A2399" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2399" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2399" t="inlineStr">
-        <is>
-          <t>ISM Manufacturing PricesJAN</t>
-        </is>
-      </c>
-      <c r="D2399" t="inlineStr"/>
-      <c r="E2399" t="inlineStr"/>
-      <c r="F2399" t="inlineStr"/>
-      <c r="G2399" t="inlineStr"/>
-      <c r="H2399" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2400">
-      <c r="A2400" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B2400" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2400" t="inlineStr">
-        <is>
-          <t>3-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="D2400" t="inlineStr"/>
-      <c r="E2400" t="inlineStr"/>
-      <c r="F2400" t="inlineStr"/>
-      <c r="G2400" t="inlineStr"/>
-      <c r="H2400" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2401">
-      <c r="A2401" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B2401" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2401" t="inlineStr">
-        <is>
-          <t>6-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="D2401" t="inlineStr"/>
-      <c r="E2401" t="inlineStr"/>
-      <c r="F2401" t="inlineStr"/>
-      <c r="G2401" t="inlineStr"/>
-      <c r="H2401" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2402">
-      <c r="A2402" t="inlineStr"/>
-      <c r="B2402" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C2402" t="inlineStr">
-        <is>
-          <t>Total New Vehicle SalesJAN</t>
-        </is>
-      </c>
-      <c r="D2402" t="inlineStr"/>
-      <c r="E2402" t="inlineStr">
-        <is>
-          <t>41.27K</t>
-        </is>
-      </c>
-      <c r="F2402" t="inlineStr"/>
-      <c r="G2402" t="inlineStr">
-        <is>
-          <t>43.0K</t>
-        </is>
-      </c>
-      <c r="H2402" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2403">
-      <c r="A2403" t="inlineStr">
-        <is>
-          <t>Tuesday February 04 2025</t>
-        </is>
-      </c>
-      <c r="B2403" t="inlineStr"/>
-      <c r="C2403" t="inlineStr"/>
-      <c r="D2403" t="inlineStr"/>
-      <c r="E2403" t="inlineStr"/>
-      <c r="F2403" t="inlineStr"/>
-      <c r="G2403" t="inlineStr"/>
-      <c r="H2403" t="inlineStr"/>
-    </row>
-    <row r="2404">
-      <c r="A2404" t="inlineStr">
-        <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
-      <c r="B2404" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2404" t="inlineStr">
-        <is>
-          <t>Treasury Refunding Financing Estimates</t>
-        </is>
-      </c>
-      <c r="D2404" t="inlineStr"/>
-      <c r="E2404" t="inlineStr"/>
-      <c r="F2404" t="inlineStr"/>
-      <c r="G2404" t="inlineStr"/>
-      <c r="H2404" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2405">
-      <c r="A2405" t="inlineStr">
-        <is>
-          <t>03:30 AM</t>
-        </is>
-      </c>
-      <c r="B2405" t="inlineStr">
-        <is>
-          <t>AR</t>
-        </is>
-      </c>
-      <c r="C2405" t="inlineStr">
-        <is>
-          <t>Tax RevenueJAN</t>
-        </is>
-      </c>
-      <c r="D2405" t="inlineStr"/>
-      <c r="E2405" t="inlineStr">
-        <is>
-          <t>ARS13015B</t>
-        </is>
-      </c>
-      <c r="F2405" t="inlineStr"/>
-      <c r="G2405" t="inlineStr"/>
-      <c r="H2405" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-04.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-04.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2382"/>
+  <dimension ref="A1:H2383"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75876,21 +75876,45 @@
     <row r="2338">
       <c r="A2338" t="inlineStr">
         <is>
-          <t>Saturday February 01 2025</t>
-        </is>
-      </c>
-      <c r="B2338" t="inlineStr"/>
-      <c r="C2338" t="inlineStr"/>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B2338" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="C2338" t="inlineStr">
+        <is>
+          <t>HSBC Manufacturing PMI FinalJAN</t>
+        </is>
+      </c>
       <c r="D2338" t="inlineStr"/>
-      <c r="E2338" t="inlineStr"/>
-      <c r="F2338" t="inlineStr"/>
-      <c r="G2338" t="inlineStr"/>
-      <c r="H2338" t="inlineStr"/>
+      <c r="E2338" t="inlineStr">
+        <is>
+          <t>56.4</t>
+        </is>
+      </c>
+      <c r="F2338" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="G2338" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="H2338" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2339">
       <c r="A2339" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2339" t="inlineStr">
@@ -75900,87 +75924,81 @@
       </c>
       <c r="C2339" t="inlineStr">
         <is>
-          <t>Exports YoYJAN</t>
+          <t>2-Year KTB Auction</t>
         </is>
       </c>
       <c r="D2339" t="inlineStr"/>
       <c r="E2339" t="inlineStr">
         <is>
-          <t>6.6%</t>
+          <t>2.670%</t>
         </is>
       </c>
       <c r="F2339" t="inlineStr"/>
-      <c r="G2339" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H2339" t="n">
-        <v>2</v>
+      <c r="G2339" t="inlineStr"/>
+      <c r="H2339" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2340">
       <c r="A2340" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B2340" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2340" t="inlineStr">
         <is>
-          <t>Balance of TradeJAN</t>
+          <t>Commodity Prices YoYJAN</t>
         </is>
       </c>
       <c r="D2340" t="inlineStr"/>
       <c r="E2340" t="inlineStr">
         <is>
-          <t>$6.49B</t>
+          <t>-10.7%</t>
         </is>
       </c>
       <c r="F2340" t="inlineStr"/>
-      <c r="G2340" t="inlineStr">
-        <is>
-          <t>$0.9B</t>
-        </is>
-      </c>
-      <c r="H2340" t="n">
-        <v>3</v>
+      <c r="G2340" t="inlineStr"/>
+      <c r="H2340" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2341">
       <c r="A2341" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B2341" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2341" t="inlineStr">
         <is>
-          <t>Imports YoYJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2341" t="inlineStr"/>
       <c r="E2341" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>50.8</t>
         </is>
       </c>
       <c r="F2341" t="inlineStr"/>
-      <c r="G2341" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="H2341" t="n">
-        <v>3</v>
+      <c r="G2341" t="inlineStr"/>
+      <c r="H2341" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2342">
@@ -75996,13 +76014,13 @@
       </c>
       <c r="C2342" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2342" t="inlineStr"/>
       <c r="E2342" t="inlineStr">
         <is>
-          <t>44.38%</t>
+          <t>1.03%</t>
         </is>
       </c>
       <c r="F2342" t="inlineStr"/>
@@ -76026,20 +76044,20 @@
       </c>
       <c r="C2343" t="inlineStr">
         <is>
-          <t>Istanbul Chamber of Industry Manufacturing PMIJAN</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2343" t="inlineStr"/>
       <c r="E2343" t="inlineStr">
         <is>
-          <t>49.1</t>
+          <t>44.38%</t>
         </is>
       </c>
       <c r="F2343" t="inlineStr"/>
       <c r="G2343" t="inlineStr"/>
       <c r="H2343" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -76056,13 +76074,13 @@
       </c>
       <c r="C2344" t="inlineStr">
         <is>
-          <t>PPI MoMJAN</t>
+          <t>Istanbul Chamber of Industry Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2344" t="inlineStr"/>
       <c r="E2344" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>49.1</t>
         </is>
       </c>
       <c r="F2344" t="inlineStr"/>
@@ -76086,13 +76104,13 @@
       </c>
       <c r="C2345" t="inlineStr">
         <is>
-          <t>PPI YoYJAN</t>
+          <t>PPI MoMJAN</t>
         </is>
       </c>
       <c r="D2345" t="inlineStr"/>
       <c r="E2345" t="inlineStr">
         <is>
-          <t>28.52%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F2345" t="inlineStr"/>
@@ -76106,30 +76124,30 @@
     <row r="2346">
       <c r="A2346" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2346" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2346" t="inlineStr">
         <is>
-          <t>Unemployment ChangeJAN</t>
+          <t>PPI YoYJAN</t>
         </is>
       </c>
       <c r="D2346" t="inlineStr"/>
       <c r="E2346" t="inlineStr">
         <is>
-          <t>-25.3K</t>
+          <t>28.52%</t>
         </is>
       </c>
       <c r="F2346" t="inlineStr"/>
       <c r="G2346" t="inlineStr"/>
       <c r="H2346" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -76146,23 +76164,27 @@
       </c>
       <c r="C2347" t="inlineStr">
         <is>
-          <t>Tourist Arrivals YoYDEC</t>
+          <t>Unemployment ChangeJAN</t>
         </is>
       </c>
       <c r="D2347" t="inlineStr"/>
-      <c r="E2347" t="inlineStr"/>
+      <c r="E2347" t="inlineStr">
+        <is>
+          <t>-25.3K</t>
+        </is>
+      </c>
       <c r="F2347" t="inlineStr"/>
       <c r="G2347" t="inlineStr"/>
       <c r="H2347" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2348">
       <c r="A2348" t="inlineStr">
         <is>
-          <t>01:45 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2348" t="inlineStr">
@@ -76172,32 +76194,28 @@
       </c>
       <c r="C2348" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMIJAN</t>
+          <t>Tourist Arrivals YoYDEC</t>
         </is>
       </c>
       <c r="D2348" t="inlineStr"/>
-      <c r="E2348" t="inlineStr">
-        <is>
-          <t>53.3</t>
-        </is>
-      </c>
+      <c r="E2348" t="inlineStr"/>
       <c r="F2348" t="inlineStr"/>
       <c r="G2348" t="inlineStr"/>
       <c r="H2348" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2349">
       <c r="A2349" t="inlineStr">
         <is>
-          <t>02:15 PM</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B2349" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2349" t="inlineStr">
@@ -76208,7 +76226,7 @@
       <c r="D2349" t="inlineStr"/>
       <c r="E2349" t="inlineStr">
         <is>
-          <t>46.2</t>
+          <t>53.3</t>
         </is>
       </c>
       <c r="F2349" t="inlineStr"/>
@@ -76222,35 +76240,27 @@
     <row r="2350">
       <c r="A2350" t="inlineStr">
         <is>
-          <t>02:20 PM</t>
+          <t>02:15 PM</t>
         </is>
       </c>
       <c r="B2350" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2350" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>HCOB Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2350" t="inlineStr"/>
       <c r="E2350" t="inlineStr">
         <is>
-          <t>41.9</t>
-        </is>
-      </c>
-      <c r="F2350" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
-      <c r="G2350" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
+          <t>46.2</t>
+        </is>
+      </c>
+      <c r="F2350" t="inlineStr"/>
+      <c r="G2350" t="inlineStr"/>
       <c r="H2350" t="inlineStr">
         <is>
           <t>2</t>
@@ -76260,12 +76270,12 @@
     <row r="2351">
       <c r="A2351" t="inlineStr">
         <is>
-          <t>02:25 PM</t>
+          <t>02:20 PM</t>
         </is>
       </c>
       <c r="B2351" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2351" t="inlineStr">
@@ -76276,17 +76286,17 @@
       <c r="D2351" t="inlineStr"/>
       <c r="E2351" t="inlineStr">
         <is>
-          <t>42.5</t>
+          <t>41.9</t>
         </is>
       </c>
       <c r="F2351" t="inlineStr">
         <is>
-          <t>44.1</t>
+          <t>45.3</t>
         </is>
       </c>
       <c r="G2351" t="inlineStr">
         <is>
-          <t>44.1</t>
+          <t>45.3</t>
         </is>
       </c>
       <c r="H2351" t="inlineStr">
@@ -76298,12 +76308,12 @@
     <row r="2352">
       <c r="A2352" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>02:25 PM</t>
         </is>
       </c>
       <c r="B2352" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2352" t="inlineStr">
@@ -76314,17 +76324,17 @@
       <c r="D2352" t="inlineStr"/>
       <c r="E2352" t="inlineStr">
         <is>
-          <t>45.1</t>
+          <t>42.5</t>
         </is>
       </c>
       <c r="F2352" t="inlineStr">
         <is>
-          <t>46.1</t>
+          <t>44.1</t>
         </is>
       </c>
       <c r="G2352" t="inlineStr">
         <is>
-          <t>46.1</t>
+          <t>44.1</t>
         </is>
       </c>
       <c r="H2352" t="inlineStr">
@@ -76341,93 +76351,105 @@
       </c>
       <c r="B2353" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2353" t="inlineStr">
         <is>
-          <t>ABSA Manufacturing PMIJAN</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2353" t="inlineStr"/>
       <c r="E2353" t="inlineStr">
         <is>
-          <t>46.2</t>
-        </is>
-      </c>
-      <c r="F2353" t="inlineStr"/>
+          <t>45.1</t>
+        </is>
+      </c>
+      <c r="F2353" t="inlineStr">
+        <is>
+          <t>46.1</t>
+        </is>
+      </c>
       <c r="G2353" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>46.1</t>
         </is>
       </c>
       <c r="H2353" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2354">
       <c r="A2354" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2354" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2354" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
+          <t>ABSA Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2354" t="inlineStr"/>
       <c r="E2354" t="inlineStr">
         <is>
+          <t>46.2</t>
+        </is>
+      </c>
+      <c r="F2354" t="inlineStr"/>
+      <c r="G2354" t="inlineStr">
+        <is>
           <t>47</t>
         </is>
       </c>
-      <c r="F2354" t="inlineStr">
-        <is>
-          <t>48.2</t>
-        </is>
-      </c>
-      <c r="G2354" t="inlineStr">
-        <is>
-          <t>48.2</t>
-        </is>
-      </c>
       <c r="H2354" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2355">
       <c r="A2355" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B2355" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2355" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FlashJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2355" t="inlineStr"/>
-      <c r="E2355" t="inlineStr"/>
-      <c r="F2355" t="inlineStr"/>
-      <c r="G2355" t="inlineStr"/>
+      <c r="E2355" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="F2355" t="inlineStr">
+        <is>
+          <t>48.2</t>
+        </is>
+      </c>
+      <c r="G2355" t="inlineStr">
+        <is>
+          <t>48.2</t>
+        </is>
+      </c>
       <c r="H2355" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -76444,20 +76466,16 @@
       </c>
       <c r="C2356" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoY FlashJAN</t>
+          <t>Inflation Rate YoY FlashJAN</t>
         </is>
       </c>
       <c r="D2356" t="inlineStr"/>
-      <c r="E2356" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
+      <c r="E2356" t="inlineStr"/>
       <c r="F2356" t="inlineStr"/>
       <c r="G2356" t="inlineStr"/>
       <c r="H2356" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -76474,11 +76492,15 @@
       </c>
       <c r="C2357" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM FlashJAN</t>
+          <t>Core Inflation Rate YoY FlashJAN</t>
         </is>
       </c>
       <c r="D2357" t="inlineStr"/>
-      <c r="E2357" t="inlineStr"/>
+      <c r="E2357" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
       <c r="F2357" t="inlineStr"/>
       <c r="G2357" t="inlineStr"/>
       <c r="H2357" t="inlineStr">
@@ -76500,20 +76522,16 @@
       </c>
       <c r="C2358" t="inlineStr">
         <is>
-          <t>CPI FlashJAN</t>
+          <t>Inflation Rate MoM FlashJAN</t>
         </is>
       </c>
       <c r="D2358" t="inlineStr"/>
-      <c r="E2358" t="inlineStr">
-        <is>
-          <t>127.07</t>
-        </is>
-      </c>
+      <c r="E2358" t="inlineStr"/>
       <c r="F2358" t="inlineStr"/>
       <c r="G2358" t="inlineStr"/>
       <c r="H2358" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -76525,25 +76543,25 @@
       </c>
       <c r="B2359" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2359" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelJAN</t>
+          <t>CPI FlashJAN</t>
         </is>
       </c>
       <c r="D2359" t="inlineStr"/>
       <c r="E2359" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>127.07</t>
         </is>
       </c>
       <c r="F2359" t="inlineStr"/>
       <c r="G2359" t="inlineStr"/>
       <c r="H2359" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -76560,20 +76578,20 @@
       </c>
       <c r="C2360" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM PrelJAN</t>
+          <t>Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2360" t="inlineStr"/>
       <c r="E2360" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>1.3%</t>
         </is>
       </c>
       <c r="F2360" t="inlineStr"/>
       <c r="G2360" t="inlineStr"/>
       <c r="H2360" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -76590,7 +76608,7 @@
       </c>
       <c r="C2361" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM PrelJAN</t>
+          <t>Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2361" t="inlineStr"/>
@@ -76603,7 +76621,7 @@
       <c r="G2361" t="inlineStr"/>
       <c r="H2361" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -76620,13 +76638,13 @@
       </c>
       <c r="C2362" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY PrelJAN</t>
+          <t>Harmonised Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2362" t="inlineStr"/>
       <c r="E2362" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2362" t="inlineStr"/>
@@ -76645,26 +76663,22 @@
       </c>
       <c r="B2363" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2363" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesDEC</t>
+          <t>Harmonised Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2363" t="inlineStr"/>
       <c r="E2363" t="inlineStr">
         <is>
-          <t>$232.2B</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F2363" t="inlineStr"/>
-      <c r="G2363" t="inlineStr">
-        <is>
-          <t>$ 230B</t>
-        </is>
-      </c>
+      <c r="G2363" t="inlineStr"/>
       <c r="H2363" t="inlineStr">
         <is>
           <t>3</t>
@@ -76674,29 +76688,29 @@
     <row r="2364">
       <c r="A2364" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2364" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2364" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>Foreign Exchange ReservesDEC</t>
         </is>
       </c>
       <c r="D2364" t="inlineStr"/>
       <c r="E2364" t="inlineStr">
         <is>
-          <t>50.4</t>
+          <t>$232.2B</t>
         </is>
       </c>
       <c r="F2364" t="inlineStr"/>
       <c r="G2364" t="inlineStr">
         <is>
-          <t>49.8</t>
+          <t>$ 230B</t>
         </is>
       </c>
       <c r="H2364" t="inlineStr">
@@ -76713,24 +76727,24 @@
       </c>
       <c r="B2365" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2365" t="inlineStr">
         <is>
-          <t>SIPMM Manufacturing PMIJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2365" t="inlineStr"/>
       <c r="E2365" t="inlineStr">
         <is>
-          <t>51.1</t>
+          <t>50.4</t>
         </is>
       </c>
       <c r="F2365" t="inlineStr"/>
       <c r="G2365" t="inlineStr">
         <is>
-          <t>51.4</t>
+          <t>49.8</t>
         </is>
       </c>
       <c r="H2365" t="inlineStr">
@@ -76742,43 +76756,51 @@
     <row r="2366">
       <c r="A2366" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2366" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2366" t="inlineStr">
         <is>
-          <t>Fed Bostic Speech</t>
+          <t>SIPMM Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2366" t="inlineStr"/>
-      <c r="E2366" t="inlineStr"/>
+      <c r="E2366" t="inlineStr">
+        <is>
+          <t>51.1</t>
+        </is>
+      </c>
       <c r="F2366" t="inlineStr"/>
-      <c r="G2366" t="inlineStr"/>
+      <c r="G2366" t="inlineStr">
+        <is>
+          <t>51.4</t>
+        </is>
+      </c>
       <c r="H2366" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2367">
       <c r="A2367" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2367" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2367" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>Fed Bostic Speech</t>
         </is>
       </c>
       <c r="D2367" t="inlineStr"/>
@@ -76787,7 +76809,7 @@
       <c r="G2367" t="inlineStr"/>
       <c r="H2367" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -76804,7 +76826,7 @@
       </c>
       <c r="C2368" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>12-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2368" t="inlineStr"/>
@@ -76830,7 +76852,7 @@
       </c>
       <c r="C2369" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>3-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2369" t="inlineStr"/>
@@ -76846,65 +76868,53 @@
     <row r="2370">
       <c r="A2370" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2370" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2370" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2370" t="inlineStr"/>
-      <c r="E2370" t="inlineStr">
-        <is>
-          <t>52.2</t>
-        </is>
-      </c>
+      <c r="E2370" t="inlineStr"/>
       <c r="F2370" t="inlineStr"/>
       <c r="G2370" t="inlineStr"/>
       <c r="H2370" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2371">
       <c r="A2371" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B2371" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2371" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2371" t="inlineStr"/>
       <c r="E2371" t="inlineStr">
         <is>
-          <t>49.4</t>
-        </is>
-      </c>
-      <c r="F2371" t="inlineStr">
-        <is>
-          <t>50.1</t>
-        </is>
-      </c>
-      <c r="G2371" t="inlineStr">
-        <is>
-          <t>50.1</t>
-        </is>
-      </c>
+          <t>52.2</t>
+        </is>
+      </c>
+      <c r="F2371" t="inlineStr"/>
+      <c r="G2371" t="inlineStr"/>
       <c r="H2371" t="inlineStr">
         <is>
           <t>2</t>
@@ -76914,7 +76924,7 @@
     <row r="2372">
       <c r="A2372" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B2372" t="inlineStr">
@@ -76924,20 +76934,28 @@
       </c>
       <c r="C2372" t="inlineStr">
         <is>
-          <t>ISM Manufacturing PMIJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2372" t="inlineStr"/>
       <c r="E2372" t="inlineStr">
         <is>
-          <t>49.3</t>
-        </is>
-      </c>
-      <c r="F2372" t="inlineStr"/>
-      <c r="G2372" t="inlineStr"/>
+          <t>49.4</t>
+        </is>
+      </c>
+      <c r="F2372" t="inlineStr">
+        <is>
+          <t>50.1</t>
+        </is>
+      </c>
+      <c r="G2372" t="inlineStr">
+        <is>
+          <t>50.1</t>
+        </is>
+      </c>
       <c r="H2372" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -76954,20 +76972,20 @@
       </c>
       <c r="C2373" t="inlineStr">
         <is>
-          <t>ISM Manufacturing EmploymentJAN</t>
+          <t>ISM Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2373" t="inlineStr"/>
       <c r="E2373" t="inlineStr">
         <is>
-          <t>45.3</t>
+          <t>49.3</t>
         </is>
       </c>
       <c r="F2373" t="inlineStr"/>
       <c r="G2373" t="inlineStr"/>
       <c r="H2373" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -76984,24 +77002,20 @@
       </c>
       <c r="C2374" t="inlineStr">
         <is>
-          <t>Construction Spending MoMDEC</t>
+          <t>ISM Manufacturing EmploymentJAN</t>
         </is>
       </c>
       <c r="D2374" t="inlineStr"/>
       <c r="E2374" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>45.3</t>
         </is>
       </c>
       <c r="F2374" t="inlineStr"/>
-      <c r="G2374" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G2374" t="inlineStr"/>
       <c r="H2374" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -77018,13 +77032,21 @@
       </c>
       <c r="C2375" t="inlineStr">
         <is>
-          <t>ISM Manufacturing New OrdersJAN</t>
+          <t>Construction Spending MoMDEC</t>
         </is>
       </c>
       <c r="D2375" t="inlineStr"/>
-      <c r="E2375" t="inlineStr"/>
+      <c r="E2375" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
       <c r="F2375" t="inlineStr"/>
-      <c r="G2375" t="inlineStr"/>
+      <c r="G2375" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H2375" t="inlineStr">
         <is>
           <t>3</t>
@@ -77044,7 +77066,7 @@
       </c>
       <c r="C2376" t="inlineStr">
         <is>
-          <t>ISM Manufacturing PricesJAN</t>
+          <t>ISM Manufacturing New OrdersJAN</t>
         </is>
       </c>
       <c r="D2376" t="inlineStr"/>
@@ -77060,7 +77082,7 @@
     <row r="2377">
       <c r="A2377" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2377" t="inlineStr">
@@ -77070,7 +77092,7 @@
       </c>
       <c r="C2377" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>ISM Manufacturing PricesJAN</t>
         </is>
       </c>
       <c r="D2377" t="inlineStr"/>
@@ -77096,7 +77118,7 @@
       </c>
       <c r="C2378" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2378" t="inlineStr"/>
@@ -77110,100 +77132,126 @@
       </c>
     </row>
     <row r="2379">
-      <c r="A2379" t="inlineStr"/>
+      <c r="A2379" t="inlineStr">
+        <is>
+          <t>10:00 PM</t>
+        </is>
+      </c>
       <c r="B2379" t="inlineStr">
         <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2379" t="inlineStr">
+        <is>
+          <t>6-Month Bill Auction</t>
+        </is>
+      </c>
+      <c r="D2379" t="inlineStr"/>
+      <c r="E2379" t="inlineStr"/>
+      <c r="F2379" t="inlineStr"/>
+      <c r="G2379" t="inlineStr"/>
+      <c r="H2379" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2380">
+      <c r="A2380" t="inlineStr"/>
+      <c r="B2380" t="inlineStr">
+        <is>
           <t>ZA</t>
         </is>
       </c>
-      <c r="C2379" t="inlineStr">
+      <c r="C2380" t="inlineStr">
         <is>
           <t>Total New Vehicle SalesJAN</t>
         </is>
       </c>
-      <c r="D2379" t="inlineStr"/>
-      <c r="E2379" t="inlineStr">
+      <c r="D2380" t="inlineStr"/>
+      <c r="E2380" t="inlineStr">
         <is>
           <t>41.27K</t>
         </is>
       </c>
-      <c r="F2379" t="inlineStr"/>
-      <c r="G2379" t="inlineStr">
+      <c r="F2380" t="inlineStr"/>
+      <c r="G2380" t="inlineStr">
         <is>
           <t>43.0K</t>
         </is>
       </c>
-      <c r="H2379" t="inlineStr">
+      <c r="H2380" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-    </row>
-    <row r="2380">
-      <c r="A2380" t="inlineStr">
-        <is>
-          <t>Tuesday February 04 2025</t>
-        </is>
-      </c>
-      <c r="B2380" t="inlineStr"/>
-      <c r="C2380" t="inlineStr"/>
-      <c r="D2380" t="inlineStr"/>
-      <c r="E2380" t="inlineStr"/>
-      <c r="F2380" t="inlineStr"/>
-      <c r="G2380" t="inlineStr"/>
-      <c r="H2380" t="inlineStr"/>
     </row>
     <row r="2381">
       <c r="A2381" t="inlineStr">
         <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
-      <c r="B2381" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2381" t="inlineStr">
-        <is>
-          <t>Treasury Refunding Financing Estimates</t>
-        </is>
-      </c>
+          <t>Tuesday February 04 2025</t>
+        </is>
+      </c>
+      <c r="B2381" t="inlineStr"/>
+      <c r="C2381" t="inlineStr"/>
       <c r="D2381" t="inlineStr"/>
       <c r="E2381" t="inlineStr"/>
       <c r="F2381" t="inlineStr"/>
       <c r="G2381" t="inlineStr"/>
-      <c r="H2381" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H2381" t="inlineStr"/>
     </row>
     <row r="2382">
       <c r="A2382" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B2382" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2382" t="inlineStr">
         <is>
-          <t>Tax RevenueJAN</t>
+          <t>Treasury Refunding Financing Estimates</t>
         </is>
       </c>
       <c r="D2382" t="inlineStr"/>
-      <c r="E2382" t="inlineStr">
-        <is>
-          <t>ARS13015B</t>
-        </is>
-      </c>
+      <c r="E2382" t="inlineStr"/>
       <c r="F2382" t="inlineStr"/>
       <c r="G2382" t="inlineStr"/>
       <c r="H2382" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2383">
+      <c r="A2383" t="inlineStr">
+        <is>
+          <t>03:30 AM</t>
+        </is>
+      </c>
+      <c r="B2383" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C2383" t="inlineStr">
+        <is>
+          <t>Tax RevenueJAN</t>
+        </is>
+      </c>
+      <c r="D2383" t="inlineStr"/>
+      <c r="E2383" t="inlineStr">
+        <is>
+          <t>ARS13015B</t>
+        </is>
+      </c>
+      <c r="F2383" t="inlineStr"/>
+      <c r="G2383" t="inlineStr"/>
+      <c r="H2383" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-04.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-04.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2428"/>
+  <dimension ref="A1:H2407"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70107,10 +70107,8 @@
           <t>96</t>
         </is>
       </c>
-      <c r="H2153" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2153" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2154">
@@ -70137,10 +70135,8 @@
       </c>
       <c r="F2154" t="inlineStr"/>
       <c r="G2154" t="inlineStr"/>
-      <c r="H2154" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2154" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2155">
@@ -70167,10 +70163,8 @@
       </c>
       <c r="F2155" t="inlineStr"/>
       <c r="G2155" t="inlineStr"/>
-      <c r="H2155" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2155" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2156">
@@ -70197,10 +70191,8 @@
       </c>
       <c r="F2156" t="inlineStr"/>
       <c r="G2156" t="inlineStr"/>
-      <c r="H2156" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2156" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2157">
@@ -70231,10 +70223,8 @@
           <t>2.70%</t>
         </is>
       </c>
-      <c r="H2157" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2157" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2158">
@@ -70261,10 +70251,8 @@
       </c>
       <c r="F2158" t="inlineStr"/>
       <c r="G2158" t="inlineStr"/>
-      <c r="H2158" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2158" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2159">
@@ -70291,10 +70279,8 @@
       </c>
       <c r="F2159" t="inlineStr"/>
       <c r="G2159" t="inlineStr"/>
-      <c r="H2159" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2159" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2160">
@@ -70321,10 +70307,8 @@
       </c>
       <c r="F2160" t="inlineStr"/>
       <c r="G2160" t="inlineStr"/>
-      <c r="H2160" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2160" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2161">
@@ -70351,10 +70335,8 @@
       </c>
       <c r="F2161" t="inlineStr"/>
       <c r="G2161" t="inlineStr"/>
-      <c r="H2161" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2161" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2162">
@@ -70381,10 +70363,8 @@
       </c>
       <c r="F2162" t="inlineStr"/>
       <c r="G2162" t="inlineStr"/>
-      <c r="H2162" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2162" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2163">
@@ -70419,10 +70399,8 @@
           <t>$ -101.0B</t>
         </is>
       </c>
-      <c r="H2163" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2163" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2164">
@@ -70453,10 +70431,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2164" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2164" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2165">
@@ -70491,10 +70467,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2165" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2165" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2166">
@@ -70529,10 +70503,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H2166" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2166" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2167">
@@ -70555,10 +70527,8 @@
       <c r="E2167" t="inlineStr"/>
       <c r="F2167" t="inlineStr"/>
       <c r="G2167" t="inlineStr"/>
-      <c r="H2167" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2167" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2168">
@@ -70581,10 +70551,8 @@
       <c r="E2168" t="inlineStr"/>
       <c r="F2168" t="inlineStr"/>
       <c r="G2168" t="inlineStr"/>
-      <c r="H2168" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2168" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2169">
@@ -70611,10 +70579,8 @@
       </c>
       <c r="F2169" t="inlineStr"/>
       <c r="G2169" t="inlineStr"/>
-      <c r="H2169" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2169" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2170">
@@ -70641,10 +70607,8 @@
       </c>
       <c r="F2170" t="inlineStr"/>
       <c r="G2170" t="inlineStr"/>
-      <c r="H2170" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2170" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2171">
@@ -70671,10 +70635,8 @@
       </c>
       <c r="F2171" t="inlineStr"/>
       <c r="G2171" t="inlineStr"/>
-      <c r="H2171" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2171" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2172">
@@ -70701,10 +70663,8 @@
       </c>
       <c r="F2172" t="inlineStr"/>
       <c r="G2172" t="inlineStr"/>
-      <c r="H2172" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2172" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2173">
@@ -70731,10 +70691,8 @@
       </c>
       <c r="F2173" t="inlineStr"/>
       <c r="G2173" t="inlineStr"/>
-      <c r="H2173" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2173" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2174">
@@ -70761,10 +70719,8 @@
       </c>
       <c r="F2174" t="inlineStr"/>
       <c r="G2174" t="inlineStr"/>
-      <c r="H2174" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2174" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2175">
@@ -70791,10 +70747,8 @@
       </c>
       <c r="F2175" t="inlineStr"/>
       <c r="G2175" t="inlineStr"/>
-      <c r="H2175" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2175" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2176">
@@ -70821,10 +70775,8 @@
       </c>
       <c r="F2176" t="inlineStr"/>
       <c r="G2176" t="inlineStr"/>
-      <c r="H2176" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2176" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2177">
@@ -70851,10 +70803,8 @@
       </c>
       <c r="F2177" t="inlineStr"/>
       <c r="G2177" t="inlineStr"/>
-      <c r="H2177" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2177" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2178">
@@ -70885,10 +70835,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H2178" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2178" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2179">
@@ -70919,10 +70867,8 @@
           <t>4.4%</t>
         </is>
       </c>
-      <c r="H2179" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2179" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2180">
@@ -70949,10 +70895,8 @@
       </c>
       <c r="F2180" t="inlineStr"/>
       <c r="G2180" t="inlineStr"/>
-      <c r="H2180" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2180" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2181">
@@ -71001,10 +70945,8 @@
           <t>4.5%</t>
         </is>
       </c>
-      <c r="H2182" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2182" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2183">
@@ -71027,10 +70969,8 @@
       <c r="E2183" t="inlineStr"/>
       <c r="F2183" t="inlineStr"/>
       <c r="G2183" t="inlineStr"/>
-      <c r="H2183" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2183" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2184">
@@ -71061,10 +71001,8 @@
           <t>12.25%</t>
         </is>
       </c>
-      <c r="H2184" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2184" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2185">
@@ -71091,10 +71029,8 @@
       </c>
       <c r="F2185" t="inlineStr"/>
       <c r="G2185" t="inlineStr"/>
-      <c r="H2185" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2185" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2186">
@@ -71121,10 +71057,8 @@
       </c>
       <c r="F2186" t="inlineStr"/>
       <c r="G2186" t="inlineStr"/>
-      <c r="H2186" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2186" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2187">
@@ -71155,10 +71089,8 @@
           <t>-20.0%</t>
         </is>
       </c>
-      <c r="H2187" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2187" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2188">
@@ -71181,10 +71113,8 @@
       <c r="E2188" t="inlineStr"/>
       <c r="F2188" t="inlineStr"/>
       <c r="G2188" t="inlineStr"/>
-      <c r="H2188" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2188" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2189">
@@ -71215,10 +71145,8 @@
           <t>-6.6%</t>
         </is>
       </c>
-      <c r="H2189" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2189" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2190">
@@ -71253,10 +71181,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2190" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2190" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2191">
@@ -71279,10 +71205,8 @@
       <c r="E2191" t="inlineStr"/>
       <c r="F2191" t="inlineStr"/>
       <c r="G2191" t="inlineStr"/>
-      <c r="H2191" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2191" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2192">
@@ -71313,10 +71237,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H2192" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2192" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2193">
@@ -71343,10 +71265,8 @@
       </c>
       <c r="F2193" t="inlineStr"/>
       <c r="G2193" t="inlineStr"/>
-      <c r="H2193" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2193" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2194">
@@ -71377,10 +71297,8 @@
           <t>3.8%</t>
         </is>
       </c>
-      <c r="H2194" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2194" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2195">
@@ -71403,10 +71321,8 @@
       <c r="E2195" t="inlineStr"/>
       <c r="F2195" t="inlineStr"/>
       <c r="G2195" t="inlineStr"/>
-      <c r="H2195" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2195" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2196">
@@ -71441,10 +71357,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H2196" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2196" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2197">
@@ -71475,10 +71389,8 @@
           <t>1.1%</t>
         </is>
       </c>
-      <c r="H2197" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2197" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2198">
@@ -71513,10 +71425,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2198" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2198" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2199">
@@ -71551,10 +71461,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2199" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2199" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2200">
@@ -71585,10 +71493,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H2200" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2200" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2201">
@@ -71619,10 +71525,8 @@
           <t>98.3</t>
         </is>
       </c>
-      <c r="H2201" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2201" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2202">
@@ -71653,10 +71557,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H2202" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2202" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2203">
@@ -71691,10 +71593,8 @@
           <t>2.7%</t>
         </is>
       </c>
-      <c r="H2203" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2203" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2204">
@@ -71725,10 +71625,8 @@
           <t>2.7%</t>
         </is>
       </c>
-      <c r="H2204" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2204" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2205">
@@ -71759,10 +71657,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H2205" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2205" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2206">
@@ -71793,10 +71689,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H2206" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2206" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2207">
@@ -71831,10 +71725,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H2207" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2207" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2208">
@@ -71869,10 +71761,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H2208" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2208" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2209">
@@ -71907,10 +71797,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2209" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2209" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2210">
@@ -71941,10 +71829,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2210" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2210" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2211">
@@ -71975,10 +71861,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H2211" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2211" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2212">
@@ -72009,10 +71893,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2212" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2212" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2213">
@@ -72043,10 +71925,8 @@
           <t>£ 1.3B</t>
         </is>
       </c>
-      <c r="H2213" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2213" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2214">
@@ -72081,10 +71961,8 @@
           <t>65.1K</t>
         </is>
       </c>
-      <c r="H2214" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2214" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2215">
@@ -72115,10 +71993,8 @@
           <t>£ 2.2B</t>
         </is>
       </c>
-      <c r="H2215" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2215" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2216">
@@ -72153,10 +72029,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H2216" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2216" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2217">
@@ -72191,10 +72065,8 @@
           <t>£3.5B</t>
         </is>
       </c>
-      <c r="H2217" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2217" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2218">
@@ -72229,10 +72101,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2218" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2218" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2219">
@@ -72267,10 +72137,8 @@
           <t>6.4%</t>
         </is>
       </c>
-      <c r="H2219" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2219" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2220">
@@ -72301,10 +72169,8 @@
         </is>
       </c>
       <c r="G2220" t="inlineStr"/>
-      <c r="H2220" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2220" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2221">
@@ -72339,10 +72205,8 @@
           <t>93.5</t>
         </is>
       </c>
-      <c r="H2221" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2221" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2222">
@@ -72377,10 +72241,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H2222" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2222" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2223">
@@ -72411,10 +72273,8 @@
           <t>22</t>
         </is>
       </c>
-      <c r="H2223" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2223" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2224">
@@ -72445,10 +72305,8 @@
           <t>-14.5</t>
         </is>
       </c>
-      <c r="H2224" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2224" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2225">
@@ -72479,10 +72337,8 @@
           <t>8</t>
         </is>
       </c>
-      <c r="H2225" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2225" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2226">
@@ -72513,10 +72369,8 @@
           <t>6</t>
         </is>
       </c>
-      <c r="H2226" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2226" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2227">
@@ -72551,10 +72405,8 @@
           <t>5.6%</t>
         </is>
       </c>
-      <c r="H2227" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2227" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2228">
@@ -72577,10 +72429,8 @@
       <c r="E2228" t="inlineStr"/>
       <c r="F2228" t="inlineStr"/>
       <c r="G2228" t="inlineStr"/>
-      <c r="H2228" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2228" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2229">
@@ -72611,10 +72461,8 @@
           <t>0.9%</t>
         </is>
       </c>
-      <c r="H2229" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2229" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2230">
@@ -72645,10 +72493,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H2230" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2230" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2231">
@@ -72679,10 +72525,8 @@
           <t>-5.1%</t>
         </is>
       </c>
-      <c r="H2231" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2231" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2232">
@@ -72705,10 +72549,8 @@
       <c r="E2232" t="inlineStr"/>
       <c r="F2232" t="inlineStr"/>
       <c r="G2232" t="inlineStr"/>
-      <c r="H2232" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2232" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2233">
@@ -72735,10 +72577,8 @@
       </c>
       <c r="F2233" t="inlineStr"/>
       <c r="G2233" t="inlineStr"/>
-      <c r="H2233" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2233" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2234">
@@ -72769,10 +72609,8 @@
           <t>56.2</t>
         </is>
       </c>
-      <c r="H2234" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2234" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2235">
@@ -72803,10 +72641,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2235" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2235" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2236">
@@ -72837,10 +72673,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H2236" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2236" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2237">
@@ -72871,10 +72705,8 @@
           <t>-5</t>
         </is>
       </c>
-      <c r="H2237" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2237" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2238">
@@ -72909,10 +72741,8 @@
           <t>7.50%</t>
         </is>
       </c>
-      <c r="H2238" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2238" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2239">
@@ -72943,10 +72773,8 @@
           <t>11.0%</t>
         </is>
       </c>
-      <c r="H2239" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2239" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2240">
@@ -72981,10 +72809,8 @@
           <t>2.75%</t>
         </is>
       </c>
-      <c r="H2240" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2240" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2241">
@@ -73019,10 +72845,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H2241" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2241" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2242">
@@ -73053,10 +72877,8 @@
           <t>3.15%</t>
         </is>
       </c>
-      <c r="H2242" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2242" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2243">
@@ -73087,10 +72909,8 @@
           <t>5.0%</t>
         </is>
       </c>
-      <c r="H2243" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2243" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2244">
@@ -73125,10 +72945,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H2244" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2244" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2245">
@@ -73163,10 +72981,8 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="H2245" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2245" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2246">
@@ -73201,10 +73017,8 @@
           <t>228.0K</t>
         </is>
       </c>
-      <c r="H2246" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2246" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2247">
@@ -73235,10 +73049,8 @@
           <t>1885.0K</t>
         </is>
       </c>
-      <c r="H2247" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2247" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2248">
@@ -73269,10 +73081,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="H2248" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2248" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2249">
@@ -73303,10 +73113,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H2249" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2249" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2250">
@@ -73337,10 +73145,8 @@
           <t>214.0K</t>
         </is>
       </c>
-      <c r="H2250" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2250" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2251">
@@ -73371,10 +73177,8 @@
           <t>1.1%</t>
         </is>
       </c>
-      <c r="H2251" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2251" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2252">
@@ -73405,10 +73209,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H2252" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2252" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2253">
@@ -73431,10 +73233,8 @@
       <c r="E2253" t="inlineStr"/>
       <c r="F2253" t="inlineStr"/>
       <c r="G2253" t="inlineStr"/>
-      <c r="H2253" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2253" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2254">
@@ -73469,10 +73269,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2254" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2254" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2255">
@@ -73503,10 +73301,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H2255" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2255" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2256">
@@ -73533,10 +73329,8 @@
       </c>
       <c r="F2256" t="inlineStr"/>
       <c r="G2256" t="inlineStr"/>
-      <c r="H2256" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2256" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2257">
@@ -73563,10 +73357,8 @@
       </c>
       <c r="F2257" t="inlineStr"/>
       <c r="G2257" t="inlineStr"/>
-      <c r="H2257" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2257" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2258">
@@ -73593,10 +73385,8 @@
       </c>
       <c r="F2258" t="inlineStr"/>
       <c r="G2258" t="inlineStr"/>
-      <c r="H2258" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2258" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2259">
@@ -73623,10 +73413,8 @@
       </c>
       <c r="F2259" t="inlineStr"/>
       <c r="G2259" t="inlineStr"/>
-      <c r="H2259" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2259" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2260">
@@ -73653,10 +73441,8 @@
       </c>
       <c r="F2260" t="inlineStr"/>
       <c r="G2260" t="inlineStr"/>
-      <c r="H2260" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2260" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2261">
@@ -73683,10 +73469,8 @@
           <t>ZAR14.0B</t>
         </is>
       </c>
-      <c r="H2261" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2261" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2262">
@@ -73713,10 +73497,8 @@
           <t>10.6%</t>
         </is>
       </c>
-      <c r="H2262" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2262" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2263">
@@ -73743,10 +73525,8 @@
           <t>12.8%</t>
         </is>
       </c>
-      <c r="H2263" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2263" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2264">
@@ -73769,10 +73549,8 @@
       </c>
       <c r="F2264" t="inlineStr"/>
       <c r="G2264" t="inlineStr"/>
-      <c r="H2264" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2264" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2265">
@@ -73795,10 +73573,8 @@
       </c>
       <c r="F2265" t="inlineStr"/>
       <c r="G2265" t="inlineStr"/>
-      <c r="H2265" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2265" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2266">
@@ -73825,86 +73601,108 @@
           <t>90.0K</t>
         </is>
       </c>
-      <c r="H2266" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2266" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2267">
       <c r="A2267" t="inlineStr">
         <is>
-          <t>Friday January 31 2025</t>
-        </is>
-      </c>
-      <c r="B2267" t="inlineStr"/>
-      <c r="C2267" t="inlineStr"/>
+          <t>12:30 PM</t>
+        </is>
+      </c>
+      <c r="B2267" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="C2267" t="inlineStr">
+        <is>
+          <t>Retail Sales MoMDEC</t>
+        </is>
+      </c>
       <c r="D2267" t="inlineStr"/>
-      <c r="E2267" t="inlineStr"/>
-      <c r="F2267" t="inlineStr"/>
-      <c r="G2267" t="inlineStr"/>
-      <c r="H2267" t="inlineStr"/>
+      <c r="E2267" t="inlineStr">
+        <is>
+          <t>-0.6%</t>
+        </is>
+      </c>
+      <c r="F2267" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="G2267" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="H2267" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="2268">
       <c r="A2268" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2268" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2268" t="inlineStr">
         <is>
-          <t>Fed Balance SheetJAN/29</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="D2268" t="inlineStr"/>
       <c r="E2268" t="inlineStr">
         <is>
-          <t>$6.88T</t>
+          <t>2.5%</t>
         </is>
       </c>
       <c r="F2268" t="inlineStr"/>
-      <c r="G2268" t="inlineStr"/>
+      <c r="G2268" t="inlineStr">
+        <is>
+          <t>1.9%</t>
+        </is>
+      </c>
       <c r="H2268" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2269">
       <c r="A2269" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2269" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2269" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>Balance of Trade FinalDEC</t>
         </is>
       </c>
       <c r="D2269" t="inlineStr"/>
       <c r="E2269" t="inlineStr">
         <is>
-          <t>2.5%</t>
-        </is>
-      </c>
-      <c r="F2269" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
+          <t>$-7.46B</t>
+        </is>
+      </c>
+      <c r="F2269" t="inlineStr"/>
       <c r="G2269" t="inlineStr">
         <is>
-          <t>2.50%</t>
+          <t>$-8.82B</t>
         </is>
       </c>
       <c r="H2269" t="inlineStr">
@@ -73916,33 +73714,33 @@
     <row r="2270">
       <c r="A2270" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2270" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2270" t="inlineStr">
         <is>
-          <t>Jobs/applications ratioDEC</t>
+          <t>Exports FinalDEC</t>
         </is>
       </c>
       <c r="D2270" t="inlineStr"/>
       <c r="E2270" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>$22.29B</t>
         </is>
       </c>
       <c r="F2270" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>$23.46B</t>
         </is>
       </c>
       <c r="G2270" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>$ 23.46B</t>
         </is>
       </c>
       <c r="H2270" t="inlineStr">
@@ -73954,33 +73752,29 @@
     <row r="2271">
       <c r="A2271" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2271" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2271" t="inlineStr">
         <is>
-          <t>Tokyo Core CPI YoYJAN</t>
+          <t>Imports FinalDEC</t>
         </is>
       </c>
       <c r="D2271" t="inlineStr"/>
       <c r="E2271" t="inlineStr">
         <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="F2271" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
+          <t>$29.75B</t>
+        </is>
+      </c>
+      <c r="F2271" t="inlineStr"/>
       <c r="G2271" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>$32.29B</t>
         </is>
       </c>
       <c r="H2271" t="inlineStr">
@@ -73992,29 +73786,29 @@
     <row r="2272">
       <c r="A2272" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2272" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2272" t="inlineStr">
         <is>
-          <t>Tokyo CPI Ex Food and Energy YoYJAN</t>
+          <t>Tourism RevenuesQ4</t>
         </is>
       </c>
       <c r="D2272" t="inlineStr"/>
       <c r="E2272" t="inlineStr">
         <is>
-          <t>1.1%</t>
+          <t>$23.22B</t>
         </is>
       </c>
       <c r="F2272" t="inlineStr"/>
       <c r="G2272" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>$ 23.5B</t>
         </is>
       </c>
       <c r="H2272" t="inlineStr">
@@ -74026,67 +73820,63 @@
     <row r="2273">
       <c r="A2273" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2273" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2273" t="inlineStr">
         <is>
-          <t>Tokyo CPI YoYJAN</t>
+          <t>Nationwide Housing Prices MoMJAN</t>
         </is>
       </c>
       <c r="D2273" t="inlineStr"/>
       <c r="E2273" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="F2273" t="inlineStr"/>
       <c r="G2273" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>0.9%</t>
         </is>
       </c>
       <c r="H2273" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2274">
       <c r="A2274" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2274" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2274" t="inlineStr">
         <is>
-          <t>Industrial Production MoM PrelDEC</t>
+          <t>Nationwide Housing Prices YoYJAN</t>
         </is>
       </c>
       <c r="D2274" t="inlineStr"/>
       <c r="E2274" t="inlineStr">
         <is>
-          <t>-2.2%</t>
-        </is>
-      </c>
-      <c r="F2274" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+          <t>4.7%</t>
+        </is>
+      </c>
+      <c r="F2274" t="inlineStr"/>
       <c r="G2274" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H2274" t="inlineStr">
@@ -74098,101 +73888,101 @@
     <row r="2275">
       <c r="A2275" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2275" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2275" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2275" t="inlineStr"/>
       <c r="E2275" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F2275" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
+          <t>1.3%</t>
+        </is>
+      </c>
+      <c r="F2275" t="inlineStr"/>
       <c r="G2275" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="H2275" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2276">
       <c r="A2276" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2276" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2276" t="inlineStr">
         <is>
-          <t>Industrial Production YoY PrelDEC</t>
+          <t>Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2276" t="inlineStr"/>
       <c r="E2276" t="inlineStr">
         <is>
-          <t>-2.8%</t>
-        </is>
-      </c>
-      <c r="F2276" t="inlineStr"/>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="F2276" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
       <c r="G2276" t="inlineStr">
         <is>
-          <t>-1.6%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H2276" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2277">
       <c r="A2277" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2277" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2277" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Harmonised Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2277" t="inlineStr"/>
       <c r="E2277" t="inlineStr">
         <is>
-          <t>1.8%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F2277" t="inlineStr"/>
       <c r="G2277" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H2277" t="inlineStr">
@@ -74204,67 +73994,63 @@
     <row r="2278">
       <c r="A2278" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2278" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2278" t="inlineStr">
         <is>
-          <t>PPI QoQQ4</t>
+          <t>Harmonised Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2278" t="inlineStr"/>
       <c r="E2278" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>1.8%</t>
         </is>
       </c>
       <c r="F2278" t="inlineStr"/>
       <c r="G2278" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>2.0%</t>
         </is>
       </c>
       <c r="H2278" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2279">
       <c r="A2279" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2279" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2279" t="inlineStr">
         <is>
-          <t>Housing Credit MoMDEC</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D2279" t="inlineStr"/>
       <c r="E2279" t="inlineStr">
         <is>
+          <t>3.2%</t>
+        </is>
+      </c>
+      <c r="F2279" t="inlineStr"/>
+      <c r="G2279" t="inlineStr">
+        <is>
           <t>0.5%</t>
-        </is>
-      </c>
-      <c r="F2279" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="G2279" t="inlineStr">
-        <is>
-          <t>0.4%</t>
         </is>
       </c>
       <c r="H2279" t="inlineStr">
@@ -74276,29 +74062,29 @@
     <row r="2280">
       <c r="A2280" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2280" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2280" t="inlineStr">
         <is>
-          <t>PPI YoYQ4</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D2280" t="inlineStr"/>
       <c r="E2280" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>-5.2%</t>
         </is>
       </c>
       <c r="F2280" t="inlineStr"/>
       <c r="G2280" t="inlineStr">
         <is>
-          <t>3.6%</t>
+          <t>-4.3%</t>
         </is>
       </c>
       <c r="H2280" t="inlineStr">
@@ -74310,29 +74096,29 @@
     <row r="2281">
       <c r="A2281" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2281" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2281" t="inlineStr">
         <is>
-          <t>Private Sector Credit MoMDEC</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D2281" t="inlineStr"/>
       <c r="E2281" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>-0.6%</t>
         </is>
       </c>
       <c r="F2281" t="inlineStr"/>
       <c r="G2281" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="H2281" t="inlineStr">
@@ -74344,29 +74130,29 @@
     <row r="2282">
       <c r="A2282" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2282" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2282" t="inlineStr">
         <is>
-          <t>Private Sector Credit YoYDEC</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="D2282" t="inlineStr"/>
       <c r="E2282" t="inlineStr">
         <is>
-          <t>6.2%</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="F2282" t="inlineStr"/>
       <c r="G2282" t="inlineStr">
         <is>
-          <t>5.7%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H2282" t="inlineStr">
@@ -74378,31 +74164,27 @@
     <row r="2283">
       <c r="A2283" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2283" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2283" t="inlineStr">
         <is>
-          <t>Bank LendingDEC</t>
+          <t>Tourist Arrivals YoYDEC</t>
         </is>
       </c>
       <c r="D2283" t="inlineStr"/>
       <c r="E2283" t="inlineStr">
         <is>
-          <t>S$819.4B</t>
+          <t>8.25%</t>
         </is>
       </c>
       <c r="F2283" t="inlineStr"/>
-      <c r="G2283" t="inlineStr">
-        <is>
-          <t>S$ 818.2B</t>
-        </is>
-      </c>
+      <c r="G2283" t="inlineStr"/>
       <c r="H2283" t="inlineStr">
         <is>
           <t>3</t>
@@ -74412,93 +74194,105 @@
     <row r="2284">
       <c r="A2284" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>02:25 PM</t>
         </is>
       </c>
       <c r="B2284" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2284" t="inlineStr">
         <is>
-          <t>2-Year JGB Auction</t>
+          <t>Unemployment ChangeJAN</t>
         </is>
       </c>
       <c r="D2284" t="inlineStr"/>
       <c r="E2284" t="inlineStr">
         <is>
-          <t>0.602%</t>
-        </is>
-      </c>
-      <c r="F2284" t="inlineStr"/>
-      <c r="G2284" t="inlineStr"/>
+          <t>10K</t>
+        </is>
+      </c>
+      <c r="F2284" t="inlineStr">
+        <is>
+          <t>15K</t>
+        </is>
+      </c>
+      <c r="G2284" t="inlineStr">
+        <is>
+          <t>7.0K</t>
+        </is>
+      </c>
       <c r="H2284" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2285">
       <c r="A2285" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>02:25 PM</t>
         </is>
       </c>
       <c r="B2285" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2285" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Unemployed PersonsJAN</t>
         </is>
       </c>
       <c r="D2285" t="inlineStr"/>
       <c r="E2285" t="inlineStr">
         <is>
-          <t>0.3657%</t>
+          <t>2.869M</t>
         </is>
       </c>
       <c r="F2285" t="inlineStr"/>
-      <c r="G2285" t="inlineStr"/>
+      <c r="G2285" t="inlineStr">
+        <is>
+          <t>2.876M</t>
+        </is>
+      </c>
       <c r="H2285" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2286">
       <c r="A2286" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>02:25 PM</t>
         </is>
       </c>
       <c r="B2286" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2286" t="inlineStr">
         <is>
-          <t>Housing Starts YoYDEC</t>
+          <t>Unemployment RateJAN</t>
         </is>
       </c>
       <c r="D2286" t="inlineStr"/>
       <c r="E2286" t="inlineStr">
         <is>
-          <t>-1.8%</t>
+          <t>6.1%</t>
         </is>
       </c>
       <c r="F2286" t="inlineStr">
         <is>
-          <t>-3.9%</t>
+          <t>6.2%</t>
         </is>
       </c>
       <c r="G2286" t="inlineStr">
         <is>
-          <t>-3.3%</t>
+          <t>6.2%</t>
         </is>
       </c>
       <c r="H2286" t="inlineStr">
@@ -74510,65 +74304,53 @@
     <row r="2287">
       <c r="A2287" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2287" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2287" t="inlineStr">
         <is>
-          <t>Construction Orders YoYDEC</t>
+          <t>ECB Survey of Professional Forecasters</t>
         </is>
       </c>
       <c r="D2287" t="inlineStr"/>
-      <c r="E2287" t="inlineStr">
-        <is>
-          <t>-10.2%</t>
-        </is>
-      </c>
+      <c r="E2287" t="inlineStr"/>
       <c r="F2287" t="inlineStr"/>
-      <c r="G2287" t="inlineStr">
-        <is>
-          <t>5.5%</t>
-        </is>
-      </c>
+      <c r="G2287" t="inlineStr"/>
       <c r="H2287" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2288">
       <c r="A2288" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2288" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2288" t="inlineStr">
         <is>
-          <t>Business ConfidenceQ4</t>
+          <t>Baden Wuerttemberg CPI MoMJAN</t>
         </is>
       </c>
       <c r="D2288" t="inlineStr"/>
       <c r="E2288" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F2288" t="inlineStr"/>
-      <c r="G2288" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
+      <c r="G2288" t="inlineStr"/>
       <c r="H2288" t="inlineStr">
         <is>
           <t>3</t>
@@ -74578,7 +74360,7 @@
     <row r="2289">
       <c r="A2289" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2289" t="inlineStr">
@@ -74588,35 +74370,27 @@
       </c>
       <c r="C2289" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Baden Wuerttemberg CPI YoYJAN</t>
         </is>
       </c>
       <c r="D2289" t="inlineStr"/>
       <c r="E2289" t="inlineStr">
         <is>
-          <t>-0.6%</t>
-        </is>
-      </c>
-      <c r="F2289" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="G2289" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>2.6%</t>
+        </is>
+      </c>
+      <c r="F2289" t="inlineStr"/>
+      <c r="G2289" t="inlineStr"/>
       <c r="H2289" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2290">
       <c r="A2290" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2290" t="inlineStr">
@@ -74626,93 +74400,77 @@
       </c>
       <c r="C2290" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Bavaria CPI MoMJAN</t>
         </is>
       </c>
       <c r="D2290" t="inlineStr"/>
       <c r="E2290" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F2290" t="inlineStr"/>
-      <c r="G2290" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
+      <c r="G2290" t="inlineStr"/>
       <c r="H2290" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2291">
       <c r="A2291" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2291" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2291" t="inlineStr">
         <is>
-          <t>Balance of Trade FinalDEC</t>
+          <t>Bavaria CPI YoYJAN</t>
         </is>
       </c>
       <c r="D2291" t="inlineStr"/>
       <c r="E2291" t="inlineStr">
         <is>
-          <t>$-7.46B</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="F2291" t="inlineStr"/>
-      <c r="G2291" t="inlineStr">
-        <is>
-          <t>$-8.82B</t>
-        </is>
-      </c>
+      <c r="G2291" t="inlineStr"/>
       <c r="H2291" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2292">
       <c r="A2292" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2292" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2292" t="inlineStr">
         <is>
-          <t>Exports FinalDEC</t>
+          <t>Brandenburg CPI MoMJAN</t>
         </is>
       </c>
       <c r="D2292" t="inlineStr"/>
       <c r="E2292" t="inlineStr">
         <is>
-          <t>$22.29B</t>
-        </is>
-      </c>
-      <c r="F2292" t="inlineStr">
-        <is>
-          <t>$23.46B</t>
-        </is>
-      </c>
-      <c r="G2292" t="inlineStr">
-        <is>
-          <t>$ 23.46B</t>
-        </is>
-      </c>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="F2292" t="inlineStr"/>
+      <c r="G2292" t="inlineStr"/>
       <c r="H2292" t="inlineStr">
         <is>
           <t>3</t>
@@ -74722,31 +74480,27 @@
     <row r="2293">
       <c r="A2293" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2293" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2293" t="inlineStr">
         <is>
-          <t>Imports FinalDEC</t>
+          <t>Brandenburg CPI YoYJAN</t>
         </is>
       </c>
       <c r="D2293" t="inlineStr"/>
       <c r="E2293" t="inlineStr">
         <is>
-          <t>$29.75B</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F2293" t="inlineStr"/>
-      <c r="G2293" t="inlineStr">
-        <is>
-          <t>$32.29B</t>
-        </is>
-      </c>
+      <c r="G2293" t="inlineStr"/>
       <c r="H2293" t="inlineStr">
         <is>
           <t>3</t>
@@ -74756,31 +74510,27 @@
     <row r="2294">
       <c r="A2294" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2294" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2294" t="inlineStr">
         <is>
-          <t>Tourism RevenuesQ4</t>
+          <t>Hesse CPI MoMJAN</t>
         </is>
       </c>
       <c r="D2294" t="inlineStr"/>
       <c r="E2294" t="inlineStr">
         <is>
-          <t>$23.22B</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F2294" t="inlineStr"/>
-      <c r="G2294" t="inlineStr">
-        <is>
-          <t>$ 23.5B</t>
-        </is>
-      </c>
+      <c r="G2294" t="inlineStr"/>
       <c r="H2294" t="inlineStr">
         <is>
           <t>3</t>
@@ -74790,171 +74540,147 @@
     <row r="2295">
       <c r="A2295" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2295" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2295" t="inlineStr">
         <is>
-          <t>Nationwide Housing Prices MoMJAN</t>
+          <t>Hesse CPI YoYJAN</t>
         </is>
       </c>
       <c r="D2295" t="inlineStr"/>
       <c r="E2295" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F2295" t="inlineStr"/>
-      <c r="G2295" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
+      <c r="G2295" t="inlineStr"/>
       <c r="H2295" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2296">
       <c r="A2296" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2296" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2296" t="inlineStr">
         <is>
-          <t>Nationwide Housing Prices YoYJAN</t>
+          <t>North Rhine Westphalia CPI MoMJAN</t>
         </is>
       </c>
       <c r="D2296" t="inlineStr"/>
       <c r="E2296" t="inlineStr">
         <is>
-          <t>4.7%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F2296" t="inlineStr"/>
-      <c r="G2296" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+      <c r="G2296" t="inlineStr"/>
       <c r="H2296" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2297">
       <c r="A2297" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2297" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2297" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelJAN</t>
+          <t>North Rhine Westphalia CPI YoYJAN</t>
         </is>
       </c>
       <c r="D2297" t="inlineStr"/>
       <c r="E2297" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>2.5%</t>
         </is>
       </c>
       <c r="F2297" t="inlineStr"/>
-      <c r="G2297" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
+      <c r="G2297" t="inlineStr"/>
       <c r="H2297" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2298">
       <c r="A2298" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2298" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2298" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM PrelJAN</t>
+          <t>Saxony CPI MoMJAN</t>
         </is>
       </c>
       <c r="D2298" t="inlineStr"/>
       <c r="E2298" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F2298" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="G2298" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="F2298" t="inlineStr"/>
+      <c r="G2298" t="inlineStr"/>
       <c r="H2298" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2299">
       <c r="A2299" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2299" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2299" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM PrelJAN</t>
+          <t>Saxony CPI YoYJAN</t>
         </is>
       </c>
       <c r="D2299" t="inlineStr"/>
       <c r="E2299" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>3.2%</t>
         </is>
       </c>
       <c r="F2299" t="inlineStr"/>
-      <c r="G2299" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G2299" t="inlineStr"/>
       <c r="H2299" t="inlineStr">
         <is>
           <t>3</t>
@@ -74964,29 +74690,29 @@
     <row r="2300">
       <c r="A2300" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2300" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2300" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY PrelJAN</t>
+          <t>Current AccountNOV</t>
         </is>
       </c>
       <c r="D2300" t="inlineStr"/>
       <c r="E2300" t="inlineStr">
         <is>
-          <t>1.8%</t>
+          <t>€4.9B</t>
         </is>
       </c>
       <c r="F2300" t="inlineStr"/>
       <c r="G2300" t="inlineStr">
         <is>
-          <t>2.0%</t>
+          <t>€5.0B</t>
         </is>
       </c>
       <c r="H2300" t="inlineStr">
@@ -74998,12 +74724,12 @@
     <row r="2301">
       <c r="A2301" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2301" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2301" t="inlineStr">
@@ -75014,13 +74740,13 @@
       <c r="D2301" t="inlineStr"/>
       <c r="E2301" t="inlineStr">
         <is>
-          <t>3.2%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="F2301" t="inlineStr"/>
       <c r="G2301" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="H2301" t="inlineStr">
@@ -75032,12 +74758,12 @@
     <row r="2302">
       <c r="A2302" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2302" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2302" t="inlineStr">
@@ -75048,13 +74774,13 @@
       <c r="D2302" t="inlineStr"/>
       <c r="E2302" t="inlineStr">
         <is>
-          <t>-5.2%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="F2302" t="inlineStr"/>
       <c r="G2302" t="inlineStr">
         <is>
-          <t>-4.3%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H2302" t="inlineStr">
@@ -75066,29 +74792,29 @@
     <row r="2303">
       <c r="A2303" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B2303" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2303" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Government Budget ValueDEC</t>
         </is>
       </c>
       <c r="D2303" t="inlineStr"/>
       <c r="E2303" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>INR-8465.9B</t>
         </is>
       </c>
       <c r="F2303" t="inlineStr"/>
       <c r="G2303" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>INR-9700.0B</t>
         </is>
       </c>
       <c r="H2303" t="inlineStr">
@@ -75100,29 +74826,29 @@
     <row r="2304">
       <c r="A2304" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2304" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2304" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Gross Debt to GDPDEC</t>
         </is>
       </c>
       <c r="D2304" t="inlineStr"/>
       <c r="E2304" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>77.7%</t>
         </is>
       </c>
       <c r="F2304" t="inlineStr"/>
       <c r="G2304" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>77.9%</t>
         </is>
       </c>
       <c r="H2304" t="inlineStr">
@@ -75134,27 +74860,31 @@
     <row r="2305">
       <c r="A2305" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2305" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2305" t="inlineStr">
         <is>
-          <t>Tourist Arrivals YoYDEC</t>
+          <t>Nominal Budget BalanceDEC</t>
         </is>
       </c>
       <c r="D2305" t="inlineStr"/>
       <c r="E2305" t="inlineStr">
         <is>
-          <t>8.25%</t>
+          <t>BRL-99.1B</t>
         </is>
       </c>
       <c r="F2305" t="inlineStr"/>
-      <c r="G2305" t="inlineStr"/>
+      <c r="G2305" t="inlineStr">
+        <is>
+          <t>BRL-103.0B</t>
+        </is>
+      </c>
       <c r="H2305" t="inlineStr">
         <is>
           <t>3</t>
@@ -75164,203 +74894,199 @@
     <row r="2306">
       <c r="A2306" t="inlineStr">
         <is>
-          <t>02:25 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2306" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2306" t="inlineStr">
         <is>
-          <t>Unemployment ChangeJAN</t>
+          <t>Bank Loan Growth YoYJAN/17</t>
         </is>
       </c>
       <c r="D2306" t="inlineStr"/>
       <c r="E2306" t="inlineStr">
         <is>
-          <t>10K</t>
-        </is>
-      </c>
-      <c r="F2306" t="inlineStr">
-        <is>
-          <t>15K</t>
-        </is>
-      </c>
-      <c r="G2306" t="inlineStr">
-        <is>
-          <t>7.0K</t>
-        </is>
-      </c>
+          <t>11.2%</t>
+        </is>
+      </c>
+      <c r="F2306" t="inlineStr"/>
+      <c r="G2306" t="inlineStr"/>
       <c r="H2306" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2307">
       <c r="A2307" t="inlineStr">
         <is>
-          <t>02:25 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2307" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2307" t="inlineStr">
         <is>
-          <t>Unemployed PersonsJAN</t>
+          <t>Deposit Growth YoYJAN/17</t>
         </is>
       </c>
       <c r="D2307" t="inlineStr"/>
       <c r="E2307" t="inlineStr">
         <is>
-          <t>2.869M</t>
+          <t>9.8%</t>
         </is>
       </c>
       <c r="F2307" t="inlineStr"/>
-      <c r="G2307" t="inlineStr">
-        <is>
-          <t>2.876M</t>
-        </is>
-      </c>
+      <c r="G2307" t="inlineStr"/>
       <c r="H2307" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2308">
       <c r="A2308" t="inlineStr">
         <is>
-          <t>02:25 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2308" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2308" t="inlineStr">
         <is>
-          <t>Unemployment RateJAN</t>
+          <t>Foreign Exchange ReservesJAN/24</t>
         </is>
       </c>
       <c r="D2308" t="inlineStr"/>
       <c r="E2308" t="inlineStr">
         <is>
-          <t>6.1%</t>
-        </is>
-      </c>
-      <c r="F2308" t="inlineStr">
-        <is>
-          <t>6.2%</t>
-        </is>
-      </c>
-      <c r="G2308" t="inlineStr">
-        <is>
-          <t>6.2%</t>
-        </is>
-      </c>
+          <t>$623.98B</t>
+        </is>
+      </c>
+      <c r="F2308" t="inlineStr"/>
+      <c r="G2308" t="inlineStr"/>
       <c r="H2308" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2309">
       <c r="A2309" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2309" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2309" t="inlineStr">
         <is>
-          <t>ECB Survey of Professional Forecasters</t>
+          <t>Infrastructure Output YoYDEC</t>
         </is>
       </c>
       <c r="D2309" t="inlineStr"/>
-      <c r="E2309" t="inlineStr"/>
+      <c r="E2309" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
       <c r="F2309" t="inlineStr"/>
-      <c r="G2309" t="inlineStr"/>
+      <c r="G2309" t="inlineStr">
+        <is>
+          <t>4.8%</t>
+        </is>
+      </c>
       <c r="H2309" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2310">
       <c r="A2310" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2310" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2310" t="inlineStr">
         <is>
-          <t>Baden Wuerttemberg CPI MoMJAN</t>
+          <t>Unemployment RateDEC</t>
         </is>
       </c>
       <c r="D2310" t="inlineStr"/>
       <c r="E2310" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>6.1%</t>
         </is>
       </c>
       <c r="F2310" t="inlineStr"/>
-      <c r="G2310" t="inlineStr"/>
+      <c r="G2310" t="inlineStr">
+        <is>
+          <t>6.1%</t>
+        </is>
+      </c>
       <c r="H2310" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2311">
       <c r="A2311" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2311" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2311" t="inlineStr">
         <is>
-          <t>Baden Wuerttemberg CPI YoYJAN</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D2311" t="inlineStr"/>
       <c r="E2311" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>ZAR34.7B</t>
         </is>
       </c>
       <c r="F2311" t="inlineStr"/>
-      <c r="G2311" t="inlineStr"/>
+      <c r="G2311" t="inlineStr">
+        <is>
+          <t>ZAR 27.0B</t>
+        </is>
+      </c>
       <c r="H2311" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2312">
       <c r="A2312" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2312" t="inlineStr">
@@ -75370,27 +75096,35 @@
       </c>
       <c r="C2312" t="inlineStr">
         <is>
-          <t>Bavaria CPI MoMJAN</t>
+          <t>Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2312" t="inlineStr"/>
       <c r="E2312" t="inlineStr">
         <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="F2312" t="inlineStr"/>
-      <c r="G2312" t="inlineStr"/>
+          <t>2.6%</t>
+        </is>
+      </c>
+      <c r="F2312" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
+      <c r="G2312" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="H2312" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2313">
       <c r="A2313" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2313" t="inlineStr">
@@ -75400,27 +75134,35 @@
       </c>
       <c r="C2313" t="inlineStr">
         <is>
-          <t>Bavaria CPI YoYJAN</t>
+          <t>Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2313" t="inlineStr"/>
       <c r="E2313" t="inlineStr">
         <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="F2313" t="inlineStr"/>
-      <c r="G2313" t="inlineStr"/>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="F2313" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="G2313" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H2313" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2314">
       <c r="A2314" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2314" t="inlineStr">
@@ -75430,17 +75172,21 @@
       </c>
       <c r="C2314" t="inlineStr">
         <is>
-          <t>Brandenburg CPI MoMJAN</t>
+          <t>Harmonised Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2314" t="inlineStr"/>
       <c r="E2314" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="F2314" t="inlineStr"/>
-      <c r="G2314" t="inlineStr"/>
+      <c r="G2314" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H2314" t="inlineStr">
         <is>
           <t>3</t>
@@ -75450,7 +75196,7 @@
     <row r="2315">
       <c r="A2315" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2315" t="inlineStr">
@@ -75460,17 +75206,25 @@
       </c>
       <c r="C2315" t="inlineStr">
         <is>
-          <t>Brandenburg CPI YoYJAN</t>
+          <t>Harmonised Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2315" t="inlineStr"/>
       <c r="E2315" t="inlineStr">
         <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="F2315" t="inlineStr"/>
-      <c r="G2315" t="inlineStr"/>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="F2315" t="inlineStr">
+        <is>
+          <t>2.9%</t>
+        </is>
+      </c>
+      <c r="G2315" t="inlineStr">
+        <is>
+          <t>3.0%</t>
+        </is>
+      </c>
       <c r="H2315" t="inlineStr">
         <is>
           <t>3</t>
@@ -75480,379 +75234,415 @@
     <row r="2316">
       <c r="A2316" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2316" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2316" t="inlineStr">
         <is>
-          <t>Hesse CPI MoMJAN</t>
+          <t>GDP MoMNOV</t>
         </is>
       </c>
       <c r="D2316" t="inlineStr"/>
       <c r="E2316" t="inlineStr">
         <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F2316" t="inlineStr"/>
-      <c r="G2316" t="inlineStr"/>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="F2316" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="G2316" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
       <c r="H2316" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2317">
       <c r="A2317" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2317" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2317" t="inlineStr">
         <is>
-          <t>Hesse CPI YoYJAN</t>
+          <t>GDP MoM PrelDEC</t>
         </is>
       </c>
       <c r="D2317" t="inlineStr"/>
       <c r="E2317" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F2317" t="inlineStr"/>
-      <c r="G2317" t="inlineStr"/>
+      <c r="G2317" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H2317" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2318">
       <c r="A2318" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2318" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2318" t="inlineStr">
         <is>
-          <t>North Rhine Westphalia CPI MoMJAN</t>
+          <t>Core PCE Price Index MoMDEC</t>
         </is>
       </c>
       <c r="D2318" t="inlineStr"/>
       <c r="E2318" t="inlineStr">
         <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="F2318" t="inlineStr"/>
-      <c r="G2318" t="inlineStr"/>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F2318" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="G2318" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H2318" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2319">
       <c r="A2319" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2319" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2319" t="inlineStr">
         <is>
-          <t>North Rhine Westphalia CPI YoYJAN</t>
+          <t>Personal Income MoMDEC</t>
         </is>
       </c>
       <c r="D2319" t="inlineStr"/>
       <c r="E2319" t="inlineStr">
         <is>
-          <t>2.5%</t>
-        </is>
-      </c>
-      <c r="F2319" t="inlineStr"/>
-      <c r="G2319" t="inlineStr"/>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="F2319" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="G2319" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H2319" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2320">
       <c r="A2320" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2320" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2320" t="inlineStr">
         <is>
-          <t>Saxony CPI MoMJAN</t>
+          <t>Personal Spending MoMDEC</t>
         </is>
       </c>
       <c r="D2320" t="inlineStr"/>
       <c r="E2320" t="inlineStr">
         <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="F2320" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="G2320" t="inlineStr">
+        <is>
           <t>0.5%</t>
         </is>
       </c>
-      <c r="F2320" t="inlineStr"/>
-      <c r="G2320" t="inlineStr"/>
       <c r="H2320" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2321">
       <c r="A2321" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2321" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2321" t="inlineStr">
         <is>
-          <t>Saxony CPI YoYJAN</t>
+          <t>Employment Cost - Benefits QoQQ4</t>
         </is>
       </c>
       <c r="D2321" t="inlineStr"/>
       <c r="E2321" t="inlineStr">
         <is>
-          <t>3.2%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F2321" t="inlineStr"/>
-      <c r="G2321" t="inlineStr"/>
+      <c r="G2321" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
       <c r="H2321" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2322">
       <c r="A2322" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2322" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2322" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>Employment Cost - Wages QoQQ4</t>
         </is>
       </c>
       <c r="D2322" t="inlineStr"/>
       <c r="E2322" t="inlineStr">
         <is>
-          <t>€4.9B</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F2322" t="inlineStr"/>
       <c r="G2322" t="inlineStr">
         <is>
-          <t>€5.0B</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="H2322" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2323">
       <c r="A2323" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2323" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2323" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Employment Cost Index QoQQ4</t>
         </is>
       </c>
       <c r="D2323" t="inlineStr"/>
       <c r="E2323" t="inlineStr">
         <is>
-          <t>1.2%</t>
-        </is>
-      </c>
-      <c r="F2323" t="inlineStr"/>
+          <t>0.8%</t>
+        </is>
+      </c>
+      <c r="F2323" t="inlineStr">
+        <is>
+          <t>1%</t>
+        </is>
+      </c>
       <c r="G2323" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="H2323" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2324">
       <c r="A2324" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2324" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2324" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Fed Bowman Speech</t>
         </is>
       </c>
       <c r="D2324" t="inlineStr"/>
-      <c r="E2324" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
+      <c r="E2324" t="inlineStr"/>
       <c r="F2324" t="inlineStr"/>
-      <c r="G2324" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G2324" t="inlineStr"/>
       <c r="H2324" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2325">
       <c r="A2325" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2325" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2325" t="inlineStr">
         <is>
-          <t>Government Budget ValueDEC</t>
+          <t>PCE Price Index MoMDEC</t>
         </is>
       </c>
       <c r="D2325" t="inlineStr"/>
       <c r="E2325" t="inlineStr">
         <is>
-          <t>INR-8465.9B</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2325" t="inlineStr"/>
       <c r="G2325" t="inlineStr">
         <is>
-          <t>INR-9700.0B</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H2325" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2326">
       <c r="A2326" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2326" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2326" t="inlineStr">
         <is>
-          <t>Gross Debt to GDPDEC</t>
+          <t>PCE Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D2326" t="inlineStr"/>
       <c r="E2326" t="inlineStr">
         <is>
-          <t>77.7%</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F2326" t="inlineStr"/>
       <c r="G2326" t="inlineStr">
         <is>
-          <t>77.9%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="H2326" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2327">
       <c r="A2327" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2327" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2327" t="inlineStr">
         <is>
-          <t>Nominal Budget BalanceDEC</t>
+          <t>Core PCE Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D2327" t="inlineStr"/>
       <c r="E2327" t="inlineStr">
         <is>
-          <t>BRL-99.1B</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="F2327" t="inlineStr"/>
       <c r="G2327" t="inlineStr">
         <is>
-          <t>BRL-103.0B</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="H2327" t="inlineStr">
@@ -75864,57 +75654,69 @@
     <row r="2328">
       <c r="A2328" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B2328" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2328" t="inlineStr">
         <is>
-          <t>Bank Loan Growth YoYJAN/17</t>
+          <t>Chicago PMIJAN</t>
         </is>
       </c>
       <c r="D2328" t="inlineStr"/>
       <c r="E2328" t="inlineStr">
         <is>
-          <t>11.2%</t>
-        </is>
-      </c>
-      <c r="F2328" t="inlineStr"/>
-      <c r="G2328" t="inlineStr"/>
+          <t>36.9</t>
+        </is>
+      </c>
+      <c r="F2328" t="inlineStr">
+        <is>
+          <t>39.9</t>
+        </is>
+      </c>
+      <c r="G2328" t="inlineStr">
+        <is>
+          <t>37.2</t>
+        </is>
+      </c>
       <c r="H2328" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2329">
       <c r="A2329" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B2329" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2329" t="inlineStr">
         <is>
-          <t>Deposit Growth YoYJAN/17</t>
+          <t>Budget BalanceNOV</t>
         </is>
       </c>
       <c r="D2329" t="inlineStr"/>
       <c r="E2329" t="inlineStr">
         <is>
-          <t>9.8%</t>
+          <t>C$-1.49B</t>
         </is>
       </c>
       <c r="F2329" t="inlineStr"/>
-      <c r="G2329" t="inlineStr"/>
+      <c r="G2329" t="inlineStr">
+        <is>
+          <t>C$-1.9B</t>
+        </is>
+      </c>
       <c r="H2329" t="inlineStr">
         <is>
           <t>3</t>
@@ -75924,23 +75726,23 @@
     <row r="2330">
       <c r="A2330" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B2330" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2330" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/24</t>
+          <t>Baker Hughes Oil Rig CountJAN/31</t>
         </is>
       </c>
       <c r="D2330" t="inlineStr"/>
       <c r="E2330" t="inlineStr">
         <is>
-          <t>$623.98B</t>
+          <t>472</t>
         </is>
       </c>
       <c r="F2330" t="inlineStr"/>
@@ -75954,31 +75756,27 @@
     <row r="2331">
       <c r="A2331" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B2331" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2331" t="inlineStr">
         <is>
-          <t>Infrastructure Output YoYDEC</t>
+          <t>Baker Hughes Total Rigs CountJAN/31</t>
         </is>
       </c>
       <c r="D2331" t="inlineStr"/>
       <c r="E2331" t="inlineStr">
         <is>
-          <t>4.3%</t>
+          <t>576</t>
         </is>
       </c>
       <c r="F2331" t="inlineStr"/>
-      <c r="G2331" t="inlineStr">
-        <is>
-          <t>4.8%</t>
-        </is>
-      </c>
+      <c r="G2331" t="inlineStr"/>
       <c r="H2331" t="inlineStr">
         <is>
           <t>3</t>
@@ -75986,87 +75784,75 @@
       </c>
     </row>
     <row r="2332">
-      <c r="A2332" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
+      <c r="A2332" t="inlineStr"/>
       <c r="B2332" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2332" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>Fiscal BalanceDEC</t>
         </is>
       </c>
       <c r="D2332" t="inlineStr"/>
       <c r="E2332" t="inlineStr">
         <is>
-          <t>6.1%</t>
+          <t>MXN-1064.93B</t>
         </is>
       </c>
       <c r="F2332" t="inlineStr"/>
       <c r="G2332" t="inlineStr">
         <is>
-          <t>6.1%</t>
+          <t>MXN-1120.0B</t>
         </is>
       </c>
       <c r="H2332" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2333">
-      <c r="A2333" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
+      <c r="A2333" t="inlineStr"/>
       <c r="B2333" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2333" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>CoreLogic Dwelling Prices MoMJAN</t>
         </is>
       </c>
       <c r="D2333" t="inlineStr"/>
       <c r="E2333" t="inlineStr">
         <is>
-          <t>ZAR34.7B</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F2333" t="inlineStr"/>
       <c r="G2333" t="inlineStr">
         <is>
-          <t>ZAR 27.0B</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="H2333" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2334">
-      <c r="A2334" t="inlineStr">
-        <is>
-          <t>06:30 PM</t>
-        </is>
-      </c>
+      <c r="A2334" t="inlineStr"/>
       <c r="B2334" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2334" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelJAN</t>
+          <t>Consumer Inflation ExpectationsDEC</t>
         </is>
       </c>
       <c r="D2334" t="inlineStr"/>
@@ -76075,86 +75861,70 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="F2334" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
+      <c r="F2334" t="inlineStr"/>
       <c r="G2334" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="H2334" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2335">
-      <c r="A2335" t="inlineStr">
-        <is>
-          <t>06:30 PM</t>
-        </is>
-      </c>
+      <c r="A2335" t="inlineStr"/>
       <c r="B2335" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2335" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM PrelJAN</t>
+          <t>New Car Registrations YoYJAN</t>
         </is>
       </c>
       <c r="D2335" t="inlineStr"/>
       <c r="E2335" t="inlineStr">
         <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="F2335" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
+          <t>1.5%</t>
+        </is>
+      </c>
+      <c r="F2335" t="inlineStr"/>
       <c r="G2335" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="H2335" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2336">
-      <c r="A2336" t="inlineStr">
-        <is>
-          <t>06:30 PM</t>
-        </is>
-      </c>
+      <c r="A2336" t="inlineStr"/>
       <c r="B2336" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2336" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM PrelJAN</t>
+          <t>New Car Sales YoYJAN</t>
         </is>
       </c>
       <c r="D2336" t="inlineStr"/>
       <c r="E2336" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>28.8%</t>
         </is>
       </c>
       <c r="F2336" t="inlineStr"/>
       <c r="G2336" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>2.5%</t>
         </is>
       </c>
       <c r="H2336" t="inlineStr">
@@ -76164,35 +75934,27 @@
       </c>
     </row>
     <row r="2337">
-      <c r="A2337" t="inlineStr">
-        <is>
-          <t>06:30 PM</t>
-        </is>
-      </c>
+      <c r="A2337" t="inlineStr"/>
       <c r="B2337" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2337" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY PrelJAN</t>
+          <t>New Car Registrations YoYJAN</t>
         </is>
       </c>
       <c r="D2337" t="inlineStr"/>
       <c r="E2337" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F2337" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
+          <t>-4.9%</t>
+        </is>
+      </c>
+      <c r="F2337" t="inlineStr"/>
       <c r="G2337" t="inlineStr">
         <is>
-          <t>3.0%</t>
+          <t>-4.0%</t>
         </is>
       </c>
       <c r="H2337" t="inlineStr">
@@ -76202,253 +75964,189 @@
       </c>
     </row>
     <row r="2338">
-      <c r="A2338" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A2338" t="inlineStr"/>
       <c r="B2338" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2338" t="inlineStr">
         <is>
-          <t>GDP MoMNOV</t>
+          <t>M2 Money Supply YoYDEC</t>
         </is>
       </c>
       <c r="D2338" t="inlineStr"/>
       <c r="E2338" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F2338" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
+          <t>20%</t>
+        </is>
+      </c>
+      <c r="F2338" t="inlineStr"/>
       <c r="G2338" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>20.7%</t>
         </is>
       </c>
       <c r="H2338" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2339">
       <c r="A2339" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2339" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C2339" t="inlineStr">
-        <is>
-          <t>GDP MoM PrelDEC</t>
-        </is>
-      </c>
+          <t>Saturday February 01 2025</t>
+        </is>
+      </c>
+      <c r="B2339" t="inlineStr"/>
+      <c r="C2339" t="inlineStr"/>
       <c r="D2339" t="inlineStr"/>
-      <c r="E2339" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
+      <c r="E2339" t="inlineStr"/>
       <c r="F2339" t="inlineStr"/>
-      <c r="G2339" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H2339" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G2339" t="inlineStr"/>
+      <c r="H2339" t="inlineStr"/>
     </row>
     <row r="2340">
       <c r="A2340" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B2340" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2340" t="inlineStr">
         <is>
-          <t>Core PCE Price Index MoMDEC</t>
+          <t>Exports YoYJAN</t>
         </is>
       </c>
       <c r="D2340" t="inlineStr"/>
       <c r="E2340" t="inlineStr">
         <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F2340" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>6.6%</t>
+        </is>
+      </c>
+      <c r="F2340" t="inlineStr"/>
       <c r="G2340" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H2340" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2341">
       <c r="A2341" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B2341" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2341" t="inlineStr">
         <is>
-          <t>Personal Income MoMDEC</t>
+          <t>Balance of TradeJAN</t>
         </is>
       </c>
       <c r="D2341" t="inlineStr"/>
       <c r="E2341" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F2341" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>$6.49B</t>
+        </is>
+      </c>
+      <c r="F2341" t="inlineStr"/>
       <c r="G2341" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>$0.9B</t>
         </is>
       </c>
       <c r="H2341" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2342">
       <c r="A2342" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B2342" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2342" t="inlineStr">
         <is>
-          <t>Personal Spending MoMDEC</t>
+          <t>Imports YoYJAN</t>
         </is>
       </c>
       <c r="D2342" t="inlineStr"/>
       <c r="E2342" t="inlineStr">
         <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F2342" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>3.3%</t>
+        </is>
+      </c>
+      <c r="F2342" t="inlineStr"/>
       <c r="G2342" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H2342" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2343">
       <c r="A2343" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2343" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2343" t="inlineStr">
-        <is>
-          <t>Employment Cost - Benefits QoQQ4</t>
-        </is>
-      </c>
+          <t>Monday February 03 2025</t>
+        </is>
+      </c>
+      <c r="B2343" t="inlineStr"/>
+      <c r="C2343" t="inlineStr"/>
       <c r="D2343" t="inlineStr"/>
-      <c r="E2343" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="E2343" t="inlineStr"/>
       <c r="F2343" t="inlineStr"/>
-      <c r="G2343" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="H2343" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G2343" t="inlineStr"/>
+      <c r="H2343" t="inlineStr"/>
     </row>
     <row r="2344">
       <c r="A2344" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>03:30 AM</t>
         </is>
       </c>
       <c r="B2344" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2344" t="inlineStr">
         <is>
-          <t>Employment Cost - Wages QoQQ4</t>
+          <t>S&amp;P Global Australia Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2344" t="inlineStr"/>
       <c r="E2344" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>47.8</t>
         </is>
       </c>
       <c r="F2344" t="inlineStr"/>
-      <c r="G2344" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
+      <c r="G2344" t="inlineStr"/>
       <c r="H2344" t="inlineStr">
         <is>
           <t>2</t>
@@ -76458,129 +76156,125 @@
     <row r="2345">
       <c r="A2345" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B2345" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2345" t="inlineStr">
         <is>
-          <t>Employment Cost Index QoQQ4</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="D2345" t="inlineStr"/>
       <c r="E2345" t="inlineStr">
         <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="F2345" t="inlineStr">
-        <is>
-          <t>1%</t>
-        </is>
-      </c>
+          <t>-0.7%</t>
+        </is>
+      </c>
+      <c r="F2345" t="inlineStr"/>
       <c r="G2345" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="H2345" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2346">
       <c r="A2346" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B2346" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2346" t="inlineStr">
         <is>
-          <t>Fed Bowman Speech</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D2346" t="inlineStr"/>
-      <c r="E2346" t="inlineStr"/>
+      <c r="E2346" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="F2346" t="inlineStr"/>
-      <c r="G2346" t="inlineStr"/>
+      <c r="G2346" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="H2346" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2347">
       <c r="A2347" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B2347" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2347" t="inlineStr">
         <is>
-          <t>PCE Price Index MoMDEC</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D2347" t="inlineStr"/>
       <c r="E2347" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F2347" t="inlineStr"/>
       <c r="G2347" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H2347" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2348">
       <c r="A2348" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B2348" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2348" t="inlineStr">
         <is>
-          <t>PCE Price Index YoYDEC</t>
+          <t>BoJ Summary of Opinions</t>
         </is>
       </c>
       <c r="D2348" t="inlineStr"/>
-      <c r="E2348" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
+      <c r="E2348" t="inlineStr"/>
       <c r="F2348" t="inlineStr"/>
-      <c r="G2348" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
+      <c r="G2348" t="inlineStr"/>
       <c r="H2348" t="inlineStr">
         <is>
           <t>2</t>
@@ -76590,67 +76284,63 @@
     <row r="2349">
       <c r="A2349" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2349" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2349" t="inlineStr">
         <is>
-          <t>Core PCE Price Index YoYDEC</t>
+          <t>Building Permits MoM PrelDEC</t>
         </is>
       </c>
       <c r="D2349" t="inlineStr"/>
       <c r="E2349" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>-3.6%</t>
         </is>
       </c>
       <c r="F2349" t="inlineStr"/>
       <c r="G2349" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="H2349" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2350">
       <c r="A2350" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2350" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2350" t="inlineStr">
         <is>
-          <t>Chicago PMIJAN</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D2350" t="inlineStr"/>
       <c r="E2350" t="inlineStr">
         <is>
-          <t>36.9</t>
-        </is>
-      </c>
-      <c r="F2350" t="inlineStr">
-        <is>
-          <t>39.9</t>
-        </is>
-      </c>
+          <t>0.8%</t>
+        </is>
+      </c>
+      <c r="F2350" t="inlineStr"/>
       <c r="G2350" t="inlineStr">
         <is>
-          <t>37.2</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H2350" t="inlineStr">
@@ -76662,31 +76352,27 @@
     <row r="2351">
       <c r="A2351" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2351" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2351" t="inlineStr">
         <is>
-          <t>Budget BalanceNOV</t>
+          <t>ANZ-Indeed Job Ads MoMJAN</t>
         </is>
       </c>
       <c r="D2351" t="inlineStr"/>
       <c r="E2351" t="inlineStr">
         <is>
-          <t>C$-1.49B</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F2351" t="inlineStr"/>
-      <c r="G2351" t="inlineStr">
-        <is>
-          <t>C$-1.9B</t>
-        </is>
-      </c>
+      <c r="G2351" t="inlineStr"/>
       <c r="H2351" t="inlineStr">
         <is>
           <t>3</t>
@@ -76696,23 +76382,23 @@
     <row r="2352">
       <c r="A2352" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2352" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2352" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/31</t>
+          <t>Private House Approvals MoM PrelDEC</t>
         </is>
       </c>
       <c r="D2352" t="inlineStr"/>
       <c r="E2352" t="inlineStr">
         <is>
-          <t>472</t>
+          <t>-1.7%</t>
         </is>
       </c>
       <c r="F2352" t="inlineStr"/>
@@ -76726,27 +76412,31 @@
     <row r="2353">
       <c r="A2353" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2353" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2353" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/31</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2353" t="inlineStr"/>
       <c r="E2353" t="inlineStr">
         <is>
-          <t>576</t>
+          <t>51.2</t>
         </is>
       </c>
       <c r="F2353" t="inlineStr"/>
-      <c r="G2353" t="inlineStr"/>
+      <c r="G2353" t="inlineStr">
+        <is>
+          <t>51.6</t>
+        </is>
+      </c>
       <c r="H2353" t="inlineStr">
         <is>
           <t>3</t>
@@ -76754,147 +76444,175 @@
       </c>
     </row>
     <row r="2354">
-      <c r="A2354" t="inlineStr"/>
+      <c r="A2354" t="inlineStr">
+        <is>
+          <t>06:00 AM</t>
+        </is>
+      </c>
       <c r="B2354" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2354" t="inlineStr">
         <is>
-          <t>Fiscal BalanceDEC</t>
+          <t>Jibun Bank Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2354" t="inlineStr"/>
       <c r="E2354" t="inlineStr">
         <is>
-          <t>MXN-1064.93B</t>
-        </is>
-      </c>
-      <c r="F2354" t="inlineStr"/>
+          <t>49.6</t>
+        </is>
+      </c>
+      <c r="F2354" t="inlineStr">
+        <is>
+          <t>48.8</t>
+        </is>
+      </c>
       <c r="G2354" t="inlineStr">
         <is>
-          <t>MXN-1120.0B</t>
+          <t>48.8</t>
         </is>
       </c>
       <c r="H2354" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2355">
-      <c r="A2355" t="inlineStr"/>
+      <c r="A2355" t="inlineStr">
+        <is>
+          <t>06:00 AM</t>
+        </is>
+      </c>
       <c r="B2355" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2355" t="inlineStr">
         <is>
-          <t>CoreLogic Dwelling Prices MoMJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2355" t="inlineStr"/>
       <c r="E2355" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>49</t>
         </is>
       </c>
       <c r="F2355" t="inlineStr"/>
       <c r="G2355" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>49.5</t>
         </is>
       </c>
       <c r="H2355" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2356">
-      <c r="A2356" t="inlineStr"/>
+      <c r="A2356" t="inlineStr">
+        <is>
+          <t>07:15 AM</t>
+        </is>
+      </c>
       <c r="B2356" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2356" t="inlineStr">
         <is>
-          <t>Consumer Inflation ExpectationsDEC</t>
+          <t>Caixin Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2356" t="inlineStr"/>
       <c r="E2356" t="inlineStr">
         <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="F2356" t="inlineStr"/>
+          <t>50.5</t>
+        </is>
+      </c>
+      <c r="F2356" t="inlineStr">
+        <is>
+          <t>50.5</t>
+        </is>
+      </c>
       <c r="G2356" t="inlineStr">
         <is>
-          <t>2.2%</t>
+          <t>50.5</t>
         </is>
       </c>
       <c r="H2356" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2357">
-      <c r="A2357" t="inlineStr"/>
+      <c r="A2357" t="inlineStr">
+        <is>
+          <t>09:30 AM</t>
+        </is>
+      </c>
       <c r="B2357" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2357" t="inlineStr">
         <is>
-          <t>New Car Registrations YoYJAN</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2357" t="inlineStr"/>
       <c r="E2357" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>1.57%</t>
         </is>
       </c>
       <c r="F2357" t="inlineStr"/>
       <c r="G2357" t="inlineStr">
         <is>
-          <t>2.2%</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="H2357" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2358">
-      <c r="A2358" t="inlineStr"/>
+      <c r="A2358" t="inlineStr">
+        <is>
+          <t>09:30 AM</t>
+        </is>
+      </c>
       <c r="B2358" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2358" t="inlineStr">
         <is>
-          <t>New Car Sales YoYJAN</t>
+          <t>Core Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2358" t="inlineStr"/>
       <c r="E2358" t="inlineStr">
         <is>
-          <t>28.8%</t>
+          <t>2.26%</t>
         </is>
       </c>
       <c r="F2358" t="inlineStr"/>
       <c r="G2358" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>2.3%</t>
         </is>
       </c>
       <c r="H2358" t="inlineStr">
@@ -76904,27 +76622,31 @@
       </c>
     </row>
     <row r="2359">
-      <c r="A2359" t="inlineStr"/>
+      <c r="A2359" t="inlineStr">
+        <is>
+          <t>09:30 AM</t>
+        </is>
+      </c>
       <c r="B2359" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2359" t="inlineStr">
         <is>
-          <t>New Car Registrations YoYJAN</t>
+          <t>Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2359" t="inlineStr"/>
       <c r="E2359" t="inlineStr">
         <is>
-          <t>-4.9%</t>
+          <t>0.44%</t>
         </is>
       </c>
       <c r="F2359" t="inlineStr"/>
       <c r="G2359" t="inlineStr">
         <is>
-          <t>-4.0%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H2359" t="inlineStr">
@@ -76934,27 +76656,31 @@
       </c>
     </row>
     <row r="2360">
-      <c r="A2360" t="inlineStr"/>
+      <c r="A2360" t="inlineStr">
+        <is>
+          <t>10:15 AM</t>
+        </is>
+      </c>
       <c r="B2360" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2360" t="inlineStr">
         <is>
-          <t>M2 Money Supply YoYDEC</t>
+          <t>Tourist Arrivals YoYDEC</t>
         </is>
       </c>
       <c r="D2360" t="inlineStr"/>
       <c r="E2360" t="inlineStr">
         <is>
-          <t>20%</t>
+          <t>17.27%</t>
         </is>
       </c>
       <c r="F2360" t="inlineStr"/>
       <c r="G2360" t="inlineStr">
         <is>
-          <t>20.7%</t>
+          <t>18.0%</t>
         </is>
       </c>
       <c r="H2360" t="inlineStr">
@@ -76966,21 +76692,45 @@
     <row r="2361">
       <c r="A2361" t="inlineStr">
         <is>
-          <t>Saturday February 01 2025</t>
-        </is>
-      </c>
-      <c r="B2361" t="inlineStr"/>
-      <c r="C2361" t="inlineStr"/>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B2361" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="C2361" t="inlineStr">
+        <is>
+          <t>HSBC Manufacturing PMI FinalJAN</t>
+        </is>
+      </c>
       <c r="D2361" t="inlineStr"/>
-      <c r="E2361" t="inlineStr"/>
-      <c r="F2361" t="inlineStr"/>
-      <c r="G2361" t="inlineStr"/>
-      <c r="H2361" t="inlineStr"/>
+      <c r="E2361" t="inlineStr">
+        <is>
+          <t>56.4</t>
+        </is>
+      </c>
+      <c r="F2361" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="G2361" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="H2361" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2362">
       <c r="A2362" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2362" t="inlineStr">
@@ -76990,55 +76740,47 @@
       </c>
       <c r="C2362" t="inlineStr">
         <is>
-          <t>Exports YoYJAN</t>
+          <t>2-Year KTB Auction</t>
         </is>
       </c>
       <c r="D2362" t="inlineStr"/>
       <c r="E2362" t="inlineStr">
         <is>
-          <t>6.6%</t>
+          <t>2.670%</t>
         </is>
       </c>
       <c r="F2362" t="inlineStr"/>
-      <c r="G2362" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G2362" t="inlineStr"/>
       <c r="H2362" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2363">
       <c r="A2363" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B2363" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2363" t="inlineStr">
         <is>
-          <t>Balance of TradeJAN</t>
+          <t>Commodity Prices YoYJAN</t>
         </is>
       </c>
       <c r="D2363" t="inlineStr"/>
       <c r="E2363" t="inlineStr">
         <is>
-          <t>$6.49B</t>
+          <t>-10.7%</t>
         </is>
       </c>
       <c r="F2363" t="inlineStr"/>
-      <c r="G2363" t="inlineStr">
-        <is>
-          <t>$0.9B</t>
-        </is>
-      </c>
+      <c r="G2363" t="inlineStr"/>
       <c r="H2363" t="inlineStr">
         <is>
           <t>3</t>
@@ -77048,71 +76790,83 @@
     <row r="2364">
       <c r="A2364" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B2364" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2364" t="inlineStr">
         <is>
-          <t>Imports YoYJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2364" t="inlineStr"/>
       <c r="E2364" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>50.8</t>
         </is>
       </c>
       <c r="F2364" t="inlineStr"/>
-      <c r="G2364" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
+      <c r="G2364" t="inlineStr"/>
       <c r="H2364" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2365">
       <c r="A2365" t="inlineStr">
         <is>
-          <t>Monday February 03 2025</t>
-        </is>
-      </c>
-      <c r="B2365" t="inlineStr"/>
-      <c r="C2365" t="inlineStr"/>
+          <t>12:30 PM</t>
+        </is>
+      </c>
+      <c r="B2365" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="C2365" t="inlineStr">
+        <is>
+          <t>Inflation Rate MoMJAN</t>
+        </is>
+      </c>
       <c r="D2365" t="inlineStr"/>
-      <c r="E2365" t="inlineStr"/>
+      <c r="E2365" t="inlineStr">
+        <is>
+          <t>1.03%</t>
+        </is>
+      </c>
       <c r="F2365" t="inlineStr"/>
       <c r="G2365" t="inlineStr"/>
-      <c r="H2365" t="inlineStr"/>
+      <c r="H2365" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="2366">
       <c r="A2366" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2366" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2366" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Manufacturing PMI FinalJAN</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2366" t="inlineStr"/>
       <c r="E2366" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>44.38%</t>
         </is>
       </c>
       <c r="F2366" t="inlineStr"/>
@@ -77126,31 +76880,27 @@
     <row r="2367">
       <c r="A2367" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2367" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2367" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>Istanbul Chamber of Industry Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2367" t="inlineStr"/>
       <c r="E2367" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>49.1</t>
         </is>
       </c>
       <c r="F2367" t="inlineStr"/>
-      <c r="G2367" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
+      <c r="G2367" t="inlineStr"/>
       <c r="H2367" t="inlineStr">
         <is>
           <t>3</t>
@@ -77160,31 +76910,27 @@
     <row r="2368">
       <c r="A2368" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2368" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2368" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>PPI MoMJAN</t>
         </is>
       </c>
       <c r="D2368" t="inlineStr"/>
       <c r="E2368" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F2368" t="inlineStr"/>
-      <c r="G2368" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="G2368" t="inlineStr"/>
       <c r="H2368" t="inlineStr">
         <is>
           <t>3</t>
@@ -77194,31 +76940,27 @@
     <row r="2369">
       <c r="A2369" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2369" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2369" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>PPI YoYJAN</t>
         </is>
       </c>
       <c r="D2369" t="inlineStr"/>
       <c r="E2369" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>28.52%</t>
         </is>
       </c>
       <c r="F2369" t="inlineStr"/>
-      <c r="G2369" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G2369" t="inlineStr"/>
       <c r="H2369" t="inlineStr">
         <is>
           <t>3</t>
@@ -77228,21 +76970,25 @@
     <row r="2370">
       <c r="A2370" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2370" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2370" t="inlineStr">
         <is>
-          <t>BoJ Summary of Opinions</t>
+          <t>Unemployment ChangeJAN</t>
         </is>
       </c>
       <c r="D2370" t="inlineStr"/>
-      <c r="E2370" t="inlineStr"/>
+      <c r="E2370" t="inlineStr">
+        <is>
+          <t>-25.3K</t>
+        </is>
+      </c>
       <c r="F2370" t="inlineStr"/>
       <c r="G2370" t="inlineStr"/>
       <c r="H2370" t="inlineStr">
@@ -77254,65 +77000,53 @@
     <row r="2371">
       <c r="A2371" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2371" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2371" t="inlineStr">
         <is>
-          <t>Building Permits MoM PrelDEC</t>
+          <t>Tourist Arrivals YoYDEC</t>
         </is>
       </c>
       <c r="D2371" t="inlineStr"/>
-      <c r="E2371" t="inlineStr">
-        <is>
-          <t>-3.6%</t>
-        </is>
-      </c>
+      <c r="E2371" t="inlineStr"/>
       <c r="F2371" t="inlineStr"/>
-      <c r="G2371" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
+      <c r="G2371" t="inlineStr"/>
       <c r="H2371" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2372">
       <c r="A2372" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B2372" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2372" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>HCOB Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2372" t="inlineStr"/>
       <c r="E2372" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>53.3</t>
         </is>
       </c>
       <c r="F2372" t="inlineStr"/>
-      <c r="G2372" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G2372" t="inlineStr"/>
       <c r="H2372" t="inlineStr">
         <is>
           <t>2</t>
@@ -77322,127 +77056,139 @@
     <row r="2373">
       <c r="A2373" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:15 PM</t>
         </is>
       </c>
       <c r="B2373" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2373" t="inlineStr">
         <is>
-          <t>ANZ-Indeed Job Ads MoMJAN</t>
+          <t>HCOB Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2373" t="inlineStr"/>
       <c r="E2373" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>46.2</t>
         </is>
       </c>
       <c r="F2373" t="inlineStr"/>
       <c r="G2373" t="inlineStr"/>
       <c r="H2373" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2374">
       <c r="A2374" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:20 PM</t>
         </is>
       </c>
       <c r="B2374" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2374" t="inlineStr">
         <is>
-          <t>Private House Approvals MoM PrelDEC</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2374" t="inlineStr"/>
       <c r="E2374" t="inlineStr">
         <is>
-          <t>-1.7%</t>
-        </is>
-      </c>
-      <c r="F2374" t="inlineStr"/>
-      <c r="G2374" t="inlineStr"/>
+          <t>41.9</t>
+        </is>
+      </c>
+      <c r="F2374" t="inlineStr">
+        <is>
+          <t>45.3</t>
+        </is>
+      </c>
+      <c r="G2374" t="inlineStr">
+        <is>
+          <t>45.3</t>
+        </is>
+      </c>
       <c r="H2374" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2375">
       <c r="A2375" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:25 PM</t>
         </is>
       </c>
       <c r="B2375" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2375" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2375" t="inlineStr"/>
       <c r="E2375" t="inlineStr">
         <is>
-          <t>51.2</t>
-        </is>
-      </c>
-      <c r="F2375" t="inlineStr"/>
+          <t>42.5</t>
+        </is>
+      </c>
+      <c r="F2375" t="inlineStr">
+        <is>
+          <t>44.1</t>
+        </is>
+      </c>
       <c r="G2375" t="inlineStr">
         <is>
-          <t>51.6</t>
+          <t>44.1</t>
         </is>
       </c>
       <c r="H2375" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2376">
       <c r="A2376" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2376" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2376" t="inlineStr">
         <is>
-          <t>Jibun Bank Manufacturing PMI FinalJAN</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2376" t="inlineStr"/>
       <c r="E2376" t="inlineStr">
         <is>
-          <t>49.6</t>
+          <t>45.1</t>
         </is>
       </c>
       <c r="F2376" t="inlineStr">
         <is>
-          <t>48.8</t>
+          <t>46.1</t>
         </is>
       </c>
       <c r="G2376" t="inlineStr">
         <is>
-          <t>48.8</t>
+          <t>46.1</t>
         </is>
       </c>
       <c r="H2376" t="inlineStr">
@@ -77454,205 +77200,181 @@
     <row r="2377">
       <c r="A2377" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2377" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2377" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>ABSA Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2377" t="inlineStr"/>
       <c r="E2377" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>46.2</t>
         </is>
       </c>
       <c r="F2377" t="inlineStr"/>
       <c r="G2377" t="inlineStr">
         <is>
-          <t>49.5</t>
+          <t>47</t>
         </is>
       </c>
       <c r="H2377" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2378">
       <c r="A2378" t="inlineStr">
         <is>
-          <t>07:15 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B2378" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2378" t="inlineStr">
         <is>
-          <t>Caixin Manufacturing PMIJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2378" t="inlineStr"/>
       <c r="E2378" t="inlineStr">
         <is>
-          <t>50.5</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F2378" t="inlineStr">
         <is>
-          <t>50.5</t>
+          <t>48.2</t>
         </is>
       </c>
       <c r="G2378" t="inlineStr">
         <is>
-          <t>50.5</t>
+          <t>48.2</t>
         </is>
       </c>
       <c r="H2378" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2379">
       <c r="A2379" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2379" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2379" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>Inflation Rate YoY FlashJAN</t>
         </is>
       </c>
       <c r="D2379" t="inlineStr"/>
-      <c r="E2379" t="inlineStr">
-        <is>
-          <t>1.57%</t>
-        </is>
-      </c>
+      <c r="E2379" t="inlineStr"/>
       <c r="F2379" t="inlineStr"/>
-      <c r="G2379" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
+      <c r="G2379" t="inlineStr"/>
       <c r="H2379" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2380">
       <c r="A2380" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2380" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2380" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYJAN</t>
+          <t>Core Inflation Rate YoY FlashJAN</t>
         </is>
       </c>
       <c r="D2380" t="inlineStr"/>
       <c r="E2380" t="inlineStr">
         <is>
-          <t>2.26%</t>
+          <t>2.7%</t>
         </is>
       </c>
       <c r="F2380" t="inlineStr"/>
-      <c r="G2380" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
+      <c r="G2380" t="inlineStr"/>
       <c r="H2380" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2381">
       <c r="A2381" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2381" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2381" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Inflation Rate MoM FlashJAN</t>
         </is>
       </c>
       <c r="D2381" t="inlineStr"/>
-      <c r="E2381" t="inlineStr">
-        <is>
-          <t>0.44%</t>
-        </is>
-      </c>
+      <c r="E2381" t="inlineStr"/>
       <c r="F2381" t="inlineStr"/>
-      <c r="G2381" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G2381" t="inlineStr"/>
       <c r="H2381" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2382">
       <c r="A2382" t="inlineStr">
         <is>
-          <t>10:15 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2382" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2382" t="inlineStr">
         <is>
-          <t>Tourist Arrivals YoYDEC</t>
+          <t>CPI FlashJAN</t>
         </is>
       </c>
       <c r="D2382" t="inlineStr"/>
       <c r="E2382" t="inlineStr">
         <is>
-          <t>17.27%</t>
+          <t>127.07</t>
         </is>
       </c>
       <c r="F2382" t="inlineStr"/>
-      <c r="G2382" t="inlineStr">
-        <is>
-          <t>18.0%</t>
-        </is>
-      </c>
+      <c r="G2382" t="inlineStr"/>
       <c r="H2382" t="inlineStr">
         <is>
           <t>3</t>
@@ -77662,91 +77384,83 @@
     <row r="2383">
       <c r="A2383" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2383" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2383" t="inlineStr">
         <is>
-          <t>HSBC Manufacturing PMI FinalJAN</t>
+          <t>Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2383" t="inlineStr"/>
       <c r="E2383" t="inlineStr">
         <is>
-          <t>56.4</t>
-        </is>
-      </c>
-      <c r="F2383" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="G2383" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
+          <t>1.3%</t>
+        </is>
+      </c>
+      <c r="F2383" t="inlineStr"/>
+      <c r="G2383" t="inlineStr"/>
       <c r="H2383" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2384">
       <c r="A2384" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2384" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2384" t="inlineStr">
         <is>
-          <t>2-Year KTB Auction</t>
+          <t>Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2384" t="inlineStr"/>
       <c r="E2384" t="inlineStr">
         <is>
-          <t>2.670%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2384" t="inlineStr"/>
       <c r="G2384" t="inlineStr"/>
       <c r="H2384" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2385">
       <c r="A2385" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2385" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2385" t="inlineStr">
         <is>
-          <t>Commodity Prices YoYJAN</t>
+          <t>Harmonised Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2385" t="inlineStr"/>
       <c r="E2385" t="inlineStr">
         <is>
-          <t>-10.7%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2385" t="inlineStr"/>
@@ -77760,117 +77474,129 @@
     <row r="2386">
       <c r="A2386" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2386" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2386" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>Harmonised Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2386" t="inlineStr"/>
       <c r="E2386" t="inlineStr">
         <is>
-          <t>50.8</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F2386" t="inlineStr"/>
       <c r="G2386" t="inlineStr"/>
       <c r="H2386" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2387">
       <c r="A2387" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2387" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2387" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Foreign Exchange ReservesDEC</t>
         </is>
       </c>
       <c r="D2387" t="inlineStr"/>
       <c r="E2387" t="inlineStr">
         <is>
-          <t>1.03%</t>
+          <t>$232.2B</t>
         </is>
       </c>
       <c r="F2387" t="inlineStr"/>
-      <c r="G2387" t="inlineStr"/>
+      <c r="G2387" t="inlineStr">
+        <is>
+          <t>$ 230B</t>
+        </is>
+      </c>
       <c r="H2387" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2388">
       <c r="A2388" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2388" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2388" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2388" t="inlineStr"/>
       <c r="E2388" t="inlineStr">
         <is>
-          <t>44.38%</t>
+          <t>50.4</t>
         </is>
       </c>
       <c r="F2388" t="inlineStr"/>
-      <c r="G2388" t="inlineStr"/>
+      <c r="G2388" t="inlineStr">
+        <is>
+          <t>49.8</t>
+        </is>
+      </c>
       <c r="H2388" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2389">
       <c r="A2389" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2389" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2389" t="inlineStr">
         <is>
-          <t>Istanbul Chamber of Industry Manufacturing PMIJAN</t>
+          <t>SIPMM Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2389" t="inlineStr"/>
       <c r="E2389" t="inlineStr">
         <is>
-          <t>49.1</t>
+          <t>51.1</t>
         </is>
       </c>
       <c r="F2389" t="inlineStr"/>
-      <c r="G2389" t="inlineStr"/>
+      <c r="G2389" t="inlineStr">
+        <is>
+          <t>51.4</t>
+        </is>
+      </c>
       <c r="H2389" t="inlineStr">
         <is>
           <t>3</t>
@@ -77880,55 +77606,47 @@
     <row r="2390">
       <c r="A2390" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2390" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2390" t="inlineStr">
         <is>
-          <t>PPI MoMJAN</t>
+          <t>Fed Bostic Speech</t>
         </is>
       </c>
       <c r="D2390" t="inlineStr"/>
-      <c r="E2390" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="E2390" t="inlineStr"/>
       <c r="F2390" t="inlineStr"/>
       <c r="G2390" t="inlineStr"/>
       <c r="H2390" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2391">
       <c r="A2391" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2391" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2391" t="inlineStr">
         <is>
-          <t>PPI YoYJAN</t>
+          <t>12-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2391" t="inlineStr"/>
-      <c r="E2391" t="inlineStr">
-        <is>
-          <t>28.52%</t>
-        </is>
-      </c>
+      <c r="E2391" t="inlineStr"/>
       <c r="F2391" t="inlineStr"/>
       <c r="G2391" t="inlineStr"/>
       <c r="H2391" t="inlineStr">
@@ -77940,47 +77658,43 @@
     <row r="2392">
       <c r="A2392" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2392" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2392" t="inlineStr">
         <is>
-          <t>Unemployment ChangeJAN</t>
+          <t>3-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2392" t="inlineStr"/>
-      <c r="E2392" t="inlineStr">
-        <is>
-          <t>-25.3K</t>
-        </is>
-      </c>
+      <c r="E2392" t="inlineStr"/>
       <c r="F2392" t="inlineStr"/>
       <c r="G2392" t="inlineStr"/>
       <c r="H2392" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2393">
       <c r="A2393" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2393" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2393" t="inlineStr">
         <is>
-          <t>Tourist Arrivals YoYDEC</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2393" t="inlineStr"/>
@@ -77996,23 +77710,23 @@
     <row r="2394">
       <c r="A2394" t="inlineStr">
         <is>
-          <t>01:45 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B2394" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2394" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMIJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2394" t="inlineStr"/>
       <c r="E2394" t="inlineStr">
         <is>
-          <t>53.3</t>
+          <t>52.2</t>
         </is>
       </c>
       <c r="F2394" t="inlineStr"/>
@@ -78026,27 +77740,35 @@
     <row r="2395">
       <c r="A2395" t="inlineStr">
         <is>
-          <t>02:15 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B2395" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2395" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMIJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2395" t="inlineStr"/>
       <c r="E2395" t="inlineStr">
         <is>
-          <t>46.2</t>
-        </is>
-      </c>
-      <c r="F2395" t="inlineStr"/>
-      <c r="G2395" t="inlineStr"/>
+          <t>49.4</t>
+        </is>
+      </c>
+      <c r="F2395" t="inlineStr">
+        <is>
+          <t>50.1</t>
+        </is>
+      </c>
+      <c r="G2395" t="inlineStr">
+        <is>
+          <t>50.1</t>
+        </is>
+      </c>
       <c r="H2395" t="inlineStr">
         <is>
           <t>2</t>
@@ -78056,73 +77778,57 @@
     <row r="2396">
       <c r="A2396" t="inlineStr">
         <is>
-          <t>02:20 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2396" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2396" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>ISM Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2396" t="inlineStr"/>
       <c r="E2396" t="inlineStr">
         <is>
-          <t>41.9</t>
-        </is>
-      </c>
-      <c r="F2396" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
-      <c r="G2396" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
+          <t>49.3</t>
+        </is>
+      </c>
+      <c r="F2396" t="inlineStr"/>
+      <c r="G2396" t="inlineStr"/>
       <c r="H2396" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2397">
       <c r="A2397" t="inlineStr">
         <is>
-          <t>02:25 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2397" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2397" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>ISM Manufacturing EmploymentJAN</t>
         </is>
       </c>
       <c r="D2397" t="inlineStr"/>
       <c r="E2397" t="inlineStr">
         <is>
-          <t>42.5</t>
-        </is>
-      </c>
-      <c r="F2397" t="inlineStr">
-        <is>
-          <t>44.1</t>
-        </is>
-      </c>
-      <c r="G2397" t="inlineStr">
-        <is>
-          <t>44.1</t>
-        </is>
-      </c>
+          <t>45.3</t>
+        </is>
+      </c>
+      <c r="F2397" t="inlineStr"/>
+      <c r="G2397" t="inlineStr"/>
       <c r="H2397" t="inlineStr">
         <is>
           <t>2</t>
@@ -78132,69 +77838,57 @@
     <row r="2398">
       <c r="A2398" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2398" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2398" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>Construction Spending MoMDEC</t>
         </is>
       </c>
       <c r="D2398" t="inlineStr"/>
       <c r="E2398" t="inlineStr">
         <is>
-          <t>45.1</t>
-        </is>
-      </c>
-      <c r="F2398" t="inlineStr">
-        <is>
-          <t>46.1</t>
-        </is>
-      </c>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F2398" t="inlineStr"/>
       <c r="G2398" t="inlineStr">
         <is>
-          <t>46.1</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H2398" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2399">
       <c r="A2399" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2399" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2399" t="inlineStr">
         <is>
-          <t>ABSA Manufacturing PMIJAN</t>
+          <t>ISM Manufacturing New OrdersJAN</t>
         </is>
       </c>
       <c r="D2399" t="inlineStr"/>
-      <c r="E2399" t="inlineStr">
-        <is>
-          <t>46.2</t>
-        </is>
-      </c>
+      <c r="E2399" t="inlineStr"/>
       <c r="F2399" t="inlineStr"/>
-      <c r="G2399" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
+      <c r="G2399" t="inlineStr"/>
       <c r="H2399" t="inlineStr">
         <is>
           <t>3</t>
@@ -78204,55 +77898,43 @@
     <row r="2400">
       <c r="A2400" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2400" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2400" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
+          <t>ISM Manufacturing PricesJAN</t>
         </is>
       </c>
       <c r="D2400" t="inlineStr"/>
-      <c r="E2400" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="F2400" t="inlineStr">
-        <is>
-          <t>48.2</t>
-        </is>
-      </c>
-      <c r="G2400" t="inlineStr">
-        <is>
-          <t>48.2</t>
-        </is>
-      </c>
+      <c r="E2400" t="inlineStr"/>
+      <c r="F2400" t="inlineStr"/>
+      <c r="G2400" t="inlineStr"/>
       <c r="H2400" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2401">
       <c r="A2401" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B2401" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2401" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FlashJAN</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2401" t="inlineStr"/>
@@ -78261,783 +77943,161 @@
       <c r="G2401" t="inlineStr"/>
       <c r="H2401" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2402">
       <c r="A2402" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B2402" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2402" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoY FlashJAN</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2402" t="inlineStr"/>
-      <c r="E2402" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
+      <c r="E2402" t="inlineStr"/>
       <c r="F2402" t="inlineStr"/>
       <c r="G2402" t="inlineStr"/>
       <c r="H2402" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2403">
-      <c r="A2403" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
+      <c r="A2403" t="inlineStr"/>
       <c r="B2403" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2403" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM FlashJAN</t>
+          <t>Total New Vehicle SalesJAN</t>
         </is>
       </c>
       <c r="D2403" t="inlineStr"/>
-      <c r="E2403" t="inlineStr"/>
+      <c r="E2403" t="inlineStr">
+        <is>
+          <t>41.27K</t>
+        </is>
+      </c>
       <c r="F2403" t="inlineStr"/>
-      <c r="G2403" t="inlineStr"/>
+      <c r="G2403" t="inlineStr">
+        <is>
+          <t>43.0K</t>
+        </is>
+      </c>
       <c r="H2403" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2404">
       <c r="A2404" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B2404" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C2404" t="inlineStr">
-        <is>
-          <t>CPI FlashJAN</t>
-        </is>
-      </c>
+          <t>Tuesday February 04 2025</t>
+        </is>
+      </c>
+      <c r="B2404" t="inlineStr"/>
+      <c r="C2404" t="inlineStr"/>
       <c r="D2404" t="inlineStr"/>
-      <c r="E2404" t="inlineStr">
-        <is>
-          <t>127.07</t>
-        </is>
-      </c>
+      <c r="E2404" t="inlineStr"/>
       <c r="F2404" t="inlineStr"/>
       <c r="G2404" t="inlineStr"/>
-      <c r="H2404" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H2404" t="inlineStr"/>
     </row>
     <row r="2405">
       <c r="A2405" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B2405" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2405" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelJAN</t>
+          <t>Treasury Refunding Financing Estimates</t>
         </is>
       </c>
       <c r="D2405" t="inlineStr"/>
-      <c r="E2405" t="inlineStr">
-        <is>
-          <t>1.3%</t>
-        </is>
-      </c>
+      <c r="E2405" t="inlineStr"/>
       <c r="F2405" t="inlineStr"/>
       <c r="G2405" t="inlineStr"/>
       <c r="H2405" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2406">
       <c r="A2406" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>03:30 AM</t>
         </is>
       </c>
       <c r="B2406" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C2406" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM PrelJAN</t>
+          <t>Tax RevenueJAN</t>
         </is>
       </c>
       <c r="D2406" t="inlineStr"/>
       <c r="E2406" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>ARS13015B</t>
         </is>
       </c>
       <c r="F2406" t="inlineStr"/>
       <c r="G2406" t="inlineStr"/>
       <c r="H2406" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2407">
       <c r="A2407" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>09:05 AM</t>
         </is>
       </c>
       <c r="B2407" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2407" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM PrelJAN</t>
+          <t>10-Year JGB Auction</t>
         </is>
       </c>
       <c r="D2407" t="inlineStr"/>
       <c r="E2407" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>1.140%</t>
         </is>
       </c>
       <c r="F2407" t="inlineStr"/>
       <c r="G2407" t="inlineStr"/>
       <c r="H2407" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2408">
-      <c r="A2408" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B2408" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C2408" t="inlineStr">
-        <is>
-          <t>Harmonised Inflation Rate YoY PrelJAN</t>
-        </is>
-      </c>
-      <c r="D2408" t="inlineStr"/>
-      <c r="E2408" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
-      <c r="F2408" t="inlineStr"/>
-      <c r="G2408" t="inlineStr"/>
-      <c r="H2408" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2409">
-      <c r="A2409" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B2409" t="inlineStr">
-        <is>
-          <t>MX</t>
-        </is>
-      </c>
-      <c r="C2409" t="inlineStr">
-        <is>
-          <t>Foreign Exchange ReservesDEC</t>
-        </is>
-      </c>
-      <c r="D2409" t="inlineStr"/>
-      <c r="E2409" t="inlineStr">
-        <is>
-          <t>$232.2B</t>
-        </is>
-      </c>
-      <c r="F2409" t="inlineStr"/>
-      <c r="G2409" t="inlineStr">
-        <is>
-          <t>$ 230B</t>
-        </is>
-      </c>
-      <c r="H2409" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2410">
-      <c r="A2410" t="inlineStr">
-        <is>
-          <t>06:30 PM</t>
-        </is>
-      </c>
-      <c r="B2410" t="inlineStr">
-        <is>
-          <t>BR</t>
-        </is>
-      </c>
-      <c r="C2410" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
-        </is>
-      </c>
-      <c r="D2410" t="inlineStr"/>
-      <c r="E2410" t="inlineStr">
-        <is>
-          <t>50.4</t>
-        </is>
-      </c>
-      <c r="F2410" t="inlineStr"/>
-      <c r="G2410" t="inlineStr">
-        <is>
-          <t>49.8</t>
-        </is>
-      </c>
-      <c r="H2410" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2411">
-      <c r="A2411" t="inlineStr">
-        <is>
-          <t>06:30 PM</t>
-        </is>
-      </c>
-      <c r="B2411" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="C2411" t="inlineStr">
-        <is>
-          <t>SIPMM Manufacturing PMIJAN</t>
-        </is>
-      </c>
-      <c r="D2411" t="inlineStr"/>
-      <c r="E2411" t="inlineStr">
-        <is>
-          <t>51.1</t>
-        </is>
-      </c>
-      <c r="F2411" t="inlineStr"/>
-      <c r="G2411" t="inlineStr">
-        <is>
-          <t>51.4</t>
-        </is>
-      </c>
-      <c r="H2411" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2412">
-      <c r="A2412" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2412" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2412" t="inlineStr">
-        <is>
-          <t>Fed Bostic Speech</t>
-        </is>
-      </c>
-      <c r="D2412" t="inlineStr"/>
-      <c r="E2412" t="inlineStr"/>
-      <c r="F2412" t="inlineStr"/>
-      <c r="G2412" t="inlineStr"/>
-      <c r="H2412" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2413">
-      <c r="A2413" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2413" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C2413" t="inlineStr">
-        <is>
-          <t>12-Month BTF Auction</t>
-        </is>
-      </c>
-      <c r="D2413" t="inlineStr"/>
-      <c r="E2413" t="inlineStr"/>
-      <c r="F2413" t="inlineStr"/>
-      <c r="G2413" t="inlineStr"/>
-      <c r="H2413" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2414">
-      <c r="A2414" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2414" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C2414" t="inlineStr">
-        <is>
-          <t>3-Month BTF Auction</t>
-        </is>
-      </c>
-      <c r="D2414" t="inlineStr"/>
-      <c r="E2414" t="inlineStr"/>
-      <c r="F2414" t="inlineStr"/>
-      <c r="G2414" t="inlineStr"/>
-      <c r="H2414" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2415">
-      <c r="A2415" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2415" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C2415" t="inlineStr">
-        <is>
-          <t>6-Month BTF Auction</t>
-        </is>
-      </c>
-      <c r="D2415" t="inlineStr"/>
-      <c r="E2415" t="inlineStr"/>
-      <c r="F2415" t="inlineStr"/>
-      <c r="G2415" t="inlineStr"/>
-      <c r="H2415" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2416">
-      <c r="A2416" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B2416" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C2416" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
-        </is>
-      </c>
-      <c r="D2416" t="inlineStr"/>
-      <c r="E2416" t="inlineStr">
-        <is>
-          <t>52.2</t>
-        </is>
-      </c>
-      <c r="F2416" t="inlineStr"/>
-      <c r="G2416" t="inlineStr"/>
-      <c r="H2416" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2417">
-      <c r="A2417" t="inlineStr">
-        <is>
-          <t>08:15 PM</t>
-        </is>
-      </c>
-      <c r="B2417" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2417" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
-        </is>
-      </c>
-      <c r="D2417" t="inlineStr"/>
-      <c r="E2417" t="inlineStr">
-        <is>
-          <t>49.4</t>
-        </is>
-      </c>
-      <c r="F2417" t="inlineStr">
-        <is>
-          <t>50.1</t>
-        </is>
-      </c>
-      <c r="G2417" t="inlineStr">
-        <is>
-          <t>50.1</t>
-        </is>
-      </c>
-      <c r="H2417" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2418">
-      <c r="A2418" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2418" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2418" t="inlineStr">
-        <is>
-          <t>ISM Manufacturing PMIJAN</t>
-        </is>
-      </c>
-      <c r="D2418" t="inlineStr"/>
-      <c r="E2418" t="inlineStr">
-        <is>
-          <t>49.3</t>
-        </is>
-      </c>
-      <c r="F2418" t="inlineStr"/>
-      <c r="G2418" t="inlineStr"/>
-      <c r="H2418" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2419">
-      <c r="A2419" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2419" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2419" t="inlineStr">
-        <is>
-          <t>ISM Manufacturing EmploymentJAN</t>
-        </is>
-      </c>
-      <c r="D2419" t="inlineStr"/>
-      <c r="E2419" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
-      <c r="F2419" t="inlineStr"/>
-      <c r="G2419" t="inlineStr"/>
-      <c r="H2419" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2420">
-      <c r="A2420" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2420" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2420" t="inlineStr">
-        <is>
-          <t>Construction Spending MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2420" t="inlineStr"/>
-      <c r="E2420" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F2420" t="inlineStr"/>
-      <c r="G2420" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H2420" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2421">
-      <c r="A2421" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2421" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2421" t="inlineStr">
-        <is>
-          <t>ISM Manufacturing New OrdersJAN</t>
-        </is>
-      </c>
-      <c r="D2421" t="inlineStr"/>
-      <c r="E2421" t="inlineStr"/>
-      <c r="F2421" t="inlineStr"/>
-      <c r="G2421" t="inlineStr"/>
-      <c r="H2421" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2422">
-      <c r="A2422" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2422" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2422" t="inlineStr">
-        <is>
-          <t>ISM Manufacturing PricesJAN</t>
-        </is>
-      </c>
-      <c r="D2422" t="inlineStr"/>
-      <c r="E2422" t="inlineStr"/>
-      <c r="F2422" t="inlineStr"/>
-      <c r="G2422" t="inlineStr"/>
-      <c r="H2422" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2423">
-      <c r="A2423" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B2423" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2423" t="inlineStr">
-        <is>
-          <t>3-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="D2423" t="inlineStr"/>
-      <c r="E2423" t="inlineStr"/>
-      <c r="F2423" t="inlineStr"/>
-      <c r="G2423" t="inlineStr"/>
-      <c r="H2423" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2424">
-      <c r="A2424" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B2424" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2424" t="inlineStr">
-        <is>
-          <t>6-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="D2424" t="inlineStr"/>
-      <c r="E2424" t="inlineStr"/>
-      <c r="F2424" t="inlineStr"/>
-      <c r="G2424" t="inlineStr"/>
-      <c r="H2424" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2425">
-      <c r="A2425" t="inlineStr"/>
-      <c r="B2425" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C2425" t="inlineStr">
-        <is>
-          <t>Total New Vehicle SalesJAN</t>
-        </is>
-      </c>
-      <c r="D2425" t="inlineStr"/>
-      <c r="E2425" t="inlineStr">
-        <is>
-          <t>41.27K</t>
-        </is>
-      </c>
-      <c r="F2425" t="inlineStr"/>
-      <c r="G2425" t="inlineStr">
-        <is>
-          <t>43.0K</t>
-        </is>
-      </c>
-      <c r="H2425" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2426">
-      <c r="A2426" t="inlineStr">
-        <is>
-          <t>Tuesday February 04 2025</t>
-        </is>
-      </c>
-      <c r="B2426" t="inlineStr"/>
-      <c r="C2426" t="inlineStr"/>
-      <c r="D2426" t="inlineStr"/>
-      <c r="E2426" t="inlineStr"/>
-      <c r="F2426" t="inlineStr"/>
-      <c r="G2426" t="inlineStr"/>
-      <c r="H2426" t="inlineStr"/>
-    </row>
-    <row r="2427">
-      <c r="A2427" t="inlineStr">
-        <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
-      <c r="B2427" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2427" t="inlineStr">
-        <is>
-          <t>Treasury Refunding Financing Estimates</t>
-        </is>
-      </c>
-      <c r="D2427" t="inlineStr"/>
-      <c r="E2427" t="inlineStr"/>
-      <c r="F2427" t="inlineStr"/>
-      <c r="G2427" t="inlineStr"/>
-      <c r="H2427" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2428">
-      <c r="A2428" t="inlineStr">
-        <is>
-          <t>03:30 AM</t>
-        </is>
-      </c>
-      <c r="B2428" t="inlineStr">
-        <is>
-          <t>AR</t>
-        </is>
-      </c>
-      <c r="C2428" t="inlineStr">
-        <is>
-          <t>Tax RevenueJAN</t>
-        </is>
-      </c>
-      <c r="D2428" t="inlineStr"/>
-      <c r="E2428" t="inlineStr">
-        <is>
-          <t>ARS13015B</t>
-        </is>
-      </c>
-      <c r="F2428" t="inlineStr"/>
-      <c r="G2428" t="inlineStr"/>
-      <c r="H2428" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-04.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-04.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2407"/>
+  <dimension ref="A1:H2388"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73637,10 +73637,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2267" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2267" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2268">
@@ -73671,10 +73669,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="H2268" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2268" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2269">
@@ -73705,10 +73701,8 @@
           <t>$-8.82B</t>
         </is>
       </c>
-      <c r="H2269" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2269" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2270">
@@ -73743,10 +73737,8 @@
           <t>$ 23.46B</t>
         </is>
       </c>
-      <c r="H2270" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2270" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2271">
@@ -73777,10 +73769,8 @@
           <t>$32.29B</t>
         </is>
       </c>
-      <c r="H2271" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2271" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2272">
@@ -73811,10 +73801,8 @@
           <t>$ 23.5B</t>
         </is>
       </c>
-      <c r="H2272" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2272" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2273">
@@ -73845,10 +73833,8 @@
           <t>0.9%</t>
         </is>
       </c>
-      <c r="H2273" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2273" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2274">
@@ -73879,10 +73865,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="H2274" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2274" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2275">
@@ -73913,10 +73897,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H2275" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2275" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2276">
@@ -73951,10 +73933,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2276" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2276" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2277">
@@ -73985,10 +73965,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2277" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2277" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2278">
@@ -74019,10 +73997,8 @@
           <t>2.0%</t>
         </is>
       </c>
-      <c r="H2278" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2278" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2279">
@@ -74053,10 +74029,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2279" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2279" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2280">
@@ -74087,10 +74061,8 @@
           <t>-4.3%</t>
         </is>
       </c>
-      <c r="H2280" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2280" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2281">
@@ -74121,10 +74093,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2281" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2281" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2282">
@@ -74155,10 +74125,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2282" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2282" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2283">
@@ -74185,10 +74153,8 @@
       </c>
       <c r="F2283" t="inlineStr"/>
       <c r="G2283" t="inlineStr"/>
-      <c r="H2283" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2283" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2284">
@@ -74223,10 +74189,8 @@
           <t>7.0K</t>
         </is>
       </c>
-      <c r="H2284" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2284" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2285">
@@ -74257,10 +74221,8 @@
           <t>2.876M</t>
         </is>
       </c>
-      <c r="H2285" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2285" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2286">
@@ -74295,10 +74257,8 @@
           <t>6.2%</t>
         </is>
       </c>
-      <c r="H2286" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2286" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2287">
@@ -74321,10 +74281,8 @@
       <c r="E2287" t="inlineStr"/>
       <c r="F2287" t="inlineStr"/>
       <c r="G2287" t="inlineStr"/>
-      <c r="H2287" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2287" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2288">
@@ -74351,10 +74309,8 @@
       </c>
       <c r="F2288" t="inlineStr"/>
       <c r="G2288" t="inlineStr"/>
-      <c r="H2288" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2288" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2289">
@@ -74381,10 +74337,8 @@
       </c>
       <c r="F2289" t="inlineStr"/>
       <c r="G2289" t="inlineStr"/>
-      <c r="H2289" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2289" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2290">
@@ -74411,10 +74365,8 @@
       </c>
       <c r="F2290" t="inlineStr"/>
       <c r="G2290" t="inlineStr"/>
-      <c r="H2290" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2290" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2291">
@@ -74441,10 +74393,8 @@
       </c>
       <c r="F2291" t="inlineStr"/>
       <c r="G2291" t="inlineStr"/>
-      <c r="H2291" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2291" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2292">
@@ -74471,10 +74421,8 @@
       </c>
       <c r="F2292" t="inlineStr"/>
       <c r="G2292" t="inlineStr"/>
-      <c r="H2292" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2292" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2293">
@@ -74501,10 +74449,8 @@
       </c>
       <c r="F2293" t="inlineStr"/>
       <c r="G2293" t="inlineStr"/>
-      <c r="H2293" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2293" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2294">
@@ -74531,10 +74477,8 @@
       </c>
       <c r="F2294" t="inlineStr"/>
       <c r="G2294" t="inlineStr"/>
-      <c r="H2294" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2294" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2295">
@@ -74561,10 +74505,8 @@
       </c>
       <c r="F2295" t="inlineStr"/>
       <c r="G2295" t="inlineStr"/>
-      <c r="H2295" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2295" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2296">
@@ -74591,10 +74533,8 @@
       </c>
       <c r="F2296" t="inlineStr"/>
       <c r="G2296" t="inlineStr"/>
-      <c r="H2296" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2296" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2297">
@@ -74621,10 +74561,8 @@
       </c>
       <c r="F2297" t="inlineStr"/>
       <c r="G2297" t="inlineStr"/>
-      <c r="H2297" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2297" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2298">
@@ -74651,10 +74589,8 @@
       </c>
       <c r="F2298" t="inlineStr"/>
       <c r="G2298" t="inlineStr"/>
-      <c r="H2298" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2298" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2299">
@@ -74681,10 +74617,8 @@
       </c>
       <c r="F2299" t="inlineStr"/>
       <c r="G2299" t="inlineStr"/>
-      <c r="H2299" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2299" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2300">
@@ -74715,10 +74649,8 @@
           <t>€5.0B</t>
         </is>
       </c>
-      <c r="H2300" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2300" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2301">
@@ -74749,10 +74681,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2301" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2301" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2302">
@@ -74783,10 +74713,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2302" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2302" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2303">
@@ -74817,10 +74745,8 @@
           <t>INR-9700.0B</t>
         </is>
       </c>
-      <c r="H2303" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2303" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2304">
@@ -74851,10 +74777,8 @@
           <t>77.9%</t>
         </is>
       </c>
-      <c r="H2304" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2304" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2305">
@@ -74885,10 +74809,8 @@
           <t>BRL-103.0B</t>
         </is>
       </c>
-      <c r="H2305" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2305" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2306">
@@ -74915,10 +74837,8 @@
       </c>
       <c r="F2306" t="inlineStr"/>
       <c r="G2306" t="inlineStr"/>
-      <c r="H2306" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2306" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2307">
@@ -74945,10 +74865,8 @@
       </c>
       <c r="F2307" t="inlineStr"/>
       <c r="G2307" t="inlineStr"/>
-      <c r="H2307" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2307" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2308">
@@ -74975,10 +74893,8 @@
       </c>
       <c r="F2308" t="inlineStr"/>
       <c r="G2308" t="inlineStr"/>
-      <c r="H2308" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2308" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2309">
@@ -75009,10 +74925,8 @@
           <t>4.8%</t>
         </is>
       </c>
-      <c r="H2309" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2309" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2310">
@@ -75043,10 +74957,8 @@
           <t>6.1%</t>
         </is>
       </c>
-      <c r="H2310" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2310" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2311">
@@ -75077,10 +74989,8 @@
           <t>ZAR 27.0B</t>
         </is>
       </c>
-      <c r="H2311" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2311" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2312">
@@ -75115,10 +75025,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H2312" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2312" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2313">
@@ -75153,10 +75061,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2313" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2313" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2314">
@@ -75187,10 +75093,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2314" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2314" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2315">
@@ -75225,10 +75129,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H2315" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2315" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2316">
@@ -75263,10 +75165,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H2316" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2316" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2317">
@@ -75297,10 +75197,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2317" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2317" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2318">
@@ -75335,10 +75233,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2318" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2318" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2319">
@@ -75373,10 +75269,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2319" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2319" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2320">
@@ -75411,10 +75305,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2320" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2320" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2321">
@@ -75445,10 +75337,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2321" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2321" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2322">
@@ -75479,10 +75369,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2322" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2322" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2323">
@@ -75517,10 +75405,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2323" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2323" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2324">
@@ -75543,10 +75429,8 @@
       <c r="E2324" t="inlineStr"/>
       <c r="F2324" t="inlineStr"/>
       <c r="G2324" t="inlineStr"/>
-      <c r="H2324" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2324" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2325">
@@ -75577,10 +75461,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2325" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2325" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2326">
@@ -75611,10 +75493,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H2326" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2326" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2327">
@@ -75645,10 +75525,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H2327" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2327" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2328">
@@ -75683,10 +75561,8 @@
           <t>37.2</t>
         </is>
       </c>
-      <c r="H2328" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2328" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2329">
@@ -75717,10 +75593,8 @@
           <t>C$-1.9B</t>
         </is>
       </c>
-      <c r="H2329" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2329" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2330">
@@ -75747,10 +75621,8 @@
       </c>
       <c r="F2330" t="inlineStr"/>
       <c r="G2330" t="inlineStr"/>
-      <c r="H2330" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2330" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2331">
@@ -75777,10 +75649,8 @@
       </c>
       <c r="F2331" t="inlineStr"/>
       <c r="G2331" t="inlineStr"/>
-      <c r="H2331" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2331" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2332">
@@ -75807,10 +75677,8 @@
           <t>MXN-1120.0B</t>
         </is>
       </c>
-      <c r="H2332" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2332" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2333">
@@ -75837,10 +75705,8 @@
           <t>0.0%</t>
         </is>
       </c>
-      <c r="H2333" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2333" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2334">
@@ -75867,10 +75733,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H2334" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2334" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2335">
@@ -75897,10 +75761,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H2335" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2335" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2336">
@@ -75927,10 +75789,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H2336" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2336" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2337">
@@ -75957,10 +75817,8 @@
           <t>-4.0%</t>
         </is>
       </c>
-      <c r="H2337" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2337" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2338">
@@ -75987,10 +75845,8 @@
           <t>20.7%</t>
         </is>
       </c>
-      <c r="H2338" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2338" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2339">
@@ -76035,10 +75891,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2340" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2340" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2341">
@@ -76069,10 +75923,8 @@
           <t>$0.9B</t>
         </is>
       </c>
-      <c r="H2341" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2341" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2342">
@@ -76103,84 +75955,94 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H2342" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2342" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2343">
       <c r="A2343" t="inlineStr">
         <is>
-          <t>Monday February 03 2025</t>
-        </is>
-      </c>
-      <c r="B2343" t="inlineStr"/>
-      <c r="C2343" t="inlineStr"/>
+          <t>12:30 PM</t>
+        </is>
+      </c>
+      <c r="B2343" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="C2343" t="inlineStr">
+        <is>
+          <t>Inflation Rate YoYJAN</t>
+        </is>
+      </c>
       <c r="D2343" t="inlineStr"/>
-      <c r="E2343" t="inlineStr"/>
+      <c r="E2343" t="inlineStr">
+        <is>
+          <t>44.38%</t>
+        </is>
+      </c>
       <c r="F2343" t="inlineStr"/>
       <c r="G2343" t="inlineStr"/>
-      <c r="H2343" t="inlineStr"/>
+      <c r="H2343" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="2344">
       <c r="A2344" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2344" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2344" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Manufacturing PMI FinalJAN</t>
+          <t>Istanbul Chamber of Industry Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2344" t="inlineStr"/>
       <c r="E2344" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>49.1</t>
         </is>
       </c>
       <c r="F2344" t="inlineStr"/>
       <c r="G2344" t="inlineStr"/>
       <c r="H2344" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2345">
       <c r="A2345" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2345" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2345" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>PPI MoMJAN</t>
         </is>
       </c>
       <c r="D2345" t="inlineStr"/>
       <c r="E2345" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F2345" t="inlineStr"/>
-      <c r="G2345" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
+      <c r="G2345" t="inlineStr"/>
       <c r="H2345" t="inlineStr">
         <is>
           <t>3</t>
@@ -76190,31 +76052,27 @@
     <row r="2346">
       <c r="A2346" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2346" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2346" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>PPI YoYJAN</t>
         </is>
       </c>
       <c r="D2346" t="inlineStr"/>
       <c r="E2346" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>28.52%</t>
         </is>
       </c>
       <c r="F2346" t="inlineStr"/>
-      <c r="G2346" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="G2346" t="inlineStr"/>
       <c r="H2346" t="inlineStr">
         <is>
           <t>3</t>
@@ -76224,51 +76082,47 @@
     <row r="2347">
       <c r="A2347" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2347" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2347" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Unemployment ChangeJAN</t>
         </is>
       </c>
       <c r="D2347" t="inlineStr"/>
       <c r="E2347" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>-25.3K</t>
         </is>
       </c>
       <c r="F2347" t="inlineStr"/>
-      <c r="G2347" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G2347" t="inlineStr"/>
       <c r="H2347" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2348">
       <c r="A2348" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2348" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2348" t="inlineStr">
         <is>
-          <t>BoJ Summary of Opinions</t>
+          <t>Tourist Arrivals YoYDEC</t>
         </is>
       </c>
       <c r="D2348" t="inlineStr"/>
@@ -76277,38 +76131,34 @@
       <c r="G2348" t="inlineStr"/>
       <c r="H2348" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2349">
       <c r="A2349" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B2349" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2349" t="inlineStr">
         <is>
-          <t>Building Permits MoM PrelDEC</t>
+          <t>HCOB Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2349" t="inlineStr"/>
       <c r="E2349" t="inlineStr">
         <is>
-          <t>-3.6%</t>
+          <t>53.3</t>
         </is>
       </c>
       <c r="F2349" t="inlineStr"/>
-      <c r="G2349" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
+      <c r="G2349" t="inlineStr"/>
       <c r="H2349" t="inlineStr">
         <is>
           <t>2</t>
@@ -76318,31 +76168,27 @@
     <row r="2350">
       <c r="A2350" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:15 PM</t>
         </is>
       </c>
       <c r="B2350" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2350" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>HCOB Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2350" t="inlineStr"/>
       <c r="E2350" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>46.2</t>
         </is>
       </c>
       <c r="F2350" t="inlineStr"/>
-      <c r="G2350" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G2350" t="inlineStr"/>
       <c r="H2350" t="inlineStr">
         <is>
           <t>2</t>
@@ -76352,161 +76198,181 @@
     <row r="2351">
       <c r="A2351" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:20 PM</t>
         </is>
       </c>
       <c r="B2351" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2351" t="inlineStr">
         <is>
-          <t>ANZ-Indeed Job Ads MoMJAN</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2351" t="inlineStr"/>
       <c r="E2351" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F2351" t="inlineStr"/>
-      <c r="G2351" t="inlineStr"/>
+          <t>41.9</t>
+        </is>
+      </c>
+      <c r="F2351" t="inlineStr">
+        <is>
+          <t>45.3</t>
+        </is>
+      </c>
+      <c r="G2351" t="inlineStr">
+        <is>
+          <t>45.3</t>
+        </is>
+      </c>
       <c r="H2351" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2352">
       <c r="A2352" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:25 PM</t>
         </is>
       </c>
       <c r="B2352" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2352" t="inlineStr">
         <is>
-          <t>Private House Approvals MoM PrelDEC</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2352" t="inlineStr"/>
       <c r="E2352" t="inlineStr">
         <is>
-          <t>-1.7%</t>
-        </is>
-      </c>
-      <c r="F2352" t="inlineStr"/>
-      <c r="G2352" t="inlineStr"/>
+          <t>42.5</t>
+        </is>
+      </c>
+      <c r="F2352" t="inlineStr">
+        <is>
+          <t>44.1</t>
+        </is>
+      </c>
+      <c r="G2352" t="inlineStr">
+        <is>
+          <t>44.1</t>
+        </is>
+      </c>
       <c r="H2352" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2353">
       <c r="A2353" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2353" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2353" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2353" t="inlineStr"/>
       <c r="E2353" t="inlineStr">
         <is>
-          <t>51.2</t>
-        </is>
-      </c>
-      <c r="F2353" t="inlineStr"/>
+          <t>45.1</t>
+        </is>
+      </c>
+      <c r="F2353" t="inlineStr">
+        <is>
+          <t>46.1</t>
+        </is>
+      </c>
       <c r="G2353" t="inlineStr">
         <is>
-          <t>51.6</t>
+          <t>46.1</t>
         </is>
       </c>
       <c r="H2353" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2354">
       <c r="A2354" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2354" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2354" t="inlineStr">
         <is>
-          <t>Jibun Bank Manufacturing PMI FinalJAN</t>
+          <t>ABSA Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2354" t="inlineStr"/>
       <c r="E2354" t="inlineStr">
         <is>
-          <t>49.6</t>
-        </is>
-      </c>
-      <c r="F2354" t="inlineStr">
-        <is>
-          <t>48.8</t>
-        </is>
-      </c>
+          <t>46.2</t>
+        </is>
+      </c>
+      <c r="F2354" t="inlineStr"/>
       <c r="G2354" t="inlineStr">
         <is>
-          <t>48.8</t>
+          <t>47</t>
         </is>
       </c>
       <c r="H2354" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2355">
       <c r="A2355" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B2355" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2355" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2355" t="inlineStr"/>
       <c r="E2355" t="inlineStr">
         <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="F2355" t="inlineStr"/>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="F2355" t="inlineStr">
+        <is>
+          <t>48.2</t>
+        </is>
+      </c>
       <c r="G2355" t="inlineStr">
         <is>
-          <t>49.5</t>
+          <t>48.2</t>
         </is>
       </c>
       <c r="H2355" t="inlineStr">
@@ -76518,35 +76384,23 @@
     <row r="2356">
       <c r="A2356" t="inlineStr">
         <is>
-          <t>07:15 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2356" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2356" t="inlineStr">
         <is>
-          <t>Caixin Manufacturing PMIJAN</t>
+          <t>Inflation Rate YoY FlashJAN</t>
         </is>
       </c>
       <c r="D2356" t="inlineStr"/>
-      <c r="E2356" t="inlineStr">
-        <is>
-          <t>50.5</t>
-        </is>
-      </c>
-      <c r="F2356" t="inlineStr">
-        <is>
-          <t>50.5</t>
-        </is>
-      </c>
-      <c r="G2356" t="inlineStr">
-        <is>
-          <t>50.5</t>
-        </is>
-      </c>
+      <c r="E2356" t="inlineStr"/>
+      <c r="F2356" t="inlineStr"/>
+      <c r="G2356" t="inlineStr"/>
       <c r="H2356" t="inlineStr">
         <is>
           <t>1</t>
@@ -76556,31 +76410,27 @@
     <row r="2357">
       <c r="A2357" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2357" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2357" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>Core Inflation Rate YoY FlashJAN</t>
         </is>
       </c>
       <c r="D2357" t="inlineStr"/>
       <c r="E2357" t="inlineStr">
         <is>
-          <t>1.57%</t>
+          <t>2.7%</t>
         </is>
       </c>
       <c r="F2357" t="inlineStr"/>
-      <c r="G2357" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
+      <c r="G2357" t="inlineStr"/>
       <c r="H2357" t="inlineStr">
         <is>
           <t>2</t>
@@ -76590,65 +76440,53 @@
     <row r="2358">
       <c r="A2358" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2358" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2358" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYJAN</t>
+          <t>Inflation Rate MoM FlashJAN</t>
         </is>
       </c>
       <c r="D2358" t="inlineStr"/>
-      <c r="E2358" t="inlineStr">
-        <is>
-          <t>2.26%</t>
-        </is>
-      </c>
+      <c r="E2358" t="inlineStr"/>
       <c r="F2358" t="inlineStr"/>
-      <c r="G2358" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
+      <c r="G2358" t="inlineStr"/>
       <c r="H2358" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2359">
       <c r="A2359" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2359" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2359" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>CPI FlashJAN</t>
         </is>
       </c>
       <c r="D2359" t="inlineStr"/>
       <c r="E2359" t="inlineStr">
         <is>
-          <t>0.44%</t>
+          <t>127.07</t>
         </is>
       </c>
       <c r="F2359" t="inlineStr"/>
-      <c r="G2359" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G2359" t="inlineStr"/>
       <c r="H2359" t="inlineStr">
         <is>
           <t>3</t>
@@ -76658,95 +76496,83 @@
     <row r="2360">
       <c r="A2360" t="inlineStr">
         <is>
-          <t>10:15 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2360" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2360" t="inlineStr">
         <is>
-          <t>Tourist Arrivals YoYDEC</t>
+          <t>Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2360" t="inlineStr"/>
       <c r="E2360" t="inlineStr">
         <is>
-          <t>17.27%</t>
+          <t>1.3%</t>
         </is>
       </c>
       <c r="F2360" t="inlineStr"/>
-      <c r="G2360" t="inlineStr">
-        <is>
-          <t>18.0%</t>
-        </is>
-      </c>
+      <c r="G2360" t="inlineStr"/>
       <c r="H2360" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2361">
       <c r="A2361" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2361" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2361" t="inlineStr">
         <is>
-          <t>HSBC Manufacturing PMI FinalJAN</t>
+          <t>Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2361" t="inlineStr"/>
       <c r="E2361" t="inlineStr">
         <is>
-          <t>56.4</t>
-        </is>
-      </c>
-      <c r="F2361" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="G2361" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F2361" t="inlineStr"/>
+      <c r="G2361" t="inlineStr"/>
       <c r="H2361" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2362">
       <c r="A2362" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2362" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2362" t="inlineStr">
         <is>
-          <t>2-Year KTB Auction</t>
+          <t>Harmonised Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2362" t="inlineStr"/>
       <c r="E2362" t="inlineStr">
         <is>
-          <t>2.670%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2362" t="inlineStr"/>
@@ -76760,23 +76586,23 @@
     <row r="2363">
       <c r="A2363" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2363" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2363" t="inlineStr">
         <is>
-          <t>Commodity Prices YoYJAN</t>
+          <t>Harmonised Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2363" t="inlineStr"/>
       <c r="E2363" t="inlineStr">
         <is>
-          <t>-10.7%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F2363" t="inlineStr"/>
@@ -76790,145 +76616,149 @@
     <row r="2364">
       <c r="A2364" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2364" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2364" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>Foreign Exchange ReservesDEC</t>
         </is>
       </c>
       <c r="D2364" t="inlineStr"/>
       <c r="E2364" t="inlineStr">
         <is>
-          <t>50.8</t>
+          <t>$232.2B</t>
         </is>
       </c>
       <c r="F2364" t="inlineStr"/>
-      <c r="G2364" t="inlineStr"/>
+      <c r="G2364" t="inlineStr">
+        <is>
+          <t>$ 230B</t>
+        </is>
+      </c>
       <c r="H2364" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2365">
       <c r="A2365" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2365" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2365" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2365" t="inlineStr"/>
       <c r="E2365" t="inlineStr">
         <is>
-          <t>1.03%</t>
+          <t>50.4</t>
         </is>
       </c>
       <c r="F2365" t="inlineStr"/>
-      <c r="G2365" t="inlineStr"/>
+      <c r="G2365" t="inlineStr">
+        <is>
+          <t>49.8</t>
+        </is>
+      </c>
       <c r="H2365" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2366">
       <c r="A2366" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2366" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2366" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>SIPMM Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2366" t="inlineStr"/>
       <c r="E2366" t="inlineStr">
         <is>
-          <t>44.38%</t>
+          <t>51.1</t>
         </is>
       </c>
       <c r="F2366" t="inlineStr"/>
-      <c r="G2366" t="inlineStr"/>
+      <c r="G2366" t="inlineStr">
+        <is>
+          <t>51.4</t>
+        </is>
+      </c>
       <c r="H2366" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2367">
       <c r="A2367" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2367" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2367" t="inlineStr">
         <is>
-          <t>Istanbul Chamber of Industry Manufacturing PMIJAN</t>
+          <t>Fed Bostic Speech</t>
         </is>
       </c>
       <c r="D2367" t="inlineStr"/>
-      <c r="E2367" t="inlineStr">
-        <is>
-          <t>49.1</t>
-        </is>
-      </c>
+      <c r="E2367" t="inlineStr"/>
       <c r="F2367" t="inlineStr"/>
       <c r="G2367" t="inlineStr"/>
       <c r="H2367" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2368">
       <c r="A2368" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2368" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2368" t="inlineStr">
         <is>
-          <t>PPI MoMJAN</t>
+          <t>12-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2368" t="inlineStr"/>
-      <c r="E2368" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="E2368" t="inlineStr"/>
       <c r="F2368" t="inlineStr"/>
       <c r="G2368" t="inlineStr"/>
       <c r="H2368" t="inlineStr">
@@ -76940,25 +76770,21 @@
     <row r="2369">
       <c r="A2369" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2369" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2369" t="inlineStr">
         <is>
-          <t>PPI YoYJAN</t>
+          <t>3-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2369" t="inlineStr"/>
-      <c r="E2369" t="inlineStr">
-        <is>
-          <t>28.52%</t>
-        </is>
-      </c>
+      <c r="E2369" t="inlineStr"/>
       <c r="F2369" t="inlineStr"/>
       <c r="G2369" t="inlineStr"/>
       <c r="H2369" t="inlineStr">
@@ -76970,83 +76796,91 @@
     <row r="2370">
       <c r="A2370" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2370" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2370" t="inlineStr">
         <is>
-          <t>Unemployment ChangeJAN</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2370" t="inlineStr"/>
-      <c r="E2370" t="inlineStr">
-        <is>
-          <t>-25.3K</t>
-        </is>
-      </c>
+      <c r="E2370" t="inlineStr"/>
       <c r="F2370" t="inlineStr"/>
       <c r="G2370" t="inlineStr"/>
       <c r="H2370" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2371">
       <c r="A2371" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B2371" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2371" t="inlineStr">
         <is>
-          <t>Tourist Arrivals YoYDEC</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2371" t="inlineStr"/>
-      <c r="E2371" t="inlineStr"/>
+      <c r="E2371" t="inlineStr">
+        <is>
+          <t>52.2</t>
+        </is>
+      </c>
       <c r="F2371" t="inlineStr"/>
       <c r="G2371" t="inlineStr"/>
       <c r="H2371" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2372">
       <c r="A2372" t="inlineStr">
         <is>
-          <t>01:45 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B2372" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2372" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMIJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2372" t="inlineStr"/>
       <c r="E2372" t="inlineStr">
         <is>
-          <t>53.3</t>
-        </is>
-      </c>
-      <c r="F2372" t="inlineStr"/>
-      <c r="G2372" t="inlineStr"/>
+          <t>49.4</t>
+        </is>
+      </c>
+      <c r="F2372" t="inlineStr">
+        <is>
+          <t>50.1</t>
+        </is>
+      </c>
+      <c r="G2372" t="inlineStr">
+        <is>
+          <t>50.1</t>
+        </is>
+      </c>
       <c r="H2372" t="inlineStr">
         <is>
           <t>2</t>
@@ -77056,65 +76890,57 @@
     <row r="2373">
       <c r="A2373" t="inlineStr">
         <is>
-          <t>02:15 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2373" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2373" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMIJAN</t>
+          <t>ISM Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2373" t="inlineStr"/>
       <c r="E2373" t="inlineStr">
         <is>
-          <t>46.2</t>
+          <t>49.3</t>
         </is>
       </c>
       <c r="F2373" t="inlineStr"/>
       <c r="G2373" t="inlineStr"/>
       <c r="H2373" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2374">
       <c r="A2374" t="inlineStr">
         <is>
-          <t>02:20 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2374" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2374" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>ISM Manufacturing EmploymentJAN</t>
         </is>
       </c>
       <c r="D2374" t="inlineStr"/>
       <c r="E2374" t="inlineStr">
         <is>
-          <t>41.9</t>
-        </is>
-      </c>
-      <c r="F2374" t="inlineStr">
-        <is>
           <t>45.3</t>
         </is>
       </c>
-      <c r="G2374" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
+      <c r="F2374" t="inlineStr"/>
+      <c r="G2374" t="inlineStr"/>
       <c r="H2374" t="inlineStr">
         <is>
           <t>2</t>
@@ -77124,107 +76950,83 @@
     <row r="2375">
       <c r="A2375" t="inlineStr">
         <is>
-          <t>02:25 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2375" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2375" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>Construction Spending MoMDEC</t>
         </is>
       </c>
       <c r="D2375" t="inlineStr"/>
       <c r="E2375" t="inlineStr">
         <is>
-          <t>42.5</t>
-        </is>
-      </c>
-      <c r="F2375" t="inlineStr">
-        <is>
-          <t>44.1</t>
-        </is>
-      </c>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F2375" t="inlineStr"/>
       <c r="G2375" t="inlineStr">
         <is>
-          <t>44.1</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H2375" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2376">
       <c r="A2376" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2376" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2376" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>ISM Manufacturing New OrdersJAN</t>
         </is>
       </c>
       <c r="D2376" t="inlineStr"/>
-      <c r="E2376" t="inlineStr">
-        <is>
-          <t>45.1</t>
-        </is>
-      </c>
-      <c r="F2376" t="inlineStr">
-        <is>
-          <t>46.1</t>
-        </is>
-      </c>
-      <c r="G2376" t="inlineStr">
-        <is>
-          <t>46.1</t>
-        </is>
-      </c>
+      <c r="E2376" t="inlineStr"/>
+      <c r="F2376" t="inlineStr"/>
+      <c r="G2376" t="inlineStr"/>
       <c r="H2376" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2377">
       <c r="A2377" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2377" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2377" t="inlineStr">
         <is>
-          <t>ABSA Manufacturing PMIJAN</t>
+          <t>ISM Manufacturing PricesJAN</t>
         </is>
       </c>
       <c r="D2377" t="inlineStr"/>
-      <c r="E2377" t="inlineStr">
-        <is>
-          <t>46.2</t>
-        </is>
-      </c>
+      <c r="E2377" t="inlineStr"/>
       <c r="F2377" t="inlineStr"/>
-      <c r="G2377" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
+      <c r="G2377" t="inlineStr"/>
       <c r="H2377" t="inlineStr">
         <is>
           <t>3</t>
@@ -77234,55 +77036,43 @@
     <row r="2378">
       <c r="A2378" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B2378" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2378" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2378" t="inlineStr"/>
-      <c r="E2378" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="F2378" t="inlineStr">
-        <is>
-          <t>48.2</t>
-        </is>
-      </c>
-      <c r="G2378" t="inlineStr">
-        <is>
-          <t>48.2</t>
-        </is>
-      </c>
+      <c r="E2378" t="inlineStr"/>
+      <c r="F2378" t="inlineStr"/>
+      <c r="G2378" t="inlineStr"/>
       <c r="H2378" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2379">
       <c r="A2379" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B2379" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2379" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FlashJAN</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2379" t="inlineStr"/>
@@ -77291,88 +77081,72 @@
       <c r="G2379" t="inlineStr"/>
       <c r="H2379" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2380">
-      <c r="A2380" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
+      <c r="A2380" t="inlineStr"/>
       <c r="B2380" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2380" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoY FlashJAN</t>
+          <t>Total New Vehicle SalesJAN</t>
         </is>
       </c>
       <c r="D2380" t="inlineStr"/>
       <c r="E2380" t="inlineStr">
         <is>
-          <t>2.7%</t>
+          <t>41.27K</t>
         </is>
       </c>
       <c r="F2380" t="inlineStr"/>
-      <c r="G2380" t="inlineStr"/>
+      <c r="G2380" t="inlineStr">
+        <is>
+          <t>43.0K</t>
+        </is>
+      </c>
       <c r="H2380" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2381">
       <c r="A2381" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B2381" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C2381" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoM FlashJAN</t>
-        </is>
-      </c>
+          <t>Tuesday February 04 2025</t>
+        </is>
+      </c>
+      <c r="B2381" t="inlineStr"/>
+      <c r="C2381" t="inlineStr"/>
       <c r="D2381" t="inlineStr"/>
       <c r="E2381" t="inlineStr"/>
       <c r="F2381" t="inlineStr"/>
       <c r="G2381" t="inlineStr"/>
-      <c r="H2381" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="H2381" t="inlineStr"/>
     </row>
     <row r="2382">
       <c r="A2382" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B2382" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2382" t="inlineStr">
         <is>
-          <t>CPI FlashJAN</t>
+          <t>Treasury Refunding Financing Estimates</t>
         </is>
       </c>
       <c r="D2382" t="inlineStr"/>
-      <c r="E2382" t="inlineStr">
-        <is>
-          <t>127.07</t>
-        </is>
-      </c>
+      <c r="E2382" t="inlineStr"/>
       <c r="F2382" t="inlineStr"/>
       <c r="G2382" t="inlineStr"/>
       <c r="H2382" t="inlineStr">
@@ -77384,83 +77158,83 @@
     <row r="2383">
       <c r="A2383" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>03:30 AM</t>
         </is>
       </c>
       <c r="B2383" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C2383" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelJAN</t>
+          <t>Tax RevenueJAN</t>
         </is>
       </c>
       <c r="D2383" t="inlineStr"/>
       <c r="E2383" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>ARS13015B</t>
         </is>
       </c>
       <c r="F2383" t="inlineStr"/>
       <c r="G2383" t="inlineStr"/>
       <c r="H2383" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2384">
       <c r="A2384" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>09:05 AM</t>
         </is>
       </c>
       <c r="B2384" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2384" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM PrelJAN</t>
+          <t>10-Year JGB Auction</t>
         </is>
       </c>
       <c r="D2384" t="inlineStr"/>
       <c r="E2384" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>1.140%</t>
         </is>
       </c>
       <c r="F2384" t="inlineStr"/>
       <c r="G2384" t="inlineStr"/>
       <c r="H2384" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2385">
       <c r="A2385" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B2385" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C2385" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM PrelJAN</t>
+          <t>Riyad Bank PMIJAN</t>
         </is>
       </c>
       <c r="D2385" t="inlineStr"/>
       <c r="E2385" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>58.4</t>
         </is>
       </c>
       <c r="F2385" t="inlineStr"/>
@@ -77474,25 +77248,21 @@
     <row r="2386">
       <c r="A2386" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2386" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2386" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY PrelJAN</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D2386" t="inlineStr"/>
-      <c r="E2386" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
+      <c r="E2386" t="inlineStr"/>
       <c r="F2386" t="inlineStr"/>
       <c r="G2386" t="inlineStr"/>
       <c r="H2386" t="inlineStr">
@@ -77504,31 +77274,23 @@
     <row r="2387">
       <c r="A2387" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2387" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2387" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesDEC</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D2387" t="inlineStr"/>
-      <c r="E2387" t="inlineStr">
-        <is>
-          <t>$232.2B</t>
-        </is>
-      </c>
+      <c r="E2387" t="inlineStr"/>
       <c r="F2387" t="inlineStr"/>
-      <c r="G2387" t="inlineStr">
-        <is>
-          <t>$ 230B</t>
-        </is>
-      </c>
+      <c r="G2387" t="inlineStr"/>
       <c r="H2387" t="inlineStr">
         <is>
           <t>3</t>
@@ -77538,566 +77300,28 @@
     <row r="2388">
       <c r="A2388" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2388" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2388" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>30-Year KTB Auction</t>
         </is>
       </c>
       <c r="D2388" t="inlineStr"/>
       <c r="E2388" t="inlineStr">
         <is>
-          <t>50.4</t>
+          <t>2.705%</t>
         </is>
       </c>
       <c r="F2388" t="inlineStr"/>
-      <c r="G2388" t="inlineStr">
-        <is>
-          <t>49.8</t>
-        </is>
-      </c>
+      <c r="G2388" t="inlineStr"/>
       <c r="H2388" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2389">
-      <c r="A2389" t="inlineStr">
-        <is>
-          <t>06:30 PM</t>
-        </is>
-      </c>
-      <c r="B2389" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="C2389" t="inlineStr">
-        <is>
-          <t>SIPMM Manufacturing PMIJAN</t>
-        </is>
-      </c>
-      <c r="D2389" t="inlineStr"/>
-      <c r="E2389" t="inlineStr">
-        <is>
-          <t>51.1</t>
-        </is>
-      </c>
-      <c r="F2389" t="inlineStr"/>
-      <c r="G2389" t="inlineStr">
-        <is>
-          <t>51.4</t>
-        </is>
-      </c>
-      <c r="H2389" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2390">
-      <c r="A2390" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2390" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2390" t="inlineStr">
-        <is>
-          <t>Fed Bostic Speech</t>
-        </is>
-      </c>
-      <c r="D2390" t="inlineStr"/>
-      <c r="E2390" t="inlineStr"/>
-      <c r="F2390" t="inlineStr"/>
-      <c r="G2390" t="inlineStr"/>
-      <c r="H2390" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2391">
-      <c r="A2391" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2391" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C2391" t="inlineStr">
-        <is>
-          <t>12-Month BTF Auction</t>
-        </is>
-      </c>
-      <c r="D2391" t="inlineStr"/>
-      <c r="E2391" t="inlineStr"/>
-      <c r="F2391" t="inlineStr"/>
-      <c r="G2391" t="inlineStr"/>
-      <c r="H2391" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2392">
-      <c r="A2392" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2392" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C2392" t="inlineStr">
-        <is>
-          <t>3-Month BTF Auction</t>
-        </is>
-      </c>
-      <c r="D2392" t="inlineStr"/>
-      <c r="E2392" t="inlineStr"/>
-      <c r="F2392" t="inlineStr"/>
-      <c r="G2392" t="inlineStr"/>
-      <c r="H2392" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2393">
-      <c r="A2393" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2393" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C2393" t="inlineStr">
-        <is>
-          <t>6-Month BTF Auction</t>
-        </is>
-      </c>
-      <c r="D2393" t="inlineStr"/>
-      <c r="E2393" t="inlineStr"/>
-      <c r="F2393" t="inlineStr"/>
-      <c r="G2393" t="inlineStr"/>
-      <c r="H2393" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2394">
-      <c r="A2394" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B2394" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C2394" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
-        </is>
-      </c>
-      <c r="D2394" t="inlineStr"/>
-      <c r="E2394" t="inlineStr">
-        <is>
-          <t>52.2</t>
-        </is>
-      </c>
-      <c r="F2394" t="inlineStr"/>
-      <c r="G2394" t="inlineStr"/>
-      <c r="H2394" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2395">
-      <c r="A2395" t="inlineStr">
-        <is>
-          <t>08:15 PM</t>
-        </is>
-      </c>
-      <c r="B2395" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2395" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
-        </is>
-      </c>
-      <c r="D2395" t="inlineStr"/>
-      <c r="E2395" t="inlineStr">
-        <is>
-          <t>49.4</t>
-        </is>
-      </c>
-      <c r="F2395" t="inlineStr">
-        <is>
-          <t>50.1</t>
-        </is>
-      </c>
-      <c r="G2395" t="inlineStr">
-        <is>
-          <t>50.1</t>
-        </is>
-      </c>
-      <c r="H2395" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2396">
-      <c r="A2396" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2396" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2396" t="inlineStr">
-        <is>
-          <t>ISM Manufacturing PMIJAN</t>
-        </is>
-      </c>
-      <c r="D2396" t="inlineStr"/>
-      <c r="E2396" t="inlineStr">
-        <is>
-          <t>49.3</t>
-        </is>
-      </c>
-      <c r="F2396" t="inlineStr"/>
-      <c r="G2396" t="inlineStr"/>
-      <c r="H2396" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2397">
-      <c r="A2397" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2397" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2397" t="inlineStr">
-        <is>
-          <t>ISM Manufacturing EmploymentJAN</t>
-        </is>
-      </c>
-      <c r="D2397" t="inlineStr"/>
-      <c r="E2397" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
-      <c r="F2397" t="inlineStr"/>
-      <c r="G2397" t="inlineStr"/>
-      <c r="H2397" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2398">
-      <c r="A2398" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2398" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2398" t="inlineStr">
-        <is>
-          <t>Construction Spending MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2398" t="inlineStr"/>
-      <c r="E2398" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F2398" t="inlineStr"/>
-      <c r="G2398" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H2398" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2399">
-      <c r="A2399" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2399" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2399" t="inlineStr">
-        <is>
-          <t>ISM Manufacturing New OrdersJAN</t>
-        </is>
-      </c>
-      <c r="D2399" t="inlineStr"/>
-      <c r="E2399" t="inlineStr"/>
-      <c r="F2399" t="inlineStr"/>
-      <c r="G2399" t="inlineStr"/>
-      <c r="H2399" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2400">
-      <c r="A2400" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2400" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2400" t="inlineStr">
-        <is>
-          <t>ISM Manufacturing PricesJAN</t>
-        </is>
-      </c>
-      <c r="D2400" t="inlineStr"/>
-      <c r="E2400" t="inlineStr"/>
-      <c r="F2400" t="inlineStr"/>
-      <c r="G2400" t="inlineStr"/>
-      <c r="H2400" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2401">
-      <c r="A2401" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B2401" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2401" t="inlineStr">
-        <is>
-          <t>3-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="D2401" t="inlineStr"/>
-      <c r="E2401" t="inlineStr"/>
-      <c r="F2401" t="inlineStr"/>
-      <c r="G2401" t="inlineStr"/>
-      <c r="H2401" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2402">
-      <c r="A2402" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B2402" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2402" t="inlineStr">
-        <is>
-          <t>6-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="D2402" t="inlineStr"/>
-      <c r="E2402" t="inlineStr"/>
-      <c r="F2402" t="inlineStr"/>
-      <c r="G2402" t="inlineStr"/>
-      <c r="H2402" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2403">
-      <c r="A2403" t="inlineStr"/>
-      <c r="B2403" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C2403" t="inlineStr">
-        <is>
-          <t>Total New Vehicle SalesJAN</t>
-        </is>
-      </c>
-      <c r="D2403" t="inlineStr"/>
-      <c r="E2403" t="inlineStr">
-        <is>
-          <t>41.27K</t>
-        </is>
-      </c>
-      <c r="F2403" t="inlineStr"/>
-      <c r="G2403" t="inlineStr">
-        <is>
-          <t>43.0K</t>
-        </is>
-      </c>
-      <c r="H2403" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2404">
-      <c r="A2404" t="inlineStr">
-        <is>
-          <t>Tuesday February 04 2025</t>
-        </is>
-      </c>
-      <c r="B2404" t="inlineStr"/>
-      <c r="C2404" t="inlineStr"/>
-      <c r="D2404" t="inlineStr"/>
-      <c r="E2404" t="inlineStr"/>
-      <c r="F2404" t="inlineStr"/>
-      <c r="G2404" t="inlineStr"/>
-      <c r="H2404" t="inlineStr"/>
-    </row>
-    <row r="2405">
-      <c r="A2405" t="inlineStr">
-        <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
-      <c r="B2405" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2405" t="inlineStr">
-        <is>
-          <t>Treasury Refunding Financing Estimates</t>
-        </is>
-      </c>
-      <c r="D2405" t="inlineStr"/>
-      <c r="E2405" t="inlineStr"/>
-      <c r="F2405" t="inlineStr"/>
-      <c r="G2405" t="inlineStr"/>
-      <c r="H2405" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2406">
-      <c r="A2406" t="inlineStr">
-        <is>
-          <t>03:30 AM</t>
-        </is>
-      </c>
-      <c r="B2406" t="inlineStr">
-        <is>
-          <t>AR</t>
-        </is>
-      </c>
-      <c r="C2406" t="inlineStr">
-        <is>
-          <t>Tax RevenueJAN</t>
-        </is>
-      </c>
-      <c r="D2406" t="inlineStr"/>
-      <c r="E2406" t="inlineStr">
-        <is>
-          <t>ARS13015B</t>
-        </is>
-      </c>
-      <c r="F2406" t="inlineStr"/>
-      <c r="G2406" t="inlineStr"/>
-      <c r="H2406" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2407">
-      <c r="A2407" t="inlineStr">
-        <is>
-          <t>09:05 AM</t>
-        </is>
-      </c>
-      <c r="B2407" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C2407" t="inlineStr">
-        <is>
-          <t>10-Year JGB Auction</t>
-        </is>
-      </c>
-      <c r="D2407" t="inlineStr"/>
-      <c r="E2407" t="inlineStr">
-        <is>
-          <t>1.140%</t>
-        </is>
-      </c>
-      <c r="F2407" t="inlineStr"/>
-      <c r="G2407" t="inlineStr"/>
-      <c r="H2407" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-04.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-04.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2388"/>
+  <dimension ref="A1:H2389"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75852,21 +75852,45 @@
     <row r="2339">
       <c r="A2339" t="inlineStr">
         <is>
-          <t>Saturday February 01 2025</t>
-        </is>
-      </c>
-      <c r="B2339" t="inlineStr"/>
-      <c r="C2339" t="inlineStr"/>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B2339" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="C2339" t="inlineStr">
+        <is>
+          <t>HSBC Manufacturing PMI FinalJAN</t>
+        </is>
+      </c>
       <c r="D2339" t="inlineStr"/>
-      <c r="E2339" t="inlineStr"/>
-      <c r="F2339" t="inlineStr"/>
-      <c r="G2339" t="inlineStr"/>
-      <c r="H2339" t="inlineStr"/>
+      <c r="E2339" t="inlineStr">
+        <is>
+          <t>56.4</t>
+        </is>
+      </c>
+      <c r="F2339" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="G2339" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="H2339" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2340">
       <c r="A2340" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2340" t="inlineStr">
@@ -75876,87 +75900,81 @@
       </c>
       <c r="C2340" t="inlineStr">
         <is>
-          <t>Exports YoYJAN</t>
+          <t>2-Year KTB Auction</t>
         </is>
       </c>
       <c r="D2340" t="inlineStr"/>
       <c r="E2340" t="inlineStr">
         <is>
-          <t>6.6%</t>
+          <t>2.670%</t>
         </is>
       </c>
       <c r="F2340" t="inlineStr"/>
-      <c r="G2340" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H2340" t="n">
-        <v>2</v>
+      <c r="G2340" t="inlineStr"/>
+      <c r="H2340" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2341">
       <c r="A2341" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B2341" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2341" t="inlineStr">
         <is>
-          <t>Balance of TradeJAN</t>
+          <t>Commodity Prices YoYJAN</t>
         </is>
       </c>
       <c r="D2341" t="inlineStr"/>
       <c r="E2341" t="inlineStr">
         <is>
-          <t>$6.49B</t>
+          <t>-10.7%</t>
         </is>
       </c>
       <c r="F2341" t="inlineStr"/>
-      <c r="G2341" t="inlineStr">
-        <is>
-          <t>$0.9B</t>
-        </is>
-      </c>
-      <c r="H2341" t="n">
-        <v>3</v>
+      <c r="G2341" t="inlineStr"/>
+      <c r="H2341" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2342">
       <c r="A2342" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B2342" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2342" t="inlineStr">
         <is>
-          <t>Imports YoYJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2342" t="inlineStr"/>
       <c r="E2342" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>50.8</t>
         </is>
       </c>
       <c r="F2342" t="inlineStr"/>
-      <c r="G2342" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="H2342" t="n">
-        <v>3</v>
+      <c r="G2342" t="inlineStr"/>
+      <c r="H2342" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2343">
@@ -75972,13 +75990,13 @@
       </c>
       <c r="C2343" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2343" t="inlineStr"/>
       <c r="E2343" t="inlineStr">
         <is>
-          <t>44.38%</t>
+          <t>1.03%</t>
         </is>
       </c>
       <c r="F2343" t="inlineStr"/>
@@ -76002,20 +76020,20 @@
       </c>
       <c r="C2344" t="inlineStr">
         <is>
-          <t>Istanbul Chamber of Industry Manufacturing PMIJAN</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2344" t="inlineStr"/>
       <c r="E2344" t="inlineStr">
         <is>
-          <t>49.1</t>
+          <t>44.38%</t>
         </is>
       </c>
       <c r="F2344" t="inlineStr"/>
       <c r="G2344" t="inlineStr"/>
       <c r="H2344" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -76032,13 +76050,13 @@
       </c>
       <c r="C2345" t="inlineStr">
         <is>
-          <t>PPI MoMJAN</t>
+          <t>Istanbul Chamber of Industry Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2345" t="inlineStr"/>
       <c r="E2345" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>49.1</t>
         </is>
       </c>
       <c r="F2345" t="inlineStr"/>
@@ -76062,13 +76080,13 @@
       </c>
       <c r="C2346" t="inlineStr">
         <is>
-          <t>PPI YoYJAN</t>
+          <t>PPI MoMJAN</t>
         </is>
       </c>
       <c r="D2346" t="inlineStr"/>
       <c r="E2346" t="inlineStr">
         <is>
-          <t>28.52%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F2346" t="inlineStr"/>
@@ -76082,30 +76100,30 @@
     <row r="2347">
       <c r="A2347" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2347" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2347" t="inlineStr">
         <is>
-          <t>Unemployment ChangeJAN</t>
+          <t>PPI YoYJAN</t>
         </is>
       </c>
       <c r="D2347" t="inlineStr"/>
       <c r="E2347" t="inlineStr">
         <is>
-          <t>-25.3K</t>
+          <t>28.52%</t>
         </is>
       </c>
       <c r="F2347" t="inlineStr"/>
       <c r="G2347" t="inlineStr"/>
       <c r="H2347" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -76122,23 +76140,27 @@
       </c>
       <c r="C2348" t="inlineStr">
         <is>
-          <t>Tourist Arrivals YoYDEC</t>
+          <t>Unemployment ChangeJAN</t>
         </is>
       </c>
       <c r="D2348" t="inlineStr"/>
-      <c r="E2348" t="inlineStr"/>
+      <c r="E2348" t="inlineStr">
+        <is>
+          <t>-25.3K</t>
+        </is>
+      </c>
       <c r="F2348" t="inlineStr"/>
       <c r="G2348" t="inlineStr"/>
       <c r="H2348" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2349">
       <c r="A2349" t="inlineStr">
         <is>
-          <t>01:45 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2349" t="inlineStr">
@@ -76148,32 +76170,28 @@
       </c>
       <c r="C2349" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMIJAN</t>
+          <t>Tourist Arrivals YoYDEC</t>
         </is>
       </c>
       <c r="D2349" t="inlineStr"/>
-      <c r="E2349" t="inlineStr">
-        <is>
-          <t>53.3</t>
-        </is>
-      </c>
+      <c r="E2349" t="inlineStr"/>
       <c r="F2349" t="inlineStr"/>
       <c r="G2349" t="inlineStr"/>
       <c r="H2349" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2350">
       <c r="A2350" t="inlineStr">
         <is>
-          <t>02:15 PM</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B2350" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2350" t="inlineStr">
@@ -76184,7 +76202,7 @@
       <c r="D2350" t="inlineStr"/>
       <c r="E2350" t="inlineStr">
         <is>
-          <t>46.2</t>
+          <t>53.3</t>
         </is>
       </c>
       <c r="F2350" t="inlineStr"/>
@@ -76198,35 +76216,27 @@
     <row r="2351">
       <c r="A2351" t="inlineStr">
         <is>
-          <t>02:20 PM</t>
+          <t>02:15 PM</t>
         </is>
       </c>
       <c r="B2351" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2351" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>HCOB Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2351" t="inlineStr"/>
       <c r="E2351" t="inlineStr">
         <is>
-          <t>41.9</t>
-        </is>
-      </c>
-      <c r="F2351" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
-      <c r="G2351" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
+          <t>46.2</t>
+        </is>
+      </c>
+      <c r="F2351" t="inlineStr"/>
+      <c r="G2351" t="inlineStr"/>
       <c r="H2351" t="inlineStr">
         <is>
           <t>2</t>
@@ -76236,12 +76246,12 @@
     <row r="2352">
       <c r="A2352" t="inlineStr">
         <is>
-          <t>02:25 PM</t>
+          <t>02:20 PM</t>
         </is>
       </c>
       <c r="B2352" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2352" t="inlineStr">
@@ -76252,17 +76262,17 @@
       <c r="D2352" t="inlineStr"/>
       <c r="E2352" t="inlineStr">
         <is>
-          <t>42.5</t>
+          <t>41.9</t>
         </is>
       </c>
       <c r="F2352" t="inlineStr">
         <is>
-          <t>44.1</t>
+          <t>45.3</t>
         </is>
       </c>
       <c r="G2352" t="inlineStr">
         <is>
-          <t>44.1</t>
+          <t>45.3</t>
         </is>
       </c>
       <c r="H2352" t="inlineStr">
@@ -76274,12 +76284,12 @@
     <row r="2353">
       <c r="A2353" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>02:25 PM</t>
         </is>
       </c>
       <c r="B2353" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2353" t="inlineStr">
@@ -76290,17 +76300,17 @@
       <c r="D2353" t="inlineStr"/>
       <c r="E2353" t="inlineStr">
         <is>
-          <t>45.1</t>
+          <t>42.5</t>
         </is>
       </c>
       <c r="F2353" t="inlineStr">
         <is>
-          <t>46.1</t>
+          <t>44.1</t>
         </is>
       </c>
       <c r="G2353" t="inlineStr">
         <is>
-          <t>46.1</t>
+          <t>44.1</t>
         </is>
       </c>
       <c r="H2353" t="inlineStr">
@@ -76317,93 +76327,105 @@
       </c>
       <c r="B2354" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2354" t="inlineStr">
         <is>
-          <t>ABSA Manufacturing PMIJAN</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2354" t="inlineStr"/>
       <c r="E2354" t="inlineStr">
         <is>
-          <t>46.2</t>
-        </is>
-      </c>
-      <c r="F2354" t="inlineStr"/>
+          <t>45.1</t>
+        </is>
+      </c>
+      <c r="F2354" t="inlineStr">
+        <is>
+          <t>46.1</t>
+        </is>
+      </c>
       <c r="G2354" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>46.1</t>
         </is>
       </c>
       <c r="H2354" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2355">
       <c r="A2355" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2355" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2355" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
+          <t>ABSA Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2355" t="inlineStr"/>
       <c r="E2355" t="inlineStr">
         <is>
+          <t>46.2</t>
+        </is>
+      </c>
+      <c r="F2355" t="inlineStr"/>
+      <c r="G2355" t="inlineStr">
+        <is>
           <t>47</t>
         </is>
       </c>
-      <c r="F2355" t="inlineStr">
-        <is>
-          <t>48.2</t>
-        </is>
-      </c>
-      <c r="G2355" t="inlineStr">
-        <is>
-          <t>48.2</t>
-        </is>
-      </c>
       <c r="H2355" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2356">
       <c r="A2356" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B2356" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2356" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FlashJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2356" t="inlineStr"/>
-      <c r="E2356" t="inlineStr"/>
-      <c r="F2356" t="inlineStr"/>
-      <c r="G2356" t="inlineStr"/>
+      <c r="E2356" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="F2356" t="inlineStr">
+        <is>
+          <t>48.2</t>
+        </is>
+      </c>
+      <c r="G2356" t="inlineStr">
+        <is>
+          <t>48.2</t>
+        </is>
+      </c>
       <c r="H2356" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -76420,20 +76442,16 @@
       </c>
       <c r="C2357" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoY FlashJAN</t>
+          <t>Inflation Rate YoY FlashJAN</t>
         </is>
       </c>
       <c r="D2357" t="inlineStr"/>
-      <c r="E2357" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
+      <c r="E2357" t="inlineStr"/>
       <c r="F2357" t="inlineStr"/>
       <c r="G2357" t="inlineStr"/>
       <c r="H2357" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -76450,11 +76468,15 @@
       </c>
       <c r="C2358" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM FlashJAN</t>
+          <t>Core Inflation Rate YoY FlashJAN</t>
         </is>
       </c>
       <c r="D2358" t="inlineStr"/>
-      <c r="E2358" t="inlineStr"/>
+      <c r="E2358" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
       <c r="F2358" t="inlineStr"/>
       <c r="G2358" t="inlineStr"/>
       <c r="H2358" t="inlineStr">
@@ -76476,20 +76498,16 @@
       </c>
       <c r="C2359" t="inlineStr">
         <is>
-          <t>CPI FlashJAN</t>
+          <t>Inflation Rate MoM FlashJAN</t>
         </is>
       </c>
       <c r="D2359" t="inlineStr"/>
-      <c r="E2359" t="inlineStr">
-        <is>
-          <t>127.07</t>
-        </is>
-      </c>
+      <c r="E2359" t="inlineStr"/>
       <c r="F2359" t="inlineStr"/>
       <c r="G2359" t="inlineStr"/>
       <c r="H2359" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -76501,25 +76519,25 @@
       </c>
       <c r="B2360" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2360" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelJAN</t>
+          <t>CPI FlashJAN</t>
         </is>
       </c>
       <c r="D2360" t="inlineStr"/>
       <c r="E2360" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>127.07</t>
         </is>
       </c>
       <c r="F2360" t="inlineStr"/>
       <c r="G2360" t="inlineStr"/>
       <c r="H2360" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -76536,20 +76554,20 @@
       </c>
       <c r="C2361" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM PrelJAN</t>
+          <t>Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2361" t="inlineStr"/>
       <c r="E2361" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>1.3%</t>
         </is>
       </c>
       <c r="F2361" t="inlineStr"/>
       <c r="G2361" t="inlineStr"/>
       <c r="H2361" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -76566,7 +76584,7 @@
       </c>
       <c r="C2362" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM PrelJAN</t>
+          <t>Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2362" t="inlineStr"/>
@@ -76579,7 +76597,7 @@
       <c r="G2362" t="inlineStr"/>
       <c r="H2362" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -76596,13 +76614,13 @@
       </c>
       <c r="C2363" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY PrelJAN</t>
+          <t>Harmonised Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2363" t="inlineStr"/>
       <c r="E2363" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2363" t="inlineStr"/>
@@ -76621,26 +76639,22 @@
       </c>
       <c r="B2364" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2364" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesDEC</t>
+          <t>Harmonised Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2364" t="inlineStr"/>
       <c r="E2364" t="inlineStr">
         <is>
-          <t>$232.2B</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F2364" t="inlineStr"/>
-      <c r="G2364" t="inlineStr">
-        <is>
-          <t>$ 230B</t>
-        </is>
-      </c>
+      <c r="G2364" t="inlineStr"/>
       <c r="H2364" t="inlineStr">
         <is>
           <t>3</t>
@@ -76650,29 +76664,29 @@
     <row r="2365">
       <c r="A2365" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2365" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2365" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>Foreign Exchange ReservesDEC</t>
         </is>
       </c>
       <c r="D2365" t="inlineStr"/>
       <c r="E2365" t="inlineStr">
         <is>
-          <t>50.4</t>
+          <t>$232.2B</t>
         </is>
       </c>
       <c r="F2365" t="inlineStr"/>
       <c r="G2365" t="inlineStr">
         <is>
-          <t>49.8</t>
+          <t>$ 230B</t>
         </is>
       </c>
       <c r="H2365" t="inlineStr">
@@ -76689,24 +76703,24 @@
       </c>
       <c r="B2366" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2366" t="inlineStr">
         <is>
-          <t>SIPMM Manufacturing PMIJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2366" t="inlineStr"/>
       <c r="E2366" t="inlineStr">
         <is>
-          <t>51.1</t>
+          <t>50.4</t>
         </is>
       </c>
       <c r="F2366" t="inlineStr"/>
       <c r="G2366" t="inlineStr">
         <is>
-          <t>51.4</t>
+          <t>49.8</t>
         </is>
       </c>
       <c r="H2366" t="inlineStr">
@@ -76718,43 +76732,51 @@
     <row r="2367">
       <c r="A2367" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2367" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2367" t="inlineStr">
         <is>
-          <t>Fed Bostic Speech</t>
+          <t>SIPMM Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2367" t="inlineStr"/>
-      <c r="E2367" t="inlineStr"/>
+      <c r="E2367" t="inlineStr">
+        <is>
+          <t>51.1</t>
+        </is>
+      </c>
       <c r="F2367" t="inlineStr"/>
-      <c r="G2367" t="inlineStr"/>
+      <c r="G2367" t="inlineStr">
+        <is>
+          <t>51.4</t>
+        </is>
+      </c>
       <c r="H2367" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2368">
       <c r="A2368" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2368" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2368" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>Fed Bostic Speech</t>
         </is>
       </c>
       <c r="D2368" t="inlineStr"/>
@@ -76763,7 +76785,7 @@
       <c r="G2368" t="inlineStr"/>
       <c r="H2368" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -76780,7 +76802,7 @@
       </c>
       <c r="C2369" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>12-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2369" t="inlineStr"/>
@@ -76806,7 +76828,7 @@
       </c>
       <c r="C2370" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>3-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2370" t="inlineStr"/>
@@ -76822,65 +76844,53 @@
     <row r="2371">
       <c r="A2371" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2371" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2371" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2371" t="inlineStr"/>
-      <c r="E2371" t="inlineStr">
-        <is>
-          <t>52.2</t>
-        </is>
-      </c>
+      <c r="E2371" t="inlineStr"/>
       <c r="F2371" t="inlineStr"/>
       <c r="G2371" t="inlineStr"/>
       <c r="H2371" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2372">
       <c r="A2372" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B2372" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2372" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2372" t="inlineStr"/>
       <c r="E2372" t="inlineStr">
         <is>
-          <t>49.4</t>
-        </is>
-      </c>
-      <c r="F2372" t="inlineStr">
-        <is>
-          <t>50.1</t>
-        </is>
-      </c>
-      <c r="G2372" t="inlineStr">
-        <is>
-          <t>50.1</t>
-        </is>
-      </c>
+          <t>52.2</t>
+        </is>
+      </c>
+      <c r="F2372" t="inlineStr"/>
+      <c r="G2372" t="inlineStr"/>
       <c r="H2372" t="inlineStr">
         <is>
           <t>2</t>
@@ -76890,7 +76900,7 @@
     <row r="2373">
       <c r="A2373" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B2373" t="inlineStr">
@@ -76900,20 +76910,28 @@
       </c>
       <c r="C2373" t="inlineStr">
         <is>
-          <t>ISM Manufacturing PMIJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2373" t="inlineStr"/>
       <c r="E2373" t="inlineStr">
         <is>
-          <t>49.3</t>
-        </is>
-      </c>
-      <c r="F2373" t="inlineStr"/>
-      <c r="G2373" t="inlineStr"/>
+          <t>49.4</t>
+        </is>
+      </c>
+      <c r="F2373" t="inlineStr">
+        <is>
+          <t>50.1</t>
+        </is>
+      </c>
+      <c r="G2373" t="inlineStr">
+        <is>
+          <t>50.1</t>
+        </is>
+      </c>
       <c r="H2373" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -76930,20 +76948,20 @@
       </c>
       <c r="C2374" t="inlineStr">
         <is>
-          <t>ISM Manufacturing EmploymentJAN</t>
+          <t>ISM Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2374" t="inlineStr"/>
       <c r="E2374" t="inlineStr">
         <is>
-          <t>45.3</t>
+          <t>49.3</t>
         </is>
       </c>
       <c r="F2374" t="inlineStr"/>
       <c r="G2374" t="inlineStr"/>
       <c r="H2374" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -76960,24 +76978,20 @@
       </c>
       <c r="C2375" t="inlineStr">
         <is>
-          <t>Construction Spending MoMDEC</t>
+          <t>ISM Manufacturing EmploymentJAN</t>
         </is>
       </c>
       <c r="D2375" t="inlineStr"/>
       <c r="E2375" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>45.3</t>
         </is>
       </c>
       <c r="F2375" t="inlineStr"/>
-      <c r="G2375" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G2375" t="inlineStr"/>
       <c r="H2375" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -76994,13 +77008,21 @@
       </c>
       <c r="C2376" t="inlineStr">
         <is>
-          <t>ISM Manufacturing New OrdersJAN</t>
+          <t>Construction Spending MoMDEC</t>
         </is>
       </c>
       <c r="D2376" t="inlineStr"/>
-      <c r="E2376" t="inlineStr"/>
+      <c r="E2376" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
       <c r="F2376" t="inlineStr"/>
-      <c r="G2376" t="inlineStr"/>
+      <c r="G2376" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H2376" t="inlineStr">
         <is>
           <t>3</t>
@@ -77020,7 +77042,7 @@
       </c>
       <c r="C2377" t="inlineStr">
         <is>
-          <t>ISM Manufacturing PricesJAN</t>
+          <t>ISM Manufacturing New OrdersJAN</t>
         </is>
       </c>
       <c r="D2377" t="inlineStr"/>
@@ -77036,7 +77058,7 @@
     <row r="2378">
       <c r="A2378" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2378" t="inlineStr">
@@ -77046,7 +77068,7 @@
       </c>
       <c r="C2378" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>ISM Manufacturing PricesJAN</t>
         </is>
       </c>
       <c r="D2378" t="inlineStr"/>
@@ -77072,7 +77094,7 @@
       </c>
       <c r="C2379" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2379" t="inlineStr"/>
@@ -77086,97 +77108,93 @@
       </c>
     </row>
     <row r="2380">
-      <c r="A2380" t="inlineStr"/>
+      <c r="A2380" t="inlineStr">
+        <is>
+          <t>10:00 PM</t>
+        </is>
+      </c>
       <c r="B2380" t="inlineStr">
         <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2380" t="inlineStr">
+        <is>
+          <t>6-Month Bill Auction</t>
+        </is>
+      </c>
+      <c r="D2380" t="inlineStr"/>
+      <c r="E2380" t="inlineStr"/>
+      <c r="F2380" t="inlineStr"/>
+      <c r="G2380" t="inlineStr"/>
+      <c r="H2380" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2381">
+      <c r="A2381" t="inlineStr"/>
+      <c r="B2381" t="inlineStr">
+        <is>
           <t>ZA</t>
         </is>
       </c>
-      <c r="C2380" t="inlineStr">
+      <c r="C2381" t="inlineStr">
         <is>
           <t>Total New Vehicle SalesJAN</t>
         </is>
       </c>
-      <c r="D2380" t="inlineStr"/>
-      <c r="E2380" t="inlineStr">
+      <c r="D2381" t="inlineStr"/>
+      <c r="E2381" t="inlineStr">
         <is>
           <t>41.27K</t>
         </is>
       </c>
-      <c r="F2380" t="inlineStr"/>
-      <c r="G2380" t="inlineStr">
+      <c r="F2381" t="inlineStr"/>
+      <c r="G2381" t="inlineStr">
         <is>
           <t>43.0K</t>
         </is>
       </c>
-      <c r="H2380" t="inlineStr">
+      <c r="H2381" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-    </row>
-    <row r="2381">
-      <c r="A2381" t="inlineStr">
-        <is>
-          <t>Tuesday February 04 2025</t>
-        </is>
-      </c>
-      <c r="B2381" t="inlineStr"/>
-      <c r="C2381" t="inlineStr"/>
-      <c r="D2381" t="inlineStr"/>
-      <c r="E2381" t="inlineStr"/>
-      <c r="F2381" t="inlineStr"/>
-      <c r="G2381" t="inlineStr"/>
-      <c r="H2381" t="inlineStr"/>
     </row>
     <row r="2382">
       <c r="A2382" t="inlineStr">
         <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
-      <c r="B2382" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2382" t="inlineStr">
-        <is>
-          <t>Treasury Refunding Financing Estimates</t>
-        </is>
-      </c>
+          <t>Tuesday February 04 2025</t>
+        </is>
+      </c>
+      <c r="B2382" t="inlineStr"/>
+      <c r="C2382" t="inlineStr"/>
       <c r="D2382" t="inlineStr"/>
       <c r="E2382" t="inlineStr"/>
       <c r="F2382" t="inlineStr"/>
       <c r="G2382" t="inlineStr"/>
-      <c r="H2382" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H2382" t="inlineStr"/>
     </row>
     <row r="2383">
       <c r="A2383" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B2383" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2383" t="inlineStr">
         <is>
-          <t>Tax RevenueJAN</t>
+          <t>Treasury Refunding Financing Estimates</t>
         </is>
       </c>
       <c r="D2383" t="inlineStr"/>
-      <c r="E2383" t="inlineStr">
-        <is>
-          <t>ARS13015B</t>
-        </is>
-      </c>
+      <c r="E2383" t="inlineStr"/>
       <c r="F2383" t="inlineStr"/>
       <c r="G2383" t="inlineStr"/>
       <c r="H2383" t="inlineStr">
@@ -77188,23 +77206,23 @@
     <row r="2384">
       <c r="A2384" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>03:30 AM</t>
         </is>
       </c>
       <c r="B2384" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C2384" t="inlineStr">
         <is>
-          <t>10-Year JGB Auction</t>
+          <t>Tax RevenueJAN</t>
         </is>
       </c>
       <c r="D2384" t="inlineStr"/>
       <c r="E2384" t="inlineStr">
         <is>
-          <t>1.140%</t>
+          <t>ARS13015B</t>
         </is>
       </c>
       <c r="F2384" t="inlineStr"/>
@@ -77218,23 +77236,23 @@
     <row r="2385">
       <c r="A2385" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>09:05 AM</t>
         </is>
       </c>
       <c r="B2385" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2385" t="inlineStr">
         <is>
-          <t>Riyad Bank PMIJAN</t>
+          <t>10-Year JGB Auction</t>
         </is>
       </c>
       <c r="D2385" t="inlineStr"/>
       <c r="E2385" t="inlineStr">
         <is>
-          <t>58.4</t>
+          <t>1.140%</t>
         </is>
       </c>
       <c r="F2385" t="inlineStr"/>
@@ -77248,21 +77266,25 @@
     <row r="2386">
       <c r="A2386" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B2386" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C2386" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>Riyad Bank PMIJAN</t>
         </is>
       </c>
       <c r="D2386" t="inlineStr"/>
-      <c r="E2386" t="inlineStr"/>
+      <c r="E2386" t="inlineStr">
+        <is>
+          <t>58.4</t>
+        </is>
+      </c>
       <c r="F2386" t="inlineStr"/>
       <c r="G2386" t="inlineStr"/>
       <c r="H2386" t="inlineStr">
@@ -77284,7 +77306,7 @@
       </c>
       <c r="C2387" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D2387" t="inlineStr"/>
@@ -77305,23 +77327,49 @@
       </c>
       <c r="B2388" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2388" t="inlineStr">
         <is>
-          <t>30-Year KTB Auction</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D2388" t="inlineStr"/>
-      <c r="E2388" t="inlineStr">
-        <is>
-          <t>2.705%</t>
-        </is>
-      </c>
+      <c r="E2388" t="inlineStr"/>
       <c r="F2388" t="inlineStr"/>
       <c r="G2388" t="inlineStr"/>
       <c r="H2388" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2389">
+      <c r="A2389" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B2389" t="inlineStr">
+        <is>
+          <t>KR</t>
+        </is>
+      </c>
+      <c r="C2389" t="inlineStr">
+        <is>
+          <t>30-Year KTB Auction</t>
+        </is>
+      </c>
+      <c r="D2389" t="inlineStr"/>
+      <c r="E2389" t="inlineStr">
+        <is>
+          <t>2.705%</t>
+        </is>
+      </c>
+      <c r="F2389" t="inlineStr"/>
+      <c r="G2389" t="inlineStr"/>
+      <c r="H2389" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-04.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-04.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2389"/>
+  <dimension ref="A1:H2415"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70902,873 +70902,999 @@
     <row r="2181">
       <c r="A2181" t="inlineStr">
         <is>
-          <t>Thursday January 30 2025</t>
-        </is>
-      </c>
-      <c r="B2181" t="inlineStr"/>
-      <c r="C2181" t="inlineStr"/>
+          <t>01:30 PM</t>
+        </is>
+      </c>
+      <c r="B2181" t="inlineStr">
+        <is>
+          <t>ES</t>
+        </is>
+      </c>
+      <c r="C2181" t="inlineStr">
+        <is>
+          <t>Inflation Rate MoM PrelJAN</t>
+        </is>
+      </c>
       <c r="D2181" t="inlineStr"/>
-      <c r="E2181" t="inlineStr"/>
+      <c r="E2181" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="F2181" t="inlineStr"/>
-      <c r="G2181" t="inlineStr"/>
-      <c r="H2181" t="inlineStr"/>
+      <c r="G2181" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="H2181" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="2182">
       <c r="A2182" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2182" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2182" t="inlineStr">
         <is>
-          <t>Fed Interest Rate Decision</t>
+          <t>Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2182" t="inlineStr"/>
       <c r="E2182" t="inlineStr">
         <is>
-          <t>4.5%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="F2182" t="inlineStr">
         <is>
-          <t>4.5%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="G2182" t="inlineStr">
         <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="H2182" t="n">
-        <v>1</v>
+          <t>2.7%</t>
+        </is>
+      </c>
+      <c r="H2182" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2183">
       <c r="A2183" t="inlineStr">
         <is>
-          <t>01:00 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2183" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2183" t="inlineStr">
         <is>
-          <t>Fed Press Conference</t>
+          <t>Core Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2183" t="inlineStr"/>
-      <c r="E2183" t="inlineStr"/>
+      <c r="E2183" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="F2183" t="inlineStr"/>
-      <c r="G2183" t="inlineStr"/>
-      <c r="H2183" t="n">
-        <v>1</v>
+      <c r="G2183" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
+      <c r="H2183" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2184">
       <c r="A2184" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2184" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2184" t="inlineStr">
         <is>
-          <t>Interest Rate Decision</t>
+          <t>Harmonised Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2184" t="inlineStr"/>
       <c r="E2184" t="inlineStr">
         <is>
-          <t>12.25%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F2184" t="inlineStr"/>
       <c r="G2184" t="inlineStr">
         <is>
-          <t>12.25%</t>
-        </is>
-      </c>
-      <c r="H2184" t="n">
-        <v>2</v>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="H2184" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2185">
       <c r="A2185" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2185" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2185" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentJAN/25</t>
+          <t>Harmonised Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2185" t="inlineStr"/>
       <c r="E2185" t="inlineStr">
         <is>
-          <t>¥819.3B</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="F2185" t="inlineStr"/>
-      <c r="G2185" t="inlineStr"/>
-      <c r="H2185" t="n">
-        <v>3</v>
+      <c r="G2185" t="inlineStr">
+        <is>
+          <t>2.9%</t>
+        </is>
+      </c>
+      <c r="H2185" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2186">
       <c r="A2186" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2186" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2186" t="inlineStr">
         <is>
-          <t>Stock Investment by ForeignersJAN/25</t>
+          <t>GDP Growth Rate QoQ FlashQ4</t>
         </is>
       </c>
       <c r="D2186" t="inlineStr"/>
       <c r="E2186" t="inlineStr">
         <is>
-          <t>¥-66.1B</t>
-        </is>
-      </c>
-      <c r="F2186" t="inlineStr"/>
-      <c r="G2186" t="inlineStr"/>
-      <c r="H2186" t="n">
-        <v>3</v>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F2186" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="G2186" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="H2186" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="2187">
       <c r="A2187" t="inlineStr">
         <is>
-          <t>05:31 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2187" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2187" t="inlineStr">
         <is>
-          <t>Car Production YoYDEC</t>
+          <t>GDP Growth Rate YoY FlashQ4</t>
         </is>
       </c>
       <c r="D2187" t="inlineStr"/>
       <c r="E2187" t="inlineStr">
         <is>
-          <t>-30%</t>
-        </is>
-      </c>
-      <c r="F2187" t="inlineStr"/>
+          <t>-0.3%</t>
+        </is>
+      </c>
+      <c r="F2187" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
       <c r="G2187" t="inlineStr">
         <is>
-          <t>-20.0%</t>
-        </is>
-      </c>
-      <c r="H2187" t="n">
-        <v>3</v>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="H2187" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="2188">
       <c r="A2188" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2188" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2188" t="inlineStr">
         <is>
-          <t>RBA Bulletin</t>
+          <t>GDP Growth Rate QoQ AdvQ4</t>
         </is>
       </c>
       <c r="D2188" t="inlineStr"/>
-      <c r="E2188" t="inlineStr"/>
-      <c r="F2188" t="inlineStr"/>
-      <c r="G2188" t="inlineStr"/>
-      <c r="H2188" t="n">
-        <v>2</v>
+      <c r="E2188" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F2188" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="G2188" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="H2188" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="2189">
       <c r="A2189" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2189" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2189" t="inlineStr">
         <is>
-          <t>Export Prices QoQQ4</t>
+          <t>GDP Growth Rate YoY AdvQ4</t>
         </is>
       </c>
       <c r="D2189" t="inlineStr"/>
       <c r="E2189" t="inlineStr">
         <is>
-          <t>-4.3%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F2189" t="inlineStr"/>
       <c r="G2189" t="inlineStr">
         <is>
-          <t>-6.6%</t>
-        </is>
-      </c>
-      <c r="H2189" t="n">
-        <v>3</v>
+          <t>0.6%</t>
+        </is>
+      </c>
+      <c r="H2189" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="2190">
       <c r="A2190" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B2190" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2190" t="inlineStr">
         <is>
-          <t>Import Prices QoQQ4</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D2190" t="inlineStr"/>
       <c r="E2190" t="inlineStr">
         <is>
-          <t>-1.4%</t>
-        </is>
-      </c>
-      <c r="F2190" t="inlineStr">
-        <is>
-          <t>-1.5%</t>
-        </is>
-      </c>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F2190" t="inlineStr"/>
       <c r="G2190" t="inlineStr">
         <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="H2190" t="n">
-        <v>3</v>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="H2190" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2191">
       <c r="A2191" t="inlineStr">
         <is>
-          <t>08:50 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B2191" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2191" t="inlineStr">
         <is>
-          <t>RBA Jones Speech</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D2191" t="inlineStr"/>
-      <c r="E2191" t="inlineStr"/>
+      <c r="E2191" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
       <c r="F2191" t="inlineStr"/>
-      <c r="G2191" t="inlineStr"/>
-      <c r="H2191" t="n">
-        <v>2</v>
+      <c r="G2191" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="H2191" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2192">
       <c r="A2192" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B2192" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2192" t="inlineStr">
         <is>
-          <t>GDP Growth Rate YoY PrelQ4</t>
+          <t>BoE Consumer CreditDEC</t>
         </is>
       </c>
       <c r="D2192" t="inlineStr"/>
       <c r="E2192" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>£0.878B</t>
         </is>
       </c>
       <c r="F2192" t="inlineStr"/>
       <c r="G2192" t="inlineStr">
         <is>
-          <t>3.0%</t>
-        </is>
-      </c>
-      <c r="H2192" t="n">
-        <v>2</v>
+          <t>£ 1.3B</t>
+        </is>
+      </c>
+      <c r="H2192" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2193">
       <c r="A2193" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B2193" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2193" t="inlineStr">
         <is>
-          <t>M3 Money Supply YoYDEC</t>
+          <t>Mortgage ApprovalsDEC</t>
         </is>
       </c>
       <c r="D2193" t="inlineStr"/>
       <c r="E2193" t="inlineStr">
         <is>
-          <t>7.77%</t>
-        </is>
-      </c>
-      <c r="F2193" t="inlineStr"/>
-      <c r="G2193" t="inlineStr"/>
-      <c r="H2193" t="n">
-        <v>3</v>
+          <t>65.72K</t>
+        </is>
+      </c>
+      <c r="F2193" t="inlineStr">
+        <is>
+          <t>65K</t>
+        </is>
+      </c>
+      <c r="G2193" t="inlineStr">
+        <is>
+          <t>65.1K</t>
+        </is>
+      </c>
+      <c r="H2193" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2194">
       <c r="A2194" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B2194" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2194" t="inlineStr">
         <is>
-          <t>Private Sector Credit YoYDEC</t>
+          <t>Mortgage LendingDEC</t>
         </is>
       </c>
       <c r="D2194" t="inlineStr"/>
       <c r="E2194" t="inlineStr">
         <is>
-          <t>4.16%</t>
+          <t>£2.47B</t>
         </is>
       </c>
       <c r="F2194" t="inlineStr"/>
       <c r="G2194" t="inlineStr">
         <is>
-          <t>3.8%</t>
-        </is>
-      </c>
-      <c r="H2194" t="n">
-        <v>3</v>
+          <t>£ 2.2B</t>
+        </is>
+      </c>
+      <c r="H2194" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2195">
       <c r="A2195" t="inlineStr">
         <is>
-          <t>11:40 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B2195" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2195" t="inlineStr">
         <is>
-          <t>BoJ Himino Speech</t>
+          <t>M4 Money Supply MoMDEC</t>
         </is>
       </c>
       <c r="D2195" t="inlineStr"/>
-      <c r="E2195" t="inlineStr"/>
-      <c r="F2195" t="inlineStr"/>
-      <c r="G2195" t="inlineStr"/>
-      <c r="H2195" t="n">
-        <v>2</v>
+      <c r="E2195" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F2195" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="G2195" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="H2195" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2196">
       <c r="A2196" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B2196" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2196" t="inlineStr">
         <is>
-          <t>GDP Growth Rate QoQ PrelQ4</t>
+          <t>Net Lending to Individuals MoMDEC</t>
         </is>
       </c>
       <c r="D2196" t="inlineStr"/>
       <c r="E2196" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>£3.4B</t>
         </is>
       </c>
       <c r="F2196" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>£3.6B</t>
         </is>
       </c>
       <c r="G2196" t="inlineStr">
         <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="H2196" t="n">
-        <v>1</v>
+          <t>£3.5B</t>
+        </is>
+      </c>
+      <c r="H2196" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2197">
       <c r="A2197" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2197" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2197" t="inlineStr">
         <is>
-          <t>GDP Growth Rate YoY PrelQ4</t>
+          <t>GDP Growth Rate QoQ FlashQ4</t>
         </is>
       </c>
       <c r="D2197" t="inlineStr"/>
       <c r="E2197" t="inlineStr">
         <is>
-          <t>1.2%</t>
-        </is>
-      </c>
-      <c r="F2197" t="inlineStr"/>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="F2197" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="G2197" t="inlineStr">
         <is>
-          <t>1.1%</t>
-        </is>
-      </c>
-      <c r="H2197" t="n">
-        <v>2</v>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="H2197" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="2198">
       <c r="A2198" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2198" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2198" t="inlineStr">
         <is>
-          <t>Household Consumption MoMDEC</t>
+          <t>Unemployment RateDEC</t>
         </is>
       </c>
       <c r="D2198" t="inlineStr"/>
       <c r="E2198" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>6.3%</t>
         </is>
       </c>
       <c r="F2198" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>6.3%</t>
         </is>
       </c>
       <c r="G2198" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H2198" t="n">
-        <v>3</v>
+          <t>6.4%</t>
+        </is>
+      </c>
+      <c r="H2198" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="2199">
       <c r="A2199" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2199" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2199" t="inlineStr">
         <is>
-          <t>Import Prices MoMDEC</t>
+          <t>Consumer Confidence FinalJAN</t>
         </is>
       </c>
       <c r="D2199" t="inlineStr"/>
       <c r="E2199" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>-14.5</t>
         </is>
       </c>
       <c r="F2199" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G2199" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H2199" t="n">
-        <v>3</v>
+          <t>-14.2</t>
+        </is>
+      </c>
+      <c r="G2199" t="inlineStr"/>
+      <c r="H2199" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2200">
       <c r="A2200" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2200" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2200" t="inlineStr">
         <is>
-          <t>Import Prices YoYDEC</t>
+          <t>Economic SentimentJAN</t>
         </is>
       </c>
       <c r="D2200" t="inlineStr"/>
       <c r="E2200" t="inlineStr">
         <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="F2200" t="inlineStr"/>
+          <t>93.7</t>
+        </is>
+      </c>
+      <c r="F2200" t="inlineStr">
+        <is>
+          <t>93.3</t>
+        </is>
+      </c>
       <c r="G2200" t="inlineStr">
         <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="H2200" t="n">
-        <v>3</v>
+          <t>93.5</t>
+        </is>
+      </c>
+      <c r="H2200" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2201">
       <c r="A2201" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2201" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2201" t="inlineStr">
         <is>
-          <t>Economic Confidence IndexJAN</t>
+          <t>GDP Growth Rate YoY FlashQ4</t>
         </is>
       </c>
       <c r="D2201" t="inlineStr"/>
       <c r="E2201" t="inlineStr">
         <is>
-          <t>98.8</t>
-        </is>
-      </c>
-      <c r="F2201" t="inlineStr"/>
+          <t>0.9%</t>
+        </is>
+      </c>
+      <c r="F2201" t="inlineStr">
+        <is>
+          <t>1%</t>
+        </is>
+      </c>
       <c r="G2201" t="inlineStr">
         <is>
-          <t>98.3</t>
-        </is>
-      </c>
-      <c r="H2201" t="n">
-        <v>3</v>
+          <t>1.2%</t>
+        </is>
+      </c>
+      <c r="H2201" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2202">
       <c r="A2202" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2202" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2202" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM PrelJAN</t>
+          <t>Consumer Inflation ExpectationsJAN</t>
         </is>
       </c>
       <c r="D2202" t="inlineStr"/>
       <c r="E2202" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>21.0</t>
         </is>
       </c>
       <c r="F2202" t="inlineStr"/>
       <c r="G2202" t="inlineStr">
         <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="H2202" t="n">
-        <v>2</v>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="H2202" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2203">
       <c r="A2203" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2203" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2203" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelJAN</t>
+          <t>Industrial SentimentJAN</t>
         </is>
       </c>
       <c r="D2203" t="inlineStr"/>
       <c r="E2203" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F2203" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
+          <t>-14.1</t>
+        </is>
+      </c>
+      <c r="F2203" t="inlineStr"/>
       <c r="G2203" t="inlineStr">
         <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="H2203" t="n">
-        <v>2</v>
+          <t>-14.5</t>
+        </is>
+      </c>
+      <c r="H2203" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2204">
       <c r="A2204" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2204" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2204" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoY PrelJAN</t>
+          <t>Selling Price ExpectationsJAN</t>
         </is>
       </c>
       <c r="D2204" t="inlineStr"/>
       <c r="E2204" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>7.6</t>
         </is>
       </c>
       <c r="F2204" t="inlineStr"/>
       <c r="G2204" t="inlineStr">
         <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="H2204" t="n">
-        <v>3</v>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H2204" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2205">
       <c r="A2205" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2205" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2205" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM PrelJAN</t>
+          <t>Services SentimentJAN</t>
         </is>
       </c>
       <c r="D2205" t="inlineStr"/>
       <c r="E2205" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>5.9</t>
         </is>
       </c>
       <c r="F2205" t="inlineStr"/>
       <c r="G2205" t="inlineStr">
         <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="H2205" t="n">
-        <v>3</v>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H2205" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2206">
       <c r="A2206" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2206" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2206" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY PrelJAN</t>
+          <t>Unemployment RateDEC</t>
         </is>
       </c>
       <c r="D2206" t="inlineStr"/>
       <c r="E2206" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F2206" t="inlineStr"/>
+          <t>5.7%</t>
+        </is>
+      </c>
+      <c r="F2206" t="inlineStr">
+        <is>
+          <t>5.7%</t>
+        </is>
+      </c>
       <c r="G2206" t="inlineStr">
         <is>
-          <t>2.9%</t>
-        </is>
-      </c>
-      <c r="H2206" t="n">
-        <v>3</v>
+          <t>5.6%</t>
+        </is>
+      </c>
+      <c r="H2206" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="2207">
       <c r="A2207" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>03:40 PM</t>
         </is>
       </c>
       <c r="B2207" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2207" t="inlineStr">
         <is>
-          <t>GDP Growth Rate QoQ FlashQ4</t>
+          <t>BTP Auction</t>
         </is>
       </c>
       <c r="D2207" t="inlineStr"/>
-      <c r="E2207" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F2207" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="G2207" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="H2207" t="n">
-        <v>1</v>
+      <c r="E2207" t="inlineStr"/>
+      <c r="F2207" t="inlineStr"/>
+      <c r="G2207" t="inlineStr"/>
+      <c r="H2207" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2208">
       <c r="A2208" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B2208" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2208" t="inlineStr">
         <is>
-          <t>GDP Growth Rate YoY FlashQ4</t>
+          <t>IGP-M Inflation MoMJAN</t>
         </is>
       </c>
       <c r="D2208" t="inlineStr"/>
       <c r="E2208" t="inlineStr">
         <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="F2208" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
+          <t>0.94%</t>
+        </is>
+      </c>
+      <c r="F2208" t="inlineStr"/>
       <c r="G2208" t="inlineStr">
         <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="H2208" t="n">
-        <v>1</v>
+          <t>0.9%</t>
+        </is>
+      </c>
+      <c r="H2208" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2209">
       <c r="A2209" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B2209" t="inlineStr">
@@ -71778,33 +71904,31 @@
       </c>
       <c r="C2209" t="inlineStr">
         <is>
-          <t>GDP Growth Rate QoQ AdvQ4</t>
+          <t>Industrial Sales MoMNOV</t>
         </is>
       </c>
       <c r="D2209" t="inlineStr"/>
       <c r="E2209" t="inlineStr">
         <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F2209" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="F2209" t="inlineStr"/>
       <c r="G2209" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H2209" t="n">
-        <v>1</v>
+          <t>-0.2%</t>
+        </is>
+      </c>
+      <c r="H2209" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2210">
       <c r="A2210" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B2210" t="inlineStr">
@@ -71814,301 +71938,295 @@
       </c>
       <c r="C2210" t="inlineStr">
         <is>
-          <t>GDP Growth Rate YoY AdvQ4</t>
+          <t>Industrial Sales YoYNOV</t>
         </is>
       </c>
       <c r="D2210" t="inlineStr"/>
       <c r="E2210" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>-5.3%</t>
         </is>
       </c>
       <c r="F2210" t="inlineStr"/>
       <c r="G2210" t="inlineStr">
         <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="H2210" t="n">
-        <v>1</v>
+          <t>-5.1%</t>
+        </is>
+      </c>
+      <c r="H2210" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2211">
       <c r="A2211" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B2211" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2211" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>MPC Meeting Summary</t>
         </is>
       </c>
       <c r="D2211" t="inlineStr"/>
-      <c r="E2211" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
+      <c r="E2211" t="inlineStr"/>
       <c r="F2211" t="inlineStr"/>
-      <c r="G2211" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="H2211" t="n">
-        <v>3</v>
+      <c r="G2211" t="inlineStr"/>
+      <c r="H2211" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2212">
       <c r="A2212" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2212" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2212" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Foreign Exchange ReservesJAN/24</t>
         </is>
       </c>
       <c r="D2212" t="inlineStr"/>
       <c r="E2212" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>$96.79B</t>
         </is>
       </c>
       <c r="F2212" t="inlineStr"/>
-      <c r="G2212" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H2212" t="n">
-        <v>3</v>
+      <c r="G2212" t="inlineStr"/>
+      <c r="H2212" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2213">
       <c r="A2213" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2213" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2213" t="inlineStr">
         <is>
-          <t>BoE Consumer CreditDEC</t>
+          <t>CFIB Business BarometerJAN</t>
         </is>
       </c>
       <c r="D2213" t="inlineStr"/>
       <c r="E2213" t="inlineStr">
         <is>
-          <t>£0.878B</t>
+          <t>56.4</t>
         </is>
       </c>
       <c r="F2213" t="inlineStr"/>
       <c r="G2213" t="inlineStr">
         <is>
-          <t>£ 1.3B</t>
-        </is>
-      </c>
-      <c r="H2213" t="n">
-        <v>2</v>
+          <t>56.2</t>
+        </is>
+      </c>
+      <c r="H2213" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2214">
       <c r="A2214" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2214" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2214" t="inlineStr">
         <is>
-          <t>Mortgage ApprovalsDEC</t>
+          <t>GDP Growth Rate QoQ PrelQ4</t>
         </is>
       </c>
       <c r="D2214" t="inlineStr"/>
       <c r="E2214" t="inlineStr">
         <is>
-          <t>65.72K</t>
-        </is>
-      </c>
-      <c r="F2214" t="inlineStr">
-        <is>
-          <t>65K</t>
-        </is>
-      </c>
+          <t>1.1%</t>
+        </is>
+      </c>
+      <c r="F2214" t="inlineStr"/>
       <c r="G2214" t="inlineStr">
         <is>
-          <t>65.1K</t>
-        </is>
-      </c>
-      <c r="H2214" t="n">
-        <v>2</v>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="H2214" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2215">
       <c r="A2215" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2215" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2215" t="inlineStr">
         <is>
-          <t>Mortgage LendingDEC</t>
+          <t>GDP Growth Rate YoY PrelQ4</t>
         </is>
       </c>
       <c r="D2215" t="inlineStr"/>
       <c r="E2215" t="inlineStr">
         <is>
-          <t>£2.47B</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="F2215" t="inlineStr"/>
       <c r="G2215" t="inlineStr">
         <is>
-          <t>£ 2.2B</t>
-        </is>
-      </c>
-      <c r="H2215" t="n">
-        <v>2</v>
+          <t>1.2%</t>
+        </is>
+      </c>
+      <c r="H2215" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2216">
       <c r="A2216" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>05:45 PM</t>
         </is>
       </c>
       <c r="B2216" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2216" t="inlineStr">
         <is>
-          <t>M4 Money Supply MoMDEC</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D2216" t="inlineStr"/>
       <c r="E2216" t="inlineStr">
         <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F2216" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>-4.6</t>
+        </is>
+      </c>
+      <c r="F2216" t="inlineStr"/>
       <c r="G2216" t="inlineStr">
         <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="H2216" t="n">
-        <v>3</v>
+          <t>-5</t>
+        </is>
+      </c>
+      <c r="H2216" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2217">
       <c r="A2217" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2217" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2217" t="inlineStr">
         <is>
-          <t>Net Lending to Individuals MoMDEC</t>
+          <t>Interest Rate Decision</t>
         </is>
       </c>
       <c r="D2217" t="inlineStr"/>
       <c r="E2217" t="inlineStr">
         <is>
-          <t>£3.4B</t>
+          <t>7.75%</t>
         </is>
       </c>
       <c r="F2217" t="inlineStr">
         <is>
-          <t>£3.6B</t>
+          <t>7.50%</t>
         </is>
       </c>
       <c r="G2217" t="inlineStr">
         <is>
-          <t>£3.5B</t>
-        </is>
-      </c>
-      <c r="H2217" t="n">
-        <v>3</v>
+          <t>7.50%</t>
+        </is>
+      </c>
+      <c r="H2217" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2218">
       <c r="A2218" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2218" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2218" t="inlineStr">
         <is>
-          <t>GDP Growth Rate QoQ FlashQ4</t>
+          <t>Prime Overdraft Rate</t>
         </is>
       </c>
       <c r="D2218" t="inlineStr"/>
       <c r="E2218" t="inlineStr">
         <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F2218" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+          <t>11.25%</t>
+        </is>
+      </c>
+      <c r="F2218" t="inlineStr"/>
       <c r="G2218" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H2218" t="n">
-        <v>1</v>
+          <t>11.0%</t>
+        </is>
+      </c>
+      <c r="H2218" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2219">
       <c r="A2219" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>06:45 PM</t>
         </is>
       </c>
       <c r="B2219" t="inlineStr">
@@ -72118,33 +72236,35 @@
       </c>
       <c r="C2219" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>Deposit Facility Rate</t>
         </is>
       </c>
       <c r="D2219" t="inlineStr"/>
       <c r="E2219" t="inlineStr">
         <is>
-          <t>6.3%</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="F2219" t="inlineStr">
         <is>
-          <t>6.3%</t>
+          <t>2.75%</t>
         </is>
       </c>
       <c r="G2219" t="inlineStr">
         <is>
-          <t>6.4%</t>
-        </is>
-      </c>
-      <c r="H2219" t="n">
-        <v>1</v>
+          <t>2.75%</t>
+        </is>
+      </c>
+      <c r="H2219" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="2220">
       <c r="A2220" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>06:45 PM</t>
         </is>
       </c>
       <c r="B2220" t="inlineStr">
@@ -72154,29 +72274,35 @@
       </c>
       <c r="C2220" t="inlineStr">
         <is>
-          <t>Consumer Confidence FinalJAN</t>
+          <t>ECB Interest Rate Decision</t>
         </is>
       </c>
       <c r="D2220" t="inlineStr"/>
       <c r="E2220" t="inlineStr">
         <is>
-          <t>-14.5</t>
+          <t>3.15%</t>
         </is>
       </c>
       <c r="F2220" t="inlineStr">
         <is>
-          <t>-14.2</t>
-        </is>
-      </c>
-      <c r="G2220" t="inlineStr"/>
-      <c r="H2220" t="n">
-        <v>2</v>
+          <t>2.9%</t>
+        </is>
+      </c>
+      <c r="G2220" t="inlineStr">
+        <is>
+          <t>2.9%</t>
+        </is>
+      </c>
+      <c r="H2220" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="2221">
       <c r="A2221" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>06:45 PM</t>
         </is>
       </c>
       <c r="B2221" t="inlineStr">
@@ -72186,845 +72312,817 @@
       </c>
       <c r="C2221" t="inlineStr">
         <is>
-          <t>Economic SentimentJAN</t>
+          <t>Marginal Lending Rate</t>
         </is>
       </c>
       <c r="D2221" t="inlineStr"/>
       <c r="E2221" t="inlineStr">
         <is>
-          <t>93.7</t>
-        </is>
-      </c>
-      <c r="F2221" t="inlineStr">
-        <is>
-          <t>93.3</t>
-        </is>
-      </c>
+          <t>3.4%</t>
+        </is>
+      </c>
+      <c r="F2221" t="inlineStr"/>
       <c r="G2221" t="inlineStr">
         <is>
-          <t>93.5</t>
-        </is>
-      </c>
-      <c r="H2221" t="n">
-        <v>2</v>
+          <t>3.15%</t>
+        </is>
+      </c>
+      <c r="H2221" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2222">
       <c r="A2222" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2222" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2222" t="inlineStr">
         <is>
-          <t>GDP Growth Rate YoY FlashQ4</t>
+          <t>Average Weekly Earnings YoYNOV</t>
         </is>
       </c>
       <c r="D2222" t="inlineStr"/>
       <c r="E2222" t="inlineStr">
         <is>
-          <t>0.9%</t>
-        </is>
-      </c>
-      <c r="F2222" t="inlineStr">
-        <is>
-          <t>1%</t>
-        </is>
-      </c>
+          <t>5.3%</t>
+        </is>
+      </c>
+      <c r="F2222" t="inlineStr"/>
       <c r="G2222" t="inlineStr">
         <is>
-          <t>1.2%</t>
-        </is>
-      </c>
-      <c r="H2222" t="n">
-        <v>2</v>
+          <t>5.0%</t>
+        </is>
+      </c>
+      <c r="H2222" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2223">
       <c r="A2223" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2223" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2223" t="inlineStr">
         <is>
-          <t>Consumer Inflation ExpectationsJAN</t>
+          <t>GDP Growth Rate QoQ AdvQ4</t>
         </is>
       </c>
       <c r="D2223" t="inlineStr"/>
       <c r="E2223" t="inlineStr">
         <is>
-          <t>21.0</t>
-        </is>
-      </c>
-      <c r="F2223" t="inlineStr"/>
+          <t>3.1%</t>
+        </is>
+      </c>
+      <c r="F2223" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
       <c r="G2223" t="inlineStr">
         <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="H2223" t="n">
-        <v>3</v>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="H2223" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="2224">
       <c r="A2224" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2224" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2224" t="inlineStr">
         <is>
-          <t>Industrial SentimentJAN</t>
+          <t>GDP Price Index QoQ AdvQ4</t>
         </is>
       </c>
       <c r="D2224" t="inlineStr"/>
       <c r="E2224" t="inlineStr">
         <is>
-          <t>-14.1</t>
-        </is>
-      </c>
-      <c r="F2224" t="inlineStr"/>
+          <t>1.9%</t>
+        </is>
+      </c>
+      <c r="F2224" t="inlineStr">
+        <is>
+          <t>2.5%</t>
+        </is>
+      </c>
       <c r="G2224" t="inlineStr">
         <is>
-          <t>-14.5</t>
-        </is>
-      </c>
-      <c r="H2224" t="n">
-        <v>3</v>
+          <t>2.3%</t>
+        </is>
+      </c>
+      <c r="H2224" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2225">
       <c r="A2225" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2225" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2225" t="inlineStr">
         <is>
-          <t>Selling Price ExpectationsJAN</t>
+          <t>Initial Jobless ClaimsJAN/25</t>
         </is>
       </c>
       <c r="D2225" t="inlineStr"/>
       <c r="E2225" t="inlineStr">
         <is>
-          <t>7.6</t>
-        </is>
-      </c>
-      <c r="F2225" t="inlineStr"/>
+          <t>223K</t>
+        </is>
+      </c>
+      <c r="F2225" t="inlineStr">
+        <is>
+          <t>225K</t>
+        </is>
+      </c>
       <c r="G2225" t="inlineStr">
         <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="H2225" t="n">
-        <v>3</v>
+          <t>228.0K</t>
+        </is>
+      </c>
+      <c r="H2225" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2226">
       <c r="A2226" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2226" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2226" t="inlineStr">
         <is>
-          <t>Services SentimentJAN</t>
+          <t>Continuing Jobless ClaimsJAN/18</t>
         </is>
       </c>
       <c r="D2226" t="inlineStr"/>
       <c r="E2226" t="inlineStr">
         <is>
-          <t>5.9</t>
+          <t>1899K</t>
         </is>
       </c>
       <c r="F2226" t="inlineStr"/>
       <c r="G2226" t="inlineStr">
         <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="H2226" t="n">
-        <v>3</v>
+          <t>1885.0K</t>
+        </is>
+      </c>
+      <c r="H2226" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2227">
       <c r="A2227" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2227" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2227" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>Core PCE Prices QoQ AdvQ4</t>
         </is>
       </c>
       <c r="D2227" t="inlineStr"/>
       <c r="E2227" t="inlineStr">
         <is>
-          <t>5.7%</t>
-        </is>
-      </c>
-      <c r="F2227" t="inlineStr">
-        <is>
-          <t>5.7%</t>
-        </is>
-      </c>
+          <t>2.2%</t>
+        </is>
+      </c>
+      <c r="F2227" t="inlineStr"/>
       <c r="G2227" t="inlineStr">
         <is>
-          <t>5.6%</t>
-        </is>
-      </c>
-      <c r="H2227" t="n">
-        <v>1</v>
+          <t>1.9%</t>
+        </is>
+      </c>
+      <c r="H2227" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2228">
       <c r="A2228" t="inlineStr">
         <is>
-          <t>03:40 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2228" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2228" t="inlineStr">
         <is>
-          <t>BTP Auction</t>
+          <t>GDP Sales QoQ AdvQ4</t>
         </is>
       </c>
       <c r="D2228" t="inlineStr"/>
-      <c r="E2228" t="inlineStr"/>
+      <c r="E2228" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
       <c r="F2228" t="inlineStr"/>
-      <c r="G2228" t="inlineStr"/>
-      <c r="H2228" t="n">
-        <v>3</v>
+      <c r="G2228" t="inlineStr">
+        <is>
+          <t>2.9%</t>
+        </is>
+      </c>
+      <c r="H2228" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2229">
       <c r="A2229" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2229" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2229" t="inlineStr">
         <is>
-          <t>IGP-M Inflation MoMJAN</t>
+          <t>Jobless Claims 4-week AverageJAN/25</t>
         </is>
       </c>
       <c r="D2229" t="inlineStr"/>
       <c r="E2229" t="inlineStr">
         <is>
-          <t>0.94%</t>
+          <t>213.5K</t>
         </is>
       </c>
       <c r="F2229" t="inlineStr"/>
       <c r="G2229" t="inlineStr">
         <is>
-          <t>0.9%</t>
-        </is>
-      </c>
-      <c r="H2229" t="n">
-        <v>3</v>
+          <t>214.0K</t>
+        </is>
+      </c>
+      <c r="H2229" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2230">
       <c r="A2230" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2230" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2230" t="inlineStr">
         <is>
-          <t>Industrial Sales MoMNOV</t>
+          <t>PCE Prices QoQ AdvQ4</t>
         </is>
       </c>
       <c r="D2230" t="inlineStr"/>
       <c r="E2230" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="F2230" t="inlineStr"/>
       <c r="G2230" t="inlineStr">
         <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="H2230" t="n">
-        <v>3</v>
+          <t>1.1%</t>
+        </is>
+      </c>
+      <c r="H2230" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2231">
       <c r="A2231" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2231" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2231" t="inlineStr">
         <is>
-          <t>Industrial Sales YoYNOV</t>
+          <t>Real Consumer Spending QoQ AdvQ4</t>
         </is>
       </c>
       <c r="D2231" t="inlineStr"/>
       <c r="E2231" t="inlineStr">
         <is>
-          <t>-5.3%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="F2231" t="inlineStr"/>
       <c r="G2231" t="inlineStr">
         <is>
-          <t>-5.1%</t>
-        </is>
-      </c>
-      <c r="H2231" t="n">
-        <v>3</v>
+          <t>2.9%</t>
+        </is>
+      </c>
+      <c r="H2231" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2232">
       <c r="A2232" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>07:15 PM</t>
         </is>
       </c>
       <c r="B2232" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2232" t="inlineStr">
         <is>
-          <t>MPC Meeting Summary</t>
+          <t>ECB Press Conference</t>
         </is>
       </c>
       <c r="D2232" t="inlineStr"/>
       <c r="E2232" t="inlineStr"/>
       <c r="F2232" t="inlineStr"/>
       <c r="G2232" t="inlineStr"/>
-      <c r="H2232" t="n">
-        <v>2</v>
+      <c r="H2232" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="2233">
       <c r="A2233" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2233" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2233" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/24</t>
+          <t>Pending Home Sales MoMDEC</t>
         </is>
       </c>
       <c r="D2233" t="inlineStr"/>
       <c r="E2233" t="inlineStr">
         <is>
-          <t>$96.79B</t>
-        </is>
-      </c>
-      <c r="F2233" t="inlineStr"/>
-      <c r="G2233" t="inlineStr"/>
-      <c r="H2233" t="n">
-        <v>3</v>
+          <t>2.2%</t>
+        </is>
+      </c>
+      <c r="F2233" t="inlineStr">
+        <is>
+          <t>-0.9%</t>
+        </is>
+      </c>
+      <c r="G2233" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="H2233" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2234">
       <c r="A2234" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2234" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2234" t="inlineStr">
         <is>
-          <t>CFIB Business BarometerJAN</t>
+          <t>Pending Home Sales YoYDEC</t>
         </is>
       </c>
       <c r="D2234" t="inlineStr"/>
       <c r="E2234" t="inlineStr">
         <is>
-          <t>56.4</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="F2234" t="inlineStr"/>
       <c r="G2234" t="inlineStr">
         <is>
-          <t>56.2</t>
-        </is>
-      </c>
-      <c r="H2234" t="n">
-        <v>3</v>
+          <t>4.0%</t>
+        </is>
+      </c>
+      <c r="H2234" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2235">
       <c r="A2235" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B2235" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2235" t="inlineStr">
         <is>
-          <t>GDP Growth Rate QoQ PrelQ4</t>
+          <t>EIA Natural Gas Stocks ChangeJAN/24</t>
         </is>
       </c>
       <c r="D2235" t="inlineStr"/>
       <c r="E2235" t="inlineStr">
         <is>
-          <t>1.1%</t>
+          <t>-233Bcf</t>
         </is>
       </c>
       <c r="F2235" t="inlineStr"/>
-      <c r="G2235" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H2235" t="n">
-        <v>2</v>
+      <c r="G2235" t="inlineStr"/>
+      <c r="H2235" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2236">
       <c r="A2236" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B2236" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2236" t="inlineStr">
         <is>
-          <t>GDP Growth Rate YoY PrelQ4</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D2236" t="inlineStr"/>
       <c r="E2236" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>4.265%</t>
         </is>
       </c>
       <c r="F2236" t="inlineStr"/>
-      <c r="G2236" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
-      <c r="H2236" t="n">
-        <v>2</v>
+      <c r="G2236" t="inlineStr"/>
+      <c r="H2236" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2237">
       <c r="A2237" t="inlineStr">
         <is>
-          <t>05:45 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B2237" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2237" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="D2237" t="inlineStr"/>
       <c r="E2237" t="inlineStr">
         <is>
-          <t>-4.6</t>
+          <t>4.250%</t>
         </is>
       </c>
       <c r="F2237" t="inlineStr"/>
-      <c r="G2237" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="H2237" t="n">
-        <v>2</v>
+      <c r="G2237" t="inlineStr"/>
+      <c r="H2237" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2238">
       <c r="A2238" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B2238" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2238" t="inlineStr">
         <is>
-          <t>Interest Rate Decision</t>
+          <t>15-Year Mortgage RateJAN/30</t>
         </is>
       </c>
       <c r="D2238" t="inlineStr"/>
       <c r="E2238" t="inlineStr">
         <is>
-          <t>7.75%</t>
-        </is>
-      </c>
-      <c r="F2238" t="inlineStr">
-        <is>
-          <t>7.50%</t>
-        </is>
-      </c>
-      <c r="G2238" t="inlineStr">
-        <is>
-          <t>7.50%</t>
-        </is>
-      </c>
-      <c r="H2238" t="n">
-        <v>3</v>
+          <t>6.16%</t>
+        </is>
+      </c>
+      <c r="F2238" t="inlineStr"/>
+      <c r="G2238" t="inlineStr"/>
+      <c r="H2238" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2239">
       <c r="A2239" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B2239" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2239" t="inlineStr">
         <is>
-          <t>Prime Overdraft Rate</t>
+          <t>30-Year Mortgage RateJAN/30</t>
         </is>
       </c>
       <c r="D2239" t="inlineStr"/>
       <c r="E2239" t="inlineStr">
         <is>
-          <t>11.25%</t>
+          <t>6.96%</t>
         </is>
       </c>
       <c r="F2239" t="inlineStr"/>
-      <c r="G2239" t="inlineStr">
-        <is>
-          <t>11.0%</t>
-        </is>
-      </c>
-      <c r="H2239" t="n">
-        <v>3</v>
+      <c r="G2239" t="inlineStr"/>
+      <c r="H2239" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2240">
-      <c r="A2240" t="inlineStr">
-        <is>
-          <t>06:45 PM</t>
-        </is>
-      </c>
+      <c r="A2240" t="inlineStr"/>
       <c r="B2240" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2240" t="inlineStr">
         <is>
-          <t>Deposit Facility Rate</t>
+          <t>Budget BalanceDEC</t>
         </is>
       </c>
       <c r="D2240" t="inlineStr"/>
       <c r="E2240" t="inlineStr">
         <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="F2240" t="inlineStr">
-        <is>
-          <t>2.75%</t>
-        </is>
-      </c>
+          <t>ZAR-4.46B</t>
+        </is>
+      </c>
+      <c r="F2240" t="inlineStr"/>
       <c r="G2240" t="inlineStr">
         <is>
-          <t>2.75%</t>
-        </is>
-      </c>
-      <c r="H2240" t="n">
-        <v>1</v>
+          <t>ZAR14.0B</t>
+        </is>
+      </c>
+      <c r="H2240" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2241">
-      <c r="A2241" t="inlineStr">
-        <is>
-          <t>06:45 PM</t>
-        </is>
-      </c>
+      <c r="A2241" t="inlineStr"/>
       <c r="B2241" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C2241" t="inlineStr">
         <is>
-          <t>ECB Interest Rate Decision</t>
+          <t>M3 Money Supply YoYDEC</t>
         </is>
       </c>
       <c r="D2241" t="inlineStr"/>
       <c r="E2241" t="inlineStr">
         <is>
-          <t>3.15%</t>
-        </is>
-      </c>
-      <c r="F2241" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
+          <t>10.3%</t>
+        </is>
+      </c>
+      <c r="F2241" t="inlineStr"/>
       <c r="G2241" t="inlineStr">
         <is>
-          <t>2.9%</t>
-        </is>
-      </c>
-      <c r="H2241" t="n">
-        <v>1</v>
+          <t>10.6%</t>
+        </is>
+      </c>
+      <c r="H2241" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2242">
-      <c r="A2242" t="inlineStr">
-        <is>
-          <t>06:45 PM</t>
-        </is>
-      </c>
+      <c r="A2242" t="inlineStr"/>
       <c r="B2242" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C2242" t="inlineStr">
         <is>
-          <t>Marginal Lending Rate</t>
+          <t>Private Bank Lending YoYDEC</t>
         </is>
       </c>
       <c r="D2242" t="inlineStr"/>
       <c r="E2242" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>12.7%</t>
         </is>
       </c>
       <c r="F2242" t="inlineStr"/>
       <c r="G2242" t="inlineStr">
         <is>
-          <t>3.15%</t>
-        </is>
-      </c>
-      <c r="H2242" t="n">
-        <v>3</v>
+          <t>12.8%</t>
+        </is>
+      </c>
+      <c r="H2242" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2243">
-      <c r="A2243" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A2243" t="inlineStr"/>
       <c r="B2243" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2243" t="inlineStr">
         <is>
-          <t>Average Weekly Earnings YoYNOV</t>
+          <t>10-Year NTN-F Auction</t>
         </is>
       </c>
       <c r="D2243" t="inlineStr"/>
       <c r="E2243" t="inlineStr">
         <is>
-          <t>5.3%</t>
+          <t>15.1819%</t>
         </is>
       </c>
       <c r="F2243" t="inlineStr"/>
-      <c r="G2243" t="inlineStr">
-        <is>
-          <t>5.0%</t>
-        </is>
-      </c>
-      <c r="H2243" t="n">
-        <v>3</v>
+      <c r="G2243" t="inlineStr"/>
+      <c r="H2243" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2244">
-      <c r="A2244" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A2244" t="inlineStr"/>
       <c r="B2244" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2244" t="inlineStr">
         <is>
-          <t>GDP Growth Rate QoQ AdvQ4</t>
+          <t>2-Year LTN Auction</t>
         </is>
       </c>
       <c r="D2244" t="inlineStr"/>
       <c r="E2244" t="inlineStr">
         <is>
-          <t>3.1%</t>
-        </is>
-      </c>
-      <c r="F2244" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="G2244" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="H2244" t="n">
-        <v>1</v>
+          <t>15.2840%</t>
+        </is>
+      </c>
+      <c r="F2244" t="inlineStr"/>
+      <c r="G2244" t="inlineStr"/>
+      <c r="H2244" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2245">
-      <c r="A2245" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A2245" t="inlineStr"/>
       <c r="B2245" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2245" t="inlineStr">
         <is>
-          <t>GDP Price Index QoQ AdvQ4</t>
+          <t>Net PayrollsDEC</t>
         </is>
       </c>
       <c r="D2245" t="inlineStr"/>
       <c r="E2245" t="inlineStr">
         <is>
-          <t>1.9%</t>
-        </is>
-      </c>
-      <c r="F2245" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
+          <t>106.63K</t>
+        </is>
+      </c>
+      <c r="F2245" t="inlineStr"/>
       <c r="G2245" t="inlineStr">
         <is>
-          <t>2.3%</t>
-        </is>
-      </c>
-      <c r="H2245" t="n">
-        <v>2</v>
+          <t>90.0K</t>
+        </is>
+      </c>
+      <c r="H2245" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2246">
       <c r="A2246" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2246" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2246" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsJAN/25</t>
-        </is>
-      </c>
+          <t>Friday January 31 2025</t>
+        </is>
+      </c>
+      <c r="B2246" t="inlineStr"/>
+      <c r="C2246" t="inlineStr"/>
       <c r="D2246" t="inlineStr"/>
-      <c r="E2246" t="inlineStr">
-        <is>
-          <t>223K</t>
-        </is>
-      </c>
-      <c r="F2246" t="inlineStr">
-        <is>
-          <t>225K</t>
-        </is>
-      </c>
-      <c r="G2246" t="inlineStr">
-        <is>
-          <t>228.0K</t>
-        </is>
-      </c>
-      <c r="H2246" t="n">
-        <v>2</v>
-      </c>
+      <c r="E2246" t="inlineStr"/>
+      <c r="F2246" t="inlineStr"/>
+      <c r="G2246" t="inlineStr"/>
+      <c r="H2246" t="inlineStr"/>
     </row>
     <row r="2247">
       <c r="A2247" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B2247" t="inlineStr">
@@ -73034,611 +73132,721 @@
       </c>
       <c r="C2247" t="inlineStr">
         <is>
-          <t>Continuing Jobless ClaimsJAN/18</t>
+          <t>Fed Balance SheetJAN/29</t>
         </is>
       </c>
       <c r="D2247" t="inlineStr"/>
       <c r="E2247" t="inlineStr">
         <is>
-          <t>1899K</t>
+          <t>$6.88T</t>
         </is>
       </c>
       <c r="F2247" t="inlineStr"/>
-      <c r="G2247" t="inlineStr">
-        <is>
-          <t>1885.0K</t>
-        </is>
-      </c>
-      <c r="H2247" t="n">
-        <v>3</v>
+      <c r="G2247" t="inlineStr"/>
+      <c r="H2247" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2248">
       <c r="A2248" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2248" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2248" t="inlineStr">
         <is>
-          <t>Core PCE Prices QoQ AdvQ4</t>
+          <t>Unemployment RateDEC</t>
         </is>
       </c>
       <c r="D2248" t="inlineStr"/>
       <c r="E2248" t="inlineStr">
         <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="F2248" t="inlineStr"/>
+          <t>2.5%</t>
+        </is>
+      </c>
+      <c r="F2248" t="inlineStr">
+        <is>
+          <t>2.5%</t>
+        </is>
+      </c>
       <c r="G2248" t="inlineStr">
         <is>
-          <t>1.9%</t>
-        </is>
-      </c>
-      <c r="H2248" t="n">
-        <v>3</v>
+          <t>2.50%</t>
+        </is>
+      </c>
+      <c r="H2248" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2249">
       <c r="A2249" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2249" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2249" t="inlineStr">
         <is>
-          <t>GDP Sales QoQ AdvQ4</t>
+          <t>Jobs/applications ratioDEC</t>
         </is>
       </c>
       <c r="D2249" t="inlineStr"/>
       <c r="E2249" t="inlineStr">
         <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="F2249" t="inlineStr"/>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="F2249" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
       <c r="G2249" t="inlineStr">
         <is>
-          <t>2.9%</t>
-        </is>
-      </c>
-      <c r="H2249" t="n">
-        <v>3</v>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="H2249" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2250">
       <c r="A2250" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2250" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2250" t="inlineStr">
         <is>
-          <t>Jobless Claims 4-week AverageJAN/25</t>
+          <t>Tokyo Core CPI YoYJAN</t>
         </is>
       </c>
       <c r="D2250" t="inlineStr"/>
       <c r="E2250" t="inlineStr">
         <is>
-          <t>213.5K</t>
-        </is>
-      </c>
-      <c r="F2250" t="inlineStr"/>
+          <t>2.4%</t>
+        </is>
+      </c>
+      <c r="F2250" t="inlineStr">
+        <is>
+          <t>2.5%</t>
+        </is>
+      </c>
       <c r="G2250" t="inlineStr">
         <is>
-          <t>214.0K</t>
-        </is>
-      </c>
-      <c r="H2250" t="n">
-        <v>3</v>
+          <t>2.5%</t>
+        </is>
+      </c>
+      <c r="H2250" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2251">
       <c r="A2251" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2251" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2251" t="inlineStr">
         <is>
-          <t>PCE Prices QoQ AdvQ4</t>
+          <t>Tokyo CPI Ex Food and Energy YoYJAN</t>
         </is>
       </c>
       <c r="D2251" t="inlineStr"/>
       <c r="E2251" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>1.1%</t>
         </is>
       </c>
       <c r="F2251" t="inlineStr"/>
       <c r="G2251" t="inlineStr">
         <is>
-          <t>1.1%</t>
-        </is>
-      </c>
-      <c r="H2251" t="n">
-        <v>3</v>
+          <t>1.2%</t>
+        </is>
+      </c>
+      <c r="H2251" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2252">
       <c r="A2252" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2252" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2252" t="inlineStr">
         <is>
-          <t>Real Consumer Spending QoQ AdvQ4</t>
+          <t>Tokyo CPI YoYJAN</t>
         </is>
       </c>
       <c r="D2252" t="inlineStr"/>
       <c r="E2252" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="F2252" t="inlineStr"/>
       <c r="G2252" t="inlineStr">
         <is>
-          <t>2.9%</t>
-        </is>
-      </c>
-      <c r="H2252" t="n">
-        <v>3</v>
+          <t>3.1%</t>
+        </is>
+      </c>
+      <c r="H2252" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2253">
       <c r="A2253" t="inlineStr">
         <is>
-          <t>07:15 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B2253" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2253" t="inlineStr">
         <is>
-          <t>ECB Press Conference</t>
+          <t>Industrial Production MoM PrelDEC</t>
         </is>
       </c>
       <c r="D2253" t="inlineStr"/>
-      <c r="E2253" t="inlineStr"/>
-      <c r="F2253" t="inlineStr"/>
-      <c r="G2253" t="inlineStr"/>
-      <c r="H2253" t="n">
-        <v>1</v>
+      <c r="E2253" t="inlineStr">
+        <is>
+          <t>-2.2%</t>
+        </is>
+      </c>
+      <c r="F2253" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="G2253" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="H2253" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2254">
       <c r="A2254" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B2254" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2254" t="inlineStr">
         <is>
-          <t>Pending Home Sales MoMDEC</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="D2254" t="inlineStr"/>
       <c r="E2254" t="inlineStr">
         <is>
-          <t>2.2%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="F2254" t="inlineStr">
         <is>
-          <t>-0.9%</t>
+          <t>3.2%</t>
         </is>
       </c>
       <c r="G2254" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H2254" t="n">
-        <v>2</v>
+          <t>2%</t>
+        </is>
+      </c>
+      <c r="H2254" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2255">
       <c r="A2255" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B2255" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2255" t="inlineStr">
         <is>
-          <t>Pending Home Sales YoYDEC</t>
+          <t>Industrial Production YoY PrelDEC</t>
         </is>
       </c>
       <c r="D2255" t="inlineStr"/>
       <c r="E2255" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>-2.8%</t>
         </is>
       </c>
       <c r="F2255" t="inlineStr"/>
       <c r="G2255" t="inlineStr">
         <is>
-          <t>4.0%</t>
-        </is>
-      </c>
-      <c r="H2255" t="n">
-        <v>2</v>
+          <t>-1.6%</t>
+        </is>
+      </c>
+      <c r="H2255" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2256">
       <c r="A2256" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B2256" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2256" t="inlineStr">
         <is>
-          <t>EIA Natural Gas Stocks ChangeJAN/24</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D2256" t="inlineStr"/>
       <c r="E2256" t="inlineStr">
         <is>
-          <t>-233Bcf</t>
+          <t>1.8%</t>
         </is>
       </c>
       <c r="F2256" t="inlineStr"/>
-      <c r="G2256" t="inlineStr"/>
-      <c r="H2256" t="n">
-        <v>3</v>
+      <c r="G2256" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="H2256" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2257">
       <c r="A2257" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2257" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2257" t="inlineStr">
         <is>
-          <t>4-Week Bill Auction</t>
+          <t>PPI QoQQ4</t>
         </is>
       </c>
       <c r="D2257" t="inlineStr"/>
       <c r="E2257" t="inlineStr">
         <is>
-          <t>4.265%</t>
+          <t>0.9%</t>
         </is>
       </c>
       <c r="F2257" t="inlineStr"/>
-      <c r="G2257" t="inlineStr"/>
-      <c r="H2257" t="n">
-        <v>3</v>
+      <c r="G2257" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
+      <c r="H2257" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2258">
       <c r="A2258" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2258" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2258" t="inlineStr">
         <is>
-          <t>8-Week Bill Auction</t>
+          <t>Housing Credit MoMDEC</t>
         </is>
       </c>
       <c r="D2258" t="inlineStr"/>
       <c r="E2258" t="inlineStr">
         <is>
-          <t>4.250%</t>
-        </is>
-      </c>
-      <c r="F2258" t="inlineStr"/>
-      <c r="G2258" t="inlineStr"/>
-      <c r="H2258" t="n">
-        <v>3</v>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="F2258" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="G2258" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="H2258" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2259">
       <c r="A2259" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2259" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2259" t="inlineStr">
         <is>
-          <t>15-Year Mortgage RateJAN/30</t>
+          <t>PPI YoYQ4</t>
         </is>
       </c>
       <c r="D2259" t="inlineStr"/>
       <c r="E2259" t="inlineStr">
         <is>
-          <t>6.16%</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="F2259" t="inlineStr"/>
-      <c r="G2259" t="inlineStr"/>
-      <c r="H2259" t="n">
-        <v>3</v>
+      <c r="G2259" t="inlineStr">
+        <is>
+          <t>3.6%</t>
+        </is>
+      </c>
+      <c r="H2259" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2260">
       <c r="A2260" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2260" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2260" t="inlineStr">
         <is>
-          <t>30-Year Mortgage RateJAN/30</t>
+          <t>Private Sector Credit MoMDEC</t>
         </is>
       </c>
       <c r="D2260" t="inlineStr"/>
       <c r="E2260" t="inlineStr">
         <is>
-          <t>6.96%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F2260" t="inlineStr"/>
-      <c r="G2260" t="inlineStr"/>
-      <c r="H2260" t="n">
-        <v>3</v>
+      <c r="G2260" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="H2260" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2261">
-      <c r="A2261" t="inlineStr"/>
+      <c r="A2261" t="inlineStr">
+        <is>
+          <t>06:00 AM</t>
+        </is>
+      </c>
       <c r="B2261" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2261" t="inlineStr">
         <is>
-          <t>Budget BalanceDEC</t>
+          <t>Private Sector Credit YoYDEC</t>
         </is>
       </c>
       <c r="D2261" t="inlineStr"/>
       <c r="E2261" t="inlineStr">
         <is>
-          <t>ZAR-4.46B</t>
+          <t>6.2%</t>
         </is>
       </c>
       <c r="F2261" t="inlineStr"/>
       <c r="G2261" t="inlineStr">
         <is>
-          <t>ZAR14.0B</t>
-        </is>
-      </c>
-      <c r="H2261" t="n">
-        <v>3</v>
+          <t>5.7%</t>
+        </is>
+      </c>
+      <c r="H2261" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2262">
-      <c r="A2262" t="inlineStr"/>
+      <c r="A2262" t="inlineStr">
+        <is>
+          <t>07:30 AM</t>
+        </is>
+      </c>
       <c r="B2262" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2262" t="inlineStr">
         <is>
-          <t>M3 Money Supply YoYDEC</t>
+          <t>Bank LendingDEC</t>
         </is>
       </c>
       <c r="D2262" t="inlineStr"/>
       <c r="E2262" t="inlineStr">
         <is>
-          <t>10.3%</t>
+          <t>S$819.4B</t>
         </is>
       </c>
       <c r="F2262" t="inlineStr"/>
       <c r="G2262" t="inlineStr">
         <is>
-          <t>10.6%</t>
-        </is>
-      </c>
-      <c r="H2262" t="n">
-        <v>3</v>
+          <t>S$ 818.2B</t>
+        </is>
+      </c>
+      <c r="H2262" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2263">
-      <c r="A2263" t="inlineStr"/>
+      <c r="A2263" t="inlineStr">
+        <is>
+          <t>09:05 AM</t>
+        </is>
+      </c>
       <c r="B2263" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2263" t="inlineStr">
         <is>
-          <t>Private Bank Lending YoYDEC</t>
+          <t>2-Year JGB Auction</t>
         </is>
       </c>
       <c r="D2263" t="inlineStr"/>
       <c r="E2263" t="inlineStr">
         <is>
-          <t>12.7%</t>
+          <t>0.602%</t>
         </is>
       </c>
       <c r="F2263" t="inlineStr"/>
-      <c r="G2263" t="inlineStr">
-        <is>
-          <t>12.8%</t>
-        </is>
-      </c>
-      <c r="H2263" t="n">
-        <v>3</v>
+      <c r="G2263" t="inlineStr"/>
+      <c r="H2263" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2264">
-      <c r="A2264" t="inlineStr"/>
+      <c r="A2264" t="inlineStr">
+        <is>
+          <t>09:05 AM</t>
+        </is>
+      </c>
       <c r="B2264" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2264" t="inlineStr">
         <is>
-          <t>10-Year NTN-F Auction</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2264" t="inlineStr"/>
       <c r="E2264" t="inlineStr">
         <is>
-          <t>15.1819%</t>
+          <t>0.3657%</t>
         </is>
       </c>
       <c r="F2264" t="inlineStr"/>
       <c r="G2264" t="inlineStr"/>
-      <c r="H2264" t="n">
-        <v>3</v>
+      <c r="H2264" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2265">
-      <c r="A2265" t="inlineStr"/>
+      <c r="A2265" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
       <c r="B2265" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2265" t="inlineStr">
         <is>
-          <t>2-Year LTN Auction</t>
+          <t>Housing Starts YoYDEC</t>
         </is>
       </c>
       <c r="D2265" t="inlineStr"/>
       <c r="E2265" t="inlineStr">
         <is>
-          <t>15.2840%</t>
-        </is>
-      </c>
-      <c r="F2265" t="inlineStr"/>
-      <c r="G2265" t="inlineStr"/>
-      <c r="H2265" t="n">
-        <v>3</v>
+          <t>-1.8%</t>
+        </is>
+      </c>
+      <c r="F2265" t="inlineStr">
+        <is>
+          <t>-3.9%</t>
+        </is>
+      </c>
+      <c r="G2265" t="inlineStr">
+        <is>
+          <t>-3.3%</t>
+        </is>
+      </c>
+      <c r="H2265" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2266">
-      <c r="A2266" t="inlineStr"/>
+      <c r="A2266" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
       <c r="B2266" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2266" t="inlineStr">
         <is>
-          <t>Net PayrollsDEC</t>
+          <t>Construction Orders YoYDEC</t>
         </is>
       </c>
       <c r="D2266" t="inlineStr"/>
       <c r="E2266" t="inlineStr">
         <is>
-          <t>106.63K</t>
+          <t>-10.2%</t>
         </is>
       </c>
       <c r="F2266" t="inlineStr"/>
       <c r="G2266" t="inlineStr">
         <is>
-          <t>90.0K</t>
-        </is>
-      </c>
-      <c r="H2266" t="n">
-        <v>3</v>
+          <t>5.5%</t>
+        </is>
+      </c>
+      <c r="H2266" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2267">
       <c r="A2267" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2267" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2267" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Business ConfidenceQ4</t>
         </is>
       </c>
       <c r="D2267" t="inlineStr"/>
       <c r="E2267" t="inlineStr">
         <is>
-          <t>-0.6%</t>
-        </is>
-      </c>
-      <c r="F2267" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F2267" t="inlineStr"/>
       <c r="G2267" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H2267" t="n">
-        <v>2</v>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H2267" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2268">
@@ -73654,23 +73862,29 @@
       </c>
       <c r="C2268" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D2268" t="inlineStr"/>
       <c r="E2268" t="inlineStr">
         <is>
-          <t>2.5%</t>
-        </is>
-      </c>
-      <c r="F2268" t="inlineStr"/>
+          <t>-0.6%</t>
+        </is>
+      </c>
+      <c r="F2268" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
       <c r="G2268" t="inlineStr">
         <is>
-          <t>1.9%</t>
-        </is>
-      </c>
-      <c r="H2268" t="n">
-        <v>2</v>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="H2268" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2269">
@@ -73681,28 +73895,30 @@
       </c>
       <c r="B2269" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2269" t="inlineStr">
         <is>
-          <t>Balance of Trade FinalDEC</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="D2269" t="inlineStr"/>
       <c r="E2269" t="inlineStr">
         <is>
-          <t>$-7.46B</t>
+          <t>2.5%</t>
         </is>
       </c>
       <c r="F2269" t="inlineStr"/>
       <c r="G2269" t="inlineStr">
         <is>
-          <t>$-8.82B</t>
-        </is>
-      </c>
-      <c r="H2269" t="n">
-        <v>2</v>
+          <t>1.9%</t>
+        </is>
+      </c>
+      <c r="H2269" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2270">
@@ -73718,27 +73934,25 @@
       </c>
       <c r="C2270" t="inlineStr">
         <is>
-          <t>Exports FinalDEC</t>
+          <t>Balance of Trade FinalDEC</t>
         </is>
       </c>
       <c r="D2270" t="inlineStr"/>
       <c r="E2270" t="inlineStr">
         <is>
-          <t>$22.29B</t>
-        </is>
-      </c>
-      <c r="F2270" t="inlineStr">
-        <is>
-          <t>$23.46B</t>
-        </is>
-      </c>
+          <t>$-7.46B</t>
+        </is>
+      </c>
+      <c r="F2270" t="inlineStr"/>
       <c r="G2270" t="inlineStr">
         <is>
-          <t>$ 23.46B</t>
-        </is>
-      </c>
-      <c r="H2270" t="n">
-        <v>3</v>
+          <t>$-8.82B</t>
+        </is>
+      </c>
+      <c r="H2270" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2271">
@@ -73754,23 +73968,29 @@
       </c>
       <c r="C2271" t="inlineStr">
         <is>
-          <t>Imports FinalDEC</t>
+          <t>Exports FinalDEC</t>
         </is>
       </c>
       <c r="D2271" t="inlineStr"/>
       <c r="E2271" t="inlineStr">
         <is>
-          <t>$29.75B</t>
-        </is>
-      </c>
-      <c r="F2271" t="inlineStr"/>
+          <t>$22.29B</t>
+        </is>
+      </c>
+      <c r="F2271" t="inlineStr">
+        <is>
+          <t>$23.46B</t>
+        </is>
+      </c>
       <c r="G2271" t="inlineStr">
         <is>
-          <t>$32.29B</t>
-        </is>
-      </c>
-      <c r="H2271" t="n">
-        <v>3</v>
+          <t>$ 23.46B</t>
+        </is>
+      </c>
+      <c r="H2271" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2272">
@@ -73786,23 +74006,25 @@
       </c>
       <c r="C2272" t="inlineStr">
         <is>
-          <t>Tourism RevenuesQ4</t>
+          <t>Imports FinalDEC</t>
         </is>
       </c>
       <c r="D2272" t="inlineStr"/>
       <c r="E2272" t="inlineStr">
         <is>
-          <t>$23.22B</t>
+          <t>$29.75B</t>
         </is>
       </c>
       <c r="F2272" t="inlineStr"/>
       <c r="G2272" t="inlineStr">
         <is>
-          <t>$ 23.5B</t>
-        </is>
-      </c>
-      <c r="H2272" t="n">
-        <v>3</v>
+          <t>$32.29B</t>
+        </is>
+      </c>
+      <c r="H2272" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2273">
@@ -73813,28 +74035,30 @@
       </c>
       <c r="B2273" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2273" t="inlineStr">
         <is>
-          <t>Nationwide Housing Prices MoMJAN</t>
+          <t>Tourism RevenuesQ4</t>
         </is>
       </c>
       <c r="D2273" t="inlineStr"/>
       <c r="E2273" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>$23.22B</t>
         </is>
       </c>
       <c r="F2273" t="inlineStr"/>
       <c r="G2273" t="inlineStr">
         <is>
-          <t>0.9%</t>
-        </is>
-      </c>
-      <c r="H2273" t="n">
-        <v>2</v>
+          <t>$ 23.5B</t>
+        </is>
+      </c>
+      <c r="H2273" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2274">
@@ -73850,55 +74074,59 @@
       </c>
       <c r="C2274" t="inlineStr">
         <is>
-          <t>Nationwide Housing Prices YoYJAN</t>
+          <t>Nationwide Housing Prices MoMJAN</t>
         </is>
       </c>
       <c r="D2274" t="inlineStr"/>
       <c r="E2274" t="inlineStr">
         <is>
-          <t>4.7%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="F2274" t="inlineStr"/>
       <c r="G2274" t="inlineStr">
         <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="H2274" t="n">
-        <v>2</v>
+          <t>0.9%</t>
+        </is>
+      </c>
+      <c r="H2274" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2275">
       <c r="A2275" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2275" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2275" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelJAN</t>
+          <t>Nationwide Housing Prices YoYJAN</t>
         </is>
       </c>
       <c r="D2275" t="inlineStr"/>
       <c r="E2275" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>4.7%</t>
         </is>
       </c>
       <c r="F2275" t="inlineStr"/>
       <c r="G2275" t="inlineStr">
         <is>
-          <t>1.5%</t>
-        </is>
-      </c>
-      <c r="H2275" t="n">
-        <v>1</v>
+          <t>3.3%</t>
+        </is>
+      </c>
+      <c r="H2275" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2276">
@@ -73914,27 +74142,25 @@
       </c>
       <c r="C2276" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM PrelJAN</t>
+          <t>Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2276" t="inlineStr"/>
       <c r="E2276" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F2276" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
+          <t>1.3%</t>
+        </is>
+      </c>
+      <c r="F2276" t="inlineStr"/>
       <c r="G2276" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H2276" t="n">
-        <v>2</v>
+          <t>1.5%</t>
+        </is>
+      </c>
+      <c r="H2276" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="2277">
@@ -73950,7 +74176,7 @@
       </c>
       <c r="C2277" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM PrelJAN</t>
+          <t>Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2277" t="inlineStr"/>
@@ -73959,14 +74185,20 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="F2277" t="inlineStr"/>
+      <c r="F2277" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
       <c r="G2277" t="inlineStr">
         <is>
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2277" t="n">
-        <v>3</v>
+      <c r="H2277" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2278">
@@ -73982,23 +74214,25 @@
       </c>
       <c r="C2278" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY PrelJAN</t>
+          <t>Harmonised Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2278" t="inlineStr"/>
       <c r="E2278" t="inlineStr">
         <is>
-          <t>1.8%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F2278" t="inlineStr"/>
       <c r="G2278" t="inlineStr">
         <is>
-          <t>2.0%</t>
-        </is>
-      </c>
-      <c r="H2278" t="n">
-        <v>3</v>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="H2278" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2279">
@@ -74014,23 +74248,25 @@
       </c>
       <c r="C2279" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Harmonised Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2279" t="inlineStr"/>
       <c r="E2279" t="inlineStr">
         <is>
-          <t>3.2%</t>
+          <t>1.8%</t>
         </is>
       </c>
       <c r="F2279" t="inlineStr"/>
       <c r="G2279" t="inlineStr">
         <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H2279" t="n">
-        <v>3</v>
+          <t>2.0%</t>
+        </is>
+      </c>
+      <c r="H2279" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2280">
@@ -74046,55 +74282,59 @@
       </c>
       <c r="C2280" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D2280" t="inlineStr"/>
       <c r="E2280" t="inlineStr">
         <is>
-          <t>-5.2%</t>
+          <t>3.2%</t>
         </is>
       </c>
       <c r="F2280" t="inlineStr"/>
       <c r="G2280" t="inlineStr">
         <is>
-          <t>-4.3%</t>
-        </is>
-      </c>
-      <c r="H2280" t="n">
-        <v>3</v>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="H2280" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2281">
       <c r="A2281" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2281" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2281" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D2281" t="inlineStr"/>
       <c r="E2281" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>-5.2%</t>
         </is>
       </c>
       <c r="F2281" t="inlineStr"/>
       <c r="G2281" t="inlineStr">
         <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="H2281" t="n">
-        <v>3</v>
+          <t>-4.3%</t>
+        </is>
+      </c>
+      <c r="H2281" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2282">
@@ -74110,23 +74350,25 @@
       </c>
       <c r="C2282" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D2282" t="inlineStr"/>
       <c r="E2282" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>-0.6%</t>
         </is>
       </c>
       <c r="F2282" t="inlineStr"/>
       <c r="G2282" t="inlineStr">
         <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H2282" t="n">
-        <v>3</v>
+          <t>0.6%</t>
+        </is>
+      </c>
+      <c r="H2282" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2283">
@@ -74137,60 +74379,60 @@
       </c>
       <c r="B2283" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2283" t="inlineStr">
         <is>
-          <t>Tourist Arrivals YoYDEC</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="D2283" t="inlineStr"/>
       <c r="E2283" t="inlineStr">
         <is>
-          <t>8.25%</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="F2283" t="inlineStr"/>
-      <c r="G2283" t="inlineStr"/>
-      <c r="H2283" t="n">
-        <v>3</v>
+      <c r="G2283" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="H2283" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2284">
       <c r="A2284" t="inlineStr">
         <is>
-          <t>02:25 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2284" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2284" t="inlineStr">
         <is>
-          <t>Unemployment ChangeJAN</t>
+          <t>Tourist Arrivals YoYDEC</t>
         </is>
       </c>
       <c r="D2284" t="inlineStr"/>
       <c r="E2284" t="inlineStr">
         <is>
-          <t>10K</t>
-        </is>
-      </c>
-      <c r="F2284" t="inlineStr">
-        <is>
-          <t>15K</t>
-        </is>
-      </c>
-      <c r="G2284" t="inlineStr">
-        <is>
-          <t>7.0K</t>
-        </is>
-      </c>
-      <c r="H2284" t="n">
-        <v>1</v>
+          <t>8.25%</t>
+        </is>
+      </c>
+      <c r="F2284" t="inlineStr"/>
+      <c r="G2284" t="inlineStr"/>
+      <c r="H2284" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2285">
@@ -74206,23 +74448,29 @@
       </c>
       <c r="C2285" t="inlineStr">
         <is>
-          <t>Unemployed PersonsJAN</t>
+          <t>Unemployment ChangeJAN</t>
         </is>
       </c>
       <c r="D2285" t="inlineStr"/>
       <c r="E2285" t="inlineStr">
         <is>
-          <t>2.869M</t>
-        </is>
-      </c>
-      <c r="F2285" t="inlineStr"/>
+          <t>10K</t>
+        </is>
+      </c>
+      <c r="F2285" t="inlineStr">
+        <is>
+          <t>15K</t>
+        </is>
+      </c>
       <c r="G2285" t="inlineStr">
         <is>
-          <t>2.876M</t>
-        </is>
-      </c>
-      <c r="H2285" t="n">
-        <v>2</v>
+          <t>7.0K</t>
+        </is>
+      </c>
+      <c r="H2285" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="2286">
@@ -74238,51 +74486,63 @@
       </c>
       <c r="C2286" t="inlineStr">
         <is>
-          <t>Unemployment RateJAN</t>
+          <t>Unemployed PersonsJAN</t>
         </is>
       </c>
       <c r="D2286" t="inlineStr"/>
       <c r="E2286" t="inlineStr">
         <is>
-          <t>6.1%</t>
-        </is>
-      </c>
-      <c r="F2286" t="inlineStr">
-        <is>
-          <t>6.2%</t>
-        </is>
-      </c>
+          <t>2.869M</t>
+        </is>
+      </c>
+      <c r="F2286" t="inlineStr"/>
       <c r="G2286" t="inlineStr">
         <is>
-          <t>6.2%</t>
-        </is>
-      </c>
-      <c r="H2286" t="n">
-        <v>2</v>
+          <t>2.876M</t>
+        </is>
+      </c>
+      <c r="H2286" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2287">
       <c r="A2287" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>02:25 PM</t>
         </is>
       </c>
       <c r="B2287" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2287" t="inlineStr">
         <is>
-          <t>ECB Survey of Professional Forecasters</t>
+          <t>Unemployment RateJAN</t>
         </is>
       </c>
       <c r="D2287" t="inlineStr"/>
-      <c r="E2287" t="inlineStr"/>
-      <c r="F2287" t="inlineStr"/>
-      <c r="G2287" t="inlineStr"/>
-      <c r="H2287" t="n">
-        <v>2</v>
+      <c r="E2287" t="inlineStr">
+        <is>
+          <t>6.1%</t>
+        </is>
+      </c>
+      <c r="F2287" t="inlineStr">
+        <is>
+          <t>6.2%</t>
+        </is>
+      </c>
+      <c r="G2287" t="inlineStr">
+        <is>
+          <t>6.2%</t>
+        </is>
+      </c>
+      <c r="H2287" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2288">
@@ -74293,24 +74553,22 @@
       </c>
       <c r="B2288" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2288" t="inlineStr">
         <is>
-          <t>Baden Wuerttemberg CPI MoMJAN</t>
+          <t>ECB Survey of Professional Forecasters</t>
         </is>
       </c>
       <c r="D2288" t="inlineStr"/>
-      <c r="E2288" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="E2288" t="inlineStr"/>
       <c r="F2288" t="inlineStr"/>
       <c r="G2288" t="inlineStr"/>
-      <c r="H2288" t="n">
-        <v>3</v>
+      <c r="H2288" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2289">
@@ -74326,19 +74584,21 @@
       </c>
       <c r="C2289" t="inlineStr">
         <is>
-          <t>Baden Wuerttemberg CPI YoYJAN</t>
+          <t>Baden Wuerttemberg CPI MoMJAN</t>
         </is>
       </c>
       <c r="D2289" t="inlineStr"/>
       <c r="E2289" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F2289" t="inlineStr"/>
       <c r="G2289" t="inlineStr"/>
-      <c r="H2289" t="n">
-        <v>3</v>
+      <c r="H2289" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2290">
@@ -74354,19 +74614,21 @@
       </c>
       <c r="C2290" t="inlineStr">
         <is>
-          <t>Bavaria CPI MoMJAN</t>
+          <t>Baden Wuerttemberg CPI YoYJAN</t>
         </is>
       </c>
       <c r="D2290" t="inlineStr"/>
       <c r="E2290" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F2290" t="inlineStr"/>
       <c r="G2290" t="inlineStr"/>
-      <c r="H2290" t="n">
-        <v>3</v>
+      <c r="H2290" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2291">
@@ -74382,19 +74644,21 @@
       </c>
       <c r="C2291" t="inlineStr">
         <is>
-          <t>Bavaria CPI YoYJAN</t>
+          <t>Bavaria CPI MoMJAN</t>
         </is>
       </c>
       <c r="D2291" t="inlineStr"/>
       <c r="E2291" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F2291" t="inlineStr"/>
       <c r="G2291" t="inlineStr"/>
-      <c r="H2291" t="n">
-        <v>3</v>
+      <c r="H2291" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2292">
@@ -74410,19 +74674,21 @@
       </c>
       <c r="C2292" t="inlineStr">
         <is>
-          <t>Brandenburg CPI MoMJAN</t>
+          <t>Bavaria CPI YoYJAN</t>
         </is>
       </c>
       <c r="D2292" t="inlineStr"/>
       <c r="E2292" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="F2292" t="inlineStr"/>
       <c r="G2292" t="inlineStr"/>
-      <c r="H2292" t="n">
-        <v>3</v>
+      <c r="H2292" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2293">
@@ -74438,19 +74704,21 @@
       </c>
       <c r="C2293" t="inlineStr">
         <is>
-          <t>Brandenburg CPI YoYJAN</t>
+          <t>Brandenburg CPI MoMJAN</t>
         </is>
       </c>
       <c r="D2293" t="inlineStr"/>
       <c r="E2293" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F2293" t="inlineStr"/>
       <c r="G2293" t="inlineStr"/>
-      <c r="H2293" t="n">
-        <v>3</v>
+      <c r="H2293" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2294">
@@ -74466,19 +74734,21 @@
       </c>
       <c r="C2294" t="inlineStr">
         <is>
-          <t>Hesse CPI MoMJAN</t>
+          <t>Brandenburg CPI YoYJAN</t>
         </is>
       </c>
       <c r="D2294" t="inlineStr"/>
       <c r="E2294" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F2294" t="inlineStr"/>
       <c r="G2294" t="inlineStr"/>
-      <c r="H2294" t="n">
-        <v>3</v>
+      <c r="H2294" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2295">
@@ -74494,19 +74764,21 @@
       </c>
       <c r="C2295" t="inlineStr">
         <is>
-          <t>Hesse CPI YoYJAN</t>
+          <t>Hesse CPI MoMJAN</t>
         </is>
       </c>
       <c r="D2295" t="inlineStr"/>
       <c r="E2295" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F2295" t="inlineStr"/>
       <c r="G2295" t="inlineStr"/>
-      <c r="H2295" t="n">
-        <v>3</v>
+      <c r="H2295" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2296">
@@ -74522,19 +74794,21 @@
       </c>
       <c r="C2296" t="inlineStr">
         <is>
-          <t>North Rhine Westphalia CPI MoMJAN</t>
+          <t>Hesse CPI YoYJAN</t>
         </is>
       </c>
       <c r="D2296" t="inlineStr"/>
       <c r="E2296" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F2296" t="inlineStr"/>
       <c r="G2296" t="inlineStr"/>
-      <c r="H2296" t="n">
-        <v>3</v>
+      <c r="H2296" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2297">
@@ -74550,19 +74824,21 @@
       </c>
       <c r="C2297" t="inlineStr">
         <is>
-          <t>North Rhine Westphalia CPI YoYJAN</t>
+          <t>North Rhine Westphalia CPI MoMJAN</t>
         </is>
       </c>
       <c r="D2297" t="inlineStr"/>
       <c r="E2297" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F2297" t="inlineStr"/>
       <c r="G2297" t="inlineStr"/>
-      <c r="H2297" t="n">
-        <v>3</v>
+      <c r="H2297" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2298">
@@ -74578,19 +74854,21 @@
       </c>
       <c r="C2298" t="inlineStr">
         <is>
-          <t>Saxony CPI MoMJAN</t>
+          <t>North Rhine Westphalia CPI YoYJAN</t>
         </is>
       </c>
       <c r="D2298" t="inlineStr"/>
       <c r="E2298" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>2.5%</t>
         </is>
       </c>
       <c r="F2298" t="inlineStr"/>
       <c r="G2298" t="inlineStr"/>
-      <c r="H2298" t="n">
-        <v>3</v>
+      <c r="H2298" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2299">
@@ -74606,19 +74884,21 @@
       </c>
       <c r="C2299" t="inlineStr">
         <is>
-          <t>Saxony CPI YoYJAN</t>
+          <t>Saxony CPI MoMJAN</t>
         </is>
       </c>
       <c r="D2299" t="inlineStr"/>
       <c r="E2299" t="inlineStr">
         <is>
-          <t>3.2%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F2299" t="inlineStr"/>
       <c r="G2299" t="inlineStr"/>
-      <c r="H2299" t="n">
-        <v>3</v>
+      <c r="H2299" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2300">
@@ -74629,60 +74909,60 @@
       </c>
       <c r="B2300" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2300" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>Saxony CPI YoYJAN</t>
         </is>
       </c>
       <c r="D2300" t="inlineStr"/>
       <c r="E2300" t="inlineStr">
         <is>
-          <t>€4.9B</t>
+          <t>3.2%</t>
         </is>
       </c>
       <c r="F2300" t="inlineStr"/>
-      <c r="G2300" t="inlineStr">
-        <is>
-          <t>€5.0B</t>
-        </is>
-      </c>
-      <c r="H2300" t="n">
-        <v>3</v>
+      <c r="G2300" t="inlineStr"/>
+      <c r="H2300" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2301">
       <c r="A2301" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2301" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2301" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Current AccountNOV</t>
         </is>
       </c>
       <c r="D2301" t="inlineStr"/>
       <c r="E2301" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>€4.9B</t>
         </is>
       </c>
       <c r="F2301" t="inlineStr"/>
       <c r="G2301" t="inlineStr">
         <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="H2301" t="n">
-        <v>3</v>
+          <t>€5.0B</t>
+        </is>
+      </c>
+      <c r="H2301" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2302">
@@ -74698,87 +74978,93 @@
       </c>
       <c r="C2302" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D2302" t="inlineStr"/>
       <c r="E2302" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="F2302" t="inlineStr"/>
       <c r="G2302" t="inlineStr">
         <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H2302" t="n">
-        <v>3</v>
+          <t>0.6%</t>
+        </is>
+      </c>
+      <c r="H2302" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2303">
       <c r="A2303" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2303" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2303" t="inlineStr">
         <is>
-          <t>Government Budget ValueDEC</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D2303" t="inlineStr"/>
       <c r="E2303" t="inlineStr">
         <is>
-          <t>INR-8465.9B</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="F2303" t="inlineStr"/>
       <c r="G2303" t="inlineStr">
         <is>
-          <t>INR-9700.0B</t>
-        </is>
-      </c>
-      <c r="H2303" t="n">
-        <v>3</v>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="H2303" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2304">
       <c r="A2304" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B2304" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2304" t="inlineStr">
         <is>
-          <t>Gross Debt to GDPDEC</t>
+          <t>Government Budget ValueDEC</t>
         </is>
       </c>
       <c r="D2304" t="inlineStr"/>
       <c r="E2304" t="inlineStr">
         <is>
-          <t>77.7%</t>
+          <t>INR-8465.9B</t>
         </is>
       </c>
       <c r="F2304" t="inlineStr"/>
       <c r="G2304" t="inlineStr">
         <is>
-          <t>77.9%</t>
-        </is>
-      </c>
-      <c r="H2304" t="n">
-        <v>3</v>
+          <t>INR-9700.0B</t>
+        </is>
+      </c>
+      <c r="H2304" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2305">
@@ -74794,23 +75080,25 @@
       </c>
       <c r="C2305" t="inlineStr">
         <is>
-          <t>Nominal Budget BalanceDEC</t>
+          <t>Gross Debt to GDPDEC</t>
         </is>
       </c>
       <c r="D2305" t="inlineStr"/>
       <c r="E2305" t="inlineStr">
         <is>
-          <t>BRL-99.1B</t>
+          <t>77.7%</t>
         </is>
       </c>
       <c r="F2305" t="inlineStr"/>
       <c r="G2305" t="inlineStr">
         <is>
-          <t>BRL-103.0B</t>
-        </is>
-      </c>
-      <c r="H2305" t="n">
-        <v>3</v>
+          <t>77.9%</t>
+        </is>
+      </c>
+      <c r="H2305" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2306">
@@ -74821,24 +75109,30 @@
       </c>
       <c r="B2306" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2306" t="inlineStr">
         <is>
-          <t>Bank Loan Growth YoYJAN/17</t>
+          <t>Nominal Budget BalanceDEC</t>
         </is>
       </c>
       <c r="D2306" t="inlineStr"/>
       <c r="E2306" t="inlineStr">
         <is>
-          <t>11.2%</t>
+          <t>BRL-99.1B</t>
         </is>
       </c>
       <c r="F2306" t="inlineStr"/>
-      <c r="G2306" t="inlineStr"/>
-      <c r="H2306" t="n">
-        <v>3</v>
+      <c r="G2306" t="inlineStr">
+        <is>
+          <t>BRL-103.0B</t>
+        </is>
+      </c>
+      <c r="H2306" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2307">
@@ -74854,19 +75148,21 @@
       </c>
       <c r="C2307" t="inlineStr">
         <is>
-          <t>Deposit Growth YoYJAN/17</t>
+          <t>Bank Loan Growth YoYJAN/17</t>
         </is>
       </c>
       <c r="D2307" t="inlineStr"/>
       <c r="E2307" t="inlineStr">
         <is>
-          <t>9.8%</t>
+          <t>11.2%</t>
         </is>
       </c>
       <c r="F2307" t="inlineStr"/>
       <c r="G2307" t="inlineStr"/>
-      <c r="H2307" t="n">
-        <v>3</v>
+      <c r="H2307" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2308">
@@ -74882,19 +75178,21 @@
       </c>
       <c r="C2308" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/24</t>
+          <t>Deposit Growth YoYJAN/17</t>
         </is>
       </c>
       <c r="D2308" t="inlineStr"/>
       <c r="E2308" t="inlineStr">
         <is>
-          <t>$623.98B</t>
+          <t>9.8%</t>
         </is>
       </c>
       <c r="F2308" t="inlineStr"/>
       <c r="G2308" t="inlineStr"/>
-      <c r="H2308" t="n">
-        <v>3</v>
+      <c r="H2308" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2309">
@@ -74910,55 +75208,55 @@
       </c>
       <c r="C2309" t="inlineStr">
         <is>
-          <t>Infrastructure Output YoYDEC</t>
+          <t>Foreign Exchange ReservesJAN/24</t>
         </is>
       </c>
       <c r="D2309" t="inlineStr"/>
       <c r="E2309" t="inlineStr">
         <is>
-          <t>4.3%</t>
+          <t>$623.98B</t>
         </is>
       </c>
       <c r="F2309" t="inlineStr"/>
-      <c r="G2309" t="inlineStr">
-        <is>
-          <t>4.8%</t>
-        </is>
-      </c>
-      <c r="H2309" t="n">
-        <v>3</v>
+      <c r="G2309" t="inlineStr"/>
+      <c r="H2309" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2310">
       <c r="A2310" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2310" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2310" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>Infrastructure Output YoYDEC</t>
         </is>
       </c>
       <c r="D2310" t="inlineStr"/>
       <c r="E2310" t="inlineStr">
         <is>
-          <t>6.1%</t>
+          <t>4.3%</t>
         </is>
       </c>
       <c r="F2310" t="inlineStr"/>
       <c r="G2310" t="inlineStr">
         <is>
-          <t>6.1%</t>
-        </is>
-      </c>
-      <c r="H2310" t="n">
-        <v>2</v>
+          <t>4.8%</t>
+        </is>
+      </c>
+      <c r="H2310" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2311">
@@ -74969,64 +75267,64 @@
       </c>
       <c r="B2311" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2311" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Unemployment RateDEC</t>
         </is>
       </c>
       <c r="D2311" t="inlineStr"/>
       <c r="E2311" t="inlineStr">
         <is>
-          <t>ZAR34.7B</t>
+          <t>6.1%</t>
         </is>
       </c>
       <c r="F2311" t="inlineStr"/>
       <c r="G2311" t="inlineStr">
         <is>
-          <t>ZAR 27.0B</t>
-        </is>
-      </c>
-      <c r="H2311" t="n">
-        <v>2</v>
+          <t>6.1%</t>
+        </is>
+      </c>
+      <c r="H2311" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2312">
       <c r="A2312" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2312" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2312" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelJAN</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D2312" t="inlineStr"/>
       <c r="E2312" t="inlineStr">
         <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="F2312" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
+          <t>ZAR34.7B</t>
+        </is>
+      </c>
+      <c r="F2312" t="inlineStr"/>
       <c r="G2312" t="inlineStr">
         <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="H2312" t="n">
-        <v>1</v>
+          <t>ZAR 27.0B</t>
+        </is>
+      </c>
+      <c r="H2312" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2313">
@@ -75042,27 +75340,29 @@
       </c>
       <c r="C2313" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM PrelJAN</t>
+          <t>Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2313" t="inlineStr"/>
       <c r="E2313" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F2313" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>2.7%</t>
         </is>
       </c>
       <c r="G2313" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H2313" t="n">
-        <v>2</v>
+          <t>2.6%</t>
+        </is>
+      </c>
+      <c r="H2313" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="2314">
@@ -75078,23 +75378,29 @@
       </c>
       <c r="C2314" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM PrelJAN</t>
+          <t>Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2314" t="inlineStr"/>
       <c r="E2314" t="inlineStr">
         <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="F2314" t="inlineStr"/>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="F2314" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
       <c r="G2314" t="inlineStr">
         <is>
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2314" t="n">
-        <v>3</v>
+      <c r="H2314" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2315">
@@ -75110,63 +75416,63 @@
       </c>
       <c r="C2315" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY PrelJAN</t>
+          <t>Harmonised Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2315" t="inlineStr"/>
       <c r="E2315" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F2315" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
+          <t>0.7%</t>
+        </is>
+      </c>
+      <c r="F2315" t="inlineStr"/>
       <c r="G2315" t="inlineStr">
         <is>
-          <t>3.0%</t>
-        </is>
-      </c>
-      <c r="H2315" t="n">
-        <v>3</v>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="H2315" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2316">
       <c r="A2316" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2316" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2316" t="inlineStr">
         <is>
-          <t>GDP MoMNOV</t>
+          <t>Harmonised Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2316" t="inlineStr"/>
       <c r="E2316" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="F2316" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>2.9%</t>
         </is>
       </c>
       <c r="G2316" t="inlineStr">
         <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="H2316" t="n">
-        <v>2</v>
+          <t>3.0%</t>
+        </is>
+      </c>
+      <c r="H2316" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2317">
@@ -75182,23 +75488,29 @@
       </c>
       <c r="C2317" t="inlineStr">
         <is>
-          <t>GDP MoM PrelDEC</t>
+          <t>GDP MoMNOV</t>
         </is>
       </c>
       <c r="D2317" t="inlineStr"/>
       <c r="E2317" t="inlineStr">
         <is>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="F2317" t="inlineStr">
+        <is>
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="F2317" t="inlineStr"/>
       <c r="G2317" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H2317" t="n">
-        <v>2</v>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="H2317" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2318">
@@ -75209,32 +75521,30 @@
       </c>
       <c r="B2318" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2318" t="inlineStr">
         <is>
-          <t>Core PCE Price Index MoMDEC</t>
+          <t>GDP MoM PrelDEC</t>
         </is>
       </c>
       <c r="D2318" t="inlineStr"/>
       <c r="E2318" t="inlineStr">
         <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F2318" t="inlineStr">
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="F2318" t="inlineStr"/>
+      <c r="G2318" t="inlineStr">
         <is>
           <t>0.2%</t>
         </is>
       </c>
-      <c r="G2318" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H2318" t="n">
-        <v>1</v>
+      <c r="H2318" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2319">
@@ -75250,27 +75560,29 @@
       </c>
       <c r="C2319" t="inlineStr">
         <is>
-          <t>Personal Income MoMDEC</t>
+          <t>Core PCE Price Index MoMDEC</t>
         </is>
       </c>
       <c r="D2319" t="inlineStr"/>
       <c r="E2319" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2319" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="G2319" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H2319" t="n">
-        <v>1</v>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="H2319" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="2320">
@@ -75286,27 +75598,29 @@
       </c>
       <c r="C2320" t="inlineStr">
         <is>
-          <t>Personal Spending MoMDEC</t>
+          <t>Personal Income MoMDEC</t>
         </is>
       </c>
       <c r="D2320" t="inlineStr"/>
       <c r="E2320" t="inlineStr">
         <is>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="F2320" t="inlineStr">
+        <is>
           <t>0.4%</t>
         </is>
       </c>
-      <c r="F2320" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
       <c r="G2320" t="inlineStr">
         <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H2320" t="n">
-        <v>1</v>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="H2320" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="2321">
@@ -75322,23 +75636,29 @@
       </c>
       <c r="C2321" t="inlineStr">
         <is>
-          <t>Employment Cost - Benefits QoQQ4</t>
+          <t>Personal Spending MoMDEC</t>
         </is>
       </c>
       <c r="D2321" t="inlineStr"/>
       <c r="E2321" t="inlineStr">
         <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="F2321" t="inlineStr"/>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="F2321" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="G2321" t="inlineStr">
         <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="H2321" t="n">
-        <v>2</v>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="H2321" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="2322">
@@ -75354,7 +75674,7 @@
       </c>
       <c r="C2322" t="inlineStr">
         <is>
-          <t>Employment Cost - Wages QoQQ4</t>
+          <t>Employment Cost - Benefits QoQQ4</t>
         </is>
       </c>
       <c r="D2322" t="inlineStr"/>
@@ -75369,8 +75689,10 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2322" t="n">
-        <v>2</v>
+      <c r="H2322" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2323">
@@ -75386,7 +75708,7 @@
       </c>
       <c r="C2323" t="inlineStr">
         <is>
-          <t>Employment Cost Index QoQQ4</t>
+          <t>Employment Cost - Wages QoQQ4</t>
         </is>
       </c>
       <c r="D2323" t="inlineStr"/>
@@ -75395,18 +75717,16 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="F2323" t="inlineStr">
-        <is>
-          <t>1%</t>
-        </is>
-      </c>
+      <c r="F2323" t="inlineStr"/>
       <c r="G2323" t="inlineStr">
         <is>
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2323" t="n">
-        <v>2</v>
+      <c r="H2323" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2324">
@@ -75422,15 +75742,29 @@
       </c>
       <c r="C2324" t="inlineStr">
         <is>
-          <t>Fed Bowman Speech</t>
+          <t>Employment Cost Index QoQQ4</t>
         </is>
       </c>
       <c r="D2324" t="inlineStr"/>
-      <c r="E2324" t="inlineStr"/>
-      <c r="F2324" t="inlineStr"/>
-      <c r="G2324" t="inlineStr"/>
-      <c r="H2324" t="n">
-        <v>2</v>
+      <c r="E2324" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
+      <c r="F2324" t="inlineStr">
+        <is>
+          <t>1%</t>
+        </is>
+      </c>
+      <c r="G2324" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
+      <c r="H2324" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2325">
@@ -75446,23 +75780,17 @@
       </c>
       <c r="C2325" t="inlineStr">
         <is>
-          <t>PCE Price Index MoMDEC</t>
+          <t>Fed Bowman Speech</t>
         </is>
       </c>
       <c r="D2325" t="inlineStr"/>
-      <c r="E2325" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="E2325" t="inlineStr"/>
       <c r="F2325" t="inlineStr"/>
-      <c r="G2325" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H2325" t="n">
-        <v>2</v>
+      <c r="G2325" t="inlineStr"/>
+      <c r="H2325" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2326">
@@ -75478,23 +75806,25 @@
       </c>
       <c r="C2326" t="inlineStr">
         <is>
-          <t>PCE Price Index YoYDEC</t>
+          <t>PCE Price Index MoMDEC</t>
         </is>
       </c>
       <c r="D2326" t="inlineStr"/>
       <c r="E2326" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2326" t="inlineStr"/>
       <c r="G2326" t="inlineStr">
         <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="H2326" t="n">
-        <v>2</v>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="H2326" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2327">
@@ -75510,29 +75840,31 @@
       </c>
       <c r="C2327" t="inlineStr">
         <is>
-          <t>Core PCE Price Index YoYDEC</t>
+          <t>PCE Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D2327" t="inlineStr"/>
       <c r="E2327" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F2327" t="inlineStr"/>
       <c r="G2327" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="H2327" t="n">
-        <v>3</v>
+          <t>2.6%</t>
+        </is>
+      </c>
+      <c r="H2327" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2328">
       <c r="A2328" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2328" t="inlineStr">
@@ -75542,87 +75874,97 @@
       </c>
       <c r="C2328" t="inlineStr">
         <is>
-          <t>Chicago PMIJAN</t>
+          <t>Core PCE Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D2328" t="inlineStr"/>
       <c r="E2328" t="inlineStr">
         <is>
-          <t>36.9</t>
-        </is>
-      </c>
-      <c r="F2328" t="inlineStr">
-        <is>
-          <t>39.9</t>
-        </is>
-      </c>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="F2328" t="inlineStr"/>
       <c r="G2328" t="inlineStr">
         <is>
-          <t>37.2</t>
-        </is>
-      </c>
-      <c r="H2328" t="n">
-        <v>2</v>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="H2328" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2329">
       <c r="A2329" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B2329" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2329" t="inlineStr">
         <is>
-          <t>Budget BalanceNOV</t>
+          <t>Chicago PMIJAN</t>
         </is>
       </c>
       <c r="D2329" t="inlineStr"/>
       <c r="E2329" t="inlineStr">
         <is>
-          <t>C$-1.49B</t>
-        </is>
-      </c>
-      <c r="F2329" t="inlineStr"/>
+          <t>36.9</t>
+        </is>
+      </c>
+      <c r="F2329" t="inlineStr">
+        <is>
+          <t>39.9</t>
+        </is>
+      </c>
       <c r="G2329" t="inlineStr">
         <is>
-          <t>C$-1.9B</t>
-        </is>
-      </c>
-      <c r="H2329" t="n">
-        <v>3</v>
+          <t>37.2</t>
+        </is>
+      </c>
+      <c r="H2329" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2330">
       <c r="A2330" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B2330" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2330" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/31</t>
+          <t>Budget BalanceNOV</t>
         </is>
       </c>
       <c r="D2330" t="inlineStr"/>
       <c r="E2330" t="inlineStr">
         <is>
-          <t>472</t>
+          <t>C$-1.49B</t>
         </is>
       </c>
       <c r="F2330" t="inlineStr"/>
-      <c r="G2330" t="inlineStr"/>
-      <c r="H2330" t="n">
-        <v>3</v>
+      <c r="G2330" t="inlineStr">
+        <is>
+          <t>C$-1.9B</t>
+        </is>
+      </c>
+      <c r="H2330" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2331">
@@ -75638,121 +75980,129 @@
       </c>
       <c r="C2331" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/31</t>
+          <t>Baker Hughes Oil Rig CountJAN/31</t>
         </is>
       </c>
       <c r="D2331" t="inlineStr"/>
       <c r="E2331" t="inlineStr">
         <is>
-          <t>576</t>
+          <t>472</t>
         </is>
       </c>
       <c r="F2331" t="inlineStr"/>
       <c r="G2331" t="inlineStr"/>
-      <c r="H2331" t="n">
-        <v>3</v>
+      <c r="H2331" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2332">
-      <c r="A2332" t="inlineStr"/>
+      <c r="A2332" t="inlineStr">
+        <is>
+          <t>11:30 PM</t>
+        </is>
+      </c>
       <c r="B2332" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2332" t="inlineStr">
         <is>
-          <t>Fiscal BalanceDEC</t>
+          <t>Baker Hughes Total Rigs CountJAN/31</t>
         </is>
       </c>
       <c r="D2332" t="inlineStr"/>
       <c r="E2332" t="inlineStr">
         <is>
-          <t>MXN-1064.93B</t>
+          <t>576</t>
         </is>
       </c>
       <c r="F2332" t="inlineStr"/>
-      <c r="G2332" t="inlineStr">
-        <is>
-          <t>MXN-1120.0B</t>
-        </is>
-      </c>
-      <c r="H2332" t="n">
-        <v>3</v>
+      <c r="G2332" t="inlineStr"/>
+      <c r="H2332" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2333">
       <c r="A2333" t="inlineStr"/>
       <c r="B2333" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2333" t="inlineStr">
         <is>
-          <t>CoreLogic Dwelling Prices MoMJAN</t>
+          <t>Fiscal BalanceDEC</t>
         </is>
       </c>
       <c r="D2333" t="inlineStr"/>
       <c r="E2333" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>MXN-1064.93B</t>
         </is>
       </c>
       <c r="F2333" t="inlineStr"/>
       <c r="G2333" t="inlineStr">
         <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="H2333" t="n">
-        <v>3</v>
+          <t>MXN-1120.0B</t>
+        </is>
+      </c>
+      <c r="H2333" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2334">
       <c r="A2334" t="inlineStr"/>
       <c r="B2334" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2334" t="inlineStr">
         <is>
-          <t>Consumer Inflation ExpectationsDEC</t>
+          <t>CoreLogic Dwelling Prices MoMJAN</t>
         </is>
       </c>
       <c r="D2334" t="inlineStr"/>
       <c r="E2334" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F2334" t="inlineStr"/>
       <c r="G2334" t="inlineStr">
         <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="H2334" t="n">
-        <v>3</v>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="H2334" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2335">
       <c r="A2335" t="inlineStr"/>
       <c r="B2335" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2335" t="inlineStr">
         <is>
-          <t>New Car Registrations YoYJAN</t>
+          <t>Consumer Inflation ExpectationsDEC</t>
         </is>
       </c>
       <c r="D2335" t="inlineStr"/>
       <c r="E2335" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F2335" t="inlineStr"/>
@@ -75761,124 +76111,124 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H2335" t="n">
-        <v>3</v>
+      <c r="H2335" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2336">
       <c r="A2336" t="inlineStr"/>
       <c r="B2336" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2336" t="inlineStr">
         <is>
-          <t>New Car Sales YoYJAN</t>
+          <t>New Car Registrations YoYJAN</t>
         </is>
       </c>
       <c r="D2336" t="inlineStr"/>
       <c r="E2336" t="inlineStr">
         <is>
-          <t>28.8%</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="F2336" t="inlineStr"/>
       <c r="G2336" t="inlineStr">
         <is>
-          <t>2.5%</t>
-        </is>
-      </c>
-      <c r="H2336" t="n">
-        <v>3</v>
+          <t>2.2%</t>
+        </is>
+      </c>
+      <c r="H2336" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2337">
       <c r="A2337" t="inlineStr"/>
       <c r="B2337" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2337" t="inlineStr">
         <is>
-          <t>New Car Registrations YoYJAN</t>
+          <t>New Car Sales YoYJAN</t>
         </is>
       </c>
       <c r="D2337" t="inlineStr"/>
       <c r="E2337" t="inlineStr">
         <is>
-          <t>-4.9%</t>
+          <t>28.8%</t>
         </is>
       </c>
       <c r="F2337" t="inlineStr"/>
       <c r="G2337" t="inlineStr">
         <is>
-          <t>-4.0%</t>
-        </is>
-      </c>
-      <c r="H2337" t="n">
-        <v>3</v>
+          <t>2.5%</t>
+        </is>
+      </c>
+      <c r="H2337" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2338">
       <c r="A2338" t="inlineStr"/>
       <c r="B2338" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2338" t="inlineStr">
         <is>
-          <t>M2 Money Supply YoYDEC</t>
+          <t>New Car Registrations YoYJAN</t>
         </is>
       </c>
       <c r="D2338" t="inlineStr"/>
       <c r="E2338" t="inlineStr">
         <is>
-          <t>20%</t>
+          <t>-4.9%</t>
         </is>
       </c>
       <c r="F2338" t="inlineStr"/>
       <c r="G2338" t="inlineStr">
         <is>
-          <t>20.7%</t>
-        </is>
-      </c>
-      <c r="H2338" t="n">
-        <v>3</v>
+          <t>-4.0%</t>
+        </is>
+      </c>
+      <c r="H2338" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2339">
-      <c r="A2339" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
+      <c r="A2339" t="inlineStr"/>
       <c r="B2339" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2339" t="inlineStr">
         <is>
-          <t>HSBC Manufacturing PMI FinalJAN</t>
+          <t>M2 Money Supply YoYDEC</t>
         </is>
       </c>
       <c r="D2339" t="inlineStr"/>
       <c r="E2339" t="inlineStr">
         <is>
-          <t>56.4</t>
-        </is>
-      </c>
-      <c r="F2339" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
+          <t>20%</t>
+        </is>
+      </c>
+      <c r="F2339" t="inlineStr"/>
       <c r="G2339" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>20.7%</t>
         </is>
       </c>
       <c r="H2339" t="inlineStr">
@@ -75890,207 +76240,191 @@
     <row r="2340">
       <c r="A2340" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B2340" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C2340" t="inlineStr">
-        <is>
-          <t>2-Year KTB Auction</t>
-        </is>
-      </c>
+          <t>Saturday February 01 2025</t>
+        </is>
+      </c>
+      <c r="B2340" t="inlineStr"/>
+      <c r="C2340" t="inlineStr"/>
       <c r="D2340" t="inlineStr"/>
-      <c r="E2340" t="inlineStr">
-        <is>
-          <t>2.670%</t>
-        </is>
-      </c>
+      <c r="E2340" t="inlineStr"/>
       <c r="F2340" t="inlineStr"/>
       <c r="G2340" t="inlineStr"/>
-      <c r="H2340" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H2340" t="inlineStr"/>
     </row>
     <row r="2341">
       <c r="A2341" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B2341" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2341" t="inlineStr">
         <is>
-          <t>Commodity Prices YoYJAN</t>
+          <t>Exports YoYJAN</t>
         </is>
       </c>
       <c r="D2341" t="inlineStr"/>
       <c r="E2341" t="inlineStr">
         <is>
-          <t>-10.7%</t>
+          <t>6.6%</t>
         </is>
       </c>
       <c r="F2341" t="inlineStr"/>
-      <c r="G2341" t="inlineStr"/>
+      <c r="G2341" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H2341" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2342">
       <c r="A2342" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B2342" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2342" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>Balance of TradeJAN</t>
         </is>
       </c>
       <c r="D2342" t="inlineStr"/>
       <c r="E2342" t="inlineStr">
         <is>
-          <t>50.8</t>
+          <t>$6.49B</t>
         </is>
       </c>
       <c r="F2342" t="inlineStr"/>
-      <c r="G2342" t="inlineStr"/>
+      <c r="G2342" t="inlineStr">
+        <is>
+          <t>$0.9B</t>
+        </is>
+      </c>
       <c r="H2342" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2343">
       <c r="A2343" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B2343" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2343" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Imports YoYJAN</t>
         </is>
       </c>
       <c r="D2343" t="inlineStr"/>
       <c r="E2343" t="inlineStr">
         <is>
-          <t>1.03%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="F2343" t="inlineStr"/>
-      <c r="G2343" t="inlineStr"/>
+      <c r="G2343" t="inlineStr">
+        <is>
+          <t>3.4%</t>
+        </is>
+      </c>
       <c r="H2343" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2344">
       <c r="A2344" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
-        </is>
-      </c>
-      <c r="B2344" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2344" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoYJAN</t>
-        </is>
-      </c>
+          <t>Monday February 03 2025</t>
+        </is>
+      </c>
+      <c r="B2344" t="inlineStr"/>
+      <c r="C2344" t="inlineStr"/>
       <c r="D2344" t="inlineStr"/>
-      <c r="E2344" t="inlineStr">
-        <is>
-          <t>44.38%</t>
-        </is>
-      </c>
+      <c r="E2344" t="inlineStr"/>
       <c r="F2344" t="inlineStr"/>
       <c r="G2344" t="inlineStr"/>
-      <c r="H2344" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="H2344" t="inlineStr"/>
     </row>
     <row r="2345">
       <c r="A2345" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>03:30 AM</t>
         </is>
       </c>
       <c r="B2345" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2345" t="inlineStr">
         <is>
-          <t>Istanbul Chamber of Industry Manufacturing PMIJAN</t>
+          <t>S&amp;P Global Australia Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2345" t="inlineStr"/>
       <c r="E2345" t="inlineStr">
         <is>
-          <t>49.1</t>
+          <t>47.8</t>
         </is>
       </c>
       <c r="F2345" t="inlineStr"/>
       <c r="G2345" t="inlineStr"/>
       <c r="H2345" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2346">
       <c r="A2346" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B2346" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2346" t="inlineStr">
         <is>
-          <t>PPI MoMJAN</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="D2346" t="inlineStr"/>
       <c r="E2346" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="F2346" t="inlineStr"/>
-      <c r="G2346" t="inlineStr"/>
+      <c r="G2346" t="inlineStr">
+        <is>
+          <t>1.2%</t>
+        </is>
+      </c>
       <c r="H2346" t="inlineStr">
         <is>
           <t>3</t>
@@ -76100,27 +76434,31 @@
     <row r="2347">
       <c r="A2347" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B2347" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2347" t="inlineStr">
         <is>
-          <t>PPI YoYJAN</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D2347" t="inlineStr"/>
       <c r="E2347" t="inlineStr">
         <is>
-          <t>28.52%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2347" t="inlineStr"/>
-      <c r="G2347" t="inlineStr"/>
+      <c r="G2347" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="H2347" t="inlineStr">
         <is>
           <t>3</t>
@@ -76130,47 +76468,51 @@
     <row r="2348">
       <c r="A2348" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B2348" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2348" t="inlineStr">
         <is>
-          <t>Unemployment ChangeJAN</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D2348" t="inlineStr"/>
       <c r="E2348" t="inlineStr">
         <is>
-          <t>-25.3K</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F2348" t="inlineStr"/>
-      <c r="G2348" t="inlineStr"/>
+      <c r="G2348" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H2348" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2349">
       <c r="A2349" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B2349" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2349" t="inlineStr">
         <is>
-          <t>Tourist Arrivals YoYDEC</t>
+          <t>BoJ Summary of Opinions</t>
         </is>
       </c>
       <c r="D2349" t="inlineStr"/>
@@ -76179,34 +76521,38 @@
       <c r="G2349" t="inlineStr"/>
       <c r="H2349" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2350">
       <c r="A2350" t="inlineStr">
         <is>
-          <t>01:45 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2350" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2350" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMIJAN</t>
+          <t>Building Permits MoM PrelDEC</t>
         </is>
       </c>
       <c r="D2350" t="inlineStr"/>
       <c r="E2350" t="inlineStr">
         <is>
-          <t>53.3</t>
+          <t>-3.6%</t>
         </is>
       </c>
       <c r="F2350" t="inlineStr"/>
-      <c r="G2350" t="inlineStr"/>
+      <c r="G2350" t="inlineStr">
+        <is>
+          <t>1.5%</t>
+        </is>
+      </c>
       <c r="H2350" t="inlineStr">
         <is>
           <t>2</t>
@@ -76216,27 +76562,31 @@
     <row r="2351">
       <c r="A2351" t="inlineStr">
         <is>
-          <t>02:15 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2351" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2351" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMIJAN</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D2351" t="inlineStr"/>
       <c r="E2351" t="inlineStr">
         <is>
-          <t>46.2</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F2351" t="inlineStr"/>
-      <c r="G2351" t="inlineStr"/>
+      <c r="G2351" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H2351" t="inlineStr">
         <is>
           <t>2</t>
@@ -76246,181 +76596,161 @@
     <row r="2352">
       <c r="A2352" t="inlineStr">
         <is>
-          <t>02:20 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2352" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2352" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>ANZ-Indeed Job Ads MoMJAN</t>
         </is>
       </c>
       <c r="D2352" t="inlineStr"/>
       <c r="E2352" t="inlineStr">
         <is>
-          <t>41.9</t>
-        </is>
-      </c>
-      <c r="F2352" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
-      <c r="G2352" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="F2352" t="inlineStr"/>
+      <c r="G2352" t="inlineStr"/>
       <c r="H2352" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2353">
       <c r="A2353" t="inlineStr">
         <is>
-          <t>02:25 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2353" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2353" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>Private House Approvals MoM PrelDEC</t>
         </is>
       </c>
       <c r="D2353" t="inlineStr"/>
       <c r="E2353" t="inlineStr">
         <is>
-          <t>42.5</t>
-        </is>
-      </c>
-      <c r="F2353" t="inlineStr">
-        <is>
-          <t>44.1</t>
-        </is>
-      </c>
-      <c r="G2353" t="inlineStr">
-        <is>
-          <t>44.1</t>
-        </is>
-      </c>
+          <t>-1.7%</t>
+        </is>
+      </c>
+      <c r="F2353" t="inlineStr"/>
+      <c r="G2353" t="inlineStr"/>
       <c r="H2353" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2354">
       <c r="A2354" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2354" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2354" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2354" t="inlineStr"/>
       <c r="E2354" t="inlineStr">
         <is>
-          <t>45.1</t>
-        </is>
-      </c>
-      <c r="F2354" t="inlineStr">
-        <is>
-          <t>46.1</t>
-        </is>
-      </c>
+          <t>51.2</t>
+        </is>
+      </c>
+      <c r="F2354" t="inlineStr"/>
       <c r="G2354" t="inlineStr">
         <is>
-          <t>46.1</t>
+          <t>51.6</t>
         </is>
       </c>
       <c r="H2354" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2355">
       <c r="A2355" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2355" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2355" t="inlineStr">
         <is>
-          <t>ABSA Manufacturing PMIJAN</t>
+          <t>Jibun Bank Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2355" t="inlineStr"/>
       <c r="E2355" t="inlineStr">
         <is>
-          <t>46.2</t>
-        </is>
-      </c>
-      <c r="F2355" t="inlineStr"/>
+          <t>49.6</t>
+        </is>
+      </c>
+      <c r="F2355" t="inlineStr">
+        <is>
+          <t>48.8</t>
+        </is>
+      </c>
       <c r="G2355" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>48.8</t>
         </is>
       </c>
       <c r="H2355" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2356">
       <c r="A2356" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2356" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2356" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2356" t="inlineStr"/>
       <c r="E2356" t="inlineStr">
         <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="F2356" t="inlineStr">
-        <is>
-          <t>48.2</t>
-        </is>
-      </c>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="F2356" t="inlineStr"/>
       <c r="G2356" t="inlineStr">
         <is>
-          <t>48.2</t>
+          <t>49.5</t>
         </is>
       </c>
       <c r="H2356" t="inlineStr">
@@ -76432,23 +76762,35 @@
     <row r="2357">
       <c r="A2357" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:15 AM</t>
         </is>
       </c>
       <c r="B2357" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2357" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FlashJAN</t>
+          <t>Caixin Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2357" t="inlineStr"/>
-      <c r="E2357" t="inlineStr"/>
-      <c r="F2357" t="inlineStr"/>
-      <c r="G2357" t="inlineStr"/>
+      <c r="E2357" t="inlineStr">
+        <is>
+          <t>50.5</t>
+        </is>
+      </c>
+      <c r="F2357" t="inlineStr">
+        <is>
+          <t>50.5</t>
+        </is>
+      </c>
+      <c r="G2357" t="inlineStr">
+        <is>
+          <t>50.5</t>
+        </is>
+      </c>
       <c r="H2357" t="inlineStr">
         <is>
           <t>1</t>
@@ -76458,27 +76800,31 @@
     <row r="2358">
       <c r="A2358" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2358" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2358" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoY FlashJAN</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2358" t="inlineStr"/>
       <c r="E2358" t="inlineStr">
         <is>
-          <t>2.7%</t>
+          <t>1.57%</t>
         </is>
       </c>
       <c r="F2358" t="inlineStr"/>
-      <c r="G2358" t="inlineStr"/>
+      <c r="G2358" t="inlineStr">
+        <is>
+          <t>1.7%</t>
+        </is>
+      </c>
       <c r="H2358" t="inlineStr">
         <is>
           <t>2</t>
@@ -76488,53 +76834,65 @@
     <row r="2359">
       <c r="A2359" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2359" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2359" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM FlashJAN</t>
+          <t>Core Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2359" t="inlineStr"/>
-      <c r="E2359" t="inlineStr"/>
+      <c r="E2359" t="inlineStr">
+        <is>
+          <t>2.26%</t>
+        </is>
+      </c>
       <c r="F2359" t="inlineStr"/>
-      <c r="G2359" t="inlineStr"/>
+      <c r="G2359" t="inlineStr">
+        <is>
+          <t>2.3%</t>
+        </is>
+      </c>
       <c r="H2359" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2360">
       <c r="A2360" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2360" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2360" t="inlineStr">
         <is>
-          <t>CPI FlashJAN</t>
+          <t>Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2360" t="inlineStr"/>
       <c r="E2360" t="inlineStr">
         <is>
-          <t>127.07</t>
+          <t>0.44%</t>
         </is>
       </c>
       <c r="F2360" t="inlineStr"/>
-      <c r="G2360" t="inlineStr"/>
+      <c r="G2360" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H2360" t="inlineStr">
         <is>
           <t>3</t>
@@ -76544,83 +76902,95 @@
     <row r="2361">
       <c r="A2361" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>10:15 AM</t>
         </is>
       </c>
       <c r="B2361" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2361" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelJAN</t>
+          <t>Tourist Arrivals YoYDEC</t>
         </is>
       </c>
       <c r="D2361" t="inlineStr"/>
       <c r="E2361" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>17.27%</t>
         </is>
       </c>
       <c r="F2361" t="inlineStr"/>
-      <c r="G2361" t="inlineStr"/>
+      <c r="G2361" t="inlineStr">
+        <is>
+          <t>18.0%</t>
+        </is>
+      </c>
       <c r="H2361" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2362">
       <c r="A2362" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2362" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2362" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM PrelJAN</t>
+          <t>HSBC Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2362" t="inlineStr"/>
       <c r="E2362" t="inlineStr">
         <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F2362" t="inlineStr"/>
-      <c r="G2362" t="inlineStr"/>
+          <t>56.4</t>
+        </is>
+      </c>
+      <c r="F2362" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="G2362" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
       <c r="H2362" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2363">
       <c r="A2363" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2363" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2363" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM PrelJAN</t>
+          <t>2-Year KTB Auction</t>
         </is>
       </c>
       <c r="D2363" t="inlineStr"/>
       <c r="E2363" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>2.670%</t>
         </is>
       </c>
       <c r="F2363" t="inlineStr"/>
@@ -76634,23 +77004,23 @@
     <row r="2364">
       <c r="A2364" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B2364" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2364" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY PrelJAN</t>
+          <t>Commodity Prices YoYJAN</t>
         </is>
       </c>
       <c r="D2364" t="inlineStr"/>
       <c r="E2364" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>-10.7%</t>
         </is>
       </c>
       <c r="F2364" t="inlineStr"/>
@@ -76664,149 +77034,145 @@
     <row r="2365">
       <c r="A2365" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B2365" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2365" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesDEC</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2365" t="inlineStr"/>
       <c r="E2365" t="inlineStr">
         <is>
-          <t>$232.2B</t>
+          <t>50.8</t>
         </is>
       </c>
       <c r="F2365" t="inlineStr"/>
-      <c r="G2365" t="inlineStr">
-        <is>
-          <t>$ 230B</t>
-        </is>
-      </c>
+      <c r="G2365" t="inlineStr"/>
       <c r="H2365" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2366">
       <c r="A2366" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2366" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2366" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2366" t="inlineStr"/>
       <c r="E2366" t="inlineStr">
         <is>
-          <t>50.4</t>
+          <t>1.03%</t>
         </is>
       </c>
       <c r="F2366" t="inlineStr"/>
-      <c r="G2366" t="inlineStr">
-        <is>
-          <t>49.8</t>
-        </is>
-      </c>
+      <c r="G2366" t="inlineStr"/>
       <c r="H2366" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2367">
       <c r="A2367" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2367" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2367" t="inlineStr">
         <is>
-          <t>SIPMM Manufacturing PMIJAN</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2367" t="inlineStr"/>
       <c r="E2367" t="inlineStr">
         <is>
-          <t>51.1</t>
+          <t>44.38%</t>
         </is>
       </c>
       <c r="F2367" t="inlineStr"/>
-      <c r="G2367" t="inlineStr">
-        <is>
-          <t>51.4</t>
-        </is>
-      </c>
+      <c r="G2367" t="inlineStr"/>
       <c r="H2367" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2368">
       <c r="A2368" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2368" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2368" t="inlineStr">
         <is>
-          <t>Fed Bostic Speech</t>
+          <t>Istanbul Chamber of Industry Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2368" t="inlineStr"/>
-      <c r="E2368" t="inlineStr"/>
+      <c r="E2368" t="inlineStr">
+        <is>
+          <t>49.1</t>
+        </is>
+      </c>
       <c r="F2368" t="inlineStr"/>
       <c r="G2368" t="inlineStr"/>
       <c r="H2368" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2369">
       <c r="A2369" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2369" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2369" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>PPI MoMJAN</t>
         </is>
       </c>
       <c r="D2369" t="inlineStr"/>
-      <c r="E2369" t="inlineStr"/>
+      <c r="E2369" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="F2369" t="inlineStr"/>
       <c r="G2369" t="inlineStr"/>
       <c r="H2369" t="inlineStr">
@@ -76818,21 +77184,25 @@
     <row r="2370">
       <c r="A2370" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2370" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2370" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>PPI YoYJAN</t>
         </is>
       </c>
       <c r="D2370" t="inlineStr"/>
-      <c r="E2370" t="inlineStr"/>
+      <c r="E2370" t="inlineStr">
+        <is>
+          <t>28.52%</t>
+        </is>
+      </c>
       <c r="F2370" t="inlineStr"/>
       <c r="G2370" t="inlineStr"/>
       <c r="H2370" t="inlineStr">
@@ -76844,91 +77214,83 @@
     <row r="2371">
       <c r="A2371" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2371" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2371" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>Unemployment ChangeJAN</t>
         </is>
       </c>
       <c r="D2371" t="inlineStr"/>
-      <c r="E2371" t="inlineStr"/>
+      <c r="E2371" t="inlineStr">
+        <is>
+          <t>-25.3K</t>
+        </is>
+      </c>
       <c r="F2371" t="inlineStr"/>
       <c r="G2371" t="inlineStr"/>
       <c r="H2371" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2372">
       <c r="A2372" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2372" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2372" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>Tourist Arrivals YoYDEC</t>
         </is>
       </c>
       <c r="D2372" t="inlineStr"/>
-      <c r="E2372" t="inlineStr">
-        <is>
-          <t>52.2</t>
-        </is>
-      </c>
+      <c r="E2372" t="inlineStr"/>
       <c r="F2372" t="inlineStr"/>
       <c r="G2372" t="inlineStr"/>
       <c r="H2372" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2373">
       <c r="A2373" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B2373" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2373" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
+          <t>HCOB Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2373" t="inlineStr"/>
       <c r="E2373" t="inlineStr">
         <is>
-          <t>49.4</t>
-        </is>
-      </c>
-      <c r="F2373" t="inlineStr">
-        <is>
-          <t>50.1</t>
-        </is>
-      </c>
-      <c r="G2373" t="inlineStr">
-        <is>
-          <t>50.1</t>
-        </is>
-      </c>
+          <t>53.3</t>
+        </is>
+      </c>
+      <c r="F2373" t="inlineStr"/>
+      <c r="G2373" t="inlineStr"/>
       <c r="H2373" t="inlineStr">
         <is>
           <t>2</t>
@@ -76938,57 +77300,65 @@
     <row r="2374">
       <c r="A2374" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>02:15 PM</t>
         </is>
       </c>
       <c r="B2374" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2374" t="inlineStr">
         <is>
-          <t>ISM Manufacturing PMIJAN</t>
+          <t>HCOB Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2374" t="inlineStr"/>
       <c r="E2374" t="inlineStr">
         <is>
-          <t>49.3</t>
+          <t>46.2</t>
         </is>
       </c>
       <c r="F2374" t="inlineStr"/>
       <c r="G2374" t="inlineStr"/>
       <c r="H2374" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2375">
       <c r="A2375" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>02:20 PM</t>
         </is>
       </c>
       <c r="B2375" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2375" t="inlineStr">
         <is>
-          <t>ISM Manufacturing EmploymentJAN</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2375" t="inlineStr"/>
       <c r="E2375" t="inlineStr">
         <is>
+          <t>41.9</t>
+        </is>
+      </c>
+      <c r="F2375" t="inlineStr">
+        <is>
           <t>45.3</t>
         </is>
       </c>
-      <c r="F2375" t="inlineStr"/>
-      <c r="G2375" t="inlineStr"/>
+      <c r="G2375" t="inlineStr">
+        <is>
+          <t>45.3</t>
+        </is>
+      </c>
       <c r="H2375" t="inlineStr">
         <is>
           <t>2</t>
@@ -76998,83 +77368,107 @@
     <row r="2376">
       <c r="A2376" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>02:25 PM</t>
         </is>
       </c>
       <c r="B2376" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2376" t="inlineStr">
         <is>
-          <t>Construction Spending MoMDEC</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2376" t="inlineStr"/>
       <c r="E2376" t="inlineStr">
         <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F2376" t="inlineStr"/>
+          <t>42.5</t>
+        </is>
+      </c>
+      <c r="F2376" t="inlineStr">
+        <is>
+          <t>44.1</t>
+        </is>
+      </c>
       <c r="G2376" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>44.1</t>
         </is>
       </c>
       <c r="H2376" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2377">
       <c r="A2377" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2377" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2377" t="inlineStr">
         <is>
-          <t>ISM Manufacturing New OrdersJAN</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2377" t="inlineStr"/>
-      <c r="E2377" t="inlineStr"/>
-      <c r="F2377" t="inlineStr"/>
-      <c r="G2377" t="inlineStr"/>
+      <c r="E2377" t="inlineStr">
+        <is>
+          <t>45.1</t>
+        </is>
+      </c>
+      <c r="F2377" t="inlineStr">
+        <is>
+          <t>46.1</t>
+        </is>
+      </c>
+      <c r="G2377" t="inlineStr">
+        <is>
+          <t>46.1</t>
+        </is>
+      </c>
       <c r="H2377" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2378">
       <c r="A2378" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2378" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2378" t="inlineStr">
         <is>
-          <t>ISM Manufacturing PricesJAN</t>
+          <t>ABSA Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2378" t="inlineStr"/>
-      <c r="E2378" t="inlineStr"/>
+      <c r="E2378" t="inlineStr">
+        <is>
+          <t>46.2</t>
+        </is>
+      </c>
       <c r="F2378" t="inlineStr"/>
-      <c r="G2378" t="inlineStr"/>
+      <c r="G2378" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
       <c r="H2378" t="inlineStr">
         <is>
           <t>3</t>
@@ -77084,43 +77478,55 @@
     <row r="2379">
       <c r="A2379" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B2379" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2379" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2379" t="inlineStr"/>
-      <c r="E2379" t="inlineStr"/>
-      <c r="F2379" t="inlineStr"/>
-      <c r="G2379" t="inlineStr"/>
+      <c r="E2379" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="F2379" t="inlineStr">
+        <is>
+          <t>48.2</t>
+        </is>
+      </c>
+      <c r="G2379" t="inlineStr">
+        <is>
+          <t>48.2</t>
+        </is>
+      </c>
       <c r="H2379" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2380">
       <c r="A2380" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2380" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2380" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Inflation Rate YoY FlashJAN</t>
         </is>
       </c>
       <c r="D2380" t="inlineStr"/>
@@ -77129,72 +77535,88 @@
       <c r="G2380" t="inlineStr"/>
       <c r="H2380" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2381">
-      <c r="A2381" t="inlineStr"/>
+      <c r="A2381" t="inlineStr">
+        <is>
+          <t>03:30 PM</t>
+        </is>
+      </c>
       <c r="B2381" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2381" t="inlineStr">
         <is>
-          <t>Total New Vehicle SalesJAN</t>
+          <t>Core Inflation Rate YoY FlashJAN</t>
         </is>
       </c>
       <c r="D2381" t="inlineStr"/>
       <c r="E2381" t="inlineStr">
         <is>
-          <t>41.27K</t>
+          <t>2.7%</t>
         </is>
       </c>
       <c r="F2381" t="inlineStr"/>
-      <c r="G2381" t="inlineStr">
-        <is>
-          <t>43.0K</t>
-        </is>
-      </c>
+      <c r="G2381" t="inlineStr"/>
       <c r="H2381" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2382">
       <c r="A2382" t="inlineStr">
         <is>
-          <t>Tuesday February 04 2025</t>
-        </is>
-      </c>
-      <c r="B2382" t="inlineStr"/>
-      <c r="C2382" t="inlineStr"/>
+          <t>03:30 PM</t>
+        </is>
+      </c>
+      <c r="B2382" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="C2382" t="inlineStr">
+        <is>
+          <t>Inflation Rate MoM FlashJAN</t>
+        </is>
+      </c>
       <c r="D2382" t="inlineStr"/>
       <c r="E2382" t="inlineStr"/>
       <c r="F2382" t="inlineStr"/>
       <c r="G2382" t="inlineStr"/>
-      <c r="H2382" t="inlineStr"/>
+      <c r="H2382" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="2383">
       <c r="A2383" t="inlineStr">
         <is>
-          <t>01:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2383" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2383" t="inlineStr">
         <is>
-          <t>Treasury Refunding Financing Estimates</t>
+          <t>CPI FlashJAN</t>
         </is>
       </c>
       <c r="D2383" t="inlineStr"/>
-      <c r="E2383" t="inlineStr"/>
+      <c r="E2383" t="inlineStr">
+        <is>
+          <t>127.07</t>
+        </is>
+      </c>
       <c r="F2383" t="inlineStr"/>
       <c r="G2383" t="inlineStr"/>
       <c r="H2383" t="inlineStr">
@@ -77206,83 +77628,83 @@
     <row r="2384">
       <c r="A2384" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2384" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2384" t="inlineStr">
         <is>
-          <t>Tax RevenueJAN</t>
+          <t>Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2384" t="inlineStr"/>
       <c r="E2384" t="inlineStr">
         <is>
-          <t>ARS13015B</t>
+          <t>1.3%</t>
         </is>
       </c>
       <c r="F2384" t="inlineStr"/>
       <c r="G2384" t="inlineStr"/>
       <c r="H2384" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2385">
       <c r="A2385" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2385" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2385" t="inlineStr">
         <is>
-          <t>10-Year JGB Auction</t>
+          <t>Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2385" t="inlineStr"/>
       <c r="E2385" t="inlineStr">
         <is>
-          <t>1.140%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2385" t="inlineStr"/>
       <c r="G2385" t="inlineStr"/>
       <c r="H2385" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2386">
       <c r="A2386" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2386" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2386" t="inlineStr">
         <is>
-          <t>Riyad Bank PMIJAN</t>
+          <t>Harmonised Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2386" t="inlineStr"/>
       <c r="E2386" t="inlineStr">
         <is>
-          <t>58.4</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2386" t="inlineStr"/>
@@ -77296,21 +77718,25 @@
     <row r="2387">
       <c r="A2387" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2387" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2387" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>Harmonised Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2387" t="inlineStr"/>
-      <c r="E2387" t="inlineStr"/>
+      <c r="E2387" t="inlineStr">
+        <is>
+          <t>1.4%</t>
+        </is>
+      </c>
       <c r="F2387" t="inlineStr"/>
       <c r="G2387" t="inlineStr"/>
       <c r="H2387" t="inlineStr">
@@ -77322,23 +77748,31 @@
     <row r="2388">
       <c r="A2388" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2388" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2388" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>Foreign Exchange ReservesDEC</t>
         </is>
       </c>
       <c r="D2388" t="inlineStr"/>
-      <c r="E2388" t="inlineStr"/>
+      <c r="E2388" t="inlineStr">
+        <is>
+          <t>$232.2B</t>
+        </is>
+      </c>
       <c r="F2388" t="inlineStr"/>
-      <c r="G2388" t="inlineStr"/>
+      <c r="G2388" t="inlineStr">
+        <is>
+          <t>$ 230B</t>
+        </is>
+      </c>
       <c r="H2388" t="inlineStr">
         <is>
           <t>3</t>
@@ -77348,28 +77782,744 @@
     <row r="2389">
       <c r="A2389" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2389" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2389" t="inlineStr">
         <is>
-          <t>30-Year KTB Auction</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2389" t="inlineStr"/>
       <c r="E2389" t="inlineStr">
         <is>
+          <t>50.4</t>
+        </is>
+      </c>
+      <c r="F2389" t="inlineStr"/>
+      <c r="G2389" t="inlineStr">
+        <is>
+          <t>49.8</t>
+        </is>
+      </c>
+      <c r="H2389" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2390">
+      <c r="A2390" t="inlineStr">
+        <is>
+          <t>06:30 PM</t>
+        </is>
+      </c>
+      <c r="B2390" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="C2390" t="inlineStr">
+        <is>
+          <t>SIPMM Manufacturing PMIJAN</t>
+        </is>
+      </c>
+      <c r="D2390" t="inlineStr"/>
+      <c r="E2390" t="inlineStr">
+        <is>
+          <t>51.1</t>
+        </is>
+      </c>
+      <c r="F2390" t="inlineStr"/>
+      <c r="G2390" t="inlineStr">
+        <is>
+          <t>51.4</t>
+        </is>
+      </c>
+      <c r="H2390" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2391">
+      <c r="A2391" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B2391" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2391" t="inlineStr">
+        <is>
+          <t>Fed Bostic Speech</t>
+        </is>
+      </c>
+      <c r="D2391" t="inlineStr"/>
+      <c r="E2391" t="inlineStr"/>
+      <c r="F2391" t="inlineStr"/>
+      <c r="G2391" t="inlineStr"/>
+      <c r="H2391" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2392">
+      <c r="A2392" t="inlineStr">
+        <is>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B2392" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C2392" t="inlineStr">
+        <is>
+          <t>12-Month BTF Auction</t>
+        </is>
+      </c>
+      <c r="D2392" t="inlineStr"/>
+      <c r="E2392" t="inlineStr"/>
+      <c r="F2392" t="inlineStr"/>
+      <c r="G2392" t="inlineStr"/>
+      <c r="H2392" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2393">
+      <c r="A2393" t="inlineStr">
+        <is>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B2393" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C2393" t="inlineStr">
+        <is>
+          <t>3-Month BTF Auction</t>
+        </is>
+      </c>
+      <c r="D2393" t="inlineStr"/>
+      <c r="E2393" t="inlineStr"/>
+      <c r="F2393" t="inlineStr"/>
+      <c r="G2393" t="inlineStr"/>
+      <c r="H2393" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2394">
+      <c r="A2394" t="inlineStr">
+        <is>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B2394" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C2394" t="inlineStr">
+        <is>
+          <t>6-Month BTF Auction</t>
+        </is>
+      </c>
+      <c r="D2394" t="inlineStr"/>
+      <c r="E2394" t="inlineStr"/>
+      <c r="F2394" t="inlineStr"/>
+      <c r="G2394" t="inlineStr"/>
+      <c r="H2394" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2395">
+      <c r="A2395" t="inlineStr">
+        <is>
+          <t>08:00 PM</t>
+        </is>
+      </c>
+      <c r="B2395" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="C2395" t="inlineStr">
+        <is>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
+        </is>
+      </c>
+      <c r="D2395" t="inlineStr"/>
+      <c r="E2395" t="inlineStr">
+        <is>
+          <t>52.2</t>
+        </is>
+      </c>
+      <c r="F2395" t="inlineStr"/>
+      <c r="G2395" t="inlineStr"/>
+      <c r="H2395" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2396">
+      <c r="A2396" t="inlineStr">
+        <is>
+          <t>08:15 PM</t>
+        </is>
+      </c>
+      <c r="B2396" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2396" t="inlineStr">
+        <is>
+          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
+        </is>
+      </c>
+      <c r="D2396" t="inlineStr"/>
+      <c r="E2396" t="inlineStr">
+        <is>
+          <t>49.4</t>
+        </is>
+      </c>
+      <c r="F2396" t="inlineStr">
+        <is>
+          <t>50.1</t>
+        </is>
+      </c>
+      <c r="G2396" t="inlineStr">
+        <is>
+          <t>50.1</t>
+        </is>
+      </c>
+      <c r="H2396" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2397">
+      <c r="A2397" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B2397" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2397" t="inlineStr">
+        <is>
+          <t>ISM Manufacturing PMIJAN</t>
+        </is>
+      </c>
+      <c r="D2397" t="inlineStr"/>
+      <c r="E2397" t="inlineStr">
+        <is>
+          <t>49.3</t>
+        </is>
+      </c>
+      <c r="F2397" t="inlineStr"/>
+      <c r="G2397" t="inlineStr"/>
+      <c r="H2397" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="2398">
+      <c r="A2398" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B2398" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2398" t="inlineStr">
+        <is>
+          <t>ISM Manufacturing EmploymentJAN</t>
+        </is>
+      </c>
+      <c r="D2398" t="inlineStr"/>
+      <c r="E2398" t="inlineStr">
+        <is>
+          <t>45.3</t>
+        </is>
+      </c>
+      <c r="F2398" t="inlineStr"/>
+      <c r="G2398" t="inlineStr"/>
+      <c r="H2398" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2399">
+      <c r="A2399" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B2399" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2399" t="inlineStr">
+        <is>
+          <t>Construction Spending MoMDEC</t>
+        </is>
+      </c>
+      <c r="D2399" t="inlineStr"/>
+      <c r="E2399" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F2399" t="inlineStr"/>
+      <c r="G2399" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="H2399" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2400">
+      <c r="A2400" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B2400" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2400" t="inlineStr">
+        <is>
+          <t>ISM Manufacturing New OrdersJAN</t>
+        </is>
+      </c>
+      <c r="D2400" t="inlineStr"/>
+      <c r="E2400" t="inlineStr"/>
+      <c r="F2400" t="inlineStr"/>
+      <c r="G2400" t="inlineStr"/>
+      <c r="H2400" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2401">
+      <c r="A2401" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B2401" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2401" t="inlineStr">
+        <is>
+          <t>ISM Manufacturing PricesJAN</t>
+        </is>
+      </c>
+      <c r="D2401" t="inlineStr"/>
+      <c r="E2401" t="inlineStr"/>
+      <c r="F2401" t="inlineStr"/>
+      <c r="G2401" t="inlineStr"/>
+      <c r="H2401" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2402">
+      <c r="A2402" t="inlineStr">
+        <is>
+          <t>10:00 PM</t>
+        </is>
+      </c>
+      <c r="B2402" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2402" t="inlineStr">
+        <is>
+          <t>3-Month Bill Auction</t>
+        </is>
+      </c>
+      <c r="D2402" t="inlineStr"/>
+      <c r="E2402" t="inlineStr"/>
+      <c r="F2402" t="inlineStr"/>
+      <c r="G2402" t="inlineStr"/>
+      <c r="H2402" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2403">
+      <c r="A2403" t="inlineStr">
+        <is>
+          <t>10:00 PM</t>
+        </is>
+      </c>
+      <c r="B2403" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2403" t="inlineStr">
+        <is>
+          <t>6-Month Bill Auction</t>
+        </is>
+      </c>
+      <c r="D2403" t="inlineStr"/>
+      <c r="E2403" t="inlineStr"/>
+      <c r="F2403" t="inlineStr"/>
+      <c r="G2403" t="inlineStr"/>
+      <c r="H2403" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2404">
+      <c r="A2404" t="inlineStr"/>
+      <c r="B2404" t="inlineStr">
+        <is>
+          <t>ZA</t>
+        </is>
+      </c>
+      <c r="C2404" t="inlineStr">
+        <is>
+          <t>Total New Vehicle SalesJAN</t>
+        </is>
+      </c>
+      <c r="D2404" t="inlineStr"/>
+      <c r="E2404" t="inlineStr">
+        <is>
+          <t>41.27K</t>
+        </is>
+      </c>
+      <c r="F2404" t="inlineStr"/>
+      <c r="G2404" t="inlineStr">
+        <is>
+          <t>43.0K</t>
+        </is>
+      </c>
+      <c r="H2404" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2405">
+      <c r="A2405" t="inlineStr">
+        <is>
+          <t>Tuesday February 04 2025</t>
+        </is>
+      </c>
+      <c r="B2405" t="inlineStr"/>
+      <c r="C2405" t="inlineStr"/>
+      <c r="D2405" t="inlineStr"/>
+      <c r="E2405" t="inlineStr"/>
+      <c r="F2405" t="inlineStr"/>
+      <c r="G2405" t="inlineStr"/>
+      <c r="H2405" t="inlineStr"/>
+    </row>
+    <row r="2406">
+      <c r="A2406" t="inlineStr">
+        <is>
+          <t>01:30 AM</t>
+        </is>
+      </c>
+      <c r="B2406" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2406" t="inlineStr">
+        <is>
+          <t>Treasury Refunding Financing Estimates</t>
+        </is>
+      </c>
+      <c r="D2406" t="inlineStr"/>
+      <c r="E2406" t="inlineStr"/>
+      <c r="F2406" t="inlineStr"/>
+      <c r="G2406" t="inlineStr"/>
+      <c r="H2406" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2407">
+      <c r="A2407" t="inlineStr">
+        <is>
+          <t>03:30 AM</t>
+        </is>
+      </c>
+      <c r="B2407" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C2407" t="inlineStr">
+        <is>
+          <t>Tax RevenueJAN</t>
+        </is>
+      </c>
+      <c r="D2407" t="inlineStr"/>
+      <c r="E2407" t="inlineStr">
+        <is>
+          <t>ARS13015B</t>
+        </is>
+      </c>
+      <c r="F2407" t="inlineStr"/>
+      <c r="G2407" t="inlineStr"/>
+      <c r="H2407" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2408">
+      <c r="A2408" t="inlineStr">
+        <is>
+          <t>09:05 AM</t>
+        </is>
+      </c>
+      <c r="B2408" t="inlineStr">
+        <is>
+          <t>JP</t>
+        </is>
+      </c>
+      <c r="C2408" t="inlineStr">
+        <is>
+          <t>10-Year JGB Auction</t>
+        </is>
+      </c>
+      <c r="D2408" t="inlineStr"/>
+      <c r="E2408" t="inlineStr">
+        <is>
+          <t>1.140%</t>
+        </is>
+      </c>
+      <c r="F2408" t="inlineStr"/>
+      <c r="G2408" t="inlineStr"/>
+      <c r="H2408" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2409">
+      <c r="A2409" t="inlineStr">
+        <is>
+          <t>09:45 AM</t>
+        </is>
+      </c>
+      <c r="B2409" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="C2409" t="inlineStr">
+        <is>
+          <t>Riyad Bank PMIJAN</t>
+        </is>
+      </c>
+      <c r="D2409" t="inlineStr"/>
+      <c r="E2409" t="inlineStr">
+        <is>
+          <t>58.4</t>
+        </is>
+      </c>
+      <c r="F2409" t="inlineStr"/>
+      <c r="G2409" t="inlineStr"/>
+      <c r="H2409" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2410">
+      <c r="A2410" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B2410" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="C2410" t="inlineStr">
+        <is>
+          <t>MAS 12-Week Bill Auction</t>
+        </is>
+      </c>
+      <c r="D2410" t="inlineStr"/>
+      <c r="E2410" t="inlineStr"/>
+      <c r="F2410" t="inlineStr"/>
+      <c r="G2410" t="inlineStr"/>
+      <c r="H2410" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2411">
+      <c r="A2411" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B2411" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="C2411" t="inlineStr">
+        <is>
+          <t>MAS 4-Week Bill Auction</t>
+        </is>
+      </c>
+      <c r="D2411" t="inlineStr"/>
+      <c r="E2411" t="inlineStr"/>
+      <c r="F2411" t="inlineStr"/>
+      <c r="G2411" t="inlineStr"/>
+      <c r="H2411" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2412">
+      <c r="A2412" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B2412" t="inlineStr">
+        <is>
+          <t>KR</t>
+        </is>
+      </c>
+      <c r="C2412" t="inlineStr">
+        <is>
+          <t>30-Year KTB Auction</t>
+        </is>
+      </c>
+      <c r="D2412" t="inlineStr"/>
+      <c r="E2412" t="inlineStr">
+        <is>
           <t>2.705%</t>
         </is>
       </c>
-      <c r="F2389" t="inlineStr"/>
-      <c r="G2389" t="inlineStr"/>
-      <c r="H2389" t="inlineStr">
+      <c r="F2412" t="inlineStr"/>
+      <c r="G2412" t="inlineStr"/>
+      <c r="H2412" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2413">
+      <c r="A2413" t="inlineStr"/>
+      <c r="B2413" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="C2413" t="inlineStr">
+        <is>
+          <t>Balance of Trade PrelJAN</t>
+        </is>
+      </c>
+      <c r="D2413" t="inlineStr"/>
+      <c r="E2413" t="inlineStr"/>
+      <c r="F2413" t="inlineStr"/>
+      <c r="G2413" t="inlineStr"/>
+      <c r="H2413" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2414">
+      <c r="A2414" t="inlineStr"/>
+      <c r="B2414" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="C2414" t="inlineStr">
+        <is>
+          <t>Exports PrelJAN</t>
+        </is>
+      </c>
+      <c r="D2414" t="inlineStr"/>
+      <c r="E2414" t="inlineStr"/>
+      <c r="F2414" t="inlineStr"/>
+      <c r="G2414" t="inlineStr"/>
+      <c r="H2414" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2415">
+      <c r="A2415" t="inlineStr"/>
+      <c r="B2415" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="C2415" t="inlineStr">
+        <is>
+          <t>Imports PrelJAN</t>
+        </is>
+      </c>
+      <c r="D2415" t="inlineStr"/>
+      <c r="E2415" t="inlineStr"/>
+      <c r="F2415" t="inlineStr"/>
+      <c r="G2415" t="inlineStr"/>
+      <c r="H2415" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-04.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-04.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2415"/>
+  <dimension ref="A1:H2397"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70927,10 +70927,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H2181" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2181" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2182">
@@ -70965,10 +70963,8 @@
           <t>2.7%</t>
         </is>
       </c>
-      <c r="H2182" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2182" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2183">
@@ -70999,10 +70995,8 @@
           <t>2.7%</t>
         </is>
       </c>
-      <c r="H2183" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2183" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2184">
@@ -71033,10 +71027,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H2184" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2184" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2185">
@@ -71067,10 +71059,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H2185" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2185" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2186">
@@ -71105,10 +71095,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H2186" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2186" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2187">
@@ -71143,10 +71131,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H2187" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2187" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2188">
@@ -71181,10 +71167,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2188" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2188" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2189">
@@ -71215,10 +71199,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2189" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2189" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2190">
@@ -71249,10 +71231,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H2190" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2190" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2191">
@@ -71283,10 +71263,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2191" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2191" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2192">
@@ -71317,10 +71295,8 @@
           <t>£ 1.3B</t>
         </is>
       </c>
-      <c r="H2192" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2192" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2193">
@@ -71355,10 +71331,8 @@
           <t>65.1K</t>
         </is>
       </c>
-      <c r="H2193" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2193" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2194">
@@ -71389,10 +71363,8 @@
           <t>£ 2.2B</t>
         </is>
       </c>
-      <c r="H2194" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2194" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2195">
@@ -71427,10 +71399,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H2195" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2195" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2196">
@@ -71465,10 +71435,8 @@
           <t>£3.5B</t>
         </is>
       </c>
-      <c r="H2196" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2196" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2197">
@@ -71503,10 +71471,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2197" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2197" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2198">
@@ -71541,10 +71507,8 @@
           <t>6.4%</t>
         </is>
       </c>
-      <c r="H2198" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2198" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2199">
@@ -71575,10 +71539,8 @@
         </is>
       </c>
       <c r="G2199" t="inlineStr"/>
-      <c r="H2199" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2199" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2200">
@@ -71613,10 +71575,8 @@
           <t>93.5</t>
         </is>
       </c>
-      <c r="H2200" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2200" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2201">
@@ -71651,10 +71611,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H2201" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2201" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2202">
@@ -71685,10 +71643,8 @@
           <t>22</t>
         </is>
       </c>
-      <c r="H2202" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2202" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2203">
@@ -71719,10 +71675,8 @@
           <t>-14.5</t>
         </is>
       </c>
-      <c r="H2203" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2203" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2204">
@@ -71753,10 +71707,8 @@
           <t>8</t>
         </is>
       </c>
-      <c r="H2204" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2204" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2205">
@@ -71787,10 +71739,8 @@
           <t>6</t>
         </is>
       </c>
-      <c r="H2205" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2205" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2206">
@@ -71825,10 +71775,8 @@
           <t>5.6%</t>
         </is>
       </c>
-      <c r="H2206" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2206" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2207">
@@ -71851,10 +71799,8 @@
       <c r="E2207" t="inlineStr"/>
       <c r="F2207" t="inlineStr"/>
       <c r="G2207" t="inlineStr"/>
-      <c r="H2207" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2207" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2208">
@@ -71885,10 +71831,8 @@
           <t>0.9%</t>
         </is>
       </c>
-      <c r="H2208" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2208" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2209">
@@ -71919,10 +71863,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H2209" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2209" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2210">
@@ -71953,10 +71895,8 @@
           <t>-5.1%</t>
         </is>
       </c>
-      <c r="H2210" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2210" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2211">
@@ -71979,10 +71919,8 @@
       <c r="E2211" t="inlineStr"/>
       <c r="F2211" t="inlineStr"/>
       <c r="G2211" t="inlineStr"/>
-      <c r="H2211" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2211" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2212">
@@ -72009,10 +71947,8 @@
       </c>
       <c r="F2212" t="inlineStr"/>
       <c r="G2212" t="inlineStr"/>
-      <c r="H2212" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2212" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2213">
@@ -72043,10 +71979,8 @@
           <t>56.2</t>
         </is>
       </c>
-      <c r="H2213" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2213" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2214">
@@ -72077,10 +72011,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2214" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2214" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2215">
@@ -72111,10 +72043,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H2215" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2215" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2216">
@@ -72145,10 +72075,8 @@
           <t>-5</t>
         </is>
       </c>
-      <c r="H2216" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2216" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2217">
@@ -72183,10 +72111,8 @@
           <t>7.50%</t>
         </is>
       </c>
-      <c r="H2217" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2217" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2218">
@@ -72217,10 +72143,8 @@
           <t>11.0%</t>
         </is>
       </c>
-      <c r="H2218" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2218" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2219">
@@ -72255,10 +72179,8 @@
           <t>2.75%</t>
         </is>
       </c>
-      <c r="H2219" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2219" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2220">
@@ -72293,10 +72215,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H2220" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2220" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2221">
@@ -72327,10 +72247,8 @@
           <t>3.15%</t>
         </is>
       </c>
-      <c r="H2221" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2221" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2222">
@@ -72361,10 +72279,8 @@
           <t>5.0%</t>
         </is>
       </c>
-      <c r="H2222" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2222" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2223">
@@ -72399,10 +72315,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H2223" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2223" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2224">
@@ -72437,10 +72351,8 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="H2224" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2224" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2225">
@@ -72475,10 +72387,8 @@
           <t>228.0K</t>
         </is>
       </c>
-      <c r="H2225" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2225" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2226">
@@ -72509,10 +72419,8 @@
           <t>1885.0K</t>
         </is>
       </c>
-      <c r="H2226" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2226" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2227">
@@ -72543,10 +72451,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="H2227" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2227" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2228">
@@ -72577,10 +72483,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H2228" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2228" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2229">
@@ -72611,10 +72515,8 @@
           <t>214.0K</t>
         </is>
       </c>
-      <c r="H2229" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2229" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2230">
@@ -72645,10 +72547,8 @@
           <t>1.1%</t>
         </is>
       </c>
-      <c r="H2230" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2230" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2231">
@@ -72679,10 +72579,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H2231" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2231" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2232">
@@ -72705,10 +72603,8 @@
       <c r="E2232" t="inlineStr"/>
       <c r="F2232" t="inlineStr"/>
       <c r="G2232" t="inlineStr"/>
-      <c r="H2232" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2232" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2233">
@@ -72743,10 +72639,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2233" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2233" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2234">
@@ -72777,10 +72671,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H2234" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2234" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2235">
@@ -72807,10 +72699,8 @@
       </c>
       <c r="F2235" t="inlineStr"/>
       <c r="G2235" t="inlineStr"/>
-      <c r="H2235" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2235" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2236">
@@ -72837,10 +72727,8 @@
       </c>
       <c r="F2236" t="inlineStr"/>
       <c r="G2236" t="inlineStr"/>
-      <c r="H2236" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2236" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2237">
@@ -72867,10 +72755,8 @@
       </c>
       <c r="F2237" t="inlineStr"/>
       <c r="G2237" t="inlineStr"/>
-      <c r="H2237" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2237" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2238">
@@ -72897,10 +72783,8 @@
       </c>
       <c r="F2238" t="inlineStr"/>
       <c r="G2238" t="inlineStr"/>
-      <c r="H2238" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2238" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2239">
@@ -72927,10 +72811,8 @@
       </c>
       <c r="F2239" t="inlineStr"/>
       <c r="G2239" t="inlineStr"/>
-      <c r="H2239" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2239" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2240">
@@ -72957,10 +72839,8 @@
           <t>ZAR14.0B</t>
         </is>
       </c>
-      <c r="H2240" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2240" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2241">
@@ -72987,10 +72867,8 @@
           <t>10.6%</t>
         </is>
       </c>
-      <c r="H2241" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2241" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2242">
@@ -73017,10 +72895,8 @@
           <t>12.8%</t>
         </is>
       </c>
-      <c r="H2242" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2242" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2243">
@@ -73043,10 +72919,8 @@
       </c>
       <c r="F2243" t="inlineStr"/>
       <c r="G2243" t="inlineStr"/>
-      <c r="H2243" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2243" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2244">
@@ -73069,10 +72943,8 @@
       </c>
       <c r="F2244" t="inlineStr"/>
       <c r="G2244" t="inlineStr"/>
-      <c r="H2244" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2244" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2245">
@@ -73099,50 +72971,72 @@
           <t>90.0K</t>
         </is>
       </c>
-      <c r="H2245" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2245" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2246">
       <c r="A2246" t="inlineStr">
         <is>
-          <t>Friday January 31 2025</t>
-        </is>
-      </c>
-      <c r="B2246" t="inlineStr"/>
-      <c r="C2246" t="inlineStr"/>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B2246" t="inlineStr">
+        <is>
+          <t>JP</t>
+        </is>
+      </c>
+      <c r="C2246" t="inlineStr">
+        <is>
+          <t>Construction Orders YoYDEC</t>
+        </is>
+      </c>
       <c r="D2246" t="inlineStr"/>
-      <c r="E2246" t="inlineStr"/>
+      <c r="E2246" t="inlineStr">
+        <is>
+          <t>-10.2%</t>
+        </is>
+      </c>
       <c r="F2246" t="inlineStr"/>
-      <c r="G2246" t="inlineStr"/>
-      <c r="H2246" t="inlineStr"/>
+      <c r="G2246" t="inlineStr">
+        <is>
+          <t>5.5%</t>
+        </is>
+      </c>
+      <c r="H2246" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2247">
       <c r="A2247" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2247" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2247" t="inlineStr">
         <is>
-          <t>Fed Balance SheetJAN/29</t>
+          <t>Business ConfidenceQ4</t>
         </is>
       </c>
       <c r="D2247" t="inlineStr"/>
       <c r="E2247" t="inlineStr">
         <is>
-          <t>$6.88T</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F2247" t="inlineStr"/>
-      <c r="G2247" t="inlineStr"/>
+      <c r="G2247" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
       <c r="H2247" t="inlineStr">
         <is>
           <t>3</t>
@@ -73152,33 +73046,33 @@
     <row r="2248">
       <c r="A2248" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2248" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2248" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D2248" t="inlineStr"/>
       <c r="E2248" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>-0.6%</t>
         </is>
       </c>
       <c r="F2248" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="G2248" t="inlineStr">
         <is>
-          <t>2.50%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H2248" t="inlineStr">
@@ -73190,105 +73084,101 @@
     <row r="2249">
       <c r="A2249" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2249" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2249" t="inlineStr">
         <is>
-          <t>Jobs/applications ratioDEC</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="D2249" t="inlineStr"/>
       <c r="E2249" t="inlineStr">
         <is>
-          <t>1.25</t>
-        </is>
-      </c>
-      <c r="F2249" t="inlineStr">
-        <is>
-          <t>1.25</t>
-        </is>
-      </c>
+          <t>2.5%</t>
+        </is>
+      </c>
+      <c r="F2249" t="inlineStr"/>
       <c r="G2249" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="H2249" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2250">
       <c r="A2250" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2250" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2250" t="inlineStr">
         <is>
-          <t>Tokyo Core CPI YoYJAN</t>
+          <t>Balance of Trade FinalDEC</t>
         </is>
       </c>
       <c r="D2250" t="inlineStr"/>
       <c r="E2250" t="inlineStr">
         <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="F2250" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
+          <t>$-7.46B</t>
+        </is>
+      </c>
+      <c r="F2250" t="inlineStr"/>
       <c r="G2250" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>$-8.82B</t>
         </is>
       </c>
       <c r="H2250" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2251">
       <c r="A2251" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2251" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2251" t="inlineStr">
         <is>
-          <t>Tokyo CPI Ex Food and Energy YoYJAN</t>
+          <t>Exports FinalDEC</t>
         </is>
       </c>
       <c r="D2251" t="inlineStr"/>
       <c r="E2251" t="inlineStr">
         <is>
-          <t>1.1%</t>
-        </is>
-      </c>
-      <c r="F2251" t="inlineStr"/>
+          <t>$22.29B</t>
+        </is>
+      </c>
+      <c r="F2251" t="inlineStr">
+        <is>
+          <t>$23.46B</t>
+        </is>
+      </c>
       <c r="G2251" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>$ 23.46B</t>
         </is>
       </c>
       <c r="H2251" t="inlineStr">
@@ -73300,29 +73190,29 @@
     <row r="2252">
       <c r="A2252" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2252" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2252" t="inlineStr">
         <is>
-          <t>Tokyo CPI YoYJAN</t>
+          <t>Imports FinalDEC</t>
         </is>
       </c>
       <c r="D2252" t="inlineStr"/>
       <c r="E2252" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>$29.75B</t>
         </is>
       </c>
       <c r="F2252" t="inlineStr"/>
       <c r="G2252" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>$32.29B</t>
         </is>
       </c>
       <c r="H2252" t="inlineStr">
@@ -73334,71 +73224,63 @@
     <row r="2253">
       <c r="A2253" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2253" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2253" t="inlineStr">
         <is>
-          <t>Industrial Production MoM PrelDEC</t>
+          <t>Tourism RevenuesQ4</t>
         </is>
       </c>
       <c r="D2253" t="inlineStr"/>
       <c r="E2253" t="inlineStr">
         <is>
-          <t>-2.2%</t>
-        </is>
-      </c>
-      <c r="F2253" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+          <t>$23.22B</t>
+        </is>
+      </c>
+      <c r="F2253" t="inlineStr"/>
       <c r="G2253" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>$ 23.5B</t>
         </is>
       </c>
       <c r="H2253" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2254">
       <c r="A2254" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2254" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2254" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Nationwide Housing Prices MoMJAN</t>
         </is>
       </c>
       <c r="D2254" t="inlineStr"/>
       <c r="E2254" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F2254" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
+          <t>0.7%</t>
+        </is>
+      </c>
+      <c r="F2254" t="inlineStr"/>
       <c r="G2254" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>0.9%</t>
         </is>
       </c>
       <c r="H2254" t="inlineStr">
@@ -73410,97 +73292,101 @@
     <row r="2255">
       <c r="A2255" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2255" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2255" t="inlineStr">
         <is>
-          <t>Industrial Production YoY PrelDEC</t>
+          <t>Nationwide Housing Prices YoYJAN</t>
         </is>
       </c>
       <c r="D2255" t="inlineStr"/>
       <c r="E2255" t="inlineStr">
         <is>
-          <t>-2.8%</t>
+          <t>4.7%</t>
         </is>
       </c>
       <c r="F2255" t="inlineStr"/>
       <c r="G2255" t="inlineStr">
         <is>
-          <t>-1.6%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H2255" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2256">
       <c r="A2256" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2256" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2256" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2256" t="inlineStr"/>
       <c r="E2256" t="inlineStr">
         <is>
-          <t>1.8%</t>
+          <t>1.3%</t>
         </is>
       </c>
       <c r="F2256" t="inlineStr"/>
       <c r="G2256" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="H2256" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2257">
       <c r="A2257" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2257" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2257" t="inlineStr">
         <is>
-          <t>PPI QoQQ4</t>
+          <t>Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2257" t="inlineStr"/>
       <c r="E2257" t="inlineStr">
         <is>
-          <t>0.9%</t>
-        </is>
-      </c>
-      <c r="F2257" t="inlineStr"/>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="F2257" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
       <c r="G2257" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H2257" t="inlineStr">
@@ -73512,33 +73398,29 @@
     <row r="2258">
       <c r="A2258" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2258" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2258" t="inlineStr">
         <is>
-          <t>Housing Credit MoMDEC</t>
+          <t>Harmonised Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2258" t="inlineStr"/>
       <c r="E2258" t="inlineStr">
         <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="F2258" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="F2258" t="inlineStr"/>
       <c r="G2258" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H2258" t="inlineStr">
@@ -73550,29 +73432,29 @@
     <row r="2259">
       <c r="A2259" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2259" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2259" t="inlineStr">
         <is>
-          <t>PPI YoYQ4</t>
+          <t>Harmonised Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2259" t="inlineStr"/>
       <c r="E2259" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>1.8%</t>
         </is>
       </c>
       <c r="F2259" t="inlineStr"/>
       <c r="G2259" t="inlineStr">
         <is>
-          <t>3.6%</t>
+          <t>2.0%</t>
         </is>
       </c>
       <c r="H2259" t="inlineStr">
@@ -73584,29 +73466,29 @@
     <row r="2260">
       <c r="A2260" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2260" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2260" t="inlineStr">
         <is>
-          <t>Private Sector Credit MoMDEC</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D2260" t="inlineStr"/>
       <c r="E2260" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>3.2%</t>
         </is>
       </c>
       <c r="F2260" t="inlineStr"/>
       <c r="G2260" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H2260" t="inlineStr">
@@ -73618,29 +73500,29 @@
     <row r="2261">
       <c r="A2261" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2261" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2261" t="inlineStr">
         <is>
-          <t>Private Sector Credit YoYDEC</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D2261" t="inlineStr"/>
       <c r="E2261" t="inlineStr">
         <is>
-          <t>6.2%</t>
+          <t>-5.2%</t>
         </is>
       </c>
       <c r="F2261" t="inlineStr"/>
       <c r="G2261" t="inlineStr">
         <is>
-          <t>5.7%</t>
+          <t>-4.3%</t>
         </is>
       </c>
       <c r="H2261" t="inlineStr">
@@ -73652,29 +73534,29 @@
     <row r="2262">
       <c r="A2262" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2262" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2262" t="inlineStr">
         <is>
-          <t>Bank LendingDEC</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D2262" t="inlineStr"/>
       <c r="E2262" t="inlineStr">
         <is>
-          <t>S$819.4B</t>
+          <t>-0.6%</t>
         </is>
       </c>
       <c r="F2262" t="inlineStr"/>
       <c r="G2262" t="inlineStr">
         <is>
-          <t>S$ 818.2B</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="H2262" t="inlineStr">
@@ -73686,27 +73568,31 @@
     <row r="2263">
       <c r="A2263" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2263" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2263" t="inlineStr">
         <is>
-          <t>2-Year JGB Auction</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="D2263" t="inlineStr"/>
       <c r="E2263" t="inlineStr">
         <is>
-          <t>0.602%</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="F2263" t="inlineStr"/>
-      <c r="G2263" t="inlineStr"/>
+      <c r="G2263" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H2263" t="inlineStr">
         <is>
           <t>3</t>
@@ -73716,23 +73602,23 @@
     <row r="2264">
       <c r="A2264" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2264" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2264" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Tourist Arrivals YoYDEC</t>
         </is>
       </c>
       <c r="D2264" t="inlineStr"/>
       <c r="E2264" t="inlineStr">
         <is>
-          <t>0.3657%</t>
+          <t>8.25%</t>
         </is>
       </c>
       <c r="F2264" t="inlineStr"/>
@@ -73746,141 +73632,133 @@
     <row r="2265">
       <c r="A2265" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>02:25 PM</t>
         </is>
       </c>
       <c r="B2265" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2265" t="inlineStr">
         <is>
-          <t>Housing Starts YoYDEC</t>
+          <t>Unemployment ChangeJAN</t>
         </is>
       </c>
       <c r="D2265" t="inlineStr"/>
       <c r="E2265" t="inlineStr">
         <is>
-          <t>-1.8%</t>
+          <t>10K</t>
         </is>
       </c>
       <c r="F2265" t="inlineStr">
         <is>
-          <t>-3.9%</t>
+          <t>15K</t>
         </is>
       </c>
       <c r="G2265" t="inlineStr">
         <is>
-          <t>-3.3%</t>
+          <t>7.0K</t>
         </is>
       </c>
       <c r="H2265" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2266">
       <c r="A2266" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>02:25 PM</t>
         </is>
       </c>
       <c r="B2266" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2266" t="inlineStr">
         <is>
-          <t>Construction Orders YoYDEC</t>
+          <t>Unemployed PersonsJAN</t>
         </is>
       </c>
       <c r="D2266" t="inlineStr"/>
       <c r="E2266" t="inlineStr">
         <is>
-          <t>-10.2%</t>
+          <t>2.869M</t>
         </is>
       </c>
       <c r="F2266" t="inlineStr"/>
       <c r="G2266" t="inlineStr">
         <is>
-          <t>5.5%</t>
+          <t>2.876M</t>
         </is>
       </c>
       <c r="H2266" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2267">
       <c r="A2267" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>02:25 PM</t>
         </is>
       </c>
       <c r="B2267" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2267" t="inlineStr">
         <is>
-          <t>Business ConfidenceQ4</t>
+          <t>Unemployment RateJAN</t>
         </is>
       </c>
       <c r="D2267" t="inlineStr"/>
       <c r="E2267" t="inlineStr">
         <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="F2267" t="inlineStr"/>
+          <t>6.1%</t>
+        </is>
+      </c>
+      <c r="F2267" t="inlineStr">
+        <is>
+          <t>6.2%</t>
+        </is>
+      </c>
       <c r="G2267" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>6.2%</t>
         </is>
       </c>
       <c r="H2267" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2268">
       <c r="A2268" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2268" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2268" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>ECB Survey of Professional Forecasters</t>
         </is>
       </c>
       <c r="D2268" t="inlineStr"/>
-      <c r="E2268" t="inlineStr">
-        <is>
-          <t>-0.6%</t>
-        </is>
-      </c>
-      <c r="F2268" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="G2268" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E2268" t="inlineStr"/>
+      <c r="F2268" t="inlineStr"/>
+      <c r="G2268" t="inlineStr"/>
       <c r="H2268" t="inlineStr">
         <is>
           <t>2</t>
@@ -73890,7 +73768,7 @@
     <row r="2269">
       <c r="A2269" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2269" t="inlineStr">
@@ -73900,93 +73778,77 @@
       </c>
       <c r="C2269" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Baden Wuerttemberg CPI MoMJAN</t>
         </is>
       </c>
       <c r="D2269" t="inlineStr"/>
       <c r="E2269" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F2269" t="inlineStr"/>
-      <c r="G2269" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
+      <c r="G2269" t="inlineStr"/>
       <c r="H2269" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2270">
       <c r="A2270" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2270" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2270" t="inlineStr">
         <is>
-          <t>Balance of Trade FinalDEC</t>
+          <t>Baden Wuerttemberg CPI YoYJAN</t>
         </is>
       </c>
       <c r="D2270" t="inlineStr"/>
       <c r="E2270" t="inlineStr">
         <is>
-          <t>$-7.46B</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F2270" t="inlineStr"/>
-      <c r="G2270" t="inlineStr">
-        <is>
-          <t>$-8.82B</t>
-        </is>
-      </c>
+      <c r="G2270" t="inlineStr"/>
       <c r="H2270" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2271">
       <c r="A2271" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2271" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2271" t="inlineStr">
         <is>
-          <t>Exports FinalDEC</t>
+          <t>Bavaria CPI MoMJAN</t>
         </is>
       </c>
       <c r="D2271" t="inlineStr"/>
       <c r="E2271" t="inlineStr">
         <is>
-          <t>$22.29B</t>
-        </is>
-      </c>
-      <c r="F2271" t="inlineStr">
-        <is>
-          <t>$23.46B</t>
-        </is>
-      </c>
-      <c r="G2271" t="inlineStr">
-        <is>
-          <t>$ 23.46B</t>
-        </is>
-      </c>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="F2271" t="inlineStr"/>
+      <c r="G2271" t="inlineStr"/>
       <c r="H2271" t="inlineStr">
         <is>
           <t>3</t>
@@ -73996,31 +73858,27 @@
     <row r="2272">
       <c r="A2272" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2272" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2272" t="inlineStr">
         <is>
-          <t>Imports FinalDEC</t>
+          <t>Bavaria CPI YoYJAN</t>
         </is>
       </c>
       <c r="D2272" t="inlineStr"/>
       <c r="E2272" t="inlineStr">
         <is>
-          <t>$29.75B</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="F2272" t="inlineStr"/>
-      <c r="G2272" t="inlineStr">
-        <is>
-          <t>$32.29B</t>
-        </is>
-      </c>
+      <c r="G2272" t="inlineStr"/>
       <c r="H2272" t="inlineStr">
         <is>
           <t>3</t>
@@ -74030,31 +73888,27 @@
     <row r="2273">
       <c r="A2273" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2273" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2273" t="inlineStr">
         <is>
-          <t>Tourism RevenuesQ4</t>
+          <t>Brandenburg CPI MoMJAN</t>
         </is>
       </c>
       <c r="D2273" t="inlineStr"/>
       <c r="E2273" t="inlineStr">
         <is>
-          <t>$23.22B</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F2273" t="inlineStr"/>
-      <c r="G2273" t="inlineStr">
-        <is>
-          <t>$ 23.5B</t>
-        </is>
-      </c>
+      <c r="G2273" t="inlineStr"/>
       <c r="H2273" t="inlineStr">
         <is>
           <t>3</t>
@@ -74064,171 +73918,147 @@
     <row r="2274">
       <c r="A2274" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2274" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2274" t="inlineStr">
         <is>
-          <t>Nationwide Housing Prices MoMJAN</t>
+          <t>Brandenburg CPI YoYJAN</t>
         </is>
       </c>
       <c r="D2274" t="inlineStr"/>
       <c r="E2274" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F2274" t="inlineStr"/>
-      <c r="G2274" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
+      <c r="G2274" t="inlineStr"/>
       <c r="H2274" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2275">
       <c r="A2275" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2275" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2275" t="inlineStr">
         <is>
-          <t>Nationwide Housing Prices YoYJAN</t>
+          <t>Hesse CPI MoMJAN</t>
         </is>
       </c>
       <c r="D2275" t="inlineStr"/>
       <c r="E2275" t="inlineStr">
         <is>
-          <t>4.7%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F2275" t="inlineStr"/>
-      <c r="G2275" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+      <c r="G2275" t="inlineStr"/>
       <c r="H2275" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2276">
       <c r="A2276" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2276" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2276" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelJAN</t>
+          <t>Hesse CPI YoYJAN</t>
         </is>
       </c>
       <c r="D2276" t="inlineStr"/>
       <c r="E2276" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F2276" t="inlineStr"/>
-      <c r="G2276" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
+      <c r="G2276" t="inlineStr"/>
       <c r="H2276" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2277">
       <c r="A2277" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2277" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2277" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM PrelJAN</t>
+          <t>North Rhine Westphalia CPI MoMJAN</t>
         </is>
       </c>
       <c r="D2277" t="inlineStr"/>
       <c r="E2277" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F2277" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="G2277" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="F2277" t="inlineStr"/>
+      <c r="G2277" t="inlineStr"/>
       <c r="H2277" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2278">
       <c r="A2278" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2278" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2278" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM PrelJAN</t>
+          <t>North Rhine Westphalia CPI YoYJAN</t>
         </is>
       </c>
       <c r="D2278" t="inlineStr"/>
       <c r="E2278" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>2.5%</t>
         </is>
       </c>
       <c r="F2278" t="inlineStr"/>
-      <c r="G2278" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G2278" t="inlineStr"/>
       <c r="H2278" t="inlineStr">
         <is>
           <t>3</t>
@@ -74238,31 +74068,27 @@
     <row r="2279">
       <c r="A2279" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2279" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2279" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY PrelJAN</t>
+          <t>Saxony CPI MoMJAN</t>
         </is>
       </c>
       <c r="D2279" t="inlineStr"/>
       <c r="E2279" t="inlineStr">
         <is>
-          <t>1.8%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F2279" t="inlineStr"/>
-      <c r="G2279" t="inlineStr">
-        <is>
-          <t>2.0%</t>
-        </is>
-      </c>
+      <c r="G2279" t="inlineStr"/>
       <c r="H2279" t="inlineStr">
         <is>
           <t>3</t>
@@ -74272,17 +74098,17 @@
     <row r="2280">
       <c r="A2280" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2280" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2280" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Saxony CPI YoYJAN</t>
         </is>
       </c>
       <c r="D2280" t="inlineStr"/>
@@ -74292,11 +74118,7 @@
         </is>
       </c>
       <c r="F2280" t="inlineStr"/>
-      <c r="G2280" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G2280" t="inlineStr"/>
       <c r="H2280" t="inlineStr">
         <is>
           <t>3</t>
@@ -74306,29 +74128,29 @@
     <row r="2281">
       <c r="A2281" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2281" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2281" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Current AccountNOV</t>
         </is>
       </c>
       <c r="D2281" t="inlineStr"/>
       <c r="E2281" t="inlineStr">
         <is>
-          <t>-5.2%</t>
+          <t>€4.9B</t>
         </is>
       </c>
       <c r="F2281" t="inlineStr"/>
       <c r="G2281" t="inlineStr">
         <is>
-          <t>-4.3%</t>
+          <t>€5.0B</t>
         </is>
       </c>
       <c r="H2281" t="inlineStr">
@@ -74340,23 +74162,23 @@
     <row r="2282">
       <c r="A2282" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2282" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2282" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D2282" t="inlineStr"/>
       <c r="E2282" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="F2282" t="inlineStr"/>
@@ -74374,23 +74196,23 @@
     <row r="2283">
       <c r="A2283" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2283" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2283" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D2283" t="inlineStr"/>
       <c r="E2283" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="F2283" t="inlineStr"/>
@@ -74408,27 +74230,31 @@
     <row r="2284">
       <c r="A2284" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B2284" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2284" t="inlineStr">
         <is>
-          <t>Tourist Arrivals YoYDEC</t>
+          <t>Government Budget ValueDEC</t>
         </is>
       </c>
       <c r="D2284" t="inlineStr"/>
       <c r="E2284" t="inlineStr">
         <is>
-          <t>8.25%</t>
+          <t>INR-8465.9B</t>
         </is>
       </c>
       <c r="F2284" t="inlineStr"/>
-      <c r="G2284" t="inlineStr"/>
+      <c r="G2284" t="inlineStr">
+        <is>
+          <t>INR-9700.0B</t>
+        </is>
+      </c>
       <c r="H2284" t="inlineStr">
         <is>
           <t>3</t>
@@ -74438,159 +74264,151 @@
     <row r="2285">
       <c r="A2285" t="inlineStr">
         <is>
-          <t>02:25 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2285" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2285" t="inlineStr">
         <is>
-          <t>Unemployment ChangeJAN</t>
+          <t>Gross Debt to GDPDEC</t>
         </is>
       </c>
       <c r="D2285" t="inlineStr"/>
       <c r="E2285" t="inlineStr">
         <is>
-          <t>10K</t>
-        </is>
-      </c>
-      <c r="F2285" t="inlineStr">
-        <is>
-          <t>15K</t>
-        </is>
-      </c>
+          <t>77.7%</t>
+        </is>
+      </c>
+      <c r="F2285" t="inlineStr"/>
       <c r="G2285" t="inlineStr">
         <is>
-          <t>7.0K</t>
+          <t>77.9%</t>
         </is>
       </c>
       <c r="H2285" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2286">
       <c r="A2286" t="inlineStr">
         <is>
-          <t>02:25 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2286" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2286" t="inlineStr">
         <is>
-          <t>Unemployed PersonsJAN</t>
+          <t>Nominal Budget BalanceDEC</t>
         </is>
       </c>
       <c r="D2286" t="inlineStr"/>
       <c r="E2286" t="inlineStr">
         <is>
-          <t>2.869M</t>
+          <t>BRL-99.1B</t>
         </is>
       </c>
       <c r="F2286" t="inlineStr"/>
       <c r="G2286" t="inlineStr">
         <is>
-          <t>2.876M</t>
+          <t>BRL-103.0B</t>
         </is>
       </c>
       <c r="H2286" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2287">
       <c r="A2287" t="inlineStr">
         <is>
-          <t>02:25 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2287" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2287" t="inlineStr">
         <is>
-          <t>Unemployment RateJAN</t>
+          <t>Bank Loan Growth YoYJAN/17</t>
         </is>
       </c>
       <c r="D2287" t="inlineStr"/>
       <c r="E2287" t="inlineStr">
         <is>
-          <t>6.1%</t>
-        </is>
-      </c>
-      <c r="F2287" t="inlineStr">
-        <is>
-          <t>6.2%</t>
-        </is>
-      </c>
-      <c r="G2287" t="inlineStr">
-        <is>
-          <t>6.2%</t>
-        </is>
-      </c>
+          <t>11.2%</t>
+        </is>
+      </c>
+      <c r="F2287" t="inlineStr"/>
+      <c r="G2287" t="inlineStr"/>
       <c r="H2287" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2288">
       <c r="A2288" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2288" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2288" t="inlineStr">
         <is>
-          <t>ECB Survey of Professional Forecasters</t>
+          <t>Deposit Growth YoYJAN/17</t>
         </is>
       </c>
       <c r="D2288" t="inlineStr"/>
-      <c r="E2288" t="inlineStr"/>
+      <c r="E2288" t="inlineStr">
+        <is>
+          <t>9.8%</t>
+        </is>
+      </c>
       <c r="F2288" t="inlineStr"/>
       <c r="G2288" t="inlineStr"/>
       <c r="H2288" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2289">
       <c r="A2289" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2289" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2289" t="inlineStr">
         <is>
-          <t>Baden Wuerttemberg CPI MoMJAN</t>
+          <t>Foreign Exchange ReservesJAN/24</t>
         </is>
       </c>
       <c r="D2289" t="inlineStr"/>
       <c r="E2289" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>$623.98B</t>
         </is>
       </c>
       <c r="F2289" t="inlineStr"/>
@@ -74604,27 +74422,31 @@
     <row r="2290">
       <c r="A2290" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2290" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2290" t="inlineStr">
         <is>
-          <t>Baden Wuerttemberg CPI YoYJAN</t>
+          <t>Infrastructure Output YoYDEC</t>
         </is>
       </c>
       <c r="D2290" t="inlineStr"/>
       <c r="E2290" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>4.3%</t>
         </is>
       </c>
       <c r="F2290" t="inlineStr"/>
-      <c r="G2290" t="inlineStr"/>
+      <c r="G2290" t="inlineStr">
+        <is>
+          <t>4.8%</t>
+        </is>
+      </c>
       <c r="H2290" t="inlineStr">
         <is>
           <t>3</t>
@@ -74634,67 +74456,75 @@
     <row r="2291">
       <c r="A2291" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2291" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2291" t="inlineStr">
         <is>
-          <t>Bavaria CPI MoMJAN</t>
+          <t>Unemployment RateDEC</t>
         </is>
       </c>
       <c r="D2291" t="inlineStr"/>
       <c r="E2291" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>6.1%</t>
         </is>
       </c>
       <c r="F2291" t="inlineStr"/>
-      <c r="G2291" t="inlineStr"/>
+      <c r="G2291" t="inlineStr">
+        <is>
+          <t>6.1%</t>
+        </is>
+      </c>
       <c r="H2291" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2292">
       <c r="A2292" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2292" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2292" t="inlineStr">
         <is>
-          <t>Bavaria CPI YoYJAN</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D2292" t="inlineStr"/>
       <c r="E2292" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>ZAR34.7B</t>
         </is>
       </c>
       <c r="F2292" t="inlineStr"/>
-      <c r="G2292" t="inlineStr"/>
+      <c r="G2292" t="inlineStr">
+        <is>
+          <t>ZAR 27.0B</t>
+        </is>
+      </c>
       <c r="H2292" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2293">
       <c r="A2293" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2293" t="inlineStr">
@@ -74704,27 +74534,35 @@
       </c>
       <c r="C2293" t="inlineStr">
         <is>
-          <t>Brandenburg CPI MoMJAN</t>
+          <t>Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2293" t="inlineStr"/>
       <c r="E2293" t="inlineStr">
         <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F2293" t="inlineStr"/>
-      <c r="G2293" t="inlineStr"/>
+          <t>2.6%</t>
+        </is>
+      </c>
+      <c r="F2293" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
+      <c r="G2293" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="H2293" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2294">
       <c r="A2294" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2294" t="inlineStr">
@@ -74734,27 +74572,35 @@
       </c>
       <c r="C2294" t="inlineStr">
         <is>
-          <t>Brandenburg CPI YoYJAN</t>
+          <t>Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2294" t="inlineStr"/>
       <c r="E2294" t="inlineStr">
         <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="F2294" t="inlineStr"/>
-      <c r="G2294" t="inlineStr"/>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="F2294" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="G2294" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H2294" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2295">
       <c r="A2295" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2295" t="inlineStr">
@@ -74764,17 +74610,21 @@
       </c>
       <c r="C2295" t="inlineStr">
         <is>
-          <t>Hesse CPI MoMJAN</t>
+          <t>Harmonised Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2295" t="inlineStr"/>
       <c r="E2295" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="F2295" t="inlineStr"/>
-      <c r="G2295" t="inlineStr"/>
+      <c r="G2295" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H2295" t="inlineStr">
         <is>
           <t>3</t>
@@ -74784,7 +74634,7 @@
     <row r="2296">
       <c r="A2296" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2296" t="inlineStr">
@@ -74794,17 +74644,25 @@
       </c>
       <c r="C2296" t="inlineStr">
         <is>
-          <t>Hesse CPI YoYJAN</t>
+          <t>Harmonised Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2296" t="inlineStr"/>
       <c r="E2296" t="inlineStr">
         <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="F2296" t="inlineStr"/>
-      <c r="G2296" t="inlineStr"/>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="F2296" t="inlineStr">
+        <is>
+          <t>2.9%</t>
+        </is>
+      </c>
+      <c r="G2296" t="inlineStr">
+        <is>
+          <t>3.0%</t>
+        </is>
+      </c>
       <c r="H2296" t="inlineStr">
         <is>
           <t>3</t>
@@ -74814,381 +74672,417 @@
     <row r="2297">
       <c r="A2297" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2297" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2297" t="inlineStr">
         <is>
-          <t>North Rhine Westphalia CPI MoMJAN</t>
+          <t>GDP MoMNOV</t>
         </is>
       </c>
       <c r="D2297" t="inlineStr"/>
       <c r="E2297" t="inlineStr">
         <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="F2297" t="inlineStr"/>
-      <c r="G2297" t="inlineStr"/>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="F2297" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="G2297" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
       <c r="H2297" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2298">
       <c r="A2298" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2298" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2298" t="inlineStr">
         <is>
-          <t>North Rhine Westphalia CPI YoYJAN</t>
+          <t>GDP MoM PrelDEC</t>
         </is>
       </c>
       <c r="D2298" t="inlineStr"/>
       <c r="E2298" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F2298" t="inlineStr"/>
-      <c r="G2298" t="inlineStr"/>
+      <c r="G2298" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H2298" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2299">
       <c r="A2299" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2299" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2299" t="inlineStr">
         <is>
-          <t>Saxony CPI MoMJAN</t>
+          <t>Core PCE Price Index MoMDEC</t>
         </is>
       </c>
       <c r="D2299" t="inlineStr"/>
       <c r="E2299" t="inlineStr">
         <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="F2299" t="inlineStr"/>
-      <c r="G2299" t="inlineStr"/>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F2299" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="G2299" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H2299" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2300">
       <c r="A2300" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2300" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2300" t="inlineStr">
         <is>
-          <t>Saxony CPI YoYJAN</t>
+          <t>Personal Income MoMDEC</t>
         </is>
       </c>
       <c r="D2300" t="inlineStr"/>
       <c r="E2300" t="inlineStr">
         <is>
-          <t>3.2%</t>
-        </is>
-      </c>
-      <c r="F2300" t="inlineStr"/>
-      <c r="G2300" t="inlineStr"/>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="F2300" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="G2300" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H2300" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2301">
       <c r="A2301" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2301" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2301" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>Personal Spending MoMDEC</t>
         </is>
       </c>
       <c r="D2301" t="inlineStr"/>
       <c r="E2301" t="inlineStr">
         <is>
-          <t>€4.9B</t>
-        </is>
-      </c>
-      <c r="F2301" t="inlineStr"/>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="F2301" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="G2301" t="inlineStr">
         <is>
-          <t>€5.0B</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H2301" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2302">
       <c r="A2302" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2302" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2302" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Employment Cost - Benefits QoQQ4</t>
         </is>
       </c>
       <c r="D2302" t="inlineStr"/>
       <c r="E2302" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F2302" t="inlineStr"/>
       <c r="G2302" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="H2302" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2303">
       <c r="A2303" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2303" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2303" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Employment Cost - Wages QoQQ4</t>
         </is>
       </c>
       <c r="D2303" t="inlineStr"/>
       <c r="E2303" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F2303" t="inlineStr"/>
       <c r="G2303" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="H2303" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2304">
       <c r="A2304" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2304" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2304" t="inlineStr">
         <is>
-          <t>Government Budget ValueDEC</t>
+          <t>Employment Cost Index QoQQ4</t>
         </is>
       </c>
       <c r="D2304" t="inlineStr"/>
       <c r="E2304" t="inlineStr">
         <is>
-          <t>INR-8465.9B</t>
-        </is>
-      </c>
-      <c r="F2304" t="inlineStr"/>
+          <t>0.8%</t>
+        </is>
+      </c>
+      <c r="F2304" t="inlineStr">
+        <is>
+          <t>1%</t>
+        </is>
+      </c>
       <c r="G2304" t="inlineStr">
         <is>
-          <t>INR-9700.0B</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="H2304" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2305">
       <c r="A2305" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2305" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2305" t="inlineStr">
         <is>
-          <t>Gross Debt to GDPDEC</t>
+          <t>Fed Bowman Speech</t>
         </is>
       </c>
       <c r="D2305" t="inlineStr"/>
-      <c r="E2305" t="inlineStr">
-        <is>
-          <t>77.7%</t>
-        </is>
-      </c>
+      <c r="E2305" t="inlineStr"/>
       <c r="F2305" t="inlineStr"/>
-      <c r="G2305" t="inlineStr">
-        <is>
-          <t>77.9%</t>
-        </is>
-      </c>
+      <c r="G2305" t="inlineStr"/>
       <c r="H2305" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2306">
       <c r="A2306" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2306" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2306" t="inlineStr">
         <is>
-          <t>Nominal Budget BalanceDEC</t>
+          <t>PCE Price Index MoMDEC</t>
         </is>
       </c>
       <c r="D2306" t="inlineStr"/>
       <c r="E2306" t="inlineStr">
         <is>
-          <t>BRL-99.1B</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2306" t="inlineStr"/>
       <c r="G2306" t="inlineStr">
         <is>
-          <t>BRL-103.0B</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H2306" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2307">
       <c r="A2307" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2307" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2307" t="inlineStr">
         <is>
-          <t>Bank Loan Growth YoYJAN/17</t>
+          <t>PCE Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D2307" t="inlineStr"/>
       <c r="E2307" t="inlineStr">
         <is>
-          <t>11.2%</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F2307" t="inlineStr"/>
-      <c r="G2307" t="inlineStr"/>
+      <c r="G2307" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="H2307" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2308">
       <c r="A2308" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2308" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2308" t="inlineStr">
         <is>
-          <t>Deposit Growth YoYJAN/17</t>
+          <t>Core PCE Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D2308" t="inlineStr"/>
       <c r="E2308" t="inlineStr">
         <is>
-          <t>9.8%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="F2308" t="inlineStr"/>
-      <c r="G2308" t="inlineStr"/>
+      <c r="G2308" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
       <c r="H2308" t="inlineStr">
         <is>
           <t>3</t>
@@ -75198,59 +75092,67 @@
     <row r="2309">
       <c r="A2309" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B2309" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2309" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/24</t>
+          <t>Chicago PMIJAN</t>
         </is>
       </c>
       <c r="D2309" t="inlineStr"/>
       <c r="E2309" t="inlineStr">
         <is>
-          <t>$623.98B</t>
-        </is>
-      </c>
-      <c r="F2309" t="inlineStr"/>
-      <c r="G2309" t="inlineStr"/>
+          <t>36.9</t>
+        </is>
+      </c>
+      <c r="F2309" t="inlineStr">
+        <is>
+          <t>39.9</t>
+        </is>
+      </c>
+      <c r="G2309" t="inlineStr">
+        <is>
+          <t>37.2</t>
+        </is>
+      </c>
       <c r="H2309" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2310">
       <c r="A2310" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B2310" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2310" t="inlineStr">
         <is>
-          <t>Infrastructure Output YoYDEC</t>
+          <t>Budget BalanceNOV</t>
         </is>
       </c>
       <c r="D2310" t="inlineStr"/>
       <c r="E2310" t="inlineStr">
         <is>
-          <t>4.3%</t>
+          <t>C$-1.49B</t>
         </is>
       </c>
       <c r="F2310" t="inlineStr"/>
       <c r="G2310" t="inlineStr">
         <is>
-          <t>4.8%</t>
+          <t>C$-1.9B</t>
         </is>
       </c>
       <c r="H2310" t="inlineStr">
@@ -75262,173 +75164,145 @@
     <row r="2311">
       <c r="A2311" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B2311" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2311" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>Baker Hughes Oil Rig CountJAN/31</t>
         </is>
       </c>
       <c r="D2311" t="inlineStr"/>
       <c r="E2311" t="inlineStr">
         <is>
-          <t>6.1%</t>
+          <t>472</t>
         </is>
       </c>
       <c r="F2311" t="inlineStr"/>
-      <c r="G2311" t="inlineStr">
-        <is>
-          <t>6.1%</t>
-        </is>
-      </c>
+      <c r="G2311" t="inlineStr"/>
       <c r="H2311" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2312">
       <c r="A2312" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B2312" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2312" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Baker Hughes Total Rigs CountJAN/31</t>
         </is>
       </c>
       <c r="D2312" t="inlineStr"/>
       <c r="E2312" t="inlineStr">
         <is>
-          <t>ZAR34.7B</t>
+          <t>576</t>
         </is>
       </c>
       <c r="F2312" t="inlineStr"/>
-      <c r="G2312" t="inlineStr">
-        <is>
-          <t>ZAR 27.0B</t>
-        </is>
-      </c>
+      <c r="G2312" t="inlineStr"/>
       <c r="H2312" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2313">
-      <c r="A2313" t="inlineStr">
-        <is>
-          <t>06:30 PM</t>
-        </is>
-      </c>
+      <c r="A2313" t="inlineStr"/>
       <c r="B2313" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2313" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelJAN</t>
+          <t>Fiscal BalanceDEC</t>
         </is>
       </c>
       <c r="D2313" t="inlineStr"/>
       <c r="E2313" t="inlineStr">
         <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="F2313" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
+          <t>MXN-1064.93B</t>
+        </is>
+      </c>
+      <c r="F2313" t="inlineStr"/>
       <c r="G2313" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>MXN-1120.0B</t>
         </is>
       </c>
       <c r="H2313" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2314">
-      <c r="A2314" t="inlineStr">
-        <is>
-          <t>06:30 PM</t>
-        </is>
-      </c>
+      <c r="A2314" t="inlineStr"/>
       <c r="B2314" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2314" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM PrelJAN</t>
+          <t>CoreLogic Dwelling Prices MoMJAN</t>
         </is>
       </c>
       <c r="D2314" t="inlineStr"/>
       <c r="E2314" t="inlineStr">
         <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="F2314" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="F2314" t="inlineStr"/>
       <c r="G2314" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="H2314" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2315">
-      <c r="A2315" t="inlineStr">
-        <is>
-          <t>06:30 PM</t>
-        </is>
-      </c>
+      <c r="A2315" t="inlineStr"/>
       <c r="B2315" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2315" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM PrelJAN</t>
+          <t>Consumer Inflation ExpectationsDEC</t>
         </is>
       </c>
       <c r="D2315" t="inlineStr"/>
       <c r="E2315" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F2315" t="inlineStr"/>
       <c r="G2315" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="H2315" t="inlineStr">
@@ -75438,35 +75312,27 @@
       </c>
     </row>
     <row r="2316">
-      <c r="A2316" t="inlineStr">
-        <is>
-          <t>06:30 PM</t>
-        </is>
-      </c>
+      <c r="A2316" t="inlineStr"/>
       <c r="B2316" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2316" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY PrelJAN</t>
+          <t>New Car Registrations YoYJAN</t>
         </is>
       </c>
       <c r="D2316" t="inlineStr"/>
       <c r="E2316" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F2316" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
+          <t>1.5%</t>
+        </is>
+      </c>
+      <c r="F2316" t="inlineStr"/>
       <c r="G2316" t="inlineStr">
         <is>
-          <t>3.0%</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="H2316" t="inlineStr">
@@ -75476,315 +75342,247 @@
       </c>
     </row>
     <row r="2317">
-      <c r="A2317" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A2317" t="inlineStr"/>
       <c r="B2317" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2317" t="inlineStr">
         <is>
-          <t>GDP MoMNOV</t>
+          <t>New Car Sales YoYJAN</t>
         </is>
       </c>
       <c r="D2317" t="inlineStr"/>
       <c r="E2317" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F2317" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
+          <t>28.8%</t>
+        </is>
+      </c>
+      <c r="F2317" t="inlineStr"/>
       <c r="G2317" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>2.5%</t>
         </is>
       </c>
       <c r="H2317" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2318">
-      <c r="A2318" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A2318" t="inlineStr"/>
       <c r="B2318" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2318" t="inlineStr">
         <is>
-          <t>GDP MoM PrelDEC</t>
+          <t>New Car Registrations YoYJAN</t>
         </is>
       </c>
       <c r="D2318" t="inlineStr"/>
       <c r="E2318" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>-4.9%</t>
         </is>
       </c>
       <c r="F2318" t="inlineStr"/>
       <c r="G2318" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>-4.0%</t>
         </is>
       </c>
       <c r="H2318" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2319">
-      <c r="A2319" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A2319" t="inlineStr"/>
       <c r="B2319" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2319" t="inlineStr">
         <is>
-          <t>Core PCE Price Index MoMDEC</t>
+          <t>M2 Money Supply YoYDEC</t>
         </is>
       </c>
       <c r="D2319" t="inlineStr"/>
       <c r="E2319" t="inlineStr">
         <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F2319" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>20%</t>
+        </is>
+      </c>
+      <c r="F2319" t="inlineStr"/>
       <c r="G2319" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>20.7%</t>
         </is>
       </c>
       <c r="H2319" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2320">
       <c r="A2320" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2320" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2320" t="inlineStr">
-        <is>
-          <t>Personal Income MoMDEC</t>
-        </is>
-      </c>
+          <t>Saturday February 01 2025</t>
+        </is>
+      </c>
+      <c r="B2320" t="inlineStr"/>
+      <c r="C2320" t="inlineStr"/>
       <c r="D2320" t="inlineStr"/>
-      <c r="E2320" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F2320" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G2320" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H2320" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="E2320" t="inlineStr"/>
+      <c r="F2320" t="inlineStr"/>
+      <c r="G2320" t="inlineStr"/>
+      <c r="H2320" t="inlineStr"/>
     </row>
     <row r="2321">
       <c r="A2321" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B2321" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2321" t="inlineStr">
         <is>
-          <t>Personal Spending MoMDEC</t>
+          <t>Exports YoYJAN</t>
         </is>
       </c>
       <c r="D2321" t="inlineStr"/>
       <c r="E2321" t="inlineStr">
         <is>
+          <t>6.6%</t>
+        </is>
+      </c>
+      <c r="F2321" t="inlineStr"/>
+      <c r="G2321" t="inlineStr">
+        <is>
           <t>0.4%</t>
         </is>
       </c>
-      <c r="F2321" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G2321" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
       <c r="H2321" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2322">
       <c r="A2322" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B2322" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2322" t="inlineStr">
         <is>
-          <t>Employment Cost - Benefits QoQQ4</t>
+          <t>Balance of TradeJAN</t>
         </is>
       </c>
       <c r="D2322" t="inlineStr"/>
       <c r="E2322" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>$6.49B</t>
         </is>
       </c>
       <c r="F2322" t="inlineStr"/>
       <c r="G2322" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>$0.9B</t>
         </is>
       </c>
       <c r="H2322" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2323">
       <c r="A2323" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B2323" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2323" t="inlineStr">
         <is>
-          <t>Employment Cost - Wages QoQQ4</t>
+          <t>Imports YoYJAN</t>
         </is>
       </c>
       <c r="D2323" t="inlineStr"/>
       <c r="E2323" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="F2323" t="inlineStr"/>
       <c r="G2323" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H2323" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2324">
       <c r="A2324" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2324" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2324" t="inlineStr">
-        <is>
-          <t>Employment Cost Index QoQQ4</t>
-        </is>
-      </c>
+          <t>Monday February 03 2025</t>
+        </is>
+      </c>
+      <c r="B2324" t="inlineStr"/>
+      <c r="C2324" t="inlineStr"/>
       <c r="D2324" t="inlineStr"/>
-      <c r="E2324" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="F2324" t="inlineStr">
-        <is>
-          <t>1%</t>
-        </is>
-      </c>
-      <c r="G2324" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="H2324" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="E2324" t="inlineStr"/>
+      <c r="F2324" t="inlineStr"/>
+      <c r="G2324" t="inlineStr"/>
+      <c r="H2324" t="inlineStr"/>
     </row>
     <row r="2325">
       <c r="A2325" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>03:30 AM</t>
         </is>
       </c>
       <c r="B2325" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2325" t="inlineStr">
         <is>
-          <t>Fed Bowman Speech</t>
+          <t>S&amp;P Global Australia Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2325" t="inlineStr"/>
-      <c r="E2325" t="inlineStr"/>
+      <c r="E2325" t="inlineStr">
+        <is>
+          <t>47.8</t>
+        </is>
+      </c>
       <c r="F2325" t="inlineStr"/>
       <c r="G2325" t="inlineStr"/>
       <c r="H2325" t="inlineStr">
@@ -75796,97 +75594,97 @@
     <row r="2326">
       <c r="A2326" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B2326" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2326" t="inlineStr">
         <is>
-          <t>PCE Price Index MoMDEC</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="D2326" t="inlineStr"/>
       <c r="E2326" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="F2326" t="inlineStr"/>
       <c r="G2326" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="H2326" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2327">
       <c r="A2327" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B2327" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2327" t="inlineStr">
         <is>
-          <t>PCE Price Index YoYDEC</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D2327" t="inlineStr"/>
       <c r="E2327" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2327" t="inlineStr"/>
       <c r="G2327" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="H2327" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2328">
       <c r="A2328" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B2328" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2328" t="inlineStr">
         <is>
-          <t>Core PCE Price Index YoYDEC</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D2328" t="inlineStr"/>
       <c r="E2328" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F2328" t="inlineStr"/>
       <c r="G2328" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H2328" t="inlineStr">
@@ -75898,35 +75696,23 @@
     <row r="2329">
       <c r="A2329" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B2329" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2329" t="inlineStr">
         <is>
-          <t>Chicago PMIJAN</t>
+          <t>BoJ Summary of Opinions</t>
         </is>
       </c>
       <c r="D2329" t="inlineStr"/>
-      <c r="E2329" t="inlineStr">
-        <is>
-          <t>36.9</t>
-        </is>
-      </c>
-      <c r="F2329" t="inlineStr">
-        <is>
-          <t>39.9</t>
-        </is>
-      </c>
-      <c r="G2329" t="inlineStr">
-        <is>
-          <t>37.2</t>
-        </is>
-      </c>
+      <c r="E2329" t="inlineStr"/>
+      <c r="F2329" t="inlineStr"/>
+      <c r="G2329" t="inlineStr"/>
       <c r="H2329" t="inlineStr">
         <is>
           <t>2</t>
@@ -75936,87 +75722,91 @@
     <row r="2330">
       <c r="A2330" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2330" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2330" t="inlineStr">
         <is>
-          <t>Budget BalanceNOV</t>
+          <t>Building Permits MoM PrelDEC</t>
         </is>
       </c>
       <c r="D2330" t="inlineStr"/>
       <c r="E2330" t="inlineStr">
         <is>
-          <t>C$-1.49B</t>
+          <t>-3.6%</t>
         </is>
       </c>
       <c r="F2330" t="inlineStr"/>
       <c r="G2330" t="inlineStr">
         <is>
-          <t>C$-1.9B</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="H2330" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2331">
       <c r="A2331" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2331" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2331" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/31</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D2331" t="inlineStr"/>
       <c r="E2331" t="inlineStr">
         <is>
-          <t>472</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F2331" t="inlineStr"/>
-      <c r="G2331" t="inlineStr"/>
+      <c r="G2331" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H2331" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2332">
       <c r="A2332" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2332" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2332" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/31</t>
+          <t>ANZ-Indeed Job Ads MoMJAN</t>
         </is>
       </c>
       <c r="D2332" t="inlineStr"/>
       <c r="E2332" t="inlineStr">
         <is>
-          <t>576</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F2332" t="inlineStr"/>
@@ -76028,29 +75818,29 @@
       </c>
     </row>
     <row r="2333">
-      <c r="A2333" t="inlineStr"/>
+      <c r="A2333" t="inlineStr">
+        <is>
+          <t>06:00 AM</t>
+        </is>
+      </c>
       <c r="B2333" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2333" t="inlineStr">
         <is>
-          <t>Fiscal BalanceDEC</t>
+          <t>Private House Approvals MoM PrelDEC</t>
         </is>
       </c>
       <c r="D2333" t="inlineStr"/>
       <c r="E2333" t="inlineStr">
         <is>
-          <t>MXN-1064.93B</t>
+          <t>-1.7%</t>
         </is>
       </c>
       <c r="F2333" t="inlineStr"/>
-      <c r="G2333" t="inlineStr">
-        <is>
-          <t>MXN-1120.0B</t>
-        </is>
-      </c>
+      <c r="G2333" t="inlineStr"/>
       <c r="H2333" t="inlineStr">
         <is>
           <t>3</t>
@@ -76058,27 +75848,31 @@
       </c>
     </row>
     <row r="2334">
-      <c r="A2334" t="inlineStr"/>
+      <c r="A2334" t="inlineStr">
+        <is>
+          <t>06:00 AM</t>
+        </is>
+      </c>
       <c r="B2334" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2334" t="inlineStr">
         <is>
-          <t>CoreLogic Dwelling Prices MoMJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2334" t="inlineStr"/>
       <c r="E2334" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>51.2</t>
         </is>
       </c>
       <c r="F2334" t="inlineStr"/>
       <c r="G2334" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>51.6</t>
         </is>
       </c>
       <c r="H2334" t="inlineStr">
@@ -76088,147 +75882,175 @@
       </c>
     </row>
     <row r="2335">
-      <c r="A2335" t="inlineStr"/>
+      <c r="A2335" t="inlineStr">
+        <is>
+          <t>06:00 AM</t>
+        </is>
+      </c>
       <c r="B2335" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2335" t="inlineStr">
         <is>
-          <t>Consumer Inflation ExpectationsDEC</t>
+          <t>Jibun Bank Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2335" t="inlineStr"/>
       <c r="E2335" t="inlineStr">
         <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="F2335" t="inlineStr"/>
+          <t>49.6</t>
+        </is>
+      </c>
+      <c r="F2335" t="inlineStr">
+        <is>
+          <t>48.8</t>
+        </is>
+      </c>
       <c r="G2335" t="inlineStr">
         <is>
-          <t>2.2%</t>
+          <t>48.8</t>
         </is>
       </c>
       <c r="H2335" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2336">
-      <c r="A2336" t="inlineStr"/>
+      <c r="A2336" t="inlineStr">
+        <is>
+          <t>06:00 AM</t>
+        </is>
+      </c>
       <c r="B2336" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2336" t="inlineStr">
         <is>
-          <t>New Car Registrations YoYJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2336" t="inlineStr"/>
       <c r="E2336" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>49</t>
         </is>
       </c>
       <c r="F2336" t="inlineStr"/>
       <c r="G2336" t="inlineStr">
         <is>
-          <t>2.2%</t>
+          <t>49.5</t>
         </is>
       </c>
       <c r="H2336" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2337">
-      <c r="A2337" t="inlineStr"/>
+      <c r="A2337" t="inlineStr">
+        <is>
+          <t>07:15 AM</t>
+        </is>
+      </c>
       <c r="B2337" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2337" t="inlineStr">
         <is>
-          <t>New Car Sales YoYJAN</t>
+          <t>Caixin Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2337" t="inlineStr"/>
       <c r="E2337" t="inlineStr">
         <is>
-          <t>28.8%</t>
-        </is>
-      </c>
-      <c r="F2337" t="inlineStr"/>
+          <t>50.5</t>
+        </is>
+      </c>
+      <c r="F2337" t="inlineStr">
+        <is>
+          <t>50.5</t>
+        </is>
+      </c>
       <c r="G2337" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>50.5</t>
         </is>
       </c>
       <c r="H2337" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2338">
-      <c r="A2338" t="inlineStr"/>
+      <c r="A2338" t="inlineStr">
+        <is>
+          <t>09:30 AM</t>
+        </is>
+      </c>
       <c r="B2338" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2338" t="inlineStr">
         <is>
-          <t>New Car Registrations YoYJAN</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2338" t="inlineStr"/>
       <c r="E2338" t="inlineStr">
         <is>
-          <t>-4.9%</t>
+          <t>1.57%</t>
         </is>
       </c>
       <c r="F2338" t="inlineStr"/>
       <c r="G2338" t="inlineStr">
         <is>
-          <t>-4.0%</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="H2338" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2339">
-      <c r="A2339" t="inlineStr"/>
+      <c r="A2339" t="inlineStr">
+        <is>
+          <t>09:30 AM</t>
+        </is>
+      </c>
       <c r="B2339" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2339" t="inlineStr">
         <is>
-          <t>M2 Money Supply YoYDEC</t>
+          <t>Core Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2339" t="inlineStr"/>
       <c r="E2339" t="inlineStr">
         <is>
-          <t>20%</t>
+          <t>2.26%</t>
         </is>
       </c>
       <c r="F2339" t="inlineStr"/>
       <c r="G2339" t="inlineStr">
         <is>
-          <t>20.7%</t>
+          <t>2.3%</t>
         </is>
       </c>
       <c r="H2339" t="inlineStr">
@@ -76240,77 +76062,101 @@
     <row r="2340">
       <c r="A2340" t="inlineStr">
         <is>
-          <t>Saturday February 01 2025</t>
-        </is>
-      </c>
-      <c r="B2340" t="inlineStr"/>
-      <c r="C2340" t="inlineStr"/>
+          <t>09:30 AM</t>
+        </is>
+      </c>
+      <c r="B2340" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="C2340" t="inlineStr">
+        <is>
+          <t>Inflation Rate MoMJAN</t>
+        </is>
+      </c>
       <c r="D2340" t="inlineStr"/>
-      <c r="E2340" t="inlineStr"/>
+      <c r="E2340" t="inlineStr">
+        <is>
+          <t>0.44%</t>
+        </is>
+      </c>
       <c r="F2340" t="inlineStr"/>
-      <c r="G2340" t="inlineStr"/>
-      <c r="H2340" t="inlineStr"/>
+      <c r="G2340" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="H2340" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2341">
       <c r="A2341" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>10:15 AM</t>
         </is>
       </c>
       <c r="B2341" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2341" t="inlineStr">
         <is>
-          <t>Exports YoYJAN</t>
+          <t>Tourist Arrivals YoYDEC</t>
         </is>
       </c>
       <c r="D2341" t="inlineStr"/>
       <c r="E2341" t="inlineStr">
         <is>
-          <t>6.6%</t>
+          <t>17.27%</t>
         </is>
       </c>
       <c r="F2341" t="inlineStr"/>
       <c r="G2341" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>18.0%</t>
         </is>
       </c>
       <c r="H2341" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2342">
       <c r="A2342" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2342" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2342" t="inlineStr">
         <is>
-          <t>Balance of TradeJAN</t>
+          <t>HSBC Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2342" t="inlineStr"/>
       <c r="E2342" t="inlineStr">
         <is>
-          <t>$6.49B</t>
-        </is>
-      </c>
-      <c r="F2342" t="inlineStr"/>
+          <t>56.4</t>
+        </is>
+      </c>
+      <c r="F2342" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
       <c r="G2342" t="inlineStr">
         <is>
-          <t>$0.9B</t>
+          <t>58</t>
         </is>
       </c>
       <c r="H2342" t="inlineStr">
@@ -76322,7 +76168,7 @@
     <row r="2343">
       <c r="A2343" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2343" t="inlineStr">
@@ -76332,21 +76178,17 @@
       </c>
       <c r="C2343" t="inlineStr">
         <is>
-          <t>Imports YoYJAN</t>
+          <t>2-Year KTB Auction</t>
         </is>
       </c>
       <c r="D2343" t="inlineStr"/>
       <c r="E2343" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>2.670%</t>
         </is>
       </c>
       <c r="F2343" t="inlineStr"/>
-      <c r="G2343" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
+      <c r="G2343" t="inlineStr"/>
       <c r="H2343" t="inlineStr">
         <is>
           <t>3</t>
@@ -76356,37 +76198,53 @@
     <row r="2344">
       <c r="A2344" t="inlineStr">
         <is>
-          <t>Monday February 03 2025</t>
-        </is>
-      </c>
-      <c r="B2344" t="inlineStr"/>
-      <c r="C2344" t="inlineStr"/>
+          <t>11:00 AM</t>
+        </is>
+      </c>
+      <c r="B2344" t="inlineStr">
+        <is>
+          <t>AU</t>
+        </is>
+      </c>
+      <c r="C2344" t="inlineStr">
+        <is>
+          <t>Commodity Prices YoYJAN</t>
+        </is>
+      </c>
       <c r="D2344" t="inlineStr"/>
-      <c r="E2344" t="inlineStr"/>
+      <c r="E2344" t="inlineStr">
+        <is>
+          <t>-10.7%</t>
+        </is>
+      </c>
       <c r="F2344" t="inlineStr"/>
       <c r="G2344" t="inlineStr"/>
-      <c r="H2344" t="inlineStr"/>
+      <c r="H2344" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2345">
       <c r="A2345" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B2345" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2345" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Manufacturing PMI FinalJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2345" t="inlineStr"/>
       <c r="E2345" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>50.8</t>
         </is>
       </c>
       <c r="F2345" t="inlineStr"/>
@@ -76400,99 +76258,87 @@
     <row r="2346">
       <c r="A2346" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2346" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2346" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2346" t="inlineStr"/>
       <c r="E2346" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>1.03%</t>
         </is>
       </c>
       <c r="F2346" t="inlineStr"/>
-      <c r="G2346" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
+      <c r="G2346" t="inlineStr"/>
       <c r="H2346" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2347">
       <c r="A2347" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2347" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2347" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2347" t="inlineStr"/>
       <c r="E2347" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>44.38%</t>
         </is>
       </c>
       <c r="F2347" t="inlineStr"/>
-      <c r="G2347" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="G2347" t="inlineStr"/>
       <c r="H2347" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2348">
       <c r="A2348" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2348" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2348" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Istanbul Chamber of Industry Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2348" t="inlineStr"/>
       <c r="E2348" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>49.1</t>
         </is>
       </c>
       <c r="F2348" t="inlineStr"/>
-      <c r="G2348" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G2348" t="inlineStr"/>
       <c r="H2348" t="inlineStr">
         <is>
           <t>3</t>
@@ -76502,91 +76348,87 @@
     <row r="2349">
       <c r="A2349" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2349" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2349" t="inlineStr">
         <is>
-          <t>BoJ Summary of Opinions</t>
+          <t>PPI MoMJAN</t>
         </is>
       </c>
       <c r="D2349" t="inlineStr"/>
-      <c r="E2349" t="inlineStr"/>
+      <c r="E2349" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="F2349" t="inlineStr"/>
       <c r="G2349" t="inlineStr"/>
       <c r="H2349" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2350">
       <c r="A2350" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2350" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2350" t="inlineStr">
         <is>
-          <t>Building Permits MoM PrelDEC</t>
+          <t>PPI YoYJAN</t>
         </is>
       </c>
       <c r="D2350" t="inlineStr"/>
       <c r="E2350" t="inlineStr">
         <is>
-          <t>-3.6%</t>
+          <t>28.52%</t>
         </is>
       </c>
       <c r="F2350" t="inlineStr"/>
-      <c r="G2350" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
+      <c r="G2350" t="inlineStr"/>
       <c r="H2350" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2351">
       <c r="A2351" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2351" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2351" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Unemployment ChangeJAN</t>
         </is>
       </c>
       <c r="D2351" t="inlineStr"/>
       <c r="E2351" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>-25.3K</t>
         </is>
       </c>
       <c r="F2351" t="inlineStr"/>
-      <c r="G2351" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G2351" t="inlineStr"/>
       <c r="H2351" t="inlineStr">
         <is>
           <t>2</t>
@@ -76596,25 +76438,21 @@
     <row r="2352">
       <c r="A2352" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2352" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2352" t="inlineStr">
         <is>
-          <t>ANZ-Indeed Job Ads MoMJAN</t>
+          <t>Tourist Arrivals YoYDEC</t>
         </is>
       </c>
       <c r="D2352" t="inlineStr"/>
-      <c r="E2352" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="E2352" t="inlineStr"/>
       <c r="F2352" t="inlineStr"/>
       <c r="G2352" t="inlineStr"/>
       <c r="H2352" t="inlineStr">
@@ -76626,97 +76464,93 @@
     <row r="2353">
       <c r="A2353" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B2353" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2353" t="inlineStr">
         <is>
-          <t>Private House Approvals MoM PrelDEC</t>
+          <t>HCOB Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2353" t="inlineStr"/>
       <c r="E2353" t="inlineStr">
         <is>
-          <t>-1.7%</t>
+          <t>53.3</t>
         </is>
       </c>
       <c r="F2353" t="inlineStr"/>
       <c r="G2353" t="inlineStr"/>
       <c r="H2353" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2354">
       <c r="A2354" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:15 PM</t>
         </is>
       </c>
       <c r="B2354" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2354" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>HCOB Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2354" t="inlineStr"/>
       <c r="E2354" t="inlineStr">
         <is>
-          <t>51.2</t>
+          <t>46.2</t>
         </is>
       </c>
       <c r="F2354" t="inlineStr"/>
-      <c r="G2354" t="inlineStr">
-        <is>
-          <t>51.6</t>
-        </is>
-      </c>
+      <c r="G2354" t="inlineStr"/>
       <c r="H2354" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2355">
       <c r="A2355" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:20 PM</t>
         </is>
       </c>
       <c r="B2355" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2355" t="inlineStr">
         <is>
-          <t>Jibun Bank Manufacturing PMI FinalJAN</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2355" t="inlineStr"/>
       <c r="E2355" t="inlineStr">
         <is>
-          <t>49.6</t>
+          <t>41.9</t>
         </is>
       </c>
       <c r="F2355" t="inlineStr">
         <is>
-          <t>48.8</t>
+          <t>45.3</t>
         </is>
       </c>
       <c r="G2355" t="inlineStr">
         <is>
-          <t>48.8</t>
+          <t>45.3</t>
         </is>
       </c>
       <c r="H2355" t="inlineStr">
@@ -76728,29 +76562,33 @@
     <row r="2356">
       <c r="A2356" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:25 PM</t>
         </is>
       </c>
       <c r="B2356" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2356" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2356" t="inlineStr"/>
       <c r="E2356" t="inlineStr">
         <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="F2356" t="inlineStr"/>
+          <t>42.5</t>
+        </is>
+      </c>
+      <c r="F2356" t="inlineStr">
+        <is>
+          <t>44.1</t>
+        </is>
+      </c>
       <c r="G2356" t="inlineStr">
         <is>
-          <t>49.5</t>
+          <t>44.1</t>
         </is>
       </c>
       <c r="H2356" t="inlineStr">
@@ -76762,235 +76600,215 @@
     <row r="2357">
       <c r="A2357" t="inlineStr">
         <is>
-          <t>07:15 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2357" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2357" t="inlineStr">
         <is>
-          <t>Caixin Manufacturing PMIJAN</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2357" t="inlineStr"/>
       <c r="E2357" t="inlineStr">
         <is>
-          <t>50.5</t>
+          <t>45.1</t>
         </is>
       </c>
       <c r="F2357" t="inlineStr">
         <is>
-          <t>50.5</t>
+          <t>46.1</t>
         </is>
       </c>
       <c r="G2357" t="inlineStr">
         <is>
-          <t>50.5</t>
+          <t>46.1</t>
         </is>
       </c>
       <c r="H2357" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2358">
       <c r="A2358" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2358" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2358" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>ABSA Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2358" t="inlineStr"/>
       <c r="E2358" t="inlineStr">
         <is>
-          <t>1.57%</t>
+          <t>46.2</t>
         </is>
       </c>
       <c r="F2358" t="inlineStr"/>
       <c r="G2358" t="inlineStr">
         <is>
-          <t>1.7%</t>
+          <t>47</t>
         </is>
       </c>
       <c r="H2358" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2359">
       <c r="A2359" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B2359" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2359" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2359" t="inlineStr"/>
       <c r="E2359" t="inlineStr">
         <is>
-          <t>2.26%</t>
-        </is>
-      </c>
-      <c r="F2359" t="inlineStr"/>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="F2359" t="inlineStr">
+        <is>
+          <t>48.2</t>
+        </is>
+      </c>
       <c r="G2359" t="inlineStr">
         <is>
-          <t>2.3%</t>
+          <t>48.2</t>
         </is>
       </c>
       <c r="H2359" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2360">
       <c r="A2360" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2360" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2360" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Inflation Rate YoY FlashJAN</t>
         </is>
       </c>
       <c r="D2360" t="inlineStr"/>
-      <c r="E2360" t="inlineStr">
-        <is>
-          <t>0.44%</t>
-        </is>
-      </c>
+      <c r="E2360" t="inlineStr"/>
       <c r="F2360" t="inlineStr"/>
-      <c r="G2360" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G2360" t="inlineStr"/>
       <c r="H2360" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2361">
       <c r="A2361" t="inlineStr">
         <is>
-          <t>10:15 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2361" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2361" t="inlineStr">
         <is>
-          <t>Tourist Arrivals YoYDEC</t>
+          <t>Core Inflation Rate YoY FlashJAN</t>
         </is>
       </c>
       <c r="D2361" t="inlineStr"/>
       <c r="E2361" t="inlineStr">
         <is>
-          <t>17.27%</t>
+          <t>2.7%</t>
         </is>
       </c>
       <c r="F2361" t="inlineStr"/>
-      <c r="G2361" t="inlineStr">
-        <is>
-          <t>18.0%</t>
-        </is>
-      </c>
+      <c r="G2361" t="inlineStr"/>
       <c r="H2361" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2362">
       <c r="A2362" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2362" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2362" t="inlineStr">
         <is>
-          <t>HSBC Manufacturing PMI FinalJAN</t>
+          <t>Inflation Rate MoM FlashJAN</t>
         </is>
       </c>
       <c r="D2362" t="inlineStr"/>
-      <c r="E2362" t="inlineStr">
-        <is>
-          <t>56.4</t>
-        </is>
-      </c>
-      <c r="F2362" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="G2362" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
+      <c r="E2362" t="inlineStr"/>
+      <c r="F2362" t="inlineStr"/>
+      <c r="G2362" t="inlineStr"/>
       <c r="H2362" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2363">
       <c r="A2363" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2363" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2363" t="inlineStr">
         <is>
-          <t>2-Year KTB Auction</t>
+          <t>CPI FlashJAN</t>
         </is>
       </c>
       <c r="D2363" t="inlineStr"/>
       <c r="E2363" t="inlineStr">
         <is>
-          <t>2.670%</t>
+          <t>127.07</t>
         </is>
       </c>
       <c r="F2363" t="inlineStr"/>
@@ -77004,53 +76822,53 @@
     <row r="2364">
       <c r="A2364" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2364" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2364" t="inlineStr">
         <is>
-          <t>Commodity Prices YoYJAN</t>
+          <t>Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2364" t="inlineStr"/>
       <c r="E2364" t="inlineStr">
         <is>
-          <t>-10.7%</t>
+          <t>1.3%</t>
         </is>
       </c>
       <c r="F2364" t="inlineStr"/>
       <c r="G2364" t="inlineStr"/>
       <c r="H2364" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2365">
       <c r="A2365" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2365" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2365" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2365" t="inlineStr"/>
       <c r="E2365" t="inlineStr">
         <is>
-          <t>50.8</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2365" t="inlineStr"/>
@@ -77064,87 +76882,91 @@
     <row r="2366">
       <c r="A2366" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2366" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2366" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Harmonised Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2366" t="inlineStr"/>
       <c r="E2366" t="inlineStr">
         <is>
-          <t>1.03%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2366" t="inlineStr"/>
       <c r="G2366" t="inlineStr"/>
       <c r="H2366" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2367">
       <c r="A2367" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2367" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2367" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>Harmonised Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2367" t="inlineStr"/>
       <c r="E2367" t="inlineStr">
         <is>
-          <t>44.38%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F2367" t="inlineStr"/>
       <c r="G2367" t="inlineStr"/>
       <c r="H2367" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2368">
       <c r="A2368" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2368" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2368" t="inlineStr">
         <is>
-          <t>Istanbul Chamber of Industry Manufacturing PMIJAN</t>
+          <t>Foreign Exchange ReservesDEC</t>
         </is>
       </c>
       <c r="D2368" t="inlineStr"/>
       <c r="E2368" t="inlineStr">
         <is>
-          <t>49.1</t>
+          <t>$232.2B</t>
         </is>
       </c>
       <c r="F2368" t="inlineStr"/>
-      <c r="G2368" t="inlineStr"/>
+      <c r="G2368" t="inlineStr">
+        <is>
+          <t>$ 230B</t>
+        </is>
+      </c>
       <c r="H2368" t="inlineStr">
         <is>
           <t>3</t>
@@ -77154,27 +76976,31 @@
     <row r="2369">
       <c r="A2369" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2369" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2369" t="inlineStr">
         <is>
-          <t>PPI MoMJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2369" t="inlineStr"/>
       <c r="E2369" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>50.4</t>
         </is>
       </c>
       <c r="F2369" t="inlineStr"/>
-      <c r="G2369" t="inlineStr"/>
+      <c r="G2369" t="inlineStr">
+        <is>
+          <t>49.8</t>
+        </is>
+      </c>
       <c r="H2369" t="inlineStr">
         <is>
           <t>3</t>
@@ -77184,27 +77010,31 @@
     <row r="2370">
       <c r="A2370" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2370" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2370" t="inlineStr">
         <is>
-          <t>PPI YoYJAN</t>
+          <t>SIPMM Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2370" t="inlineStr"/>
       <c r="E2370" t="inlineStr">
         <is>
-          <t>28.52%</t>
+          <t>51.1</t>
         </is>
       </c>
       <c r="F2370" t="inlineStr"/>
-      <c r="G2370" t="inlineStr"/>
+      <c r="G2370" t="inlineStr">
+        <is>
+          <t>51.4</t>
+        </is>
+      </c>
       <c r="H2370" t="inlineStr">
         <is>
           <t>3</t>
@@ -77214,25 +77044,21 @@
     <row r="2371">
       <c r="A2371" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2371" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2371" t="inlineStr">
         <is>
-          <t>Unemployment ChangeJAN</t>
+          <t>Fed Bostic Speech</t>
         </is>
       </c>
       <c r="D2371" t="inlineStr"/>
-      <c r="E2371" t="inlineStr">
-        <is>
-          <t>-25.3K</t>
-        </is>
-      </c>
+      <c r="E2371" t="inlineStr"/>
       <c r="F2371" t="inlineStr"/>
       <c r="G2371" t="inlineStr"/>
       <c r="H2371" t="inlineStr">
@@ -77244,17 +77070,17 @@
     <row r="2372">
       <c r="A2372" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2372" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2372" t="inlineStr">
         <is>
-          <t>Tourist Arrivals YoYDEC</t>
+          <t>12-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2372" t="inlineStr"/>
@@ -77270,95 +77096,79 @@
     <row r="2373">
       <c r="A2373" t="inlineStr">
         <is>
-          <t>01:45 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2373" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2373" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMIJAN</t>
+          <t>3-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2373" t="inlineStr"/>
-      <c r="E2373" t="inlineStr">
-        <is>
-          <t>53.3</t>
-        </is>
-      </c>
+      <c r="E2373" t="inlineStr"/>
       <c r="F2373" t="inlineStr"/>
       <c r="G2373" t="inlineStr"/>
       <c r="H2373" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2374">
       <c r="A2374" t="inlineStr">
         <is>
-          <t>02:15 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2374" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2374" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMIJAN</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2374" t="inlineStr"/>
-      <c r="E2374" t="inlineStr">
-        <is>
-          <t>46.2</t>
-        </is>
-      </c>
+      <c r="E2374" t="inlineStr"/>
       <c r="F2374" t="inlineStr"/>
       <c r="G2374" t="inlineStr"/>
       <c r="H2374" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2375">
       <c r="A2375" t="inlineStr">
         <is>
-          <t>02:20 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B2375" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2375" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2375" t="inlineStr"/>
       <c r="E2375" t="inlineStr">
         <is>
-          <t>41.9</t>
-        </is>
-      </c>
-      <c r="F2375" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
-      <c r="G2375" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
+          <t>52.2</t>
+        </is>
+      </c>
+      <c r="F2375" t="inlineStr"/>
+      <c r="G2375" t="inlineStr"/>
       <c r="H2375" t="inlineStr">
         <is>
           <t>2</t>
@@ -77368,33 +77178,33 @@
     <row r="2376">
       <c r="A2376" t="inlineStr">
         <is>
-          <t>02:25 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B2376" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2376" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2376" t="inlineStr"/>
       <c r="E2376" t="inlineStr">
         <is>
-          <t>42.5</t>
+          <t>49.4</t>
         </is>
       </c>
       <c r="F2376" t="inlineStr">
         <is>
-          <t>44.1</t>
+          <t>50.1</t>
         </is>
       </c>
       <c r="G2376" t="inlineStr">
         <is>
-          <t>44.1</t>
+          <t>50.1</t>
         </is>
       </c>
       <c r="H2376" t="inlineStr">
@@ -77406,127 +77216,111 @@
     <row r="2377">
       <c r="A2377" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2377" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2377" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>ISM Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2377" t="inlineStr"/>
       <c r="E2377" t="inlineStr">
         <is>
-          <t>45.1</t>
-        </is>
-      </c>
-      <c r="F2377" t="inlineStr">
-        <is>
-          <t>46.1</t>
-        </is>
-      </c>
-      <c r="G2377" t="inlineStr">
-        <is>
-          <t>46.1</t>
-        </is>
-      </c>
+          <t>49.3</t>
+        </is>
+      </c>
+      <c r="F2377" t="inlineStr"/>
+      <c r="G2377" t="inlineStr"/>
       <c r="H2377" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2378">
       <c r="A2378" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2378" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2378" t="inlineStr">
         <is>
-          <t>ABSA Manufacturing PMIJAN</t>
+          <t>ISM Manufacturing EmploymentJAN</t>
         </is>
       </c>
       <c r="D2378" t="inlineStr"/>
       <c r="E2378" t="inlineStr">
         <is>
-          <t>46.2</t>
+          <t>45.3</t>
         </is>
       </c>
       <c r="F2378" t="inlineStr"/>
-      <c r="G2378" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
+      <c r="G2378" t="inlineStr"/>
       <c r="H2378" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2379">
       <c r="A2379" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2379" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2379" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
+          <t>Construction Spending MoMDEC</t>
         </is>
       </c>
       <c r="D2379" t="inlineStr"/>
       <c r="E2379" t="inlineStr">
         <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="F2379" t="inlineStr">
-        <is>
-          <t>48.2</t>
-        </is>
-      </c>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F2379" t="inlineStr"/>
       <c r="G2379" t="inlineStr">
         <is>
-          <t>48.2</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H2379" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2380">
       <c r="A2380" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2380" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2380" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FlashJAN</t>
+          <t>ISM Manufacturing New OrdersJAN</t>
         </is>
       </c>
       <c r="D2380" t="inlineStr"/>
@@ -77535,54 +77329,50 @@
       <c r="G2380" t="inlineStr"/>
       <c r="H2380" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2381">
       <c r="A2381" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2381" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2381" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoY FlashJAN</t>
+          <t>ISM Manufacturing PricesJAN</t>
         </is>
       </c>
       <c r="D2381" t="inlineStr"/>
-      <c r="E2381" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
+      <c r="E2381" t="inlineStr"/>
       <c r="F2381" t="inlineStr"/>
       <c r="G2381" t="inlineStr"/>
       <c r="H2381" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2382">
       <c r="A2382" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B2382" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2382" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM FlashJAN</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2382" t="inlineStr"/>
@@ -77591,32 +77381,28 @@
       <c r="G2382" t="inlineStr"/>
       <c r="H2382" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2383">
       <c r="A2383" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B2383" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2383" t="inlineStr">
         <is>
-          <t>CPI FlashJAN</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2383" t="inlineStr"/>
-      <c r="E2383" t="inlineStr">
-        <is>
-          <t>127.07</t>
-        </is>
-      </c>
+      <c r="E2383" t="inlineStr"/>
       <c r="F2383" t="inlineStr"/>
       <c r="G2383" t="inlineStr"/>
       <c r="H2383" t="inlineStr">
@@ -77626,87 +77412,67 @@
       </c>
     </row>
     <row r="2384">
-      <c r="A2384" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
+      <c r="A2384" t="inlineStr"/>
       <c r="B2384" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2384" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelJAN</t>
+          <t>Total New Vehicle SalesJAN</t>
         </is>
       </c>
       <c r="D2384" t="inlineStr"/>
       <c r="E2384" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>41.27K</t>
         </is>
       </c>
       <c r="F2384" t="inlineStr"/>
-      <c r="G2384" t="inlineStr"/>
+      <c r="G2384" t="inlineStr">
+        <is>
+          <t>43.0K</t>
+        </is>
+      </c>
       <c r="H2384" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2385">
       <c r="A2385" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B2385" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C2385" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoM PrelJAN</t>
-        </is>
-      </c>
+          <t>Tuesday February 04 2025</t>
+        </is>
+      </c>
+      <c r="B2385" t="inlineStr"/>
+      <c r="C2385" t="inlineStr"/>
       <c r="D2385" t="inlineStr"/>
-      <c r="E2385" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="E2385" t="inlineStr"/>
       <c r="F2385" t="inlineStr"/>
       <c r="G2385" t="inlineStr"/>
-      <c r="H2385" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="H2385" t="inlineStr"/>
     </row>
     <row r="2386">
       <c r="A2386" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B2386" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2386" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM PrelJAN</t>
+          <t>Treasury Refunding Financing Estimates</t>
         </is>
       </c>
       <c r="D2386" t="inlineStr"/>
-      <c r="E2386" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="E2386" t="inlineStr"/>
       <c r="F2386" t="inlineStr"/>
       <c r="G2386" t="inlineStr"/>
       <c r="H2386" t="inlineStr">
@@ -77718,23 +77484,23 @@
     <row r="2387">
       <c r="A2387" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>03:30 AM</t>
         </is>
       </c>
       <c r="B2387" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C2387" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY PrelJAN</t>
+          <t>Tax RevenueJAN</t>
         </is>
       </c>
       <c r="D2387" t="inlineStr"/>
       <c r="E2387" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>ARS13015B</t>
         </is>
       </c>
       <c r="F2387" t="inlineStr"/>
@@ -77748,31 +77514,27 @@
     <row r="2388">
       <c r="A2388" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>09:05 AM</t>
         </is>
       </c>
       <c r="B2388" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2388" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesDEC</t>
+          <t>10-Year JGB Auction</t>
         </is>
       </c>
       <c r="D2388" t="inlineStr"/>
       <c r="E2388" t="inlineStr">
         <is>
-          <t>$232.2B</t>
+          <t>1.140%</t>
         </is>
       </c>
       <c r="F2388" t="inlineStr"/>
-      <c r="G2388" t="inlineStr">
-        <is>
-          <t>$ 230B</t>
-        </is>
-      </c>
+      <c r="G2388" t="inlineStr"/>
       <c r="H2388" t="inlineStr">
         <is>
           <t>3</t>
@@ -77782,31 +77544,27 @@
     <row r="2389">
       <c r="A2389" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B2389" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C2389" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>Riyad Bank PMIJAN</t>
         </is>
       </c>
       <c r="D2389" t="inlineStr"/>
       <c r="E2389" t="inlineStr">
         <is>
-          <t>50.4</t>
+          <t>58.4</t>
         </is>
       </c>
       <c r="F2389" t="inlineStr"/>
-      <c r="G2389" t="inlineStr">
-        <is>
-          <t>49.8</t>
-        </is>
-      </c>
+      <c r="G2389" t="inlineStr"/>
       <c r="H2389" t="inlineStr">
         <is>
           <t>3</t>
@@ -77816,7 +77574,7 @@
     <row r="2390">
       <c r="A2390" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2390" t="inlineStr">
@@ -77826,21 +77584,13 @@
       </c>
       <c r="C2390" t="inlineStr">
         <is>
-          <t>SIPMM Manufacturing PMIJAN</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D2390" t="inlineStr"/>
-      <c r="E2390" t="inlineStr">
-        <is>
-          <t>51.1</t>
-        </is>
-      </c>
+      <c r="E2390" t="inlineStr"/>
       <c r="F2390" t="inlineStr"/>
-      <c r="G2390" t="inlineStr">
-        <is>
-          <t>51.4</t>
-        </is>
-      </c>
+      <c r="G2390" t="inlineStr"/>
       <c r="H2390" t="inlineStr">
         <is>
           <t>3</t>
@@ -77850,17 +77600,17 @@
     <row r="2391">
       <c r="A2391" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2391" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2391" t="inlineStr">
         <is>
-          <t>Fed Bostic Speech</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D2391" t="inlineStr"/>
@@ -77869,28 +77619,32 @@
       <c r="G2391" t="inlineStr"/>
       <c r="H2391" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2392">
       <c r="A2392" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2392" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2392" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>30-Year KTB Auction</t>
         </is>
       </c>
       <c r="D2392" t="inlineStr"/>
-      <c r="E2392" t="inlineStr"/>
+      <c r="E2392" t="inlineStr">
+        <is>
+          <t>2.705%</t>
+        </is>
+      </c>
       <c r="F2392" t="inlineStr"/>
       <c r="G2392" t="inlineStr"/>
       <c r="H2392" t="inlineStr">
@@ -77902,7 +77656,7 @@
     <row r="2393">
       <c r="A2393" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2393" t="inlineStr">
@@ -77912,11 +77666,15 @@
       </c>
       <c r="C2393" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>Budget BalanceDEC</t>
         </is>
       </c>
       <c r="D2393" t="inlineStr"/>
-      <c r="E2393" t="inlineStr"/>
+      <c r="E2393" t="inlineStr">
+        <is>
+          <t>€-172.5B</t>
+        </is>
+      </c>
       <c r="F2393" t="inlineStr"/>
       <c r="G2393" t="inlineStr"/>
       <c r="H2393" t="inlineStr">
@@ -77928,21 +77686,25 @@
     <row r="2394">
       <c r="A2394" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2394" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2394" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>IPC-Fipe Inflation MoMJAN</t>
         </is>
       </c>
       <c r="D2394" t="inlineStr"/>
-      <c r="E2394" t="inlineStr"/>
+      <c r="E2394" t="inlineStr">
+        <is>
+          <t>0.34%</t>
+        </is>
+      </c>
       <c r="F2394" t="inlineStr"/>
       <c r="G2394" t="inlineStr"/>
       <c r="H2394" t="inlineStr">
@@ -77952,574 +77714,66 @@
       </c>
     </row>
     <row r="2395">
-      <c r="A2395" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
+      <c r="A2395" t="inlineStr"/>
       <c r="B2395" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2395" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>Balance of Trade PrelJAN</t>
         </is>
       </c>
       <c r="D2395" t="inlineStr"/>
-      <c r="E2395" t="inlineStr">
-        <is>
-          <t>52.2</t>
-        </is>
-      </c>
+      <c r="E2395" t="inlineStr"/>
       <c r="F2395" t="inlineStr"/>
       <c r="G2395" t="inlineStr"/>
       <c r="H2395" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2396">
-      <c r="A2396" t="inlineStr">
-        <is>
-          <t>08:15 PM</t>
-        </is>
-      </c>
+      <c r="A2396" t="inlineStr"/>
       <c r="B2396" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2396" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
+          <t>Exports PrelJAN</t>
         </is>
       </c>
       <c r="D2396" t="inlineStr"/>
-      <c r="E2396" t="inlineStr">
-        <is>
-          <t>49.4</t>
-        </is>
-      </c>
-      <c r="F2396" t="inlineStr">
-        <is>
-          <t>50.1</t>
-        </is>
-      </c>
-      <c r="G2396" t="inlineStr">
-        <is>
-          <t>50.1</t>
-        </is>
-      </c>
+      <c r="E2396" t="inlineStr"/>
+      <c r="F2396" t="inlineStr"/>
+      <c r="G2396" t="inlineStr"/>
       <c r="H2396" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2397">
-      <c r="A2397" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
+      <c r="A2397" t="inlineStr"/>
       <c r="B2397" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2397" t="inlineStr">
         <is>
-          <t>ISM Manufacturing PMIJAN</t>
+          <t>Imports PrelJAN</t>
         </is>
       </c>
       <c r="D2397" t="inlineStr"/>
-      <c r="E2397" t="inlineStr">
-        <is>
-          <t>49.3</t>
-        </is>
-      </c>
+      <c r="E2397" t="inlineStr"/>
       <c r="F2397" t="inlineStr"/>
       <c r="G2397" t="inlineStr"/>
       <c r="H2397" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2398">
-      <c r="A2398" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2398" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2398" t="inlineStr">
-        <is>
-          <t>ISM Manufacturing EmploymentJAN</t>
-        </is>
-      </c>
-      <c r="D2398" t="inlineStr"/>
-      <c r="E2398" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
-      <c r="F2398" t="inlineStr"/>
-      <c r="G2398" t="inlineStr"/>
-      <c r="H2398" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2399">
-      <c r="A2399" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2399" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2399" t="inlineStr">
-        <is>
-          <t>Construction Spending MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2399" t="inlineStr"/>
-      <c r="E2399" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F2399" t="inlineStr"/>
-      <c r="G2399" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H2399" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2400">
-      <c r="A2400" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2400" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2400" t="inlineStr">
-        <is>
-          <t>ISM Manufacturing New OrdersJAN</t>
-        </is>
-      </c>
-      <c r="D2400" t="inlineStr"/>
-      <c r="E2400" t="inlineStr"/>
-      <c r="F2400" t="inlineStr"/>
-      <c r="G2400" t="inlineStr"/>
-      <c r="H2400" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2401">
-      <c r="A2401" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2401" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2401" t="inlineStr">
-        <is>
-          <t>ISM Manufacturing PricesJAN</t>
-        </is>
-      </c>
-      <c r="D2401" t="inlineStr"/>
-      <c r="E2401" t="inlineStr"/>
-      <c r="F2401" t="inlineStr"/>
-      <c r="G2401" t="inlineStr"/>
-      <c r="H2401" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2402">
-      <c r="A2402" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B2402" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2402" t="inlineStr">
-        <is>
-          <t>3-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="D2402" t="inlineStr"/>
-      <c r="E2402" t="inlineStr"/>
-      <c r="F2402" t="inlineStr"/>
-      <c r="G2402" t="inlineStr"/>
-      <c r="H2402" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2403">
-      <c r="A2403" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B2403" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2403" t="inlineStr">
-        <is>
-          <t>6-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="D2403" t="inlineStr"/>
-      <c r="E2403" t="inlineStr"/>
-      <c r="F2403" t="inlineStr"/>
-      <c r="G2403" t="inlineStr"/>
-      <c r="H2403" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2404">
-      <c r="A2404" t="inlineStr"/>
-      <c r="B2404" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C2404" t="inlineStr">
-        <is>
-          <t>Total New Vehicle SalesJAN</t>
-        </is>
-      </c>
-      <c r="D2404" t="inlineStr"/>
-      <c r="E2404" t="inlineStr">
-        <is>
-          <t>41.27K</t>
-        </is>
-      </c>
-      <c r="F2404" t="inlineStr"/>
-      <c r="G2404" t="inlineStr">
-        <is>
-          <t>43.0K</t>
-        </is>
-      </c>
-      <c r="H2404" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2405">
-      <c r="A2405" t="inlineStr">
-        <is>
-          <t>Tuesday February 04 2025</t>
-        </is>
-      </c>
-      <c r="B2405" t="inlineStr"/>
-      <c r="C2405" t="inlineStr"/>
-      <c r="D2405" t="inlineStr"/>
-      <c r="E2405" t="inlineStr"/>
-      <c r="F2405" t="inlineStr"/>
-      <c r="G2405" t="inlineStr"/>
-      <c r="H2405" t="inlineStr"/>
-    </row>
-    <row r="2406">
-      <c r="A2406" t="inlineStr">
-        <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
-      <c r="B2406" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2406" t="inlineStr">
-        <is>
-          <t>Treasury Refunding Financing Estimates</t>
-        </is>
-      </c>
-      <c r="D2406" t="inlineStr"/>
-      <c r="E2406" t="inlineStr"/>
-      <c r="F2406" t="inlineStr"/>
-      <c r="G2406" t="inlineStr"/>
-      <c r="H2406" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2407">
-      <c r="A2407" t="inlineStr">
-        <is>
-          <t>03:30 AM</t>
-        </is>
-      </c>
-      <c r="B2407" t="inlineStr">
-        <is>
-          <t>AR</t>
-        </is>
-      </c>
-      <c r="C2407" t="inlineStr">
-        <is>
-          <t>Tax RevenueJAN</t>
-        </is>
-      </c>
-      <c r="D2407" t="inlineStr"/>
-      <c r="E2407" t="inlineStr">
-        <is>
-          <t>ARS13015B</t>
-        </is>
-      </c>
-      <c r="F2407" t="inlineStr"/>
-      <c r="G2407" t="inlineStr"/>
-      <c r="H2407" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2408">
-      <c r="A2408" t="inlineStr">
-        <is>
-          <t>09:05 AM</t>
-        </is>
-      </c>
-      <c r="B2408" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C2408" t="inlineStr">
-        <is>
-          <t>10-Year JGB Auction</t>
-        </is>
-      </c>
-      <c r="D2408" t="inlineStr"/>
-      <c r="E2408" t="inlineStr">
-        <is>
-          <t>1.140%</t>
-        </is>
-      </c>
-      <c r="F2408" t="inlineStr"/>
-      <c r="G2408" t="inlineStr"/>
-      <c r="H2408" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2409">
-      <c r="A2409" t="inlineStr">
-        <is>
-          <t>09:45 AM</t>
-        </is>
-      </c>
-      <c r="B2409" t="inlineStr">
-        <is>
-          <t>SA</t>
-        </is>
-      </c>
-      <c r="C2409" t="inlineStr">
-        <is>
-          <t>Riyad Bank PMIJAN</t>
-        </is>
-      </c>
-      <c r="D2409" t="inlineStr"/>
-      <c r="E2409" t="inlineStr">
-        <is>
-          <t>58.4</t>
-        </is>
-      </c>
-      <c r="F2409" t="inlineStr"/>
-      <c r="G2409" t="inlineStr"/>
-      <c r="H2409" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2410">
-      <c r="A2410" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B2410" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="C2410" t="inlineStr">
-        <is>
-          <t>MAS 12-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="D2410" t="inlineStr"/>
-      <c r="E2410" t="inlineStr"/>
-      <c r="F2410" t="inlineStr"/>
-      <c r="G2410" t="inlineStr"/>
-      <c r="H2410" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2411">
-      <c r="A2411" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B2411" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="C2411" t="inlineStr">
-        <is>
-          <t>MAS 4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="D2411" t="inlineStr"/>
-      <c r="E2411" t="inlineStr"/>
-      <c r="F2411" t="inlineStr"/>
-      <c r="G2411" t="inlineStr"/>
-      <c r="H2411" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2412">
-      <c r="A2412" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B2412" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C2412" t="inlineStr">
-        <is>
-          <t>30-Year KTB Auction</t>
-        </is>
-      </c>
-      <c r="D2412" t="inlineStr"/>
-      <c r="E2412" t="inlineStr">
-        <is>
-          <t>2.705%</t>
-        </is>
-      </c>
-      <c r="F2412" t="inlineStr"/>
-      <c r="G2412" t="inlineStr"/>
-      <c r="H2412" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2413">
-      <c r="A2413" t="inlineStr"/>
-      <c r="B2413" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2413" t="inlineStr">
-        <is>
-          <t>Balance of Trade PrelJAN</t>
-        </is>
-      </c>
-      <c r="D2413" t="inlineStr"/>
-      <c r="E2413" t="inlineStr"/>
-      <c r="F2413" t="inlineStr"/>
-      <c r="G2413" t="inlineStr"/>
-      <c r="H2413" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2414">
-      <c r="A2414" t="inlineStr"/>
-      <c r="B2414" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2414" t="inlineStr">
-        <is>
-          <t>Exports PrelJAN</t>
-        </is>
-      </c>
-      <c r="D2414" t="inlineStr"/>
-      <c r="E2414" t="inlineStr"/>
-      <c r="F2414" t="inlineStr"/>
-      <c r="G2414" t="inlineStr"/>
-      <c r="H2414" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2415">
-      <c r="A2415" t="inlineStr"/>
-      <c r="B2415" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2415" t="inlineStr">
-        <is>
-          <t>Imports PrelJAN</t>
-        </is>
-      </c>
-      <c r="D2415" t="inlineStr"/>
-      <c r="E2415" t="inlineStr"/>
-      <c r="F2415" t="inlineStr"/>
-      <c r="G2415" t="inlineStr"/>
-      <c r="H2415" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-04.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-04.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2397"/>
+  <dimension ref="A1:H2375"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73003,10 +73003,8 @@
           <t>5.5%</t>
         </is>
       </c>
-      <c r="H2246" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2246" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2247">
@@ -73037,10 +73035,8 @@
           <t>12</t>
         </is>
       </c>
-      <c r="H2247" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2247" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2248">
@@ -73075,10 +73071,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2248" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2248" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2249">
@@ -73109,10 +73103,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="H2249" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2249" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2250">
@@ -73143,10 +73135,8 @@
           <t>$-8.82B</t>
         </is>
       </c>
-      <c r="H2250" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2250" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2251">
@@ -73181,10 +73171,8 @@
           <t>$ 23.46B</t>
         </is>
       </c>
-      <c r="H2251" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2251" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2252">
@@ -73215,10 +73203,8 @@
           <t>$32.29B</t>
         </is>
       </c>
-      <c r="H2252" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2252" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2253">
@@ -73249,10 +73235,8 @@
           <t>$ 23.5B</t>
         </is>
       </c>
-      <c r="H2253" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2253" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2254">
@@ -73283,10 +73267,8 @@
           <t>0.9%</t>
         </is>
       </c>
-      <c r="H2254" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2254" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2255">
@@ -73317,10 +73299,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="H2255" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2255" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2256">
@@ -73351,10 +73331,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H2256" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2256" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2257">
@@ -73389,10 +73367,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2257" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2257" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2258">
@@ -73423,10 +73399,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2258" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2258" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2259">
@@ -73457,10 +73431,8 @@
           <t>2.0%</t>
         </is>
       </c>
-      <c r="H2259" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2259" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2260">
@@ -73491,10 +73463,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2260" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2260" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2261">
@@ -73525,10 +73495,8 @@
           <t>-4.3%</t>
         </is>
       </c>
-      <c r="H2261" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2261" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2262">
@@ -73559,10 +73527,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2262" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2262" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2263">
@@ -73593,10 +73559,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2263" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2263" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2264">
@@ -73623,10 +73587,8 @@
       </c>
       <c r="F2264" t="inlineStr"/>
       <c r="G2264" t="inlineStr"/>
-      <c r="H2264" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2264" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2265">
@@ -73661,10 +73623,8 @@
           <t>7.0K</t>
         </is>
       </c>
-      <c r="H2265" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2265" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2266">
@@ -73695,10 +73655,8 @@
           <t>2.876M</t>
         </is>
       </c>
-      <c r="H2266" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2266" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2267">
@@ -73733,10 +73691,8 @@
           <t>6.2%</t>
         </is>
       </c>
-      <c r="H2267" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2267" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2268">
@@ -73759,10 +73715,8 @@
       <c r="E2268" t="inlineStr"/>
       <c r="F2268" t="inlineStr"/>
       <c r="G2268" t="inlineStr"/>
-      <c r="H2268" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2268" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2269">
@@ -73789,10 +73743,8 @@
       </c>
       <c r="F2269" t="inlineStr"/>
       <c r="G2269" t="inlineStr"/>
-      <c r="H2269" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2269" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2270">
@@ -73819,10 +73771,8 @@
       </c>
       <c r="F2270" t="inlineStr"/>
       <c r="G2270" t="inlineStr"/>
-      <c r="H2270" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2270" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2271">
@@ -73849,10 +73799,8 @@
       </c>
       <c r="F2271" t="inlineStr"/>
       <c r="G2271" t="inlineStr"/>
-      <c r="H2271" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2271" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2272">
@@ -73879,10 +73827,8 @@
       </c>
       <c r="F2272" t="inlineStr"/>
       <c r="G2272" t="inlineStr"/>
-      <c r="H2272" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2272" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2273">
@@ -73909,10 +73855,8 @@
       </c>
       <c r="F2273" t="inlineStr"/>
       <c r="G2273" t="inlineStr"/>
-      <c r="H2273" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2273" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2274">
@@ -73939,10 +73883,8 @@
       </c>
       <c r="F2274" t="inlineStr"/>
       <c r="G2274" t="inlineStr"/>
-      <c r="H2274" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2274" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2275">
@@ -73969,10 +73911,8 @@
       </c>
       <c r="F2275" t="inlineStr"/>
       <c r="G2275" t="inlineStr"/>
-      <c r="H2275" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2275" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2276">
@@ -73999,10 +73939,8 @@
       </c>
       <c r="F2276" t="inlineStr"/>
       <c r="G2276" t="inlineStr"/>
-      <c r="H2276" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2276" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2277">
@@ -74029,10 +73967,8 @@
       </c>
       <c r="F2277" t="inlineStr"/>
       <c r="G2277" t="inlineStr"/>
-      <c r="H2277" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2277" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2278">
@@ -74059,10 +73995,8 @@
       </c>
       <c r="F2278" t="inlineStr"/>
       <c r="G2278" t="inlineStr"/>
-      <c r="H2278" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2278" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2279">
@@ -74089,10 +74023,8 @@
       </c>
       <c r="F2279" t="inlineStr"/>
       <c r="G2279" t="inlineStr"/>
-      <c r="H2279" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2279" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2280">
@@ -74119,10 +74051,8 @@
       </c>
       <c r="F2280" t="inlineStr"/>
       <c r="G2280" t="inlineStr"/>
-      <c r="H2280" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2280" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2281">
@@ -74153,10 +74083,8 @@
           <t>€5.0B</t>
         </is>
       </c>
-      <c r="H2281" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2281" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2282">
@@ -74187,10 +74115,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2282" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2282" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2283">
@@ -74221,10 +74147,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2283" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2283" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2284">
@@ -74255,10 +74179,8 @@
           <t>INR-9700.0B</t>
         </is>
       </c>
-      <c r="H2284" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2284" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2285">
@@ -74289,10 +74211,8 @@
           <t>77.9%</t>
         </is>
       </c>
-      <c r="H2285" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2285" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2286">
@@ -74323,10 +74243,8 @@
           <t>BRL-103.0B</t>
         </is>
       </c>
-      <c r="H2286" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2286" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2287">
@@ -74353,10 +74271,8 @@
       </c>
       <c r="F2287" t="inlineStr"/>
       <c r="G2287" t="inlineStr"/>
-      <c r="H2287" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2287" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2288">
@@ -74383,10 +74299,8 @@
       </c>
       <c r="F2288" t="inlineStr"/>
       <c r="G2288" t="inlineStr"/>
-      <c r="H2288" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2288" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2289">
@@ -74413,10 +74327,8 @@
       </c>
       <c r="F2289" t="inlineStr"/>
       <c r="G2289" t="inlineStr"/>
-      <c r="H2289" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2289" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2290">
@@ -74447,10 +74359,8 @@
           <t>4.8%</t>
         </is>
       </c>
-      <c r="H2290" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2290" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2291">
@@ -74481,10 +74391,8 @@
           <t>6.1%</t>
         </is>
       </c>
-      <c r="H2291" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2291" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2292">
@@ -74515,10 +74423,8 @@
           <t>ZAR 27.0B</t>
         </is>
       </c>
-      <c r="H2292" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2292" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2293">
@@ -74553,10 +74459,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H2293" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2293" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2294">
@@ -74591,10 +74495,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2294" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2294" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2295">
@@ -74625,10 +74527,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2295" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2295" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2296">
@@ -74663,10 +74563,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H2296" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2296" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2297">
@@ -74701,10 +74599,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H2297" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2297" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2298">
@@ -74735,10 +74631,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2298" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2298" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2299">
@@ -74773,10 +74667,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2299" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2299" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2300">
@@ -74811,10 +74703,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2300" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2300" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2301">
@@ -74849,10 +74739,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2301" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2301" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2302">
@@ -74883,10 +74771,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2302" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2302" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2303">
@@ -74917,10 +74803,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2303" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2303" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2304">
@@ -74955,10 +74839,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2304" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2304" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2305">
@@ -74981,10 +74863,8 @@
       <c r="E2305" t="inlineStr"/>
       <c r="F2305" t="inlineStr"/>
       <c r="G2305" t="inlineStr"/>
-      <c r="H2305" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2305" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2306">
@@ -75015,10 +74895,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2306" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2306" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2307">
@@ -75049,10 +74927,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H2307" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2307" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2308">
@@ -75083,10 +74959,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H2308" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2308" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2309">
@@ -75121,10 +74995,8 @@
           <t>37.2</t>
         </is>
       </c>
-      <c r="H2309" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2309" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2310">
@@ -75155,10 +75027,8 @@
           <t>C$-1.9B</t>
         </is>
       </c>
-      <c r="H2310" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2310" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2311">
@@ -75185,10 +75055,8 @@
       </c>
       <c r="F2311" t="inlineStr"/>
       <c r="G2311" t="inlineStr"/>
-      <c r="H2311" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2311" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2312">
@@ -75215,10 +75083,8 @@
       </c>
       <c r="F2312" t="inlineStr"/>
       <c r="G2312" t="inlineStr"/>
-      <c r="H2312" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2312" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2313">
@@ -75245,10 +75111,8 @@
           <t>MXN-1120.0B</t>
         </is>
       </c>
-      <c r="H2313" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2313" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2314">
@@ -75275,10 +75139,8 @@
           <t>0.0%</t>
         </is>
       </c>
-      <c r="H2314" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2314" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2315">
@@ -75305,10 +75167,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H2315" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2315" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2316">
@@ -75335,10 +75195,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H2316" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2316" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2317">
@@ -75365,10 +75223,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H2317" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2317" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2318">
@@ -75395,10 +75251,8 @@
           <t>-4.0%</t>
         </is>
       </c>
-      <c r="H2318" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2318" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2319">
@@ -75425,10 +75279,8 @@
           <t>20.7%</t>
         </is>
       </c>
-      <c r="H2319" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2319" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2320">
@@ -75473,10 +75325,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2321" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2321" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2322">
@@ -75507,10 +75357,8 @@
           <t>$0.9B</t>
         </is>
       </c>
-      <c r="H2322" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2322" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2323">
@@ -75541,46 +75389,60 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H2323" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2323" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2324">
       <c r="A2324" t="inlineStr">
         <is>
-          <t>Monday February 03 2025</t>
-        </is>
-      </c>
-      <c r="B2324" t="inlineStr"/>
-      <c r="C2324" t="inlineStr"/>
+          <t>12:30 PM</t>
+        </is>
+      </c>
+      <c r="B2324" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="C2324" t="inlineStr">
+        <is>
+          <t>Inflation Rate MoMJAN</t>
+        </is>
+      </c>
       <c r="D2324" t="inlineStr"/>
-      <c r="E2324" t="inlineStr"/>
+      <c r="E2324" t="inlineStr">
+        <is>
+          <t>1.03%</t>
+        </is>
+      </c>
       <c r="F2324" t="inlineStr"/>
       <c r="G2324" t="inlineStr"/>
-      <c r="H2324" t="inlineStr"/>
+      <c r="H2324" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="2325">
       <c r="A2325" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2325" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2325" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Manufacturing PMI FinalJAN</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2325" t="inlineStr"/>
       <c r="E2325" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>44.38%</t>
         </is>
       </c>
       <c r="F2325" t="inlineStr"/>
@@ -75594,31 +75456,27 @@
     <row r="2326">
       <c r="A2326" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2326" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2326" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>Istanbul Chamber of Industry Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2326" t="inlineStr"/>
       <c r="E2326" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>49.1</t>
         </is>
       </c>
       <c r="F2326" t="inlineStr"/>
-      <c r="G2326" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
+      <c r="G2326" t="inlineStr"/>
       <c r="H2326" t="inlineStr">
         <is>
           <t>3</t>
@@ -75628,31 +75486,27 @@
     <row r="2327">
       <c r="A2327" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2327" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2327" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>PPI MoMJAN</t>
         </is>
       </c>
       <c r="D2327" t="inlineStr"/>
       <c r="E2327" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F2327" t="inlineStr"/>
-      <c r="G2327" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="G2327" t="inlineStr"/>
       <c r="H2327" t="inlineStr">
         <is>
           <t>3</t>
@@ -75662,31 +75516,27 @@
     <row r="2328">
       <c r="A2328" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2328" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2328" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>PPI YoYJAN</t>
         </is>
       </c>
       <c r="D2328" t="inlineStr"/>
       <c r="E2328" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>28.52%</t>
         </is>
       </c>
       <c r="F2328" t="inlineStr"/>
-      <c r="G2328" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G2328" t="inlineStr"/>
       <c r="H2328" t="inlineStr">
         <is>
           <t>3</t>
@@ -75696,21 +75546,25 @@
     <row r="2329">
       <c r="A2329" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2329" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2329" t="inlineStr">
         <is>
-          <t>BoJ Summary of Opinions</t>
+          <t>Unemployment ChangeJAN</t>
         </is>
       </c>
       <c r="D2329" t="inlineStr"/>
-      <c r="E2329" t="inlineStr"/>
+      <c r="E2329" t="inlineStr">
+        <is>
+          <t>-25.3K</t>
+        </is>
+      </c>
       <c r="F2329" t="inlineStr"/>
       <c r="G2329" t="inlineStr"/>
       <c r="H2329" t="inlineStr">
@@ -75722,65 +75576,53 @@
     <row r="2330">
       <c r="A2330" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2330" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2330" t="inlineStr">
         <is>
-          <t>Building Permits MoM PrelDEC</t>
+          <t>Tourist Arrivals YoYDEC</t>
         </is>
       </c>
       <c r="D2330" t="inlineStr"/>
-      <c r="E2330" t="inlineStr">
-        <is>
-          <t>-3.6%</t>
-        </is>
-      </c>
+      <c r="E2330" t="inlineStr"/>
       <c r="F2330" t="inlineStr"/>
-      <c r="G2330" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
+      <c r="G2330" t="inlineStr"/>
       <c r="H2330" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2331">
       <c r="A2331" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B2331" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2331" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>HCOB Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2331" t="inlineStr"/>
       <c r="E2331" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>53.3</t>
         </is>
       </c>
       <c r="F2331" t="inlineStr"/>
-      <c r="G2331" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G2331" t="inlineStr"/>
       <c r="H2331" t="inlineStr">
         <is>
           <t>2</t>
@@ -75790,127 +75632,139 @@
     <row r="2332">
       <c r="A2332" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:15 PM</t>
         </is>
       </c>
       <c r="B2332" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2332" t="inlineStr">
         <is>
-          <t>ANZ-Indeed Job Ads MoMJAN</t>
+          <t>HCOB Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2332" t="inlineStr"/>
       <c r="E2332" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>46.2</t>
         </is>
       </c>
       <c r="F2332" t="inlineStr"/>
       <c r="G2332" t="inlineStr"/>
       <c r="H2332" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2333">
       <c r="A2333" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:20 PM</t>
         </is>
       </c>
       <c r="B2333" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2333" t="inlineStr">
         <is>
-          <t>Private House Approvals MoM PrelDEC</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2333" t="inlineStr"/>
       <c r="E2333" t="inlineStr">
         <is>
-          <t>-1.7%</t>
-        </is>
-      </c>
-      <c r="F2333" t="inlineStr"/>
-      <c r="G2333" t="inlineStr"/>
+          <t>41.9</t>
+        </is>
+      </c>
+      <c r="F2333" t="inlineStr">
+        <is>
+          <t>45.3</t>
+        </is>
+      </c>
+      <c r="G2333" t="inlineStr">
+        <is>
+          <t>45.3</t>
+        </is>
+      </c>
       <c r="H2333" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2334">
       <c r="A2334" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:25 PM</t>
         </is>
       </c>
       <c r="B2334" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2334" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2334" t="inlineStr"/>
       <c r="E2334" t="inlineStr">
         <is>
-          <t>51.2</t>
-        </is>
-      </c>
-      <c r="F2334" t="inlineStr"/>
+          <t>42.5</t>
+        </is>
+      </c>
+      <c r="F2334" t="inlineStr">
+        <is>
+          <t>44.1</t>
+        </is>
+      </c>
       <c r="G2334" t="inlineStr">
         <is>
-          <t>51.6</t>
+          <t>44.1</t>
         </is>
       </c>
       <c r="H2334" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2335">
       <c r="A2335" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2335" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2335" t="inlineStr">
         <is>
-          <t>Jibun Bank Manufacturing PMI FinalJAN</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2335" t="inlineStr"/>
       <c r="E2335" t="inlineStr">
         <is>
-          <t>49.6</t>
+          <t>45.1</t>
         </is>
       </c>
       <c r="F2335" t="inlineStr">
         <is>
-          <t>48.8</t>
+          <t>46.1</t>
         </is>
       </c>
       <c r="G2335" t="inlineStr">
         <is>
-          <t>48.8</t>
+          <t>46.1</t>
         </is>
       </c>
       <c r="H2335" t="inlineStr">
@@ -75922,205 +75776,181 @@
     <row r="2336">
       <c r="A2336" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2336" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2336" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>ABSA Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2336" t="inlineStr"/>
       <c r="E2336" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>46.2</t>
         </is>
       </c>
       <c r="F2336" t="inlineStr"/>
       <c r="G2336" t="inlineStr">
         <is>
-          <t>49.5</t>
+          <t>47</t>
         </is>
       </c>
       <c r="H2336" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2337">
       <c r="A2337" t="inlineStr">
         <is>
-          <t>07:15 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B2337" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2337" t="inlineStr">
         <is>
-          <t>Caixin Manufacturing PMIJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2337" t="inlineStr"/>
       <c r="E2337" t="inlineStr">
         <is>
-          <t>50.5</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F2337" t="inlineStr">
         <is>
-          <t>50.5</t>
+          <t>48.2</t>
         </is>
       </c>
       <c r="G2337" t="inlineStr">
         <is>
-          <t>50.5</t>
+          <t>48.2</t>
         </is>
       </c>
       <c r="H2337" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2338">
       <c r="A2338" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2338" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2338" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>Inflation Rate YoY FlashJAN</t>
         </is>
       </c>
       <c r="D2338" t="inlineStr"/>
-      <c r="E2338" t="inlineStr">
-        <is>
-          <t>1.57%</t>
-        </is>
-      </c>
+      <c r="E2338" t="inlineStr"/>
       <c r="F2338" t="inlineStr"/>
-      <c r="G2338" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
+      <c r="G2338" t="inlineStr"/>
       <c r="H2338" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2339">
       <c r="A2339" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2339" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2339" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYJAN</t>
+          <t>Core Inflation Rate YoY FlashJAN</t>
         </is>
       </c>
       <c r="D2339" t="inlineStr"/>
       <c r="E2339" t="inlineStr">
         <is>
-          <t>2.26%</t>
+          <t>2.7%</t>
         </is>
       </c>
       <c r="F2339" t="inlineStr"/>
-      <c r="G2339" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
+      <c r="G2339" t="inlineStr"/>
       <c r="H2339" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2340">
       <c r="A2340" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2340" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2340" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Inflation Rate MoM FlashJAN</t>
         </is>
       </c>
       <c r="D2340" t="inlineStr"/>
-      <c r="E2340" t="inlineStr">
-        <is>
-          <t>0.44%</t>
-        </is>
-      </c>
+      <c r="E2340" t="inlineStr"/>
       <c r="F2340" t="inlineStr"/>
-      <c r="G2340" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G2340" t="inlineStr"/>
       <c r="H2340" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2341">
       <c r="A2341" t="inlineStr">
         <is>
-          <t>10:15 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2341" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2341" t="inlineStr">
         <is>
-          <t>Tourist Arrivals YoYDEC</t>
+          <t>CPI FlashJAN</t>
         </is>
       </c>
       <c r="D2341" t="inlineStr"/>
       <c r="E2341" t="inlineStr">
         <is>
-          <t>17.27%</t>
+          <t>127.07</t>
         </is>
       </c>
       <c r="F2341" t="inlineStr"/>
-      <c r="G2341" t="inlineStr">
-        <is>
-          <t>18.0%</t>
-        </is>
-      </c>
+      <c r="G2341" t="inlineStr"/>
       <c r="H2341" t="inlineStr">
         <is>
           <t>3</t>
@@ -76130,91 +75960,83 @@
     <row r="2342">
       <c r="A2342" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2342" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2342" t="inlineStr">
         <is>
-          <t>HSBC Manufacturing PMI FinalJAN</t>
+          <t>Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2342" t="inlineStr"/>
       <c r="E2342" t="inlineStr">
         <is>
-          <t>56.4</t>
-        </is>
-      </c>
-      <c r="F2342" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="G2342" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
+          <t>1.3%</t>
+        </is>
+      </c>
+      <c r="F2342" t="inlineStr"/>
+      <c r="G2342" t="inlineStr"/>
       <c r="H2342" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2343">
       <c r="A2343" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2343" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2343" t="inlineStr">
         <is>
-          <t>2-Year KTB Auction</t>
+          <t>Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2343" t="inlineStr"/>
       <c r="E2343" t="inlineStr">
         <is>
-          <t>2.670%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2343" t="inlineStr"/>
       <c r="G2343" t="inlineStr"/>
       <c r="H2343" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2344">
       <c r="A2344" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2344" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2344" t="inlineStr">
         <is>
-          <t>Commodity Prices YoYJAN</t>
+          <t>Harmonised Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2344" t="inlineStr"/>
       <c r="E2344" t="inlineStr">
         <is>
-          <t>-10.7%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2344" t="inlineStr"/>
@@ -76228,117 +76050,129 @@
     <row r="2345">
       <c r="A2345" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2345" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2345" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>Harmonised Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2345" t="inlineStr"/>
       <c r="E2345" t="inlineStr">
         <is>
-          <t>50.8</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F2345" t="inlineStr"/>
       <c r="G2345" t="inlineStr"/>
       <c r="H2345" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2346">
       <c r="A2346" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2346" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2346" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Foreign Exchange ReservesDEC</t>
         </is>
       </c>
       <c r="D2346" t="inlineStr"/>
       <c r="E2346" t="inlineStr">
         <is>
-          <t>1.03%</t>
+          <t>$232.2B</t>
         </is>
       </c>
       <c r="F2346" t="inlineStr"/>
-      <c r="G2346" t="inlineStr"/>
+      <c r="G2346" t="inlineStr">
+        <is>
+          <t>$ 230B</t>
+        </is>
+      </c>
       <c r="H2346" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2347">
       <c r="A2347" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2347" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2347" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2347" t="inlineStr"/>
       <c r="E2347" t="inlineStr">
         <is>
-          <t>44.38%</t>
+          <t>50.4</t>
         </is>
       </c>
       <c r="F2347" t="inlineStr"/>
-      <c r="G2347" t="inlineStr"/>
+      <c r="G2347" t="inlineStr">
+        <is>
+          <t>49.8</t>
+        </is>
+      </c>
       <c r="H2347" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2348">
       <c r="A2348" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2348" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2348" t="inlineStr">
         <is>
-          <t>Istanbul Chamber of Industry Manufacturing PMIJAN</t>
+          <t>SIPMM Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2348" t="inlineStr"/>
       <c r="E2348" t="inlineStr">
         <is>
-          <t>49.1</t>
+          <t>51.1</t>
         </is>
       </c>
       <c r="F2348" t="inlineStr"/>
-      <c r="G2348" t="inlineStr"/>
+      <c r="G2348" t="inlineStr">
+        <is>
+          <t>51.4</t>
+        </is>
+      </c>
       <c r="H2348" t="inlineStr">
         <is>
           <t>3</t>
@@ -76348,55 +76182,47 @@
     <row r="2349">
       <c r="A2349" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2349" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2349" t="inlineStr">
         <is>
-          <t>PPI MoMJAN</t>
+          <t>Fed Bostic Speech</t>
         </is>
       </c>
       <c r="D2349" t="inlineStr"/>
-      <c r="E2349" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="E2349" t="inlineStr"/>
       <c r="F2349" t="inlineStr"/>
       <c r="G2349" t="inlineStr"/>
       <c r="H2349" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2350">
       <c r="A2350" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2350" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2350" t="inlineStr">
         <is>
-          <t>PPI YoYJAN</t>
+          <t>12-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2350" t="inlineStr"/>
-      <c r="E2350" t="inlineStr">
-        <is>
-          <t>28.52%</t>
-        </is>
-      </c>
+      <c r="E2350" t="inlineStr"/>
       <c r="F2350" t="inlineStr"/>
       <c r="G2350" t="inlineStr"/>
       <c r="H2350" t="inlineStr">
@@ -76408,47 +76234,43 @@
     <row r="2351">
       <c r="A2351" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2351" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2351" t="inlineStr">
         <is>
-          <t>Unemployment ChangeJAN</t>
+          <t>3-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2351" t="inlineStr"/>
-      <c r="E2351" t="inlineStr">
-        <is>
-          <t>-25.3K</t>
-        </is>
-      </c>
+      <c r="E2351" t="inlineStr"/>
       <c r="F2351" t="inlineStr"/>
       <c r="G2351" t="inlineStr"/>
       <c r="H2351" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2352">
       <c r="A2352" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2352" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2352" t="inlineStr">
         <is>
-          <t>Tourist Arrivals YoYDEC</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2352" t="inlineStr"/>
@@ -76464,23 +76286,23 @@
     <row r="2353">
       <c r="A2353" t="inlineStr">
         <is>
-          <t>01:45 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B2353" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2353" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMIJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2353" t="inlineStr"/>
       <c r="E2353" t="inlineStr">
         <is>
-          <t>53.3</t>
+          <t>52.2</t>
         </is>
       </c>
       <c r="F2353" t="inlineStr"/>
@@ -76494,27 +76316,35 @@
     <row r="2354">
       <c r="A2354" t="inlineStr">
         <is>
-          <t>02:15 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B2354" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2354" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMIJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2354" t="inlineStr"/>
       <c r="E2354" t="inlineStr">
         <is>
-          <t>46.2</t>
-        </is>
-      </c>
-      <c r="F2354" t="inlineStr"/>
-      <c r="G2354" t="inlineStr"/>
+          <t>49.4</t>
+        </is>
+      </c>
+      <c r="F2354" t="inlineStr">
+        <is>
+          <t>50.1</t>
+        </is>
+      </c>
+      <c r="G2354" t="inlineStr">
+        <is>
+          <t>50.1</t>
+        </is>
+      </c>
       <c r="H2354" t="inlineStr">
         <is>
           <t>2</t>
@@ -76524,73 +76354,57 @@
     <row r="2355">
       <c r="A2355" t="inlineStr">
         <is>
-          <t>02:20 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2355" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2355" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>ISM Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2355" t="inlineStr"/>
       <c r="E2355" t="inlineStr">
         <is>
-          <t>41.9</t>
-        </is>
-      </c>
-      <c r="F2355" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
-      <c r="G2355" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
+          <t>49.3</t>
+        </is>
+      </c>
+      <c r="F2355" t="inlineStr"/>
+      <c r="G2355" t="inlineStr"/>
       <c r="H2355" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2356">
       <c r="A2356" t="inlineStr">
         <is>
-          <t>02:25 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2356" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2356" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>ISM Manufacturing EmploymentJAN</t>
         </is>
       </c>
       <c r="D2356" t="inlineStr"/>
       <c r="E2356" t="inlineStr">
         <is>
-          <t>42.5</t>
-        </is>
-      </c>
-      <c r="F2356" t="inlineStr">
-        <is>
-          <t>44.1</t>
-        </is>
-      </c>
-      <c r="G2356" t="inlineStr">
-        <is>
-          <t>44.1</t>
-        </is>
-      </c>
+          <t>45.3</t>
+        </is>
+      </c>
+      <c r="F2356" t="inlineStr"/>
+      <c r="G2356" t="inlineStr"/>
       <c r="H2356" t="inlineStr">
         <is>
           <t>2</t>
@@ -76600,69 +76414,57 @@
     <row r="2357">
       <c r="A2357" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2357" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2357" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>Construction Spending MoMDEC</t>
         </is>
       </c>
       <c r="D2357" t="inlineStr"/>
       <c r="E2357" t="inlineStr">
         <is>
-          <t>45.1</t>
-        </is>
-      </c>
-      <c r="F2357" t="inlineStr">
-        <is>
-          <t>46.1</t>
-        </is>
-      </c>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F2357" t="inlineStr"/>
       <c r="G2357" t="inlineStr">
         <is>
-          <t>46.1</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H2357" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2358">
       <c r="A2358" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2358" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2358" t="inlineStr">
         <is>
-          <t>ABSA Manufacturing PMIJAN</t>
+          <t>ISM Manufacturing New OrdersJAN</t>
         </is>
       </c>
       <c r="D2358" t="inlineStr"/>
-      <c r="E2358" t="inlineStr">
-        <is>
-          <t>46.2</t>
-        </is>
-      </c>
+      <c r="E2358" t="inlineStr"/>
       <c r="F2358" t="inlineStr"/>
-      <c r="G2358" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
+      <c r="G2358" t="inlineStr"/>
       <c r="H2358" t="inlineStr">
         <is>
           <t>3</t>
@@ -76672,55 +76474,43 @@
     <row r="2359">
       <c r="A2359" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2359" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2359" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
+          <t>ISM Manufacturing PricesJAN</t>
         </is>
       </c>
       <c r="D2359" t="inlineStr"/>
-      <c r="E2359" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="F2359" t="inlineStr">
-        <is>
-          <t>48.2</t>
-        </is>
-      </c>
-      <c r="G2359" t="inlineStr">
-        <is>
-          <t>48.2</t>
-        </is>
-      </c>
+      <c r="E2359" t="inlineStr"/>
+      <c r="F2359" t="inlineStr"/>
+      <c r="G2359" t="inlineStr"/>
       <c r="H2359" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2360">
       <c r="A2360" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B2360" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2360" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FlashJAN</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2360" t="inlineStr"/>
@@ -76729,176 +76519,156 @@
       <c r="G2360" t="inlineStr"/>
       <c r="H2360" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2361">
       <c r="A2361" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B2361" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2361" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoY FlashJAN</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2361" t="inlineStr"/>
-      <c r="E2361" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
+      <c r="E2361" t="inlineStr"/>
       <c r="F2361" t="inlineStr"/>
       <c r="G2361" t="inlineStr"/>
       <c r="H2361" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2362">
-      <c r="A2362" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
+      <c r="A2362" t="inlineStr"/>
       <c r="B2362" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2362" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM FlashJAN</t>
+          <t>Total New Vehicle SalesJAN</t>
         </is>
       </c>
       <c r="D2362" t="inlineStr"/>
-      <c r="E2362" t="inlineStr"/>
+      <c r="E2362" t="inlineStr">
+        <is>
+          <t>41.27K</t>
+        </is>
+      </c>
       <c r="F2362" t="inlineStr"/>
-      <c r="G2362" t="inlineStr"/>
+      <c r="G2362" t="inlineStr">
+        <is>
+          <t>43.0K</t>
+        </is>
+      </c>
       <c r="H2362" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2363">
       <c r="A2363" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B2363" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C2363" t="inlineStr">
-        <is>
-          <t>CPI FlashJAN</t>
-        </is>
-      </c>
+          <t>Tuesday February 04 2025</t>
+        </is>
+      </c>
+      <c r="B2363" t="inlineStr"/>
+      <c r="C2363" t="inlineStr"/>
       <c r="D2363" t="inlineStr"/>
-      <c r="E2363" t="inlineStr">
-        <is>
-          <t>127.07</t>
-        </is>
-      </c>
+      <c r="E2363" t="inlineStr"/>
       <c r="F2363" t="inlineStr"/>
       <c r="G2363" t="inlineStr"/>
-      <c r="H2363" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H2363" t="inlineStr"/>
     </row>
     <row r="2364">
       <c r="A2364" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B2364" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2364" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelJAN</t>
+          <t>Treasury Refunding Financing Estimates</t>
         </is>
       </c>
       <c r="D2364" t="inlineStr"/>
-      <c r="E2364" t="inlineStr">
-        <is>
-          <t>1.3%</t>
-        </is>
-      </c>
+      <c r="E2364" t="inlineStr"/>
       <c r="F2364" t="inlineStr"/>
       <c r="G2364" t="inlineStr"/>
       <c r="H2364" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2365">
       <c r="A2365" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>03:30 AM</t>
         </is>
       </c>
       <c r="B2365" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C2365" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM PrelJAN</t>
+          <t>Tax RevenueJAN</t>
         </is>
       </c>
       <c r="D2365" t="inlineStr"/>
       <c r="E2365" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>ARS13015B</t>
         </is>
       </c>
       <c r="F2365" t="inlineStr"/>
       <c r="G2365" t="inlineStr"/>
       <c r="H2365" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2366">
       <c r="A2366" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>09:05 AM</t>
         </is>
       </c>
       <c r="B2366" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2366" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM PrelJAN</t>
+          <t>10-Year JGB Auction</t>
         </is>
       </c>
       <c r="D2366" t="inlineStr"/>
       <c r="E2366" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>1.140%</t>
         </is>
       </c>
       <c r="F2366" t="inlineStr"/>
@@ -76912,23 +76682,23 @@
     <row r="2367">
       <c r="A2367" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B2367" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C2367" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY PrelJAN</t>
+          <t>Riyad Bank PMIJAN</t>
         </is>
       </c>
       <c r="D2367" t="inlineStr"/>
       <c r="E2367" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>58.4</t>
         </is>
       </c>
       <c r="F2367" t="inlineStr"/>
@@ -76942,31 +76712,23 @@
     <row r="2368">
       <c r="A2368" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2368" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2368" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesDEC</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D2368" t="inlineStr"/>
-      <c r="E2368" t="inlineStr">
-        <is>
-          <t>$232.2B</t>
-        </is>
-      </c>
+      <c r="E2368" t="inlineStr"/>
       <c r="F2368" t="inlineStr"/>
-      <c r="G2368" t="inlineStr">
-        <is>
-          <t>$ 230B</t>
-        </is>
-      </c>
+      <c r="G2368" t="inlineStr"/>
       <c r="H2368" t="inlineStr">
         <is>
           <t>3</t>
@@ -76976,31 +76738,23 @@
     <row r="2369">
       <c r="A2369" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2369" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2369" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D2369" t="inlineStr"/>
-      <c r="E2369" t="inlineStr">
-        <is>
-          <t>50.4</t>
-        </is>
-      </c>
+      <c r="E2369" t="inlineStr"/>
       <c r="F2369" t="inlineStr"/>
-      <c r="G2369" t="inlineStr">
-        <is>
-          <t>49.8</t>
-        </is>
-      </c>
+      <c r="G2369" t="inlineStr"/>
       <c r="H2369" t="inlineStr">
         <is>
           <t>3</t>
@@ -77010,31 +76764,27 @@
     <row r="2370">
       <c r="A2370" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2370" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2370" t="inlineStr">
         <is>
-          <t>SIPMM Manufacturing PMIJAN</t>
+          <t>30-Year KTB Auction</t>
         </is>
       </c>
       <c r="D2370" t="inlineStr"/>
       <c r="E2370" t="inlineStr">
         <is>
-          <t>51.1</t>
+          <t>2.705%</t>
         </is>
       </c>
       <c r="F2370" t="inlineStr"/>
-      <c r="G2370" t="inlineStr">
-        <is>
-          <t>51.4</t>
-        </is>
-      </c>
+      <c r="G2370" t="inlineStr"/>
       <c r="H2370" t="inlineStr">
         <is>
           <t>3</t>
@@ -77044,47 +76794,55 @@
     <row r="2371">
       <c r="A2371" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2371" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2371" t="inlineStr">
         <is>
-          <t>Fed Bostic Speech</t>
+          <t>Budget BalanceDEC</t>
         </is>
       </c>
       <c r="D2371" t="inlineStr"/>
-      <c r="E2371" t="inlineStr"/>
+      <c r="E2371" t="inlineStr">
+        <is>
+          <t>€-172.5B</t>
+        </is>
+      </c>
       <c r="F2371" t="inlineStr"/>
       <c r="G2371" t="inlineStr"/>
       <c r="H2371" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2372">
       <c r="A2372" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2372" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2372" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>IPC-Fipe Inflation MoMJAN</t>
         </is>
       </c>
       <c r="D2372" t="inlineStr"/>
-      <c r="E2372" t="inlineStr"/>
+      <c r="E2372" t="inlineStr">
+        <is>
+          <t>0.34%</t>
+        </is>
+      </c>
       <c r="F2372" t="inlineStr"/>
       <c r="G2372" t="inlineStr"/>
       <c r="H2372" t="inlineStr">
@@ -77094,19 +76852,15 @@
       </c>
     </row>
     <row r="2373">
-      <c r="A2373" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
+      <c r="A2373" t="inlineStr"/>
       <c r="B2373" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2373" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>Balance of Trade PrelJAN</t>
         </is>
       </c>
       <c r="D2373" t="inlineStr"/>
@@ -77120,19 +76874,15 @@
       </c>
     </row>
     <row r="2374">
-      <c r="A2374" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
+      <c r="A2374" t="inlineStr"/>
       <c r="B2374" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2374" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>Exports PrelJAN</t>
         </is>
       </c>
       <c r="D2374" t="inlineStr"/>
@@ -77146,634 +76896,22 @@
       </c>
     </row>
     <row r="2375">
-      <c r="A2375" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
+      <c r="A2375" t="inlineStr"/>
       <c r="B2375" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2375" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>Imports PrelJAN</t>
         </is>
       </c>
       <c r="D2375" t="inlineStr"/>
-      <c r="E2375" t="inlineStr">
-        <is>
-          <t>52.2</t>
-        </is>
-      </c>
+      <c r="E2375" t="inlineStr"/>
       <c r="F2375" t="inlineStr"/>
       <c r="G2375" t="inlineStr"/>
       <c r="H2375" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2376">
-      <c r="A2376" t="inlineStr">
-        <is>
-          <t>08:15 PM</t>
-        </is>
-      </c>
-      <c r="B2376" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2376" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
-        </is>
-      </c>
-      <c r="D2376" t="inlineStr"/>
-      <c r="E2376" t="inlineStr">
-        <is>
-          <t>49.4</t>
-        </is>
-      </c>
-      <c r="F2376" t="inlineStr">
-        <is>
-          <t>50.1</t>
-        </is>
-      </c>
-      <c r="G2376" t="inlineStr">
-        <is>
-          <t>50.1</t>
-        </is>
-      </c>
-      <c r="H2376" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2377">
-      <c r="A2377" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2377" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2377" t="inlineStr">
-        <is>
-          <t>ISM Manufacturing PMIJAN</t>
-        </is>
-      </c>
-      <c r="D2377" t="inlineStr"/>
-      <c r="E2377" t="inlineStr">
-        <is>
-          <t>49.3</t>
-        </is>
-      </c>
-      <c r="F2377" t="inlineStr"/>
-      <c r="G2377" t="inlineStr"/>
-      <c r="H2377" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2378">
-      <c r="A2378" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2378" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2378" t="inlineStr">
-        <is>
-          <t>ISM Manufacturing EmploymentJAN</t>
-        </is>
-      </c>
-      <c r="D2378" t="inlineStr"/>
-      <c r="E2378" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
-      <c r="F2378" t="inlineStr"/>
-      <c r="G2378" t="inlineStr"/>
-      <c r="H2378" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2379">
-      <c r="A2379" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2379" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2379" t="inlineStr">
-        <is>
-          <t>Construction Spending MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2379" t="inlineStr"/>
-      <c r="E2379" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F2379" t="inlineStr"/>
-      <c r="G2379" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H2379" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2380">
-      <c r="A2380" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2380" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2380" t="inlineStr">
-        <is>
-          <t>ISM Manufacturing New OrdersJAN</t>
-        </is>
-      </c>
-      <c r="D2380" t="inlineStr"/>
-      <c r="E2380" t="inlineStr"/>
-      <c r="F2380" t="inlineStr"/>
-      <c r="G2380" t="inlineStr"/>
-      <c r="H2380" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2381">
-      <c r="A2381" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2381" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2381" t="inlineStr">
-        <is>
-          <t>ISM Manufacturing PricesJAN</t>
-        </is>
-      </c>
-      <c r="D2381" t="inlineStr"/>
-      <c r="E2381" t="inlineStr"/>
-      <c r="F2381" t="inlineStr"/>
-      <c r="G2381" t="inlineStr"/>
-      <c r="H2381" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2382">
-      <c r="A2382" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B2382" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2382" t="inlineStr">
-        <is>
-          <t>3-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="D2382" t="inlineStr"/>
-      <c r="E2382" t="inlineStr"/>
-      <c r="F2382" t="inlineStr"/>
-      <c r="G2382" t="inlineStr"/>
-      <c r="H2382" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2383">
-      <c r="A2383" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B2383" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2383" t="inlineStr">
-        <is>
-          <t>6-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="D2383" t="inlineStr"/>
-      <c r="E2383" t="inlineStr"/>
-      <c r="F2383" t="inlineStr"/>
-      <c r="G2383" t="inlineStr"/>
-      <c r="H2383" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2384">
-      <c r="A2384" t="inlineStr"/>
-      <c r="B2384" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C2384" t="inlineStr">
-        <is>
-          <t>Total New Vehicle SalesJAN</t>
-        </is>
-      </c>
-      <c r="D2384" t="inlineStr"/>
-      <c r="E2384" t="inlineStr">
-        <is>
-          <t>41.27K</t>
-        </is>
-      </c>
-      <c r="F2384" t="inlineStr"/>
-      <c r="G2384" t="inlineStr">
-        <is>
-          <t>43.0K</t>
-        </is>
-      </c>
-      <c r="H2384" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2385">
-      <c r="A2385" t="inlineStr">
-        <is>
-          <t>Tuesday February 04 2025</t>
-        </is>
-      </c>
-      <c r="B2385" t="inlineStr"/>
-      <c r="C2385" t="inlineStr"/>
-      <c r="D2385" t="inlineStr"/>
-      <c r="E2385" t="inlineStr"/>
-      <c r="F2385" t="inlineStr"/>
-      <c r="G2385" t="inlineStr"/>
-      <c r="H2385" t="inlineStr"/>
-    </row>
-    <row r="2386">
-      <c r="A2386" t="inlineStr">
-        <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
-      <c r="B2386" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2386" t="inlineStr">
-        <is>
-          <t>Treasury Refunding Financing Estimates</t>
-        </is>
-      </c>
-      <c r="D2386" t="inlineStr"/>
-      <c r="E2386" t="inlineStr"/>
-      <c r="F2386" t="inlineStr"/>
-      <c r="G2386" t="inlineStr"/>
-      <c r="H2386" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2387">
-      <c r="A2387" t="inlineStr">
-        <is>
-          <t>03:30 AM</t>
-        </is>
-      </c>
-      <c r="B2387" t="inlineStr">
-        <is>
-          <t>AR</t>
-        </is>
-      </c>
-      <c r="C2387" t="inlineStr">
-        <is>
-          <t>Tax RevenueJAN</t>
-        </is>
-      </c>
-      <c r="D2387" t="inlineStr"/>
-      <c r="E2387" t="inlineStr">
-        <is>
-          <t>ARS13015B</t>
-        </is>
-      </c>
-      <c r="F2387" t="inlineStr"/>
-      <c r="G2387" t="inlineStr"/>
-      <c r="H2387" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2388">
-      <c r="A2388" t="inlineStr">
-        <is>
-          <t>09:05 AM</t>
-        </is>
-      </c>
-      <c r="B2388" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C2388" t="inlineStr">
-        <is>
-          <t>10-Year JGB Auction</t>
-        </is>
-      </c>
-      <c r="D2388" t="inlineStr"/>
-      <c r="E2388" t="inlineStr">
-        <is>
-          <t>1.140%</t>
-        </is>
-      </c>
-      <c r="F2388" t="inlineStr"/>
-      <c r="G2388" t="inlineStr"/>
-      <c r="H2388" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2389">
-      <c r="A2389" t="inlineStr">
-        <is>
-          <t>09:45 AM</t>
-        </is>
-      </c>
-      <c r="B2389" t="inlineStr">
-        <is>
-          <t>SA</t>
-        </is>
-      </c>
-      <c r="C2389" t="inlineStr">
-        <is>
-          <t>Riyad Bank PMIJAN</t>
-        </is>
-      </c>
-      <c r="D2389" t="inlineStr"/>
-      <c r="E2389" t="inlineStr">
-        <is>
-          <t>58.4</t>
-        </is>
-      </c>
-      <c r="F2389" t="inlineStr"/>
-      <c r="G2389" t="inlineStr"/>
-      <c r="H2389" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2390">
-      <c r="A2390" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B2390" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="C2390" t="inlineStr">
-        <is>
-          <t>MAS 12-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="D2390" t="inlineStr"/>
-      <c r="E2390" t="inlineStr"/>
-      <c r="F2390" t="inlineStr"/>
-      <c r="G2390" t="inlineStr"/>
-      <c r="H2390" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2391">
-      <c r="A2391" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B2391" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="C2391" t="inlineStr">
-        <is>
-          <t>MAS 4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="D2391" t="inlineStr"/>
-      <c r="E2391" t="inlineStr"/>
-      <c r="F2391" t="inlineStr"/>
-      <c r="G2391" t="inlineStr"/>
-      <c r="H2391" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2392">
-      <c r="A2392" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B2392" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C2392" t="inlineStr">
-        <is>
-          <t>30-Year KTB Auction</t>
-        </is>
-      </c>
-      <c r="D2392" t="inlineStr"/>
-      <c r="E2392" t="inlineStr">
-        <is>
-          <t>2.705%</t>
-        </is>
-      </c>
-      <c r="F2392" t="inlineStr"/>
-      <c r="G2392" t="inlineStr"/>
-      <c r="H2392" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2393">
-      <c r="A2393" t="inlineStr">
-        <is>
-          <t>01:15 PM</t>
-        </is>
-      </c>
-      <c r="B2393" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C2393" t="inlineStr">
-        <is>
-          <t>Budget BalanceDEC</t>
-        </is>
-      </c>
-      <c r="D2393" t="inlineStr"/>
-      <c r="E2393" t="inlineStr">
-        <is>
-          <t>€-172.5B</t>
-        </is>
-      </c>
-      <c r="F2393" t="inlineStr"/>
-      <c r="G2393" t="inlineStr"/>
-      <c r="H2393" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2394">
-      <c r="A2394" t="inlineStr">
-        <is>
-          <t>01:30 PM</t>
-        </is>
-      </c>
-      <c r="B2394" t="inlineStr">
-        <is>
-          <t>BR</t>
-        </is>
-      </c>
-      <c r="C2394" t="inlineStr">
-        <is>
-          <t>IPC-Fipe Inflation MoMJAN</t>
-        </is>
-      </c>
-      <c r="D2394" t="inlineStr"/>
-      <c r="E2394" t="inlineStr">
-        <is>
-          <t>0.34%</t>
-        </is>
-      </c>
-      <c r="F2394" t="inlineStr"/>
-      <c r="G2394" t="inlineStr"/>
-      <c r="H2394" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2395">
-      <c r="A2395" t="inlineStr"/>
-      <c r="B2395" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2395" t="inlineStr">
-        <is>
-          <t>Balance of Trade PrelJAN</t>
-        </is>
-      </c>
-      <c r="D2395" t="inlineStr"/>
-      <c r="E2395" t="inlineStr"/>
-      <c r="F2395" t="inlineStr"/>
-      <c r="G2395" t="inlineStr"/>
-      <c r="H2395" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2396">
-      <c r="A2396" t="inlineStr"/>
-      <c r="B2396" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2396" t="inlineStr">
-        <is>
-          <t>Exports PrelJAN</t>
-        </is>
-      </c>
-      <c r="D2396" t="inlineStr"/>
-      <c r="E2396" t="inlineStr"/>
-      <c r="F2396" t="inlineStr"/>
-      <c r="G2396" t="inlineStr"/>
-      <c r="H2396" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2397">
-      <c r="A2397" t="inlineStr"/>
-      <c r="B2397" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2397" t="inlineStr">
-        <is>
-          <t>Imports PrelJAN</t>
-        </is>
-      </c>
-      <c r="D2397" t="inlineStr"/>
-      <c r="E2397" t="inlineStr"/>
-      <c r="F2397" t="inlineStr"/>
-      <c r="G2397" t="inlineStr"/>
-      <c r="H2397" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-04.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-04.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2375"/>
+  <dimension ref="A1:H2377"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75286,53 +75286,79 @@
     <row r="2320">
       <c r="A2320" t="inlineStr">
         <is>
-          <t>Saturday February 01 2025</t>
-        </is>
-      </c>
-      <c r="B2320" t="inlineStr"/>
-      <c r="C2320" t="inlineStr"/>
+          <t>10:15 AM</t>
+        </is>
+      </c>
+      <c r="B2320" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="C2320" t="inlineStr">
+        <is>
+          <t>Tourist Arrivals YoYDEC</t>
+        </is>
+      </c>
       <c r="D2320" t="inlineStr"/>
-      <c r="E2320" t="inlineStr"/>
+      <c r="E2320" t="inlineStr">
+        <is>
+          <t>17.27%</t>
+        </is>
+      </c>
       <c r="F2320" t="inlineStr"/>
-      <c r="G2320" t="inlineStr"/>
-      <c r="H2320" t="inlineStr"/>
+      <c r="G2320" t="inlineStr">
+        <is>
+          <t>18.0%</t>
+        </is>
+      </c>
+      <c r="H2320" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2321">
       <c r="A2321" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2321" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2321" t="inlineStr">
         <is>
-          <t>Exports YoYJAN</t>
+          <t>HSBC Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2321" t="inlineStr"/>
       <c r="E2321" t="inlineStr">
         <is>
-          <t>6.6%</t>
-        </is>
-      </c>
-      <c r="F2321" t="inlineStr"/>
+          <t>56.4</t>
+        </is>
+      </c>
+      <c r="F2321" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
       <c r="G2321" t="inlineStr">
         <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H2321" t="n">
-        <v>2</v>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="H2321" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2322">
       <c r="A2322" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2322" t="inlineStr">
@@ -75342,77 +75368,73 @@
       </c>
       <c r="C2322" t="inlineStr">
         <is>
-          <t>Balance of TradeJAN</t>
+          <t>2-Year KTB Auction</t>
         </is>
       </c>
       <c r="D2322" t="inlineStr"/>
       <c r="E2322" t="inlineStr">
         <is>
-          <t>$6.49B</t>
+          <t>2.670%</t>
         </is>
       </c>
       <c r="F2322" t="inlineStr"/>
-      <c r="G2322" t="inlineStr">
-        <is>
-          <t>$0.9B</t>
-        </is>
-      </c>
-      <c r="H2322" t="n">
-        <v>3</v>
+      <c r="G2322" t="inlineStr"/>
+      <c r="H2322" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2323">
       <c r="A2323" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B2323" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2323" t="inlineStr">
         <is>
-          <t>Imports YoYJAN</t>
+          <t>Commodity Prices YoYJAN</t>
         </is>
       </c>
       <c r="D2323" t="inlineStr"/>
       <c r="E2323" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>-10.7%</t>
         </is>
       </c>
       <c r="F2323" t="inlineStr"/>
-      <c r="G2323" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="H2323" t="n">
-        <v>3</v>
+      <c r="G2323" t="inlineStr"/>
+      <c r="H2323" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2324">
       <c r="A2324" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B2324" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2324" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2324" t="inlineStr"/>
       <c r="E2324" t="inlineStr">
         <is>
-          <t>1.03%</t>
+          <t>50.8</t>
         </is>
       </c>
       <c r="F2324" t="inlineStr"/>
@@ -75436,13 +75458,13 @@
       </c>
       <c r="C2325" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2325" t="inlineStr"/>
       <c r="E2325" t="inlineStr">
         <is>
-          <t>44.38%</t>
+          <t>1.03%</t>
         </is>
       </c>
       <c r="F2325" t="inlineStr"/>
@@ -75466,20 +75488,20 @@
       </c>
       <c r="C2326" t="inlineStr">
         <is>
-          <t>Istanbul Chamber of Industry Manufacturing PMIJAN</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2326" t="inlineStr"/>
       <c r="E2326" t="inlineStr">
         <is>
-          <t>49.1</t>
+          <t>44.38%</t>
         </is>
       </c>
       <c r="F2326" t="inlineStr"/>
       <c r="G2326" t="inlineStr"/>
       <c r="H2326" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -75496,13 +75518,13 @@
       </c>
       <c r="C2327" t="inlineStr">
         <is>
-          <t>PPI MoMJAN</t>
+          <t>Istanbul Chamber of Industry Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2327" t="inlineStr"/>
       <c r="E2327" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>49.1</t>
         </is>
       </c>
       <c r="F2327" t="inlineStr"/>
@@ -75526,13 +75548,13 @@
       </c>
       <c r="C2328" t="inlineStr">
         <is>
-          <t>PPI YoYJAN</t>
+          <t>PPI MoMJAN</t>
         </is>
       </c>
       <c r="D2328" t="inlineStr"/>
       <c r="E2328" t="inlineStr">
         <is>
-          <t>28.52%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F2328" t="inlineStr"/>
@@ -75546,30 +75568,30 @@
     <row r="2329">
       <c r="A2329" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2329" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2329" t="inlineStr">
         <is>
-          <t>Unemployment ChangeJAN</t>
+          <t>PPI YoYJAN</t>
         </is>
       </c>
       <c r="D2329" t="inlineStr"/>
       <c r="E2329" t="inlineStr">
         <is>
-          <t>-25.3K</t>
+          <t>28.52%</t>
         </is>
       </c>
       <c r="F2329" t="inlineStr"/>
       <c r="G2329" t="inlineStr"/>
       <c r="H2329" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -75586,23 +75608,27 @@
       </c>
       <c r="C2330" t="inlineStr">
         <is>
-          <t>Tourist Arrivals YoYDEC</t>
+          <t>Unemployment ChangeJAN</t>
         </is>
       </c>
       <c r="D2330" t="inlineStr"/>
-      <c r="E2330" t="inlineStr"/>
+      <c r="E2330" t="inlineStr">
+        <is>
+          <t>-25.3K</t>
+        </is>
+      </c>
       <c r="F2330" t="inlineStr"/>
       <c r="G2330" t="inlineStr"/>
       <c r="H2330" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2331">
       <c r="A2331" t="inlineStr">
         <is>
-          <t>01:45 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2331" t="inlineStr">
@@ -75612,32 +75638,28 @@
       </c>
       <c r="C2331" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMIJAN</t>
+          <t>Tourist Arrivals YoYDEC</t>
         </is>
       </c>
       <c r="D2331" t="inlineStr"/>
-      <c r="E2331" t="inlineStr">
-        <is>
-          <t>53.3</t>
-        </is>
-      </c>
+      <c r="E2331" t="inlineStr"/>
       <c r="F2331" t="inlineStr"/>
       <c r="G2331" t="inlineStr"/>
       <c r="H2331" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2332">
       <c r="A2332" t="inlineStr">
         <is>
-          <t>02:15 PM</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B2332" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2332" t="inlineStr">
@@ -75648,7 +75670,7 @@
       <c r="D2332" t="inlineStr"/>
       <c r="E2332" t="inlineStr">
         <is>
-          <t>46.2</t>
+          <t>53.3</t>
         </is>
       </c>
       <c r="F2332" t="inlineStr"/>
@@ -75662,35 +75684,27 @@
     <row r="2333">
       <c r="A2333" t="inlineStr">
         <is>
-          <t>02:20 PM</t>
+          <t>02:15 PM</t>
         </is>
       </c>
       <c r="B2333" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2333" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>HCOB Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2333" t="inlineStr"/>
       <c r="E2333" t="inlineStr">
         <is>
-          <t>41.9</t>
-        </is>
-      </c>
-      <c r="F2333" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
-      <c r="G2333" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
+          <t>46.2</t>
+        </is>
+      </c>
+      <c r="F2333" t="inlineStr"/>
+      <c r="G2333" t="inlineStr"/>
       <c r="H2333" t="inlineStr">
         <is>
           <t>2</t>
@@ -75700,12 +75714,12 @@
     <row r="2334">
       <c r="A2334" t="inlineStr">
         <is>
-          <t>02:25 PM</t>
+          <t>02:20 PM</t>
         </is>
       </c>
       <c r="B2334" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2334" t="inlineStr">
@@ -75716,17 +75730,17 @@
       <c r="D2334" t="inlineStr"/>
       <c r="E2334" t="inlineStr">
         <is>
-          <t>42.5</t>
+          <t>41.9</t>
         </is>
       </c>
       <c r="F2334" t="inlineStr">
         <is>
-          <t>44.1</t>
+          <t>45.3</t>
         </is>
       </c>
       <c r="G2334" t="inlineStr">
         <is>
-          <t>44.1</t>
+          <t>45.3</t>
         </is>
       </c>
       <c r="H2334" t="inlineStr">
@@ -75738,12 +75752,12 @@
     <row r="2335">
       <c r="A2335" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>02:25 PM</t>
         </is>
       </c>
       <c r="B2335" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2335" t="inlineStr">
@@ -75754,17 +75768,17 @@
       <c r="D2335" t="inlineStr"/>
       <c r="E2335" t="inlineStr">
         <is>
-          <t>45.1</t>
+          <t>42.5</t>
         </is>
       </c>
       <c r="F2335" t="inlineStr">
         <is>
-          <t>46.1</t>
+          <t>44.1</t>
         </is>
       </c>
       <c r="G2335" t="inlineStr">
         <is>
-          <t>46.1</t>
+          <t>44.1</t>
         </is>
       </c>
       <c r="H2335" t="inlineStr">
@@ -75781,93 +75795,105 @@
       </c>
       <c r="B2336" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2336" t="inlineStr">
         <is>
-          <t>ABSA Manufacturing PMIJAN</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2336" t="inlineStr"/>
       <c r="E2336" t="inlineStr">
         <is>
-          <t>46.2</t>
-        </is>
-      </c>
-      <c r="F2336" t="inlineStr"/>
+          <t>45.1</t>
+        </is>
+      </c>
+      <c r="F2336" t="inlineStr">
+        <is>
+          <t>46.1</t>
+        </is>
+      </c>
       <c r="G2336" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>46.1</t>
         </is>
       </c>
       <c r="H2336" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2337">
       <c r="A2337" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2337" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2337" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
+          <t>ABSA Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2337" t="inlineStr"/>
       <c r="E2337" t="inlineStr">
         <is>
+          <t>46.2</t>
+        </is>
+      </c>
+      <c r="F2337" t="inlineStr"/>
+      <c r="G2337" t="inlineStr">
+        <is>
           <t>47</t>
         </is>
       </c>
-      <c r="F2337" t="inlineStr">
-        <is>
-          <t>48.2</t>
-        </is>
-      </c>
-      <c r="G2337" t="inlineStr">
-        <is>
-          <t>48.2</t>
-        </is>
-      </c>
       <c r="H2337" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2338">
       <c r="A2338" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B2338" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2338" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FlashJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2338" t="inlineStr"/>
-      <c r="E2338" t="inlineStr"/>
-      <c r="F2338" t="inlineStr"/>
-      <c r="G2338" t="inlineStr"/>
+      <c r="E2338" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="F2338" t="inlineStr">
+        <is>
+          <t>48.2</t>
+        </is>
+      </c>
+      <c r="G2338" t="inlineStr">
+        <is>
+          <t>48.2</t>
+        </is>
+      </c>
       <c r="H2338" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -75884,20 +75910,16 @@
       </c>
       <c r="C2339" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoY FlashJAN</t>
+          <t>Inflation Rate YoY FlashJAN</t>
         </is>
       </c>
       <c r="D2339" t="inlineStr"/>
-      <c r="E2339" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
+      <c r="E2339" t="inlineStr"/>
       <c r="F2339" t="inlineStr"/>
       <c r="G2339" t="inlineStr"/>
       <c r="H2339" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -75914,11 +75936,15 @@
       </c>
       <c r="C2340" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM FlashJAN</t>
+          <t>Core Inflation Rate YoY FlashJAN</t>
         </is>
       </c>
       <c r="D2340" t="inlineStr"/>
-      <c r="E2340" t="inlineStr"/>
+      <c r="E2340" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
       <c r="F2340" t="inlineStr"/>
       <c r="G2340" t="inlineStr"/>
       <c r="H2340" t="inlineStr">
@@ -75940,20 +75966,16 @@
       </c>
       <c r="C2341" t="inlineStr">
         <is>
-          <t>CPI FlashJAN</t>
+          <t>Inflation Rate MoM FlashJAN</t>
         </is>
       </c>
       <c r="D2341" t="inlineStr"/>
-      <c r="E2341" t="inlineStr">
-        <is>
-          <t>127.07</t>
-        </is>
-      </c>
+      <c r="E2341" t="inlineStr"/>
       <c r="F2341" t="inlineStr"/>
       <c r="G2341" t="inlineStr"/>
       <c r="H2341" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -75965,25 +75987,25 @@
       </c>
       <c r="B2342" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2342" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelJAN</t>
+          <t>CPI FlashJAN</t>
         </is>
       </c>
       <c r="D2342" t="inlineStr"/>
       <c r="E2342" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>127.07</t>
         </is>
       </c>
       <c r="F2342" t="inlineStr"/>
       <c r="G2342" t="inlineStr"/>
       <c r="H2342" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -76000,20 +76022,20 @@
       </c>
       <c r="C2343" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM PrelJAN</t>
+          <t>Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2343" t="inlineStr"/>
       <c r="E2343" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>1.3%</t>
         </is>
       </c>
       <c r="F2343" t="inlineStr"/>
       <c r="G2343" t="inlineStr"/>
       <c r="H2343" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -76030,7 +76052,7 @@
       </c>
       <c r="C2344" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM PrelJAN</t>
+          <t>Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2344" t="inlineStr"/>
@@ -76043,7 +76065,7 @@
       <c r="G2344" t="inlineStr"/>
       <c r="H2344" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -76060,13 +76082,13 @@
       </c>
       <c r="C2345" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY PrelJAN</t>
+          <t>Harmonised Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2345" t="inlineStr"/>
       <c r="E2345" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2345" t="inlineStr"/>
@@ -76085,26 +76107,22 @@
       </c>
       <c r="B2346" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2346" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesDEC</t>
+          <t>Harmonised Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2346" t="inlineStr"/>
       <c r="E2346" t="inlineStr">
         <is>
-          <t>$232.2B</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F2346" t="inlineStr"/>
-      <c r="G2346" t="inlineStr">
-        <is>
-          <t>$ 230B</t>
-        </is>
-      </c>
+      <c r="G2346" t="inlineStr"/>
       <c r="H2346" t="inlineStr">
         <is>
           <t>3</t>
@@ -76114,29 +76132,29 @@
     <row r="2347">
       <c r="A2347" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2347" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2347" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>Foreign Exchange ReservesDEC</t>
         </is>
       </c>
       <c r="D2347" t="inlineStr"/>
       <c r="E2347" t="inlineStr">
         <is>
-          <t>50.4</t>
+          <t>$232.2B</t>
         </is>
       </c>
       <c r="F2347" t="inlineStr"/>
       <c r="G2347" t="inlineStr">
         <is>
-          <t>49.8</t>
+          <t>$ 230B</t>
         </is>
       </c>
       <c r="H2347" t="inlineStr">
@@ -76153,24 +76171,24 @@
       </c>
       <c r="B2348" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2348" t="inlineStr">
         <is>
-          <t>SIPMM Manufacturing PMIJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2348" t="inlineStr"/>
       <c r="E2348" t="inlineStr">
         <is>
-          <t>51.1</t>
+          <t>50.4</t>
         </is>
       </c>
       <c r="F2348" t="inlineStr"/>
       <c r="G2348" t="inlineStr">
         <is>
-          <t>51.4</t>
+          <t>49.8</t>
         </is>
       </c>
       <c r="H2348" t="inlineStr">
@@ -76182,43 +76200,51 @@
     <row r="2349">
       <c r="A2349" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2349" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2349" t="inlineStr">
         <is>
-          <t>Fed Bostic Speech</t>
+          <t>SIPMM Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2349" t="inlineStr"/>
-      <c r="E2349" t="inlineStr"/>
+      <c r="E2349" t="inlineStr">
+        <is>
+          <t>51.1</t>
+        </is>
+      </c>
       <c r="F2349" t="inlineStr"/>
-      <c r="G2349" t="inlineStr"/>
+      <c r="G2349" t="inlineStr">
+        <is>
+          <t>51.4</t>
+        </is>
+      </c>
       <c r="H2349" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2350">
       <c r="A2350" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2350" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2350" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>Fed Bostic Speech</t>
         </is>
       </c>
       <c r="D2350" t="inlineStr"/>
@@ -76227,7 +76253,7 @@
       <c r="G2350" t="inlineStr"/>
       <c r="H2350" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -76244,7 +76270,7 @@
       </c>
       <c r="C2351" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>12-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2351" t="inlineStr"/>
@@ -76270,7 +76296,7 @@
       </c>
       <c r="C2352" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>3-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2352" t="inlineStr"/>
@@ -76286,65 +76312,53 @@
     <row r="2353">
       <c r="A2353" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2353" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2353" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2353" t="inlineStr"/>
-      <c r="E2353" t="inlineStr">
-        <is>
-          <t>52.2</t>
-        </is>
-      </c>
+      <c r="E2353" t="inlineStr"/>
       <c r="F2353" t="inlineStr"/>
       <c r="G2353" t="inlineStr"/>
       <c r="H2353" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2354">
       <c r="A2354" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B2354" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2354" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2354" t="inlineStr"/>
       <c r="E2354" t="inlineStr">
         <is>
-          <t>49.4</t>
-        </is>
-      </c>
-      <c r="F2354" t="inlineStr">
-        <is>
-          <t>50.1</t>
-        </is>
-      </c>
-      <c r="G2354" t="inlineStr">
-        <is>
-          <t>50.1</t>
-        </is>
-      </c>
+          <t>52.2</t>
+        </is>
+      </c>
+      <c r="F2354" t="inlineStr"/>
+      <c r="G2354" t="inlineStr"/>
       <c r="H2354" t="inlineStr">
         <is>
           <t>2</t>
@@ -76354,7 +76368,7 @@
     <row r="2355">
       <c r="A2355" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B2355" t="inlineStr">
@@ -76364,20 +76378,28 @@
       </c>
       <c r="C2355" t="inlineStr">
         <is>
-          <t>ISM Manufacturing PMIJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2355" t="inlineStr"/>
       <c r="E2355" t="inlineStr">
         <is>
-          <t>49.3</t>
-        </is>
-      </c>
-      <c r="F2355" t="inlineStr"/>
-      <c r="G2355" t="inlineStr"/>
+          <t>49.4</t>
+        </is>
+      </c>
+      <c r="F2355" t="inlineStr">
+        <is>
+          <t>50.1</t>
+        </is>
+      </c>
+      <c r="G2355" t="inlineStr">
+        <is>
+          <t>50.1</t>
+        </is>
+      </c>
       <c r="H2355" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -76394,20 +76416,20 @@
       </c>
       <c r="C2356" t="inlineStr">
         <is>
-          <t>ISM Manufacturing EmploymentJAN</t>
+          <t>ISM Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2356" t="inlineStr"/>
       <c r="E2356" t="inlineStr">
         <is>
-          <t>45.3</t>
+          <t>49.3</t>
         </is>
       </c>
       <c r="F2356" t="inlineStr"/>
       <c r="G2356" t="inlineStr"/>
       <c r="H2356" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -76424,24 +76446,20 @@
       </c>
       <c r="C2357" t="inlineStr">
         <is>
-          <t>Construction Spending MoMDEC</t>
+          <t>ISM Manufacturing EmploymentJAN</t>
         </is>
       </c>
       <c r="D2357" t="inlineStr"/>
       <c r="E2357" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>45.3</t>
         </is>
       </c>
       <c r="F2357" t="inlineStr"/>
-      <c r="G2357" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G2357" t="inlineStr"/>
       <c r="H2357" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -76458,13 +76476,21 @@
       </c>
       <c r="C2358" t="inlineStr">
         <is>
-          <t>ISM Manufacturing New OrdersJAN</t>
+          <t>Construction Spending MoMDEC</t>
         </is>
       </c>
       <c r="D2358" t="inlineStr"/>
-      <c r="E2358" t="inlineStr"/>
+      <c r="E2358" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
       <c r="F2358" t="inlineStr"/>
-      <c r="G2358" t="inlineStr"/>
+      <c r="G2358" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H2358" t="inlineStr">
         <is>
           <t>3</t>
@@ -76484,7 +76510,7 @@
       </c>
       <c r="C2359" t="inlineStr">
         <is>
-          <t>ISM Manufacturing PricesJAN</t>
+          <t>ISM Manufacturing New OrdersJAN</t>
         </is>
       </c>
       <c r="D2359" t="inlineStr"/>
@@ -76500,7 +76526,7 @@
     <row r="2360">
       <c r="A2360" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2360" t="inlineStr">
@@ -76510,7 +76536,7 @@
       </c>
       <c r="C2360" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>ISM Manufacturing PricesJAN</t>
         </is>
       </c>
       <c r="D2360" t="inlineStr"/>
@@ -76536,7 +76562,7 @@
       </c>
       <c r="C2361" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2361" t="inlineStr"/>
@@ -76550,97 +76576,93 @@
       </c>
     </row>
     <row r="2362">
-      <c r="A2362" t="inlineStr"/>
+      <c r="A2362" t="inlineStr">
+        <is>
+          <t>10:00 PM</t>
+        </is>
+      </c>
       <c r="B2362" t="inlineStr">
         <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2362" t="inlineStr">
+        <is>
+          <t>6-Month Bill Auction</t>
+        </is>
+      </c>
+      <c r="D2362" t="inlineStr"/>
+      <c r="E2362" t="inlineStr"/>
+      <c r="F2362" t="inlineStr"/>
+      <c r="G2362" t="inlineStr"/>
+      <c r="H2362" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2363">
+      <c r="A2363" t="inlineStr"/>
+      <c r="B2363" t="inlineStr">
+        <is>
           <t>ZA</t>
         </is>
       </c>
-      <c r="C2362" t="inlineStr">
+      <c r="C2363" t="inlineStr">
         <is>
           <t>Total New Vehicle SalesJAN</t>
         </is>
       </c>
-      <c r="D2362" t="inlineStr"/>
-      <c r="E2362" t="inlineStr">
+      <c r="D2363" t="inlineStr"/>
+      <c r="E2363" t="inlineStr">
         <is>
           <t>41.27K</t>
         </is>
       </c>
-      <c r="F2362" t="inlineStr"/>
-      <c r="G2362" t="inlineStr">
+      <c r="F2363" t="inlineStr"/>
+      <c r="G2363" t="inlineStr">
         <is>
           <t>43.0K</t>
         </is>
       </c>
-      <c r="H2362" t="inlineStr">
+      <c r="H2363" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-    </row>
-    <row r="2363">
-      <c r="A2363" t="inlineStr">
-        <is>
-          <t>Tuesday February 04 2025</t>
-        </is>
-      </c>
-      <c r="B2363" t="inlineStr"/>
-      <c r="C2363" t="inlineStr"/>
-      <c r="D2363" t="inlineStr"/>
-      <c r="E2363" t="inlineStr"/>
-      <c r="F2363" t="inlineStr"/>
-      <c r="G2363" t="inlineStr"/>
-      <c r="H2363" t="inlineStr"/>
     </row>
     <row r="2364">
       <c r="A2364" t="inlineStr">
         <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
-      <c r="B2364" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2364" t="inlineStr">
-        <is>
-          <t>Treasury Refunding Financing Estimates</t>
-        </is>
-      </c>
+          <t>Tuesday February 04 2025</t>
+        </is>
+      </c>
+      <c r="B2364" t="inlineStr"/>
+      <c r="C2364" t="inlineStr"/>
       <c r="D2364" t="inlineStr"/>
       <c r="E2364" t="inlineStr"/>
       <c r="F2364" t="inlineStr"/>
       <c r="G2364" t="inlineStr"/>
-      <c r="H2364" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H2364" t="inlineStr"/>
     </row>
     <row r="2365">
       <c r="A2365" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B2365" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2365" t="inlineStr">
         <is>
-          <t>Tax RevenueJAN</t>
+          <t>Treasury Refunding Financing Estimates</t>
         </is>
       </c>
       <c r="D2365" t="inlineStr"/>
-      <c r="E2365" t="inlineStr">
-        <is>
-          <t>ARS13015B</t>
-        </is>
-      </c>
+      <c r="E2365" t="inlineStr"/>
       <c r="F2365" t="inlineStr"/>
       <c r="G2365" t="inlineStr"/>
       <c r="H2365" t="inlineStr">
@@ -76652,23 +76674,23 @@
     <row r="2366">
       <c r="A2366" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>03:30 AM</t>
         </is>
       </c>
       <c r="B2366" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C2366" t="inlineStr">
         <is>
-          <t>10-Year JGB Auction</t>
+          <t>Tax RevenueJAN</t>
         </is>
       </c>
       <c r="D2366" t="inlineStr"/>
       <c r="E2366" t="inlineStr">
         <is>
-          <t>1.140%</t>
+          <t>ARS13015B</t>
         </is>
       </c>
       <c r="F2366" t="inlineStr"/>
@@ -76682,23 +76704,23 @@
     <row r="2367">
       <c r="A2367" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>09:05 AM</t>
         </is>
       </c>
       <c r="B2367" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2367" t="inlineStr">
         <is>
-          <t>Riyad Bank PMIJAN</t>
+          <t>10-Year JGB Auction</t>
         </is>
       </c>
       <c r="D2367" t="inlineStr"/>
       <c r="E2367" t="inlineStr">
         <is>
-          <t>58.4</t>
+          <t>1.140%</t>
         </is>
       </c>
       <c r="F2367" t="inlineStr"/>
@@ -76712,21 +76734,25 @@
     <row r="2368">
       <c r="A2368" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B2368" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C2368" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>Riyad Bank PMIJAN</t>
         </is>
       </c>
       <c r="D2368" t="inlineStr"/>
-      <c r="E2368" t="inlineStr"/>
+      <c r="E2368" t="inlineStr">
+        <is>
+          <t>58.4</t>
+        </is>
+      </c>
       <c r="F2368" t="inlineStr"/>
       <c r="G2368" t="inlineStr"/>
       <c r="H2368" t="inlineStr">
@@ -76748,7 +76774,7 @@
       </c>
       <c r="C2369" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D2369" t="inlineStr"/>
@@ -76769,20 +76795,16 @@
       </c>
       <c r="B2370" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2370" t="inlineStr">
         <is>
-          <t>30-Year KTB Auction</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D2370" t="inlineStr"/>
-      <c r="E2370" t="inlineStr">
-        <is>
-          <t>2.705%</t>
-        </is>
-      </c>
+      <c r="E2370" t="inlineStr"/>
       <c r="F2370" t="inlineStr"/>
       <c r="G2370" t="inlineStr"/>
       <c r="H2370" t="inlineStr">
@@ -76794,23 +76816,23 @@
     <row r="2371">
       <c r="A2371" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2371" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2371" t="inlineStr">
         <is>
-          <t>Budget BalanceDEC</t>
+          <t>30-Year KTB Auction</t>
         </is>
       </c>
       <c r="D2371" t="inlineStr"/>
       <c r="E2371" t="inlineStr">
         <is>
-          <t>€-172.5B</t>
+          <t>2.705%</t>
         </is>
       </c>
       <c r="F2371" t="inlineStr"/>
@@ -76824,23 +76846,23 @@
     <row r="2372">
       <c r="A2372" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2372" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2372" t="inlineStr">
         <is>
-          <t>IPC-Fipe Inflation MoMJAN</t>
+          <t>Budget BalanceDEC</t>
         </is>
       </c>
       <c r="D2372" t="inlineStr"/>
       <c r="E2372" t="inlineStr">
         <is>
-          <t>0.34%</t>
+          <t>€-172.5B</t>
         </is>
       </c>
       <c r="F2372" t="inlineStr"/>
@@ -76852,19 +76874,27 @@
       </c>
     </row>
     <row r="2373">
-      <c r="A2373" t="inlineStr"/>
+      <c r="A2373" t="inlineStr">
+        <is>
+          <t>01:30 PM</t>
+        </is>
+      </c>
       <c r="B2373" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2373" t="inlineStr">
         <is>
-          <t>Balance of Trade PrelJAN</t>
+          <t>IPC-Fipe Inflation MoMJAN</t>
         </is>
       </c>
       <c r="D2373" t="inlineStr"/>
-      <c r="E2373" t="inlineStr"/>
+      <c r="E2373" t="inlineStr">
+        <is>
+          <t>0.34%</t>
+        </is>
+      </c>
       <c r="F2373" t="inlineStr"/>
       <c r="G2373" t="inlineStr"/>
       <c r="H2373" t="inlineStr">
@@ -76874,15 +76904,19 @@
       </c>
     </row>
     <row r="2374">
-      <c r="A2374" t="inlineStr"/>
+      <c r="A2374" t="inlineStr">
+        <is>
+          <t>03:30 PM</t>
+        </is>
+      </c>
       <c r="B2374" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2374" t="inlineStr">
         <is>
-          <t>Exports PrelJAN</t>
+          <t>5-Year Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D2374" t="inlineStr"/>
@@ -76904,7 +76938,7 @@
       </c>
       <c r="C2375" t="inlineStr">
         <is>
-          <t>Imports PrelJAN</t>
+          <t>Balance of Trade PrelJAN</t>
         </is>
       </c>
       <c r="D2375" t="inlineStr"/>
@@ -76917,6 +76951,50 @@
         </is>
       </c>
     </row>
+    <row r="2376">
+      <c r="A2376" t="inlineStr"/>
+      <c r="B2376" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="C2376" t="inlineStr">
+        <is>
+          <t>Exports PrelJAN</t>
+        </is>
+      </c>
+      <c r="D2376" t="inlineStr"/>
+      <c r="E2376" t="inlineStr"/>
+      <c r="F2376" t="inlineStr"/>
+      <c r="G2376" t="inlineStr"/>
+      <c r="H2376" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2377">
+      <c r="A2377" t="inlineStr"/>
+      <c r="B2377" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="C2377" t="inlineStr">
+        <is>
+          <t>Imports PrelJAN</t>
+        </is>
+      </c>
+      <c r="D2377" t="inlineStr"/>
+      <c r="E2377" t="inlineStr"/>
+      <c r="F2377" t="inlineStr"/>
+      <c r="G2377" t="inlineStr"/>
+      <c r="H2377" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-04.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-04.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2753"/>
+  <dimension ref="A1:H2733"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76589,10 +76589,8 @@
           <t>50.3</t>
         </is>
       </c>
-      <c r="H2365" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2365" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2366">
@@ -76623,10 +76621,8 @@
           <t>51.8</t>
         </is>
       </c>
-      <c r="H2366" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2366" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2367">
@@ -76657,10 +76653,8 @@
           <t>-5.0%</t>
         </is>
       </c>
-      <c r="H2367" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2367" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2368">
@@ -76695,10 +76689,8 @@
           <t>51.7</t>
         </is>
       </c>
-      <c r="H2368" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2368" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2369">
@@ -76729,10 +76721,8 @@
           <t>115.3</t>
         </is>
       </c>
-      <c r="H2369" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2369" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2370">
@@ -76767,10 +76757,8 @@
           <t>107</t>
         </is>
       </c>
-      <c r="H2370" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2370" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2371">
@@ -76797,10 +76785,8 @@
       </c>
       <c r="F2371" t="inlineStr"/>
       <c r="G2371" t="inlineStr"/>
-      <c r="H2371" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2371" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2372">
@@ -76827,10 +76813,8 @@
       </c>
       <c r="F2372" t="inlineStr"/>
       <c r="G2372" t="inlineStr"/>
-      <c r="H2372" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2372" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2373">
@@ -76857,10 +76841,8 @@
       </c>
       <c r="F2373" t="inlineStr"/>
       <c r="G2373" t="inlineStr"/>
-      <c r="H2373" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2373" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2374">
@@ -76891,10 +76873,8 @@
           <t>99</t>
         </is>
       </c>
-      <c r="H2374" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2374" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2375">
@@ -76925,10 +76905,8 @@
           <t>75.8%</t>
         </is>
       </c>
-      <c r="H2375" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2375" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2376">
@@ -76963,10 +76941,8 @@
           <t>84.5</t>
         </is>
       </c>
-      <c r="H2376" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2376" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2377">
@@ -77001,10 +76977,8 @@
           <t>85.2</t>
         </is>
       </c>
-      <c r="H2377" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2377" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2378">
@@ -77039,10 +77013,8 @@
           <t>84</t>
         </is>
       </c>
-      <c r="H2378" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2378" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2379">
@@ -77069,10 +77041,8 @@
       </c>
       <c r="F2379" t="inlineStr"/>
       <c r="G2379" t="inlineStr"/>
-      <c r="H2379" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2379" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2380">
@@ -77099,10 +77069,8 @@
       </c>
       <c r="F2380" t="inlineStr"/>
       <c r="G2380" t="inlineStr"/>
-      <c r="H2380" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2380" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2381">
@@ -77133,10 +77101,8 @@
           <t>91.4</t>
         </is>
       </c>
-      <c r="H2381" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2381" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2382">
@@ -77167,10 +77133,8 @@
           <t>10K</t>
         </is>
       </c>
-      <c r="H2382" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2382" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2383">
@@ -77201,10 +77165,8 @@
           <t>2875K</t>
         </is>
       </c>
-      <c r="H2383" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2383" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2384">
@@ -77235,10 +77197,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H2384" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2384" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2385">
@@ -77269,10 +77229,8 @@
           <t>$ 0.4B</t>
         </is>
       </c>
-      <c r="H2385" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2385" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2386">
@@ -77303,10 +77261,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2386" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2386" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2387">
@@ -77337,10 +77293,8 @@
           <t>0.1</t>
         </is>
       </c>
-      <c r="H2387" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2387" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2388">
@@ -77367,10 +77321,8 @@
       </c>
       <c r="F2388" t="inlineStr"/>
       <c r="G2388" t="inlineStr"/>
-      <c r="H2388" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2388" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2389">
@@ -77397,10 +77349,8 @@
       </c>
       <c r="F2389" t="inlineStr"/>
       <c r="G2389" t="inlineStr"/>
-      <c r="H2389" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2389" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2390">
@@ -77427,10 +77377,8 @@
       </c>
       <c r="F2390" t="inlineStr"/>
       <c r="G2390" t="inlineStr"/>
-      <c r="H2390" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2390" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2391">
@@ -77465,10 +77413,8 @@
           <t>0.64M</t>
         </is>
       </c>
-      <c r="H2391" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2391" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2392">
@@ -77499,10 +77445,8 @@
           <t>-3.5%</t>
         </is>
       </c>
-      <c r="H2392" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2392" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2393">
@@ -77533,10 +77477,8 @@
           <t>4</t>
         </is>
       </c>
-      <c r="H2393" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2393" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2394">
@@ -77559,10 +77501,8 @@
       <c r="E2394" t="inlineStr"/>
       <c r="F2394" t="inlineStr"/>
       <c r="G2394" t="inlineStr"/>
-      <c r="H2394" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2394" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2395">
@@ -77589,10 +77529,8 @@
       </c>
       <c r="F2395" t="inlineStr"/>
       <c r="G2395" t="inlineStr"/>
-      <c r="H2395" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2395" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2396">
@@ -77619,10 +77557,8 @@
       </c>
       <c r="F2396" t="inlineStr"/>
       <c r="G2396" t="inlineStr"/>
-      <c r="H2396" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2396" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2397">
@@ -77649,10 +77585,8 @@
       </c>
       <c r="F2397" t="inlineStr"/>
       <c r="G2397" t="inlineStr"/>
-      <c r="H2397" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2397" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2398">
@@ -77679,10 +77613,8 @@
       </c>
       <c r="F2398" t="inlineStr"/>
       <c r="G2398" t="inlineStr"/>
-      <c r="H2398" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2398" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2399">
@@ -77705,10 +77637,8 @@
       </c>
       <c r="F2399" t="inlineStr"/>
       <c r="G2399" t="inlineStr"/>
-      <c r="H2399" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2399" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2400">
@@ -77735,10 +77665,8 @@
           <t>80</t>
         </is>
       </c>
-      <c r="H2400" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2400" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2401">
@@ -77757,10 +77685,8 @@
       <c r="E2401" t="inlineStr"/>
       <c r="F2401" t="inlineStr"/>
       <c r="G2401" t="inlineStr"/>
-      <c r="H2401" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2401" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2402">
@@ -77791,10 +77717,8 @@
           <t>1.6M</t>
         </is>
       </c>
-      <c r="H2402" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2402" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2403">
@@ -77825,10 +77749,8 @@
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="H2403" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2403" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2404">
@@ -77855,10 +77777,8 @@
           <t>BRL 255.1B</t>
         </is>
       </c>
-      <c r="H2404" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2404" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2405">
@@ -77903,10 +77823,8 @@
           <t>3</t>
         </is>
       </c>
-      <c r="H2406" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2406" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2407">
@@ -77937,10 +77855,8 @@
           <t>2.00%</t>
         </is>
       </c>
-      <c r="H2407" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2407" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2408">
@@ -77967,10 +77883,8 @@
       </c>
       <c r="F2408" t="inlineStr"/>
       <c r="G2408" t="inlineStr"/>
-      <c r="H2408" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2408" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2409">
@@ -78001,10 +77915,8 @@
           <t>-4.6%</t>
         </is>
       </c>
-      <c r="H2409" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2409" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2410">
@@ -78035,10 +77947,8 @@
           <t>-4.1%</t>
         </is>
       </c>
-      <c r="H2410" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2410" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2411">
@@ -78069,10 +77979,8 @@
           <t>-4.6%</t>
         </is>
       </c>
-      <c r="H2411" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2411" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2412">
@@ -78103,10 +78011,8 @@
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="H2412" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2412" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2413">
@@ -78141,10 +78047,8 @@
           <t>89</t>
         </is>
       </c>
-      <c r="H2413" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2413" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2414">
@@ -78179,10 +78083,8 @@
           <t>11.0%</t>
         </is>
       </c>
-      <c r="H2414" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2414" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2415">
@@ -78209,10 +78111,8 @@
       </c>
       <c r="F2415" t="inlineStr"/>
       <c r="G2415" t="inlineStr"/>
-      <c r="H2415" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2415" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2416">
@@ -78239,10 +78139,8 @@
       </c>
       <c r="F2416" t="inlineStr"/>
       <c r="G2416" t="inlineStr"/>
-      <c r="H2416" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2416" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2417">
@@ -78269,10 +78167,8 @@
       </c>
       <c r="F2417" t="inlineStr"/>
       <c r="G2417" t="inlineStr"/>
-      <c r="H2417" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2417" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2418">
@@ -78299,10 +78195,8 @@
       </c>
       <c r="F2418" t="inlineStr"/>
       <c r="G2418" t="inlineStr"/>
-      <c r="H2418" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2418" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2419">
@@ -78329,10 +78223,8 @@
       </c>
       <c r="F2419" t="inlineStr"/>
       <c r="G2419" t="inlineStr"/>
-      <c r="H2419" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2419" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2420">
@@ -78367,10 +78259,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2420" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2420" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2421">
@@ -78405,10 +78295,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2421" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2421" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2422">
@@ -78439,10 +78327,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2422" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2422" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2423">
@@ -78473,10 +78359,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2423" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2423" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2424">
@@ -78503,10 +78387,8 @@
       </c>
       <c r="F2424" t="inlineStr"/>
       <c r="G2424" t="inlineStr"/>
-      <c r="H2424" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2424" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2425">
@@ -78541,10 +78423,8 @@
           <t>4%</t>
         </is>
       </c>
-      <c r="H2425" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2425" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2426">
@@ -78575,10 +78455,8 @@
           <t>433</t>
         </is>
       </c>
-      <c r="H2426" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2426" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2427">
@@ -78613,10 +78491,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2427" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2427" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2428">
@@ -78647,10 +78523,8 @@
           <t>4.3%</t>
         </is>
       </c>
-      <c r="H2428" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2428" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2429">
@@ -78681,10 +78555,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H2429" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2429" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2430">
@@ -78707,10 +78579,8 @@
       <c r="E2430" t="inlineStr"/>
       <c r="F2430" t="inlineStr"/>
       <c r="G2430" t="inlineStr"/>
-      <c r="H2430" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2430" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2431">
@@ -78745,10 +78615,8 @@
           <t>104</t>
         </is>
       </c>
-      <c r="H2431" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2431" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2432">
@@ -78783,10 +78651,8 @@
           <t>-8</t>
         </is>
       </c>
-      <c r="H2432" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2432" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2433">
@@ -78817,10 +78683,8 @@
           <t>-9</t>
         </is>
       </c>
-      <c r="H2433" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2433" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2434">
@@ -78851,10 +78715,8 @@
           <t>21</t>
         </is>
       </c>
-      <c r="H2434" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2434" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2435">
@@ -78885,10 +78747,8 @@
           <t>9.5</t>
         </is>
       </c>
-      <c r="H2435" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2435" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2436">
@@ -78919,10 +78779,8 @@
           <t>13</t>
         </is>
       </c>
-      <c r="H2436" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2436" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2437">
@@ -78949,10 +78807,8 @@
       </c>
       <c r="F2437" t="inlineStr"/>
       <c r="G2437" t="inlineStr"/>
-      <c r="H2437" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2437" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2438">
@@ -78979,10 +78835,8 @@
       </c>
       <c r="F2438" t="inlineStr"/>
       <c r="G2438" t="inlineStr"/>
-      <c r="H2438" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2438" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2439">
@@ -79005,10 +78859,8 @@
       <c r="E2439" t="inlineStr"/>
       <c r="F2439" t="inlineStr"/>
       <c r="G2439" t="inlineStr"/>
-      <c r="H2439" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2439" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2440">
@@ -79035,10 +78887,8 @@
       </c>
       <c r="F2440" t="inlineStr"/>
       <c r="G2440" t="inlineStr"/>
-      <c r="H2440" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2440" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2441">
@@ -79065,10 +78915,8 @@
       </c>
       <c r="F2441" t="inlineStr"/>
       <c r="G2441" t="inlineStr"/>
-      <c r="H2441" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2441" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2442">
@@ -79109,10 +78957,8 @@
       </c>
       <c r="F2443" t="inlineStr"/>
       <c r="G2443" t="inlineStr"/>
-      <c r="H2443" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2443" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2444">
@@ -79135,10 +78981,8 @@
       <c r="E2444" t="inlineStr"/>
       <c r="F2444" t="inlineStr"/>
       <c r="G2444" t="inlineStr"/>
-      <c r="H2444" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2444" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2445">
@@ -79173,10 +79017,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H2445" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2445" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2446">
@@ -79211,10 +79053,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2446" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2446" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2447">
@@ -79249,10 +79089,8 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="H2447" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2447" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2448">
@@ -79287,10 +79125,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2448" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2448" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2449">
@@ -79325,10 +79161,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H2449" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2449" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2450">
@@ -79359,10 +79193,8 @@
           <t>139.1</t>
         </is>
       </c>
-      <c r="H2450" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2450" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2451">
@@ -79397,10 +79229,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2451" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2451" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2452">
@@ -79435,10 +79265,8 @@
           <t>3.7%</t>
         </is>
       </c>
-      <c r="H2452" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2452" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2453">
@@ -79465,10 +79293,8 @@
       </c>
       <c r="F2453" t="inlineStr"/>
       <c r="G2453" t="inlineStr"/>
-      <c r="H2453" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2453" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2454">
@@ -79503,10 +79329,8 @@
           <t>36.3</t>
         </is>
       </c>
-      <c r="H2454" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2454" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2455">
@@ -79541,10 +79365,8 @@
           <t>-21</t>
         </is>
       </c>
-      <c r="H2455" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2455" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2456">
@@ -79579,10 +79401,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2456" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2456" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2457">
@@ -79613,10 +79433,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H2457" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2457" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2458">
@@ -79647,10 +79465,8 @@
           <t>0.9%</t>
         </is>
       </c>
-      <c r="H2458" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2458" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2459">
@@ -79685,10 +79501,8 @@
           <t>1.0%</t>
         </is>
       </c>
-      <c r="H2459" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2459" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2460">
@@ -79723,10 +79537,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H2460" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2460" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2461">
@@ -79757,10 +79569,8 @@
           <t>85.5</t>
         </is>
       </c>
-      <c r="H2461" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2461" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2462">
@@ -79791,10 +79601,8 @@
           <t>96</t>
         </is>
       </c>
-      <c r="H2462" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2462" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2463">
@@ -79821,10 +79629,8 @@
       </c>
       <c r="F2463" t="inlineStr"/>
       <c r="G2463" t="inlineStr"/>
-      <c r="H2463" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2463" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2464">
@@ -79851,10 +79657,8 @@
       </c>
       <c r="F2464" t="inlineStr"/>
       <c r="G2464" t="inlineStr"/>
-      <c r="H2464" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2464" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2465">
@@ -79881,10 +79685,8 @@
       </c>
       <c r="F2465" t="inlineStr"/>
       <c r="G2465" t="inlineStr"/>
-      <c r="H2465" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2465" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2466">
@@ -79915,10 +79717,8 @@
           <t>2.70%</t>
         </is>
       </c>
-      <c r="H2466" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2466" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2467">
@@ -79945,10 +79745,8 @@
       </c>
       <c r="F2467" t="inlineStr"/>
       <c r="G2467" t="inlineStr"/>
-      <c r="H2467" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2467" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2468">
@@ -79975,10 +79773,8 @@
       </c>
       <c r="F2468" t="inlineStr"/>
       <c r="G2468" t="inlineStr"/>
-      <c r="H2468" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2468" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2469">
@@ -80005,10 +79801,8 @@
       </c>
       <c r="F2469" t="inlineStr"/>
       <c r="G2469" t="inlineStr"/>
-      <c r="H2469" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2469" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2470">
@@ -80035,10 +79829,8 @@
       </c>
       <c r="F2470" t="inlineStr"/>
       <c r="G2470" t="inlineStr"/>
-      <c r="H2470" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2470" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2471">
@@ -80065,10 +79857,8 @@
       </c>
       <c r="F2471" t="inlineStr"/>
       <c r="G2471" t="inlineStr"/>
-      <c r="H2471" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2471" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2472">
@@ -80103,10 +79893,8 @@
           <t>$ -101.0B</t>
         </is>
       </c>
-      <c r="H2472" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2472" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2473">
@@ -80137,10 +79925,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2473" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2473" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2474">
@@ -80175,10 +79961,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2474" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2474" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2475">
@@ -80213,10 +79997,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H2475" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2475" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2476">
@@ -80239,10 +80021,8 @@
       <c r="E2476" t="inlineStr"/>
       <c r="F2476" t="inlineStr"/>
       <c r="G2476" t="inlineStr"/>
-      <c r="H2476" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2476" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2477">
@@ -80265,10 +80045,8 @@
       <c r="E2477" t="inlineStr"/>
       <c r="F2477" t="inlineStr"/>
       <c r="G2477" t="inlineStr"/>
-      <c r="H2477" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2477" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2478">
@@ -80295,10 +80073,8 @@
       </c>
       <c r="F2478" t="inlineStr"/>
       <c r="G2478" t="inlineStr"/>
-      <c r="H2478" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2478" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2479">
@@ -80325,10 +80101,8 @@
       </c>
       <c r="F2479" t="inlineStr"/>
       <c r="G2479" t="inlineStr"/>
-      <c r="H2479" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2479" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2480">
@@ -80355,10 +80129,8 @@
       </c>
       <c r="F2480" t="inlineStr"/>
       <c r="G2480" t="inlineStr"/>
-      <c r="H2480" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2480" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2481">
@@ -80385,10 +80157,8 @@
       </c>
       <c r="F2481" t="inlineStr"/>
       <c r="G2481" t="inlineStr"/>
-      <c r="H2481" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2481" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2482">
@@ -80415,10 +80185,8 @@
       </c>
       <c r="F2482" t="inlineStr"/>
       <c r="G2482" t="inlineStr"/>
-      <c r="H2482" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2482" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2483">
@@ -80445,10 +80213,8 @@
       </c>
       <c r="F2483" t="inlineStr"/>
       <c r="G2483" t="inlineStr"/>
-      <c r="H2483" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2483" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2484">
@@ -80475,10 +80241,8 @@
       </c>
       <c r="F2484" t="inlineStr"/>
       <c r="G2484" t="inlineStr"/>
-      <c r="H2484" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2484" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2485">
@@ -80505,10 +80269,8 @@
       </c>
       <c r="F2485" t="inlineStr"/>
       <c r="G2485" t="inlineStr"/>
-      <c r="H2485" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2485" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2486">
@@ -80535,10 +80297,8 @@
       </c>
       <c r="F2486" t="inlineStr"/>
       <c r="G2486" t="inlineStr"/>
-      <c r="H2486" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2486" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2487">
@@ -80569,10 +80329,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H2487" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2487" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2488">
@@ -80603,10 +80361,8 @@
           <t>4.4%</t>
         </is>
       </c>
-      <c r="H2488" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2488" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2489">
@@ -80633,10 +80389,8 @@
       </c>
       <c r="F2489" t="inlineStr"/>
       <c r="G2489" t="inlineStr"/>
-      <c r="H2489" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2489" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2490">
@@ -80685,10 +80439,8 @@
           <t>4.5%</t>
         </is>
       </c>
-      <c r="H2491" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2491" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2492">
@@ -80711,10 +80463,8 @@
       <c r="E2492" t="inlineStr"/>
       <c r="F2492" t="inlineStr"/>
       <c r="G2492" t="inlineStr"/>
-      <c r="H2492" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2492" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2493">
@@ -80745,10 +80495,8 @@
           <t>12.25%</t>
         </is>
       </c>
-      <c r="H2493" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2493" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2494">
@@ -80775,10 +80523,8 @@
       </c>
       <c r="F2494" t="inlineStr"/>
       <c r="G2494" t="inlineStr"/>
-      <c r="H2494" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2494" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2495">
@@ -80805,10 +80551,8 @@
       </c>
       <c r="F2495" t="inlineStr"/>
       <c r="G2495" t="inlineStr"/>
-      <c r="H2495" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2495" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2496">
@@ -80839,10 +80583,8 @@
           <t>-20.0%</t>
         </is>
       </c>
-      <c r="H2496" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2496" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2497">
@@ -80865,10 +80607,8 @@
       <c r="E2497" t="inlineStr"/>
       <c r="F2497" t="inlineStr"/>
       <c r="G2497" t="inlineStr"/>
-      <c r="H2497" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2497" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2498">
@@ -80899,10 +80639,8 @@
           <t>-6.6%</t>
         </is>
       </c>
-      <c r="H2498" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2498" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2499">
@@ -80937,10 +80675,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2499" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2499" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2500">
@@ -80963,10 +80699,8 @@
       <c r="E2500" t="inlineStr"/>
       <c r="F2500" t="inlineStr"/>
       <c r="G2500" t="inlineStr"/>
-      <c r="H2500" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2500" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2501">
@@ -80997,10 +80731,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H2501" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2501" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2502">
@@ -81027,10 +80759,8 @@
       </c>
       <c r="F2502" t="inlineStr"/>
       <c r="G2502" t="inlineStr"/>
-      <c r="H2502" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2502" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2503">
@@ -81061,10 +80791,8 @@
           <t>3.8%</t>
         </is>
       </c>
-      <c r="H2503" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2503" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2504">
@@ -81087,10 +80815,8 @@
       <c r="E2504" t="inlineStr"/>
       <c r="F2504" t="inlineStr"/>
       <c r="G2504" t="inlineStr"/>
-      <c r="H2504" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2504" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2505">
@@ -81125,10 +80851,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H2505" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2505" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2506">
@@ -81159,10 +80883,8 @@
           <t>1.1%</t>
         </is>
       </c>
-      <c r="H2506" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2506" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2507">
@@ -81197,10 +80919,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2507" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2507" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2508">
@@ -81235,10 +80955,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2508" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2508" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2509">
@@ -81269,10 +80987,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H2509" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2509" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2510">
@@ -81303,10 +81019,8 @@
           <t>98.3</t>
         </is>
       </c>
-      <c r="H2510" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2510" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2511">
@@ -81337,10 +81051,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H2511" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2511" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2512">
@@ -81375,10 +81087,8 @@
           <t>2.7%</t>
         </is>
       </c>
-      <c r="H2512" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2512" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2513">
@@ -81409,10 +81119,8 @@
           <t>2.7%</t>
         </is>
       </c>
-      <c r="H2513" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2513" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2514">
@@ -81443,10 +81151,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H2514" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2514" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2515">
@@ -81477,10 +81183,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H2515" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2515" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2516">
@@ -81515,10 +81219,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H2516" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2516" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2517">
@@ -81553,10 +81255,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H2517" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2517" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2518">
@@ -81591,10 +81291,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2518" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2518" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2519">
@@ -81625,10 +81323,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2519" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2519" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2520">
@@ -81659,10 +81355,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H2520" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2520" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2521">
@@ -81693,10 +81387,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2521" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2521" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2522">
@@ -81727,10 +81419,8 @@
           <t>£ 1.3B</t>
         </is>
       </c>
-      <c r="H2522" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2522" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2523">
@@ -81765,10 +81455,8 @@
           <t>65.1K</t>
         </is>
       </c>
-      <c r="H2523" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2523" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2524">
@@ -81799,10 +81487,8 @@
           <t>£ 2.2B</t>
         </is>
       </c>
-      <c r="H2524" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2524" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2525">
@@ -81837,10 +81523,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H2525" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2525" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2526">
@@ -81875,10 +81559,8 @@
           <t>£3.5B</t>
         </is>
       </c>
-      <c r="H2526" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2526" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2527">
@@ -81913,10 +81595,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2527" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2527" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2528">
@@ -81951,10 +81631,8 @@
           <t>6.4%</t>
         </is>
       </c>
-      <c r="H2528" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2528" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2529">
@@ -81985,10 +81663,8 @@
         </is>
       </c>
       <c r="G2529" t="inlineStr"/>
-      <c r="H2529" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2529" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2530">
@@ -82023,10 +81699,8 @@
           <t>93.5</t>
         </is>
       </c>
-      <c r="H2530" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2530" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2531">
@@ -82061,10 +81735,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H2531" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2531" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2532">
@@ -82095,10 +81767,8 @@
           <t>22</t>
         </is>
       </c>
-      <c r="H2532" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2532" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2533">
@@ -82129,10 +81799,8 @@
           <t>-14.5</t>
         </is>
       </c>
-      <c r="H2533" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2533" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2534">
@@ -82163,10 +81831,8 @@
           <t>8</t>
         </is>
       </c>
-      <c r="H2534" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2534" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2535">
@@ -82197,10 +81863,8 @@
           <t>6</t>
         </is>
       </c>
-      <c r="H2535" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2535" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2536">
@@ -82235,10 +81899,8 @@
           <t>5.6%</t>
         </is>
       </c>
-      <c r="H2536" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2536" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2537">
@@ -82261,10 +81923,8 @@
       <c r="E2537" t="inlineStr"/>
       <c r="F2537" t="inlineStr"/>
       <c r="G2537" t="inlineStr"/>
-      <c r="H2537" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2537" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2538">
@@ -82295,10 +81955,8 @@
           <t>0.9%</t>
         </is>
       </c>
-      <c r="H2538" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2538" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2539">
@@ -82329,10 +81987,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H2539" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2539" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2540">
@@ -82363,10 +82019,8 @@
           <t>-5.1%</t>
         </is>
       </c>
-      <c r="H2540" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2540" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2541">
@@ -82389,10 +82043,8 @@
       <c r="E2541" t="inlineStr"/>
       <c r="F2541" t="inlineStr"/>
       <c r="G2541" t="inlineStr"/>
-      <c r="H2541" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2541" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2542">
@@ -82419,10 +82071,8 @@
       </c>
       <c r="F2542" t="inlineStr"/>
       <c r="G2542" t="inlineStr"/>
-      <c r="H2542" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2542" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2543">
@@ -82453,10 +82103,8 @@
           <t>56.2</t>
         </is>
       </c>
-      <c r="H2543" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2543" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2544">
@@ -82487,10 +82135,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2544" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2544" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2545">
@@ -82521,10 +82167,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H2545" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2545" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2546">
@@ -82555,10 +82199,8 @@
           <t>-5</t>
         </is>
       </c>
-      <c r="H2546" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2546" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2547">
@@ -82593,10 +82235,8 @@
           <t>7.50%</t>
         </is>
       </c>
-      <c r="H2547" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2547" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2548">
@@ -82627,10 +82267,8 @@
           <t>11.0%</t>
         </is>
       </c>
-      <c r="H2548" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2548" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2549">
@@ -82665,10 +82303,8 @@
           <t>2.75%</t>
         </is>
       </c>
-      <c r="H2549" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2549" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2550">
@@ -82703,10 +82339,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H2550" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2550" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2551">
@@ -82737,10 +82371,8 @@
           <t>3.15%</t>
         </is>
       </c>
-      <c r="H2551" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2551" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2552">
@@ -82771,10 +82403,8 @@
           <t>5.0%</t>
         </is>
       </c>
-      <c r="H2552" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2552" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2553">
@@ -82809,10 +82439,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H2553" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2553" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2554">
@@ -82847,10 +82475,8 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="H2554" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2554" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2555">
@@ -82885,10 +82511,8 @@
           <t>228.0K</t>
         </is>
       </c>
-      <c r="H2555" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2555" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2556">
@@ -82919,10 +82543,8 @@
           <t>1885.0K</t>
         </is>
       </c>
-      <c r="H2556" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2556" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2557">
@@ -82953,10 +82575,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="H2557" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2557" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2558">
@@ -82987,10 +82607,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H2558" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2558" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2559">
@@ -83021,10 +82639,8 @@
           <t>214.0K</t>
         </is>
       </c>
-      <c r="H2559" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2559" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2560">
@@ -83055,10 +82671,8 @@
           <t>1.1%</t>
         </is>
       </c>
-      <c r="H2560" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2560" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2561">
@@ -83089,10 +82703,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H2561" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2561" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2562">
@@ -83115,10 +82727,8 @@
       <c r="E2562" t="inlineStr"/>
       <c r="F2562" t="inlineStr"/>
       <c r="G2562" t="inlineStr"/>
-      <c r="H2562" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2562" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2563">
@@ -83153,10 +82763,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2563" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2563" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2564">
@@ -83187,10 +82795,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H2564" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2564" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2565">
@@ -83217,10 +82823,8 @@
       </c>
       <c r="F2565" t="inlineStr"/>
       <c r="G2565" t="inlineStr"/>
-      <c r="H2565" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2565" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2566">
@@ -83247,10 +82851,8 @@
       </c>
       <c r="F2566" t="inlineStr"/>
       <c r="G2566" t="inlineStr"/>
-      <c r="H2566" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2566" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2567">
@@ -83277,10 +82879,8 @@
       </c>
       <c r="F2567" t="inlineStr"/>
       <c r="G2567" t="inlineStr"/>
-      <c r="H2567" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2567" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2568">
@@ -83307,10 +82907,8 @@
       </c>
       <c r="F2568" t="inlineStr"/>
       <c r="G2568" t="inlineStr"/>
-      <c r="H2568" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2568" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2569">
@@ -83337,10 +82935,8 @@
       </c>
       <c r="F2569" t="inlineStr"/>
       <c r="G2569" t="inlineStr"/>
-      <c r="H2569" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2569" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2570">
@@ -83367,10 +82963,8 @@
           <t>ZAR14.0B</t>
         </is>
       </c>
-      <c r="H2570" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2570" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2571">
@@ -83397,10 +82991,8 @@
           <t>10.6%</t>
         </is>
       </c>
-      <c r="H2571" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2571" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2572">
@@ -83427,10 +83019,8 @@
           <t>12.8%</t>
         </is>
       </c>
-      <c r="H2572" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2572" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2573">
@@ -83453,10 +83043,8 @@
       </c>
       <c r="F2573" t="inlineStr"/>
       <c r="G2573" t="inlineStr"/>
-      <c r="H2573" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2573" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2574">
@@ -83479,10 +83067,8 @@
       </c>
       <c r="F2574" t="inlineStr"/>
       <c r="G2574" t="inlineStr"/>
-      <c r="H2574" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2574" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2575">
@@ -83509,50 +83095,72 @@
           <t>90.0K</t>
         </is>
       </c>
-      <c r="H2575" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2575" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2576">
       <c r="A2576" t="inlineStr">
         <is>
-          <t>Friday January 31 2025</t>
-        </is>
-      </c>
-      <c r="B2576" t="inlineStr"/>
-      <c r="C2576" t="inlineStr"/>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B2576" t="inlineStr">
+        <is>
+          <t>JP</t>
+        </is>
+      </c>
+      <c r="C2576" t="inlineStr">
+        <is>
+          <t>Construction Orders YoYDEC</t>
+        </is>
+      </c>
       <c r="D2576" t="inlineStr"/>
-      <c r="E2576" t="inlineStr"/>
+      <c r="E2576" t="inlineStr">
+        <is>
+          <t>-10.2%</t>
+        </is>
+      </c>
       <c r="F2576" t="inlineStr"/>
-      <c r="G2576" t="inlineStr"/>
-      <c r="H2576" t="inlineStr"/>
+      <c r="G2576" t="inlineStr">
+        <is>
+          <t>5.5%</t>
+        </is>
+      </c>
+      <c r="H2576" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2577">
       <c r="A2577" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2577" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2577" t="inlineStr">
         <is>
-          <t>Fed Balance SheetJAN/29</t>
+          <t>Business ConfidenceQ4</t>
         </is>
       </c>
       <c r="D2577" t="inlineStr"/>
       <c r="E2577" t="inlineStr">
         <is>
-          <t>$6.88T</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F2577" t="inlineStr"/>
-      <c r="G2577" t="inlineStr"/>
+      <c r="G2577" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
       <c r="H2577" t="inlineStr">
         <is>
           <t>3</t>
@@ -83562,33 +83170,33 @@
     <row r="2578">
       <c r="A2578" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2578" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2578" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D2578" t="inlineStr"/>
       <c r="E2578" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>-0.6%</t>
         </is>
       </c>
       <c r="F2578" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="G2578" t="inlineStr">
         <is>
-          <t>2.50%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H2578" t="inlineStr">
@@ -83600,105 +83208,101 @@
     <row r="2579">
       <c r="A2579" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2579" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2579" t="inlineStr">
         <is>
-          <t>Jobs/applications ratioDEC</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="D2579" t="inlineStr"/>
       <c r="E2579" t="inlineStr">
         <is>
-          <t>1.25</t>
-        </is>
-      </c>
-      <c r="F2579" t="inlineStr">
-        <is>
-          <t>1.25</t>
-        </is>
-      </c>
+          <t>2.5%</t>
+        </is>
+      </c>
+      <c r="F2579" t="inlineStr"/>
       <c r="G2579" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="H2579" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2580">
       <c r="A2580" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2580" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2580" t="inlineStr">
         <is>
-          <t>Tokyo Core CPI YoYJAN</t>
+          <t>Balance of Trade FinalDEC</t>
         </is>
       </c>
       <c r="D2580" t="inlineStr"/>
       <c r="E2580" t="inlineStr">
         <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="F2580" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
+          <t>$-7.46B</t>
+        </is>
+      </c>
+      <c r="F2580" t="inlineStr"/>
       <c r="G2580" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>$-8.82B</t>
         </is>
       </c>
       <c r="H2580" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2581">
       <c r="A2581" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2581" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2581" t="inlineStr">
         <is>
-          <t>Tokyo CPI Ex Food and Energy YoYJAN</t>
+          <t>Exports FinalDEC</t>
         </is>
       </c>
       <c r="D2581" t="inlineStr"/>
       <c r="E2581" t="inlineStr">
         <is>
-          <t>1.1%</t>
-        </is>
-      </c>
-      <c r="F2581" t="inlineStr"/>
+          <t>$22.29B</t>
+        </is>
+      </c>
+      <c r="F2581" t="inlineStr">
+        <is>
+          <t>$23.46B</t>
+        </is>
+      </c>
       <c r="G2581" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>$ 23.46B</t>
         </is>
       </c>
       <c r="H2581" t="inlineStr">
@@ -83710,29 +83314,29 @@
     <row r="2582">
       <c r="A2582" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2582" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2582" t="inlineStr">
         <is>
-          <t>Tokyo CPI YoYJAN</t>
+          <t>Imports FinalDEC</t>
         </is>
       </c>
       <c r="D2582" t="inlineStr"/>
       <c r="E2582" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>$29.75B</t>
         </is>
       </c>
       <c r="F2582" t="inlineStr"/>
       <c r="G2582" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>$32.29B</t>
         </is>
       </c>
       <c r="H2582" t="inlineStr">
@@ -83744,71 +83348,63 @@
     <row r="2583">
       <c r="A2583" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2583" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2583" t="inlineStr">
         <is>
-          <t>Industrial Production MoM PrelDEC</t>
+          <t>Tourism RevenuesQ4</t>
         </is>
       </c>
       <c r="D2583" t="inlineStr"/>
       <c r="E2583" t="inlineStr">
         <is>
-          <t>-2.2%</t>
-        </is>
-      </c>
-      <c r="F2583" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+          <t>$23.22B</t>
+        </is>
+      </c>
+      <c r="F2583" t="inlineStr"/>
       <c r="G2583" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>$ 23.5B</t>
         </is>
       </c>
       <c r="H2583" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2584">
       <c r="A2584" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2584" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2584" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Nationwide Housing Prices MoMJAN</t>
         </is>
       </c>
       <c r="D2584" t="inlineStr"/>
       <c r="E2584" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F2584" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
+          <t>0.7%</t>
+        </is>
+      </c>
+      <c r="F2584" t="inlineStr"/>
       <c r="G2584" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>0.9%</t>
         </is>
       </c>
       <c r="H2584" t="inlineStr">
@@ -83820,97 +83416,101 @@
     <row r="2585">
       <c r="A2585" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2585" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2585" t="inlineStr">
         <is>
-          <t>Industrial Production YoY PrelDEC</t>
+          <t>Nationwide Housing Prices YoYJAN</t>
         </is>
       </c>
       <c r="D2585" t="inlineStr"/>
       <c r="E2585" t="inlineStr">
         <is>
-          <t>-2.8%</t>
+          <t>4.7%</t>
         </is>
       </c>
       <c r="F2585" t="inlineStr"/>
       <c r="G2585" t="inlineStr">
         <is>
-          <t>-1.6%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H2585" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2586">
       <c r="A2586" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2586" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2586" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2586" t="inlineStr"/>
       <c r="E2586" t="inlineStr">
         <is>
-          <t>1.8%</t>
+          <t>1.3%</t>
         </is>
       </c>
       <c r="F2586" t="inlineStr"/>
       <c r="G2586" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="H2586" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2587">
       <c r="A2587" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2587" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2587" t="inlineStr">
         <is>
-          <t>PPI QoQQ4</t>
+          <t>Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2587" t="inlineStr"/>
       <c r="E2587" t="inlineStr">
         <is>
-          <t>0.9%</t>
-        </is>
-      </c>
-      <c r="F2587" t="inlineStr"/>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="F2587" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
       <c r="G2587" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H2587" t="inlineStr">
@@ -83922,33 +83522,29 @@
     <row r="2588">
       <c r="A2588" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2588" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2588" t="inlineStr">
         <is>
-          <t>Housing Credit MoMDEC</t>
+          <t>Harmonised Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2588" t="inlineStr"/>
       <c r="E2588" t="inlineStr">
         <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="F2588" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="F2588" t="inlineStr"/>
       <c r="G2588" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H2588" t="inlineStr">
@@ -83960,29 +83556,29 @@
     <row r="2589">
       <c r="A2589" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2589" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2589" t="inlineStr">
         <is>
-          <t>PPI YoYQ4</t>
+          <t>Harmonised Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2589" t="inlineStr"/>
       <c r="E2589" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>1.8%</t>
         </is>
       </c>
       <c r="F2589" t="inlineStr"/>
       <c r="G2589" t="inlineStr">
         <is>
-          <t>3.6%</t>
+          <t>2.0%</t>
         </is>
       </c>
       <c r="H2589" t="inlineStr">
@@ -83994,29 +83590,29 @@
     <row r="2590">
       <c r="A2590" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2590" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2590" t="inlineStr">
         <is>
-          <t>Private Sector Credit MoMDEC</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D2590" t="inlineStr"/>
       <c r="E2590" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>3.2%</t>
         </is>
       </c>
       <c r="F2590" t="inlineStr"/>
       <c r="G2590" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H2590" t="inlineStr">
@@ -84028,29 +83624,29 @@
     <row r="2591">
       <c r="A2591" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2591" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2591" t="inlineStr">
         <is>
-          <t>Private Sector Credit YoYDEC</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D2591" t="inlineStr"/>
       <c r="E2591" t="inlineStr">
         <is>
-          <t>6.2%</t>
+          <t>-5.2%</t>
         </is>
       </c>
       <c r="F2591" t="inlineStr"/>
       <c r="G2591" t="inlineStr">
         <is>
-          <t>5.7%</t>
+          <t>-4.3%</t>
         </is>
       </c>
       <c r="H2591" t="inlineStr">
@@ -84062,29 +83658,29 @@
     <row r="2592">
       <c r="A2592" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2592" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2592" t="inlineStr">
         <is>
-          <t>Bank LendingDEC</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D2592" t="inlineStr"/>
       <c r="E2592" t="inlineStr">
         <is>
-          <t>S$819.4B</t>
+          <t>-0.6%</t>
         </is>
       </c>
       <c r="F2592" t="inlineStr"/>
       <c r="G2592" t="inlineStr">
         <is>
-          <t>S$ 818.2B</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="H2592" t="inlineStr">
@@ -84096,27 +83692,31 @@
     <row r="2593">
       <c r="A2593" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2593" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2593" t="inlineStr">
         <is>
-          <t>2-Year JGB Auction</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="D2593" t="inlineStr"/>
       <c r="E2593" t="inlineStr">
         <is>
-          <t>0.602%</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="F2593" t="inlineStr"/>
-      <c r="G2593" t="inlineStr"/>
+      <c r="G2593" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H2593" t="inlineStr">
         <is>
           <t>3</t>
@@ -84126,23 +83726,23 @@
     <row r="2594">
       <c r="A2594" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2594" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2594" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Tourist Arrivals YoYDEC</t>
         </is>
       </c>
       <c r="D2594" t="inlineStr"/>
       <c r="E2594" t="inlineStr">
         <is>
-          <t>0.3657%</t>
+          <t>8.25%</t>
         </is>
       </c>
       <c r="F2594" t="inlineStr"/>
@@ -84156,141 +83756,133 @@
     <row r="2595">
       <c r="A2595" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>02:25 PM</t>
         </is>
       </c>
       <c r="B2595" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2595" t="inlineStr">
         <is>
-          <t>Housing Starts YoYDEC</t>
+          <t>Unemployment ChangeJAN</t>
         </is>
       </c>
       <c r="D2595" t="inlineStr"/>
       <c r="E2595" t="inlineStr">
         <is>
-          <t>-1.8%</t>
+          <t>10K</t>
         </is>
       </c>
       <c r="F2595" t="inlineStr">
         <is>
-          <t>-3.9%</t>
+          <t>15K</t>
         </is>
       </c>
       <c r="G2595" t="inlineStr">
         <is>
-          <t>-3.3%</t>
+          <t>7.0K</t>
         </is>
       </c>
       <c r="H2595" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2596">
       <c r="A2596" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>02:25 PM</t>
         </is>
       </c>
       <c r="B2596" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2596" t="inlineStr">
         <is>
-          <t>Construction Orders YoYDEC</t>
+          <t>Unemployed PersonsJAN</t>
         </is>
       </c>
       <c r="D2596" t="inlineStr"/>
       <c r="E2596" t="inlineStr">
         <is>
-          <t>-10.2%</t>
+          <t>2.869M</t>
         </is>
       </c>
       <c r="F2596" t="inlineStr"/>
       <c r="G2596" t="inlineStr">
         <is>
-          <t>5.5%</t>
+          <t>2.876M</t>
         </is>
       </c>
       <c r="H2596" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2597">
       <c r="A2597" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>02:25 PM</t>
         </is>
       </c>
       <c r="B2597" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2597" t="inlineStr">
         <is>
-          <t>Business ConfidenceQ4</t>
+          <t>Unemployment RateJAN</t>
         </is>
       </c>
       <c r="D2597" t="inlineStr"/>
       <c r="E2597" t="inlineStr">
         <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="F2597" t="inlineStr"/>
+          <t>6.1%</t>
+        </is>
+      </c>
+      <c r="F2597" t="inlineStr">
+        <is>
+          <t>6.2%</t>
+        </is>
+      </c>
       <c r="G2597" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>6.2%</t>
         </is>
       </c>
       <c r="H2597" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2598">
       <c r="A2598" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2598" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2598" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>ECB Survey of Professional Forecasters</t>
         </is>
       </c>
       <c r="D2598" t="inlineStr"/>
-      <c r="E2598" t="inlineStr">
-        <is>
-          <t>-0.6%</t>
-        </is>
-      </c>
-      <c r="F2598" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="G2598" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E2598" t="inlineStr"/>
+      <c r="F2598" t="inlineStr"/>
+      <c r="G2598" t="inlineStr"/>
       <c r="H2598" t="inlineStr">
         <is>
           <t>2</t>
@@ -84300,7 +83892,7 @@
     <row r="2599">
       <c r="A2599" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2599" t="inlineStr">
@@ -84310,93 +83902,77 @@
       </c>
       <c r="C2599" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Baden Wuerttemberg CPI MoMJAN</t>
         </is>
       </c>
       <c r="D2599" t="inlineStr"/>
       <c r="E2599" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F2599" t="inlineStr"/>
-      <c r="G2599" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
+      <c r="G2599" t="inlineStr"/>
       <c r="H2599" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2600">
       <c r="A2600" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2600" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2600" t="inlineStr">
         <is>
-          <t>Balance of Trade FinalDEC</t>
+          <t>Baden Wuerttemberg CPI YoYJAN</t>
         </is>
       </c>
       <c r="D2600" t="inlineStr"/>
       <c r="E2600" t="inlineStr">
         <is>
-          <t>$-7.46B</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F2600" t="inlineStr"/>
-      <c r="G2600" t="inlineStr">
-        <is>
-          <t>$-8.82B</t>
-        </is>
-      </c>
+      <c r="G2600" t="inlineStr"/>
       <c r="H2600" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2601">
       <c r="A2601" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2601" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2601" t="inlineStr">
         <is>
-          <t>Exports FinalDEC</t>
+          <t>Bavaria CPI MoMJAN</t>
         </is>
       </c>
       <c r="D2601" t="inlineStr"/>
       <c r="E2601" t="inlineStr">
         <is>
-          <t>$22.29B</t>
-        </is>
-      </c>
-      <c r="F2601" t="inlineStr">
-        <is>
-          <t>$23.46B</t>
-        </is>
-      </c>
-      <c r="G2601" t="inlineStr">
-        <is>
-          <t>$ 23.46B</t>
-        </is>
-      </c>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="F2601" t="inlineStr"/>
+      <c r="G2601" t="inlineStr"/>
       <c r="H2601" t="inlineStr">
         <is>
           <t>3</t>
@@ -84406,31 +83982,27 @@
     <row r="2602">
       <c r="A2602" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2602" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2602" t="inlineStr">
         <is>
-          <t>Imports FinalDEC</t>
+          <t>Bavaria CPI YoYJAN</t>
         </is>
       </c>
       <c r="D2602" t="inlineStr"/>
       <c r="E2602" t="inlineStr">
         <is>
-          <t>$29.75B</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="F2602" t="inlineStr"/>
-      <c r="G2602" t="inlineStr">
-        <is>
-          <t>$32.29B</t>
-        </is>
-      </c>
+      <c r="G2602" t="inlineStr"/>
       <c r="H2602" t="inlineStr">
         <is>
           <t>3</t>
@@ -84440,31 +84012,27 @@
     <row r="2603">
       <c r="A2603" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2603" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2603" t="inlineStr">
         <is>
-          <t>Tourism RevenuesQ4</t>
+          <t>Brandenburg CPI MoMJAN</t>
         </is>
       </c>
       <c r="D2603" t="inlineStr"/>
       <c r="E2603" t="inlineStr">
         <is>
-          <t>$23.22B</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F2603" t="inlineStr"/>
-      <c r="G2603" t="inlineStr">
-        <is>
-          <t>$ 23.5B</t>
-        </is>
-      </c>
+      <c r="G2603" t="inlineStr"/>
       <c r="H2603" t="inlineStr">
         <is>
           <t>3</t>
@@ -84474,171 +84042,147 @@
     <row r="2604">
       <c r="A2604" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2604" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2604" t="inlineStr">
         <is>
-          <t>Nationwide Housing Prices MoMJAN</t>
+          <t>Brandenburg CPI YoYJAN</t>
         </is>
       </c>
       <c r="D2604" t="inlineStr"/>
       <c r="E2604" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F2604" t="inlineStr"/>
-      <c r="G2604" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
+      <c r="G2604" t="inlineStr"/>
       <c r="H2604" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2605">
       <c r="A2605" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2605" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2605" t="inlineStr">
         <is>
-          <t>Nationwide Housing Prices YoYJAN</t>
+          <t>Hesse CPI MoMJAN</t>
         </is>
       </c>
       <c r="D2605" t="inlineStr"/>
       <c r="E2605" t="inlineStr">
         <is>
-          <t>4.7%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F2605" t="inlineStr"/>
-      <c r="G2605" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+      <c r="G2605" t="inlineStr"/>
       <c r="H2605" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2606">
       <c r="A2606" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2606" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2606" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelJAN</t>
+          <t>Hesse CPI YoYJAN</t>
         </is>
       </c>
       <c r="D2606" t="inlineStr"/>
       <c r="E2606" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F2606" t="inlineStr"/>
-      <c r="G2606" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
+      <c r="G2606" t="inlineStr"/>
       <c r="H2606" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2607">
       <c r="A2607" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2607" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2607" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM PrelJAN</t>
+          <t>North Rhine Westphalia CPI MoMJAN</t>
         </is>
       </c>
       <c r="D2607" t="inlineStr"/>
       <c r="E2607" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F2607" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="G2607" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="F2607" t="inlineStr"/>
+      <c r="G2607" t="inlineStr"/>
       <c r="H2607" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2608">
       <c r="A2608" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2608" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2608" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM PrelJAN</t>
+          <t>North Rhine Westphalia CPI YoYJAN</t>
         </is>
       </c>
       <c r="D2608" t="inlineStr"/>
       <c r="E2608" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>2.5%</t>
         </is>
       </c>
       <c r="F2608" t="inlineStr"/>
-      <c r="G2608" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G2608" t="inlineStr"/>
       <c r="H2608" t="inlineStr">
         <is>
           <t>3</t>
@@ -84648,31 +84192,27 @@
     <row r="2609">
       <c r="A2609" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2609" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2609" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY PrelJAN</t>
+          <t>Saxony CPI MoMJAN</t>
         </is>
       </c>
       <c r="D2609" t="inlineStr"/>
       <c r="E2609" t="inlineStr">
         <is>
-          <t>1.8%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F2609" t="inlineStr"/>
-      <c r="G2609" t="inlineStr">
-        <is>
-          <t>2.0%</t>
-        </is>
-      </c>
+      <c r="G2609" t="inlineStr"/>
       <c r="H2609" t="inlineStr">
         <is>
           <t>3</t>
@@ -84682,17 +84222,17 @@
     <row r="2610">
       <c r="A2610" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2610" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2610" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Saxony CPI YoYJAN</t>
         </is>
       </c>
       <c r="D2610" t="inlineStr"/>
@@ -84702,11 +84242,7 @@
         </is>
       </c>
       <c r="F2610" t="inlineStr"/>
-      <c r="G2610" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G2610" t="inlineStr"/>
       <c r="H2610" t="inlineStr">
         <is>
           <t>3</t>
@@ -84716,29 +84252,29 @@
     <row r="2611">
       <c r="A2611" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2611" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2611" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Current AccountNOV</t>
         </is>
       </c>
       <c r="D2611" t="inlineStr"/>
       <c r="E2611" t="inlineStr">
         <is>
-          <t>-5.2%</t>
+          <t>€4.9B</t>
         </is>
       </c>
       <c r="F2611" t="inlineStr"/>
       <c r="G2611" t="inlineStr">
         <is>
-          <t>-4.3%</t>
+          <t>€5.0B</t>
         </is>
       </c>
       <c r="H2611" t="inlineStr">
@@ -84750,23 +84286,23 @@
     <row r="2612">
       <c r="A2612" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2612" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2612" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D2612" t="inlineStr"/>
       <c r="E2612" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="F2612" t="inlineStr"/>
@@ -84784,23 +84320,23 @@
     <row r="2613">
       <c r="A2613" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2613" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2613" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D2613" t="inlineStr"/>
       <c r="E2613" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="F2613" t="inlineStr"/>
@@ -84818,27 +84354,31 @@
     <row r="2614">
       <c r="A2614" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B2614" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2614" t="inlineStr">
         <is>
-          <t>Tourist Arrivals YoYDEC</t>
+          <t>Government Budget ValueDEC</t>
         </is>
       </c>
       <c r="D2614" t="inlineStr"/>
       <c r="E2614" t="inlineStr">
         <is>
-          <t>8.25%</t>
+          <t>INR-8465.9B</t>
         </is>
       </c>
       <c r="F2614" t="inlineStr"/>
-      <c r="G2614" t="inlineStr"/>
+      <c r="G2614" t="inlineStr">
+        <is>
+          <t>INR-9700.0B</t>
+        </is>
+      </c>
       <c r="H2614" t="inlineStr">
         <is>
           <t>3</t>
@@ -84848,159 +84388,151 @@
     <row r="2615">
       <c r="A2615" t="inlineStr">
         <is>
-          <t>02:25 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2615" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2615" t="inlineStr">
         <is>
-          <t>Unemployment ChangeJAN</t>
+          <t>Gross Debt to GDPDEC</t>
         </is>
       </c>
       <c r="D2615" t="inlineStr"/>
       <c r="E2615" t="inlineStr">
         <is>
-          <t>10K</t>
-        </is>
-      </c>
-      <c r="F2615" t="inlineStr">
-        <is>
-          <t>15K</t>
-        </is>
-      </c>
+          <t>77.7%</t>
+        </is>
+      </c>
+      <c r="F2615" t="inlineStr"/>
       <c r="G2615" t="inlineStr">
         <is>
-          <t>7.0K</t>
+          <t>77.9%</t>
         </is>
       </c>
       <c r="H2615" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2616">
       <c r="A2616" t="inlineStr">
         <is>
-          <t>02:25 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2616" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2616" t="inlineStr">
         <is>
-          <t>Unemployed PersonsJAN</t>
+          <t>Nominal Budget BalanceDEC</t>
         </is>
       </c>
       <c r="D2616" t="inlineStr"/>
       <c r="E2616" t="inlineStr">
         <is>
-          <t>2.869M</t>
+          <t>BRL-99.1B</t>
         </is>
       </c>
       <c r="F2616" t="inlineStr"/>
       <c r="G2616" t="inlineStr">
         <is>
-          <t>2.876M</t>
+          <t>BRL-103.0B</t>
         </is>
       </c>
       <c r="H2616" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2617">
       <c r="A2617" t="inlineStr">
         <is>
-          <t>02:25 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2617" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2617" t="inlineStr">
         <is>
-          <t>Unemployment RateJAN</t>
+          <t>Bank Loan Growth YoYJAN/17</t>
         </is>
       </c>
       <c r="D2617" t="inlineStr"/>
       <c r="E2617" t="inlineStr">
         <is>
-          <t>6.1%</t>
-        </is>
-      </c>
-      <c r="F2617" t="inlineStr">
-        <is>
-          <t>6.2%</t>
-        </is>
-      </c>
-      <c r="G2617" t="inlineStr">
-        <is>
-          <t>6.2%</t>
-        </is>
-      </c>
+          <t>11.2%</t>
+        </is>
+      </c>
+      <c r="F2617" t="inlineStr"/>
+      <c r="G2617" t="inlineStr"/>
       <c r="H2617" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2618">
       <c r="A2618" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2618" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2618" t="inlineStr">
         <is>
-          <t>ECB Survey of Professional Forecasters</t>
+          <t>Deposit Growth YoYJAN/17</t>
         </is>
       </c>
       <c r="D2618" t="inlineStr"/>
-      <c r="E2618" t="inlineStr"/>
+      <c r="E2618" t="inlineStr">
+        <is>
+          <t>9.8%</t>
+        </is>
+      </c>
       <c r="F2618" t="inlineStr"/>
       <c r="G2618" t="inlineStr"/>
       <c r="H2618" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2619">
       <c r="A2619" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2619" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2619" t="inlineStr">
         <is>
-          <t>Baden Wuerttemberg CPI MoMJAN</t>
+          <t>Foreign Exchange ReservesJAN/24</t>
         </is>
       </c>
       <c r="D2619" t="inlineStr"/>
       <c r="E2619" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>$623.98B</t>
         </is>
       </c>
       <c r="F2619" t="inlineStr"/>
@@ -85014,27 +84546,31 @@
     <row r="2620">
       <c r="A2620" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2620" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2620" t="inlineStr">
         <is>
-          <t>Baden Wuerttemberg CPI YoYJAN</t>
+          <t>Infrastructure Output YoYDEC</t>
         </is>
       </c>
       <c r="D2620" t="inlineStr"/>
       <c r="E2620" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>4.3%</t>
         </is>
       </c>
       <c r="F2620" t="inlineStr"/>
-      <c r="G2620" t="inlineStr"/>
+      <c r="G2620" t="inlineStr">
+        <is>
+          <t>4.8%</t>
+        </is>
+      </c>
       <c r="H2620" t="inlineStr">
         <is>
           <t>3</t>
@@ -85044,67 +84580,75 @@
     <row r="2621">
       <c r="A2621" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2621" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2621" t="inlineStr">
         <is>
-          <t>Bavaria CPI MoMJAN</t>
+          <t>Unemployment RateDEC</t>
         </is>
       </c>
       <c r="D2621" t="inlineStr"/>
       <c r="E2621" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>6.1%</t>
         </is>
       </c>
       <c r="F2621" t="inlineStr"/>
-      <c r="G2621" t="inlineStr"/>
+      <c r="G2621" t="inlineStr">
+        <is>
+          <t>6.1%</t>
+        </is>
+      </c>
       <c r="H2621" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2622">
       <c r="A2622" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2622" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2622" t="inlineStr">
         <is>
-          <t>Bavaria CPI YoYJAN</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D2622" t="inlineStr"/>
       <c r="E2622" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>ZAR34.7B</t>
         </is>
       </c>
       <c r="F2622" t="inlineStr"/>
-      <c r="G2622" t="inlineStr"/>
+      <c r="G2622" t="inlineStr">
+        <is>
+          <t>ZAR 27.0B</t>
+        </is>
+      </c>
       <c r="H2622" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2623">
       <c r="A2623" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2623" t="inlineStr">
@@ -85114,27 +84658,35 @@
       </c>
       <c r="C2623" t="inlineStr">
         <is>
-          <t>Brandenburg CPI MoMJAN</t>
+          <t>Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2623" t="inlineStr"/>
       <c r="E2623" t="inlineStr">
         <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F2623" t="inlineStr"/>
-      <c r="G2623" t="inlineStr"/>
+          <t>2.6%</t>
+        </is>
+      </c>
+      <c r="F2623" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
+      <c r="G2623" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="H2623" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2624">
       <c r="A2624" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2624" t="inlineStr">
@@ -85144,27 +84696,35 @@
       </c>
       <c r="C2624" t="inlineStr">
         <is>
-          <t>Brandenburg CPI YoYJAN</t>
+          <t>Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2624" t="inlineStr"/>
       <c r="E2624" t="inlineStr">
         <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="F2624" t="inlineStr"/>
-      <c r="G2624" t="inlineStr"/>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="F2624" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="G2624" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H2624" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2625">
       <c r="A2625" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2625" t="inlineStr">
@@ -85174,17 +84734,21 @@
       </c>
       <c r="C2625" t="inlineStr">
         <is>
-          <t>Hesse CPI MoMJAN</t>
+          <t>Harmonised Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2625" t="inlineStr"/>
       <c r="E2625" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="F2625" t="inlineStr"/>
-      <c r="G2625" t="inlineStr"/>
+      <c r="G2625" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H2625" t="inlineStr">
         <is>
           <t>3</t>
@@ -85194,7 +84758,7 @@
     <row r="2626">
       <c r="A2626" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2626" t="inlineStr">
@@ -85204,17 +84768,25 @@
       </c>
       <c r="C2626" t="inlineStr">
         <is>
-          <t>Hesse CPI YoYJAN</t>
+          <t>Harmonised Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2626" t="inlineStr"/>
       <c r="E2626" t="inlineStr">
         <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="F2626" t="inlineStr"/>
-      <c r="G2626" t="inlineStr"/>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="F2626" t="inlineStr">
+        <is>
+          <t>2.9%</t>
+        </is>
+      </c>
+      <c r="G2626" t="inlineStr">
+        <is>
+          <t>3.0%</t>
+        </is>
+      </c>
       <c r="H2626" t="inlineStr">
         <is>
           <t>3</t>
@@ -85224,381 +84796,417 @@
     <row r="2627">
       <c r="A2627" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2627" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2627" t="inlineStr">
         <is>
-          <t>North Rhine Westphalia CPI MoMJAN</t>
+          <t>GDP MoMNOV</t>
         </is>
       </c>
       <c r="D2627" t="inlineStr"/>
       <c r="E2627" t="inlineStr">
         <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="F2627" t="inlineStr"/>
-      <c r="G2627" t="inlineStr"/>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="F2627" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="G2627" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
       <c r="H2627" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2628">
       <c r="A2628" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2628" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2628" t="inlineStr">
         <is>
-          <t>North Rhine Westphalia CPI YoYJAN</t>
+          <t>GDP MoM PrelDEC</t>
         </is>
       </c>
       <c r="D2628" t="inlineStr"/>
       <c r="E2628" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F2628" t="inlineStr"/>
-      <c r="G2628" t="inlineStr"/>
+      <c r="G2628" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H2628" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2629">
       <c r="A2629" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2629" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2629" t="inlineStr">
         <is>
-          <t>Saxony CPI MoMJAN</t>
+          <t>Core PCE Price Index MoMDEC</t>
         </is>
       </c>
       <c r="D2629" t="inlineStr"/>
       <c r="E2629" t="inlineStr">
         <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="F2629" t="inlineStr"/>
-      <c r="G2629" t="inlineStr"/>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F2629" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="G2629" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H2629" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2630">
       <c r="A2630" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2630" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2630" t="inlineStr">
         <is>
-          <t>Saxony CPI YoYJAN</t>
+          <t>Personal Income MoMDEC</t>
         </is>
       </c>
       <c r="D2630" t="inlineStr"/>
       <c r="E2630" t="inlineStr">
         <is>
-          <t>3.2%</t>
-        </is>
-      </c>
-      <c r="F2630" t="inlineStr"/>
-      <c r="G2630" t="inlineStr"/>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="F2630" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="G2630" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H2630" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2631">
       <c r="A2631" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2631" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2631" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>Personal Spending MoMDEC</t>
         </is>
       </c>
       <c r="D2631" t="inlineStr"/>
       <c r="E2631" t="inlineStr">
         <is>
-          <t>€4.9B</t>
-        </is>
-      </c>
-      <c r="F2631" t="inlineStr"/>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="F2631" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="G2631" t="inlineStr">
         <is>
-          <t>€5.0B</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H2631" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2632">
       <c r="A2632" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2632" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2632" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Employment Cost - Benefits QoQQ4</t>
         </is>
       </c>
       <c r="D2632" t="inlineStr"/>
       <c r="E2632" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F2632" t="inlineStr"/>
       <c r="G2632" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="H2632" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2633">
       <c r="A2633" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2633" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2633" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Employment Cost - Wages QoQQ4</t>
         </is>
       </c>
       <c r="D2633" t="inlineStr"/>
       <c r="E2633" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F2633" t="inlineStr"/>
       <c r="G2633" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="H2633" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2634">
       <c r="A2634" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2634" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2634" t="inlineStr">
         <is>
-          <t>Government Budget ValueDEC</t>
+          <t>Employment Cost Index QoQQ4</t>
         </is>
       </c>
       <c r="D2634" t="inlineStr"/>
       <c r="E2634" t="inlineStr">
         <is>
-          <t>INR-8465.9B</t>
-        </is>
-      </c>
-      <c r="F2634" t="inlineStr"/>
+          <t>0.8%</t>
+        </is>
+      </c>
+      <c r="F2634" t="inlineStr">
+        <is>
+          <t>1%</t>
+        </is>
+      </c>
       <c r="G2634" t="inlineStr">
         <is>
-          <t>INR-9700.0B</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="H2634" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2635">
       <c r="A2635" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2635" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2635" t="inlineStr">
         <is>
-          <t>Gross Debt to GDPDEC</t>
+          <t>Fed Bowman Speech</t>
         </is>
       </c>
       <c r="D2635" t="inlineStr"/>
-      <c r="E2635" t="inlineStr">
-        <is>
-          <t>77.7%</t>
-        </is>
-      </c>
+      <c r="E2635" t="inlineStr"/>
       <c r="F2635" t="inlineStr"/>
-      <c r="G2635" t="inlineStr">
-        <is>
-          <t>77.9%</t>
-        </is>
-      </c>
+      <c r="G2635" t="inlineStr"/>
       <c r="H2635" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2636">
       <c r="A2636" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2636" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2636" t="inlineStr">
         <is>
-          <t>Nominal Budget BalanceDEC</t>
+          <t>PCE Price Index MoMDEC</t>
         </is>
       </c>
       <c r="D2636" t="inlineStr"/>
       <c r="E2636" t="inlineStr">
         <is>
-          <t>BRL-99.1B</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2636" t="inlineStr"/>
       <c r="G2636" t="inlineStr">
         <is>
-          <t>BRL-103.0B</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H2636" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2637">
       <c r="A2637" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2637" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2637" t="inlineStr">
         <is>
-          <t>Bank Loan Growth YoYJAN/17</t>
+          <t>PCE Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D2637" t="inlineStr"/>
       <c r="E2637" t="inlineStr">
         <is>
-          <t>11.2%</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F2637" t="inlineStr"/>
-      <c r="G2637" t="inlineStr"/>
+      <c r="G2637" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="H2637" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2638">
       <c r="A2638" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2638" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2638" t="inlineStr">
         <is>
-          <t>Deposit Growth YoYJAN/17</t>
+          <t>Core PCE Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D2638" t="inlineStr"/>
       <c r="E2638" t="inlineStr">
         <is>
-          <t>9.8%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="F2638" t="inlineStr"/>
-      <c r="G2638" t="inlineStr"/>
+      <c r="G2638" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
       <c r="H2638" t="inlineStr">
         <is>
           <t>3</t>
@@ -85608,59 +85216,67 @@
     <row r="2639">
       <c r="A2639" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B2639" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2639" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/24</t>
+          <t>Chicago PMIJAN</t>
         </is>
       </c>
       <c r="D2639" t="inlineStr"/>
       <c r="E2639" t="inlineStr">
         <is>
-          <t>$623.98B</t>
-        </is>
-      </c>
-      <c r="F2639" t="inlineStr"/>
-      <c r="G2639" t="inlineStr"/>
+          <t>36.9</t>
+        </is>
+      </c>
+      <c r="F2639" t="inlineStr">
+        <is>
+          <t>39.9</t>
+        </is>
+      </c>
+      <c r="G2639" t="inlineStr">
+        <is>
+          <t>37.2</t>
+        </is>
+      </c>
       <c r="H2639" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2640">
       <c r="A2640" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B2640" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2640" t="inlineStr">
         <is>
-          <t>Infrastructure Output YoYDEC</t>
+          <t>Budget BalanceNOV</t>
         </is>
       </c>
       <c r="D2640" t="inlineStr"/>
       <c r="E2640" t="inlineStr">
         <is>
-          <t>4.3%</t>
+          <t>C$-1.49B</t>
         </is>
       </c>
       <c r="F2640" t="inlineStr"/>
       <c r="G2640" t="inlineStr">
         <is>
-          <t>4.8%</t>
+          <t>C$-1.9B</t>
         </is>
       </c>
       <c r="H2640" t="inlineStr">
@@ -85672,173 +85288,145 @@
     <row r="2641">
       <c r="A2641" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B2641" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2641" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>Baker Hughes Oil Rig CountJAN/31</t>
         </is>
       </c>
       <c r="D2641" t="inlineStr"/>
       <c r="E2641" t="inlineStr">
         <is>
-          <t>6.1%</t>
+          <t>472</t>
         </is>
       </c>
       <c r="F2641" t="inlineStr"/>
-      <c r="G2641" t="inlineStr">
-        <is>
-          <t>6.1%</t>
-        </is>
-      </c>
+      <c r="G2641" t="inlineStr"/>
       <c r="H2641" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2642">
       <c r="A2642" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B2642" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2642" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Baker Hughes Total Rigs CountJAN/31</t>
         </is>
       </c>
       <c r="D2642" t="inlineStr"/>
       <c r="E2642" t="inlineStr">
         <is>
-          <t>ZAR34.7B</t>
+          <t>576</t>
         </is>
       </c>
       <c r="F2642" t="inlineStr"/>
-      <c r="G2642" t="inlineStr">
-        <is>
-          <t>ZAR 27.0B</t>
-        </is>
-      </c>
+      <c r="G2642" t="inlineStr"/>
       <c r="H2642" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2643">
-      <c r="A2643" t="inlineStr">
-        <is>
-          <t>06:30 PM</t>
-        </is>
-      </c>
+      <c r="A2643" t="inlineStr"/>
       <c r="B2643" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2643" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelJAN</t>
+          <t>Fiscal BalanceDEC</t>
         </is>
       </c>
       <c r="D2643" t="inlineStr"/>
       <c r="E2643" t="inlineStr">
         <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="F2643" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
+          <t>MXN-1064.93B</t>
+        </is>
+      </c>
+      <c r="F2643" t="inlineStr"/>
       <c r="G2643" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>MXN-1120.0B</t>
         </is>
       </c>
       <c r="H2643" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2644">
-      <c r="A2644" t="inlineStr">
-        <is>
-          <t>06:30 PM</t>
-        </is>
-      </c>
+      <c r="A2644" t="inlineStr"/>
       <c r="B2644" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2644" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM PrelJAN</t>
+          <t>CoreLogic Dwelling Prices MoMJAN</t>
         </is>
       </c>
       <c r="D2644" t="inlineStr"/>
       <c r="E2644" t="inlineStr">
         <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="F2644" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="F2644" t="inlineStr"/>
       <c r="G2644" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="H2644" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2645">
-      <c r="A2645" t="inlineStr">
-        <is>
-          <t>06:30 PM</t>
-        </is>
-      </c>
+      <c r="A2645" t="inlineStr"/>
       <c r="B2645" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2645" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM PrelJAN</t>
+          <t>Consumer Inflation ExpectationsDEC</t>
         </is>
       </c>
       <c r="D2645" t="inlineStr"/>
       <c r="E2645" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F2645" t="inlineStr"/>
       <c r="G2645" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="H2645" t="inlineStr">
@@ -85848,35 +85436,27 @@
       </c>
     </row>
     <row r="2646">
-      <c r="A2646" t="inlineStr">
-        <is>
-          <t>06:30 PM</t>
-        </is>
-      </c>
+      <c r="A2646" t="inlineStr"/>
       <c r="B2646" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2646" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY PrelJAN</t>
+          <t>New Car Registrations YoYJAN</t>
         </is>
       </c>
       <c r="D2646" t="inlineStr"/>
       <c r="E2646" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F2646" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
+          <t>1.5%</t>
+        </is>
+      </c>
+      <c r="F2646" t="inlineStr"/>
       <c r="G2646" t="inlineStr">
         <is>
-          <t>3.0%</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="H2646" t="inlineStr">
@@ -85886,315 +85466,247 @@
       </c>
     </row>
     <row r="2647">
-      <c r="A2647" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A2647" t="inlineStr"/>
       <c r="B2647" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2647" t="inlineStr">
         <is>
-          <t>GDP MoMNOV</t>
+          <t>New Car Sales YoYJAN</t>
         </is>
       </c>
       <c r="D2647" t="inlineStr"/>
       <c r="E2647" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F2647" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
+          <t>28.8%</t>
+        </is>
+      </c>
+      <c r="F2647" t="inlineStr"/>
       <c r="G2647" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>2.5%</t>
         </is>
       </c>
       <c r="H2647" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2648">
-      <c r="A2648" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A2648" t="inlineStr"/>
       <c r="B2648" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2648" t="inlineStr">
         <is>
-          <t>GDP MoM PrelDEC</t>
+          <t>New Car Registrations YoYJAN</t>
         </is>
       </c>
       <c r="D2648" t="inlineStr"/>
       <c r="E2648" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>-4.9%</t>
         </is>
       </c>
       <c r="F2648" t="inlineStr"/>
       <c r="G2648" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>-4.0%</t>
         </is>
       </c>
       <c r="H2648" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2649">
-      <c r="A2649" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A2649" t="inlineStr"/>
       <c r="B2649" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2649" t="inlineStr">
         <is>
-          <t>Core PCE Price Index MoMDEC</t>
+          <t>M2 Money Supply YoYDEC</t>
         </is>
       </c>
       <c r="D2649" t="inlineStr"/>
       <c r="E2649" t="inlineStr">
         <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F2649" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>20%</t>
+        </is>
+      </c>
+      <c r="F2649" t="inlineStr"/>
       <c r="G2649" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>20.7%</t>
         </is>
       </c>
       <c r="H2649" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2650">
       <c r="A2650" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2650" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2650" t="inlineStr">
-        <is>
-          <t>Personal Income MoMDEC</t>
-        </is>
-      </c>
+          <t>Saturday February 01 2025</t>
+        </is>
+      </c>
+      <c r="B2650" t="inlineStr"/>
+      <c r="C2650" t="inlineStr"/>
       <c r="D2650" t="inlineStr"/>
-      <c r="E2650" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F2650" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G2650" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H2650" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="E2650" t="inlineStr"/>
+      <c r="F2650" t="inlineStr"/>
+      <c r="G2650" t="inlineStr"/>
+      <c r="H2650" t="inlineStr"/>
     </row>
     <row r="2651">
       <c r="A2651" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B2651" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2651" t="inlineStr">
         <is>
-          <t>Personal Spending MoMDEC</t>
+          <t>Exports YoYJAN</t>
         </is>
       </c>
       <c r="D2651" t="inlineStr"/>
       <c r="E2651" t="inlineStr">
         <is>
+          <t>6.6%</t>
+        </is>
+      </c>
+      <c r="F2651" t="inlineStr"/>
+      <c r="G2651" t="inlineStr">
+        <is>
           <t>0.4%</t>
         </is>
       </c>
-      <c r="F2651" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G2651" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
       <c r="H2651" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2652">
       <c r="A2652" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B2652" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2652" t="inlineStr">
         <is>
-          <t>Employment Cost - Benefits QoQQ4</t>
+          <t>Balance of TradeJAN</t>
         </is>
       </c>
       <c r="D2652" t="inlineStr"/>
       <c r="E2652" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>$6.49B</t>
         </is>
       </c>
       <c r="F2652" t="inlineStr"/>
       <c r="G2652" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>$0.9B</t>
         </is>
       </c>
       <c r="H2652" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2653">
       <c r="A2653" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B2653" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2653" t="inlineStr">
         <is>
-          <t>Employment Cost - Wages QoQQ4</t>
+          <t>Imports YoYJAN</t>
         </is>
       </c>
       <c r="D2653" t="inlineStr"/>
       <c r="E2653" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="F2653" t="inlineStr"/>
       <c r="G2653" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H2653" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2654">
       <c r="A2654" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2654" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2654" t="inlineStr">
-        <is>
-          <t>Employment Cost Index QoQQ4</t>
-        </is>
-      </c>
+          <t>Monday February 03 2025</t>
+        </is>
+      </c>
+      <c r="B2654" t="inlineStr"/>
+      <c r="C2654" t="inlineStr"/>
       <c r="D2654" t="inlineStr"/>
-      <c r="E2654" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="F2654" t="inlineStr">
-        <is>
-          <t>1%</t>
-        </is>
-      </c>
-      <c r="G2654" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="H2654" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="E2654" t="inlineStr"/>
+      <c r="F2654" t="inlineStr"/>
+      <c r="G2654" t="inlineStr"/>
+      <c r="H2654" t="inlineStr"/>
     </row>
     <row r="2655">
       <c r="A2655" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>03:30 AM</t>
         </is>
       </c>
       <c r="B2655" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2655" t="inlineStr">
         <is>
-          <t>Fed Bowman Speech</t>
+          <t>S&amp;P Global Australia Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2655" t="inlineStr"/>
-      <c r="E2655" t="inlineStr"/>
+      <c r="E2655" t="inlineStr">
+        <is>
+          <t>47.8</t>
+        </is>
+      </c>
       <c r="F2655" t="inlineStr"/>
       <c r="G2655" t="inlineStr"/>
       <c r="H2655" t="inlineStr">
@@ -86206,97 +85718,97 @@
     <row r="2656">
       <c r="A2656" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B2656" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2656" t="inlineStr">
         <is>
-          <t>PCE Price Index MoMDEC</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="D2656" t="inlineStr"/>
       <c r="E2656" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="F2656" t="inlineStr"/>
       <c r="G2656" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="H2656" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2657">
       <c r="A2657" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B2657" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2657" t="inlineStr">
         <is>
-          <t>PCE Price Index YoYDEC</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D2657" t="inlineStr"/>
       <c r="E2657" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2657" t="inlineStr"/>
       <c r="G2657" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="H2657" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2658">
       <c r="A2658" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B2658" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2658" t="inlineStr">
         <is>
-          <t>Core PCE Price Index YoYDEC</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D2658" t="inlineStr"/>
       <c r="E2658" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F2658" t="inlineStr"/>
       <c r="G2658" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H2658" t="inlineStr">
@@ -86308,35 +85820,23 @@
     <row r="2659">
       <c r="A2659" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B2659" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2659" t="inlineStr">
         <is>
-          <t>Chicago PMIJAN</t>
+          <t>BoJ Summary of Opinions</t>
         </is>
       </c>
       <c r="D2659" t="inlineStr"/>
-      <c r="E2659" t="inlineStr">
-        <is>
-          <t>36.9</t>
-        </is>
-      </c>
-      <c r="F2659" t="inlineStr">
-        <is>
-          <t>39.9</t>
-        </is>
-      </c>
-      <c r="G2659" t="inlineStr">
-        <is>
-          <t>37.2</t>
-        </is>
-      </c>
+      <c r="E2659" t="inlineStr"/>
+      <c r="F2659" t="inlineStr"/>
+      <c r="G2659" t="inlineStr"/>
       <c r="H2659" t="inlineStr">
         <is>
           <t>2</t>
@@ -86346,87 +85846,91 @@
     <row r="2660">
       <c r="A2660" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2660" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2660" t="inlineStr">
         <is>
-          <t>Budget BalanceNOV</t>
+          <t>Building Permits MoM PrelDEC</t>
         </is>
       </c>
       <c r="D2660" t="inlineStr"/>
       <c r="E2660" t="inlineStr">
         <is>
-          <t>C$-1.49B</t>
+          <t>-3.6%</t>
         </is>
       </c>
       <c r="F2660" t="inlineStr"/>
       <c r="G2660" t="inlineStr">
         <is>
-          <t>C$-1.9B</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="H2660" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2661">
       <c r="A2661" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2661" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2661" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/31</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D2661" t="inlineStr"/>
       <c r="E2661" t="inlineStr">
         <is>
-          <t>472</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F2661" t="inlineStr"/>
-      <c r="G2661" t="inlineStr"/>
+      <c r="G2661" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H2661" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2662">
       <c r="A2662" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2662" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2662" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/31</t>
+          <t>ANZ-Indeed Job Ads MoMJAN</t>
         </is>
       </c>
       <c r="D2662" t="inlineStr"/>
       <c r="E2662" t="inlineStr">
         <is>
-          <t>576</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F2662" t="inlineStr"/>
@@ -86438,29 +85942,29 @@
       </c>
     </row>
     <row r="2663">
-      <c r="A2663" t="inlineStr"/>
+      <c r="A2663" t="inlineStr">
+        <is>
+          <t>06:00 AM</t>
+        </is>
+      </c>
       <c r="B2663" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2663" t="inlineStr">
         <is>
-          <t>Fiscal BalanceDEC</t>
+          <t>Private House Approvals MoM PrelDEC</t>
         </is>
       </c>
       <c r="D2663" t="inlineStr"/>
       <c r="E2663" t="inlineStr">
         <is>
-          <t>MXN-1064.93B</t>
+          <t>-1.7%</t>
         </is>
       </c>
       <c r="F2663" t="inlineStr"/>
-      <c r="G2663" t="inlineStr">
-        <is>
-          <t>MXN-1120.0B</t>
-        </is>
-      </c>
+      <c r="G2663" t="inlineStr"/>
       <c r="H2663" t="inlineStr">
         <is>
           <t>3</t>
@@ -86468,27 +85972,31 @@
       </c>
     </row>
     <row r="2664">
-      <c r="A2664" t="inlineStr"/>
+      <c r="A2664" t="inlineStr">
+        <is>
+          <t>06:00 AM</t>
+        </is>
+      </c>
       <c r="B2664" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2664" t="inlineStr">
         <is>
-          <t>CoreLogic Dwelling Prices MoMJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2664" t="inlineStr"/>
       <c r="E2664" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>51.2</t>
         </is>
       </c>
       <c r="F2664" t="inlineStr"/>
       <c r="G2664" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>51.6</t>
         </is>
       </c>
       <c r="H2664" t="inlineStr">
@@ -86498,147 +86006,175 @@
       </c>
     </row>
     <row r="2665">
-      <c r="A2665" t="inlineStr"/>
+      <c r="A2665" t="inlineStr">
+        <is>
+          <t>06:00 AM</t>
+        </is>
+      </c>
       <c r="B2665" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2665" t="inlineStr">
         <is>
-          <t>Consumer Inflation ExpectationsDEC</t>
+          <t>Jibun Bank Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2665" t="inlineStr"/>
       <c r="E2665" t="inlineStr">
         <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="F2665" t="inlineStr"/>
+          <t>49.6</t>
+        </is>
+      </c>
+      <c r="F2665" t="inlineStr">
+        <is>
+          <t>48.8</t>
+        </is>
+      </c>
       <c r="G2665" t="inlineStr">
         <is>
-          <t>2.2%</t>
+          <t>48.8</t>
         </is>
       </c>
       <c r="H2665" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2666">
-      <c r="A2666" t="inlineStr"/>
+      <c r="A2666" t="inlineStr">
+        <is>
+          <t>06:00 AM</t>
+        </is>
+      </c>
       <c r="B2666" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2666" t="inlineStr">
         <is>
-          <t>New Car Registrations YoYJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2666" t="inlineStr"/>
       <c r="E2666" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>49</t>
         </is>
       </c>
       <c r="F2666" t="inlineStr"/>
       <c r="G2666" t="inlineStr">
         <is>
-          <t>2.2%</t>
+          <t>49.5</t>
         </is>
       </c>
       <c r="H2666" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2667">
-      <c r="A2667" t="inlineStr"/>
+      <c r="A2667" t="inlineStr">
+        <is>
+          <t>07:15 AM</t>
+        </is>
+      </c>
       <c r="B2667" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2667" t="inlineStr">
         <is>
-          <t>New Car Sales YoYJAN</t>
+          <t>Caixin Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2667" t="inlineStr"/>
       <c r="E2667" t="inlineStr">
         <is>
-          <t>28.8%</t>
-        </is>
-      </c>
-      <c r="F2667" t="inlineStr"/>
+          <t>50.5</t>
+        </is>
+      </c>
+      <c r="F2667" t="inlineStr">
+        <is>
+          <t>50.5</t>
+        </is>
+      </c>
       <c r="G2667" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>50.5</t>
         </is>
       </c>
       <c r="H2667" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2668">
-      <c r="A2668" t="inlineStr"/>
+      <c r="A2668" t="inlineStr">
+        <is>
+          <t>09:30 AM</t>
+        </is>
+      </c>
       <c r="B2668" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2668" t="inlineStr">
         <is>
-          <t>New Car Registrations YoYJAN</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2668" t="inlineStr"/>
       <c r="E2668" t="inlineStr">
         <is>
-          <t>-4.9%</t>
+          <t>1.57%</t>
         </is>
       </c>
       <c r="F2668" t="inlineStr"/>
       <c r="G2668" t="inlineStr">
         <is>
-          <t>-4.0%</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="H2668" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2669">
-      <c r="A2669" t="inlineStr"/>
+      <c r="A2669" t="inlineStr">
+        <is>
+          <t>09:30 AM</t>
+        </is>
+      </c>
       <c r="B2669" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2669" t="inlineStr">
         <is>
-          <t>M2 Money Supply YoYDEC</t>
+          <t>Core Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2669" t="inlineStr"/>
       <c r="E2669" t="inlineStr">
         <is>
-          <t>20%</t>
+          <t>2.26%</t>
         </is>
       </c>
       <c r="F2669" t="inlineStr"/>
       <c r="G2669" t="inlineStr">
         <is>
-          <t>20.7%</t>
+          <t>2.3%</t>
         </is>
       </c>
       <c r="H2669" t="inlineStr">
@@ -86650,77 +86186,101 @@
     <row r="2670">
       <c r="A2670" t="inlineStr">
         <is>
-          <t>Saturday February 01 2025</t>
-        </is>
-      </c>
-      <c r="B2670" t="inlineStr"/>
-      <c r="C2670" t="inlineStr"/>
+          <t>09:30 AM</t>
+        </is>
+      </c>
+      <c r="B2670" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="C2670" t="inlineStr">
+        <is>
+          <t>Inflation Rate MoMJAN</t>
+        </is>
+      </c>
       <c r="D2670" t="inlineStr"/>
-      <c r="E2670" t="inlineStr"/>
+      <c r="E2670" t="inlineStr">
+        <is>
+          <t>0.44%</t>
+        </is>
+      </c>
       <c r="F2670" t="inlineStr"/>
-      <c r="G2670" t="inlineStr"/>
-      <c r="H2670" t="inlineStr"/>
+      <c r="G2670" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="H2670" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2671">
       <c r="A2671" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>10:15 AM</t>
         </is>
       </c>
       <c r="B2671" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2671" t="inlineStr">
         <is>
-          <t>Exports YoYJAN</t>
+          <t>Tourist Arrivals YoYDEC</t>
         </is>
       </c>
       <c r="D2671" t="inlineStr"/>
       <c r="E2671" t="inlineStr">
         <is>
-          <t>6.6%</t>
+          <t>17.27%</t>
         </is>
       </c>
       <c r="F2671" t="inlineStr"/>
       <c r="G2671" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>18.0%</t>
         </is>
       </c>
       <c r="H2671" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2672">
       <c r="A2672" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2672" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2672" t="inlineStr">
         <is>
-          <t>Balance of TradeJAN</t>
+          <t>HSBC Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2672" t="inlineStr"/>
       <c r="E2672" t="inlineStr">
         <is>
-          <t>$6.49B</t>
-        </is>
-      </c>
-      <c r="F2672" t="inlineStr"/>
+          <t>56.4</t>
+        </is>
+      </c>
+      <c r="F2672" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
       <c r="G2672" t="inlineStr">
         <is>
-          <t>$0.9B</t>
+          <t>58</t>
         </is>
       </c>
       <c r="H2672" t="inlineStr">
@@ -86732,7 +86292,7 @@
     <row r="2673">
       <c r="A2673" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2673" t="inlineStr">
@@ -86742,21 +86302,17 @@
       </c>
       <c r="C2673" t="inlineStr">
         <is>
-          <t>Imports YoYJAN</t>
+          <t>2-Year KTB Auction</t>
         </is>
       </c>
       <c r="D2673" t="inlineStr"/>
       <c r="E2673" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>2.670%</t>
         </is>
       </c>
       <c r="F2673" t="inlineStr"/>
-      <c r="G2673" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
+      <c r="G2673" t="inlineStr"/>
       <c r="H2673" t="inlineStr">
         <is>
           <t>3</t>
@@ -86766,37 +86322,53 @@
     <row r="2674">
       <c r="A2674" t="inlineStr">
         <is>
-          <t>Monday February 03 2025</t>
-        </is>
-      </c>
-      <c r="B2674" t="inlineStr"/>
-      <c r="C2674" t="inlineStr"/>
+          <t>11:00 AM</t>
+        </is>
+      </c>
+      <c r="B2674" t="inlineStr">
+        <is>
+          <t>AU</t>
+        </is>
+      </c>
+      <c r="C2674" t="inlineStr">
+        <is>
+          <t>Commodity Prices YoYJAN</t>
+        </is>
+      </c>
       <c r="D2674" t="inlineStr"/>
-      <c r="E2674" t="inlineStr"/>
+      <c r="E2674" t="inlineStr">
+        <is>
+          <t>-10.7%</t>
+        </is>
+      </c>
       <c r="F2674" t="inlineStr"/>
       <c r="G2674" t="inlineStr"/>
-      <c r="H2674" t="inlineStr"/>
+      <c r="H2674" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2675">
       <c r="A2675" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B2675" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2675" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Manufacturing PMI FinalJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2675" t="inlineStr"/>
       <c r="E2675" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>50.8</t>
         </is>
       </c>
       <c r="F2675" t="inlineStr"/>
@@ -86810,99 +86382,87 @@
     <row r="2676">
       <c r="A2676" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2676" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2676" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2676" t="inlineStr"/>
       <c r="E2676" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>1.03%</t>
         </is>
       </c>
       <c r="F2676" t="inlineStr"/>
-      <c r="G2676" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
+      <c r="G2676" t="inlineStr"/>
       <c r="H2676" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2677">
       <c r="A2677" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2677" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2677" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2677" t="inlineStr"/>
       <c r="E2677" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>44.38%</t>
         </is>
       </c>
       <c r="F2677" t="inlineStr"/>
-      <c r="G2677" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="G2677" t="inlineStr"/>
       <c r="H2677" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2678">
       <c r="A2678" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2678" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2678" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Istanbul Chamber of Industry Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2678" t="inlineStr"/>
       <c r="E2678" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>49.1</t>
         </is>
       </c>
       <c r="F2678" t="inlineStr"/>
-      <c r="G2678" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G2678" t="inlineStr"/>
       <c r="H2678" t="inlineStr">
         <is>
           <t>3</t>
@@ -86912,91 +86472,87 @@
     <row r="2679">
       <c r="A2679" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2679" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2679" t="inlineStr">
         <is>
-          <t>BoJ Summary of Opinions</t>
+          <t>PPI MoMJAN</t>
         </is>
       </c>
       <c r="D2679" t="inlineStr"/>
-      <c r="E2679" t="inlineStr"/>
+      <c r="E2679" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="F2679" t="inlineStr"/>
       <c r="G2679" t="inlineStr"/>
       <c r="H2679" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2680">
       <c r="A2680" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2680" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2680" t="inlineStr">
         <is>
-          <t>Building Permits MoM PrelDEC</t>
+          <t>PPI YoYJAN</t>
         </is>
       </c>
       <c r="D2680" t="inlineStr"/>
       <c r="E2680" t="inlineStr">
         <is>
-          <t>-3.6%</t>
+          <t>28.52%</t>
         </is>
       </c>
       <c r="F2680" t="inlineStr"/>
-      <c r="G2680" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
+      <c r="G2680" t="inlineStr"/>
       <c r="H2680" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2681">
       <c r="A2681" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2681" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2681" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Unemployment ChangeJAN</t>
         </is>
       </c>
       <c r="D2681" t="inlineStr"/>
       <c r="E2681" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>-25.3K</t>
         </is>
       </c>
       <c r="F2681" t="inlineStr"/>
-      <c r="G2681" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G2681" t="inlineStr"/>
       <c r="H2681" t="inlineStr">
         <is>
           <t>2</t>
@@ -87006,25 +86562,21 @@
     <row r="2682">
       <c r="A2682" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2682" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2682" t="inlineStr">
         <is>
-          <t>ANZ-Indeed Job Ads MoMJAN</t>
+          <t>Tourist Arrivals YoYDEC</t>
         </is>
       </c>
       <c r="D2682" t="inlineStr"/>
-      <c r="E2682" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="E2682" t="inlineStr"/>
       <c r="F2682" t="inlineStr"/>
       <c r="G2682" t="inlineStr"/>
       <c r="H2682" t="inlineStr">
@@ -87036,97 +86588,93 @@
     <row r="2683">
       <c r="A2683" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B2683" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2683" t="inlineStr">
         <is>
-          <t>Private House Approvals MoM PrelDEC</t>
+          <t>HCOB Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2683" t="inlineStr"/>
       <c r="E2683" t="inlineStr">
         <is>
-          <t>-1.7%</t>
+          <t>53.3</t>
         </is>
       </c>
       <c r="F2683" t="inlineStr"/>
       <c r="G2683" t="inlineStr"/>
       <c r="H2683" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2684">
       <c r="A2684" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:15 PM</t>
         </is>
       </c>
       <c r="B2684" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2684" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>HCOB Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2684" t="inlineStr"/>
       <c r="E2684" t="inlineStr">
         <is>
-          <t>51.2</t>
+          <t>46.2</t>
         </is>
       </c>
       <c r="F2684" t="inlineStr"/>
-      <c r="G2684" t="inlineStr">
-        <is>
-          <t>51.6</t>
-        </is>
-      </c>
+      <c r="G2684" t="inlineStr"/>
       <c r="H2684" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2685">
       <c r="A2685" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:20 PM</t>
         </is>
       </c>
       <c r="B2685" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2685" t="inlineStr">
         <is>
-          <t>Jibun Bank Manufacturing PMI FinalJAN</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2685" t="inlineStr"/>
       <c r="E2685" t="inlineStr">
         <is>
-          <t>49.6</t>
+          <t>41.9</t>
         </is>
       </c>
       <c r="F2685" t="inlineStr">
         <is>
-          <t>48.8</t>
+          <t>45.3</t>
         </is>
       </c>
       <c r="G2685" t="inlineStr">
         <is>
-          <t>48.8</t>
+          <t>45.3</t>
         </is>
       </c>
       <c r="H2685" t="inlineStr">
@@ -87138,29 +86686,33 @@
     <row r="2686">
       <c r="A2686" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:25 PM</t>
         </is>
       </c>
       <c r="B2686" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2686" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2686" t="inlineStr"/>
       <c r="E2686" t="inlineStr">
         <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="F2686" t="inlineStr"/>
+          <t>42.5</t>
+        </is>
+      </c>
+      <c r="F2686" t="inlineStr">
+        <is>
+          <t>44.1</t>
+        </is>
+      </c>
       <c r="G2686" t="inlineStr">
         <is>
-          <t>49.5</t>
+          <t>44.1</t>
         </is>
       </c>
       <c r="H2686" t="inlineStr">
@@ -87172,235 +86724,215 @@
     <row r="2687">
       <c r="A2687" t="inlineStr">
         <is>
-          <t>07:15 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2687" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2687" t="inlineStr">
         <is>
-          <t>Caixin Manufacturing PMIJAN</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2687" t="inlineStr"/>
       <c r="E2687" t="inlineStr">
         <is>
-          <t>50.5</t>
+          <t>45.1</t>
         </is>
       </c>
       <c r="F2687" t="inlineStr">
         <is>
-          <t>50.5</t>
+          <t>46.1</t>
         </is>
       </c>
       <c r="G2687" t="inlineStr">
         <is>
-          <t>50.5</t>
+          <t>46.1</t>
         </is>
       </c>
       <c r="H2687" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2688">
       <c r="A2688" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2688" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2688" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>ABSA Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2688" t="inlineStr"/>
       <c r="E2688" t="inlineStr">
         <is>
-          <t>1.57%</t>
+          <t>46.2</t>
         </is>
       </c>
       <c r="F2688" t="inlineStr"/>
       <c r="G2688" t="inlineStr">
         <is>
-          <t>1.7%</t>
+          <t>47</t>
         </is>
       </c>
       <c r="H2688" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2689">
       <c r="A2689" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B2689" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2689" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2689" t="inlineStr"/>
       <c r="E2689" t="inlineStr">
         <is>
-          <t>2.26%</t>
-        </is>
-      </c>
-      <c r="F2689" t="inlineStr"/>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="F2689" t="inlineStr">
+        <is>
+          <t>48.2</t>
+        </is>
+      </c>
       <c r="G2689" t="inlineStr">
         <is>
-          <t>2.3%</t>
+          <t>48.2</t>
         </is>
       </c>
       <c r="H2689" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2690">
       <c r="A2690" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2690" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2690" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Inflation Rate YoY FlashJAN</t>
         </is>
       </c>
       <c r="D2690" t="inlineStr"/>
-      <c r="E2690" t="inlineStr">
-        <is>
-          <t>0.44%</t>
-        </is>
-      </c>
+      <c r="E2690" t="inlineStr"/>
       <c r="F2690" t="inlineStr"/>
-      <c r="G2690" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G2690" t="inlineStr"/>
       <c r="H2690" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2691">
       <c r="A2691" t="inlineStr">
         <is>
-          <t>10:15 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2691" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2691" t="inlineStr">
         <is>
-          <t>Tourist Arrivals YoYDEC</t>
+          <t>Core Inflation Rate YoY FlashJAN</t>
         </is>
       </c>
       <c r="D2691" t="inlineStr"/>
       <c r="E2691" t="inlineStr">
         <is>
-          <t>17.27%</t>
+          <t>2.7%</t>
         </is>
       </c>
       <c r="F2691" t="inlineStr"/>
-      <c r="G2691" t="inlineStr">
-        <is>
-          <t>18.0%</t>
-        </is>
-      </c>
+      <c r="G2691" t="inlineStr"/>
       <c r="H2691" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2692">
       <c r="A2692" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2692" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2692" t="inlineStr">
         <is>
-          <t>HSBC Manufacturing PMI FinalJAN</t>
+          <t>Inflation Rate MoM FlashJAN</t>
         </is>
       </c>
       <c r="D2692" t="inlineStr"/>
-      <c r="E2692" t="inlineStr">
-        <is>
-          <t>56.4</t>
-        </is>
-      </c>
-      <c r="F2692" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="G2692" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
+      <c r="E2692" t="inlineStr"/>
+      <c r="F2692" t="inlineStr"/>
+      <c r="G2692" t="inlineStr"/>
       <c r="H2692" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2693">
       <c r="A2693" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2693" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2693" t="inlineStr">
         <is>
-          <t>2-Year KTB Auction</t>
+          <t>CPI FlashJAN</t>
         </is>
       </c>
       <c r="D2693" t="inlineStr"/>
       <c r="E2693" t="inlineStr">
         <is>
-          <t>2.670%</t>
+          <t>127.07</t>
         </is>
       </c>
       <c r="F2693" t="inlineStr"/>
@@ -87414,53 +86946,53 @@
     <row r="2694">
       <c r="A2694" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2694" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2694" t="inlineStr">
         <is>
-          <t>Commodity Prices YoYJAN</t>
+          <t>Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2694" t="inlineStr"/>
       <c r="E2694" t="inlineStr">
         <is>
-          <t>-10.7%</t>
+          <t>1.3%</t>
         </is>
       </c>
       <c r="F2694" t="inlineStr"/>
       <c r="G2694" t="inlineStr"/>
       <c r="H2694" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2695">
       <c r="A2695" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2695" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2695" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2695" t="inlineStr"/>
       <c r="E2695" t="inlineStr">
         <is>
-          <t>50.8</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2695" t="inlineStr"/>
@@ -87474,87 +87006,91 @@
     <row r="2696">
       <c r="A2696" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2696" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2696" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Harmonised Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2696" t="inlineStr"/>
       <c r="E2696" t="inlineStr">
         <is>
-          <t>1.03%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2696" t="inlineStr"/>
       <c r="G2696" t="inlineStr"/>
       <c r="H2696" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2697">
       <c r="A2697" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2697" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2697" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>Harmonised Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2697" t="inlineStr"/>
       <c r="E2697" t="inlineStr">
         <is>
-          <t>44.38%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F2697" t="inlineStr"/>
       <c r="G2697" t="inlineStr"/>
       <c r="H2697" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2698">
       <c r="A2698" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2698" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2698" t="inlineStr">
         <is>
-          <t>Istanbul Chamber of Industry Manufacturing PMIJAN</t>
+          <t>Foreign Exchange ReservesDEC</t>
         </is>
       </c>
       <c r="D2698" t="inlineStr"/>
       <c r="E2698" t="inlineStr">
         <is>
-          <t>49.1</t>
+          <t>$232.2B</t>
         </is>
       </c>
       <c r="F2698" t="inlineStr"/>
-      <c r="G2698" t="inlineStr"/>
+      <c r="G2698" t="inlineStr">
+        <is>
+          <t>$ 230B</t>
+        </is>
+      </c>
       <c r="H2698" t="inlineStr">
         <is>
           <t>3</t>
@@ -87564,27 +87100,31 @@
     <row r="2699">
       <c r="A2699" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2699" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2699" t="inlineStr">
         <is>
-          <t>PPI MoMJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2699" t="inlineStr"/>
       <c r="E2699" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>50.4</t>
         </is>
       </c>
       <c r="F2699" t="inlineStr"/>
-      <c r="G2699" t="inlineStr"/>
+      <c r="G2699" t="inlineStr">
+        <is>
+          <t>49.8</t>
+        </is>
+      </c>
       <c r="H2699" t="inlineStr">
         <is>
           <t>3</t>
@@ -87594,27 +87134,31 @@
     <row r="2700">
       <c r="A2700" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2700" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2700" t="inlineStr">
         <is>
-          <t>PPI YoYJAN</t>
+          <t>SIPMM Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2700" t="inlineStr"/>
       <c r="E2700" t="inlineStr">
         <is>
-          <t>28.52%</t>
+          <t>51.1</t>
         </is>
       </c>
       <c r="F2700" t="inlineStr"/>
-      <c r="G2700" t="inlineStr"/>
+      <c r="G2700" t="inlineStr">
+        <is>
+          <t>51.4</t>
+        </is>
+      </c>
       <c r="H2700" t="inlineStr">
         <is>
           <t>3</t>
@@ -87624,25 +87168,21 @@
     <row r="2701">
       <c r="A2701" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2701" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2701" t="inlineStr">
         <is>
-          <t>Unemployment ChangeJAN</t>
+          <t>Fed Bostic Speech</t>
         </is>
       </c>
       <c r="D2701" t="inlineStr"/>
-      <c r="E2701" t="inlineStr">
-        <is>
-          <t>-25.3K</t>
-        </is>
-      </c>
+      <c r="E2701" t="inlineStr"/>
       <c r="F2701" t="inlineStr"/>
       <c r="G2701" t="inlineStr"/>
       <c r="H2701" t="inlineStr">
@@ -87654,17 +87194,17 @@
     <row r="2702">
       <c r="A2702" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2702" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2702" t="inlineStr">
         <is>
-          <t>Tourist Arrivals YoYDEC</t>
+          <t>12-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2702" t="inlineStr"/>
@@ -87680,95 +87220,79 @@
     <row r="2703">
       <c r="A2703" t="inlineStr">
         <is>
-          <t>01:45 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2703" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2703" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMIJAN</t>
+          <t>3-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2703" t="inlineStr"/>
-      <c r="E2703" t="inlineStr">
-        <is>
-          <t>53.3</t>
-        </is>
-      </c>
+      <c r="E2703" t="inlineStr"/>
       <c r="F2703" t="inlineStr"/>
       <c r="G2703" t="inlineStr"/>
       <c r="H2703" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2704">
       <c r="A2704" t="inlineStr">
         <is>
-          <t>02:15 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2704" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2704" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMIJAN</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2704" t="inlineStr"/>
-      <c r="E2704" t="inlineStr">
-        <is>
-          <t>46.2</t>
-        </is>
-      </c>
+      <c r="E2704" t="inlineStr"/>
       <c r="F2704" t="inlineStr"/>
       <c r="G2704" t="inlineStr"/>
       <c r="H2704" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2705">
       <c r="A2705" t="inlineStr">
         <is>
-          <t>02:20 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B2705" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2705" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2705" t="inlineStr"/>
       <c r="E2705" t="inlineStr">
         <is>
-          <t>41.9</t>
-        </is>
-      </c>
-      <c r="F2705" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
-      <c r="G2705" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
+          <t>52.2</t>
+        </is>
+      </c>
+      <c r="F2705" t="inlineStr"/>
+      <c r="G2705" t="inlineStr"/>
       <c r="H2705" t="inlineStr">
         <is>
           <t>2</t>
@@ -87778,33 +87302,33 @@
     <row r="2706">
       <c r="A2706" t="inlineStr">
         <is>
-          <t>02:25 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B2706" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2706" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2706" t="inlineStr"/>
       <c r="E2706" t="inlineStr">
         <is>
-          <t>42.5</t>
+          <t>49.4</t>
         </is>
       </c>
       <c r="F2706" t="inlineStr">
         <is>
-          <t>44.1</t>
+          <t>50.1</t>
         </is>
       </c>
       <c r="G2706" t="inlineStr">
         <is>
-          <t>44.1</t>
+          <t>50.1</t>
         </is>
       </c>
       <c r="H2706" t="inlineStr">
@@ -87816,127 +87340,111 @@
     <row r="2707">
       <c r="A2707" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2707" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2707" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>ISM Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2707" t="inlineStr"/>
       <c r="E2707" t="inlineStr">
         <is>
-          <t>45.1</t>
-        </is>
-      </c>
-      <c r="F2707" t="inlineStr">
-        <is>
-          <t>46.1</t>
-        </is>
-      </c>
-      <c r="G2707" t="inlineStr">
-        <is>
-          <t>46.1</t>
-        </is>
-      </c>
+          <t>49.3</t>
+        </is>
+      </c>
+      <c r="F2707" t="inlineStr"/>
+      <c r="G2707" t="inlineStr"/>
       <c r="H2707" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2708">
       <c r="A2708" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2708" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2708" t="inlineStr">
         <is>
-          <t>ABSA Manufacturing PMIJAN</t>
+          <t>ISM Manufacturing EmploymentJAN</t>
         </is>
       </c>
       <c r="D2708" t="inlineStr"/>
       <c r="E2708" t="inlineStr">
         <is>
-          <t>46.2</t>
+          <t>45.3</t>
         </is>
       </c>
       <c r="F2708" t="inlineStr"/>
-      <c r="G2708" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
+      <c r="G2708" t="inlineStr"/>
       <c r="H2708" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2709">
       <c r="A2709" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2709" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2709" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
+          <t>Construction Spending MoMDEC</t>
         </is>
       </c>
       <c r="D2709" t="inlineStr"/>
       <c r="E2709" t="inlineStr">
         <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="F2709" t="inlineStr">
-        <is>
-          <t>48.2</t>
-        </is>
-      </c>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F2709" t="inlineStr"/>
       <c r="G2709" t="inlineStr">
         <is>
-          <t>48.2</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H2709" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2710">
       <c r="A2710" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2710" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2710" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FlashJAN</t>
+          <t>ISM Manufacturing New OrdersJAN</t>
         </is>
       </c>
       <c r="D2710" t="inlineStr"/>
@@ -87945,54 +87453,50 @@
       <c r="G2710" t="inlineStr"/>
       <c r="H2710" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2711">
       <c r="A2711" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2711" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2711" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoY FlashJAN</t>
+          <t>ISM Manufacturing PricesJAN</t>
         </is>
       </c>
       <c r="D2711" t="inlineStr"/>
-      <c r="E2711" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
+      <c r="E2711" t="inlineStr"/>
       <c r="F2711" t="inlineStr"/>
       <c r="G2711" t="inlineStr"/>
       <c r="H2711" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2712">
       <c r="A2712" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B2712" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2712" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM FlashJAN</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2712" t="inlineStr"/>
@@ -88001,32 +87505,28 @@
       <c r="G2712" t="inlineStr"/>
       <c r="H2712" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2713">
       <c r="A2713" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B2713" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2713" t="inlineStr">
         <is>
-          <t>CPI FlashJAN</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2713" t="inlineStr"/>
-      <c r="E2713" t="inlineStr">
-        <is>
-          <t>127.07</t>
-        </is>
-      </c>
+      <c r="E2713" t="inlineStr"/>
       <c r="F2713" t="inlineStr"/>
       <c r="G2713" t="inlineStr"/>
       <c r="H2713" t="inlineStr">
@@ -88036,87 +87536,67 @@
       </c>
     </row>
     <row r="2714">
-      <c r="A2714" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
+      <c r="A2714" t="inlineStr"/>
       <c r="B2714" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2714" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelJAN</t>
+          <t>Total New Vehicle SalesJAN</t>
         </is>
       </c>
       <c r="D2714" t="inlineStr"/>
       <c r="E2714" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>41.27K</t>
         </is>
       </c>
       <c r="F2714" t="inlineStr"/>
-      <c r="G2714" t="inlineStr"/>
+      <c r="G2714" t="inlineStr">
+        <is>
+          <t>43.0K</t>
+        </is>
+      </c>
       <c r="H2714" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2715">
       <c r="A2715" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B2715" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C2715" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoM PrelJAN</t>
-        </is>
-      </c>
+          <t>Tuesday February 04 2025</t>
+        </is>
+      </c>
+      <c r="B2715" t="inlineStr"/>
+      <c r="C2715" t="inlineStr"/>
       <c r="D2715" t="inlineStr"/>
-      <c r="E2715" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="E2715" t="inlineStr"/>
       <c r="F2715" t="inlineStr"/>
       <c r="G2715" t="inlineStr"/>
-      <c r="H2715" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="H2715" t="inlineStr"/>
     </row>
     <row r="2716">
       <c r="A2716" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B2716" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2716" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM PrelJAN</t>
+          <t>Treasury Refunding Financing Estimates</t>
         </is>
       </c>
       <c r="D2716" t="inlineStr"/>
-      <c r="E2716" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="E2716" t="inlineStr"/>
       <c r="F2716" t="inlineStr"/>
       <c r="G2716" t="inlineStr"/>
       <c r="H2716" t="inlineStr">
@@ -88128,23 +87608,23 @@
     <row r="2717">
       <c r="A2717" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>03:30 AM</t>
         </is>
       </c>
       <c r="B2717" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C2717" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY PrelJAN</t>
+          <t>Tax RevenueJAN</t>
         </is>
       </c>
       <c r="D2717" t="inlineStr"/>
       <c r="E2717" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>ARS13015B</t>
         </is>
       </c>
       <c r="F2717" t="inlineStr"/>
@@ -88158,31 +87638,27 @@
     <row r="2718">
       <c r="A2718" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>09:05 AM</t>
         </is>
       </c>
       <c r="B2718" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2718" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesDEC</t>
+          <t>10-Year JGB Auction</t>
         </is>
       </c>
       <c r="D2718" t="inlineStr"/>
       <c r="E2718" t="inlineStr">
         <is>
-          <t>$232.2B</t>
+          <t>1.140%</t>
         </is>
       </c>
       <c r="F2718" t="inlineStr"/>
-      <c r="G2718" t="inlineStr">
-        <is>
-          <t>$ 230B</t>
-        </is>
-      </c>
+      <c r="G2718" t="inlineStr"/>
       <c r="H2718" t="inlineStr">
         <is>
           <t>3</t>
@@ -88192,31 +87668,27 @@
     <row r="2719">
       <c r="A2719" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B2719" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C2719" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>Riyad Bank PMIJAN</t>
         </is>
       </c>
       <c r="D2719" t="inlineStr"/>
       <c r="E2719" t="inlineStr">
         <is>
-          <t>50.4</t>
+          <t>58.4</t>
         </is>
       </c>
       <c r="F2719" t="inlineStr"/>
-      <c r="G2719" t="inlineStr">
-        <is>
-          <t>49.8</t>
-        </is>
-      </c>
+      <c r="G2719" t="inlineStr"/>
       <c r="H2719" t="inlineStr">
         <is>
           <t>3</t>
@@ -88226,7 +87698,7 @@
     <row r="2720">
       <c r="A2720" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2720" t="inlineStr">
@@ -88236,21 +87708,13 @@
       </c>
       <c r="C2720" t="inlineStr">
         <is>
-          <t>SIPMM Manufacturing PMIJAN</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D2720" t="inlineStr"/>
-      <c r="E2720" t="inlineStr">
-        <is>
-          <t>51.1</t>
-        </is>
-      </c>
+      <c r="E2720" t="inlineStr"/>
       <c r="F2720" t="inlineStr"/>
-      <c r="G2720" t="inlineStr">
-        <is>
-          <t>51.4</t>
-        </is>
-      </c>
+      <c r="G2720" t="inlineStr"/>
       <c r="H2720" t="inlineStr">
         <is>
           <t>3</t>
@@ -88260,17 +87724,17 @@
     <row r="2721">
       <c r="A2721" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2721" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2721" t="inlineStr">
         <is>
-          <t>Fed Bostic Speech</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D2721" t="inlineStr"/>
@@ -88279,28 +87743,32 @@
       <c r="G2721" t="inlineStr"/>
       <c r="H2721" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2722">
       <c r="A2722" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2722" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2722" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>30-Year KTB Auction</t>
         </is>
       </c>
       <c r="D2722" t="inlineStr"/>
-      <c r="E2722" t="inlineStr"/>
+      <c r="E2722" t="inlineStr">
+        <is>
+          <t>2.705%</t>
+        </is>
+      </c>
       <c r="F2722" t="inlineStr"/>
       <c r="G2722" t="inlineStr"/>
       <c r="H2722" t="inlineStr">
@@ -88312,7 +87780,7 @@
     <row r="2723">
       <c r="A2723" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2723" t="inlineStr">
@@ -88322,11 +87790,15 @@
       </c>
       <c r="C2723" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>Budget BalanceDEC</t>
         </is>
       </c>
       <c r="D2723" t="inlineStr"/>
-      <c r="E2723" t="inlineStr"/>
+      <c r="E2723" t="inlineStr">
+        <is>
+          <t>€-172.5B</t>
+        </is>
+      </c>
       <c r="F2723" t="inlineStr"/>
       <c r="G2723" t="inlineStr"/>
       <c r="H2723" t="inlineStr">
@@ -88338,21 +87810,25 @@
     <row r="2724">
       <c r="A2724" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2724" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2724" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>IPC-Fipe Inflation MoMJAN</t>
         </is>
       </c>
       <c r="D2724" t="inlineStr"/>
-      <c r="E2724" t="inlineStr"/>
+      <c r="E2724" t="inlineStr">
+        <is>
+          <t>0.34%</t>
+        </is>
+      </c>
       <c r="F2724" t="inlineStr"/>
       <c r="G2724" t="inlineStr"/>
       <c r="H2724" t="inlineStr">
@@ -88364,65 +87840,49 @@
     <row r="2725">
       <c r="A2725" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2725" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2725" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>5-Year Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D2725" t="inlineStr"/>
-      <c r="E2725" t="inlineStr">
-        <is>
-          <t>52.2</t>
-        </is>
-      </c>
+      <c r="E2725" t="inlineStr"/>
       <c r="F2725" t="inlineStr"/>
       <c r="G2725" t="inlineStr"/>
       <c r="H2725" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2726">
       <c r="A2726" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B2726" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2726" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
+          <t>BCB Copom Meeting Minutes</t>
         </is>
       </c>
       <c r="D2726" t="inlineStr"/>
-      <c r="E2726" t="inlineStr">
-        <is>
-          <t>49.4</t>
-        </is>
-      </c>
-      <c r="F2726" t="inlineStr">
-        <is>
-          <t>50.1</t>
-        </is>
-      </c>
-      <c r="G2726" t="inlineStr">
-        <is>
-          <t>50.1</t>
-        </is>
-      </c>
+      <c r="E2726" t="inlineStr"/>
+      <c r="F2726" t="inlineStr"/>
+      <c r="G2726" t="inlineStr"/>
       <c r="H2726" t="inlineStr">
         <is>
           <t>2</t>
@@ -88432,111 +87892,111 @@
     <row r="2727">
       <c r="A2727" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2727" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2727" t="inlineStr">
         <is>
-          <t>ISM Manufacturing PMIJAN</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D2727" t="inlineStr"/>
       <c r="E2727" t="inlineStr">
         <is>
-          <t>49.3</t>
+          <t>1.23%</t>
         </is>
       </c>
       <c r="F2727" t="inlineStr"/>
-      <c r="G2727" t="inlineStr"/>
+      <c r="G2727" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H2727" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2728">
       <c r="A2728" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2728" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2728" t="inlineStr">
         <is>
-          <t>ISM Manufacturing EmploymentJAN</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D2728" t="inlineStr"/>
       <c r="E2728" t="inlineStr">
         <is>
-          <t>45.3</t>
+          <t>7.59%</t>
         </is>
       </c>
       <c r="F2728" t="inlineStr"/>
-      <c r="G2728" t="inlineStr"/>
+      <c r="G2728" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
       <c r="H2728" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2729">
       <c r="A2729" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2729" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2729" t="inlineStr">
         <is>
-          <t>Construction Spending MoMDEC</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D2729" t="inlineStr"/>
       <c r="E2729" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>51.2</t>
         </is>
       </c>
       <c r="F2729" t="inlineStr"/>
-      <c r="G2729" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G2729" t="inlineStr"/>
       <c r="H2729" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2730">
-      <c r="A2730" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
+      <c r="A2730" t="inlineStr"/>
       <c r="B2730" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2730" t="inlineStr">
         <is>
-          <t>ISM Manufacturing New OrdersJAN</t>
+          <t>Balance of Trade PrelJAN</t>
         </is>
       </c>
       <c r="D2730" t="inlineStr"/>
@@ -88545,24 +88005,20 @@
       <c r="G2730" t="inlineStr"/>
       <c r="H2730" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2731">
-      <c r="A2731" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
+      <c r="A2731" t="inlineStr"/>
       <c r="B2731" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2731" t="inlineStr">
         <is>
-          <t>ISM Manufacturing PricesJAN</t>
+          <t>Exports PrelJAN</t>
         </is>
       </c>
       <c r="D2731" t="inlineStr"/>
@@ -88571,24 +88027,20 @@
       <c r="G2731" t="inlineStr"/>
       <c r="H2731" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2732">
-      <c r="A2732" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
+      <c r="A2732" t="inlineStr"/>
       <c r="B2732" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2732" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Imports PrelJAN</t>
         </is>
       </c>
       <c r="D2732" t="inlineStr"/>
@@ -88597,16 +88049,12 @@
       <c r="G2732" t="inlineStr"/>
       <c r="H2732" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2733">
-      <c r="A2733" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
+      <c r="A2733" t="inlineStr"/>
       <c r="B2733" t="inlineStr">
         <is>
           <t>US</t>
@@ -88614,558 +88062,18 @@
       </c>
       <c r="C2733" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>LMI Logistics Managers IndexJAN</t>
         </is>
       </c>
       <c r="D2733" t="inlineStr"/>
-      <c r="E2733" t="inlineStr"/>
+      <c r="E2733" t="inlineStr">
+        <is>
+          <t>57.3</t>
+        </is>
+      </c>
       <c r="F2733" t="inlineStr"/>
       <c r="G2733" t="inlineStr"/>
       <c r="H2733" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2734">
-      <c r="A2734" t="inlineStr"/>
-      <c r="B2734" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C2734" t="inlineStr">
-        <is>
-          <t>Total New Vehicle SalesJAN</t>
-        </is>
-      </c>
-      <c r="D2734" t="inlineStr"/>
-      <c r="E2734" t="inlineStr">
-        <is>
-          <t>41.27K</t>
-        </is>
-      </c>
-      <c r="F2734" t="inlineStr"/>
-      <c r="G2734" t="inlineStr">
-        <is>
-          <t>43.0K</t>
-        </is>
-      </c>
-      <c r="H2734" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2735">
-      <c r="A2735" t="inlineStr">
-        <is>
-          <t>Tuesday February 04 2025</t>
-        </is>
-      </c>
-      <c r="B2735" t="inlineStr"/>
-      <c r="C2735" t="inlineStr"/>
-      <c r="D2735" t="inlineStr"/>
-      <c r="E2735" t="inlineStr"/>
-      <c r="F2735" t="inlineStr"/>
-      <c r="G2735" t="inlineStr"/>
-      <c r="H2735" t="inlineStr"/>
-    </row>
-    <row r="2736">
-      <c r="A2736" t="inlineStr">
-        <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
-      <c r="B2736" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2736" t="inlineStr">
-        <is>
-          <t>Treasury Refunding Financing Estimates</t>
-        </is>
-      </c>
-      <c r="D2736" t="inlineStr"/>
-      <c r="E2736" t="inlineStr"/>
-      <c r="F2736" t="inlineStr"/>
-      <c r="G2736" t="inlineStr"/>
-      <c r="H2736" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2737">
-      <c r="A2737" t="inlineStr">
-        <is>
-          <t>03:30 AM</t>
-        </is>
-      </c>
-      <c r="B2737" t="inlineStr">
-        <is>
-          <t>AR</t>
-        </is>
-      </c>
-      <c r="C2737" t="inlineStr">
-        <is>
-          <t>Tax RevenueJAN</t>
-        </is>
-      </c>
-      <c r="D2737" t="inlineStr"/>
-      <c r="E2737" t="inlineStr">
-        <is>
-          <t>ARS13015B</t>
-        </is>
-      </c>
-      <c r="F2737" t="inlineStr"/>
-      <c r="G2737" t="inlineStr"/>
-      <c r="H2737" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2738">
-      <c r="A2738" t="inlineStr">
-        <is>
-          <t>09:05 AM</t>
-        </is>
-      </c>
-      <c r="B2738" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C2738" t="inlineStr">
-        <is>
-          <t>10-Year JGB Auction</t>
-        </is>
-      </c>
-      <c r="D2738" t="inlineStr"/>
-      <c r="E2738" t="inlineStr">
-        <is>
-          <t>1.140%</t>
-        </is>
-      </c>
-      <c r="F2738" t="inlineStr"/>
-      <c r="G2738" t="inlineStr"/>
-      <c r="H2738" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2739">
-      <c r="A2739" t="inlineStr">
-        <is>
-          <t>09:45 AM</t>
-        </is>
-      </c>
-      <c r="B2739" t="inlineStr">
-        <is>
-          <t>SA</t>
-        </is>
-      </c>
-      <c r="C2739" t="inlineStr">
-        <is>
-          <t>Riyad Bank PMIJAN</t>
-        </is>
-      </c>
-      <c r="D2739" t="inlineStr"/>
-      <c r="E2739" t="inlineStr">
-        <is>
-          <t>58.4</t>
-        </is>
-      </c>
-      <c r="F2739" t="inlineStr"/>
-      <c r="G2739" t="inlineStr"/>
-      <c r="H2739" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2740">
-      <c r="A2740" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B2740" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="C2740" t="inlineStr">
-        <is>
-          <t>MAS 12-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="D2740" t="inlineStr"/>
-      <c r="E2740" t="inlineStr"/>
-      <c r="F2740" t="inlineStr"/>
-      <c r="G2740" t="inlineStr"/>
-      <c r="H2740" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2741">
-      <c r="A2741" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B2741" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="C2741" t="inlineStr">
-        <is>
-          <t>MAS 4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="D2741" t="inlineStr"/>
-      <c r="E2741" t="inlineStr"/>
-      <c r="F2741" t="inlineStr"/>
-      <c r="G2741" t="inlineStr"/>
-      <c r="H2741" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2742">
-      <c r="A2742" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B2742" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C2742" t="inlineStr">
-        <is>
-          <t>30-Year KTB Auction</t>
-        </is>
-      </c>
-      <c r="D2742" t="inlineStr"/>
-      <c r="E2742" t="inlineStr">
-        <is>
-          <t>2.705%</t>
-        </is>
-      </c>
-      <c r="F2742" t="inlineStr"/>
-      <c r="G2742" t="inlineStr"/>
-      <c r="H2742" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2743">
-      <c r="A2743" t="inlineStr">
-        <is>
-          <t>01:15 PM</t>
-        </is>
-      </c>
-      <c r="B2743" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C2743" t="inlineStr">
-        <is>
-          <t>Budget BalanceDEC</t>
-        </is>
-      </c>
-      <c r="D2743" t="inlineStr"/>
-      <c r="E2743" t="inlineStr">
-        <is>
-          <t>€-172.5B</t>
-        </is>
-      </c>
-      <c r="F2743" t="inlineStr"/>
-      <c r="G2743" t="inlineStr"/>
-      <c r="H2743" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2744">
-      <c r="A2744" t="inlineStr">
-        <is>
-          <t>01:30 PM</t>
-        </is>
-      </c>
-      <c r="B2744" t="inlineStr">
-        <is>
-          <t>BR</t>
-        </is>
-      </c>
-      <c r="C2744" t="inlineStr">
-        <is>
-          <t>IPC-Fipe Inflation MoMJAN</t>
-        </is>
-      </c>
-      <c r="D2744" t="inlineStr"/>
-      <c r="E2744" t="inlineStr">
-        <is>
-          <t>0.34%</t>
-        </is>
-      </c>
-      <c r="F2744" t="inlineStr"/>
-      <c r="G2744" t="inlineStr"/>
-      <c r="H2744" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2745">
-      <c r="A2745" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B2745" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C2745" t="inlineStr">
-        <is>
-          <t>5-Year Treasury Gilt Auction</t>
-        </is>
-      </c>
-      <c r="D2745" t="inlineStr"/>
-      <c r="E2745" t="inlineStr"/>
-      <c r="F2745" t="inlineStr"/>
-      <c r="G2745" t="inlineStr"/>
-      <c r="H2745" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2746">
-      <c r="A2746" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B2746" t="inlineStr">
-        <is>
-          <t>BR</t>
-        </is>
-      </c>
-      <c r="C2746" t="inlineStr">
-        <is>
-          <t>BCB Copom Meeting Minutes</t>
-        </is>
-      </c>
-      <c r="D2746" t="inlineStr"/>
-      <c r="E2746" t="inlineStr"/>
-      <c r="F2746" t="inlineStr"/>
-      <c r="G2746" t="inlineStr"/>
-      <c r="H2746" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2747">
-      <c r="A2747" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B2747" t="inlineStr">
-        <is>
-          <t>BR</t>
-        </is>
-      </c>
-      <c r="C2747" t="inlineStr">
-        <is>
-          <t>PPI MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2747" t="inlineStr"/>
-      <c r="E2747" t="inlineStr">
-        <is>
-          <t>1.23%</t>
-        </is>
-      </c>
-      <c r="F2747" t="inlineStr"/>
-      <c r="G2747" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H2747" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2748">
-      <c r="A2748" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B2748" t="inlineStr">
-        <is>
-          <t>BR</t>
-        </is>
-      </c>
-      <c r="C2748" t="inlineStr">
-        <is>
-          <t>PPI YoYDEC</t>
-        </is>
-      </c>
-      <c r="D2748" t="inlineStr"/>
-      <c r="E2748" t="inlineStr">
-        <is>
-          <t>7.59%</t>
-        </is>
-      </c>
-      <c r="F2748" t="inlineStr"/>
-      <c r="G2748" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
-      <c r="H2748" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2749">
-      <c r="A2749" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B2749" t="inlineStr">
-        <is>
-          <t>MX</t>
-        </is>
-      </c>
-      <c r="C2749" t="inlineStr">
-        <is>
-          <t>Business ConfidenceJAN</t>
-        </is>
-      </c>
-      <c r="D2749" t="inlineStr"/>
-      <c r="E2749" t="inlineStr">
-        <is>
-          <t>51.2</t>
-        </is>
-      </c>
-      <c r="F2749" t="inlineStr"/>
-      <c r="G2749" t="inlineStr"/>
-      <c r="H2749" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2750">
-      <c r="A2750" t="inlineStr"/>
-      <c r="B2750" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2750" t="inlineStr">
-        <is>
-          <t>Balance of Trade PrelJAN</t>
-        </is>
-      </c>
-      <c r="D2750" t="inlineStr"/>
-      <c r="E2750" t="inlineStr"/>
-      <c r="F2750" t="inlineStr"/>
-      <c r="G2750" t="inlineStr"/>
-      <c r="H2750" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2751">
-      <c r="A2751" t="inlineStr"/>
-      <c r="B2751" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2751" t="inlineStr">
-        <is>
-          <t>Exports PrelJAN</t>
-        </is>
-      </c>
-      <c r="D2751" t="inlineStr"/>
-      <c r="E2751" t="inlineStr"/>
-      <c r="F2751" t="inlineStr"/>
-      <c r="G2751" t="inlineStr"/>
-      <c r="H2751" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2752">
-      <c r="A2752" t="inlineStr"/>
-      <c r="B2752" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2752" t="inlineStr">
-        <is>
-          <t>Imports PrelJAN</t>
-        </is>
-      </c>
-      <c r="D2752" t="inlineStr"/>
-      <c r="E2752" t="inlineStr"/>
-      <c r="F2752" t="inlineStr"/>
-      <c r="G2752" t="inlineStr"/>
-      <c r="H2752" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2753">
-      <c r="A2753" t="inlineStr"/>
-      <c r="B2753" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2753" t="inlineStr">
-        <is>
-          <t>LMI Logistics Managers IndexJAN</t>
-        </is>
-      </c>
-      <c r="D2753" t="inlineStr"/>
-      <c r="E2753" t="inlineStr">
-        <is>
-          <t>57.3</t>
-        </is>
-      </c>
-      <c r="F2753" t="inlineStr"/>
-      <c r="G2753" t="inlineStr"/>
-      <c r="H2753" t="inlineStr">
         <is>
           <t>2</t>
         </is>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-04.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-04.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2733"/>
+  <dimension ref="A1:H2712"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83127,10 +83127,8 @@
           <t>5.5%</t>
         </is>
       </c>
-      <c r="H2576" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2576" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2577">
@@ -83161,10 +83159,8 @@
           <t>12</t>
         </is>
       </c>
-      <c r="H2577" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2577" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2578">
@@ -83199,10 +83195,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2578" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2578" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2579">
@@ -83233,10 +83227,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="H2579" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2579" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2580">
@@ -83267,10 +83259,8 @@
           <t>$-8.82B</t>
         </is>
       </c>
-      <c r="H2580" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2580" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2581">
@@ -83305,10 +83295,8 @@
           <t>$ 23.46B</t>
         </is>
       </c>
-      <c r="H2581" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2581" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2582">
@@ -83339,10 +83327,8 @@
           <t>$32.29B</t>
         </is>
       </c>
-      <c r="H2582" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2582" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2583">
@@ -83373,10 +83359,8 @@
           <t>$ 23.5B</t>
         </is>
       </c>
-      <c r="H2583" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2583" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2584">
@@ -83407,10 +83391,8 @@
           <t>0.9%</t>
         </is>
       </c>
-      <c r="H2584" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2584" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2585">
@@ -83441,10 +83423,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="H2585" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2585" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2586">
@@ -83475,10 +83455,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H2586" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2586" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2587">
@@ -83513,10 +83491,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2587" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2587" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2588">
@@ -83547,10 +83523,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2588" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2588" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2589">
@@ -83581,10 +83555,8 @@
           <t>2.0%</t>
         </is>
       </c>
-      <c r="H2589" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2589" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2590">
@@ -83615,10 +83587,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2590" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2590" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2591">
@@ -83649,10 +83619,8 @@
           <t>-4.3%</t>
         </is>
       </c>
-      <c r="H2591" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2591" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2592">
@@ -83683,10 +83651,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2592" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2592" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2593">
@@ -83717,10 +83683,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2593" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2593" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2594">
@@ -83747,10 +83711,8 @@
       </c>
       <c r="F2594" t="inlineStr"/>
       <c r="G2594" t="inlineStr"/>
-      <c r="H2594" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2594" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2595">
@@ -83785,10 +83747,8 @@
           <t>7.0K</t>
         </is>
       </c>
-      <c r="H2595" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2595" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2596">
@@ -83819,10 +83779,8 @@
           <t>2.876M</t>
         </is>
       </c>
-      <c r="H2596" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2596" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2597">
@@ -83857,10 +83815,8 @@
           <t>6.2%</t>
         </is>
       </c>
-      <c r="H2597" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2597" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2598">
@@ -83883,10 +83839,8 @@
       <c r="E2598" t="inlineStr"/>
       <c r="F2598" t="inlineStr"/>
       <c r="G2598" t="inlineStr"/>
-      <c r="H2598" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2598" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2599">
@@ -83913,10 +83867,8 @@
       </c>
       <c r="F2599" t="inlineStr"/>
       <c r="G2599" t="inlineStr"/>
-      <c r="H2599" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2599" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2600">
@@ -83943,10 +83895,8 @@
       </c>
       <c r="F2600" t="inlineStr"/>
       <c r="G2600" t="inlineStr"/>
-      <c r="H2600" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2600" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2601">
@@ -83973,10 +83923,8 @@
       </c>
       <c r="F2601" t="inlineStr"/>
       <c r="G2601" t="inlineStr"/>
-      <c r="H2601" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2601" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2602">
@@ -84003,10 +83951,8 @@
       </c>
       <c r="F2602" t="inlineStr"/>
       <c r="G2602" t="inlineStr"/>
-      <c r="H2602" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2602" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2603">
@@ -84033,10 +83979,8 @@
       </c>
       <c r="F2603" t="inlineStr"/>
       <c r="G2603" t="inlineStr"/>
-      <c r="H2603" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2603" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2604">
@@ -84063,10 +84007,8 @@
       </c>
       <c r="F2604" t="inlineStr"/>
       <c r="G2604" t="inlineStr"/>
-      <c r="H2604" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2604" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2605">
@@ -84093,10 +84035,8 @@
       </c>
       <c r="F2605" t="inlineStr"/>
       <c r="G2605" t="inlineStr"/>
-      <c r="H2605" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2605" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2606">
@@ -84123,10 +84063,8 @@
       </c>
       <c r="F2606" t="inlineStr"/>
       <c r="G2606" t="inlineStr"/>
-      <c r="H2606" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2606" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2607">
@@ -84153,10 +84091,8 @@
       </c>
       <c r="F2607" t="inlineStr"/>
       <c r="G2607" t="inlineStr"/>
-      <c r="H2607" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2607" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2608">
@@ -84183,10 +84119,8 @@
       </c>
       <c r="F2608" t="inlineStr"/>
       <c r="G2608" t="inlineStr"/>
-      <c r="H2608" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2608" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2609">
@@ -84213,10 +84147,8 @@
       </c>
       <c r="F2609" t="inlineStr"/>
       <c r="G2609" t="inlineStr"/>
-      <c r="H2609" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2609" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2610">
@@ -84243,10 +84175,8 @@
       </c>
       <c r="F2610" t="inlineStr"/>
       <c r="G2610" t="inlineStr"/>
-      <c r="H2610" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2610" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2611">
@@ -84277,10 +84207,8 @@
           <t>€5.0B</t>
         </is>
       </c>
-      <c r="H2611" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2611" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2612">
@@ -84311,10 +84239,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2612" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2612" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2613">
@@ -84345,10 +84271,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2613" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2613" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2614">
@@ -84379,10 +84303,8 @@
           <t>INR-9700.0B</t>
         </is>
       </c>
-      <c r="H2614" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2614" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2615">
@@ -84413,10 +84335,8 @@
           <t>77.9%</t>
         </is>
       </c>
-      <c r="H2615" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2615" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2616">
@@ -84447,10 +84367,8 @@
           <t>BRL-103.0B</t>
         </is>
       </c>
-      <c r="H2616" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2616" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2617">
@@ -84477,10 +84395,8 @@
       </c>
       <c r="F2617" t="inlineStr"/>
       <c r="G2617" t="inlineStr"/>
-      <c r="H2617" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2617" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2618">
@@ -84507,10 +84423,8 @@
       </c>
       <c r="F2618" t="inlineStr"/>
       <c r="G2618" t="inlineStr"/>
-      <c r="H2618" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2618" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2619">
@@ -84537,10 +84451,8 @@
       </c>
       <c r="F2619" t="inlineStr"/>
       <c r="G2619" t="inlineStr"/>
-      <c r="H2619" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2619" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2620">
@@ -84571,10 +84483,8 @@
           <t>4.8%</t>
         </is>
       </c>
-      <c r="H2620" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2620" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2621">
@@ -84605,10 +84515,8 @@
           <t>6.1%</t>
         </is>
       </c>
-      <c r="H2621" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2621" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2622">
@@ -84639,10 +84547,8 @@
           <t>ZAR 27.0B</t>
         </is>
       </c>
-      <c r="H2622" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2622" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2623">
@@ -84677,10 +84583,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H2623" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2623" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2624">
@@ -84715,10 +84619,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2624" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2624" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2625">
@@ -84749,10 +84651,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2625" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2625" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2626">
@@ -84787,10 +84687,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H2626" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2626" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2627">
@@ -84825,10 +84723,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H2627" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2627" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2628">
@@ -84859,10 +84755,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2628" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2628" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2629">
@@ -84897,10 +84791,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2629" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2629" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2630">
@@ -84935,10 +84827,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2630" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2630" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2631">
@@ -84973,10 +84863,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2631" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2631" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2632">
@@ -85007,10 +84895,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2632" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2632" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2633">
@@ -85041,10 +84927,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2633" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2633" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2634">
@@ -85079,10 +84963,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2634" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2634" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2635">
@@ -85105,10 +84987,8 @@
       <c r="E2635" t="inlineStr"/>
       <c r="F2635" t="inlineStr"/>
       <c r="G2635" t="inlineStr"/>
-      <c r="H2635" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2635" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2636">
@@ -85139,10 +85019,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2636" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2636" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2637">
@@ -85173,10 +85051,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H2637" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2637" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2638">
@@ -85207,10 +85083,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H2638" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2638" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2639">
@@ -85245,10 +85119,8 @@
           <t>37.2</t>
         </is>
       </c>
-      <c r="H2639" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2639" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2640">
@@ -85279,10 +85151,8 @@
           <t>C$-1.9B</t>
         </is>
       </c>
-      <c r="H2640" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2640" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2641">
@@ -85309,10 +85179,8 @@
       </c>
       <c r="F2641" t="inlineStr"/>
       <c r="G2641" t="inlineStr"/>
-      <c r="H2641" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2641" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2642">
@@ -85339,10 +85207,8 @@
       </c>
       <c r="F2642" t="inlineStr"/>
       <c r="G2642" t="inlineStr"/>
-      <c r="H2642" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2642" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2643">
@@ -85369,10 +85235,8 @@
           <t>MXN-1120.0B</t>
         </is>
       </c>
-      <c r="H2643" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2643" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2644">
@@ -85399,10 +85263,8 @@
           <t>0.0%</t>
         </is>
       </c>
-      <c r="H2644" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2644" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2645">
@@ -85429,10 +85291,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H2645" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2645" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2646">
@@ -85459,10 +85319,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H2646" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2646" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2647">
@@ -85489,10 +85347,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H2647" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2647" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2648">
@@ -85519,10 +85375,8 @@
           <t>-4.0%</t>
         </is>
       </c>
-      <c r="H2648" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2648" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2649">
@@ -85549,10 +85403,8 @@
           <t>20.7%</t>
         </is>
       </c>
-      <c r="H2649" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2649" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2650">
@@ -85597,10 +85449,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2651" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2651" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2652">
@@ -85631,10 +85481,8 @@
           <t>$0.9B</t>
         </is>
       </c>
-      <c r="H2652" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2652" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2653">
@@ -85665,46 +85513,60 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H2653" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2653" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2654">
       <c r="A2654" t="inlineStr">
         <is>
-          <t>Monday February 03 2025</t>
-        </is>
-      </c>
-      <c r="B2654" t="inlineStr"/>
-      <c r="C2654" t="inlineStr"/>
+          <t>12:30 PM</t>
+        </is>
+      </c>
+      <c r="B2654" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="C2654" t="inlineStr">
+        <is>
+          <t>Inflation Rate MoMJAN</t>
+        </is>
+      </c>
       <c r="D2654" t="inlineStr"/>
-      <c r="E2654" t="inlineStr"/>
+      <c r="E2654" t="inlineStr">
+        <is>
+          <t>1.03%</t>
+        </is>
+      </c>
       <c r="F2654" t="inlineStr"/>
       <c r="G2654" t="inlineStr"/>
-      <c r="H2654" t="inlineStr"/>
+      <c r="H2654" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="2655">
       <c r="A2655" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2655" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2655" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Manufacturing PMI FinalJAN</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2655" t="inlineStr"/>
       <c r="E2655" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>44.38%</t>
         </is>
       </c>
       <c r="F2655" t="inlineStr"/>
@@ -85718,31 +85580,27 @@
     <row r="2656">
       <c r="A2656" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2656" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2656" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>Istanbul Chamber of Industry Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2656" t="inlineStr"/>
       <c r="E2656" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>49.1</t>
         </is>
       </c>
       <c r="F2656" t="inlineStr"/>
-      <c r="G2656" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
+      <c r="G2656" t="inlineStr"/>
       <c r="H2656" t="inlineStr">
         <is>
           <t>3</t>
@@ -85752,31 +85610,27 @@
     <row r="2657">
       <c r="A2657" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2657" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2657" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>PPI MoMJAN</t>
         </is>
       </c>
       <c r="D2657" t="inlineStr"/>
       <c r="E2657" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F2657" t="inlineStr"/>
-      <c r="G2657" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="G2657" t="inlineStr"/>
       <c r="H2657" t="inlineStr">
         <is>
           <t>3</t>
@@ -85786,31 +85640,27 @@
     <row r="2658">
       <c r="A2658" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2658" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2658" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>PPI YoYJAN</t>
         </is>
       </c>
       <c r="D2658" t="inlineStr"/>
       <c r="E2658" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>28.52%</t>
         </is>
       </c>
       <c r="F2658" t="inlineStr"/>
-      <c r="G2658" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G2658" t="inlineStr"/>
       <c r="H2658" t="inlineStr">
         <is>
           <t>3</t>
@@ -85820,21 +85670,25 @@
     <row r="2659">
       <c r="A2659" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2659" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2659" t="inlineStr">
         <is>
-          <t>BoJ Summary of Opinions</t>
+          <t>Unemployment ChangeJAN</t>
         </is>
       </c>
       <c r="D2659" t="inlineStr"/>
-      <c r="E2659" t="inlineStr"/>
+      <c r="E2659" t="inlineStr">
+        <is>
+          <t>-25.3K</t>
+        </is>
+      </c>
       <c r="F2659" t="inlineStr"/>
       <c r="G2659" t="inlineStr"/>
       <c r="H2659" t="inlineStr">
@@ -85846,65 +85700,53 @@
     <row r="2660">
       <c r="A2660" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2660" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2660" t="inlineStr">
         <is>
-          <t>Building Permits MoM PrelDEC</t>
+          <t>Tourist Arrivals YoYDEC</t>
         </is>
       </c>
       <c r="D2660" t="inlineStr"/>
-      <c r="E2660" t="inlineStr">
-        <is>
-          <t>-3.6%</t>
-        </is>
-      </c>
+      <c r="E2660" t="inlineStr"/>
       <c r="F2660" t="inlineStr"/>
-      <c r="G2660" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
+      <c r="G2660" t="inlineStr"/>
       <c r="H2660" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2661">
       <c r="A2661" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B2661" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2661" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>HCOB Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2661" t="inlineStr"/>
       <c r="E2661" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>53.3</t>
         </is>
       </c>
       <c r="F2661" t="inlineStr"/>
-      <c r="G2661" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G2661" t="inlineStr"/>
       <c r="H2661" t="inlineStr">
         <is>
           <t>2</t>
@@ -85914,127 +85756,139 @@
     <row r="2662">
       <c r="A2662" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:15 PM</t>
         </is>
       </c>
       <c r="B2662" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2662" t="inlineStr">
         <is>
-          <t>ANZ-Indeed Job Ads MoMJAN</t>
+          <t>HCOB Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2662" t="inlineStr"/>
       <c r="E2662" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>46.2</t>
         </is>
       </c>
       <c r="F2662" t="inlineStr"/>
       <c r="G2662" t="inlineStr"/>
       <c r="H2662" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2663">
       <c r="A2663" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:20 PM</t>
         </is>
       </c>
       <c r="B2663" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2663" t="inlineStr">
         <is>
-          <t>Private House Approvals MoM PrelDEC</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2663" t="inlineStr"/>
       <c r="E2663" t="inlineStr">
         <is>
-          <t>-1.7%</t>
-        </is>
-      </c>
-      <c r="F2663" t="inlineStr"/>
-      <c r="G2663" t="inlineStr"/>
+          <t>41.9</t>
+        </is>
+      </c>
+      <c r="F2663" t="inlineStr">
+        <is>
+          <t>45.3</t>
+        </is>
+      </c>
+      <c r="G2663" t="inlineStr">
+        <is>
+          <t>45.3</t>
+        </is>
+      </c>
       <c r="H2663" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2664">
       <c r="A2664" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:25 PM</t>
         </is>
       </c>
       <c r="B2664" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2664" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2664" t="inlineStr"/>
       <c r="E2664" t="inlineStr">
         <is>
-          <t>51.2</t>
-        </is>
-      </c>
-      <c r="F2664" t="inlineStr"/>
+          <t>42.5</t>
+        </is>
+      </c>
+      <c r="F2664" t="inlineStr">
+        <is>
+          <t>44.1</t>
+        </is>
+      </c>
       <c r="G2664" t="inlineStr">
         <is>
-          <t>51.6</t>
+          <t>44.1</t>
         </is>
       </c>
       <c r="H2664" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2665">
       <c r="A2665" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2665" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2665" t="inlineStr">
         <is>
-          <t>Jibun Bank Manufacturing PMI FinalJAN</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2665" t="inlineStr"/>
       <c r="E2665" t="inlineStr">
         <is>
-          <t>49.6</t>
+          <t>45.1</t>
         </is>
       </c>
       <c r="F2665" t="inlineStr">
         <is>
-          <t>48.8</t>
+          <t>46.1</t>
         </is>
       </c>
       <c r="G2665" t="inlineStr">
         <is>
-          <t>48.8</t>
+          <t>46.1</t>
         </is>
       </c>
       <c r="H2665" t="inlineStr">
@@ -86046,205 +85900,181 @@
     <row r="2666">
       <c r="A2666" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2666" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2666" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>ABSA Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2666" t="inlineStr"/>
       <c r="E2666" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>46.2</t>
         </is>
       </c>
       <c r="F2666" t="inlineStr"/>
       <c r="G2666" t="inlineStr">
         <is>
-          <t>49.5</t>
+          <t>47</t>
         </is>
       </c>
       <c r="H2666" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2667">
       <c r="A2667" t="inlineStr">
         <is>
-          <t>07:15 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B2667" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2667" t="inlineStr">
         <is>
-          <t>Caixin Manufacturing PMIJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2667" t="inlineStr"/>
       <c r="E2667" t="inlineStr">
         <is>
-          <t>50.5</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F2667" t="inlineStr">
         <is>
-          <t>50.5</t>
+          <t>48.2</t>
         </is>
       </c>
       <c r="G2667" t="inlineStr">
         <is>
-          <t>50.5</t>
+          <t>48.2</t>
         </is>
       </c>
       <c r="H2667" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2668">
       <c r="A2668" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2668" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2668" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>Inflation Rate YoY FlashJAN</t>
         </is>
       </c>
       <c r="D2668" t="inlineStr"/>
-      <c r="E2668" t="inlineStr">
-        <is>
-          <t>1.57%</t>
-        </is>
-      </c>
+      <c r="E2668" t="inlineStr"/>
       <c r="F2668" t="inlineStr"/>
-      <c r="G2668" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
+      <c r="G2668" t="inlineStr"/>
       <c r="H2668" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2669">
       <c r="A2669" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2669" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2669" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYJAN</t>
+          <t>Core Inflation Rate YoY FlashJAN</t>
         </is>
       </c>
       <c r="D2669" t="inlineStr"/>
       <c r="E2669" t="inlineStr">
         <is>
-          <t>2.26%</t>
+          <t>2.7%</t>
         </is>
       </c>
       <c r="F2669" t="inlineStr"/>
-      <c r="G2669" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
+      <c r="G2669" t="inlineStr"/>
       <c r="H2669" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2670">
       <c r="A2670" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2670" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2670" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Inflation Rate MoM FlashJAN</t>
         </is>
       </c>
       <c r="D2670" t="inlineStr"/>
-      <c r="E2670" t="inlineStr">
-        <is>
-          <t>0.44%</t>
-        </is>
-      </c>
+      <c r="E2670" t="inlineStr"/>
       <c r="F2670" t="inlineStr"/>
-      <c r="G2670" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G2670" t="inlineStr"/>
       <c r="H2670" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2671">
       <c r="A2671" t="inlineStr">
         <is>
-          <t>10:15 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2671" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2671" t="inlineStr">
         <is>
-          <t>Tourist Arrivals YoYDEC</t>
+          <t>CPI FlashJAN</t>
         </is>
       </c>
       <c r="D2671" t="inlineStr"/>
       <c r="E2671" t="inlineStr">
         <is>
-          <t>17.27%</t>
+          <t>127.07</t>
         </is>
       </c>
       <c r="F2671" t="inlineStr"/>
-      <c r="G2671" t="inlineStr">
-        <is>
-          <t>18.0%</t>
-        </is>
-      </c>
+      <c r="G2671" t="inlineStr"/>
       <c r="H2671" t="inlineStr">
         <is>
           <t>3</t>
@@ -86254,91 +86084,83 @@
     <row r="2672">
       <c r="A2672" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2672" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2672" t="inlineStr">
         <is>
-          <t>HSBC Manufacturing PMI FinalJAN</t>
+          <t>Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2672" t="inlineStr"/>
       <c r="E2672" t="inlineStr">
         <is>
-          <t>56.4</t>
-        </is>
-      </c>
-      <c r="F2672" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="G2672" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
+          <t>1.3%</t>
+        </is>
+      </c>
+      <c r="F2672" t="inlineStr"/>
+      <c r="G2672" t="inlineStr"/>
       <c r="H2672" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2673">
       <c r="A2673" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2673" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2673" t="inlineStr">
         <is>
-          <t>2-Year KTB Auction</t>
+          <t>Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2673" t="inlineStr"/>
       <c r="E2673" t="inlineStr">
         <is>
-          <t>2.670%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2673" t="inlineStr"/>
       <c r="G2673" t="inlineStr"/>
       <c r="H2673" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2674">
       <c r="A2674" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2674" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2674" t="inlineStr">
         <is>
-          <t>Commodity Prices YoYJAN</t>
+          <t>Harmonised Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2674" t="inlineStr"/>
       <c r="E2674" t="inlineStr">
         <is>
-          <t>-10.7%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2674" t="inlineStr"/>
@@ -86352,117 +86174,129 @@
     <row r="2675">
       <c r="A2675" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2675" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2675" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>Harmonised Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2675" t="inlineStr"/>
       <c r="E2675" t="inlineStr">
         <is>
-          <t>50.8</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F2675" t="inlineStr"/>
       <c r="G2675" t="inlineStr"/>
       <c r="H2675" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2676">
       <c r="A2676" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2676" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2676" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Foreign Exchange ReservesDEC</t>
         </is>
       </c>
       <c r="D2676" t="inlineStr"/>
       <c r="E2676" t="inlineStr">
         <is>
-          <t>1.03%</t>
+          <t>$232.2B</t>
         </is>
       </c>
       <c r="F2676" t="inlineStr"/>
-      <c r="G2676" t="inlineStr"/>
+      <c r="G2676" t="inlineStr">
+        <is>
+          <t>$ 230B</t>
+        </is>
+      </c>
       <c r="H2676" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2677">
       <c r="A2677" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2677" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2677" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2677" t="inlineStr"/>
       <c r="E2677" t="inlineStr">
         <is>
-          <t>44.38%</t>
+          <t>50.4</t>
         </is>
       </c>
       <c r="F2677" t="inlineStr"/>
-      <c r="G2677" t="inlineStr"/>
+      <c r="G2677" t="inlineStr">
+        <is>
+          <t>49.8</t>
+        </is>
+      </c>
       <c r="H2677" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2678">
       <c r="A2678" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2678" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2678" t="inlineStr">
         <is>
-          <t>Istanbul Chamber of Industry Manufacturing PMIJAN</t>
+          <t>SIPMM Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2678" t="inlineStr"/>
       <c r="E2678" t="inlineStr">
         <is>
-          <t>49.1</t>
+          <t>51.1</t>
         </is>
       </c>
       <c r="F2678" t="inlineStr"/>
-      <c r="G2678" t="inlineStr"/>
+      <c r="G2678" t="inlineStr">
+        <is>
+          <t>51.4</t>
+        </is>
+      </c>
       <c r="H2678" t="inlineStr">
         <is>
           <t>3</t>
@@ -86472,55 +86306,47 @@
     <row r="2679">
       <c r="A2679" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2679" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2679" t="inlineStr">
         <is>
-          <t>PPI MoMJAN</t>
+          <t>Fed Bostic Speech</t>
         </is>
       </c>
       <c r="D2679" t="inlineStr"/>
-      <c r="E2679" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="E2679" t="inlineStr"/>
       <c r="F2679" t="inlineStr"/>
       <c r="G2679" t="inlineStr"/>
       <c r="H2679" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2680">
       <c r="A2680" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2680" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2680" t="inlineStr">
         <is>
-          <t>PPI YoYJAN</t>
+          <t>12-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2680" t="inlineStr"/>
-      <c r="E2680" t="inlineStr">
-        <is>
-          <t>28.52%</t>
-        </is>
-      </c>
+      <c r="E2680" t="inlineStr"/>
       <c r="F2680" t="inlineStr"/>
       <c r="G2680" t="inlineStr"/>
       <c r="H2680" t="inlineStr">
@@ -86532,47 +86358,43 @@
     <row r="2681">
       <c r="A2681" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2681" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2681" t="inlineStr">
         <is>
-          <t>Unemployment ChangeJAN</t>
+          <t>3-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2681" t="inlineStr"/>
-      <c r="E2681" t="inlineStr">
-        <is>
-          <t>-25.3K</t>
-        </is>
-      </c>
+      <c r="E2681" t="inlineStr"/>
       <c r="F2681" t="inlineStr"/>
       <c r="G2681" t="inlineStr"/>
       <c r="H2681" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2682">
       <c r="A2682" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2682" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2682" t="inlineStr">
         <is>
-          <t>Tourist Arrivals YoYDEC</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2682" t="inlineStr"/>
@@ -86588,23 +86410,23 @@
     <row r="2683">
       <c r="A2683" t="inlineStr">
         <is>
-          <t>01:45 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B2683" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2683" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMIJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2683" t="inlineStr"/>
       <c r="E2683" t="inlineStr">
         <is>
-          <t>53.3</t>
+          <t>52.2</t>
         </is>
       </c>
       <c r="F2683" t="inlineStr"/>
@@ -86618,27 +86440,35 @@
     <row r="2684">
       <c r="A2684" t="inlineStr">
         <is>
-          <t>02:15 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B2684" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2684" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMIJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2684" t="inlineStr"/>
       <c r="E2684" t="inlineStr">
         <is>
-          <t>46.2</t>
-        </is>
-      </c>
-      <c r="F2684" t="inlineStr"/>
-      <c r="G2684" t="inlineStr"/>
+          <t>49.4</t>
+        </is>
+      </c>
+      <c r="F2684" t="inlineStr">
+        <is>
+          <t>50.1</t>
+        </is>
+      </c>
+      <c r="G2684" t="inlineStr">
+        <is>
+          <t>50.1</t>
+        </is>
+      </c>
       <c r="H2684" t="inlineStr">
         <is>
           <t>2</t>
@@ -86648,73 +86478,57 @@
     <row r="2685">
       <c r="A2685" t="inlineStr">
         <is>
-          <t>02:20 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2685" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2685" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>ISM Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2685" t="inlineStr"/>
       <c r="E2685" t="inlineStr">
         <is>
-          <t>41.9</t>
-        </is>
-      </c>
-      <c r="F2685" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
-      <c r="G2685" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
+          <t>49.3</t>
+        </is>
+      </c>
+      <c r="F2685" t="inlineStr"/>
+      <c r="G2685" t="inlineStr"/>
       <c r="H2685" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2686">
       <c r="A2686" t="inlineStr">
         <is>
-          <t>02:25 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2686" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2686" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>ISM Manufacturing EmploymentJAN</t>
         </is>
       </c>
       <c r="D2686" t="inlineStr"/>
       <c r="E2686" t="inlineStr">
         <is>
-          <t>42.5</t>
-        </is>
-      </c>
-      <c r="F2686" t="inlineStr">
-        <is>
-          <t>44.1</t>
-        </is>
-      </c>
-      <c r="G2686" t="inlineStr">
-        <is>
-          <t>44.1</t>
-        </is>
-      </c>
+          <t>45.3</t>
+        </is>
+      </c>
+      <c r="F2686" t="inlineStr"/>
+      <c r="G2686" t="inlineStr"/>
       <c r="H2686" t="inlineStr">
         <is>
           <t>2</t>
@@ -86724,69 +86538,57 @@
     <row r="2687">
       <c r="A2687" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2687" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2687" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>Construction Spending MoMDEC</t>
         </is>
       </c>
       <c r="D2687" t="inlineStr"/>
       <c r="E2687" t="inlineStr">
         <is>
-          <t>45.1</t>
-        </is>
-      </c>
-      <c r="F2687" t="inlineStr">
-        <is>
-          <t>46.1</t>
-        </is>
-      </c>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F2687" t="inlineStr"/>
       <c r="G2687" t="inlineStr">
         <is>
-          <t>46.1</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H2687" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2688">
       <c r="A2688" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2688" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2688" t="inlineStr">
         <is>
-          <t>ABSA Manufacturing PMIJAN</t>
+          <t>ISM Manufacturing New OrdersJAN</t>
         </is>
       </c>
       <c r="D2688" t="inlineStr"/>
-      <c r="E2688" t="inlineStr">
-        <is>
-          <t>46.2</t>
-        </is>
-      </c>
+      <c r="E2688" t="inlineStr"/>
       <c r="F2688" t="inlineStr"/>
-      <c r="G2688" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
+      <c r="G2688" t="inlineStr"/>
       <c r="H2688" t="inlineStr">
         <is>
           <t>3</t>
@@ -86796,55 +86598,43 @@
     <row r="2689">
       <c r="A2689" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2689" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2689" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
+          <t>ISM Manufacturing PricesJAN</t>
         </is>
       </c>
       <c r="D2689" t="inlineStr"/>
-      <c r="E2689" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="F2689" t="inlineStr">
-        <is>
-          <t>48.2</t>
-        </is>
-      </c>
-      <c r="G2689" t="inlineStr">
-        <is>
-          <t>48.2</t>
-        </is>
-      </c>
+      <c r="E2689" t="inlineStr"/>
+      <c r="F2689" t="inlineStr"/>
+      <c r="G2689" t="inlineStr"/>
       <c r="H2689" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2690">
       <c r="A2690" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B2690" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2690" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FlashJAN</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2690" t="inlineStr"/>
@@ -86853,176 +86643,156 @@
       <c r="G2690" t="inlineStr"/>
       <c r="H2690" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2691">
       <c r="A2691" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B2691" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2691" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoY FlashJAN</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2691" t="inlineStr"/>
-      <c r="E2691" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
+      <c r="E2691" t="inlineStr"/>
       <c r="F2691" t="inlineStr"/>
       <c r="G2691" t="inlineStr"/>
       <c r="H2691" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2692">
-      <c r="A2692" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
+      <c r="A2692" t="inlineStr"/>
       <c r="B2692" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2692" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM FlashJAN</t>
+          <t>Total New Vehicle SalesJAN</t>
         </is>
       </c>
       <c r="D2692" t="inlineStr"/>
-      <c r="E2692" t="inlineStr"/>
+      <c r="E2692" t="inlineStr">
+        <is>
+          <t>41.27K</t>
+        </is>
+      </c>
       <c r="F2692" t="inlineStr"/>
-      <c r="G2692" t="inlineStr"/>
+      <c r="G2692" t="inlineStr">
+        <is>
+          <t>43.0K</t>
+        </is>
+      </c>
       <c r="H2692" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2693">
       <c r="A2693" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B2693" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C2693" t="inlineStr">
-        <is>
-          <t>CPI FlashJAN</t>
-        </is>
-      </c>
+          <t>Tuesday February 04 2025</t>
+        </is>
+      </c>
+      <c r="B2693" t="inlineStr"/>
+      <c r="C2693" t="inlineStr"/>
       <c r="D2693" t="inlineStr"/>
-      <c r="E2693" t="inlineStr">
-        <is>
-          <t>127.07</t>
-        </is>
-      </c>
+      <c r="E2693" t="inlineStr"/>
       <c r="F2693" t="inlineStr"/>
       <c r="G2693" t="inlineStr"/>
-      <c r="H2693" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H2693" t="inlineStr"/>
     </row>
     <row r="2694">
       <c r="A2694" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B2694" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2694" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelJAN</t>
+          <t>Treasury Refunding Financing Estimates</t>
         </is>
       </c>
       <c r="D2694" t="inlineStr"/>
-      <c r="E2694" t="inlineStr">
-        <is>
-          <t>1.3%</t>
-        </is>
-      </c>
+      <c r="E2694" t="inlineStr"/>
       <c r="F2694" t="inlineStr"/>
       <c r="G2694" t="inlineStr"/>
       <c r="H2694" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2695">
       <c r="A2695" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>03:30 AM</t>
         </is>
       </c>
       <c r="B2695" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C2695" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM PrelJAN</t>
+          <t>Tax RevenueJAN</t>
         </is>
       </c>
       <c r="D2695" t="inlineStr"/>
       <c r="E2695" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>ARS13015B</t>
         </is>
       </c>
       <c r="F2695" t="inlineStr"/>
       <c r="G2695" t="inlineStr"/>
       <c r="H2695" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2696">
       <c r="A2696" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>09:05 AM</t>
         </is>
       </c>
       <c r="B2696" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2696" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM PrelJAN</t>
+          <t>10-Year JGB Auction</t>
         </is>
       </c>
       <c r="D2696" t="inlineStr"/>
       <c r="E2696" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>1.140%</t>
         </is>
       </c>
       <c r="F2696" t="inlineStr"/>
@@ -87036,23 +86806,23 @@
     <row r="2697">
       <c r="A2697" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B2697" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C2697" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY PrelJAN</t>
+          <t>Riyad Bank PMIJAN</t>
         </is>
       </c>
       <c r="D2697" t="inlineStr"/>
       <c r="E2697" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>58.4</t>
         </is>
       </c>
       <c r="F2697" t="inlineStr"/>
@@ -87066,31 +86836,23 @@
     <row r="2698">
       <c r="A2698" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2698" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2698" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesDEC</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D2698" t="inlineStr"/>
-      <c r="E2698" t="inlineStr">
-        <is>
-          <t>$232.2B</t>
-        </is>
-      </c>
+      <c r="E2698" t="inlineStr"/>
       <c r="F2698" t="inlineStr"/>
-      <c r="G2698" t="inlineStr">
-        <is>
-          <t>$ 230B</t>
-        </is>
-      </c>
+      <c r="G2698" t="inlineStr"/>
       <c r="H2698" t="inlineStr">
         <is>
           <t>3</t>
@@ -87100,31 +86862,23 @@
     <row r="2699">
       <c r="A2699" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2699" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2699" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D2699" t="inlineStr"/>
-      <c r="E2699" t="inlineStr">
-        <is>
-          <t>50.4</t>
-        </is>
-      </c>
+      <c r="E2699" t="inlineStr"/>
       <c r="F2699" t="inlineStr"/>
-      <c r="G2699" t="inlineStr">
-        <is>
-          <t>49.8</t>
-        </is>
-      </c>
+      <c r="G2699" t="inlineStr"/>
       <c r="H2699" t="inlineStr">
         <is>
           <t>3</t>
@@ -87134,31 +86888,27 @@
     <row r="2700">
       <c r="A2700" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2700" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2700" t="inlineStr">
         <is>
-          <t>SIPMM Manufacturing PMIJAN</t>
+          <t>30-Year KTB Auction</t>
         </is>
       </c>
       <c r="D2700" t="inlineStr"/>
       <c r="E2700" t="inlineStr">
         <is>
-          <t>51.1</t>
+          <t>2.705%</t>
         </is>
       </c>
       <c r="F2700" t="inlineStr"/>
-      <c r="G2700" t="inlineStr">
-        <is>
-          <t>51.4</t>
-        </is>
-      </c>
+      <c r="G2700" t="inlineStr"/>
       <c r="H2700" t="inlineStr">
         <is>
           <t>3</t>
@@ -87168,47 +86918,55 @@
     <row r="2701">
       <c r="A2701" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2701" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2701" t="inlineStr">
         <is>
-          <t>Fed Bostic Speech</t>
+          <t>Budget BalanceDEC</t>
         </is>
       </c>
       <c r="D2701" t="inlineStr"/>
-      <c r="E2701" t="inlineStr"/>
+      <c r="E2701" t="inlineStr">
+        <is>
+          <t>€-172.5B</t>
+        </is>
+      </c>
       <c r="F2701" t="inlineStr"/>
       <c r="G2701" t="inlineStr"/>
       <c r="H2701" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2702">
       <c r="A2702" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2702" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2702" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>IPC-Fipe Inflation MoMJAN</t>
         </is>
       </c>
       <c r="D2702" t="inlineStr"/>
-      <c r="E2702" t="inlineStr"/>
+      <c r="E2702" t="inlineStr">
+        <is>
+          <t>0.34%</t>
+        </is>
+      </c>
       <c r="F2702" t="inlineStr"/>
       <c r="G2702" t="inlineStr"/>
       <c r="H2702" t="inlineStr">
@@ -87220,17 +86978,17 @@
     <row r="2703">
       <c r="A2703" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2703" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2703" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>5-Year Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D2703" t="inlineStr"/>
@@ -87246,17 +87004,17 @@
     <row r="2704">
       <c r="A2704" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B2704" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2704" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>BCB Copom Meeting Minutes</t>
         </is>
       </c>
       <c r="D2704" t="inlineStr"/>
@@ -87265,112 +87023,112 @@
       <c r="G2704" t="inlineStr"/>
       <c r="H2704" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2705">
       <c r="A2705" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2705" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2705" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D2705" t="inlineStr"/>
       <c r="E2705" t="inlineStr">
         <is>
-          <t>52.2</t>
+          <t>1.23%</t>
         </is>
       </c>
       <c r="F2705" t="inlineStr"/>
-      <c r="G2705" t="inlineStr"/>
+      <c r="G2705" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H2705" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2706">
       <c r="A2706" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2706" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2706" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D2706" t="inlineStr"/>
       <c r="E2706" t="inlineStr">
         <is>
-          <t>49.4</t>
-        </is>
-      </c>
-      <c r="F2706" t="inlineStr">
-        <is>
-          <t>50.1</t>
-        </is>
-      </c>
+          <t>7.59%</t>
+        </is>
+      </c>
+      <c r="F2706" t="inlineStr"/>
       <c r="G2706" t="inlineStr">
         <is>
-          <t>50.1</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="H2706" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2707">
       <c r="A2707" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2707" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2707" t="inlineStr">
         <is>
-          <t>ISM Manufacturing PMIJAN</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D2707" t="inlineStr"/>
       <c r="E2707" t="inlineStr">
         <is>
-          <t>49.3</t>
+          <t>51.2</t>
         </is>
       </c>
       <c r="F2707" t="inlineStr"/>
       <c r="G2707" t="inlineStr"/>
       <c r="H2707" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2708">
       <c r="A2708" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:25 PM</t>
         </is>
       </c>
       <c r="B2708" t="inlineStr">
@@ -87380,51 +87138,35 @@
       </c>
       <c r="C2708" t="inlineStr">
         <is>
-          <t>ISM Manufacturing EmploymentJAN</t>
+          <t>Redbook YoYFEB/01</t>
         </is>
       </c>
       <c r="D2708" t="inlineStr"/>
-      <c r="E2708" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
+      <c r="E2708" t="inlineStr"/>
       <c r="F2708" t="inlineStr"/>
       <c r="G2708" t="inlineStr"/>
       <c r="H2708" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2709">
-      <c r="A2709" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
+      <c r="A2709" t="inlineStr"/>
       <c r="B2709" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2709" t="inlineStr">
         <is>
-          <t>Construction Spending MoMDEC</t>
+          <t>Balance of Trade PrelJAN</t>
         </is>
       </c>
       <c r="D2709" t="inlineStr"/>
-      <c r="E2709" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
+      <c r="E2709" t="inlineStr"/>
       <c r="F2709" t="inlineStr"/>
-      <c r="G2709" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G2709" t="inlineStr"/>
       <c r="H2709" t="inlineStr">
         <is>
           <t>3</t>
@@ -87432,19 +87174,15 @@
       </c>
     </row>
     <row r="2710">
-      <c r="A2710" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
+      <c r="A2710" t="inlineStr"/>
       <c r="B2710" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2710" t="inlineStr">
         <is>
-          <t>ISM Manufacturing New OrdersJAN</t>
+          <t>Exports PrelJAN</t>
         </is>
       </c>
       <c r="D2710" t="inlineStr"/>
@@ -87458,19 +87196,15 @@
       </c>
     </row>
     <row r="2711">
-      <c r="A2711" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
+      <c r="A2711" t="inlineStr"/>
       <c r="B2711" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2711" t="inlineStr">
         <is>
-          <t>ISM Manufacturing PricesJAN</t>
+          <t>Imports PrelJAN</t>
         </is>
       </c>
       <c r="D2711" t="inlineStr"/>
@@ -87484,11 +87218,7 @@
       </c>
     </row>
     <row r="2712">
-      <c r="A2712" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
+      <c r="A2712" t="inlineStr"/>
       <c r="B2712" t="inlineStr">
         <is>
           <t>US</t>
@@ -87496,586 +87226,20 @@
       </c>
       <c r="C2712" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>LMI Logistics Managers IndexJAN</t>
         </is>
       </c>
       <c r="D2712" t="inlineStr"/>
-      <c r="E2712" t="inlineStr"/>
+      <c r="E2712" t="inlineStr">
+        <is>
+          <t>57.3</t>
+        </is>
+      </c>
       <c r="F2712" t="inlineStr"/>
       <c r="G2712" t="inlineStr"/>
       <c r="H2712" t="inlineStr">
         <is>
           <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2713">
-      <c r="A2713" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B2713" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2713" t="inlineStr">
-        <is>
-          <t>6-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="D2713" t="inlineStr"/>
-      <c r="E2713" t="inlineStr"/>
-      <c r="F2713" t="inlineStr"/>
-      <c r="G2713" t="inlineStr"/>
-      <c r="H2713" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2714">
-      <c r="A2714" t="inlineStr"/>
-      <c r="B2714" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C2714" t="inlineStr">
-        <is>
-          <t>Total New Vehicle SalesJAN</t>
-        </is>
-      </c>
-      <c r="D2714" t="inlineStr"/>
-      <c r="E2714" t="inlineStr">
-        <is>
-          <t>41.27K</t>
-        </is>
-      </c>
-      <c r="F2714" t="inlineStr"/>
-      <c r="G2714" t="inlineStr">
-        <is>
-          <t>43.0K</t>
-        </is>
-      </c>
-      <c r="H2714" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2715">
-      <c r="A2715" t="inlineStr">
-        <is>
-          <t>Tuesday February 04 2025</t>
-        </is>
-      </c>
-      <c r="B2715" t="inlineStr"/>
-      <c r="C2715" t="inlineStr"/>
-      <c r="D2715" t="inlineStr"/>
-      <c r="E2715" t="inlineStr"/>
-      <c r="F2715" t="inlineStr"/>
-      <c r="G2715" t="inlineStr"/>
-      <c r="H2715" t="inlineStr"/>
-    </row>
-    <row r="2716">
-      <c r="A2716" t="inlineStr">
-        <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
-      <c r="B2716" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2716" t="inlineStr">
-        <is>
-          <t>Treasury Refunding Financing Estimates</t>
-        </is>
-      </c>
-      <c r="D2716" t="inlineStr"/>
-      <c r="E2716" t="inlineStr"/>
-      <c r="F2716" t="inlineStr"/>
-      <c r="G2716" t="inlineStr"/>
-      <c r="H2716" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2717">
-      <c r="A2717" t="inlineStr">
-        <is>
-          <t>03:30 AM</t>
-        </is>
-      </c>
-      <c r="B2717" t="inlineStr">
-        <is>
-          <t>AR</t>
-        </is>
-      </c>
-      <c r="C2717" t="inlineStr">
-        <is>
-          <t>Tax RevenueJAN</t>
-        </is>
-      </c>
-      <c r="D2717" t="inlineStr"/>
-      <c r="E2717" t="inlineStr">
-        <is>
-          <t>ARS13015B</t>
-        </is>
-      </c>
-      <c r="F2717" t="inlineStr"/>
-      <c r="G2717" t="inlineStr"/>
-      <c r="H2717" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2718">
-      <c r="A2718" t="inlineStr">
-        <is>
-          <t>09:05 AM</t>
-        </is>
-      </c>
-      <c r="B2718" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C2718" t="inlineStr">
-        <is>
-          <t>10-Year JGB Auction</t>
-        </is>
-      </c>
-      <c r="D2718" t="inlineStr"/>
-      <c r="E2718" t="inlineStr">
-        <is>
-          <t>1.140%</t>
-        </is>
-      </c>
-      <c r="F2718" t="inlineStr"/>
-      <c r="G2718" t="inlineStr"/>
-      <c r="H2718" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2719">
-      <c r="A2719" t="inlineStr">
-        <is>
-          <t>09:45 AM</t>
-        </is>
-      </c>
-      <c r="B2719" t="inlineStr">
-        <is>
-          <t>SA</t>
-        </is>
-      </c>
-      <c r="C2719" t="inlineStr">
-        <is>
-          <t>Riyad Bank PMIJAN</t>
-        </is>
-      </c>
-      <c r="D2719" t="inlineStr"/>
-      <c r="E2719" t="inlineStr">
-        <is>
-          <t>58.4</t>
-        </is>
-      </c>
-      <c r="F2719" t="inlineStr"/>
-      <c r="G2719" t="inlineStr"/>
-      <c r="H2719" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2720">
-      <c r="A2720" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B2720" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="C2720" t="inlineStr">
-        <is>
-          <t>MAS 12-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="D2720" t="inlineStr"/>
-      <c r="E2720" t="inlineStr"/>
-      <c r="F2720" t="inlineStr"/>
-      <c r="G2720" t="inlineStr"/>
-      <c r="H2720" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2721">
-      <c r="A2721" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B2721" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="C2721" t="inlineStr">
-        <is>
-          <t>MAS 4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="D2721" t="inlineStr"/>
-      <c r="E2721" t="inlineStr"/>
-      <c r="F2721" t="inlineStr"/>
-      <c r="G2721" t="inlineStr"/>
-      <c r="H2721" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2722">
-      <c r="A2722" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B2722" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C2722" t="inlineStr">
-        <is>
-          <t>30-Year KTB Auction</t>
-        </is>
-      </c>
-      <c r="D2722" t="inlineStr"/>
-      <c r="E2722" t="inlineStr">
-        <is>
-          <t>2.705%</t>
-        </is>
-      </c>
-      <c r="F2722" t="inlineStr"/>
-      <c r="G2722" t="inlineStr"/>
-      <c r="H2722" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2723">
-      <c r="A2723" t="inlineStr">
-        <is>
-          <t>01:15 PM</t>
-        </is>
-      </c>
-      <c r="B2723" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C2723" t="inlineStr">
-        <is>
-          <t>Budget BalanceDEC</t>
-        </is>
-      </c>
-      <c r="D2723" t="inlineStr"/>
-      <c r="E2723" t="inlineStr">
-        <is>
-          <t>€-172.5B</t>
-        </is>
-      </c>
-      <c r="F2723" t="inlineStr"/>
-      <c r="G2723" t="inlineStr"/>
-      <c r="H2723" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2724">
-      <c r="A2724" t="inlineStr">
-        <is>
-          <t>01:30 PM</t>
-        </is>
-      </c>
-      <c r="B2724" t="inlineStr">
-        <is>
-          <t>BR</t>
-        </is>
-      </c>
-      <c r="C2724" t="inlineStr">
-        <is>
-          <t>IPC-Fipe Inflation MoMJAN</t>
-        </is>
-      </c>
-      <c r="D2724" t="inlineStr"/>
-      <c r="E2724" t="inlineStr">
-        <is>
-          <t>0.34%</t>
-        </is>
-      </c>
-      <c r="F2724" t="inlineStr"/>
-      <c r="G2724" t="inlineStr"/>
-      <c r="H2724" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2725">
-      <c r="A2725" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B2725" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C2725" t="inlineStr">
-        <is>
-          <t>5-Year Treasury Gilt Auction</t>
-        </is>
-      </c>
-      <c r="D2725" t="inlineStr"/>
-      <c r="E2725" t="inlineStr"/>
-      <c r="F2725" t="inlineStr"/>
-      <c r="G2725" t="inlineStr"/>
-      <c r="H2725" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2726">
-      <c r="A2726" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B2726" t="inlineStr">
-        <is>
-          <t>BR</t>
-        </is>
-      </c>
-      <c r="C2726" t="inlineStr">
-        <is>
-          <t>BCB Copom Meeting Minutes</t>
-        </is>
-      </c>
-      <c r="D2726" t="inlineStr"/>
-      <c r="E2726" t="inlineStr"/>
-      <c r="F2726" t="inlineStr"/>
-      <c r="G2726" t="inlineStr"/>
-      <c r="H2726" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2727">
-      <c r="A2727" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B2727" t="inlineStr">
-        <is>
-          <t>BR</t>
-        </is>
-      </c>
-      <c r="C2727" t="inlineStr">
-        <is>
-          <t>PPI MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2727" t="inlineStr"/>
-      <c r="E2727" t="inlineStr">
-        <is>
-          <t>1.23%</t>
-        </is>
-      </c>
-      <c r="F2727" t="inlineStr"/>
-      <c r="G2727" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H2727" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2728">
-      <c r="A2728" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B2728" t="inlineStr">
-        <is>
-          <t>BR</t>
-        </is>
-      </c>
-      <c r="C2728" t="inlineStr">
-        <is>
-          <t>PPI YoYDEC</t>
-        </is>
-      </c>
-      <c r="D2728" t="inlineStr"/>
-      <c r="E2728" t="inlineStr">
-        <is>
-          <t>7.59%</t>
-        </is>
-      </c>
-      <c r="F2728" t="inlineStr"/>
-      <c r="G2728" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
-      <c r="H2728" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2729">
-      <c r="A2729" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B2729" t="inlineStr">
-        <is>
-          <t>MX</t>
-        </is>
-      </c>
-      <c r="C2729" t="inlineStr">
-        <is>
-          <t>Business ConfidenceJAN</t>
-        </is>
-      </c>
-      <c r="D2729" t="inlineStr"/>
-      <c r="E2729" t="inlineStr">
-        <is>
-          <t>51.2</t>
-        </is>
-      </c>
-      <c r="F2729" t="inlineStr"/>
-      <c r="G2729" t="inlineStr"/>
-      <c r="H2729" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2730">
-      <c r="A2730" t="inlineStr"/>
-      <c r="B2730" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2730" t="inlineStr">
-        <is>
-          <t>Balance of Trade PrelJAN</t>
-        </is>
-      </c>
-      <c r="D2730" t="inlineStr"/>
-      <c r="E2730" t="inlineStr"/>
-      <c r="F2730" t="inlineStr"/>
-      <c r="G2730" t="inlineStr"/>
-      <c r="H2730" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2731">
-      <c r="A2731" t="inlineStr"/>
-      <c r="B2731" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2731" t="inlineStr">
-        <is>
-          <t>Exports PrelJAN</t>
-        </is>
-      </c>
-      <c r="D2731" t="inlineStr"/>
-      <c r="E2731" t="inlineStr"/>
-      <c r="F2731" t="inlineStr"/>
-      <c r="G2731" t="inlineStr"/>
-      <c r="H2731" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2732">
-      <c r="A2732" t="inlineStr"/>
-      <c r="B2732" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2732" t="inlineStr">
-        <is>
-          <t>Imports PrelJAN</t>
-        </is>
-      </c>
-      <c r="D2732" t="inlineStr"/>
-      <c r="E2732" t="inlineStr"/>
-      <c r="F2732" t="inlineStr"/>
-      <c r="G2732" t="inlineStr"/>
-      <c r="H2732" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2733">
-      <c r="A2733" t="inlineStr"/>
-      <c r="B2733" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2733" t="inlineStr">
-        <is>
-          <t>LMI Logistics Managers IndexJAN</t>
-        </is>
-      </c>
-      <c r="D2733" t="inlineStr"/>
-      <c r="E2733" t="inlineStr">
-        <is>
-          <t>57.3</t>
-        </is>
-      </c>
-      <c r="F2733" t="inlineStr"/>
-      <c r="G2733" t="inlineStr"/>
-      <c r="H2733" t="inlineStr">
-        <is>
-          <t>2</t>
         </is>
       </c>
     </row>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-04.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-04.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2712"/>
+  <dimension ref="A1:H2759"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76589,8 +76589,10 @@
           <t>50.3</t>
         </is>
       </c>
-      <c r="H2365" t="n">
-        <v>1</v>
+      <c r="H2365" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="2366">
@@ -76621,8 +76623,10 @@
           <t>51.8</t>
         </is>
       </c>
-      <c r="H2366" t="n">
-        <v>2</v>
+      <c r="H2366" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2367">
@@ -76653,8 +76657,10 @@
           <t>-5.0%</t>
         </is>
       </c>
-      <c r="H2367" t="n">
-        <v>3</v>
+      <c r="H2367" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2368">
@@ -76689,8 +76695,10 @@
           <t>51.7</t>
         </is>
       </c>
-      <c r="H2368" t="n">
-        <v>3</v>
+      <c r="H2368" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2369">
@@ -76721,8 +76729,10 @@
           <t>115.3</t>
         </is>
       </c>
-      <c r="H2369" t="n">
-        <v>3</v>
+      <c r="H2369" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2370">
@@ -76757,8 +76767,10 @@
           <t>107</t>
         </is>
       </c>
-      <c r="H2370" t="n">
-        <v>3</v>
+      <c r="H2370" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2371">
@@ -76785,8 +76797,10 @@
       </c>
       <c r="F2371" t="inlineStr"/>
       <c r="G2371" t="inlineStr"/>
-      <c r="H2371" t="n">
-        <v>3</v>
+      <c r="H2371" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2372">
@@ -76813,8 +76827,10 @@
       </c>
       <c r="F2372" t="inlineStr"/>
       <c r="G2372" t="inlineStr"/>
-      <c r="H2372" t="n">
-        <v>3</v>
+      <c r="H2372" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2373">
@@ -76841,8 +76857,10 @@
       </c>
       <c r="F2373" t="inlineStr"/>
       <c r="G2373" t="inlineStr"/>
-      <c r="H2373" t="n">
-        <v>3</v>
+      <c r="H2373" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2374">
@@ -76873,8 +76891,10 @@
           <t>99</t>
         </is>
       </c>
-      <c r="H2374" t="n">
-        <v>2</v>
+      <c r="H2374" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2375">
@@ -76905,8 +76925,10 @@
           <t>75.8%</t>
         </is>
       </c>
-      <c r="H2375" t="n">
-        <v>3</v>
+      <c r="H2375" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2376">
@@ -76941,8 +76963,10 @@
           <t>84.5</t>
         </is>
       </c>
-      <c r="H2376" t="n">
-        <v>1</v>
+      <c r="H2376" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="2377">
@@ -76977,8 +77001,10 @@
           <t>85.2</t>
         </is>
       </c>
-      <c r="H2377" t="n">
-        <v>3</v>
+      <c r="H2377" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2378">
@@ -77013,8 +77039,10 @@
           <t>84</t>
         </is>
       </c>
-      <c r="H2378" t="n">
-        <v>3</v>
+      <c r="H2378" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2379">
@@ -77041,8 +77069,10 @@
       </c>
       <c r="F2379" t="inlineStr"/>
       <c r="G2379" t="inlineStr"/>
-      <c r="H2379" t="n">
-        <v>3</v>
+      <c r="H2379" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2380">
@@ -77069,8 +77099,10 @@
       </c>
       <c r="F2380" t="inlineStr"/>
       <c r="G2380" t="inlineStr"/>
-      <c r="H2380" t="n">
-        <v>3</v>
+      <c r="H2380" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2381">
@@ -77101,8 +77133,10 @@
           <t>91.4</t>
         </is>
       </c>
-      <c r="H2381" t="n">
-        <v>3</v>
+      <c r="H2381" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2382">
@@ -77133,8 +77167,10 @@
           <t>10K</t>
         </is>
       </c>
-      <c r="H2382" t="n">
-        <v>2</v>
+      <c r="H2382" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2383">
@@ -77165,8 +77201,10 @@
           <t>2875K</t>
         </is>
       </c>
-      <c r="H2383" t="n">
-        <v>3</v>
+      <c r="H2383" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2384">
@@ -77197,8 +77235,10 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H2384" t="n">
-        <v>3</v>
+      <c r="H2384" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2385">
@@ -77229,8 +77269,10 @@
           <t>$ 0.4B</t>
         </is>
       </c>
-      <c r="H2385" t="n">
-        <v>2</v>
+      <c r="H2385" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2386">
@@ -77261,8 +77303,10 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2386" t="n">
-        <v>3</v>
+      <c r="H2386" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2387">
@@ -77293,8 +77337,10 @@
           <t>0.1</t>
         </is>
       </c>
-      <c r="H2387" t="n">
-        <v>2</v>
+      <c r="H2387" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2388">
@@ -77321,8 +77367,10 @@
       </c>
       <c r="F2388" t="inlineStr"/>
       <c r="G2388" t="inlineStr"/>
-      <c r="H2388" t="n">
-        <v>3</v>
+      <c r="H2388" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2389">
@@ -77349,8 +77397,10 @@
       </c>
       <c r="F2389" t="inlineStr"/>
       <c r="G2389" t="inlineStr"/>
-      <c r="H2389" t="n">
-        <v>3</v>
+      <c r="H2389" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2390">
@@ -77377,8 +77427,10 @@
       </c>
       <c r="F2390" t="inlineStr"/>
       <c r="G2390" t="inlineStr"/>
-      <c r="H2390" t="n">
-        <v>3</v>
+      <c r="H2390" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2391">
@@ -77413,8 +77465,10 @@
           <t>0.64M</t>
         </is>
       </c>
-      <c r="H2391" t="n">
-        <v>2</v>
+      <c r="H2391" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2392">
@@ -77445,8 +77499,10 @@
           <t>-3.5%</t>
         </is>
       </c>
-      <c r="H2392" t="n">
-        <v>2</v>
+      <c r="H2392" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2393">
@@ -77477,8 +77533,10 @@
           <t>4</t>
         </is>
       </c>
-      <c r="H2393" t="n">
-        <v>2</v>
+      <c r="H2393" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2394">
@@ -77501,8 +77559,10 @@
       <c r="E2394" t="inlineStr"/>
       <c r="F2394" t="inlineStr"/>
       <c r="G2394" t="inlineStr"/>
-      <c r="H2394" t="n">
-        <v>2</v>
+      <c r="H2394" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2395">
@@ -77529,8 +77589,10 @@
       </c>
       <c r="F2395" t="inlineStr"/>
       <c r="G2395" t="inlineStr"/>
-      <c r="H2395" t="n">
-        <v>3</v>
+      <c r="H2395" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2396">
@@ -77557,8 +77619,10 @@
       </c>
       <c r="F2396" t="inlineStr"/>
       <c r="G2396" t="inlineStr"/>
-      <c r="H2396" t="n">
-        <v>3</v>
+      <c r="H2396" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2397">
@@ -77585,8 +77649,10 @@
       </c>
       <c r="F2397" t="inlineStr"/>
       <c r="G2397" t="inlineStr"/>
-      <c r="H2397" t="n">
-        <v>3</v>
+      <c r="H2397" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2398">
@@ -77613,8 +77679,10 @@
       </c>
       <c r="F2398" t="inlineStr"/>
       <c r="G2398" t="inlineStr"/>
-      <c r="H2398" t="n">
-        <v>3</v>
+      <c r="H2398" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2399">
@@ -77637,8 +77705,10 @@
       </c>
       <c r="F2399" t="inlineStr"/>
       <c r="G2399" t="inlineStr"/>
-      <c r="H2399" t="n">
-        <v>3</v>
+      <c r="H2399" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2400">
@@ -77665,8 +77735,10 @@
           <t>80</t>
         </is>
       </c>
-      <c r="H2400" t="n">
-        <v>3</v>
+      <c r="H2400" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2401">
@@ -77685,8 +77757,10 @@
       <c r="E2401" t="inlineStr"/>
       <c r="F2401" t="inlineStr"/>
       <c r="G2401" t="inlineStr"/>
-      <c r="H2401" t="n">
-        <v>3</v>
+      <c r="H2401" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2402">
@@ -77717,8 +77791,10 @@
           <t>1.6M</t>
         </is>
       </c>
-      <c r="H2402" t="n">
-        <v>3</v>
+      <c r="H2402" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2403">
@@ -77749,8 +77825,10 @@
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="H2403" t="n">
-        <v>3</v>
+      <c r="H2403" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2404">
@@ -77777,8 +77855,10 @@
           <t>BRL 255.1B</t>
         </is>
       </c>
-      <c r="H2404" t="n">
-        <v>3</v>
+      <c r="H2404" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2405">
@@ -77823,8 +77903,10 @@
           <t>3</t>
         </is>
       </c>
-      <c r="H2406" t="n">
-        <v>1</v>
+      <c r="H2406" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="2407">
@@ -77855,8 +77937,10 @@
           <t>2.00%</t>
         </is>
       </c>
-      <c r="H2407" t="n">
-        <v>3</v>
+      <c r="H2407" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2408">
@@ -77883,8 +77967,10 @@
       </c>
       <c r="F2408" t="inlineStr"/>
       <c r="G2408" t="inlineStr"/>
-      <c r="H2408" t="n">
-        <v>3</v>
+      <c r="H2408" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2409">
@@ -77915,8 +78001,10 @@
           <t>-4.6%</t>
         </is>
       </c>
-      <c r="H2409" t="n">
-        <v>3</v>
+      <c r="H2409" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2410">
@@ -77947,8 +78035,10 @@
           <t>-4.1%</t>
         </is>
       </c>
-      <c r="H2410" t="n">
-        <v>3</v>
+      <c r="H2410" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2411">
@@ -77979,8 +78069,10 @@
           <t>-4.6%</t>
         </is>
       </c>
-      <c r="H2411" t="n">
-        <v>3</v>
+      <c r="H2411" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2412">
@@ -78011,8 +78103,10 @@
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="H2412" t="n">
-        <v>3</v>
+      <c r="H2412" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2413">
@@ -78047,8 +78141,10 @@
           <t>89</t>
         </is>
       </c>
-      <c r="H2413" t="n">
-        <v>2</v>
+      <c r="H2413" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2414">
@@ -78083,8 +78179,10 @@
           <t>11.0%</t>
         </is>
       </c>
-      <c r="H2414" t="n">
-        <v>2</v>
+      <c r="H2414" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2415">
@@ -78111,8 +78209,10 @@
       </c>
       <c r="F2415" t="inlineStr"/>
       <c r="G2415" t="inlineStr"/>
-      <c r="H2415" t="n">
-        <v>3</v>
+      <c r="H2415" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2416">
@@ -78139,8 +78239,10 @@
       </c>
       <c r="F2416" t="inlineStr"/>
       <c r="G2416" t="inlineStr"/>
-      <c r="H2416" t="n">
-        <v>3</v>
+      <c r="H2416" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2417">
@@ -78167,8 +78269,10 @@
       </c>
       <c r="F2417" t="inlineStr"/>
       <c r="G2417" t="inlineStr"/>
-      <c r="H2417" t="n">
-        <v>3</v>
+      <c r="H2417" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2418">
@@ -78195,8 +78299,10 @@
       </c>
       <c r="F2418" t="inlineStr"/>
       <c r="G2418" t="inlineStr"/>
-      <c r="H2418" t="n">
-        <v>3</v>
+      <c r="H2418" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2419">
@@ -78223,8 +78329,10 @@
       </c>
       <c r="F2419" t="inlineStr"/>
       <c r="G2419" t="inlineStr"/>
-      <c r="H2419" t="n">
-        <v>3</v>
+      <c r="H2419" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2420">
@@ -78259,8 +78367,10 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2420" t="n">
-        <v>1</v>
+      <c r="H2420" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="2421">
@@ -78295,8 +78405,10 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2421" t="n">
-        <v>2</v>
+      <c r="H2421" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2422">
@@ -78327,8 +78439,10 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2422" t="n">
-        <v>3</v>
+      <c r="H2422" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2423">
@@ -78359,8 +78473,10 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2423" t="n">
-        <v>3</v>
+      <c r="H2423" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2424">
@@ -78387,8 +78503,10 @@
       </c>
       <c r="F2424" t="inlineStr"/>
       <c r="G2424" t="inlineStr"/>
-      <c r="H2424" t="n">
-        <v>3</v>
+      <c r="H2424" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2425">
@@ -78423,8 +78541,10 @@
           <t>4%</t>
         </is>
       </c>
-      <c r="H2425" t="n">
-        <v>2</v>
+      <c r="H2425" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2426">
@@ -78455,8 +78575,10 @@
           <t>433</t>
         </is>
       </c>
-      <c r="H2426" t="n">
-        <v>3</v>
+      <c r="H2426" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2427">
@@ -78491,8 +78613,10 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2427" t="n">
-        <v>3</v>
+      <c r="H2427" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2428">
@@ -78523,8 +78647,10 @@
           <t>4.3%</t>
         </is>
       </c>
-      <c r="H2428" t="n">
-        <v>3</v>
+      <c r="H2428" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2429">
@@ -78555,8 +78681,10 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H2429" t="n">
-        <v>3</v>
+      <c r="H2429" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2430">
@@ -78579,8 +78707,10 @@
       <c r="E2430" t="inlineStr"/>
       <c r="F2430" t="inlineStr"/>
       <c r="G2430" t="inlineStr"/>
-      <c r="H2430" t="n">
-        <v>3</v>
+      <c r="H2430" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2431">
@@ -78615,8 +78745,10 @@
           <t>104</t>
         </is>
       </c>
-      <c r="H2431" t="n">
-        <v>2</v>
+      <c r="H2431" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2432">
@@ -78651,8 +78783,10 @@
           <t>-8</t>
         </is>
       </c>
-      <c r="H2432" t="n">
-        <v>3</v>
+      <c r="H2432" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2433">
@@ -78683,8 +78817,10 @@
           <t>-9</t>
         </is>
       </c>
-      <c r="H2433" t="n">
-        <v>3</v>
+      <c r="H2433" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2434">
@@ -78715,8 +78851,10 @@
           <t>21</t>
         </is>
       </c>
-      <c r="H2434" t="n">
-        <v>3</v>
+      <c r="H2434" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2435">
@@ -78747,8 +78885,10 @@
           <t>9.5</t>
         </is>
       </c>
-      <c r="H2435" t="n">
-        <v>3</v>
+      <c r="H2435" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2436">
@@ -78779,8 +78919,10 @@
           <t>13</t>
         </is>
       </c>
-      <c r="H2436" t="n">
-        <v>3</v>
+      <c r="H2436" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2437">
@@ -78807,8 +78949,10 @@
       </c>
       <c r="F2437" t="inlineStr"/>
       <c r="G2437" t="inlineStr"/>
-      <c r="H2437" t="n">
-        <v>3</v>
+      <c r="H2437" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2438">
@@ -78835,8 +78979,10 @@
       </c>
       <c r="F2438" t="inlineStr"/>
       <c r="G2438" t="inlineStr"/>
-      <c r="H2438" t="n">
-        <v>3</v>
+      <c r="H2438" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2439">
@@ -78859,8 +79005,10 @@
       <c r="E2439" t="inlineStr"/>
       <c r="F2439" t="inlineStr"/>
       <c r="G2439" t="inlineStr"/>
-      <c r="H2439" t="n">
-        <v>2</v>
+      <c r="H2439" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2440">
@@ -78887,8 +79035,10 @@
       </c>
       <c r="F2440" t="inlineStr"/>
       <c r="G2440" t="inlineStr"/>
-      <c r="H2440" t="n">
-        <v>3</v>
+      <c r="H2440" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2441">
@@ -78915,8 +79065,10 @@
       </c>
       <c r="F2441" t="inlineStr"/>
       <c r="G2441" t="inlineStr"/>
-      <c r="H2441" t="n">
-        <v>3</v>
+      <c r="H2441" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2442">
@@ -78957,8 +79109,10 @@
       </c>
       <c r="F2443" t="inlineStr"/>
       <c r="G2443" t="inlineStr"/>
-      <c r="H2443" t="n">
-        <v>2</v>
+      <c r="H2443" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2444">
@@ -78981,8 +79135,10 @@
       <c r="E2444" t="inlineStr"/>
       <c r="F2444" t="inlineStr"/>
       <c r="G2444" t="inlineStr"/>
-      <c r="H2444" t="n">
-        <v>2</v>
+      <c r="H2444" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2445">
@@ -79017,8 +79173,10 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H2445" t="n">
-        <v>1</v>
+      <c r="H2445" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="2446">
@@ -79053,8 +79211,10 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2446" t="n">
-        <v>2</v>
+      <c r="H2446" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2447">
@@ -79089,8 +79249,10 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="H2447" t="n">
-        <v>2</v>
+      <c r="H2447" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2448">
@@ -79125,8 +79287,10 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2448" t="n">
-        <v>2</v>
+      <c r="H2448" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2449">
@@ -79161,8 +79325,10 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H2449" t="n">
-        <v>2</v>
+      <c r="H2449" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2450">
@@ -79193,8 +79359,10 @@
           <t>139.1</t>
         </is>
       </c>
-      <c r="H2450" t="n">
-        <v>3</v>
+      <c r="H2450" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2451">
@@ -79229,8 +79397,10 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2451" t="n">
-        <v>3</v>
+      <c r="H2451" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2452">
@@ -79265,8 +79435,10 @@
           <t>3.7%</t>
         </is>
       </c>
-      <c r="H2452" t="n">
-        <v>3</v>
+      <c r="H2452" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2453">
@@ -79293,8 +79465,10 @@
       </c>
       <c r="F2453" t="inlineStr"/>
       <c r="G2453" t="inlineStr"/>
-      <c r="H2453" t="n">
-        <v>3</v>
+      <c r="H2453" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2454">
@@ -79329,8 +79503,10 @@
           <t>36.3</t>
         </is>
       </c>
-      <c r="H2454" t="n">
-        <v>1</v>
+      <c r="H2454" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="2455">
@@ -79365,8 +79541,10 @@
           <t>-21</t>
         </is>
       </c>
-      <c r="H2455" t="n">
-        <v>1</v>
+      <c r="H2455" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="2456">
@@ -79401,8 +79579,10 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2456" t="n">
-        <v>1</v>
+      <c r="H2456" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="2457">
@@ -79433,8 +79613,10 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H2457" t="n">
-        <v>1</v>
+      <c r="H2457" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="2458">
@@ -79465,8 +79647,10 @@
           <t>0.9%</t>
         </is>
       </c>
-      <c r="H2458" t="n">
-        <v>3</v>
+      <c r="H2458" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2459">
@@ -79501,8 +79685,10 @@
           <t>1.0%</t>
         </is>
       </c>
-      <c r="H2459" t="n">
-        <v>3</v>
+      <c r="H2459" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2460">
@@ -79537,8 +79723,10 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H2460" t="n">
-        <v>3</v>
+      <c r="H2460" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2461">
@@ -79569,8 +79757,10 @@
           <t>85.5</t>
         </is>
       </c>
-      <c r="H2461" t="n">
-        <v>2</v>
+      <c r="H2461" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2462">
@@ -79601,8 +79791,10 @@
           <t>96</t>
         </is>
       </c>
-      <c r="H2462" t="n">
-        <v>2</v>
+      <c r="H2462" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2463">
@@ -79629,8 +79821,10 @@
       </c>
       <c r="F2463" t="inlineStr"/>
       <c r="G2463" t="inlineStr"/>
-      <c r="H2463" t="n">
-        <v>3</v>
+      <c r="H2463" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2464">
@@ -79657,8 +79851,10 @@
       </c>
       <c r="F2464" t="inlineStr"/>
       <c r="G2464" t="inlineStr"/>
-      <c r="H2464" t="n">
-        <v>3</v>
+      <c r="H2464" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2465">
@@ -79685,8 +79881,10 @@
       </c>
       <c r="F2465" t="inlineStr"/>
       <c r="G2465" t="inlineStr"/>
-      <c r="H2465" t="n">
-        <v>3</v>
+      <c r="H2465" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2466">
@@ -79717,8 +79915,10 @@
           <t>2.70%</t>
         </is>
       </c>
-      <c r="H2466" t="n">
-        <v>2</v>
+      <c r="H2466" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2467">
@@ -79745,8 +79945,10 @@
       </c>
       <c r="F2467" t="inlineStr"/>
       <c r="G2467" t="inlineStr"/>
-      <c r="H2467" t="n">
-        <v>2</v>
+      <c r="H2467" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2468">
@@ -79773,8 +79975,10 @@
       </c>
       <c r="F2468" t="inlineStr"/>
       <c r="G2468" t="inlineStr"/>
-      <c r="H2468" t="n">
-        <v>3</v>
+      <c r="H2468" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2469">
@@ -79801,8 +80005,10 @@
       </c>
       <c r="F2469" t="inlineStr"/>
       <c r="G2469" t="inlineStr"/>
-      <c r="H2469" t="n">
-        <v>3</v>
+      <c r="H2469" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2470">
@@ -79829,8 +80035,10 @@
       </c>
       <c r="F2470" t="inlineStr"/>
       <c r="G2470" t="inlineStr"/>
-      <c r="H2470" t="n">
-        <v>3</v>
+      <c r="H2470" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2471">
@@ -79857,8 +80065,10 @@
       </c>
       <c r="F2471" t="inlineStr"/>
       <c r="G2471" t="inlineStr"/>
-      <c r="H2471" t="n">
-        <v>3</v>
+      <c r="H2471" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2472">
@@ -79893,8 +80103,10 @@
           <t>$ -101.0B</t>
         </is>
       </c>
-      <c r="H2472" t="n">
-        <v>2</v>
+      <c r="H2472" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2473">
@@ -79925,8 +80137,10 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2473" t="n">
-        <v>2</v>
+      <c r="H2473" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2474">
@@ -79961,8 +80175,10 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2474" t="n">
-        <v>2</v>
+      <c r="H2474" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2475">
@@ -79997,8 +80213,10 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H2475" t="n">
-        <v>1</v>
+      <c r="H2475" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="2476">
@@ -80021,8 +80239,10 @@
       <c r="E2476" t="inlineStr"/>
       <c r="F2476" t="inlineStr"/>
       <c r="G2476" t="inlineStr"/>
-      <c r="H2476" t="n">
-        <v>1</v>
+      <c r="H2476" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="2477">
@@ -80045,8 +80265,10 @@
       <c r="E2477" t="inlineStr"/>
       <c r="F2477" t="inlineStr"/>
       <c r="G2477" t="inlineStr"/>
-      <c r="H2477" t="n">
-        <v>2</v>
+      <c r="H2477" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2478">
@@ -80073,8 +80295,10 @@
       </c>
       <c r="F2478" t="inlineStr"/>
       <c r="G2478" t="inlineStr"/>
-      <c r="H2478" t="n">
-        <v>2</v>
+      <c r="H2478" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2479">
@@ -80101,8 +80325,10 @@
       </c>
       <c r="F2479" t="inlineStr"/>
       <c r="G2479" t="inlineStr"/>
-      <c r="H2479" t="n">
-        <v>2</v>
+      <c r="H2479" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2480">
@@ -80129,8 +80355,10 @@
       </c>
       <c r="F2480" t="inlineStr"/>
       <c r="G2480" t="inlineStr"/>
-      <c r="H2480" t="n">
-        <v>3</v>
+      <c r="H2480" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2481">
@@ -80157,8 +80385,10 @@
       </c>
       <c r="F2481" t="inlineStr"/>
       <c r="G2481" t="inlineStr"/>
-      <c r="H2481" t="n">
-        <v>3</v>
+      <c r="H2481" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2482">
@@ -80185,8 +80415,10 @@
       </c>
       <c r="F2482" t="inlineStr"/>
       <c r="G2482" t="inlineStr"/>
-      <c r="H2482" t="n">
-        <v>3</v>
+      <c r="H2482" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2483">
@@ -80213,8 +80445,10 @@
       </c>
       <c r="F2483" t="inlineStr"/>
       <c r="G2483" t="inlineStr"/>
-      <c r="H2483" t="n">
-        <v>3</v>
+      <c r="H2483" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2484">
@@ -80241,8 +80475,10 @@
       </c>
       <c r="F2484" t="inlineStr"/>
       <c r="G2484" t="inlineStr"/>
-      <c r="H2484" t="n">
-        <v>3</v>
+      <c r="H2484" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2485">
@@ -80269,8 +80505,10 @@
       </c>
       <c r="F2485" t="inlineStr"/>
       <c r="G2485" t="inlineStr"/>
-      <c r="H2485" t="n">
-        <v>3</v>
+      <c r="H2485" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2486">
@@ -80297,8 +80535,10 @@
       </c>
       <c r="F2486" t="inlineStr"/>
       <c r="G2486" t="inlineStr"/>
-      <c r="H2486" t="n">
-        <v>3</v>
+      <c r="H2486" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2487">
@@ -80329,8 +80569,10 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H2487" t="n">
-        <v>3</v>
+      <c r="H2487" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2488">
@@ -80361,8 +80603,10 @@
           <t>4.4%</t>
         </is>
       </c>
-      <c r="H2488" t="n">
-        <v>3</v>
+      <c r="H2488" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2489">
@@ -80389,8 +80633,10 @@
       </c>
       <c r="F2489" t="inlineStr"/>
       <c r="G2489" t="inlineStr"/>
-      <c r="H2489" t="n">
-        <v>3</v>
+      <c r="H2489" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2490">
@@ -80439,8 +80685,10 @@
           <t>4.5%</t>
         </is>
       </c>
-      <c r="H2491" t="n">
-        <v>1</v>
+      <c r="H2491" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="2492">
@@ -80463,8 +80711,10 @@
       <c r="E2492" t="inlineStr"/>
       <c r="F2492" t="inlineStr"/>
       <c r="G2492" t="inlineStr"/>
-      <c r="H2492" t="n">
-        <v>1</v>
+      <c r="H2492" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="2493">
@@ -80495,8 +80745,10 @@
           <t>12.25%</t>
         </is>
       </c>
-      <c r="H2493" t="n">
-        <v>2</v>
+      <c r="H2493" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2494">
@@ -80523,8 +80775,10 @@
       </c>
       <c r="F2494" t="inlineStr"/>
       <c r="G2494" t="inlineStr"/>
-      <c r="H2494" t="n">
-        <v>3</v>
+      <c r="H2494" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2495">
@@ -80551,8 +80805,10 @@
       </c>
       <c r="F2495" t="inlineStr"/>
       <c r="G2495" t="inlineStr"/>
-      <c r="H2495" t="n">
-        <v>3</v>
+      <c r="H2495" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2496">
@@ -80583,8 +80839,10 @@
           <t>-20.0%</t>
         </is>
       </c>
-      <c r="H2496" t="n">
-        <v>3</v>
+      <c r="H2496" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2497">
@@ -80607,8 +80865,10 @@
       <c r="E2497" t="inlineStr"/>
       <c r="F2497" t="inlineStr"/>
       <c r="G2497" t="inlineStr"/>
-      <c r="H2497" t="n">
-        <v>2</v>
+      <c r="H2497" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2498">
@@ -80639,8 +80899,10 @@
           <t>-6.6%</t>
         </is>
       </c>
-      <c r="H2498" t="n">
-        <v>3</v>
+      <c r="H2498" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2499">
@@ -80675,8 +80937,10 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2499" t="n">
-        <v>3</v>
+      <c r="H2499" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2500">
@@ -80699,8 +80963,10 @@
       <c r="E2500" t="inlineStr"/>
       <c r="F2500" t="inlineStr"/>
       <c r="G2500" t="inlineStr"/>
-      <c r="H2500" t="n">
-        <v>2</v>
+      <c r="H2500" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2501">
@@ -80731,8 +80997,10 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H2501" t="n">
-        <v>2</v>
+      <c r="H2501" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2502">
@@ -80759,8 +81027,10 @@
       </c>
       <c r="F2502" t="inlineStr"/>
       <c r="G2502" t="inlineStr"/>
-      <c r="H2502" t="n">
-        <v>3</v>
+      <c r="H2502" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2503">
@@ -80791,8 +81061,10 @@
           <t>3.8%</t>
         </is>
       </c>
-      <c r="H2503" t="n">
-        <v>3</v>
+      <c r="H2503" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2504">
@@ -80815,8 +81087,10 @@
       <c r="E2504" t="inlineStr"/>
       <c r="F2504" t="inlineStr"/>
       <c r="G2504" t="inlineStr"/>
-      <c r="H2504" t="n">
-        <v>2</v>
+      <c r="H2504" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2505">
@@ -80851,8 +81125,10 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H2505" t="n">
-        <v>1</v>
+      <c r="H2505" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="2506">
@@ -80883,8 +81159,10 @@
           <t>1.1%</t>
         </is>
       </c>
-      <c r="H2506" t="n">
-        <v>2</v>
+      <c r="H2506" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2507">
@@ -80919,8 +81197,10 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2507" t="n">
-        <v>3</v>
+      <c r="H2507" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2508">
@@ -80955,8 +81235,10 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2508" t="n">
-        <v>3</v>
+      <c r="H2508" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2509">
@@ -80987,8 +81269,10 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H2509" t="n">
-        <v>3</v>
+      <c r="H2509" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2510">
@@ -81019,8 +81303,10 @@
           <t>98.3</t>
         </is>
       </c>
-      <c r="H2510" t="n">
-        <v>3</v>
+      <c r="H2510" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2511">
@@ -81051,8 +81337,10 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H2511" t="n">
-        <v>2</v>
+      <c r="H2511" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2512">
@@ -81087,8 +81375,10 @@
           <t>2.7%</t>
         </is>
       </c>
-      <c r="H2512" t="n">
-        <v>2</v>
+      <c r="H2512" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2513">
@@ -81119,8 +81409,10 @@
           <t>2.7%</t>
         </is>
       </c>
-      <c r="H2513" t="n">
-        <v>3</v>
+      <c r="H2513" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2514">
@@ -81151,8 +81443,10 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H2514" t="n">
-        <v>3</v>
+      <c r="H2514" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2515">
@@ -81183,8 +81477,10 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H2515" t="n">
-        <v>3</v>
+      <c r="H2515" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2516">
@@ -81219,8 +81515,10 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H2516" t="n">
-        <v>1</v>
+      <c r="H2516" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="2517">
@@ -81255,8 +81553,10 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H2517" t="n">
-        <v>1</v>
+      <c r="H2517" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="2518">
@@ -81291,8 +81591,10 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2518" t="n">
-        <v>1</v>
+      <c r="H2518" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="2519">
@@ -81323,8 +81625,10 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2519" t="n">
-        <v>1</v>
+      <c r="H2519" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="2520">
@@ -81355,8 +81659,10 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H2520" t="n">
-        <v>3</v>
+      <c r="H2520" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2521">
@@ -81387,8 +81693,10 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2521" t="n">
-        <v>3</v>
+      <c r="H2521" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2522">
@@ -81419,8 +81727,10 @@
           <t>£ 1.3B</t>
         </is>
       </c>
-      <c r="H2522" t="n">
-        <v>2</v>
+      <c r="H2522" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2523">
@@ -81455,8 +81765,10 @@
           <t>65.1K</t>
         </is>
       </c>
-      <c r="H2523" t="n">
-        <v>2</v>
+      <c r="H2523" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2524">
@@ -81487,8 +81799,10 @@
           <t>£ 2.2B</t>
         </is>
       </c>
-      <c r="H2524" t="n">
-        <v>2</v>
+      <c r="H2524" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2525">
@@ -81523,8 +81837,10 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H2525" t="n">
-        <v>3</v>
+      <c r="H2525" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2526">
@@ -81559,8 +81875,10 @@
           <t>£3.5B</t>
         </is>
       </c>
-      <c r="H2526" t="n">
-        <v>3</v>
+      <c r="H2526" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2527">
@@ -81595,8 +81913,10 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2527" t="n">
-        <v>1</v>
+      <c r="H2527" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="2528">
@@ -81631,8 +81951,10 @@
           <t>6.4%</t>
         </is>
       </c>
-      <c r="H2528" t="n">
-        <v>1</v>
+      <c r="H2528" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="2529">
@@ -81663,8 +81985,10 @@
         </is>
       </c>
       <c r="G2529" t="inlineStr"/>
-      <c r="H2529" t="n">
-        <v>2</v>
+      <c r="H2529" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2530">
@@ -81699,8 +82023,10 @@
           <t>93.5</t>
         </is>
       </c>
-      <c r="H2530" t="n">
-        <v>2</v>
+      <c r="H2530" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2531">
@@ -81735,8 +82061,10 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H2531" t="n">
-        <v>2</v>
+      <c r="H2531" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2532">
@@ -81767,8 +82095,10 @@
           <t>22</t>
         </is>
       </c>
-      <c r="H2532" t="n">
-        <v>3</v>
+      <c r="H2532" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2533">
@@ -81799,8 +82129,10 @@
           <t>-14.5</t>
         </is>
       </c>
-      <c r="H2533" t="n">
-        <v>3</v>
+      <c r="H2533" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2534">
@@ -81831,8 +82163,10 @@
           <t>8</t>
         </is>
       </c>
-      <c r="H2534" t="n">
-        <v>3</v>
+      <c r="H2534" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2535">
@@ -81863,8 +82197,10 @@
           <t>6</t>
         </is>
       </c>
-      <c r="H2535" t="n">
-        <v>3</v>
+      <c r="H2535" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2536">
@@ -81899,8 +82235,10 @@
           <t>5.6%</t>
         </is>
       </c>
-      <c r="H2536" t="n">
-        <v>1</v>
+      <c r="H2536" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="2537">
@@ -81923,8 +82261,10 @@
       <c r="E2537" t="inlineStr"/>
       <c r="F2537" t="inlineStr"/>
       <c r="G2537" t="inlineStr"/>
-      <c r="H2537" t="n">
-        <v>3</v>
+      <c r="H2537" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2538">
@@ -81955,8 +82295,10 @@
           <t>0.9%</t>
         </is>
       </c>
-      <c r="H2538" t="n">
-        <v>3</v>
+      <c r="H2538" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2539">
@@ -81987,8 +82329,10 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H2539" t="n">
-        <v>3</v>
+      <c r="H2539" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2540">
@@ -82019,8 +82363,10 @@
           <t>-5.1%</t>
         </is>
       </c>
-      <c r="H2540" t="n">
-        <v>3</v>
+      <c r="H2540" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2541">
@@ -82043,8 +82389,10 @@
       <c r="E2541" t="inlineStr"/>
       <c r="F2541" t="inlineStr"/>
       <c r="G2541" t="inlineStr"/>
-      <c r="H2541" t="n">
-        <v>2</v>
+      <c r="H2541" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2542">
@@ -82071,8 +82419,10 @@
       </c>
       <c r="F2542" t="inlineStr"/>
       <c r="G2542" t="inlineStr"/>
-      <c r="H2542" t="n">
-        <v>3</v>
+      <c r="H2542" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2543">
@@ -82103,8 +82453,10 @@
           <t>56.2</t>
         </is>
       </c>
-      <c r="H2543" t="n">
-        <v>3</v>
+      <c r="H2543" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2544">
@@ -82135,8 +82487,10 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2544" t="n">
-        <v>2</v>
+      <c r="H2544" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2545">
@@ -82167,8 +82521,10 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H2545" t="n">
-        <v>2</v>
+      <c r="H2545" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2546">
@@ -82199,8 +82555,10 @@
           <t>-5</t>
         </is>
       </c>
-      <c r="H2546" t="n">
-        <v>2</v>
+      <c r="H2546" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2547">
@@ -82235,8 +82593,10 @@
           <t>7.50%</t>
         </is>
       </c>
-      <c r="H2547" t="n">
-        <v>3</v>
+      <c r="H2547" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2548">
@@ -82267,8 +82627,10 @@
           <t>11.0%</t>
         </is>
       </c>
-      <c r="H2548" t="n">
-        <v>3</v>
+      <c r="H2548" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2549">
@@ -82303,8 +82665,10 @@
           <t>2.75%</t>
         </is>
       </c>
-      <c r="H2549" t="n">
-        <v>1</v>
+      <c r="H2549" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="2550">
@@ -82339,8 +82703,10 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H2550" t="n">
-        <v>1</v>
+      <c r="H2550" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="2551">
@@ -82371,8 +82737,10 @@
           <t>3.15%</t>
         </is>
       </c>
-      <c r="H2551" t="n">
-        <v>3</v>
+      <c r="H2551" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2552">
@@ -82403,8 +82771,10 @@
           <t>5.0%</t>
         </is>
       </c>
-      <c r="H2552" t="n">
-        <v>3</v>
+      <c r="H2552" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2553">
@@ -82439,8 +82809,10 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H2553" t="n">
-        <v>1</v>
+      <c r="H2553" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="2554">
@@ -82475,8 +82847,10 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="H2554" t="n">
-        <v>2</v>
+      <c r="H2554" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2555">
@@ -82511,8 +82885,10 @@
           <t>228.0K</t>
         </is>
       </c>
-      <c r="H2555" t="n">
-        <v>2</v>
+      <c r="H2555" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2556">
@@ -82543,8 +82919,10 @@
           <t>1885.0K</t>
         </is>
       </c>
-      <c r="H2556" t="n">
-        <v>3</v>
+      <c r="H2556" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2557">
@@ -82575,8 +82953,10 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="H2557" t="n">
-        <v>3</v>
+      <c r="H2557" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2558">
@@ -82607,8 +82987,10 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H2558" t="n">
-        <v>3</v>
+      <c r="H2558" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2559">
@@ -82639,8 +83021,10 @@
           <t>214.0K</t>
         </is>
       </c>
-      <c r="H2559" t="n">
-        <v>3</v>
+      <c r="H2559" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2560">
@@ -82671,8 +83055,10 @@
           <t>1.1%</t>
         </is>
       </c>
-      <c r="H2560" t="n">
-        <v>3</v>
+      <c r="H2560" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2561">
@@ -82703,8 +83089,10 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H2561" t="n">
-        <v>3</v>
+      <c r="H2561" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2562">
@@ -82727,8 +83115,10 @@
       <c r="E2562" t="inlineStr"/>
       <c r="F2562" t="inlineStr"/>
       <c r="G2562" t="inlineStr"/>
-      <c r="H2562" t="n">
-        <v>1</v>
+      <c r="H2562" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="2563">
@@ -82763,8 +83153,10 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2563" t="n">
-        <v>2</v>
+      <c r="H2563" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2564">
@@ -82795,8 +83187,10 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H2564" t="n">
-        <v>2</v>
+      <c r="H2564" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2565">
@@ -82823,8 +83217,10 @@
       </c>
       <c r="F2565" t="inlineStr"/>
       <c r="G2565" t="inlineStr"/>
-      <c r="H2565" t="n">
-        <v>3</v>
+      <c r="H2565" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2566">
@@ -82851,8 +83247,10 @@
       </c>
       <c r="F2566" t="inlineStr"/>
       <c r="G2566" t="inlineStr"/>
-      <c r="H2566" t="n">
-        <v>3</v>
+      <c r="H2566" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2567">
@@ -82879,8 +83277,10 @@
       </c>
       <c r="F2567" t="inlineStr"/>
       <c r="G2567" t="inlineStr"/>
-      <c r="H2567" t="n">
-        <v>3</v>
+      <c r="H2567" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2568">
@@ -82907,8 +83307,10 @@
       </c>
       <c r="F2568" t="inlineStr"/>
       <c r="G2568" t="inlineStr"/>
-      <c r="H2568" t="n">
-        <v>3</v>
+      <c r="H2568" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2569">
@@ -82935,8 +83337,10 @@
       </c>
       <c r="F2569" t="inlineStr"/>
       <c r="G2569" t="inlineStr"/>
-      <c r="H2569" t="n">
-        <v>3</v>
+      <c r="H2569" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2570">
@@ -82963,8 +83367,10 @@
           <t>ZAR14.0B</t>
         </is>
       </c>
-      <c r="H2570" t="n">
-        <v>3</v>
+      <c r="H2570" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2571">
@@ -82991,8 +83397,10 @@
           <t>10.6%</t>
         </is>
       </c>
-      <c r="H2571" t="n">
-        <v>3</v>
+      <c r="H2571" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2572">
@@ -83019,8 +83427,10 @@
           <t>12.8%</t>
         </is>
       </c>
-      <c r="H2572" t="n">
-        <v>3</v>
+      <c r="H2572" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2573">
@@ -83043,8 +83453,10 @@
       </c>
       <c r="F2573" t="inlineStr"/>
       <c r="G2573" t="inlineStr"/>
-      <c r="H2573" t="n">
-        <v>3</v>
+      <c r="H2573" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2574">
@@ -83067,8 +83479,10 @@
       </c>
       <c r="F2574" t="inlineStr"/>
       <c r="G2574" t="inlineStr"/>
-      <c r="H2574" t="n">
-        <v>3</v>
+      <c r="H2574" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2575">
@@ -83095,758 +83509,798 @@
           <t>90.0K</t>
         </is>
       </c>
-      <c r="H2575" t="n">
-        <v>3</v>
+      <c r="H2575" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2576">
       <c r="A2576" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B2576" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C2576" t="inlineStr">
-        <is>
-          <t>Construction Orders YoYDEC</t>
-        </is>
-      </c>
+          <t>Friday January 31 2025</t>
+        </is>
+      </c>
+      <c r="B2576" t="inlineStr"/>
+      <c r="C2576" t="inlineStr"/>
       <c r="D2576" t="inlineStr"/>
-      <c r="E2576" t="inlineStr">
-        <is>
-          <t>-10.2%</t>
-        </is>
-      </c>
+      <c r="E2576" t="inlineStr"/>
       <c r="F2576" t="inlineStr"/>
-      <c r="G2576" t="inlineStr">
-        <is>
-          <t>5.5%</t>
-        </is>
-      </c>
-      <c r="H2576" t="n">
-        <v>3</v>
-      </c>
+      <c r="G2576" t="inlineStr"/>
+      <c r="H2576" t="inlineStr"/>
     </row>
     <row r="2577">
       <c r="A2577" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B2577" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2577" t="inlineStr">
         <is>
-          <t>Business ConfidenceQ4</t>
+          <t>Fed Balance SheetJAN/29</t>
         </is>
       </c>
       <c r="D2577" t="inlineStr"/>
       <c r="E2577" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>$6.88T</t>
         </is>
       </c>
       <c r="F2577" t="inlineStr"/>
-      <c r="G2577" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="H2577" t="n">
-        <v>3</v>
+      <c r="G2577" t="inlineStr"/>
+      <c r="H2577" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2578">
       <c r="A2578" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2578" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2578" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Unemployment RateDEC</t>
         </is>
       </c>
       <c r="D2578" t="inlineStr"/>
       <c r="E2578" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>2.5%</t>
         </is>
       </c>
       <c r="F2578" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>2.5%</t>
         </is>
       </c>
       <c r="G2578" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H2578" t="n">
-        <v>2</v>
+          <t>2.50%</t>
+        </is>
+      </c>
+      <c r="H2578" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2579">
       <c r="A2579" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2579" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2579" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Jobs/applications ratioDEC</t>
         </is>
       </c>
       <c r="D2579" t="inlineStr"/>
       <c r="E2579" t="inlineStr">
         <is>
-          <t>2.5%</t>
-        </is>
-      </c>
-      <c r="F2579" t="inlineStr"/>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="F2579" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
       <c r="G2579" t="inlineStr">
         <is>
-          <t>1.9%</t>
-        </is>
-      </c>
-      <c r="H2579" t="n">
-        <v>2</v>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="H2579" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2580">
       <c r="A2580" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2580" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2580" t="inlineStr">
         <is>
-          <t>Balance of Trade FinalDEC</t>
+          <t>Tokyo Core CPI YoYJAN</t>
         </is>
       </c>
       <c r="D2580" t="inlineStr"/>
       <c r="E2580" t="inlineStr">
         <is>
-          <t>$-7.46B</t>
-        </is>
-      </c>
-      <c r="F2580" t="inlineStr"/>
+          <t>2.4%</t>
+        </is>
+      </c>
+      <c r="F2580" t="inlineStr">
+        <is>
+          <t>2.5%</t>
+        </is>
+      </c>
       <c r="G2580" t="inlineStr">
         <is>
-          <t>$-8.82B</t>
-        </is>
-      </c>
-      <c r="H2580" t="n">
-        <v>2</v>
+          <t>2.5%</t>
+        </is>
+      </c>
+      <c r="H2580" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2581">
       <c r="A2581" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2581" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2581" t="inlineStr">
         <is>
-          <t>Exports FinalDEC</t>
+          <t>Tokyo CPI Ex Food and Energy YoYJAN</t>
         </is>
       </c>
       <c r="D2581" t="inlineStr"/>
       <c r="E2581" t="inlineStr">
         <is>
-          <t>$22.29B</t>
-        </is>
-      </c>
-      <c r="F2581" t="inlineStr">
-        <is>
-          <t>$23.46B</t>
-        </is>
-      </c>
+          <t>1.1%</t>
+        </is>
+      </c>
+      <c r="F2581" t="inlineStr"/>
       <c r="G2581" t="inlineStr">
         <is>
-          <t>$ 23.46B</t>
-        </is>
-      </c>
-      <c r="H2581" t="n">
-        <v>3</v>
+          <t>1.2%</t>
+        </is>
+      </c>
+      <c r="H2581" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2582">
       <c r="A2582" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2582" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2582" t="inlineStr">
         <is>
-          <t>Imports FinalDEC</t>
+          <t>Tokyo CPI YoYJAN</t>
         </is>
       </c>
       <c r="D2582" t="inlineStr"/>
       <c r="E2582" t="inlineStr">
         <is>
-          <t>$29.75B</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="F2582" t="inlineStr"/>
       <c r="G2582" t="inlineStr">
         <is>
-          <t>$32.29B</t>
-        </is>
-      </c>
-      <c r="H2582" t="n">
-        <v>3</v>
+          <t>3.1%</t>
+        </is>
+      </c>
+      <c r="H2582" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2583">
       <c r="A2583" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B2583" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2583" t="inlineStr">
         <is>
-          <t>Tourism RevenuesQ4</t>
+          <t>Industrial Production MoM PrelDEC</t>
         </is>
       </c>
       <c r="D2583" t="inlineStr"/>
       <c r="E2583" t="inlineStr">
         <is>
-          <t>$23.22B</t>
-        </is>
-      </c>
-      <c r="F2583" t="inlineStr"/>
+          <t>-2.2%</t>
+        </is>
+      </c>
+      <c r="F2583" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="G2583" t="inlineStr">
         <is>
-          <t>$ 23.5B</t>
-        </is>
-      </c>
-      <c r="H2583" t="n">
-        <v>3</v>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="H2583" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2584">
       <c r="A2584" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B2584" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2584" t="inlineStr">
         <is>
-          <t>Nationwide Housing Prices MoMJAN</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="D2584" t="inlineStr"/>
       <c r="E2584" t="inlineStr">
         <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="F2584" t="inlineStr"/>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="F2584" t="inlineStr">
+        <is>
+          <t>3.2%</t>
+        </is>
+      </c>
       <c r="G2584" t="inlineStr">
         <is>
-          <t>0.9%</t>
-        </is>
-      </c>
-      <c r="H2584" t="n">
-        <v>2</v>
+          <t>2%</t>
+        </is>
+      </c>
+      <c r="H2584" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2585">
       <c r="A2585" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B2585" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2585" t="inlineStr">
         <is>
-          <t>Nationwide Housing Prices YoYJAN</t>
+          <t>Industrial Production YoY PrelDEC</t>
         </is>
       </c>
       <c r="D2585" t="inlineStr"/>
       <c r="E2585" t="inlineStr">
         <is>
-          <t>4.7%</t>
+          <t>-2.8%</t>
         </is>
       </c>
       <c r="F2585" t="inlineStr"/>
       <c r="G2585" t="inlineStr">
         <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="H2585" t="n">
-        <v>2</v>
+          <t>-1.6%</t>
+        </is>
+      </c>
+      <c r="H2585" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2586">
       <c r="A2586" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B2586" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2586" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelJAN</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D2586" t="inlineStr"/>
       <c r="E2586" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>1.8%</t>
         </is>
       </c>
       <c r="F2586" t="inlineStr"/>
       <c r="G2586" t="inlineStr">
         <is>
-          <t>1.5%</t>
-        </is>
-      </c>
-      <c r="H2586" t="n">
-        <v>1</v>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="H2586" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2587">
       <c r="A2587" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2587" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2587" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM PrelJAN</t>
+          <t>PPI QoQQ4</t>
         </is>
       </c>
       <c r="D2587" t="inlineStr"/>
       <c r="E2587" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F2587" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
+          <t>0.9%</t>
+        </is>
+      </c>
+      <c r="F2587" t="inlineStr"/>
       <c r="G2587" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H2587" t="n">
-        <v>2</v>
+          <t>0.6%</t>
+        </is>
+      </c>
+      <c r="H2587" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2588">
       <c r="A2588" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2588" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2588" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM PrelJAN</t>
+          <t>Housing Credit MoMDEC</t>
         </is>
       </c>
       <c r="D2588" t="inlineStr"/>
       <c r="E2588" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F2588" t="inlineStr"/>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="F2588" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="G2588" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H2588" t="n">
-        <v>3</v>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="H2588" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2589">
       <c r="A2589" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2589" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2589" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY PrelJAN</t>
+          <t>PPI YoYQ4</t>
         </is>
       </c>
       <c r="D2589" t="inlineStr"/>
       <c r="E2589" t="inlineStr">
         <is>
-          <t>1.8%</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="F2589" t="inlineStr"/>
       <c r="G2589" t="inlineStr">
         <is>
-          <t>2.0%</t>
-        </is>
-      </c>
-      <c r="H2589" t="n">
-        <v>3</v>
+          <t>3.6%</t>
+        </is>
+      </c>
+      <c r="H2589" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2590">
       <c r="A2590" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2590" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2590" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Private Sector Credit MoMDEC</t>
         </is>
       </c>
       <c r="D2590" t="inlineStr"/>
       <c r="E2590" t="inlineStr">
         <is>
-          <t>3.2%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F2590" t="inlineStr"/>
       <c r="G2590" t="inlineStr">
         <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H2590" t="n">
-        <v>3</v>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="H2590" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2591">
       <c r="A2591" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2591" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2591" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Private Sector Credit YoYDEC</t>
         </is>
       </c>
       <c r="D2591" t="inlineStr"/>
       <c r="E2591" t="inlineStr">
         <is>
-          <t>-5.2%</t>
+          <t>6.2%</t>
         </is>
       </c>
       <c r="F2591" t="inlineStr"/>
       <c r="G2591" t="inlineStr">
         <is>
-          <t>-4.3%</t>
-        </is>
-      </c>
-      <c r="H2591" t="n">
-        <v>3</v>
+          <t>5.7%</t>
+        </is>
+      </c>
+      <c r="H2591" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2592">
       <c r="A2592" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2592" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2592" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Bank LendingDEC</t>
         </is>
       </c>
       <c r="D2592" t="inlineStr"/>
       <c r="E2592" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>S$819.4B</t>
         </is>
       </c>
       <c r="F2592" t="inlineStr"/>
       <c r="G2592" t="inlineStr">
         <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="H2592" t="n">
-        <v>3</v>
+          <t>S$ 818.2B</t>
+        </is>
+      </c>
+      <c r="H2592" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2593">
       <c r="A2593" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>09:05 AM</t>
         </is>
       </c>
       <c r="B2593" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2593" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>2-Year JGB Auction</t>
         </is>
       </c>
       <c r="D2593" t="inlineStr"/>
       <c r="E2593" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>0.602%</t>
         </is>
       </c>
       <c r="F2593" t="inlineStr"/>
-      <c r="G2593" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H2593" t="n">
-        <v>3</v>
+      <c r="G2593" t="inlineStr"/>
+      <c r="H2593" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2594">
       <c r="A2594" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>09:05 AM</t>
         </is>
       </c>
       <c r="B2594" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2594" t="inlineStr">
         <is>
-          <t>Tourist Arrivals YoYDEC</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2594" t="inlineStr"/>
       <c r="E2594" t="inlineStr">
         <is>
-          <t>8.25%</t>
+          <t>0.3657%</t>
         </is>
       </c>
       <c r="F2594" t="inlineStr"/>
       <c r="G2594" t="inlineStr"/>
-      <c r="H2594" t="n">
-        <v>3</v>
+      <c r="H2594" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2595">
       <c r="A2595" t="inlineStr">
         <is>
-          <t>02:25 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2595" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2595" t="inlineStr">
         <is>
-          <t>Unemployment ChangeJAN</t>
+          <t>Housing Starts YoYDEC</t>
         </is>
       </c>
       <c r="D2595" t="inlineStr"/>
       <c r="E2595" t="inlineStr">
         <is>
-          <t>10K</t>
+          <t>-1.8%</t>
         </is>
       </c>
       <c r="F2595" t="inlineStr">
         <is>
-          <t>15K</t>
+          <t>-3.9%</t>
         </is>
       </c>
       <c r="G2595" t="inlineStr">
         <is>
-          <t>7.0K</t>
-        </is>
-      </c>
-      <c r="H2595" t="n">
-        <v>1</v>
+          <t>-3.3%</t>
+        </is>
+      </c>
+      <c r="H2595" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2596">
       <c r="A2596" t="inlineStr">
         <is>
-          <t>02:25 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2596" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2596" t="inlineStr">
         <is>
-          <t>Unemployed PersonsJAN</t>
+          <t>Construction Orders YoYDEC</t>
         </is>
       </c>
       <c r="D2596" t="inlineStr"/>
       <c r="E2596" t="inlineStr">
         <is>
-          <t>2.869M</t>
+          <t>-10.2%</t>
         </is>
       </c>
       <c r="F2596" t="inlineStr"/>
       <c r="G2596" t="inlineStr">
         <is>
-          <t>2.876M</t>
-        </is>
-      </c>
-      <c r="H2596" t="n">
-        <v>2</v>
+          <t>5.5%</t>
+        </is>
+      </c>
+      <c r="H2596" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2597">
       <c r="A2597" t="inlineStr">
         <is>
-          <t>02:25 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2597" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2597" t="inlineStr">
         <is>
-          <t>Unemployment RateJAN</t>
+          <t>Business ConfidenceQ4</t>
         </is>
       </c>
       <c r="D2597" t="inlineStr"/>
       <c r="E2597" t="inlineStr">
         <is>
-          <t>6.1%</t>
-        </is>
-      </c>
-      <c r="F2597" t="inlineStr">
-        <is>
-          <t>6.2%</t>
-        </is>
-      </c>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F2597" t="inlineStr"/>
       <c r="G2597" t="inlineStr">
         <is>
-          <t>6.2%</t>
-        </is>
-      </c>
-      <c r="H2597" t="n">
-        <v>2</v>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H2597" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2598">
       <c r="A2598" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2598" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2598" t="inlineStr">
         <is>
-          <t>ECB Survey of Professional Forecasters</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D2598" t="inlineStr"/>
-      <c r="E2598" t="inlineStr"/>
-      <c r="F2598" t="inlineStr"/>
-      <c r="G2598" t="inlineStr"/>
-      <c r="H2598" t="n">
-        <v>2</v>
+      <c r="E2598" t="inlineStr">
+        <is>
+          <t>-0.6%</t>
+        </is>
+      </c>
+      <c r="F2598" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="G2598" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="H2598" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2599">
       <c r="A2599" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2599" t="inlineStr">
@@ -83856,315 +84310,389 @@
       </c>
       <c r="C2599" t="inlineStr">
         <is>
-          <t>Baden Wuerttemberg CPI MoMJAN</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="D2599" t="inlineStr"/>
       <c r="E2599" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>2.5%</t>
         </is>
       </c>
       <c r="F2599" t="inlineStr"/>
-      <c r="G2599" t="inlineStr"/>
-      <c r="H2599" t="n">
-        <v>3</v>
+      <c r="G2599" t="inlineStr">
+        <is>
+          <t>1.9%</t>
+        </is>
+      </c>
+      <c r="H2599" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2600">
       <c r="A2600" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2600" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2600" t="inlineStr">
         <is>
-          <t>Baden Wuerttemberg CPI YoYJAN</t>
+          <t>Balance of Trade FinalDEC</t>
         </is>
       </c>
       <c r="D2600" t="inlineStr"/>
       <c r="E2600" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>$-7.46B</t>
         </is>
       </c>
       <c r="F2600" t="inlineStr"/>
-      <c r="G2600" t="inlineStr"/>
-      <c r="H2600" t="n">
-        <v>3</v>
+      <c r="G2600" t="inlineStr">
+        <is>
+          <t>$-8.82B</t>
+        </is>
+      </c>
+      <c r="H2600" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2601">
       <c r="A2601" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2601" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2601" t="inlineStr">
         <is>
-          <t>Bavaria CPI MoMJAN</t>
+          <t>Exports FinalDEC</t>
         </is>
       </c>
       <c r="D2601" t="inlineStr"/>
       <c r="E2601" t="inlineStr">
         <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="F2601" t="inlineStr"/>
-      <c r="G2601" t="inlineStr"/>
-      <c r="H2601" t="n">
-        <v>3</v>
+          <t>$22.29B</t>
+        </is>
+      </c>
+      <c r="F2601" t="inlineStr">
+        <is>
+          <t>$23.46B</t>
+        </is>
+      </c>
+      <c r="G2601" t="inlineStr">
+        <is>
+          <t>$ 23.46B</t>
+        </is>
+      </c>
+      <c r="H2601" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2602">
       <c r="A2602" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2602" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2602" t="inlineStr">
         <is>
-          <t>Bavaria CPI YoYJAN</t>
+          <t>Imports FinalDEC</t>
         </is>
       </c>
       <c r="D2602" t="inlineStr"/>
       <c r="E2602" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>$29.75B</t>
         </is>
       </c>
       <c r="F2602" t="inlineStr"/>
-      <c r="G2602" t="inlineStr"/>
-      <c r="H2602" t="n">
-        <v>3</v>
+      <c r="G2602" t="inlineStr">
+        <is>
+          <t>$32.29B</t>
+        </is>
+      </c>
+      <c r="H2602" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2603">
       <c r="A2603" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2603" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2603" t="inlineStr">
         <is>
-          <t>Brandenburg CPI MoMJAN</t>
+          <t>Tourism RevenuesQ4</t>
         </is>
       </c>
       <c r="D2603" t="inlineStr"/>
       <c r="E2603" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>$23.22B</t>
         </is>
       </c>
       <c r="F2603" t="inlineStr"/>
-      <c r="G2603" t="inlineStr"/>
-      <c r="H2603" t="n">
-        <v>3</v>
+      <c r="G2603" t="inlineStr">
+        <is>
+          <t>$ 23.5B</t>
+        </is>
+      </c>
+      <c r="H2603" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2604">
       <c r="A2604" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2604" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2604" t="inlineStr">
         <is>
-          <t>Brandenburg CPI YoYJAN</t>
+          <t>Nationwide Housing Prices MoMJAN</t>
         </is>
       </c>
       <c r="D2604" t="inlineStr"/>
       <c r="E2604" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="F2604" t="inlineStr"/>
-      <c r="G2604" t="inlineStr"/>
-      <c r="H2604" t="n">
-        <v>3</v>
+      <c r="G2604" t="inlineStr">
+        <is>
+          <t>0.9%</t>
+        </is>
+      </c>
+      <c r="H2604" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2605">
       <c r="A2605" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2605" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2605" t="inlineStr">
         <is>
-          <t>Hesse CPI MoMJAN</t>
+          <t>Nationwide Housing Prices YoYJAN</t>
         </is>
       </c>
       <c r="D2605" t="inlineStr"/>
       <c r="E2605" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>4.7%</t>
         </is>
       </c>
       <c r="F2605" t="inlineStr"/>
-      <c r="G2605" t="inlineStr"/>
-      <c r="H2605" t="n">
-        <v>3</v>
+      <c r="G2605" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
+      <c r="H2605" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2606">
       <c r="A2606" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2606" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2606" t="inlineStr">
         <is>
-          <t>Hesse CPI YoYJAN</t>
+          <t>Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2606" t="inlineStr"/>
       <c r="E2606" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>1.3%</t>
         </is>
       </c>
       <c r="F2606" t="inlineStr"/>
-      <c r="G2606" t="inlineStr"/>
-      <c r="H2606" t="n">
-        <v>3</v>
+      <c r="G2606" t="inlineStr">
+        <is>
+          <t>1.5%</t>
+        </is>
+      </c>
+      <c r="H2606" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="2607">
       <c r="A2607" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2607" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2607" t="inlineStr">
         <is>
-          <t>North Rhine Westphalia CPI MoMJAN</t>
+          <t>Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2607" t="inlineStr"/>
       <c r="E2607" t="inlineStr">
         <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="F2607" t="inlineStr"/>
-      <c r="G2607" t="inlineStr"/>
-      <c r="H2607" t="n">
-        <v>3</v>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="F2607" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="G2607" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="H2607" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2608">
       <c r="A2608" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2608" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2608" t="inlineStr">
         <is>
-          <t>North Rhine Westphalia CPI YoYJAN</t>
+          <t>Harmonised Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2608" t="inlineStr"/>
       <c r="E2608" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F2608" t="inlineStr"/>
-      <c r="G2608" t="inlineStr"/>
-      <c r="H2608" t="n">
-        <v>3</v>
+      <c r="G2608" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="H2608" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2609">
       <c r="A2609" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2609" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2609" t="inlineStr">
         <is>
-          <t>Saxony CPI MoMJAN</t>
+          <t>Harmonised Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2609" t="inlineStr"/>
       <c r="E2609" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>1.8%</t>
         </is>
       </c>
       <c r="F2609" t="inlineStr"/>
-      <c r="G2609" t="inlineStr"/>
-      <c r="H2609" t="n">
-        <v>3</v>
+      <c r="G2609" t="inlineStr">
+        <is>
+          <t>2.0%</t>
+        </is>
+      </c>
+      <c r="H2609" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2610">
       <c r="A2610" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2610" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2610" t="inlineStr">
         <is>
-          <t>Saxony CPI YoYJAN</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D2610" t="inlineStr"/>
@@ -84174,63 +84702,71 @@
         </is>
       </c>
       <c r="F2610" t="inlineStr"/>
-      <c r="G2610" t="inlineStr"/>
-      <c r="H2610" t="n">
-        <v>3</v>
+      <c r="G2610" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="H2610" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2611">
       <c r="A2611" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2611" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2611" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D2611" t="inlineStr"/>
       <c r="E2611" t="inlineStr">
         <is>
-          <t>€4.9B</t>
+          <t>-5.2%</t>
         </is>
       </c>
       <c r="F2611" t="inlineStr"/>
       <c r="G2611" t="inlineStr">
         <is>
-          <t>€5.0B</t>
-        </is>
-      </c>
-      <c r="H2611" t="n">
-        <v>3</v>
+          <t>-4.3%</t>
+        </is>
+      </c>
+      <c r="H2611" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2612">
       <c r="A2612" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2612" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2612" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D2612" t="inlineStr"/>
       <c r="E2612" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>-0.6%</t>
         </is>
       </c>
       <c r="F2612" t="inlineStr"/>
@@ -84239,30 +84775,32 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2612" t="n">
-        <v>3</v>
+      <c r="H2612" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2613">
       <c r="A2613" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2613" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2613" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="D2613" t="inlineStr"/>
       <c r="E2613" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="F2613" t="inlineStr"/>
@@ -84271,290 +84809,302 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2613" t="n">
-        <v>3</v>
+      <c r="H2613" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2614">
       <c r="A2614" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2614" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2614" t="inlineStr">
         <is>
-          <t>Government Budget ValueDEC</t>
+          <t>Tourist Arrivals YoYDEC</t>
         </is>
       </c>
       <c r="D2614" t="inlineStr"/>
       <c r="E2614" t="inlineStr">
         <is>
-          <t>INR-8465.9B</t>
+          <t>8.25%</t>
         </is>
       </c>
       <c r="F2614" t="inlineStr"/>
-      <c r="G2614" t="inlineStr">
-        <is>
-          <t>INR-9700.0B</t>
-        </is>
-      </c>
-      <c r="H2614" t="n">
-        <v>3</v>
+      <c r="G2614" t="inlineStr"/>
+      <c r="H2614" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2615">
       <c r="A2615" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>02:25 PM</t>
         </is>
       </c>
       <c r="B2615" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2615" t="inlineStr">
         <is>
-          <t>Gross Debt to GDPDEC</t>
+          <t>Unemployment ChangeJAN</t>
         </is>
       </c>
       <c r="D2615" t="inlineStr"/>
       <c r="E2615" t="inlineStr">
         <is>
-          <t>77.7%</t>
-        </is>
-      </c>
-      <c r="F2615" t="inlineStr"/>
+          <t>10K</t>
+        </is>
+      </c>
+      <c r="F2615" t="inlineStr">
+        <is>
+          <t>15K</t>
+        </is>
+      </c>
       <c r="G2615" t="inlineStr">
         <is>
-          <t>77.9%</t>
-        </is>
-      </c>
-      <c r="H2615" t="n">
-        <v>3</v>
+          <t>7.0K</t>
+        </is>
+      </c>
+      <c r="H2615" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="2616">
       <c r="A2616" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>02:25 PM</t>
         </is>
       </c>
       <c r="B2616" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2616" t="inlineStr">
         <is>
-          <t>Nominal Budget BalanceDEC</t>
+          <t>Unemployed PersonsJAN</t>
         </is>
       </c>
       <c r="D2616" t="inlineStr"/>
       <c r="E2616" t="inlineStr">
         <is>
-          <t>BRL-99.1B</t>
+          <t>2.869M</t>
         </is>
       </c>
       <c r="F2616" t="inlineStr"/>
       <c r="G2616" t="inlineStr">
         <is>
-          <t>BRL-103.0B</t>
-        </is>
-      </c>
-      <c r="H2616" t="n">
-        <v>3</v>
+          <t>2.876M</t>
+        </is>
+      </c>
+      <c r="H2616" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2617">
       <c r="A2617" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>02:25 PM</t>
         </is>
       </c>
       <c r="B2617" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2617" t="inlineStr">
         <is>
-          <t>Bank Loan Growth YoYJAN/17</t>
+          <t>Unemployment RateJAN</t>
         </is>
       </c>
       <c r="D2617" t="inlineStr"/>
       <c r="E2617" t="inlineStr">
         <is>
-          <t>11.2%</t>
-        </is>
-      </c>
-      <c r="F2617" t="inlineStr"/>
-      <c r="G2617" t="inlineStr"/>
-      <c r="H2617" t="n">
-        <v>3</v>
+          <t>6.1%</t>
+        </is>
+      </c>
+      <c r="F2617" t="inlineStr">
+        <is>
+          <t>6.2%</t>
+        </is>
+      </c>
+      <c r="G2617" t="inlineStr">
+        <is>
+          <t>6.2%</t>
+        </is>
+      </c>
+      <c r="H2617" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2618">
       <c r="A2618" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2618" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2618" t="inlineStr">
         <is>
-          <t>Deposit Growth YoYJAN/17</t>
+          <t>ECB Survey of Professional Forecasters</t>
         </is>
       </c>
       <c r="D2618" t="inlineStr"/>
-      <c r="E2618" t="inlineStr">
-        <is>
-          <t>9.8%</t>
-        </is>
-      </c>
+      <c r="E2618" t="inlineStr"/>
       <c r="F2618" t="inlineStr"/>
       <c r="G2618" t="inlineStr"/>
-      <c r="H2618" t="n">
-        <v>3</v>
+      <c r="H2618" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2619">
       <c r="A2619" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2619" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2619" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/24</t>
+          <t>Baden Wuerttemberg CPI MoMJAN</t>
         </is>
       </c>
       <c r="D2619" t="inlineStr"/>
       <c r="E2619" t="inlineStr">
         <is>
-          <t>$623.98B</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F2619" t="inlineStr"/>
       <c r="G2619" t="inlineStr"/>
-      <c r="H2619" t="n">
-        <v>3</v>
+      <c r="H2619" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2620">
       <c r="A2620" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2620" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2620" t="inlineStr">
         <is>
-          <t>Infrastructure Output YoYDEC</t>
+          <t>Baden Wuerttemberg CPI YoYJAN</t>
         </is>
       </c>
       <c r="D2620" t="inlineStr"/>
       <c r="E2620" t="inlineStr">
         <is>
-          <t>4.3%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F2620" t="inlineStr"/>
-      <c r="G2620" t="inlineStr">
-        <is>
-          <t>4.8%</t>
-        </is>
-      </c>
-      <c r="H2620" t="n">
-        <v>3</v>
+      <c r="G2620" t="inlineStr"/>
+      <c r="H2620" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2621">
       <c r="A2621" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2621" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2621" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>Bavaria CPI MoMJAN</t>
         </is>
       </c>
       <c r="D2621" t="inlineStr"/>
       <c r="E2621" t="inlineStr">
         <is>
-          <t>6.1%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F2621" t="inlineStr"/>
-      <c r="G2621" t="inlineStr">
-        <is>
-          <t>6.1%</t>
-        </is>
-      </c>
-      <c r="H2621" t="n">
-        <v>2</v>
+      <c r="G2621" t="inlineStr"/>
+      <c r="H2621" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2622">
       <c r="A2622" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2622" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2622" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Bavaria CPI YoYJAN</t>
         </is>
       </c>
       <c r="D2622" t="inlineStr"/>
       <c r="E2622" t="inlineStr">
         <is>
-          <t>ZAR34.7B</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="F2622" t="inlineStr"/>
-      <c r="G2622" t="inlineStr">
-        <is>
-          <t>ZAR 27.0B</t>
-        </is>
-      </c>
-      <c r="H2622" t="n">
-        <v>2</v>
+      <c r="G2622" t="inlineStr"/>
+      <c r="H2622" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2623">
       <c r="A2623" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2623" t="inlineStr">
@@ -84564,33 +85114,27 @@
       </c>
       <c r="C2623" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelJAN</t>
+          <t>Brandenburg CPI MoMJAN</t>
         </is>
       </c>
       <c r="D2623" t="inlineStr"/>
       <c r="E2623" t="inlineStr">
         <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="F2623" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="G2623" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="H2623" t="n">
-        <v>1</v>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="F2623" t="inlineStr"/>
+      <c r="G2623" t="inlineStr"/>
+      <c r="H2623" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2624">
       <c r="A2624" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2624" t="inlineStr">
@@ -84600,33 +85144,27 @@
       </c>
       <c r="C2624" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM PrelJAN</t>
+          <t>Brandenburg CPI YoYJAN</t>
         </is>
       </c>
       <c r="D2624" t="inlineStr"/>
       <c r="E2624" t="inlineStr">
         <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="F2624" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="G2624" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H2624" t="n">
-        <v>2</v>
+          <t>2.4%</t>
+        </is>
+      </c>
+      <c r="F2624" t="inlineStr"/>
+      <c r="G2624" t="inlineStr"/>
+      <c r="H2624" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2625">
       <c r="A2625" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2625" t="inlineStr">
@@ -84636,29 +85174,27 @@
       </c>
       <c r="C2625" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM PrelJAN</t>
+          <t>Hesse CPI MoMJAN</t>
         </is>
       </c>
       <c r="D2625" t="inlineStr"/>
       <c r="E2625" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F2625" t="inlineStr"/>
-      <c r="G2625" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H2625" t="n">
-        <v>3</v>
+      <c r="G2625" t="inlineStr"/>
+      <c r="H2625" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2626">
       <c r="A2626" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2626" t="inlineStr">
@@ -84668,879 +85204,973 @@
       </c>
       <c r="C2626" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY PrelJAN</t>
+          <t>Hesse CPI YoYJAN</t>
         </is>
       </c>
       <c r="D2626" t="inlineStr"/>
       <c r="E2626" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F2626" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
-      <c r="G2626" t="inlineStr">
-        <is>
-          <t>3.0%</t>
-        </is>
-      </c>
-      <c r="H2626" t="n">
-        <v>3</v>
+          <t>2.4%</t>
+        </is>
+      </c>
+      <c r="F2626" t="inlineStr"/>
+      <c r="G2626" t="inlineStr"/>
+      <c r="H2626" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2627">
       <c r="A2627" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2627" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2627" t="inlineStr">
         <is>
-          <t>GDP MoMNOV</t>
+          <t>North Rhine Westphalia CPI MoMJAN</t>
         </is>
       </c>
       <c r="D2627" t="inlineStr"/>
       <c r="E2627" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F2627" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="G2627" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="H2627" t="n">
-        <v>2</v>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="F2627" t="inlineStr"/>
+      <c r="G2627" t="inlineStr"/>
+      <c r="H2627" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2628">
       <c r="A2628" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2628" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2628" t="inlineStr">
         <is>
-          <t>GDP MoM PrelDEC</t>
+          <t>North Rhine Westphalia CPI YoYJAN</t>
         </is>
       </c>
       <c r="D2628" t="inlineStr"/>
       <c r="E2628" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>2.5%</t>
         </is>
       </c>
       <c r="F2628" t="inlineStr"/>
-      <c r="G2628" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H2628" t="n">
-        <v>2</v>
+      <c r="G2628" t="inlineStr"/>
+      <c r="H2628" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2629">
       <c r="A2629" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2629" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2629" t="inlineStr">
         <is>
-          <t>Core PCE Price Index MoMDEC</t>
+          <t>Saxony CPI MoMJAN</t>
         </is>
       </c>
       <c r="D2629" t="inlineStr"/>
       <c r="E2629" t="inlineStr">
         <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F2629" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G2629" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H2629" t="n">
-        <v>1</v>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="F2629" t="inlineStr"/>
+      <c r="G2629" t="inlineStr"/>
+      <c r="H2629" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2630">
       <c r="A2630" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2630" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2630" t="inlineStr">
         <is>
-          <t>Personal Income MoMDEC</t>
+          <t>Saxony CPI YoYJAN</t>
         </is>
       </c>
       <c r="D2630" t="inlineStr"/>
       <c r="E2630" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F2630" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G2630" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H2630" t="n">
-        <v>1</v>
+          <t>3.2%</t>
+        </is>
+      </c>
+      <c r="F2630" t="inlineStr"/>
+      <c r="G2630" t="inlineStr"/>
+      <c r="H2630" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2631">
       <c r="A2631" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2631" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2631" t="inlineStr">
         <is>
-          <t>Personal Spending MoMDEC</t>
+          <t>Current AccountNOV</t>
         </is>
       </c>
       <c r="D2631" t="inlineStr"/>
       <c r="E2631" t="inlineStr">
         <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F2631" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>€4.9B</t>
+        </is>
+      </c>
+      <c r="F2631" t="inlineStr"/>
       <c r="G2631" t="inlineStr">
         <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H2631" t="n">
-        <v>1</v>
+          <t>€5.0B</t>
+        </is>
+      </c>
+      <c r="H2631" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2632">
       <c r="A2632" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2632" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2632" t="inlineStr">
         <is>
-          <t>Employment Cost - Benefits QoQQ4</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D2632" t="inlineStr"/>
       <c r="E2632" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="F2632" t="inlineStr"/>
       <c r="G2632" t="inlineStr">
         <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="H2632" t="n">
-        <v>2</v>
+          <t>0.6%</t>
+        </is>
+      </c>
+      <c r="H2632" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2633">
       <c r="A2633" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2633" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2633" t="inlineStr">
         <is>
-          <t>Employment Cost - Wages QoQQ4</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D2633" t="inlineStr"/>
       <c r="E2633" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="F2633" t="inlineStr"/>
       <c r="G2633" t="inlineStr">
         <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="H2633" t="n">
-        <v>2</v>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="H2633" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2634">
       <c r="A2634" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B2634" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2634" t="inlineStr">
         <is>
-          <t>Employment Cost Index QoQQ4</t>
+          <t>Government Budget ValueDEC</t>
         </is>
       </c>
       <c r="D2634" t="inlineStr"/>
       <c r="E2634" t="inlineStr">
         <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="F2634" t="inlineStr">
-        <is>
-          <t>1%</t>
-        </is>
-      </c>
+          <t>INR-8465.9B</t>
+        </is>
+      </c>
+      <c r="F2634" t="inlineStr"/>
       <c r="G2634" t="inlineStr">
         <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="H2634" t="n">
-        <v>2</v>
+          <t>INR-9700.0B</t>
+        </is>
+      </c>
+      <c r="H2634" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2635">
       <c r="A2635" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2635" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2635" t="inlineStr">
         <is>
-          <t>Fed Bowman Speech</t>
+          <t>Gross Debt to GDPDEC</t>
         </is>
       </c>
       <c r="D2635" t="inlineStr"/>
-      <c r="E2635" t="inlineStr"/>
+      <c r="E2635" t="inlineStr">
+        <is>
+          <t>77.7%</t>
+        </is>
+      </c>
       <c r="F2635" t="inlineStr"/>
-      <c r="G2635" t="inlineStr"/>
-      <c r="H2635" t="n">
-        <v>2</v>
+      <c r="G2635" t="inlineStr">
+        <is>
+          <t>77.9%</t>
+        </is>
+      </c>
+      <c r="H2635" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2636">
       <c r="A2636" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2636" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2636" t="inlineStr">
         <is>
-          <t>PCE Price Index MoMDEC</t>
+          <t>Nominal Budget BalanceDEC</t>
         </is>
       </c>
       <c r="D2636" t="inlineStr"/>
       <c r="E2636" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>BRL-99.1B</t>
         </is>
       </c>
       <c r="F2636" t="inlineStr"/>
       <c r="G2636" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H2636" t="n">
-        <v>2</v>
+          <t>BRL-103.0B</t>
+        </is>
+      </c>
+      <c r="H2636" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2637">
       <c r="A2637" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2637" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2637" t="inlineStr">
         <is>
-          <t>PCE Price Index YoYDEC</t>
+          <t>Bank Loan Growth YoYJAN/17</t>
         </is>
       </c>
       <c r="D2637" t="inlineStr"/>
       <c r="E2637" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>11.2%</t>
         </is>
       </c>
       <c r="F2637" t="inlineStr"/>
-      <c r="G2637" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="H2637" t="n">
-        <v>2</v>
+      <c r="G2637" t="inlineStr"/>
+      <c r="H2637" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2638">
       <c r="A2638" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2638" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2638" t="inlineStr">
         <is>
-          <t>Core PCE Price Index YoYDEC</t>
+          <t>Deposit Growth YoYJAN/17</t>
         </is>
       </c>
       <c r="D2638" t="inlineStr"/>
       <c r="E2638" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>9.8%</t>
         </is>
       </c>
       <c r="F2638" t="inlineStr"/>
-      <c r="G2638" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="H2638" t="n">
-        <v>3</v>
+      <c r="G2638" t="inlineStr"/>
+      <c r="H2638" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2639">
       <c r="A2639" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2639" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2639" t="inlineStr">
         <is>
-          <t>Chicago PMIJAN</t>
+          <t>Foreign Exchange ReservesJAN/24</t>
         </is>
       </c>
       <c r="D2639" t="inlineStr"/>
       <c r="E2639" t="inlineStr">
         <is>
-          <t>36.9</t>
-        </is>
-      </c>
-      <c r="F2639" t="inlineStr">
-        <is>
-          <t>39.9</t>
-        </is>
-      </c>
-      <c r="G2639" t="inlineStr">
-        <is>
-          <t>37.2</t>
-        </is>
-      </c>
-      <c r="H2639" t="n">
-        <v>2</v>
+          <t>$623.98B</t>
+        </is>
+      </c>
+      <c r="F2639" t="inlineStr"/>
+      <c r="G2639" t="inlineStr"/>
+      <c r="H2639" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2640">
       <c r="A2640" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2640" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2640" t="inlineStr">
         <is>
-          <t>Budget BalanceNOV</t>
+          <t>Infrastructure Output YoYDEC</t>
         </is>
       </c>
       <c r="D2640" t="inlineStr"/>
       <c r="E2640" t="inlineStr">
         <is>
-          <t>C$-1.49B</t>
+          <t>4.3%</t>
         </is>
       </c>
       <c r="F2640" t="inlineStr"/>
       <c r="G2640" t="inlineStr">
         <is>
-          <t>C$-1.9B</t>
-        </is>
-      </c>
-      <c r="H2640" t="n">
-        <v>3</v>
+          <t>4.8%</t>
+        </is>
+      </c>
+      <c r="H2640" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2641">
       <c r="A2641" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2641" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2641" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/31</t>
+          <t>Unemployment RateDEC</t>
         </is>
       </c>
       <c r="D2641" t="inlineStr"/>
       <c r="E2641" t="inlineStr">
         <is>
-          <t>472</t>
+          <t>6.1%</t>
         </is>
       </c>
       <c r="F2641" t="inlineStr"/>
-      <c r="G2641" t="inlineStr"/>
-      <c r="H2641" t="n">
-        <v>3</v>
+      <c r="G2641" t="inlineStr">
+        <is>
+          <t>6.1%</t>
+        </is>
+      </c>
+      <c r="H2641" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2642">
       <c r="A2642" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2642" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2642" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/31</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D2642" t="inlineStr"/>
       <c r="E2642" t="inlineStr">
         <is>
-          <t>576</t>
+          <t>ZAR34.7B</t>
         </is>
       </c>
       <c r="F2642" t="inlineStr"/>
-      <c r="G2642" t="inlineStr"/>
-      <c r="H2642" t="n">
-        <v>3</v>
+      <c r="G2642" t="inlineStr">
+        <is>
+          <t>ZAR 27.0B</t>
+        </is>
+      </c>
+      <c r="H2642" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2643">
-      <c r="A2643" t="inlineStr"/>
+      <c r="A2643" t="inlineStr">
+        <is>
+          <t>06:30 PM</t>
+        </is>
+      </c>
       <c r="B2643" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2643" t="inlineStr">
         <is>
-          <t>Fiscal BalanceDEC</t>
+          <t>Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2643" t="inlineStr"/>
       <c r="E2643" t="inlineStr">
         <is>
-          <t>MXN-1064.93B</t>
-        </is>
-      </c>
-      <c r="F2643" t="inlineStr"/>
+          <t>2.6%</t>
+        </is>
+      </c>
+      <c r="F2643" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
       <c r="G2643" t="inlineStr">
         <is>
-          <t>MXN-1120.0B</t>
-        </is>
-      </c>
-      <c r="H2643" t="n">
-        <v>3</v>
+          <t>2.6%</t>
+        </is>
+      </c>
+      <c r="H2643" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="2644">
-      <c r="A2644" t="inlineStr"/>
+      <c r="A2644" t="inlineStr">
+        <is>
+          <t>06:30 PM</t>
+        </is>
+      </c>
       <c r="B2644" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2644" t="inlineStr">
         <is>
-          <t>CoreLogic Dwelling Prices MoMJAN</t>
+          <t>Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2644" t="inlineStr"/>
       <c r="E2644" t="inlineStr">
         <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F2644" t="inlineStr"/>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="F2644" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
       <c r="G2644" t="inlineStr">
         <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="H2644" t="n">
-        <v>3</v>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="H2644" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2645">
-      <c r="A2645" t="inlineStr"/>
+      <c r="A2645" t="inlineStr">
+        <is>
+          <t>06:30 PM</t>
+        </is>
+      </c>
       <c r="B2645" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2645" t="inlineStr">
         <is>
-          <t>Consumer Inflation ExpectationsDEC</t>
+          <t>Harmonised Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2645" t="inlineStr"/>
       <c r="E2645" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="F2645" t="inlineStr"/>
       <c r="G2645" t="inlineStr">
         <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="H2645" t="n">
-        <v>3</v>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="H2645" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2646">
-      <c r="A2646" t="inlineStr"/>
+      <c r="A2646" t="inlineStr">
+        <is>
+          <t>06:30 PM</t>
+        </is>
+      </c>
       <c r="B2646" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2646" t="inlineStr">
         <is>
-          <t>New Car Registrations YoYJAN</t>
+          <t>Harmonised Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2646" t="inlineStr"/>
       <c r="E2646" t="inlineStr">
         <is>
-          <t>1.5%</t>
-        </is>
-      </c>
-      <c r="F2646" t="inlineStr"/>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="F2646" t="inlineStr">
+        <is>
+          <t>2.9%</t>
+        </is>
+      </c>
       <c r="G2646" t="inlineStr">
         <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="H2646" t="n">
-        <v>3</v>
+          <t>3.0%</t>
+        </is>
+      </c>
+      <c r="H2646" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2647">
-      <c r="A2647" t="inlineStr"/>
+      <c r="A2647" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
       <c r="B2647" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2647" t="inlineStr">
         <is>
-          <t>New Car Sales YoYJAN</t>
+          <t>GDP MoMNOV</t>
         </is>
       </c>
       <c r="D2647" t="inlineStr"/>
       <c r="E2647" t="inlineStr">
         <is>
-          <t>28.8%</t>
-        </is>
-      </c>
-      <c r="F2647" t="inlineStr"/>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="F2647" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
       <c r="G2647" t="inlineStr">
         <is>
-          <t>2.5%</t>
-        </is>
-      </c>
-      <c r="H2647" t="n">
-        <v>3</v>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="H2647" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2648">
-      <c r="A2648" t="inlineStr"/>
+      <c r="A2648" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
       <c r="B2648" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2648" t="inlineStr">
         <is>
-          <t>New Car Registrations YoYJAN</t>
+          <t>GDP MoM PrelDEC</t>
         </is>
       </c>
       <c r="D2648" t="inlineStr"/>
       <c r="E2648" t="inlineStr">
         <is>
-          <t>-4.9%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F2648" t="inlineStr"/>
       <c r="G2648" t="inlineStr">
         <is>
-          <t>-4.0%</t>
-        </is>
-      </c>
-      <c r="H2648" t="n">
-        <v>3</v>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="H2648" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2649">
-      <c r="A2649" t="inlineStr"/>
+      <c r="A2649" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
       <c r="B2649" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2649" t="inlineStr">
         <is>
-          <t>M2 Money Supply YoYDEC</t>
+          <t>Core PCE Price Index MoMDEC</t>
         </is>
       </c>
       <c r="D2649" t="inlineStr"/>
       <c r="E2649" t="inlineStr">
         <is>
-          <t>20%</t>
-        </is>
-      </c>
-      <c r="F2649" t="inlineStr"/>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F2649" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="G2649" t="inlineStr">
         <is>
-          <t>20.7%</t>
-        </is>
-      </c>
-      <c r="H2649" t="n">
-        <v>3</v>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="H2649" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="2650">
       <c r="A2650" t="inlineStr">
         <is>
-          <t>Saturday February 01 2025</t>
-        </is>
-      </c>
-      <c r="B2650" t="inlineStr"/>
-      <c r="C2650" t="inlineStr"/>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B2650" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2650" t="inlineStr">
+        <is>
+          <t>Personal Income MoMDEC</t>
+        </is>
+      </c>
       <c r="D2650" t="inlineStr"/>
-      <c r="E2650" t="inlineStr"/>
-      <c r="F2650" t="inlineStr"/>
-      <c r="G2650" t="inlineStr"/>
-      <c r="H2650" t="inlineStr"/>
+      <c r="E2650" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="F2650" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="G2650" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="H2650" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="2651">
       <c r="A2651" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2651" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2651" t="inlineStr">
         <is>
-          <t>Exports YoYJAN</t>
+          <t>Personal Spending MoMDEC</t>
         </is>
       </c>
       <c r="D2651" t="inlineStr"/>
       <c r="E2651" t="inlineStr">
         <is>
-          <t>6.6%</t>
-        </is>
-      </c>
-      <c r="F2651" t="inlineStr"/>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="F2651" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="G2651" t="inlineStr">
         <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H2651" t="n">
-        <v>2</v>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="H2651" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="2652">
       <c r="A2652" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2652" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2652" t="inlineStr">
         <is>
-          <t>Balance of TradeJAN</t>
+          <t>Employment Cost - Benefits QoQQ4</t>
         </is>
       </c>
       <c r="D2652" t="inlineStr"/>
       <c r="E2652" t="inlineStr">
         <is>
-          <t>$6.49B</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F2652" t="inlineStr"/>
       <c r="G2652" t="inlineStr">
         <is>
-          <t>$0.9B</t>
-        </is>
-      </c>
-      <c r="H2652" t="n">
-        <v>3</v>
+          <t>0.7%</t>
+        </is>
+      </c>
+      <c r="H2652" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2653">
       <c r="A2653" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2653" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2653" t="inlineStr">
         <is>
-          <t>Imports YoYJAN</t>
+          <t>Employment Cost - Wages QoQQ4</t>
         </is>
       </c>
       <c r="D2653" t="inlineStr"/>
       <c r="E2653" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F2653" t="inlineStr"/>
       <c r="G2653" t="inlineStr">
         <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="H2653" t="n">
-        <v>3</v>
+          <t>0.7%</t>
+        </is>
+      </c>
+      <c r="H2653" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2654">
       <c r="A2654" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2654" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2654" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Employment Cost Index QoQQ4</t>
         </is>
       </c>
       <c r="D2654" t="inlineStr"/>
       <c r="E2654" t="inlineStr">
         <is>
-          <t>1.03%</t>
-        </is>
-      </c>
-      <c r="F2654" t="inlineStr"/>
-      <c r="G2654" t="inlineStr"/>
+          <t>0.8%</t>
+        </is>
+      </c>
+      <c r="F2654" t="inlineStr">
+        <is>
+          <t>1%</t>
+        </is>
+      </c>
+      <c r="G2654" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
       <c r="H2654" t="inlineStr">
         <is>
           <t>2</t>
@@ -85550,25 +86180,21 @@
     <row r="2655">
       <c r="A2655" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2655" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2655" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>Fed Bowman Speech</t>
         </is>
       </c>
       <c r="D2655" t="inlineStr"/>
-      <c r="E2655" t="inlineStr">
-        <is>
-          <t>44.38%</t>
-        </is>
-      </c>
+      <c r="E2655" t="inlineStr"/>
       <c r="F2655" t="inlineStr"/>
       <c r="G2655" t="inlineStr"/>
       <c r="H2655" t="inlineStr">
@@ -85580,87 +86206,99 @@
     <row r="2656">
       <c r="A2656" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2656" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2656" t="inlineStr">
         <is>
-          <t>Istanbul Chamber of Industry Manufacturing PMIJAN</t>
+          <t>PCE Price Index MoMDEC</t>
         </is>
       </c>
       <c r="D2656" t="inlineStr"/>
       <c r="E2656" t="inlineStr">
         <is>
-          <t>49.1</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2656" t="inlineStr"/>
-      <c r="G2656" t="inlineStr"/>
+      <c r="G2656" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H2656" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2657">
       <c r="A2657" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2657" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2657" t="inlineStr">
         <is>
-          <t>PPI MoMJAN</t>
+          <t>PCE Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D2657" t="inlineStr"/>
       <c r="E2657" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F2657" t="inlineStr"/>
-      <c r="G2657" t="inlineStr"/>
+      <c r="G2657" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="H2657" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2658">
       <c r="A2658" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2658" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2658" t="inlineStr">
         <is>
-          <t>PPI YoYJAN</t>
+          <t>Core PCE Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D2658" t="inlineStr"/>
       <c r="E2658" t="inlineStr">
         <is>
-          <t>28.52%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="F2658" t="inlineStr"/>
-      <c r="G2658" t="inlineStr"/>
+      <c r="G2658" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
       <c r="H2658" t="inlineStr">
         <is>
           <t>3</t>
@@ -85670,27 +86308,35 @@
     <row r="2659">
       <c r="A2659" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B2659" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2659" t="inlineStr">
         <is>
-          <t>Unemployment ChangeJAN</t>
+          <t>Chicago PMIJAN</t>
         </is>
       </c>
       <c r="D2659" t="inlineStr"/>
       <c r="E2659" t="inlineStr">
         <is>
-          <t>-25.3K</t>
-        </is>
-      </c>
-      <c r="F2659" t="inlineStr"/>
-      <c r="G2659" t="inlineStr"/>
+          <t>36.9</t>
+        </is>
+      </c>
+      <c r="F2659" t="inlineStr">
+        <is>
+          <t>39.9</t>
+        </is>
+      </c>
+      <c r="G2659" t="inlineStr">
+        <is>
+          <t>37.2</t>
+        </is>
+      </c>
       <c r="H2659" t="inlineStr">
         <is>
           <t>2</t>
@@ -85700,23 +86346,31 @@
     <row r="2660">
       <c r="A2660" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B2660" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2660" t="inlineStr">
         <is>
-          <t>Tourist Arrivals YoYDEC</t>
+          <t>Budget BalanceNOV</t>
         </is>
       </c>
       <c r="D2660" t="inlineStr"/>
-      <c r="E2660" t="inlineStr"/>
+      <c r="E2660" t="inlineStr">
+        <is>
+          <t>C$-1.49B</t>
+        </is>
+      </c>
       <c r="F2660" t="inlineStr"/>
-      <c r="G2660" t="inlineStr"/>
+      <c r="G2660" t="inlineStr">
+        <is>
+          <t>C$-1.9B</t>
+        </is>
+      </c>
       <c r="H2660" t="inlineStr">
         <is>
           <t>3</t>
@@ -85726,145 +86380,125 @@
     <row r="2661">
       <c r="A2661" t="inlineStr">
         <is>
-          <t>01:45 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B2661" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2661" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMIJAN</t>
+          <t>Baker Hughes Oil Rig CountJAN/31</t>
         </is>
       </c>
       <c r="D2661" t="inlineStr"/>
       <c r="E2661" t="inlineStr">
         <is>
-          <t>53.3</t>
+          <t>472</t>
         </is>
       </c>
       <c r="F2661" t="inlineStr"/>
       <c r="G2661" t="inlineStr"/>
       <c r="H2661" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2662">
       <c r="A2662" t="inlineStr">
         <is>
-          <t>02:15 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B2662" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2662" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMIJAN</t>
+          <t>Baker Hughes Total Rigs CountJAN/31</t>
         </is>
       </c>
       <c r="D2662" t="inlineStr"/>
       <c r="E2662" t="inlineStr">
         <is>
-          <t>46.2</t>
+          <t>576</t>
         </is>
       </c>
       <c r="F2662" t="inlineStr"/>
       <c r="G2662" t="inlineStr"/>
       <c r="H2662" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2663">
-      <c r="A2663" t="inlineStr">
-        <is>
-          <t>02:20 PM</t>
-        </is>
-      </c>
+      <c r="A2663" t="inlineStr"/>
       <c r="B2663" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2663" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>Fiscal BalanceDEC</t>
         </is>
       </c>
       <c r="D2663" t="inlineStr"/>
       <c r="E2663" t="inlineStr">
         <is>
-          <t>41.9</t>
-        </is>
-      </c>
-      <c r="F2663" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
+          <t>MXN-1064.93B</t>
+        </is>
+      </c>
+      <c r="F2663" t="inlineStr"/>
       <c r="G2663" t="inlineStr">
         <is>
-          <t>45.3</t>
+          <t>MXN-1120.0B</t>
         </is>
       </c>
       <c r="H2663" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2664">
-      <c r="A2664" t="inlineStr">
-        <is>
-          <t>02:25 PM</t>
-        </is>
-      </c>
+      <c r="A2664" t="inlineStr"/>
       <c r="B2664" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2664" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>CoreLogic Dwelling Prices MoMJAN</t>
         </is>
       </c>
       <c r="D2664" t="inlineStr"/>
       <c r="E2664" t="inlineStr">
         <is>
-          <t>42.5</t>
-        </is>
-      </c>
-      <c r="F2664" t="inlineStr">
-        <is>
-          <t>44.1</t>
-        </is>
-      </c>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="F2664" t="inlineStr"/>
       <c r="G2664" t="inlineStr">
         <is>
-          <t>44.1</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="H2664" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2665">
-      <c r="A2665" t="inlineStr">
-        <is>
-          <t>02:30 PM</t>
-        </is>
-      </c>
+      <c r="A2665" t="inlineStr"/>
       <c r="B2665" t="inlineStr">
         <is>
           <t>EA</t>
@@ -85872,57 +86506,49 @@
       </c>
       <c r="C2665" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>Consumer Inflation ExpectationsDEC</t>
         </is>
       </c>
       <c r="D2665" t="inlineStr"/>
       <c r="E2665" t="inlineStr">
         <is>
-          <t>45.1</t>
-        </is>
-      </c>
-      <c r="F2665" t="inlineStr">
-        <is>
-          <t>46.1</t>
-        </is>
-      </c>
+          <t>2.6%</t>
+        </is>
+      </c>
+      <c r="F2665" t="inlineStr"/>
       <c r="G2665" t="inlineStr">
         <is>
-          <t>46.1</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="H2665" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2666">
-      <c r="A2666" t="inlineStr">
-        <is>
-          <t>02:30 PM</t>
-        </is>
-      </c>
+      <c r="A2666" t="inlineStr"/>
       <c r="B2666" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2666" t="inlineStr">
         <is>
-          <t>ABSA Manufacturing PMIJAN</t>
+          <t>New Car Registrations YoYJAN</t>
         </is>
       </c>
       <c r="D2666" t="inlineStr"/>
       <c r="E2666" t="inlineStr">
         <is>
-          <t>46.2</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="F2666" t="inlineStr"/>
       <c r="G2666" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="H2666" t="inlineStr">
@@ -85932,301 +86558,281 @@
       </c>
     </row>
     <row r="2667">
-      <c r="A2667" t="inlineStr">
-        <is>
-          <t>03:00 PM</t>
-        </is>
-      </c>
+      <c r="A2667" t="inlineStr"/>
       <c r="B2667" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2667" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
+          <t>New Car Sales YoYJAN</t>
         </is>
       </c>
       <c r="D2667" t="inlineStr"/>
       <c r="E2667" t="inlineStr">
         <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="F2667" t="inlineStr">
-        <is>
-          <t>48.2</t>
-        </is>
-      </c>
+          <t>28.8%</t>
+        </is>
+      </c>
+      <c r="F2667" t="inlineStr"/>
       <c r="G2667" t="inlineStr">
         <is>
-          <t>48.2</t>
+          <t>2.5%</t>
         </is>
       </c>
       <c r="H2667" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2668">
-      <c r="A2668" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
+      <c r="A2668" t="inlineStr"/>
       <c r="B2668" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2668" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FlashJAN</t>
+          <t>New Car Registrations YoYJAN</t>
         </is>
       </c>
       <c r="D2668" t="inlineStr"/>
-      <c r="E2668" t="inlineStr"/>
+      <c r="E2668" t="inlineStr">
+        <is>
+          <t>-4.9%</t>
+        </is>
+      </c>
       <c r="F2668" t="inlineStr"/>
-      <c r="G2668" t="inlineStr"/>
+      <c r="G2668" t="inlineStr">
+        <is>
+          <t>-4.0%</t>
+        </is>
+      </c>
       <c r="H2668" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2669">
-      <c r="A2669" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
+      <c r="A2669" t="inlineStr"/>
       <c r="B2669" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2669" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoY FlashJAN</t>
+          <t>M2 Money Supply YoYDEC</t>
         </is>
       </c>
       <c r="D2669" t="inlineStr"/>
       <c r="E2669" t="inlineStr">
         <is>
-          <t>2.7%</t>
+          <t>20%</t>
         </is>
       </c>
       <c r="F2669" t="inlineStr"/>
-      <c r="G2669" t="inlineStr"/>
+      <c r="G2669" t="inlineStr">
+        <is>
+          <t>20.7%</t>
+        </is>
+      </c>
       <c r="H2669" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2670">
       <c r="A2670" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B2670" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C2670" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoM FlashJAN</t>
-        </is>
-      </c>
+          <t>Saturday February 01 2025</t>
+        </is>
+      </c>
+      <c r="B2670" t="inlineStr"/>
+      <c r="C2670" t="inlineStr"/>
       <c r="D2670" t="inlineStr"/>
       <c r="E2670" t="inlineStr"/>
       <c r="F2670" t="inlineStr"/>
       <c r="G2670" t="inlineStr"/>
-      <c r="H2670" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="H2670" t="inlineStr"/>
     </row>
     <row r="2671">
       <c r="A2671" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B2671" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2671" t="inlineStr">
         <is>
-          <t>CPI FlashJAN</t>
+          <t>Exports YoYJAN</t>
         </is>
       </c>
       <c r="D2671" t="inlineStr"/>
       <c r="E2671" t="inlineStr">
         <is>
-          <t>127.07</t>
+          <t>6.6%</t>
         </is>
       </c>
       <c r="F2671" t="inlineStr"/>
-      <c r="G2671" t="inlineStr"/>
+      <c r="G2671" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H2671" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2672">
       <c r="A2672" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B2672" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2672" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelJAN</t>
+          <t>Balance of TradeJAN</t>
         </is>
       </c>
       <c r="D2672" t="inlineStr"/>
       <c r="E2672" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>$6.49B</t>
         </is>
       </c>
       <c r="F2672" t="inlineStr"/>
-      <c r="G2672" t="inlineStr"/>
+      <c r="G2672" t="inlineStr">
+        <is>
+          <t>$0.9B</t>
+        </is>
+      </c>
       <c r="H2672" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2673">
       <c r="A2673" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B2673" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2673" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM PrelJAN</t>
+          <t>Imports YoYJAN</t>
         </is>
       </c>
       <c r="D2673" t="inlineStr"/>
       <c r="E2673" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="F2673" t="inlineStr"/>
-      <c r="G2673" t="inlineStr"/>
+      <c r="G2673" t="inlineStr">
+        <is>
+          <t>3.4%</t>
+        </is>
+      </c>
       <c r="H2673" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2674">
       <c r="A2674" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B2674" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C2674" t="inlineStr">
-        <is>
-          <t>Harmonised Inflation Rate MoM PrelJAN</t>
-        </is>
-      </c>
+          <t>Monday February 03 2025</t>
+        </is>
+      </c>
+      <c r="B2674" t="inlineStr"/>
+      <c r="C2674" t="inlineStr"/>
       <c r="D2674" t="inlineStr"/>
-      <c r="E2674" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="E2674" t="inlineStr"/>
       <c r="F2674" t="inlineStr"/>
       <c r="G2674" t="inlineStr"/>
-      <c r="H2674" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H2674" t="inlineStr"/>
     </row>
     <row r="2675">
       <c r="A2675" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>03:30 AM</t>
         </is>
       </c>
       <c r="B2675" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2675" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY PrelJAN</t>
+          <t>S&amp;P Global Australia Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2675" t="inlineStr"/>
       <c r="E2675" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>47.8</t>
         </is>
       </c>
       <c r="F2675" t="inlineStr"/>
       <c r="G2675" t="inlineStr"/>
       <c r="H2675" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2676">
       <c r="A2676" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B2676" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2676" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesDEC</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="D2676" t="inlineStr"/>
       <c r="E2676" t="inlineStr">
         <is>
-          <t>$232.2B</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="F2676" t="inlineStr"/>
       <c r="G2676" t="inlineStr">
         <is>
-          <t>$ 230B</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="H2676" t="inlineStr">
@@ -86238,29 +86844,29 @@
     <row r="2677">
       <c r="A2677" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B2677" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2677" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D2677" t="inlineStr"/>
       <c r="E2677" t="inlineStr">
         <is>
-          <t>50.4</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2677" t="inlineStr"/>
       <c r="G2677" t="inlineStr">
         <is>
-          <t>49.8</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="H2677" t="inlineStr">
@@ -86272,29 +86878,29 @@
     <row r="2678">
       <c r="A2678" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B2678" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2678" t="inlineStr">
         <is>
-          <t>SIPMM Manufacturing PMIJAN</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D2678" t="inlineStr"/>
       <c r="E2678" t="inlineStr">
         <is>
-          <t>51.1</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F2678" t="inlineStr"/>
       <c r="G2678" t="inlineStr">
         <is>
-          <t>51.4</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H2678" t="inlineStr">
@@ -86306,17 +86912,17 @@
     <row r="2679">
       <c r="A2679" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B2679" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2679" t="inlineStr">
         <is>
-          <t>Fed Bostic Speech</t>
+          <t>BoJ Summary of Opinions</t>
         </is>
       </c>
       <c r="D2679" t="inlineStr"/>
@@ -86332,73 +86938,93 @@
     <row r="2680">
       <c r="A2680" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2680" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2680" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>Building Permits MoM PrelDEC</t>
         </is>
       </c>
       <c r="D2680" t="inlineStr"/>
-      <c r="E2680" t="inlineStr"/>
+      <c r="E2680" t="inlineStr">
+        <is>
+          <t>-3.6%</t>
+        </is>
+      </c>
       <c r="F2680" t="inlineStr"/>
-      <c r="G2680" t="inlineStr"/>
+      <c r="G2680" t="inlineStr">
+        <is>
+          <t>1.5%</t>
+        </is>
+      </c>
       <c r="H2680" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2681">
       <c r="A2681" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2681" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2681" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D2681" t="inlineStr"/>
-      <c r="E2681" t="inlineStr"/>
+      <c r="E2681" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="F2681" t="inlineStr"/>
-      <c r="G2681" t="inlineStr"/>
+      <c r="G2681" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H2681" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2682">
       <c r="A2682" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2682" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2682" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>ANZ-Indeed Job Ads MoMJAN</t>
         </is>
       </c>
       <c r="D2682" t="inlineStr"/>
-      <c r="E2682" t="inlineStr"/>
+      <c r="E2682" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="F2682" t="inlineStr"/>
       <c r="G2682" t="inlineStr"/>
       <c r="H2682" t="inlineStr">
@@ -86410,125 +87036,133 @@
     <row r="2683">
       <c r="A2683" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2683" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2683" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>Private House Approvals MoM PrelDEC</t>
         </is>
       </c>
       <c r="D2683" t="inlineStr"/>
       <c r="E2683" t="inlineStr">
         <is>
-          <t>52.2</t>
+          <t>-1.7%</t>
         </is>
       </c>
       <c r="F2683" t="inlineStr"/>
       <c r="G2683" t="inlineStr"/>
       <c r="H2683" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2684">
       <c r="A2684" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2684" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2684" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2684" t="inlineStr"/>
       <c r="E2684" t="inlineStr">
         <is>
-          <t>49.4</t>
-        </is>
-      </c>
-      <c r="F2684" t="inlineStr">
-        <is>
-          <t>50.1</t>
-        </is>
-      </c>
+          <t>51.2</t>
+        </is>
+      </c>
+      <c r="F2684" t="inlineStr"/>
       <c r="G2684" t="inlineStr">
         <is>
-          <t>50.1</t>
+          <t>51.6</t>
         </is>
       </c>
       <c r="H2684" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2685">
       <c r="A2685" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2685" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2685" t="inlineStr">
         <is>
-          <t>ISM Manufacturing PMIJAN</t>
+          <t>Jibun Bank Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2685" t="inlineStr"/>
       <c r="E2685" t="inlineStr">
         <is>
-          <t>49.3</t>
-        </is>
-      </c>
-      <c r="F2685" t="inlineStr"/>
-      <c r="G2685" t="inlineStr"/>
+          <t>49.6</t>
+        </is>
+      </c>
+      <c r="F2685" t="inlineStr">
+        <is>
+          <t>48.8</t>
+        </is>
+      </c>
+      <c r="G2685" t="inlineStr">
+        <is>
+          <t>48.8</t>
+        </is>
+      </c>
       <c r="H2685" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2686">
       <c r="A2686" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2686" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2686" t="inlineStr">
         <is>
-          <t>ISM Manufacturing EmploymentJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2686" t="inlineStr"/>
       <c r="E2686" t="inlineStr">
         <is>
-          <t>45.3</t>
+          <t>49</t>
         </is>
       </c>
       <c r="F2686" t="inlineStr"/>
-      <c r="G2686" t="inlineStr"/>
+      <c r="G2686" t="inlineStr">
+        <is>
+          <t>49.5</t>
+        </is>
+      </c>
       <c r="H2686" t="inlineStr">
         <is>
           <t>2</t>
@@ -86538,83 +87172,103 @@
     <row r="2687">
       <c r="A2687" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:15 AM</t>
         </is>
       </c>
       <c r="B2687" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2687" t="inlineStr">
         <is>
-          <t>Construction Spending MoMDEC</t>
+          <t>Caixin Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2687" t="inlineStr"/>
       <c r="E2687" t="inlineStr">
         <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F2687" t="inlineStr"/>
+          <t>50.5</t>
+        </is>
+      </c>
+      <c r="F2687" t="inlineStr">
+        <is>
+          <t>50.5</t>
+        </is>
+      </c>
       <c r="G2687" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>50.5</t>
         </is>
       </c>
       <c r="H2687" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2688">
       <c r="A2688" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2688" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2688" t="inlineStr">
         <is>
-          <t>ISM Manufacturing New OrdersJAN</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2688" t="inlineStr"/>
-      <c r="E2688" t="inlineStr"/>
+      <c r="E2688" t="inlineStr">
+        <is>
+          <t>1.57%</t>
+        </is>
+      </c>
       <c r="F2688" t="inlineStr"/>
-      <c r="G2688" t="inlineStr"/>
+      <c r="G2688" t="inlineStr">
+        <is>
+          <t>1.7%</t>
+        </is>
+      </c>
       <c r="H2688" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2689">
       <c r="A2689" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2689" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2689" t="inlineStr">
         <is>
-          <t>ISM Manufacturing PricesJAN</t>
+          <t>Core Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2689" t="inlineStr"/>
-      <c r="E2689" t="inlineStr"/>
+      <c r="E2689" t="inlineStr">
+        <is>
+          <t>2.26%</t>
+        </is>
+      </c>
       <c r="F2689" t="inlineStr"/>
-      <c r="G2689" t="inlineStr"/>
+      <c r="G2689" t="inlineStr">
+        <is>
+          <t>2.3%</t>
+        </is>
+      </c>
       <c r="H2689" t="inlineStr">
         <is>
           <t>3</t>
@@ -86624,23 +87278,31 @@
     <row r="2690">
       <c r="A2690" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2690" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2690" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2690" t="inlineStr"/>
-      <c r="E2690" t="inlineStr"/>
+      <c r="E2690" t="inlineStr">
+        <is>
+          <t>0.44%</t>
+        </is>
+      </c>
       <c r="F2690" t="inlineStr"/>
-      <c r="G2690" t="inlineStr"/>
+      <c r="G2690" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H2690" t="inlineStr">
         <is>
           <t>3</t>
@@ -86650,23 +87312,31 @@
     <row r="2691">
       <c r="A2691" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>10:15 AM</t>
         </is>
       </c>
       <c r="B2691" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2691" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Tourist Arrivals YoYDEC</t>
         </is>
       </c>
       <c r="D2691" t="inlineStr"/>
-      <c r="E2691" t="inlineStr"/>
+      <c r="E2691" t="inlineStr">
+        <is>
+          <t>17.27%</t>
+        </is>
+      </c>
       <c r="F2691" t="inlineStr"/>
-      <c r="G2691" t="inlineStr"/>
+      <c r="G2691" t="inlineStr">
+        <is>
+          <t>18.0%</t>
+        </is>
+      </c>
       <c r="H2691" t="inlineStr">
         <is>
           <t>3</t>
@@ -86674,27 +87344,35 @@
       </c>
     </row>
     <row r="2692">
-      <c r="A2692" t="inlineStr"/>
+      <c r="A2692" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
       <c r="B2692" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2692" t="inlineStr">
         <is>
-          <t>Total New Vehicle SalesJAN</t>
+          <t>HSBC Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2692" t="inlineStr"/>
       <c r="E2692" t="inlineStr">
         <is>
-          <t>41.27K</t>
-        </is>
-      </c>
-      <c r="F2692" t="inlineStr"/>
+          <t>56.4</t>
+        </is>
+      </c>
+      <c r="F2692" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
       <c r="G2692" t="inlineStr">
         <is>
-          <t>43.0K</t>
+          <t>58</t>
         </is>
       </c>
       <c r="H2692" t="inlineStr">
@@ -86706,35 +87384,55 @@
     <row r="2693">
       <c r="A2693" t="inlineStr">
         <is>
-          <t>Tuesday February 04 2025</t>
-        </is>
-      </c>
-      <c r="B2693" t="inlineStr"/>
-      <c r="C2693" t="inlineStr"/>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B2693" t="inlineStr">
+        <is>
+          <t>KR</t>
+        </is>
+      </c>
+      <c r="C2693" t="inlineStr">
+        <is>
+          <t>2-Year KTB Auction</t>
+        </is>
+      </c>
       <c r="D2693" t="inlineStr"/>
-      <c r="E2693" t="inlineStr"/>
+      <c r="E2693" t="inlineStr">
+        <is>
+          <t>2.670%</t>
+        </is>
+      </c>
       <c r="F2693" t="inlineStr"/>
       <c r="G2693" t="inlineStr"/>
-      <c r="H2693" t="inlineStr"/>
+      <c r="H2693" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2694">
       <c r="A2694" t="inlineStr">
         <is>
-          <t>01:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B2694" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2694" t="inlineStr">
         <is>
-          <t>Treasury Refunding Financing Estimates</t>
+          <t>Commodity Prices YoYJAN</t>
         </is>
       </c>
       <c r="D2694" t="inlineStr"/>
-      <c r="E2694" t="inlineStr"/>
+      <c r="E2694" t="inlineStr">
+        <is>
+          <t>-10.7%</t>
+        </is>
+      </c>
       <c r="F2694" t="inlineStr"/>
       <c r="G2694" t="inlineStr"/>
       <c r="H2694" t="inlineStr">
@@ -86746,111 +87444,115 @@
     <row r="2695">
       <c r="A2695" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B2695" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2695" t="inlineStr">
         <is>
-          <t>Tax RevenueJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2695" t="inlineStr"/>
       <c r="E2695" t="inlineStr">
         <is>
-          <t>ARS13015B</t>
+          <t>50.8</t>
         </is>
       </c>
       <c r="F2695" t="inlineStr"/>
       <c r="G2695" t="inlineStr"/>
       <c r="H2695" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2696">
       <c r="A2696" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2696" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2696" t="inlineStr">
         <is>
-          <t>10-Year JGB Auction</t>
+          <t>Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2696" t="inlineStr"/>
       <c r="E2696" t="inlineStr">
         <is>
-          <t>1.140%</t>
+          <t>1.03%</t>
         </is>
       </c>
       <c r="F2696" t="inlineStr"/>
       <c r="G2696" t="inlineStr"/>
       <c r="H2696" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2697">
       <c r="A2697" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2697" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2697" t="inlineStr">
         <is>
-          <t>Riyad Bank PMIJAN</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2697" t="inlineStr"/>
       <c r="E2697" t="inlineStr">
         <is>
-          <t>58.4</t>
+          <t>44.38%</t>
         </is>
       </c>
       <c r="F2697" t="inlineStr"/>
       <c r="G2697" t="inlineStr"/>
       <c r="H2697" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2698">
       <c r="A2698" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2698" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2698" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>Istanbul Chamber of Industry Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2698" t="inlineStr"/>
-      <c r="E2698" t="inlineStr"/>
+      <c r="E2698" t="inlineStr">
+        <is>
+          <t>49.1</t>
+        </is>
+      </c>
       <c r="F2698" t="inlineStr"/>
       <c r="G2698" t="inlineStr"/>
       <c r="H2698" t="inlineStr">
@@ -86862,21 +87564,25 @@
     <row r="2699">
       <c r="A2699" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2699" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2699" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>PPI MoMJAN</t>
         </is>
       </c>
       <c r="D2699" t="inlineStr"/>
-      <c r="E2699" t="inlineStr"/>
+      <c r="E2699" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="F2699" t="inlineStr"/>
       <c r="G2699" t="inlineStr"/>
       <c r="H2699" t="inlineStr">
@@ -86888,23 +87594,23 @@
     <row r="2700">
       <c r="A2700" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2700" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2700" t="inlineStr">
         <is>
-          <t>30-Year KTB Auction</t>
+          <t>PPI YoYJAN</t>
         </is>
       </c>
       <c r="D2700" t="inlineStr"/>
       <c r="E2700" t="inlineStr">
         <is>
-          <t>2.705%</t>
+          <t>28.52%</t>
         </is>
       </c>
       <c r="F2700" t="inlineStr"/>
@@ -86918,30 +87624,30 @@
     <row r="2701">
       <c r="A2701" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2701" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2701" t="inlineStr">
         <is>
-          <t>Budget BalanceDEC</t>
+          <t>Unemployment ChangeJAN</t>
         </is>
       </c>
       <c r="D2701" t="inlineStr"/>
       <c r="E2701" t="inlineStr">
         <is>
-          <t>€-172.5B</t>
+          <t>-25.3K</t>
         </is>
       </c>
       <c r="F2701" t="inlineStr"/>
       <c r="G2701" t="inlineStr"/>
       <c r="H2701" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -86953,20 +87659,16 @@
       </c>
       <c r="B2702" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2702" t="inlineStr">
         <is>
-          <t>IPC-Fipe Inflation MoMJAN</t>
+          <t>Tourist Arrivals YoYDEC</t>
         </is>
       </c>
       <c r="D2702" t="inlineStr"/>
-      <c r="E2702" t="inlineStr">
-        <is>
-          <t>0.34%</t>
-        </is>
-      </c>
+      <c r="E2702" t="inlineStr"/>
       <c r="F2702" t="inlineStr"/>
       <c r="G2702" t="inlineStr"/>
       <c r="H2702" t="inlineStr">
@@ -86978,47 +87680,55 @@
     <row r="2703">
       <c r="A2703" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B2703" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2703" t="inlineStr">
         <is>
-          <t>5-Year Treasury Gilt Auction</t>
+          <t>HCOB Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2703" t="inlineStr"/>
-      <c r="E2703" t="inlineStr"/>
+      <c r="E2703" t="inlineStr">
+        <is>
+          <t>53.3</t>
+        </is>
+      </c>
       <c r="F2703" t="inlineStr"/>
       <c r="G2703" t="inlineStr"/>
       <c r="H2703" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2704">
       <c r="A2704" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>02:15 PM</t>
         </is>
       </c>
       <c r="B2704" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2704" t="inlineStr">
         <is>
-          <t>BCB Copom Meeting Minutes</t>
+          <t>HCOB Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2704" t="inlineStr"/>
-      <c r="E2704" t="inlineStr"/>
+      <c r="E2704" t="inlineStr">
+        <is>
+          <t>46.2</t>
+        </is>
+      </c>
       <c r="F2704" t="inlineStr"/>
       <c r="G2704" t="inlineStr"/>
       <c r="H2704" t="inlineStr">
@@ -87030,95 +87740,111 @@
     <row r="2705">
       <c r="A2705" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>02:20 PM</t>
         </is>
       </c>
       <c r="B2705" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2705" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2705" t="inlineStr"/>
       <c r="E2705" t="inlineStr">
         <is>
-          <t>1.23%</t>
-        </is>
-      </c>
-      <c r="F2705" t="inlineStr"/>
+          <t>41.9</t>
+        </is>
+      </c>
+      <c r="F2705" t="inlineStr">
+        <is>
+          <t>45.3</t>
+        </is>
+      </c>
       <c r="G2705" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>45.3</t>
         </is>
       </c>
       <c r="H2705" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2706">
       <c r="A2706" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>02:25 PM</t>
         </is>
       </c>
       <c r="B2706" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2706" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2706" t="inlineStr"/>
       <c r="E2706" t="inlineStr">
         <is>
-          <t>7.59%</t>
-        </is>
-      </c>
-      <c r="F2706" t="inlineStr"/>
+          <t>42.5</t>
+        </is>
+      </c>
+      <c r="F2706" t="inlineStr">
+        <is>
+          <t>44.1</t>
+        </is>
+      </c>
       <c r="G2706" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>44.1</t>
         </is>
       </c>
       <c r="H2706" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2707">
       <c r="A2707" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2707" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2707" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2707" t="inlineStr"/>
       <c r="E2707" t="inlineStr">
         <is>
-          <t>51.2</t>
-        </is>
-      </c>
-      <c r="F2707" t="inlineStr"/>
-      <c r="G2707" t="inlineStr"/>
+          <t>45.1</t>
+        </is>
+      </c>
+      <c r="F2707" t="inlineStr">
+        <is>
+          <t>46.1</t>
+        </is>
+      </c>
+      <c r="G2707" t="inlineStr">
+        <is>
+          <t>46.1</t>
+        </is>
+      </c>
       <c r="H2707" t="inlineStr">
         <is>
           <t>2</t>
@@ -87128,23 +87854,31 @@
     <row r="2708">
       <c r="A2708" t="inlineStr">
         <is>
-          <t>07:25 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2708" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2708" t="inlineStr">
         <is>
-          <t>Redbook YoYFEB/01</t>
+          <t>ABSA Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2708" t="inlineStr"/>
-      <c r="E2708" t="inlineStr"/>
+      <c r="E2708" t="inlineStr">
+        <is>
+          <t>46.2</t>
+        </is>
+      </c>
       <c r="F2708" t="inlineStr"/>
-      <c r="G2708" t="inlineStr"/>
+      <c r="G2708" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
       <c r="H2708" t="inlineStr">
         <is>
           <t>3</t>
@@ -87152,37 +87886,57 @@
       </c>
     </row>
     <row r="2709">
-      <c r="A2709" t="inlineStr"/>
+      <c r="A2709" t="inlineStr">
+        <is>
+          <t>03:00 PM</t>
+        </is>
+      </c>
       <c r="B2709" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2709" t="inlineStr">
         <is>
-          <t>Balance of Trade PrelJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2709" t="inlineStr"/>
-      <c r="E2709" t="inlineStr"/>
-      <c r="F2709" t="inlineStr"/>
-      <c r="G2709" t="inlineStr"/>
+      <c r="E2709" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="F2709" t="inlineStr">
+        <is>
+          <t>48.2</t>
+        </is>
+      </c>
+      <c r="G2709" t="inlineStr">
+        <is>
+          <t>48.2</t>
+        </is>
+      </c>
       <c r="H2709" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2710">
-      <c r="A2710" t="inlineStr"/>
+      <c r="A2710" t="inlineStr">
+        <is>
+          <t>03:30 PM</t>
+        </is>
+      </c>
       <c r="B2710" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2710" t="inlineStr">
         <is>
-          <t>Exports PrelJAN</t>
+          <t>Inflation Rate YoY FlashJAN</t>
         </is>
       </c>
       <c r="D2710" t="inlineStr"/>
@@ -87191,53 +87945,1407 @@
       <c r="G2710" t="inlineStr"/>
       <c r="H2710" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2711">
-      <c r="A2711" t="inlineStr"/>
+      <c r="A2711" t="inlineStr">
+        <is>
+          <t>03:30 PM</t>
+        </is>
+      </c>
       <c r="B2711" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2711" t="inlineStr">
         <is>
-          <t>Imports PrelJAN</t>
+          <t>Core Inflation Rate YoY FlashJAN</t>
         </is>
       </c>
       <c r="D2711" t="inlineStr"/>
-      <c r="E2711" t="inlineStr"/>
+      <c r="E2711" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
       <c r="F2711" t="inlineStr"/>
       <c r="G2711" t="inlineStr"/>
       <c r="H2711" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2712">
-      <c r="A2712" t="inlineStr"/>
+      <c r="A2712" t="inlineStr">
+        <is>
+          <t>03:30 PM</t>
+        </is>
+      </c>
       <c r="B2712" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2712" t="inlineStr">
         <is>
-          <t>LMI Logistics Managers IndexJAN</t>
+          <t>Inflation Rate MoM FlashJAN</t>
         </is>
       </c>
       <c r="D2712" t="inlineStr"/>
-      <c r="E2712" t="inlineStr">
-        <is>
-          <t>57.3</t>
-        </is>
-      </c>
+      <c r="E2712" t="inlineStr"/>
       <c r="F2712" t="inlineStr"/>
       <c r="G2712" t="inlineStr"/>
       <c r="H2712" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2713">
+      <c r="A2713" t="inlineStr">
+        <is>
+          <t>03:30 PM</t>
+        </is>
+      </c>
+      <c r="B2713" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="C2713" t="inlineStr">
+        <is>
+          <t>CPI FlashJAN</t>
+        </is>
+      </c>
+      <c r="D2713" t="inlineStr"/>
+      <c r="E2713" t="inlineStr">
+        <is>
+          <t>127.07</t>
+        </is>
+      </c>
+      <c r="F2713" t="inlineStr"/>
+      <c r="G2713" t="inlineStr"/>
+      <c r="H2713" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2714">
+      <c r="A2714" t="inlineStr">
+        <is>
+          <t>03:30 PM</t>
+        </is>
+      </c>
+      <c r="B2714" t="inlineStr">
+        <is>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="C2714" t="inlineStr">
+        <is>
+          <t>Inflation Rate YoY PrelJAN</t>
+        </is>
+      </c>
+      <c r="D2714" t="inlineStr"/>
+      <c r="E2714" t="inlineStr">
+        <is>
+          <t>1.3%</t>
+        </is>
+      </c>
+      <c r="F2714" t="inlineStr"/>
+      <c r="G2714" t="inlineStr"/>
+      <c r="H2714" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="2715">
+      <c r="A2715" t="inlineStr">
+        <is>
+          <t>03:30 PM</t>
+        </is>
+      </c>
+      <c r="B2715" t="inlineStr">
+        <is>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="C2715" t="inlineStr">
+        <is>
+          <t>Inflation Rate MoM PrelJAN</t>
+        </is>
+      </c>
+      <c r="D2715" t="inlineStr"/>
+      <c r="E2715" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F2715" t="inlineStr"/>
+      <c r="G2715" t="inlineStr"/>
+      <c r="H2715" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2716">
+      <c r="A2716" t="inlineStr">
+        <is>
+          <t>03:30 PM</t>
+        </is>
+      </c>
+      <c r="B2716" t="inlineStr">
+        <is>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="C2716" t="inlineStr">
+        <is>
+          <t>Harmonised Inflation Rate MoM PrelJAN</t>
+        </is>
+      </c>
+      <c r="D2716" t="inlineStr"/>
+      <c r="E2716" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F2716" t="inlineStr"/>
+      <c r="G2716" t="inlineStr"/>
+      <c r="H2716" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2717">
+      <c r="A2717" t="inlineStr">
+        <is>
+          <t>03:30 PM</t>
+        </is>
+      </c>
+      <c r="B2717" t="inlineStr">
+        <is>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="C2717" t="inlineStr">
+        <is>
+          <t>Harmonised Inflation Rate YoY PrelJAN</t>
+        </is>
+      </c>
+      <c r="D2717" t="inlineStr"/>
+      <c r="E2717" t="inlineStr">
+        <is>
+          <t>1.4%</t>
+        </is>
+      </c>
+      <c r="F2717" t="inlineStr"/>
+      <c r="G2717" t="inlineStr"/>
+      <c r="H2717" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2718">
+      <c r="A2718" t="inlineStr">
+        <is>
+          <t>03:30 PM</t>
+        </is>
+      </c>
+      <c r="B2718" t="inlineStr">
+        <is>
+          <t>MX</t>
+        </is>
+      </c>
+      <c r="C2718" t="inlineStr">
+        <is>
+          <t>Foreign Exchange ReservesDEC</t>
+        </is>
+      </c>
+      <c r="D2718" t="inlineStr"/>
+      <c r="E2718" t="inlineStr">
+        <is>
+          <t>$232.2B</t>
+        </is>
+      </c>
+      <c r="F2718" t="inlineStr"/>
+      <c r="G2718" t="inlineStr">
+        <is>
+          <t>$ 230B</t>
+        </is>
+      </c>
+      <c r="H2718" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2719">
+      <c r="A2719" t="inlineStr">
+        <is>
+          <t>06:30 PM</t>
+        </is>
+      </c>
+      <c r="B2719" t="inlineStr">
+        <is>
+          <t>BR</t>
+        </is>
+      </c>
+      <c r="C2719" t="inlineStr">
+        <is>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
+        </is>
+      </c>
+      <c r="D2719" t="inlineStr"/>
+      <c r="E2719" t="inlineStr">
+        <is>
+          <t>50.4</t>
+        </is>
+      </c>
+      <c r="F2719" t="inlineStr"/>
+      <c r="G2719" t="inlineStr">
+        <is>
+          <t>49.8</t>
+        </is>
+      </c>
+      <c r="H2719" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2720">
+      <c r="A2720" t="inlineStr">
+        <is>
+          <t>06:30 PM</t>
+        </is>
+      </c>
+      <c r="B2720" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="C2720" t="inlineStr">
+        <is>
+          <t>SIPMM Manufacturing PMIJAN</t>
+        </is>
+      </c>
+      <c r="D2720" t="inlineStr"/>
+      <c r="E2720" t="inlineStr">
+        <is>
+          <t>51.1</t>
+        </is>
+      </c>
+      <c r="F2720" t="inlineStr"/>
+      <c r="G2720" t="inlineStr">
+        <is>
+          <t>51.4</t>
+        </is>
+      </c>
+      <c r="H2720" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2721">
+      <c r="A2721" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B2721" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2721" t="inlineStr">
+        <is>
+          <t>Fed Bostic Speech</t>
+        </is>
+      </c>
+      <c r="D2721" t="inlineStr"/>
+      <c r="E2721" t="inlineStr"/>
+      <c r="F2721" t="inlineStr"/>
+      <c r="G2721" t="inlineStr"/>
+      <c r="H2721" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2722">
+      <c r="A2722" t="inlineStr">
+        <is>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B2722" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C2722" t="inlineStr">
+        <is>
+          <t>12-Month BTF Auction</t>
+        </is>
+      </c>
+      <c r="D2722" t="inlineStr"/>
+      <c r="E2722" t="inlineStr"/>
+      <c r="F2722" t="inlineStr"/>
+      <c r="G2722" t="inlineStr"/>
+      <c r="H2722" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2723">
+      <c r="A2723" t="inlineStr">
+        <is>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B2723" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C2723" t="inlineStr">
+        <is>
+          <t>3-Month BTF Auction</t>
+        </is>
+      </c>
+      <c r="D2723" t="inlineStr"/>
+      <c r="E2723" t="inlineStr"/>
+      <c r="F2723" t="inlineStr"/>
+      <c r="G2723" t="inlineStr"/>
+      <c r="H2723" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2724">
+      <c r="A2724" t="inlineStr">
+        <is>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B2724" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C2724" t="inlineStr">
+        <is>
+          <t>6-Month BTF Auction</t>
+        </is>
+      </c>
+      <c r="D2724" t="inlineStr"/>
+      <c r="E2724" t="inlineStr"/>
+      <c r="F2724" t="inlineStr"/>
+      <c r="G2724" t="inlineStr"/>
+      <c r="H2724" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2725">
+      <c r="A2725" t="inlineStr">
+        <is>
+          <t>08:00 PM</t>
+        </is>
+      </c>
+      <c r="B2725" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="C2725" t="inlineStr">
+        <is>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
+        </is>
+      </c>
+      <c r="D2725" t="inlineStr"/>
+      <c r="E2725" t="inlineStr">
+        <is>
+          <t>52.2</t>
+        </is>
+      </c>
+      <c r="F2725" t="inlineStr"/>
+      <c r="G2725" t="inlineStr"/>
+      <c r="H2725" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2726">
+      <c r="A2726" t="inlineStr">
+        <is>
+          <t>08:15 PM</t>
+        </is>
+      </c>
+      <c r="B2726" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2726" t="inlineStr">
+        <is>
+          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
+        </is>
+      </c>
+      <c r="D2726" t="inlineStr"/>
+      <c r="E2726" t="inlineStr">
+        <is>
+          <t>49.4</t>
+        </is>
+      </c>
+      <c r="F2726" t="inlineStr">
+        <is>
+          <t>50.1</t>
+        </is>
+      </c>
+      <c r="G2726" t="inlineStr">
+        <is>
+          <t>50.1</t>
+        </is>
+      </c>
+      <c r="H2726" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2727">
+      <c r="A2727" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B2727" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2727" t="inlineStr">
+        <is>
+          <t>ISM Manufacturing PMIJAN</t>
+        </is>
+      </c>
+      <c r="D2727" t="inlineStr"/>
+      <c r="E2727" t="inlineStr">
+        <is>
+          <t>49.3</t>
+        </is>
+      </c>
+      <c r="F2727" t="inlineStr"/>
+      <c r="G2727" t="inlineStr"/>
+      <c r="H2727" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="2728">
+      <c r="A2728" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B2728" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2728" t="inlineStr">
+        <is>
+          <t>ISM Manufacturing EmploymentJAN</t>
+        </is>
+      </c>
+      <c r="D2728" t="inlineStr"/>
+      <c r="E2728" t="inlineStr">
+        <is>
+          <t>45.3</t>
+        </is>
+      </c>
+      <c r="F2728" t="inlineStr"/>
+      <c r="G2728" t="inlineStr"/>
+      <c r="H2728" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2729">
+      <c r="A2729" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B2729" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2729" t="inlineStr">
+        <is>
+          <t>Construction Spending MoMDEC</t>
+        </is>
+      </c>
+      <c r="D2729" t="inlineStr"/>
+      <c r="E2729" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F2729" t="inlineStr"/>
+      <c r="G2729" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="H2729" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2730">
+      <c r="A2730" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B2730" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2730" t="inlineStr">
+        <is>
+          <t>ISM Manufacturing New OrdersJAN</t>
+        </is>
+      </c>
+      <c r="D2730" t="inlineStr"/>
+      <c r="E2730" t="inlineStr"/>
+      <c r="F2730" t="inlineStr"/>
+      <c r="G2730" t="inlineStr"/>
+      <c r="H2730" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2731">
+      <c r="A2731" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B2731" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2731" t="inlineStr">
+        <is>
+          <t>ISM Manufacturing PricesJAN</t>
+        </is>
+      </c>
+      <c r="D2731" t="inlineStr"/>
+      <c r="E2731" t="inlineStr"/>
+      <c r="F2731" t="inlineStr"/>
+      <c r="G2731" t="inlineStr"/>
+      <c r="H2731" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2732">
+      <c r="A2732" t="inlineStr">
+        <is>
+          <t>10:00 PM</t>
+        </is>
+      </c>
+      <c r="B2732" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2732" t="inlineStr">
+        <is>
+          <t>3-Month Bill Auction</t>
+        </is>
+      </c>
+      <c r="D2732" t="inlineStr"/>
+      <c r="E2732" t="inlineStr"/>
+      <c r="F2732" t="inlineStr"/>
+      <c r="G2732" t="inlineStr"/>
+      <c r="H2732" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2733">
+      <c r="A2733" t="inlineStr">
+        <is>
+          <t>10:00 PM</t>
+        </is>
+      </c>
+      <c r="B2733" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2733" t="inlineStr">
+        <is>
+          <t>6-Month Bill Auction</t>
+        </is>
+      </c>
+      <c r="D2733" t="inlineStr"/>
+      <c r="E2733" t="inlineStr"/>
+      <c r="F2733" t="inlineStr"/>
+      <c r="G2733" t="inlineStr"/>
+      <c r="H2733" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2734">
+      <c r="A2734" t="inlineStr"/>
+      <c r="B2734" t="inlineStr">
+        <is>
+          <t>ZA</t>
+        </is>
+      </c>
+      <c r="C2734" t="inlineStr">
+        <is>
+          <t>Total New Vehicle SalesJAN</t>
+        </is>
+      </c>
+      <c r="D2734" t="inlineStr"/>
+      <c r="E2734" t="inlineStr">
+        <is>
+          <t>41.27K</t>
+        </is>
+      </c>
+      <c r="F2734" t="inlineStr"/>
+      <c r="G2734" t="inlineStr">
+        <is>
+          <t>43.0K</t>
+        </is>
+      </c>
+      <c r="H2734" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2735">
+      <c r="A2735" t="inlineStr">
+        <is>
+          <t>Tuesday February 04 2025</t>
+        </is>
+      </c>
+      <c r="B2735" t="inlineStr"/>
+      <c r="C2735" t="inlineStr"/>
+      <c r="D2735" t="inlineStr"/>
+      <c r="E2735" t="inlineStr"/>
+      <c r="F2735" t="inlineStr"/>
+      <c r="G2735" t="inlineStr"/>
+      <c r="H2735" t="inlineStr"/>
+    </row>
+    <row r="2736">
+      <c r="A2736" t="inlineStr">
+        <is>
+          <t>01:30 AM</t>
+        </is>
+      </c>
+      <c r="B2736" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2736" t="inlineStr">
+        <is>
+          <t>Treasury Refunding Financing Estimates</t>
+        </is>
+      </c>
+      <c r="D2736" t="inlineStr"/>
+      <c r="E2736" t="inlineStr"/>
+      <c r="F2736" t="inlineStr"/>
+      <c r="G2736" t="inlineStr"/>
+      <c r="H2736" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2737">
+      <c r="A2737" t="inlineStr">
+        <is>
+          <t>03:30 AM</t>
+        </is>
+      </c>
+      <c r="B2737" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C2737" t="inlineStr">
+        <is>
+          <t>Tax RevenueJAN</t>
+        </is>
+      </c>
+      <c r="D2737" t="inlineStr"/>
+      <c r="E2737" t="inlineStr">
+        <is>
+          <t>ARS13015B</t>
+        </is>
+      </c>
+      <c r="F2737" t="inlineStr"/>
+      <c r="G2737" t="inlineStr"/>
+      <c r="H2737" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2738">
+      <c r="A2738" t="inlineStr">
+        <is>
+          <t>09:05 AM</t>
+        </is>
+      </c>
+      <c r="B2738" t="inlineStr">
+        <is>
+          <t>JP</t>
+        </is>
+      </c>
+      <c r="C2738" t="inlineStr">
+        <is>
+          <t>10-Year JGB Auction</t>
+        </is>
+      </c>
+      <c r="D2738" t="inlineStr"/>
+      <c r="E2738" t="inlineStr">
+        <is>
+          <t>1.140%</t>
+        </is>
+      </c>
+      <c r="F2738" t="inlineStr"/>
+      <c r="G2738" t="inlineStr"/>
+      <c r="H2738" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2739">
+      <c r="A2739" t="inlineStr">
+        <is>
+          <t>09:45 AM</t>
+        </is>
+      </c>
+      <c r="B2739" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="C2739" t="inlineStr">
+        <is>
+          <t>Riyad Bank PMIJAN</t>
+        </is>
+      </c>
+      <c r="D2739" t="inlineStr"/>
+      <c r="E2739" t="inlineStr">
+        <is>
+          <t>58.4</t>
+        </is>
+      </c>
+      <c r="F2739" t="inlineStr"/>
+      <c r="G2739" t="inlineStr"/>
+      <c r="H2739" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2740">
+      <c r="A2740" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B2740" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="C2740" t="inlineStr">
+        <is>
+          <t>MAS 12-Week Bill Auction</t>
+        </is>
+      </c>
+      <c r="D2740" t="inlineStr"/>
+      <c r="E2740" t="inlineStr"/>
+      <c r="F2740" t="inlineStr"/>
+      <c r="G2740" t="inlineStr"/>
+      <c r="H2740" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2741">
+      <c r="A2741" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B2741" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="C2741" t="inlineStr">
+        <is>
+          <t>MAS 4-Week Bill Auction</t>
+        </is>
+      </c>
+      <c r="D2741" t="inlineStr"/>
+      <c r="E2741" t="inlineStr"/>
+      <c r="F2741" t="inlineStr"/>
+      <c r="G2741" t="inlineStr"/>
+      <c r="H2741" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2742">
+      <c r="A2742" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B2742" t="inlineStr">
+        <is>
+          <t>KR</t>
+        </is>
+      </c>
+      <c r="C2742" t="inlineStr">
+        <is>
+          <t>30-Year KTB Auction</t>
+        </is>
+      </c>
+      <c r="D2742" t="inlineStr"/>
+      <c r="E2742" t="inlineStr">
+        <is>
+          <t>2.705%</t>
+        </is>
+      </c>
+      <c r="F2742" t="inlineStr"/>
+      <c r="G2742" t="inlineStr"/>
+      <c r="H2742" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2743">
+      <c r="A2743" t="inlineStr">
+        <is>
+          <t>01:15 PM</t>
+        </is>
+      </c>
+      <c r="B2743" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C2743" t="inlineStr">
+        <is>
+          <t>Budget BalanceDEC</t>
+        </is>
+      </c>
+      <c r="D2743" t="inlineStr"/>
+      <c r="E2743" t="inlineStr">
+        <is>
+          <t>€-172.5B</t>
+        </is>
+      </c>
+      <c r="F2743" t="inlineStr"/>
+      <c r="G2743" t="inlineStr"/>
+      <c r="H2743" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2744">
+      <c r="A2744" t="inlineStr">
+        <is>
+          <t>01:30 PM</t>
+        </is>
+      </c>
+      <c r="B2744" t="inlineStr">
+        <is>
+          <t>BR</t>
+        </is>
+      </c>
+      <c r="C2744" t="inlineStr">
+        <is>
+          <t>IPC-Fipe Inflation MoMJAN</t>
+        </is>
+      </c>
+      <c r="D2744" t="inlineStr"/>
+      <c r="E2744" t="inlineStr">
+        <is>
+          <t>0.34%</t>
+        </is>
+      </c>
+      <c r="F2744" t="inlineStr"/>
+      <c r="G2744" t="inlineStr"/>
+      <c r="H2744" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2745">
+      <c r="A2745" t="inlineStr">
+        <is>
+          <t>03:30 PM</t>
+        </is>
+      </c>
+      <c r="B2745" t="inlineStr">
+        <is>
+          <t>GB</t>
+        </is>
+      </c>
+      <c r="C2745" t="inlineStr">
+        <is>
+          <t>5-Year Treasury Gilt Auction</t>
+        </is>
+      </c>
+      <c r="D2745" t="inlineStr"/>
+      <c r="E2745" t="inlineStr"/>
+      <c r="F2745" t="inlineStr"/>
+      <c r="G2745" t="inlineStr"/>
+      <c r="H2745" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2746">
+      <c r="A2746" t="inlineStr">
+        <is>
+          <t>04:30 PM</t>
+        </is>
+      </c>
+      <c r="B2746" t="inlineStr">
+        <is>
+          <t>BR</t>
+        </is>
+      </c>
+      <c r="C2746" t="inlineStr">
+        <is>
+          <t>BCB Copom Meeting Minutes</t>
+        </is>
+      </c>
+      <c r="D2746" t="inlineStr"/>
+      <c r="E2746" t="inlineStr"/>
+      <c r="F2746" t="inlineStr"/>
+      <c r="G2746" t="inlineStr"/>
+      <c r="H2746" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2747">
+      <c r="A2747" t="inlineStr">
+        <is>
+          <t>05:30 PM</t>
+        </is>
+      </c>
+      <c r="B2747" t="inlineStr">
+        <is>
+          <t>BR</t>
+        </is>
+      </c>
+      <c r="C2747" t="inlineStr">
+        <is>
+          <t>PPI MoMDEC</t>
+        </is>
+      </c>
+      <c r="D2747" t="inlineStr"/>
+      <c r="E2747" t="inlineStr">
+        <is>
+          <t>1.23%</t>
+        </is>
+      </c>
+      <c r="F2747" t="inlineStr"/>
+      <c r="G2747" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="H2747" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2748">
+      <c r="A2748" t="inlineStr">
+        <is>
+          <t>05:30 PM</t>
+        </is>
+      </c>
+      <c r="B2748" t="inlineStr">
+        <is>
+          <t>BR</t>
+        </is>
+      </c>
+      <c r="C2748" t="inlineStr">
+        <is>
+          <t>PPI YoYDEC</t>
+        </is>
+      </c>
+      <c r="D2748" t="inlineStr"/>
+      <c r="E2748" t="inlineStr">
+        <is>
+          <t>7.59%</t>
+        </is>
+      </c>
+      <c r="F2748" t="inlineStr"/>
+      <c r="G2748" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
+      <c r="H2748" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2749">
+      <c r="A2749" t="inlineStr">
+        <is>
+          <t>05:30 PM</t>
+        </is>
+      </c>
+      <c r="B2749" t="inlineStr">
+        <is>
+          <t>MX</t>
+        </is>
+      </c>
+      <c r="C2749" t="inlineStr">
+        <is>
+          <t>Business ConfidenceJAN</t>
+        </is>
+      </c>
+      <c r="D2749" t="inlineStr"/>
+      <c r="E2749" t="inlineStr">
+        <is>
+          <t>51.2</t>
+        </is>
+      </c>
+      <c r="F2749" t="inlineStr"/>
+      <c r="G2749" t="inlineStr"/>
+      <c r="H2749" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2750">
+      <c r="A2750" t="inlineStr">
+        <is>
+          <t>07:25 PM</t>
+        </is>
+      </c>
+      <c r="B2750" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2750" t="inlineStr">
+        <is>
+          <t>Redbook YoYFEB/01</t>
+        </is>
+      </c>
+      <c r="D2750" t="inlineStr"/>
+      <c r="E2750" t="inlineStr"/>
+      <c r="F2750" t="inlineStr"/>
+      <c r="G2750" t="inlineStr"/>
+      <c r="H2750" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2751">
+      <c r="A2751" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B2751" t="inlineStr">
+        <is>
+          <t>MX</t>
+        </is>
+      </c>
+      <c r="C2751" t="inlineStr">
+        <is>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
+        </is>
+      </c>
+      <c r="D2751" t="inlineStr"/>
+      <c r="E2751" t="inlineStr">
+        <is>
+          <t>49.8</t>
+        </is>
+      </c>
+      <c r="F2751" t="inlineStr"/>
+      <c r="G2751" t="inlineStr"/>
+      <c r="H2751" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2752">
+      <c r="A2752" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B2752" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2752" t="inlineStr">
+        <is>
+          <t>JOLTs Job OpeningsDEC</t>
+        </is>
+      </c>
+      <c r="D2752" t="inlineStr"/>
+      <c r="E2752" t="inlineStr"/>
+      <c r="F2752" t="inlineStr"/>
+      <c r="G2752" t="inlineStr">
+        <is>
+          <t>7.6M</t>
+        </is>
+      </c>
+      <c r="H2752" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="2753">
+      <c r="A2753" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B2753" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2753" t="inlineStr">
+        <is>
+          <t>Factory Orders MoMDEC</t>
+        </is>
+      </c>
+      <c r="D2753" t="inlineStr"/>
+      <c r="E2753" t="inlineStr">
+        <is>
+          <t>-0.4%</t>
+        </is>
+      </c>
+      <c r="F2753" t="inlineStr"/>
+      <c r="G2753" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
+      <c r="H2753" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2754">
+      <c r="A2754" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B2754" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2754" t="inlineStr">
+        <is>
+          <t>Factory Orders ex TransportationDEC</t>
+        </is>
+      </c>
+      <c r="D2754" t="inlineStr"/>
+      <c r="E2754" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="F2754" t="inlineStr"/>
+      <c r="G2754" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
+      <c r="H2754" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2755">
+      <c r="A2755" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B2755" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2755" t="inlineStr">
+        <is>
+          <t>JOLTs Job QuitsDEC</t>
+        </is>
+      </c>
+      <c r="D2755" t="inlineStr"/>
+      <c r="E2755" t="inlineStr"/>
+      <c r="F2755" t="inlineStr"/>
+      <c r="G2755" t="inlineStr"/>
+      <c r="H2755" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2756">
+      <c r="A2756" t="inlineStr"/>
+      <c r="B2756" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="C2756" t="inlineStr">
+        <is>
+          <t>Balance of Trade PrelJAN</t>
+        </is>
+      </c>
+      <c r="D2756" t="inlineStr"/>
+      <c r="E2756" t="inlineStr"/>
+      <c r="F2756" t="inlineStr"/>
+      <c r="G2756" t="inlineStr"/>
+      <c r="H2756" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2757">
+      <c r="A2757" t="inlineStr"/>
+      <c r="B2757" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="C2757" t="inlineStr">
+        <is>
+          <t>Exports PrelJAN</t>
+        </is>
+      </c>
+      <c r="D2757" t="inlineStr"/>
+      <c r="E2757" t="inlineStr"/>
+      <c r="F2757" t="inlineStr"/>
+      <c r="G2757" t="inlineStr"/>
+      <c r="H2757" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2758">
+      <c r="A2758" t="inlineStr"/>
+      <c r="B2758" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="C2758" t="inlineStr">
+        <is>
+          <t>Imports PrelJAN</t>
+        </is>
+      </c>
+      <c r="D2758" t="inlineStr"/>
+      <c r="E2758" t="inlineStr"/>
+      <c r="F2758" t="inlineStr"/>
+      <c r="G2758" t="inlineStr"/>
+      <c r="H2758" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2759">
+      <c r="A2759" t="inlineStr"/>
+      <c r="B2759" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2759" t="inlineStr">
+        <is>
+          <t>LMI Logistics Managers IndexJAN</t>
+        </is>
+      </c>
+      <c r="D2759" t="inlineStr"/>
+      <c r="E2759" t="inlineStr">
+        <is>
+          <t>57.3</t>
+        </is>
+      </c>
+      <c r="F2759" t="inlineStr"/>
+      <c r="G2759" t="inlineStr"/>
+      <c r="H2759" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-04.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-04.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2759"/>
+  <dimension ref="A1:H2740"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76589,10 +76589,8 @@
           <t>50.3</t>
         </is>
       </c>
-      <c r="H2365" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2365" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2366">
@@ -76623,10 +76621,8 @@
           <t>51.8</t>
         </is>
       </c>
-      <c r="H2366" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2366" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2367">
@@ -76657,10 +76653,8 @@
           <t>-5.0%</t>
         </is>
       </c>
-      <c r="H2367" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2367" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2368">
@@ -76695,10 +76689,8 @@
           <t>51.7</t>
         </is>
       </c>
-      <c r="H2368" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2368" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2369">
@@ -76729,10 +76721,8 @@
           <t>115.3</t>
         </is>
       </c>
-      <c r="H2369" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2369" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2370">
@@ -76767,10 +76757,8 @@
           <t>107</t>
         </is>
       </c>
-      <c r="H2370" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2370" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2371">
@@ -76797,10 +76785,8 @@
       </c>
       <c r="F2371" t="inlineStr"/>
       <c r="G2371" t="inlineStr"/>
-      <c r="H2371" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2371" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2372">
@@ -76827,10 +76813,8 @@
       </c>
       <c r="F2372" t="inlineStr"/>
       <c r="G2372" t="inlineStr"/>
-      <c r="H2372" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2372" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2373">
@@ -76857,10 +76841,8 @@
       </c>
       <c r="F2373" t="inlineStr"/>
       <c r="G2373" t="inlineStr"/>
-      <c r="H2373" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2373" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2374">
@@ -76891,10 +76873,8 @@
           <t>99</t>
         </is>
       </c>
-      <c r="H2374" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2374" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2375">
@@ -76925,10 +76905,8 @@
           <t>75.8%</t>
         </is>
       </c>
-      <c r="H2375" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2375" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2376">
@@ -76963,10 +76941,8 @@
           <t>84.5</t>
         </is>
       </c>
-      <c r="H2376" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2376" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2377">
@@ -77001,10 +76977,8 @@
           <t>85.2</t>
         </is>
       </c>
-      <c r="H2377" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2377" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2378">
@@ -77039,10 +77013,8 @@
           <t>84</t>
         </is>
       </c>
-      <c r="H2378" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2378" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2379">
@@ -77069,10 +77041,8 @@
       </c>
       <c r="F2379" t="inlineStr"/>
       <c r="G2379" t="inlineStr"/>
-      <c r="H2379" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2379" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2380">
@@ -77099,10 +77069,8 @@
       </c>
       <c r="F2380" t="inlineStr"/>
       <c r="G2380" t="inlineStr"/>
-      <c r="H2380" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2380" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2381">
@@ -77133,10 +77101,8 @@
           <t>91.4</t>
         </is>
       </c>
-      <c r="H2381" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2381" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2382">
@@ -77167,10 +77133,8 @@
           <t>10K</t>
         </is>
       </c>
-      <c r="H2382" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2382" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2383">
@@ -77201,10 +77165,8 @@
           <t>2875K</t>
         </is>
       </c>
-      <c r="H2383" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2383" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2384">
@@ -77235,10 +77197,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H2384" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2384" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2385">
@@ -77269,10 +77229,8 @@
           <t>$ 0.4B</t>
         </is>
       </c>
-      <c r="H2385" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2385" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2386">
@@ -77303,10 +77261,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2386" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2386" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2387">
@@ -77337,10 +77293,8 @@
           <t>0.1</t>
         </is>
       </c>
-      <c r="H2387" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2387" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2388">
@@ -77367,10 +77321,8 @@
       </c>
       <c r="F2388" t="inlineStr"/>
       <c r="G2388" t="inlineStr"/>
-      <c r="H2388" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2388" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2389">
@@ -77397,10 +77349,8 @@
       </c>
       <c r="F2389" t="inlineStr"/>
       <c r="G2389" t="inlineStr"/>
-      <c r="H2389" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2389" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2390">
@@ -77427,10 +77377,8 @@
       </c>
       <c r="F2390" t="inlineStr"/>
       <c r="G2390" t="inlineStr"/>
-      <c r="H2390" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2390" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2391">
@@ -77465,10 +77413,8 @@
           <t>0.64M</t>
         </is>
       </c>
-      <c r="H2391" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2391" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2392">
@@ -77499,10 +77445,8 @@
           <t>-3.5%</t>
         </is>
       </c>
-      <c r="H2392" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2392" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2393">
@@ -77533,10 +77477,8 @@
           <t>4</t>
         </is>
       </c>
-      <c r="H2393" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2393" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2394">
@@ -77559,10 +77501,8 @@
       <c r="E2394" t="inlineStr"/>
       <c r="F2394" t="inlineStr"/>
       <c r="G2394" t="inlineStr"/>
-      <c r="H2394" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2394" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2395">
@@ -77589,10 +77529,8 @@
       </c>
       <c r="F2395" t="inlineStr"/>
       <c r="G2395" t="inlineStr"/>
-      <c r="H2395" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2395" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2396">
@@ -77619,10 +77557,8 @@
       </c>
       <c r="F2396" t="inlineStr"/>
       <c r="G2396" t="inlineStr"/>
-      <c r="H2396" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2396" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2397">
@@ -77649,10 +77585,8 @@
       </c>
       <c r="F2397" t="inlineStr"/>
       <c r="G2397" t="inlineStr"/>
-      <c r="H2397" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2397" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2398">
@@ -77679,10 +77613,8 @@
       </c>
       <c r="F2398" t="inlineStr"/>
       <c r="G2398" t="inlineStr"/>
-      <c r="H2398" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2398" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2399">
@@ -77705,10 +77637,8 @@
       </c>
       <c r="F2399" t="inlineStr"/>
       <c r="G2399" t="inlineStr"/>
-      <c r="H2399" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2399" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2400">
@@ -77735,10 +77665,8 @@
           <t>80</t>
         </is>
       </c>
-      <c r="H2400" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2400" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2401">
@@ -77757,10 +77685,8 @@
       <c r="E2401" t="inlineStr"/>
       <c r="F2401" t="inlineStr"/>
       <c r="G2401" t="inlineStr"/>
-      <c r="H2401" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2401" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2402">
@@ -77791,10 +77717,8 @@
           <t>1.6M</t>
         </is>
       </c>
-      <c r="H2402" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2402" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2403">
@@ -77825,10 +77749,8 @@
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="H2403" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2403" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2404">
@@ -77855,10 +77777,8 @@
           <t>BRL 255.1B</t>
         </is>
       </c>
-      <c r="H2404" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2404" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2405">
@@ -77903,10 +77823,8 @@
           <t>3</t>
         </is>
       </c>
-      <c r="H2406" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2406" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2407">
@@ -77937,10 +77855,8 @@
           <t>2.00%</t>
         </is>
       </c>
-      <c r="H2407" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2407" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2408">
@@ -77967,10 +77883,8 @@
       </c>
       <c r="F2408" t="inlineStr"/>
       <c r="G2408" t="inlineStr"/>
-      <c r="H2408" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2408" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2409">
@@ -78001,10 +77915,8 @@
           <t>-4.6%</t>
         </is>
       </c>
-      <c r="H2409" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2409" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2410">
@@ -78035,10 +77947,8 @@
           <t>-4.1%</t>
         </is>
       </c>
-      <c r="H2410" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2410" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2411">
@@ -78069,10 +77979,8 @@
           <t>-4.6%</t>
         </is>
       </c>
-      <c r="H2411" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2411" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2412">
@@ -78103,10 +78011,8 @@
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="H2412" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2412" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2413">
@@ -78141,10 +78047,8 @@
           <t>89</t>
         </is>
       </c>
-      <c r="H2413" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2413" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2414">
@@ -78179,10 +78083,8 @@
           <t>11.0%</t>
         </is>
       </c>
-      <c r="H2414" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2414" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2415">
@@ -78209,10 +78111,8 @@
       </c>
       <c r="F2415" t="inlineStr"/>
       <c r="G2415" t="inlineStr"/>
-      <c r="H2415" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2415" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2416">
@@ -78239,10 +78139,8 @@
       </c>
       <c r="F2416" t="inlineStr"/>
       <c r="G2416" t="inlineStr"/>
-      <c r="H2416" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2416" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2417">
@@ -78269,10 +78167,8 @@
       </c>
       <c r="F2417" t="inlineStr"/>
       <c r="G2417" t="inlineStr"/>
-      <c r="H2417" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2417" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2418">
@@ -78299,10 +78195,8 @@
       </c>
       <c r="F2418" t="inlineStr"/>
       <c r="G2418" t="inlineStr"/>
-      <c r="H2418" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2418" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2419">
@@ -78329,10 +78223,8 @@
       </c>
       <c r="F2419" t="inlineStr"/>
       <c r="G2419" t="inlineStr"/>
-      <c r="H2419" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2419" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2420">
@@ -78367,10 +78259,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2420" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2420" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2421">
@@ -78405,10 +78295,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2421" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2421" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2422">
@@ -78439,10 +78327,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2422" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2422" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2423">
@@ -78473,10 +78359,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2423" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2423" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2424">
@@ -78503,10 +78387,8 @@
       </c>
       <c r="F2424" t="inlineStr"/>
       <c r="G2424" t="inlineStr"/>
-      <c r="H2424" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2424" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2425">
@@ -78541,10 +78423,8 @@
           <t>4%</t>
         </is>
       </c>
-      <c r="H2425" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2425" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2426">
@@ -78575,10 +78455,8 @@
           <t>433</t>
         </is>
       </c>
-      <c r="H2426" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2426" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2427">
@@ -78613,10 +78491,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2427" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2427" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2428">
@@ -78647,10 +78523,8 @@
           <t>4.3%</t>
         </is>
       </c>
-      <c r="H2428" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2428" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2429">
@@ -78681,10 +78555,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H2429" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2429" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2430">
@@ -78707,10 +78579,8 @@
       <c r="E2430" t="inlineStr"/>
       <c r="F2430" t="inlineStr"/>
       <c r="G2430" t="inlineStr"/>
-      <c r="H2430" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2430" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2431">
@@ -78745,10 +78615,8 @@
           <t>104</t>
         </is>
       </c>
-      <c r="H2431" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2431" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2432">
@@ -78783,10 +78651,8 @@
           <t>-8</t>
         </is>
       </c>
-      <c r="H2432" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2432" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2433">
@@ -78817,10 +78683,8 @@
           <t>-9</t>
         </is>
       </c>
-      <c r="H2433" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2433" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2434">
@@ -78851,10 +78715,8 @@
           <t>21</t>
         </is>
       </c>
-      <c r="H2434" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2434" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2435">
@@ -78885,10 +78747,8 @@
           <t>9.5</t>
         </is>
       </c>
-      <c r="H2435" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2435" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2436">
@@ -78919,10 +78779,8 @@
           <t>13</t>
         </is>
       </c>
-      <c r="H2436" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2436" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2437">
@@ -78949,10 +78807,8 @@
       </c>
       <c r="F2437" t="inlineStr"/>
       <c r="G2437" t="inlineStr"/>
-      <c r="H2437" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2437" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2438">
@@ -78979,10 +78835,8 @@
       </c>
       <c r="F2438" t="inlineStr"/>
       <c r="G2438" t="inlineStr"/>
-      <c r="H2438" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2438" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2439">
@@ -79005,10 +78859,8 @@
       <c r="E2439" t="inlineStr"/>
       <c r="F2439" t="inlineStr"/>
       <c r="G2439" t="inlineStr"/>
-      <c r="H2439" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2439" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2440">
@@ -79035,10 +78887,8 @@
       </c>
       <c r="F2440" t="inlineStr"/>
       <c r="G2440" t="inlineStr"/>
-      <c r="H2440" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2440" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2441">
@@ -79065,10 +78915,8 @@
       </c>
       <c r="F2441" t="inlineStr"/>
       <c r="G2441" t="inlineStr"/>
-      <c r="H2441" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2441" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2442">
@@ -79109,10 +78957,8 @@
       </c>
       <c r="F2443" t="inlineStr"/>
       <c r="G2443" t="inlineStr"/>
-      <c r="H2443" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2443" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2444">
@@ -79135,10 +78981,8 @@
       <c r="E2444" t="inlineStr"/>
       <c r="F2444" t="inlineStr"/>
       <c r="G2444" t="inlineStr"/>
-      <c r="H2444" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2444" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2445">
@@ -79173,10 +79017,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H2445" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2445" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2446">
@@ -79211,10 +79053,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2446" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2446" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2447">
@@ -79249,10 +79089,8 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="H2447" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2447" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2448">
@@ -79287,10 +79125,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2448" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2448" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2449">
@@ -79325,10 +79161,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H2449" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2449" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2450">
@@ -79359,10 +79193,8 @@
           <t>139.1</t>
         </is>
       </c>
-      <c r="H2450" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2450" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2451">
@@ -79397,10 +79229,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2451" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2451" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2452">
@@ -79435,10 +79265,8 @@
           <t>3.7%</t>
         </is>
       </c>
-      <c r="H2452" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2452" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2453">
@@ -79465,10 +79293,8 @@
       </c>
       <c r="F2453" t="inlineStr"/>
       <c r="G2453" t="inlineStr"/>
-      <c r="H2453" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2453" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2454">
@@ -79503,10 +79329,8 @@
           <t>36.3</t>
         </is>
       </c>
-      <c r="H2454" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2454" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2455">
@@ -79541,10 +79365,8 @@
           <t>-21</t>
         </is>
       </c>
-      <c r="H2455" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2455" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2456">
@@ -79579,10 +79401,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2456" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2456" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2457">
@@ -79613,10 +79433,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H2457" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2457" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2458">
@@ -79647,10 +79465,8 @@
           <t>0.9%</t>
         </is>
       </c>
-      <c r="H2458" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2458" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2459">
@@ -79685,10 +79501,8 @@
           <t>1.0%</t>
         </is>
       </c>
-      <c r="H2459" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2459" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2460">
@@ -79723,10 +79537,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H2460" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2460" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2461">
@@ -79757,10 +79569,8 @@
           <t>85.5</t>
         </is>
       </c>
-      <c r="H2461" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2461" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2462">
@@ -79791,10 +79601,8 @@
           <t>96</t>
         </is>
       </c>
-      <c r="H2462" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2462" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2463">
@@ -79821,10 +79629,8 @@
       </c>
       <c r="F2463" t="inlineStr"/>
       <c r="G2463" t="inlineStr"/>
-      <c r="H2463" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2463" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2464">
@@ -79851,10 +79657,8 @@
       </c>
       <c r="F2464" t="inlineStr"/>
       <c r="G2464" t="inlineStr"/>
-      <c r="H2464" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2464" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2465">
@@ -79881,10 +79685,8 @@
       </c>
       <c r="F2465" t="inlineStr"/>
       <c r="G2465" t="inlineStr"/>
-      <c r="H2465" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2465" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2466">
@@ -79915,10 +79717,8 @@
           <t>2.70%</t>
         </is>
       </c>
-      <c r="H2466" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2466" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2467">
@@ -79945,10 +79745,8 @@
       </c>
       <c r="F2467" t="inlineStr"/>
       <c r="G2467" t="inlineStr"/>
-      <c r="H2467" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2467" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2468">
@@ -79975,10 +79773,8 @@
       </c>
       <c r="F2468" t="inlineStr"/>
       <c r="G2468" t="inlineStr"/>
-      <c r="H2468" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2468" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2469">
@@ -80005,10 +79801,8 @@
       </c>
       <c r="F2469" t="inlineStr"/>
       <c r="G2469" t="inlineStr"/>
-      <c r="H2469" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2469" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2470">
@@ -80035,10 +79829,8 @@
       </c>
       <c r="F2470" t="inlineStr"/>
       <c r="G2470" t="inlineStr"/>
-      <c r="H2470" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2470" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2471">
@@ -80065,10 +79857,8 @@
       </c>
       <c r="F2471" t="inlineStr"/>
       <c r="G2471" t="inlineStr"/>
-      <c r="H2471" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2471" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2472">
@@ -80103,10 +79893,8 @@
           <t>$ -101.0B</t>
         </is>
       </c>
-      <c r="H2472" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2472" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2473">
@@ -80137,10 +79925,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2473" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2473" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2474">
@@ -80175,10 +79961,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2474" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2474" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2475">
@@ -80213,10 +79997,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H2475" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2475" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2476">
@@ -80239,10 +80021,8 @@
       <c r="E2476" t="inlineStr"/>
       <c r="F2476" t="inlineStr"/>
       <c r="G2476" t="inlineStr"/>
-      <c r="H2476" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2476" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2477">
@@ -80265,10 +80045,8 @@
       <c r="E2477" t="inlineStr"/>
       <c r="F2477" t="inlineStr"/>
       <c r="G2477" t="inlineStr"/>
-      <c r="H2477" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2477" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2478">
@@ -80295,10 +80073,8 @@
       </c>
       <c r="F2478" t="inlineStr"/>
       <c r="G2478" t="inlineStr"/>
-      <c r="H2478" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2478" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2479">
@@ -80325,10 +80101,8 @@
       </c>
       <c r="F2479" t="inlineStr"/>
       <c r="G2479" t="inlineStr"/>
-      <c r="H2479" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2479" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2480">
@@ -80355,10 +80129,8 @@
       </c>
       <c r="F2480" t="inlineStr"/>
       <c r="G2480" t="inlineStr"/>
-      <c r="H2480" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2480" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2481">
@@ -80385,10 +80157,8 @@
       </c>
       <c r="F2481" t="inlineStr"/>
       <c r="G2481" t="inlineStr"/>
-      <c r="H2481" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2481" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2482">
@@ -80415,10 +80185,8 @@
       </c>
       <c r="F2482" t="inlineStr"/>
       <c r="G2482" t="inlineStr"/>
-      <c r="H2482" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2482" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2483">
@@ -80445,10 +80213,8 @@
       </c>
       <c r="F2483" t="inlineStr"/>
       <c r="G2483" t="inlineStr"/>
-      <c r="H2483" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2483" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2484">
@@ -80475,10 +80241,8 @@
       </c>
       <c r="F2484" t="inlineStr"/>
       <c r="G2484" t="inlineStr"/>
-      <c r="H2484" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2484" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2485">
@@ -80505,10 +80269,8 @@
       </c>
       <c r="F2485" t="inlineStr"/>
       <c r="G2485" t="inlineStr"/>
-      <c r="H2485" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2485" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2486">
@@ -80535,10 +80297,8 @@
       </c>
       <c r="F2486" t="inlineStr"/>
       <c r="G2486" t="inlineStr"/>
-      <c r="H2486" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2486" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2487">
@@ -80569,10 +80329,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H2487" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2487" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2488">
@@ -80603,10 +80361,8 @@
           <t>4.4%</t>
         </is>
       </c>
-      <c r="H2488" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2488" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2489">
@@ -80633,10 +80389,8 @@
       </c>
       <c r="F2489" t="inlineStr"/>
       <c r="G2489" t="inlineStr"/>
-      <c r="H2489" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2489" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2490">
@@ -80685,10 +80439,8 @@
           <t>4.5%</t>
         </is>
       </c>
-      <c r="H2491" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2491" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2492">
@@ -80711,10 +80463,8 @@
       <c r="E2492" t="inlineStr"/>
       <c r="F2492" t="inlineStr"/>
       <c r="G2492" t="inlineStr"/>
-      <c r="H2492" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2492" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2493">
@@ -80745,10 +80495,8 @@
           <t>12.25%</t>
         </is>
       </c>
-      <c r="H2493" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2493" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2494">
@@ -80775,10 +80523,8 @@
       </c>
       <c r="F2494" t="inlineStr"/>
       <c r="G2494" t="inlineStr"/>
-      <c r="H2494" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2494" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2495">
@@ -80805,10 +80551,8 @@
       </c>
       <c r="F2495" t="inlineStr"/>
       <c r="G2495" t="inlineStr"/>
-      <c r="H2495" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2495" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2496">
@@ -80839,10 +80583,8 @@
           <t>-20.0%</t>
         </is>
       </c>
-      <c r="H2496" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2496" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2497">
@@ -80865,10 +80607,8 @@
       <c r="E2497" t="inlineStr"/>
       <c r="F2497" t="inlineStr"/>
       <c r="G2497" t="inlineStr"/>
-      <c r="H2497" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2497" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2498">
@@ -80899,10 +80639,8 @@
           <t>-6.6%</t>
         </is>
       </c>
-      <c r="H2498" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2498" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2499">
@@ -80937,10 +80675,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2499" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2499" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2500">
@@ -80963,10 +80699,8 @@
       <c r="E2500" t="inlineStr"/>
       <c r="F2500" t="inlineStr"/>
       <c r="G2500" t="inlineStr"/>
-      <c r="H2500" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2500" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2501">
@@ -80997,10 +80731,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H2501" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2501" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2502">
@@ -81027,10 +80759,8 @@
       </c>
       <c r="F2502" t="inlineStr"/>
       <c r="G2502" t="inlineStr"/>
-      <c r="H2502" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2502" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2503">
@@ -81061,10 +80791,8 @@
           <t>3.8%</t>
         </is>
       </c>
-      <c r="H2503" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2503" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2504">
@@ -81087,10 +80815,8 @@
       <c r="E2504" t="inlineStr"/>
       <c r="F2504" t="inlineStr"/>
       <c r="G2504" t="inlineStr"/>
-      <c r="H2504" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2504" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2505">
@@ -81125,10 +80851,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H2505" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2505" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2506">
@@ -81159,10 +80883,8 @@
           <t>1.1%</t>
         </is>
       </c>
-      <c r="H2506" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2506" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2507">
@@ -81197,10 +80919,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2507" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2507" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2508">
@@ -81235,10 +80955,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2508" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2508" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2509">
@@ -81269,10 +80987,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H2509" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2509" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2510">
@@ -81303,10 +81019,8 @@
           <t>98.3</t>
         </is>
       </c>
-      <c r="H2510" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2510" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2511">
@@ -81337,10 +81051,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H2511" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2511" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2512">
@@ -81375,10 +81087,8 @@
           <t>2.7%</t>
         </is>
       </c>
-      <c r="H2512" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2512" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2513">
@@ -81409,10 +81119,8 @@
           <t>2.7%</t>
         </is>
       </c>
-      <c r="H2513" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2513" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2514">
@@ -81443,10 +81151,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H2514" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2514" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2515">
@@ -81477,10 +81183,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H2515" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2515" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2516">
@@ -81515,10 +81219,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H2516" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2516" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2517">
@@ -81553,10 +81255,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H2517" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2517" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2518">
@@ -81591,10 +81291,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2518" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2518" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2519">
@@ -81625,10 +81323,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2519" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2519" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2520">
@@ -81659,10 +81355,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H2520" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2520" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2521">
@@ -81693,10 +81387,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2521" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2521" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2522">
@@ -81727,10 +81419,8 @@
           <t>£ 1.3B</t>
         </is>
       </c>
-      <c r="H2522" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2522" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2523">
@@ -81765,10 +81455,8 @@
           <t>65.1K</t>
         </is>
       </c>
-      <c r="H2523" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2523" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2524">
@@ -81799,10 +81487,8 @@
           <t>£ 2.2B</t>
         </is>
       </c>
-      <c r="H2524" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2524" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2525">
@@ -81837,10 +81523,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H2525" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2525" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2526">
@@ -81875,10 +81559,8 @@
           <t>£3.5B</t>
         </is>
       </c>
-      <c r="H2526" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2526" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2527">
@@ -81913,10 +81595,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2527" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2527" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2528">
@@ -81951,10 +81631,8 @@
           <t>6.4%</t>
         </is>
       </c>
-      <c r="H2528" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2528" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2529">
@@ -81985,10 +81663,8 @@
         </is>
       </c>
       <c r="G2529" t="inlineStr"/>
-      <c r="H2529" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2529" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2530">
@@ -82023,10 +81699,8 @@
           <t>93.5</t>
         </is>
       </c>
-      <c r="H2530" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2530" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2531">
@@ -82061,10 +81735,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H2531" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2531" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2532">
@@ -82095,10 +81767,8 @@
           <t>22</t>
         </is>
       </c>
-      <c r="H2532" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2532" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2533">
@@ -82129,10 +81799,8 @@
           <t>-14.5</t>
         </is>
       </c>
-      <c r="H2533" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2533" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2534">
@@ -82163,10 +81831,8 @@
           <t>8</t>
         </is>
       </c>
-      <c r="H2534" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2534" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2535">
@@ -82197,10 +81863,8 @@
           <t>6</t>
         </is>
       </c>
-      <c r="H2535" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2535" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2536">
@@ -82235,10 +81899,8 @@
           <t>5.6%</t>
         </is>
       </c>
-      <c r="H2536" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2536" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2537">
@@ -82261,10 +81923,8 @@
       <c r="E2537" t="inlineStr"/>
       <c r="F2537" t="inlineStr"/>
       <c r="G2537" t="inlineStr"/>
-      <c r="H2537" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2537" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2538">
@@ -82295,10 +81955,8 @@
           <t>0.9%</t>
         </is>
       </c>
-      <c r="H2538" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2538" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2539">
@@ -82329,10 +81987,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H2539" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2539" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2540">
@@ -82363,10 +82019,8 @@
           <t>-5.1%</t>
         </is>
       </c>
-      <c r="H2540" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2540" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2541">
@@ -82389,10 +82043,8 @@
       <c r="E2541" t="inlineStr"/>
       <c r="F2541" t="inlineStr"/>
       <c r="G2541" t="inlineStr"/>
-      <c r="H2541" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2541" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2542">
@@ -82419,10 +82071,8 @@
       </c>
       <c r="F2542" t="inlineStr"/>
       <c r="G2542" t="inlineStr"/>
-      <c r="H2542" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2542" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2543">
@@ -82453,10 +82103,8 @@
           <t>56.2</t>
         </is>
       </c>
-      <c r="H2543" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2543" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2544">
@@ -82487,10 +82135,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2544" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2544" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2545">
@@ -82521,10 +82167,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H2545" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2545" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2546">
@@ -82555,10 +82199,8 @@
           <t>-5</t>
         </is>
       </c>
-      <c r="H2546" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2546" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2547">
@@ -82593,10 +82235,8 @@
           <t>7.50%</t>
         </is>
       </c>
-      <c r="H2547" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2547" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2548">
@@ -82627,10 +82267,8 @@
           <t>11.0%</t>
         </is>
       </c>
-      <c r="H2548" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2548" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2549">
@@ -82665,10 +82303,8 @@
           <t>2.75%</t>
         </is>
       </c>
-      <c r="H2549" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2549" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2550">
@@ -82703,10 +82339,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H2550" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2550" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2551">
@@ -82737,10 +82371,8 @@
           <t>3.15%</t>
         </is>
       </c>
-      <c r="H2551" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2551" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2552">
@@ -82771,10 +82403,8 @@
           <t>5.0%</t>
         </is>
       </c>
-      <c r="H2552" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2552" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2553">
@@ -82809,10 +82439,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H2553" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2553" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2554">
@@ -82847,10 +82475,8 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="H2554" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2554" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2555">
@@ -82885,10 +82511,8 @@
           <t>228.0K</t>
         </is>
       </c>
-      <c r="H2555" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2555" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2556">
@@ -82919,10 +82543,8 @@
           <t>1885.0K</t>
         </is>
       </c>
-      <c r="H2556" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2556" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2557">
@@ -82953,10 +82575,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="H2557" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2557" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2558">
@@ -82987,10 +82607,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H2558" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2558" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2559">
@@ -83021,10 +82639,8 @@
           <t>214.0K</t>
         </is>
       </c>
-      <c r="H2559" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2559" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2560">
@@ -83055,10 +82671,8 @@
           <t>1.1%</t>
         </is>
       </c>
-      <c r="H2560" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2560" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2561">
@@ -83089,10 +82703,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H2561" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2561" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2562">
@@ -83115,10 +82727,8 @@
       <c r="E2562" t="inlineStr"/>
       <c r="F2562" t="inlineStr"/>
       <c r="G2562" t="inlineStr"/>
-      <c r="H2562" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2562" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2563">
@@ -83153,10 +82763,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2563" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2563" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2564">
@@ -83187,10 +82795,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H2564" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2564" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2565">
@@ -83217,10 +82823,8 @@
       </c>
       <c r="F2565" t="inlineStr"/>
       <c r="G2565" t="inlineStr"/>
-      <c r="H2565" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2565" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2566">
@@ -83247,10 +82851,8 @@
       </c>
       <c r="F2566" t="inlineStr"/>
       <c r="G2566" t="inlineStr"/>
-      <c r="H2566" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2566" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2567">
@@ -83277,10 +82879,8 @@
       </c>
       <c r="F2567" t="inlineStr"/>
       <c r="G2567" t="inlineStr"/>
-      <c r="H2567" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2567" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2568">
@@ -83307,10 +82907,8 @@
       </c>
       <c r="F2568" t="inlineStr"/>
       <c r="G2568" t="inlineStr"/>
-      <c r="H2568" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2568" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2569">
@@ -83337,10 +82935,8 @@
       </c>
       <c r="F2569" t="inlineStr"/>
       <c r="G2569" t="inlineStr"/>
-      <c r="H2569" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2569" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2570">
@@ -83367,10 +82963,8 @@
           <t>ZAR14.0B</t>
         </is>
       </c>
-      <c r="H2570" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2570" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2571">
@@ -83397,10 +82991,8 @@
           <t>10.6%</t>
         </is>
       </c>
-      <c r="H2571" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2571" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2572">
@@ -83427,10 +83019,8 @@
           <t>12.8%</t>
         </is>
       </c>
-      <c r="H2572" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2572" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2573">
@@ -83453,10 +83043,8 @@
       </c>
       <c r="F2573" t="inlineStr"/>
       <c r="G2573" t="inlineStr"/>
-      <c r="H2573" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2573" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2574">
@@ -83479,10 +83067,8 @@
       </c>
       <c r="F2574" t="inlineStr"/>
       <c r="G2574" t="inlineStr"/>
-      <c r="H2574" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2574" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2575">
@@ -83509,50 +83095,72 @@
           <t>90.0K</t>
         </is>
       </c>
-      <c r="H2575" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2575" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2576">
       <c r="A2576" t="inlineStr">
         <is>
-          <t>Friday January 31 2025</t>
-        </is>
-      </c>
-      <c r="B2576" t="inlineStr"/>
-      <c r="C2576" t="inlineStr"/>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B2576" t="inlineStr">
+        <is>
+          <t>JP</t>
+        </is>
+      </c>
+      <c r="C2576" t="inlineStr">
+        <is>
+          <t>Construction Orders YoYDEC</t>
+        </is>
+      </c>
       <c r="D2576" t="inlineStr"/>
-      <c r="E2576" t="inlineStr"/>
+      <c r="E2576" t="inlineStr">
+        <is>
+          <t>-10.2%</t>
+        </is>
+      </c>
       <c r="F2576" t="inlineStr"/>
-      <c r="G2576" t="inlineStr"/>
-      <c r="H2576" t="inlineStr"/>
+      <c r="G2576" t="inlineStr">
+        <is>
+          <t>5.5%</t>
+        </is>
+      </c>
+      <c r="H2576" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2577">
       <c r="A2577" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2577" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2577" t="inlineStr">
         <is>
-          <t>Fed Balance SheetJAN/29</t>
+          <t>Business ConfidenceQ4</t>
         </is>
       </c>
       <c r="D2577" t="inlineStr"/>
       <c r="E2577" t="inlineStr">
         <is>
-          <t>$6.88T</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F2577" t="inlineStr"/>
-      <c r="G2577" t="inlineStr"/>
+      <c r="G2577" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
       <c r="H2577" t="inlineStr">
         <is>
           <t>3</t>
@@ -83562,33 +83170,33 @@
     <row r="2578">
       <c r="A2578" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2578" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2578" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D2578" t="inlineStr"/>
       <c r="E2578" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>-0.6%</t>
         </is>
       </c>
       <c r="F2578" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="G2578" t="inlineStr">
         <is>
-          <t>2.50%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H2578" t="inlineStr">
@@ -83600,105 +83208,101 @@
     <row r="2579">
       <c r="A2579" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2579" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2579" t="inlineStr">
         <is>
-          <t>Jobs/applications ratioDEC</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="D2579" t="inlineStr"/>
       <c r="E2579" t="inlineStr">
         <is>
-          <t>1.25</t>
-        </is>
-      </c>
-      <c r="F2579" t="inlineStr">
-        <is>
-          <t>1.25</t>
-        </is>
-      </c>
+          <t>2.5%</t>
+        </is>
+      </c>
+      <c r="F2579" t="inlineStr"/>
       <c r="G2579" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="H2579" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2580">
       <c r="A2580" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2580" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2580" t="inlineStr">
         <is>
-          <t>Tokyo Core CPI YoYJAN</t>
+          <t>Balance of Trade FinalDEC</t>
         </is>
       </c>
       <c r="D2580" t="inlineStr"/>
       <c r="E2580" t="inlineStr">
         <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="F2580" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
+          <t>$-7.46B</t>
+        </is>
+      </c>
+      <c r="F2580" t="inlineStr"/>
       <c r="G2580" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>$-8.82B</t>
         </is>
       </c>
       <c r="H2580" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2581">
       <c r="A2581" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2581" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2581" t="inlineStr">
         <is>
-          <t>Tokyo CPI Ex Food and Energy YoYJAN</t>
+          <t>Exports FinalDEC</t>
         </is>
       </c>
       <c r="D2581" t="inlineStr"/>
       <c r="E2581" t="inlineStr">
         <is>
-          <t>1.1%</t>
-        </is>
-      </c>
-      <c r="F2581" t="inlineStr"/>
+          <t>$22.29B</t>
+        </is>
+      </c>
+      <c r="F2581" t="inlineStr">
+        <is>
+          <t>$23.46B</t>
+        </is>
+      </c>
       <c r="G2581" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>$ 23.46B</t>
         </is>
       </c>
       <c r="H2581" t="inlineStr">
@@ -83710,29 +83314,29 @@
     <row r="2582">
       <c r="A2582" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2582" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2582" t="inlineStr">
         <is>
-          <t>Tokyo CPI YoYJAN</t>
+          <t>Imports FinalDEC</t>
         </is>
       </c>
       <c r="D2582" t="inlineStr"/>
       <c r="E2582" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>$29.75B</t>
         </is>
       </c>
       <c r="F2582" t="inlineStr"/>
       <c r="G2582" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>$32.29B</t>
         </is>
       </c>
       <c r="H2582" t="inlineStr">
@@ -83744,71 +83348,63 @@
     <row r="2583">
       <c r="A2583" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2583" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2583" t="inlineStr">
         <is>
-          <t>Industrial Production MoM PrelDEC</t>
+          <t>Tourism RevenuesQ4</t>
         </is>
       </c>
       <c r="D2583" t="inlineStr"/>
       <c r="E2583" t="inlineStr">
         <is>
-          <t>-2.2%</t>
-        </is>
-      </c>
-      <c r="F2583" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+          <t>$23.22B</t>
+        </is>
+      </c>
+      <c r="F2583" t="inlineStr"/>
       <c r="G2583" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>$ 23.5B</t>
         </is>
       </c>
       <c r="H2583" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2584">
       <c r="A2584" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2584" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2584" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Nationwide Housing Prices MoMJAN</t>
         </is>
       </c>
       <c r="D2584" t="inlineStr"/>
       <c r="E2584" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F2584" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
+          <t>0.7%</t>
+        </is>
+      </c>
+      <c r="F2584" t="inlineStr"/>
       <c r="G2584" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>0.9%</t>
         </is>
       </c>
       <c r="H2584" t="inlineStr">
@@ -83820,97 +83416,101 @@
     <row r="2585">
       <c r="A2585" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2585" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2585" t="inlineStr">
         <is>
-          <t>Industrial Production YoY PrelDEC</t>
+          <t>Nationwide Housing Prices YoYJAN</t>
         </is>
       </c>
       <c r="D2585" t="inlineStr"/>
       <c r="E2585" t="inlineStr">
         <is>
-          <t>-2.8%</t>
+          <t>4.7%</t>
         </is>
       </c>
       <c r="F2585" t="inlineStr"/>
       <c r="G2585" t="inlineStr">
         <is>
-          <t>-1.6%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H2585" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2586">
       <c r="A2586" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2586" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2586" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2586" t="inlineStr"/>
       <c r="E2586" t="inlineStr">
         <is>
-          <t>1.8%</t>
+          <t>1.3%</t>
         </is>
       </c>
       <c r="F2586" t="inlineStr"/>
       <c r="G2586" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="H2586" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2587">
       <c r="A2587" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2587" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2587" t="inlineStr">
         <is>
-          <t>PPI QoQQ4</t>
+          <t>Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2587" t="inlineStr"/>
       <c r="E2587" t="inlineStr">
         <is>
-          <t>0.9%</t>
-        </is>
-      </c>
-      <c r="F2587" t="inlineStr"/>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="F2587" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
       <c r="G2587" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H2587" t="inlineStr">
@@ -83922,33 +83522,29 @@
     <row r="2588">
       <c r="A2588" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2588" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2588" t="inlineStr">
         <is>
-          <t>Housing Credit MoMDEC</t>
+          <t>Harmonised Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2588" t="inlineStr"/>
       <c r="E2588" t="inlineStr">
         <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="F2588" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="F2588" t="inlineStr"/>
       <c r="G2588" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H2588" t="inlineStr">
@@ -83960,29 +83556,29 @@
     <row r="2589">
       <c r="A2589" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2589" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2589" t="inlineStr">
         <is>
-          <t>PPI YoYQ4</t>
+          <t>Harmonised Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2589" t="inlineStr"/>
       <c r="E2589" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>1.8%</t>
         </is>
       </c>
       <c r="F2589" t="inlineStr"/>
       <c r="G2589" t="inlineStr">
         <is>
-          <t>3.6%</t>
+          <t>2.0%</t>
         </is>
       </c>
       <c r="H2589" t="inlineStr">
@@ -83994,29 +83590,29 @@
     <row r="2590">
       <c r="A2590" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2590" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2590" t="inlineStr">
         <is>
-          <t>Private Sector Credit MoMDEC</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D2590" t="inlineStr"/>
       <c r="E2590" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>3.2%</t>
         </is>
       </c>
       <c r="F2590" t="inlineStr"/>
       <c r="G2590" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H2590" t="inlineStr">
@@ -84028,29 +83624,29 @@
     <row r="2591">
       <c r="A2591" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2591" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2591" t="inlineStr">
         <is>
-          <t>Private Sector Credit YoYDEC</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D2591" t="inlineStr"/>
       <c r="E2591" t="inlineStr">
         <is>
-          <t>6.2%</t>
+          <t>-5.2%</t>
         </is>
       </c>
       <c r="F2591" t="inlineStr"/>
       <c r="G2591" t="inlineStr">
         <is>
-          <t>5.7%</t>
+          <t>-4.3%</t>
         </is>
       </c>
       <c r="H2591" t="inlineStr">
@@ -84062,29 +83658,29 @@
     <row r="2592">
       <c r="A2592" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2592" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2592" t="inlineStr">
         <is>
-          <t>Bank LendingDEC</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D2592" t="inlineStr"/>
       <c r="E2592" t="inlineStr">
         <is>
-          <t>S$819.4B</t>
+          <t>-0.6%</t>
         </is>
       </c>
       <c r="F2592" t="inlineStr"/>
       <c r="G2592" t="inlineStr">
         <is>
-          <t>S$ 818.2B</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="H2592" t="inlineStr">
@@ -84096,27 +83692,31 @@
     <row r="2593">
       <c r="A2593" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2593" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2593" t="inlineStr">
         <is>
-          <t>2-Year JGB Auction</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="D2593" t="inlineStr"/>
       <c r="E2593" t="inlineStr">
         <is>
-          <t>0.602%</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="F2593" t="inlineStr"/>
-      <c r="G2593" t="inlineStr"/>
+      <c r="G2593" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H2593" t="inlineStr">
         <is>
           <t>3</t>
@@ -84126,23 +83726,23 @@
     <row r="2594">
       <c r="A2594" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2594" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2594" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Tourist Arrivals YoYDEC</t>
         </is>
       </c>
       <c r="D2594" t="inlineStr"/>
       <c r="E2594" t="inlineStr">
         <is>
-          <t>0.3657%</t>
+          <t>8.25%</t>
         </is>
       </c>
       <c r="F2594" t="inlineStr"/>
@@ -84156,141 +83756,133 @@
     <row r="2595">
       <c r="A2595" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>02:25 PM</t>
         </is>
       </c>
       <c r="B2595" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2595" t="inlineStr">
         <is>
-          <t>Housing Starts YoYDEC</t>
+          <t>Unemployment ChangeJAN</t>
         </is>
       </c>
       <c r="D2595" t="inlineStr"/>
       <c r="E2595" t="inlineStr">
         <is>
-          <t>-1.8%</t>
+          <t>10K</t>
         </is>
       </c>
       <c r="F2595" t="inlineStr">
         <is>
-          <t>-3.9%</t>
+          <t>15K</t>
         </is>
       </c>
       <c r="G2595" t="inlineStr">
         <is>
-          <t>-3.3%</t>
+          <t>7.0K</t>
         </is>
       </c>
       <c r="H2595" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2596">
       <c r="A2596" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>02:25 PM</t>
         </is>
       </c>
       <c r="B2596" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2596" t="inlineStr">
         <is>
-          <t>Construction Orders YoYDEC</t>
+          <t>Unemployed PersonsJAN</t>
         </is>
       </c>
       <c r="D2596" t="inlineStr"/>
       <c r="E2596" t="inlineStr">
         <is>
-          <t>-10.2%</t>
+          <t>2.869M</t>
         </is>
       </c>
       <c r="F2596" t="inlineStr"/>
       <c r="G2596" t="inlineStr">
         <is>
-          <t>5.5%</t>
+          <t>2.876M</t>
         </is>
       </c>
       <c r="H2596" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2597">
       <c r="A2597" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>02:25 PM</t>
         </is>
       </c>
       <c r="B2597" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2597" t="inlineStr">
         <is>
-          <t>Business ConfidenceQ4</t>
+          <t>Unemployment RateJAN</t>
         </is>
       </c>
       <c r="D2597" t="inlineStr"/>
       <c r="E2597" t="inlineStr">
         <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="F2597" t="inlineStr"/>
+          <t>6.1%</t>
+        </is>
+      </c>
+      <c r="F2597" t="inlineStr">
+        <is>
+          <t>6.2%</t>
+        </is>
+      </c>
       <c r="G2597" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>6.2%</t>
         </is>
       </c>
       <c r="H2597" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2598">
       <c r="A2598" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2598" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2598" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>ECB Survey of Professional Forecasters</t>
         </is>
       </c>
       <c r="D2598" t="inlineStr"/>
-      <c r="E2598" t="inlineStr">
-        <is>
-          <t>-0.6%</t>
-        </is>
-      </c>
-      <c r="F2598" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="G2598" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E2598" t="inlineStr"/>
+      <c r="F2598" t="inlineStr"/>
+      <c r="G2598" t="inlineStr"/>
       <c r="H2598" t="inlineStr">
         <is>
           <t>2</t>
@@ -84300,7 +83892,7 @@
     <row r="2599">
       <c r="A2599" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2599" t="inlineStr">
@@ -84310,93 +83902,77 @@
       </c>
       <c r="C2599" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Baden Wuerttemberg CPI MoMJAN</t>
         </is>
       </c>
       <c r="D2599" t="inlineStr"/>
       <c r="E2599" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F2599" t="inlineStr"/>
-      <c r="G2599" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
+      <c r="G2599" t="inlineStr"/>
       <c r="H2599" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2600">
       <c r="A2600" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2600" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2600" t="inlineStr">
         <is>
-          <t>Balance of Trade FinalDEC</t>
+          <t>Baden Wuerttemberg CPI YoYJAN</t>
         </is>
       </c>
       <c r="D2600" t="inlineStr"/>
       <c r="E2600" t="inlineStr">
         <is>
-          <t>$-7.46B</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F2600" t="inlineStr"/>
-      <c r="G2600" t="inlineStr">
-        <is>
-          <t>$-8.82B</t>
-        </is>
-      </c>
+      <c r="G2600" t="inlineStr"/>
       <c r="H2600" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2601">
       <c r="A2601" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2601" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2601" t="inlineStr">
         <is>
-          <t>Exports FinalDEC</t>
+          <t>Bavaria CPI MoMJAN</t>
         </is>
       </c>
       <c r="D2601" t="inlineStr"/>
       <c r="E2601" t="inlineStr">
         <is>
-          <t>$22.29B</t>
-        </is>
-      </c>
-      <c r="F2601" t="inlineStr">
-        <is>
-          <t>$23.46B</t>
-        </is>
-      </c>
-      <c r="G2601" t="inlineStr">
-        <is>
-          <t>$ 23.46B</t>
-        </is>
-      </c>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="F2601" t="inlineStr"/>
+      <c r="G2601" t="inlineStr"/>
       <c r="H2601" t="inlineStr">
         <is>
           <t>3</t>
@@ -84406,31 +83982,27 @@
     <row r="2602">
       <c r="A2602" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2602" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2602" t="inlineStr">
         <is>
-          <t>Imports FinalDEC</t>
+          <t>Bavaria CPI YoYJAN</t>
         </is>
       </c>
       <c r="D2602" t="inlineStr"/>
       <c r="E2602" t="inlineStr">
         <is>
-          <t>$29.75B</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="F2602" t="inlineStr"/>
-      <c r="G2602" t="inlineStr">
-        <is>
-          <t>$32.29B</t>
-        </is>
-      </c>
+      <c r="G2602" t="inlineStr"/>
       <c r="H2602" t="inlineStr">
         <is>
           <t>3</t>
@@ -84440,31 +84012,27 @@
     <row r="2603">
       <c r="A2603" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2603" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2603" t="inlineStr">
         <is>
-          <t>Tourism RevenuesQ4</t>
+          <t>Brandenburg CPI MoMJAN</t>
         </is>
       </c>
       <c r="D2603" t="inlineStr"/>
       <c r="E2603" t="inlineStr">
         <is>
-          <t>$23.22B</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F2603" t="inlineStr"/>
-      <c r="G2603" t="inlineStr">
-        <is>
-          <t>$ 23.5B</t>
-        </is>
-      </c>
+      <c r="G2603" t="inlineStr"/>
       <c r="H2603" t="inlineStr">
         <is>
           <t>3</t>
@@ -84474,171 +84042,147 @@
     <row r="2604">
       <c r="A2604" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2604" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2604" t="inlineStr">
         <is>
-          <t>Nationwide Housing Prices MoMJAN</t>
+          <t>Brandenburg CPI YoYJAN</t>
         </is>
       </c>
       <c r="D2604" t="inlineStr"/>
       <c r="E2604" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F2604" t="inlineStr"/>
-      <c r="G2604" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
+      <c r="G2604" t="inlineStr"/>
       <c r="H2604" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2605">
       <c r="A2605" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2605" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2605" t="inlineStr">
         <is>
-          <t>Nationwide Housing Prices YoYJAN</t>
+          <t>Hesse CPI MoMJAN</t>
         </is>
       </c>
       <c r="D2605" t="inlineStr"/>
       <c r="E2605" t="inlineStr">
         <is>
-          <t>4.7%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F2605" t="inlineStr"/>
-      <c r="G2605" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+      <c r="G2605" t="inlineStr"/>
       <c r="H2605" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2606">
       <c r="A2606" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2606" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2606" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelJAN</t>
+          <t>Hesse CPI YoYJAN</t>
         </is>
       </c>
       <c r="D2606" t="inlineStr"/>
       <c r="E2606" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F2606" t="inlineStr"/>
-      <c r="G2606" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
+      <c r="G2606" t="inlineStr"/>
       <c r="H2606" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2607">
       <c r="A2607" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2607" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2607" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM PrelJAN</t>
+          <t>North Rhine Westphalia CPI MoMJAN</t>
         </is>
       </c>
       <c r="D2607" t="inlineStr"/>
       <c r="E2607" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F2607" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="G2607" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="F2607" t="inlineStr"/>
+      <c r="G2607" t="inlineStr"/>
       <c r="H2607" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2608">
       <c r="A2608" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2608" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2608" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM PrelJAN</t>
+          <t>North Rhine Westphalia CPI YoYJAN</t>
         </is>
       </c>
       <c r="D2608" t="inlineStr"/>
       <c r="E2608" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>2.5%</t>
         </is>
       </c>
       <c r="F2608" t="inlineStr"/>
-      <c r="G2608" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G2608" t="inlineStr"/>
       <c r="H2608" t="inlineStr">
         <is>
           <t>3</t>
@@ -84648,31 +84192,27 @@
     <row r="2609">
       <c r="A2609" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2609" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2609" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY PrelJAN</t>
+          <t>Saxony CPI MoMJAN</t>
         </is>
       </c>
       <c r="D2609" t="inlineStr"/>
       <c r="E2609" t="inlineStr">
         <is>
-          <t>1.8%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F2609" t="inlineStr"/>
-      <c r="G2609" t="inlineStr">
-        <is>
-          <t>2.0%</t>
-        </is>
-      </c>
+      <c r="G2609" t="inlineStr"/>
       <c r="H2609" t="inlineStr">
         <is>
           <t>3</t>
@@ -84682,17 +84222,17 @@
     <row r="2610">
       <c r="A2610" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2610" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2610" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Saxony CPI YoYJAN</t>
         </is>
       </c>
       <c r="D2610" t="inlineStr"/>
@@ -84702,11 +84242,7 @@
         </is>
       </c>
       <c r="F2610" t="inlineStr"/>
-      <c r="G2610" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G2610" t="inlineStr"/>
       <c r="H2610" t="inlineStr">
         <is>
           <t>3</t>
@@ -84716,29 +84252,29 @@
     <row r="2611">
       <c r="A2611" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2611" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2611" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Current AccountNOV</t>
         </is>
       </c>
       <c r="D2611" t="inlineStr"/>
       <c r="E2611" t="inlineStr">
         <is>
-          <t>-5.2%</t>
+          <t>€4.9B</t>
         </is>
       </c>
       <c r="F2611" t="inlineStr"/>
       <c r="G2611" t="inlineStr">
         <is>
-          <t>-4.3%</t>
+          <t>€5.0B</t>
         </is>
       </c>
       <c r="H2611" t="inlineStr">
@@ -84750,23 +84286,23 @@
     <row r="2612">
       <c r="A2612" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2612" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2612" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D2612" t="inlineStr"/>
       <c r="E2612" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="F2612" t="inlineStr"/>
@@ -84784,23 +84320,23 @@
     <row r="2613">
       <c r="A2613" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2613" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2613" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D2613" t="inlineStr"/>
       <c r="E2613" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="F2613" t="inlineStr"/>
@@ -84818,27 +84354,31 @@
     <row r="2614">
       <c r="A2614" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B2614" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2614" t="inlineStr">
         <is>
-          <t>Tourist Arrivals YoYDEC</t>
+          <t>Government Budget ValueDEC</t>
         </is>
       </c>
       <c r="D2614" t="inlineStr"/>
       <c r="E2614" t="inlineStr">
         <is>
-          <t>8.25%</t>
+          <t>INR-8465.9B</t>
         </is>
       </c>
       <c r="F2614" t="inlineStr"/>
-      <c r="G2614" t="inlineStr"/>
+      <c r="G2614" t="inlineStr">
+        <is>
+          <t>INR-9700.0B</t>
+        </is>
+      </c>
       <c r="H2614" t="inlineStr">
         <is>
           <t>3</t>
@@ -84848,159 +84388,151 @@
     <row r="2615">
       <c r="A2615" t="inlineStr">
         <is>
-          <t>02:25 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2615" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2615" t="inlineStr">
         <is>
-          <t>Unemployment ChangeJAN</t>
+          <t>Gross Debt to GDPDEC</t>
         </is>
       </c>
       <c r="D2615" t="inlineStr"/>
       <c r="E2615" t="inlineStr">
         <is>
-          <t>10K</t>
-        </is>
-      </c>
-      <c r="F2615" t="inlineStr">
-        <is>
-          <t>15K</t>
-        </is>
-      </c>
+          <t>77.7%</t>
+        </is>
+      </c>
+      <c r="F2615" t="inlineStr"/>
       <c r="G2615" t="inlineStr">
         <is>
-          <t>7.0K</t>
+          <t>77.9%</t>
         </is>
       </c>
       <c r="H2615" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2616">
       <c r="A2616" t="inlineStr">
         <is>
-          <t>02:25 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2616" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2616" t="inlineStr">
         <is>
-          <t>Unemployed PersonsJAN</t>
+          <t>Nominal Budget BalanceDEC</t>
         </is>
       </c>
       <c r="D2616" t="inlineStr"/>
       <c r="E2616" t="inlineStr">
         <is>
-          <t>2.869M</t>
+          <t>BRL-99.1B</t>
         </is>
       </c>
       <c r="F2616" t="inlineStr"/>
       <c r="G2616" t="inlineStr">
         <is>
-          <t>2.876M</t>
+          <t>BRL-103.0B</t>
         </is>
       </c>
       <c r="H2616" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2617">
       <c r="A2617" t="inlineStr">
         <is>
-          <t>02:25 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2617" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2617" t="inlineStr">
         <is>
-          <t>Unemployment RateJAN</t>
+          <t>Bank Loan Growth YoYJAN/17</t>
         </is>
       </c>
       <c r="D2617" t="inlineStr"/>
       <c r="E2617" t="inlineStr">
         <is>
-          <t>6.1%</t>
-        </is>
-      </c>
-      <c r="F2617" t="inlineStr">
-        <is>
-          <t>6.2%</t>
-        </is>
-      </c>
-      <c r="G2617" t="inlineStr">
-        <is>
-          <t>6.2%</t>
-        </is>
-      </c>
+          <t>11.2%</t>
+        </is>
+      </c>
+      <c r="F2617" t="inlineStr"/>
+      <c r="G2617" t="inlineStr"/>
       <c r="H2617" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2618">
       <c r="A2618" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2618" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2618" t="inlineStr">
         <is>
-          <t>ECB Survey of Professional Forecasters</t>
+          <t>Deposit Growth YoYJAN/17</t>
         </is>
       </c>
       <c r="D2618" t="inlineStr"/>
-      <c r="E2618" t="inlineStr"/>
+      <c r="E2618" t="inlineStr">
+        <is>
+          <t>9.8%</t>
+        </is>
+      </c>
       <c r="F2618" t="inlineStr"/>
       <c r="G2618" t="inlineStr"/>
       <c r="H2618" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2619">
       <c r="A2619" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2619" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2619" t="inlineStr">
         <is>
-          <t>Baden Wuerttemberg CPI MoMJAN</t>
+          <t>Foreign Exchange ReservesJAN/24</t>
         </is>
       </c>
       <c r="D2619" t="inlineStr"/>
       <c r="E2619" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>$623.98B</t>
         </is>
       </c>
       <c r="F2619" t="inlineStr"/>
@@ -85014,27 +84546,31 @@
     <row r="2620">
       <c r="A2620" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2620" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2620" t="inlineStr">
         <is>
-          <t>Baden Wuerttemberg CPI YoYJAN</t>
+          <t>Infrastructure Output YoYDEC</t>
         </is>
       </c>
       <c r="D2620" t="inlineStr"/>
       <c r="E2620" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>4.3%</t>
         </is>
       </c>
       <c r="F2620" t="inlineStr"/>
-      <c r="G2620" t="inlineStr"/>
+      <c r="G2620" t="inlineStr">
+        <is>
+          <t>4.8%</t>
+        </is>
+      </c>
       <c r="H2620" t="inlineStr">
         <is>
           <t>3</t>
@@ -85044,67 +84580,75 @@
     <row r="2621">
       <c r="A2621" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2621" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2621" t="inlineStr">
         <is>
-          <t>Bavaria CPI MoMJAN</t>
+          <t>Unemployment RateDEC</t>
         </is>
       </c>
       <c r="D2621" t="inlineStr"/>
       <c r="E2621" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>6.1%</t>
         </is>
       </c>
       <c r="F2621" t="inlineStr"/>
-      <c r="G2621" t="inlineStr"/>
+      <c r="G2621" t="inlineStr">
+        <is>
+          <t>6.1%</t>
+        </is>
+      </c>
       <c r="H2621" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2622">
       <c r="A2622" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2622" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2622" t="inlineStr">
         <is>
-          <t>Bavaria CPI YoYJAN</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D2622" t="inlineStr"/>
       <c r="E2622" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>ZAR34.7B</t>
         </is>
       </c>
       <c r="F2622" t="inlineStr"/>
-      <c r="G2622" t="inlineStr"/>
+      <c r="G2622" t="inlineStr">
+        <is>
+          <t>ZAR 27.0B</t>
+        </is>
+      </c>
       <c r="H2622" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2623">
       <c r="A2623" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2623" t="inlineStr">
@@ -85114,27 +84658,35 @@
       </c>
       <c r="C2623" t="inlineStr">
         <is>
-          <t>Brandenburg CPI MoMJAN</t>
+          <t>Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2623" t="inlineStr"/>
       <c r="E2623" t="inlineStr">
         <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F2623" t="inlineStr"/>
-      <c r="G2623" t="inlineStr"/>
+          <t>2.6%</t>
+        </is>
+      </c>
+      <c r="F2623" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
+      <c r="G2623" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="H2623" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2624">
       <c r="A2624" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2624" t="inlineStr">
@@ -85144,27 +84696,35 @@
       </c>
       <c r="C2624" t="inlineStr">
         <is>
-          <t>Brandenburg CPI YoYJAN</t>
+          <t>Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2624" t="inlineStr"/>
       <c r="E2624" t="inlineStr">
         <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="F2624" t="inlineStr"/>
-      <c r="G2624" t="inlineStr"/>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="F2624" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="G2624" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H2624" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2625">
       <c r="A2625" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2625" t="inlineStr">
@@ -85174,17 +84734,21 @@
       </c>
       <c r="C2625" t="inlineStr">
         <is>
-          <t>Hesse CPI MoMJAN</t>
+          <t>Harmonised Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2625" t="inlineStr"/>
       <c r="E2625" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="F2625" t="inlineStr"/>
-      <c r="G2625" t="inlineStr"/>
+      <c r="G2625" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H2625" t="inlineStr">
         <is>
           <t>3</t>
@@ -85194,7 +84758,7 @@
     <row r="2626">
       <c r="A2626" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2626" t="inlineStr">
@@ -85204,17 +84768,25 @@
       </c>
       <c r="C2626" t="inlineStr">
         <is>
-          <t>Hesse CPI YoYJAN</t>
+          <t>Harmonised Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2626" t="inlineStr"/>
       <c r="E2626" t="inlineStr">
         <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="F2626" t="inlineStr"/>
-      <c r="G2626" t="inlineStr"/>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="F2626" t="inlineStr">
+        <is>
+          <t>2.9%</t>
+        </is>
+      </c>
+      <c r="G2626" t="inlineStr">
+        <is>
+          <t>3.0%</t>
+        </is>
+      </c>
       <c r="H2626" t="inlineStr">
         <is>
           <t>3</t>
@@ -85224,381 +84796,417 @@
     <row r="2627">
       <c r="A2627" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2627" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2627" t="inlineStr">
         <is>
-          <t>North Rhine Westphalia CPI MoMJAN</t>
+          <t>GDP MoMNOV</t>
         </is>
       </c>
       <c r="D2627" t="inlineStr"/>
       <c r="E2627" t="inlineStr">
         <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="F2627" t="inlineStr"/>
-      <c r="G2627" t="inlineStr"/>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="F2627" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="G2627" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
       <c r="H2627" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2628">
       <c r="A2628" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2628" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2628" t="inlineStr">
         <is>
-          <t>North Rhine Westphalia CPI YoYJAN</t>
+          <t>GDP MoM PrelDEC</t>
         </is>
       </c>
       <c r="D2628" t="inlineStr"/>
       <c r="E2628" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F2628" t="inlineStr"/>
-      <c r="G2628" t="inlineStr"/>
+      <c r="G2628" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H2628" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2629">
       <c r="A2629" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2629" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2629" t="inlineStr">
         <is>
-          <t>Saxony CPI MoMJAN</t>
+          <t>Core PCE Price Index MoMDEC</t>
         </is>
       </c>
       <c r="D2629" t="inlineStr"/>
       <c r="E2629" t="inlineStr">
         <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="F2629" t="inlineStr"/>
-      <c r="G2629" t="inlineStr"/>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F2629" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="G2629" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H2629" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2630">
       <c r="A2630" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2630" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2630" t="inlineStr">
         <is>
-          <t>Saxony CPI YoYJAN</t>
+          <t>Personal Income MoMDEC</t>
         </is>
       </c>
       <c r="D2630" t="inlineStr"/>
       <c r="E2630" t="inlineStr">
         <is>
-          <t>3.2%</t>
-        </is>
-      </c>
-      <c r="F2630" t="inlineStr"/>
-      <c r="G2630" t="inlineStr"/>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="F2630" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="G2630" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H2630" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2631">
       <c r="A2631" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2631" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2631" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>Personal Spending MoMDEC</t>
         </is>
       </c>
       <c r="D2631" t="inlineStr"/>
       <c r="E2631" t="inlineStr">
         <is>
-          <t>€4.9B</t>
-        </is>
-      </c>
-      <c r="F2631" t="inlineStr"/>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="F2631" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="G2631" t="inlineStr">
         <is>
-          <t>€5.0B</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H2631" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2632">
       <c r="A2632" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2632" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2632" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Employment Cost - Benefits QoQQ4</t>
         </is>
       </c>
       <c r="D2632" t="inlineStr"/>
       <c r="E2632" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F2632" t="inlineStr"/>
       <c r="G2632" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="H2632" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2633">
       <c r="A2633" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2633" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2633" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Employment Cost - Wages QoQQ4</t>
         </is>
       </c>
       <c r="D2633" t="inlineStr"/>
       <c r="E2633" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F2633" t="inlineStr"/>
       <c r="G2633" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="H2633" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2634">
       <c r="A2634" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2634" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2634" t="inlineStr">
         <is>
-          <t>Government Budget ValueDEC</t>
+          <t>Employment Cost Index QoQQ4</t>
         </is>
       </c>
       <c r="D2634" t="inlineStr"/>
       <c r="E2634" t="inlineStr">
         <is>
-          <t>INR-8465.9B</t>
-        </is>
-      </c>
-      <c r="F2634" t="inlineStr"/>
+          <t>0.8%</t>
+        </is>
+      </c>
+      <c r="F2634" t="inlineStr">
+        <is>
+          <t>1%</t>
+        </is>
+      </c>
       <c r="G2634" t="inlineStr">
         <is>
-          <t>INR-9700.0B</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="H2634" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2635">
       <c r="A2635" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2635" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2635" t="inlineStr">
         <is>
-          <t>Gross Debt to GDPDEC</t>
+          <t>Fed Bowman Speech</t>
         </is>
       </c>
       <c r="D2635" t="inlineStr"/>
-      <c r="E2635" t="inlineStr">
-        <is>
-          <t>77.7%</t>
-        </is>
-      </c>
+      <c r="E2635" t="inlineStr"/>
       <c r="F2635" t="inlineStr"/>
-      <c r="G2635" t="inlineStr">
-        <is>
-          <t>77.9%</t>
-        </is>
-      </c>
+      <c r="G2635" t="inlineStr"/>
       <c r="H2635" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2636">
       <c r="A2636" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2636" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2636" t="inlineStr">
         <is>
-          <t>Nominal Budget BalanceDEC</t>
+          <t>PCE Price Index MoMDEC</t>
         </is>
       </c>
       <c r="D2636" t="inlineStr"/>
       <c r="E2636" t="inlineStr">
         <is>
-          <t>BRL-99.1B</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2636" t="inlineStr"/>
       <c r="G2636" t="inlineStr">
         <is>
-          <t>BRL-103.0B</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H2636" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2637">
       <c r="A2637" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2637" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2637" t="inlineStr">
         <is>
-          <t>Bank Loan Growth YoYJAN/17</t>
+          <t>PCE Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D2637" t="inlineStr"/>
       <c r="E2637" t="inlineStr">
         <is>
-          <t>11.2%</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F2637" t="inlineStr"/>
-      <c r="G2637" t="inlineStr"/>
+      <c r="G2637" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="H2637" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2638">
       <c r="A2638" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2638" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2638" t="inlineStr">
         <is>
-          <t>Deposit Growth YoYJAN/17</t>
+          <t>Core PCE Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D2638" t="inlineStr"/>
       <c r="E2638" t="inlineStr">
         <is>
-          <t>9.8%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="F2638" t="inlineStr"/>
-      <c r="G2638" t="inlineStr"/>
+      <c r="G2638" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
       <c r="H2638" t="inlineStr">
         <is>
           <t>3</t>
@@ -85608,59 +85216,67 @@
     <row r="2639">
       <c r="A2639" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B2639" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2639" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/24</t>
+          <t>Chicago PMIJAN</t>
         </is>
       </c>
       <c r="D2639" t="inlineStr"/>
       <c r="E2639" t="inlineStr">
         <is>
-          <t>$623.98B</t>
-        </is>
-      </c>
-      <c r="F2639" t="inlineStr"/>
-      <c r="G2639" t="inlineStr"/>
+          <t>36.9</t>
+        </is>
+      </c>
+      <c r="F2639" t="inlineStr">
+        <is>
+          <t>39.9</t>
+        </is>
+      </c>
+      <c r="G2639" t="inlineStr">
+        <is>
+          <t>37.2</t>
+        </is>
+      </c>
       <c r="H2639" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2640">
       <c r="A2640" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B2640" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2640" t="inlineStr">
         <is>
-          <t>Infrastructure Output YoYDEC</t>
+          <t>Budget BalanceNOV</t>
         </is>
       </c>
       <c r="D2640" t="inlineStr"/>
       <c r="E2640" t="inlineStr">
         <is>
-          <t>4.3%</t>
+          <t>C$-1.49B</t>
         </is>
       </c>
       <c r="F2640" t="inlineStr"/>
       <c r="G2640" t="inlineStr">
         <is>
-          <t>4.8%</t>
+          <t>C$-1.9B</t>
         </is>
       </c>
       <c r="H2640" t="inlineStr">
@@ -85672,173 +85288,145 @@
     <row r="2641">
       <c r="A2641" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B2641" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2641" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>Baker Hughes Oil Rig CountJAN/31</t>
         </is>
       </c>
       <c r="D2641" t="inlineStr"/>
       <c r="E2641" t="inlineStr">
         <is>
-          <t>6.1%</t>
+          <t>472</t>
         </is>
       </c>
       <c r="F2641" t="inlineStr"/>
-      <c r="G2641" t="inlineStr">
-        <is>
-          <t>6.1%</t>
-        </is>
-      </c>
+      <c r="G2641" t="inlineStr"/>
       <c r="H2641" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2642">
       <c r="A2642" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B2642" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2642" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Baker Hughes Total Rigs CountJAN/31</t>
         </is>
       </c>
       <c r="D2642" t="inlineStr"/>
       <c r="E2642" t="inlineStr">
         <is>
-          <t>ZAR34.7B</t>
+          <t>576</t>
         </is>
       </c>
       <c r="F2642" t="inlineStr"/>
-      <c r="G2642" t="inlineStr">
-        <is>
-          <t>ZAR 27.0B</t>
-        </is>
-      </c>
+      <c r="G2642" t="inlineStr"/>
       <c r="H2642" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2643">
-      <c r="A2643" t="inlineStr">
-        <is>
-          <t>06:30 PM</t>
-        </is>
-      </c>
+      <c r="A2643" t="inlineStr"/>
       <c r="B2643" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2643" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelJAN</t>
+          <t>Fiscal BalanceDEC</t>
         </is>
       </c>
       <c r="D2643" t="inlineStr"/>
       <c r="E2643" t="inlineStr">
         <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="F2643" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
+          <t>MXN-1064.93B</t>
+        </is>
+      </c>
+      <c r="F2643" t="inlineStr"/>
       <c r="G2643" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>MXN-1120.0B</t>
         </is>
       </c>
       <c r="H2643" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2644">
-      <c r="A2644" t="inlineStr">
-        <is>
-          <t>06:30 PM</t>
-        </is>
-      </c>
+      <c r="A2644" t="inlineStr"/>
       <c r="B2644" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2644" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM PrelJAN</t>
+          <t>CoreLogic Dwelling Prices MoMJAN</t>
         </is>
       </c>
       <c r="D2644" t="inlineStr"/>
       <c r="E2644" t="inlineStr">
         <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="F2644" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="F2644" t="inlineStr"/>
       <c r="G2644" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="H2644" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2645">
-      <c r="A2645" t="inlineStr">
-        <is>
-          <t>06:30 PM</t>
-        </is>
-      </c>
+      <c r="A2645" t="inlineStr"/>
       <c r="B2645" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2645" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM PrelJAN</t>
+          <t>Consumer Inflation ExpectationsDEC</t>
         </is>
       </c>
       <c r="D2645" t="inlineStr"/>
       <c r="E2645" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F2645" t="inlineStr"/>
       <c r="G2645" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="H2645" t="inlineStr">
@@ -85848,35 +85436,27 @@
       </c>
     </row>
     <row r="2646">
-      <c r="A2646" t="inlineStr">
-        <is>
-          <t>06:30 PM</t>
-        </is>
-      </c>
+      <c r="A2646" t="inlineStr"/>
       <c r="B2646" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2646" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY PrelJAN</t>
+          <t>New Car Registrations YoYJAN</t>
         </is>
       </c>
       <c r="D2646" t="inlineStr"/>
       <c r="E2646" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F2646" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
+          <t>1.5%</t>
+        </is>
+      </c>
+      <c r="F2646" t="inlineStr"/>
       <c r="G2646" t="inlineStr">
         <is>
-          <t>3.0%</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="H2646" t="inlineStr">
@@ -85886,315 +85466,247 @@
       </c>
     </row>
     <row r="2647">
-      <c r="A2647" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A2647" t="inlineStr"/>
       <c r="B2647" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2647" t="inlineStr">
         <is>
-          <t>GDP MoMNOV</t>
+          <t>New Car Sales YoYJAN</t>
         </is>
       </c>
       <c r="D2647" t="inlineStr"/>
       <c r="E2647" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F2647" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
+          <t>28.8%</t>
+        </is>
+      </c>
+      <c r="F2647" t="inlineStr"/>
       <c r="G2647" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>2.5%</t>
         </is>
       </c>
       <c r="H2647" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2648">
-      <c r="A2648" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A2648" t="inlineStr"/>
       <c r="B2648" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2648" t="inlineStr">
         <is>
-          <t>GDP MoM PrelDEC</t>
+          <t>New Car Registrations YoYJAN</t>
         </is>
       </c>
       <c r="D2648" t="inlineStr"/>
       <c r="E2648" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>-4.9%</t>
         </is>
       </c>
       <c r="F2648" t="inlineStr"/>
       <c r="G2648" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>-4.0%</t>
         </is>
       </c>
       <c r="H2648" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2649">
-      <c r="A2649" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A2649" t="inlineStr"/>
       <c r="B2649" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2649" t="inlineStr">
         <is>
-          <t>Core PCE Price Index MoMDEC</t>
+          <t>M2 Money Supply YoYDEC</t>
         </is>
       </c>
       <c r="D2649" t="inlineStr"/>
       <c r="E2649" t="inlineStr">
         <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F2649" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>20%</t>
+        </is>
+      </c>
+      <c r="F2649" t="inlineStr"/>
       <c r="G2649" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>20.7%</t>
         </is>
       </c>
       <c r="H2649" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2650">
       <c r="A2650" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2650" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2650" t="inlineStr">
-        <is>
-          <t>Personal Income MoMDEC</t>
-        </is>
-      </c>
+          <t>Saturday February 01 2025</t>
+        </is>
+      </c>
+      <c r="B2650" t="inlineStr"/>
+      <c r="C2650" t="inlineStr"/>
       <c r="D2650" t="inlineStr"/>
-      <c r="E2650" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F2650" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G2650" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H2650" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="E2650" t="inlineStr"/>
+      <c r="F2650" t="inlineStr"/>
+      <c r="G2650" t="inlineStr"/>
+      <c r="H2650" t="inlineStr"/>
     </row>
     <row r="2651">
       <c r="A2651" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B2651" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2651" t="inlineStr">
         <is>
-          <t>Personal Spending MoMDEC</t>
+          <t>Exports YoYJAN</t>
         </is>
       </c>
       <c r="D2651" t="inlineStr"/>
       <c r="E2651" t="inlineStr">
         <is>
+          <t>6.6%</t>
+        </is>
+      </c>
+      <c r="F2651" t="inlineStr"/>
+      <c r="G2651" t="inlineStr">
+        <is>
           <t>0.4%</t>
         </is>
       </c>
-      <c r="F2651" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G2651" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
       <c r="H2651" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2652">
       <c r="A2652" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B2652" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2652" t="inlineStr">
         <is>
-          <t>Employment Cost - Benefits QoQQ4</t>
+          <t>Balance of TradeJAN</t>
         </is>
       </c>
       <c r="D2652" t="inlineStr"/>
       <c r="E2652" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>$6.49B</t>
         </is>
       </c>
       <c r="F2652" t="inlineStr"/>
       <c r="G2652" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>$0.9B</t>
         </is>
       </c>
       <c r="H2652" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2653">
       <c r="A2653" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B2653" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2653" t="inlineStr">
         <is>
-          <t>Employment Cost - Wages QoQQ4</t>
+          <t>Imports YoYJAN</t>
         </is>
       </c>
       <c r="D2653" t="inlineStr"/>
       <c r="E2653" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="F2653" t="inlineStr"/>
       <c r="G2653" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H2653" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2654">
       <c r="A2654" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2654" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2654" t="inlineStr">
-        <is>
-          <t>Employment Cost Index QoQQ4</t>
-        </is>
-      </c>
+          <t>Monday February 03 2025</t>
+        </is>
+      </c>
+      <c r="B2654" t="inlineStr"/>
+      <c r="C2654" t="inlineStr"/>
       <c r="D2654" t="inlineStr"/>
-      <c r="E2654" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="F2654" t="inlineStr">
-        <is>
-          <t>1%</t>
-        </is>
-      </c>
-      <c r="G2654" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="H2654" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="E2654" t="inlineStr"/>
+      <c r="F2654" t="inlineStr"/>
+      <c r="G2654" t="inlineStr"/>
+      <c r="H2654" t="inlineStr"/>
     </row>
     <row r="2655">
       <c r="A2655" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>03:30 AM</t>
         </is>
       </c>
       <c r="B2655" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2655" t="inlineStr">
         <is>
-          <t>Fed Bowman Speech</t>
+          <t>S&amp;P Global Australia Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2655" t="inlineStr"/>
-      <c r="E2655" t="inlineStr"/>
+      <c r="E2655" t="inlineStr">
+        <is>
+          <t>47.8</t>
+        </is>
+      </c>
       <c r="F2655" t="inlineStr"/>
       <c r="G2655" t="inlineStr"/>
       <c r="H2655" t="inlineStr">
@@ -86206,97 +85718,97 @@
     <row r="2656">
       <c r="A2656" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B2656" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2656" t="inlineStr">
         <is>
-          <t>PCE Price Index MoMDEC</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="D2656" t="inlineStr"/>
       <c r="E2656" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="F2656" t="inlineStr"/>
       <c r="G2656" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="H2656" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2657">
       <c r="A2657" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B2657" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2657" t="inlineStr">
         <is>
-          <t>PCE Price Index YoYDEC</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D2657" t="inlineStr"/>
       <c r="E2657" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2657" t="inlineStr"/>
       <c r="G2657" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="H2657" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2658">
       <c r="A2658" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B2658" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2658" t="inlineStr">
         <is>
-          <t>Core PCE Price Index YoYDEC</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D2658" t="inlineStr"/>
       <c r="E2658" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F2658" t="inlineStr"/>
       <c r="G2658" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H2658" t="inlineStr">
@@ -86308,35 +85820,23 @@
     <row r="2659">
       <c r="A2659" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B2659" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2659" t="inlineStr">
         <is>
-          <t>Chicago PMIJAN</t>
+          <t>BoJ Summary of Opinions</t>
         </is>
       </c>
       <c r="D2659" t="inlineStr"/>
-      <c r="E2659" t="inlineStr">
-        <is>
-          <t>36.9</t>
-        </is>
-      </c>
-      <c r="F2659" t="inlineStr">
-        <is>
-          <t>39.9</t>
-        </is>
-      </c>
-      <c r="G2659" t="inlineStr">
-        <is>
-          <t>37.2</t>
-        </is>
-      </c>
+      <c r="E2659" t="inlineStr"/>
+      <c r="F2659" t="inlineStr"/>
+      <c r="G2659" t="inlineStr"/>
       <c r="H2659" t="inlineStr">
         <is>
           <t>2</t>
@@ -86346,87 +85846,91 @@
     <row r="2660">
       <c r="A2660" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2660" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2660" t="inlineStr">
         <is>
-          <t>Budget BalanceNOV</t>
+          <t>Building Permits MoM PrelDEC</t>
         </is>
       </c>
       <c r="D2660" t="inlineStr"/>
       <c r="E2660" t="inlineStr">
         <is>
-          <t>C$-1.49B</t>
+          <t>-3.6%</t>
         </is>
       </c>
       <c r="F2660" t="inlineStr"/>
       <c r="G2660" t="inlineStr">
         <is>
-          <t>C$-1.9B</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="H2660" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2661">
       <c r="A2661" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2661" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2661" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/31</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D2661" t="inlineStr"/>
       <c r="E2661" t="inlineStr">
         <is>
-          <t>472</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F2661" t="inlineStr"/>
-      <c r="G2661" t="inlineStr"/>
+      <c r="G2661" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H2661" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2662">
       <c r="A2662" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2662" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2662" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/31</t>
+          <t>ANZ-Indeed Job Ads MoMJAN</t>
         </is>
       </c>
       <c r="D2662" t="inlineStr"/>
       <c r="E2662" t="inlineStr">
         <is>
-          <t>576</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F2662" t="inlineStr"/>
@@ -86438,29 +85942,29 @@
       </c>
     </row>
     <row r="2663">
-      <c r="A2663" t="inlineStr"/>
+      <c r="A2663" t="inlineStr">
+        <is>
+          <t>06:00 AM</t>
+        </is>
+      </c>
       <c r="B2663" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2663" t="inlineStr">
         <is>
-          <t>Fiscal BalanceDEC</t>
+          <t>Private House Approvals MoM PrelDEC</t>
         </is>
       </c>
       <c r="D2663" t="inlineStr"/>
       <c r="E2663" t="inlineStr">
         <is>
-          <t>MXN-1064.93B</t>
+          <t>-1.7%</t>
         </is>
       </c>
       <c r="F2663" t="inlineStr"/>
-      <c r="G2663" t="inlineStr">
-        <is>
-          <t>MXN-1120.0B</t>
-        </is>
-      </c>
+      <c r="G2663" t="inlineStr"/>
       <c r="H2663" t="inlineStr">
         <is>
           <t>3</t>
@@ -86468,27 +85972,31 @@
       </c>
     </row>
     <row r="2664">
-      <c r="A2664" t="inlineStr"/>
+      <c r="A2664" t="inlineStr">
+        <is>
+          <t>06:00 AM</t>
+        </is>
+      </c>
       <c r="B2664" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2664" t="inlineStr">
         <is>
-          <t>CoreLogic Dwelling Prices MoMJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2664" t="inlineStr"/>
       <c r="E2664" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>51.2</t>
         </is>
       </c>
       <c r="F2664" t="inlineStr"/>
       <c r="G2664" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>51.6</t>
         </is>
       </c>
       <c r="H2664" t="inlineStr">
@@ -86498,147 +86006,175 @@
       </c>
     </row>
     <row r="2665">
-      <c r="A2665" t="inlineStr"/>
+      <c r="A2665" t="inlineStr">
+        <is>
+          <t>06:00 AM</t>
+        </is>
+      </c>
       <c r="B2665" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2665" t="inlineStr">
         <is>
-          <t>Consumer Inflation ExpectationsDEC</t>
+          <t>Jibun Bank Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2665" t="inlineStr"/>
       <c r="E2665" t="inlineStr">
         <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="F2665" t="inlineStr"/>
+          <t>49.6</t>
+        </is>
+      </c>
+      <c r="F2665" t="inlineStr">
+        <is>
+          <t>48.8</t>
+        </is>
+      </c>
       <c r="G2665" t="inlineStr">
         <is>
-          <t>2.2%</t>
+          <t>48.8</t>
         </is>
       </c>
       <c r="H2665" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2666">
-      <c r="A2666" t="inlineStr"/>
+      <c r="A2666" t="inlineStr">
+        <is>
+          <t>06:00 AM</t>
+        </is>
+      </c>
       <c r="B2666" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2666" t="inlineStr">
         <is>
-          <t>New Car Registrations YoYJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2666" t="inlineStr"/>
       <c r="E2666" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>49</t>
         </is>
       </c>
       <c r="F2666" t="inlineStr"/>
       <c r="G2666" t="inlineStr">
         <is>
-          <t>2.2%</t>
+          <t>49.5</t>
         </is>
       </c>
       <c r="H2666" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2667">
-      <c r="A2667" t="inlineStr"/>
+      <c r="A2667" t="inlineStr">
+        <is>
+          <t>07:15 AM</t>
+        </is>
+      </c>
       <c r="B2667" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2667" t="inlineStr">
         <is>
-          <t>New Car Sales YoYJAN</t>
+          <t>Caixin Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2667" t="inlineStr"/>
       <c r="E2667" t="inlineStr">
         <is>
-          <t>28.8%</t>
-        </is>
-      </c>
-      <c r="F2667" t="inlineStr"/>
+          <t>50.5</t>
+        </is>
+      </c>
+      <c r="F2667" t="inlineStr">
+        <is>
+          <t>50.5</t>
+        </is>
+      </c>
       <c r="G2667" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>50.5</t>
         </is>
       </c>
       <c r="H2667" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2668">
-      <c r="A2668" t="inlineStr"/>
+      <c r="A2668" t="inlineStr">
+        <is>
+          <t>09:30 AM</t>
+        </is>
+      </c>
       <c r="B2668" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2668" t="inlineStr">
         <is>
-          <t>New Car Registrations YoYJAN</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2668" t="inlineStr"/>
       <c r="E2668" t="inlineStr">
         <is>
-          <t>-4.9%</t>
+          <t>1.57%</t>
         </is>
       </c>
       <c r="F2668" t="inlineStr"/>
       <c r="G2668" t="inlineStr">
         <is>
-          <t>-4.0%</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="H2668" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2669">
-      <c r="A2669" t="inlineStr"/>
+      <c r="A2669" t="inlineStr">
+        <is>
+          <t>09:30 AM</t>
+        </is>
+      </c>
       <c r="B2669" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2669" t="inlineStr">
         <is>
-          <t>M2 Money Supply YoYDEC</t>
+          <t>Core Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2669" t="inlineStr"/>
       <c r="E2669" t="inlineStr">
         <is>
-          <t>20%</t>
+          <t>2.26%</t>
         </is>
       </c>
       <c r="F2669" t="inlineStr"/>
       <c r="G2669" t="inlineStr">
         <is>
-          <t>20.7%</t>
+          <t>2.3%</t>
         </is>
       </c>
       <c r="H2669" t="inlineStr">
@@ -86650,77 +86186,101 @@
     <row r="2670">
       <c r="A2670" t="inlineStr">
         <is>
-          <t>Saturday February 01 2025</t>
-        </is>
-      </c>
-      <c r="B2670" t="inlineStr"/>
-      <c r="C2670" t="inlineStr"/>
+          <t>09:30 AM</t>
+        </is>
+      </c>
+      <c r="B2670" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="C2670" t="inlineStr">
+        <is>
+          <t>Inflation Rate MoMJAN</t>
+        </is>
+      </c>
       <c r="D2670" t="inlineStr"/>
-      <c r="E2670" t="inlineStr"/>
+      <c r="E2670" t="inlineStr">
+        <is>
+          <t>0.44%</t>
+        </is>
+      </c>
       <c r="F2670" t="inlineStr"/>
-      <c r="G2670" t="inlineStr"/>
-      <c r="H2670" t="inlineStr"/>
+      <c r="G2670" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="H2670" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2671">
       <c r="A2671" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>10:15 AM</t>
         </is>
       </c>
       <c r="B2671" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2671" t="inlineStr">
         <is>
-          <t>Exports YoYJAN</t>
+          <t>Tourist Arrivals YoYDEC</t>
         </is>
       </c>
       <c r="D2671" t="inlineStr"/>
       <c r="E2671" t="inlineStr">
         <is>
-          <t>6.6%</t>
+          <t>17.27%</t>
         </is>
       </c>
       <c r="F2671" t="inlineStr"/>
       <c r="G2671" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>18.0%</t>
         </is>
       </c>
       <c r="H2671" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2672">
       <c r="A2672" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2672" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2672" t="inlineStr">
         <is>
-          <t>Balance of TradeJAN</t>
+          <t>HSBC Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2672" t="inlineStr"/>
       <c r="E2672" t="inlineStr">
         <is>
-          <t>$6.49B</t>
-        </is>
-      </c>
-      <c r="F2672" t="inlineStr"/>
+          <t>56.4</t>
+        </is>
+      </c>
+      <c r="F2672" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
       <c r="G2672" t="inlineStr">
         <is>
-          <t>$0.9B</t>
+          <t>58</t>
         </is>
       </c>
       <c r="H2672" t="inlineStr">
@@ -86732,7 +86292,7 @@
     <row r="2673">
       <c r="A2673" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2673" t="inlineStr">
@@ -86742,21 +86302,17 @@
       </c>
       <c r="C2673" t="inlineStr">
         <is>
-          <t>Imports YoYJAN</t>
+          <t>2-Year KTB Auction</t>
         </is>
       </c>
       <c r="D2673" t="inlineStr"/>
       <c r="E2673" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>2.670%</t>
         </is>
       </c>
       <c r="F2673" t="inlineStr"/>
-      <c r="G2673" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
+      <c r="G2673" t="inlineStr"/>
       <c r="H2673" t="inlineStr">
         <is>
           <t>3</t>
@@ -86766,37 +86322,53 @@
     <row r="2674">
       <c r="A2674" t="inlineStr">
         <is>
-          <t>Monday February 03 2025</t>
-        </is>
-      </c>
-      <c r="B2674" t="inlineStr"/>
-      <c r="C2674" t="inlineStr"/>
+          <t>11:00 AM</t>
+        </is>
+      </c>
+      <c r="B2674" t="inlineStr">
+        <is>
+          <t>AU</t>
+        </is>
+      </c>
+      <c r="C2674" t="inlineStr">
+        <is>
+          <t>Commodity Prices YoYJAN</t>
+        </is>
+      </c>
       <c r="D2674" t="inlineStr"/>
-      <c r="E2674" t="inlineStr"/>
+      <c r="E2674" t="inlineStr">
+        <is>
+          <t>-10.7%</t>
+        </is>
+      </c>
       <c r="F2674" t="inlineStr"/>
       <c r="G2674" t="inlineStr"/>
-      <c r="H2674" t="inlineStr"/>
+      <c r="H2674" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2675">
       <c r="A2675" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B2675" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2675" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Manufacturing PMI FinalJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2675" t="inlineStr"/>
       <c r="E2675" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>50.8</t>
         </is>
       </c>
       <c r="F2675" t="inlineStr"/>
@@ -86810,99 +86382,87 @@
     <row r="2676">
       <c r="A2676" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2676" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2676" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2676" t="inlineStr"/>
       <c r="E2676" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>1.03%</t>
         </is>
       </c>
       <c r="F2676" t="inlineStr"/>
-      <c r="G2676" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
+      <c r="G2676" t="inlineStr"/>
       <c r="H2676" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2677">
       <c r="A2677" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2677" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2677" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2677" t="inlineStr"/>
       <c r="E2677" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>44.38%</t>
         </is>
       </c>
       <c r="F2677" t="inlineStr"/>
-      <c r="G2677" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="G2677" t="inlineStr"/>
       <c r="H2677" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2678">
       <c r="A2678" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2678" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2678" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Istanbul Chamber of Industry Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2678" t="inlineStr"/>
       <c r="E2678" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>49.1</t>
         </is>
       </c>
       <c r="F2678" t="inlineStr"/>
-      <c r="G2678" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G2678" t="inlineStr"/>
       <c r="H2678" t="inlineStr">
         <is>
           <t>3</t>
@@ -86912,91 +86472,87 @@
     <row r="2679">
       <c r="A2679" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2679" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2679" t="inlineStr">
         <is>
-          <t>BoJ Summary of Opinions</t>
+          <t>PPI MoMJAN</t>
         </is>
       </c>
       <c r="D2679" t="inlineStr"/>
-      <c r="E2679" t="inlineStr"/>
+      <c r="E2679" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="F2679" t="inlineStr"/>
       <c r="G2679" t="inlineStr"/>
       <c r="H2679" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2680">
       <c r="A2680" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2680" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2680" t="inlineStr">
         <is>
-          <t>Building Permits MoM PrelDEC</t>
+          <t>PPI YoYJAN</t>
         </is>
       </c>
       <c r="D2680" t="inlineStr"/>
       <c r="E2680" t="inlineStr">
         <is>
-          <t>-3.6%</t>
+          <t>28.52%</t>
         </is>
       </c>
       <c r="F2680" t="inlineStr"/>
-      <c r="G2680" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
+      <c r="G2680" t="inlineStr"/>
       <c r="H2680" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2681">
       <c r="A2681" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2681" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2681" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Unemployment ChangeJAN</t>
         </is>
       </c>
       <c r="D2681" t="inlineStr"/>
       <c r="E2681" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>-25.3K</t>
         </is>
       </c>
       <c r="F2681" t="inlineStr"/>
-      <c r="G2681" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G2681" t="inlineStr"/>
       <c r="H2681" t="inlineStr">
         <is>
           <t>2</t>
@@ -87006,25 +86562,21 @@
     <row r="2682">
       <c r="A2682" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2682" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2682" t="inlineStr">
         <is>
-          <t>ANZ-Indeed Job Ads MoMJAN</t>
+          <t>Tourist Arrivals YoYDEC</t>
         </is>
       </c>
       <c r="D2682" t="inlineStr"/>
-      <c r="E2682" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="E2682" t="inlineStr"/>
       <c r="F2682" t="inlineStr"/>
       <c r="G2682" t="inlineStr"/>
       <c r="H2682" t="inlineStr">
@@ -87036,97 +86588,93 @@
     <row r="2683">
       <c r="A2683" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B2683" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2683" t="inlineStr">
         <is>
-          <t>Private House Approvals MoM PrelDEC</t>
+          <t>HCOB Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2683" t="inlineStr"/>
       <c r="E2683" t="inlineStr">
         <is>
-          <t>-1.7%</t>
+          <t>53.3</t>
         </is>
       </c>
       <c r="F2683" t="inlineStr"/>
       <c r="G2683" t="inlineStr"/>
       <c r="H2683" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2684">
       <c r="A2684" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:15 PM</t>
         </is>
       </c>
       <c r="B2684" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2684" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>HCOB Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2684" t="inlineStr"/>
       <c r="E2684" t="inlineStr">
         <is>
-          <t>51.2</t>
+          <t>46.2</t>
         </is>
       </c>
       <c r="F2684" t="inlineStr"/>
-      <c r="G2684" t="inlineStr">
-        <is>
-          <t>51.6</t>
-        </is>
-      </c>
+      <c r="G2684" t="inlineStr"/>
       <c r="H2684" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2685">
       <c r="A2685" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:20 PM</t>
         </is>
       </c>
       <c r="B2685" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2685" t="inlineStr">
         <is>
-          <t>Jibun Bank Manufacturing PMI FinalJAN</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2685" t="inlineStr"/>
       <c r="E2685" t="inlineStr">
         <is>
-          <t>49.6</t>
+          <t>41.9</t>
         </is>
       </c>
       <c r="F2685" t="inlineStr">
         <is>
-          <t>48.8</t>
+          <t>45.3</t>
         </is>
       </c>
       <c r="G2685" t="inlineStr">
         <is>
-          <t>48.8</t>
+          <t>45.3</t>
         </is>
       </c>
       <c r="H2685" t="inlineStr">
@@ -87138,29 +86686,33 @@
     <row r="2686">
       <c r="A2686" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:25 PM</t>
         </is>
       </c>
       <c r="B2686" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2686" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2686" t="inlineStr"/>
       <c r="E2686" t="inlineStr">
         <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="F2686" t="inlineStr"/>
+          <t>42.5</t>
+        </is>
+      </c>
+      <c r="F2686" t="inlineStr">
+        <is>
+          <t>44.1</t>
+        </is>
+      </c>
       <c r="G2686" t="inlineStr">
         <is>
-          <t>49.5</t>
+          <t>44.1</t>
         </is>
       </c>
       <c r="H2686" t="inlineStr">
@@ -87172,235 +86724,215 @@
     <row r="2687">
       <c r="A2687" t="inlineStr">
         <is>
-          <t>07:15 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2687" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2687" t="inlineStr">
         <is>
-          <t>Caixin Manufacturing PMIJAN</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2687" t="inlineStr"/>
       <c r="E2687" t="inlineStr">
         <is>
-          <t>50.5</t>
+          <t>45.1</t>
         </is>
       </c>
       <c r="F2687" t="inlineStr">
         <is>
-          <t>50.5</t>
+          <t>46.1</t>
         </is>
       </c>
       <c r="G2687" t="inlineStr">
         <is>
-          <t>50.5</t>
+          <t>46.1</t>
         </is>
       </c>
       <c r="H2687" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2688">
       <c r="A2688" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2688" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2688" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>ABSA Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2688" t="inlineStr"/>
       <c r="E2688" t="inlineStr">
         <is>
-          <t>1.57%</t>
+          <t>46.2</t>
         </is>
       </c>
       <c r="F2688" t="inlineStr"/>
       <c r="G2688" t="inlineStr">
         <is>
-          <t>1.7%</t>
+          <t>47</t>
         </is>
       </c>
       <c r="H2688" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2689">
       <c r="A2689" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B2689" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2689" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2689" t="inlineStr"/>
       <c r="E2689" t="inlineStr">
         <is>
-          <t>2.26%</t>
-        </is>
-      </c>
-      <c r="F2689" t="inlineStr"/>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="F2689" t="inlineStr">
+        <is>
+          <t>48.2</t>
+        </is>
+      </c>
       <c r="G2689" t="inlineStr">
         <is>
-          <t>2.3%</t>
+          <t>48.2</t>
         </is>
       </c>
       <c r="H2689" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2690">
       <c r="A2690" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2690" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2690" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Inflation Rate YoY FlashJAN</t>
         </is>
       </c>
       <c r="D2690" t="inlineStr"/>
-      <c r="E2690" t="inlineStr">
-        <is>
-          <t>0.44%</t>
-        </is>
-      </c>
+      <c r="E2690" t="inlineStr"/>
       <c r="F2690" t="inlineStr"/>
-      <c r="G2690" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G2690" t="inlineStr"/>
       <c r="H2690" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2691">
       <c r="A2691" t="inlineStr">
         <is>
-          <t>10:15 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2691" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2691" t="inlineStr">
         <is>
-          <t>Tourist Arrivals YoYDEC</t>
+          <t>Core Inflation Rate YoY FlashJAN</t>
         </is>
       </c>
       <c r="D2691" t="inlineStr"/>
       <c r="E2691" t="inlineStr">
         <is>
-          <t>17.27%</t>
+          <t>2.7%</t>
         </is>
       </c>
       <c r="F2691" t="inlineStr"/>
-      <c r="G2691" t="inlineStr">
-        <is>
-          <t>18.0%</t>
-        </is>
-      </c>
+      <c r="G2691" t="inlineStr"/>
       <c r="H2691" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2692">
       <c r="A2692" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2692" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2692" t="inlineStr">
         <is>
-          <t>HSBC Manufacturing PMI FinalJAN</t>
+          <t>Inflation Rate MoM FlashJAN</t>
         </is>
       </c>
       <c r="D2692" t="inlineStr"/>
-      <c r="E2692" t="inlineStr">
-        <is>
-          <t>56.4</t>
-        </is>
-      </c>
-      <c r="F2692" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="G2692" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
+      <c r="E2692" t="inlineStr"/>
+      <c r="F2692" t="inlineStr"/>
+      <c r="G2692" t="inlineStr"/>
       <c r="H2692" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2693">
       <c r="A2693" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2693" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2693" t="inlineStr">
         <is>
-          <t>2-Year KTB Auction</t>
+          <t>CPI FlashJAN</t>
         </is>
       </c>
       <c r="D2693" t="inlineStr"/>
       <c r="E2693" t="inlineStr">
         <is>
-          <t>2.670%</t>
+          <t>127.07</t>
         </is>
       </c>
       <c r="F2693" t="inlineStr"/>
@@ -87414,53 +86946,53 @@
     <row r="2694">
       <c r="A2694" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2694" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2694" t="inlineStr">
         <is>
-          <t>Commodity Prices YoYJAN</t>
+          <t>Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2694" t="inlineStr"/>
       <c r="E2694" t="inlineStr">
         <is>
-          <t>-10.7%</t>
+          <t>1.3%</t>
         </is>
       </c>
       <c r="F2694" t="inlineStr"/>
       <c r="G2694" t="inlineStr"/>
       <c r="H2694" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2695">
       <c r="A2695" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2695" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2695" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2695" t="inlineStr"/>
       <c r="E2695" t="inlineStr">
         <is>
-          <t>50.8</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2695" t="inlineStr"/>
@@ -87474,87 +87006,91 @@
     <row r="2696">
       <c r="A2696" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2696" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2696" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Harmonised Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2696" t="inlineStr"/>
       <c r="E2696" t="inlineStr">
         <is>
-          <t>1.03%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2696" t="inlineStr"/>
       <c r="G2696" t="inlineStr"/>
       <c r="H2696" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2697">
       <c r="A2697" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2697" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2697" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>Harmonised Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2697" t="inlineStr"/>
       <c r="E2697" t="inlineStr">
         <is>
-          <t>44.38%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F2697" t="inlineStr"/>
       <c r="G2697" t="inlineStr"/>
       <c r="H2697" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2698">
       <c r="A2698" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2698" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2698" t="inlineStr">
         <is>
-          <t>Istanbul Chamber of Industry Manufacturing PMIJAN</t>
+          <t>Foreign Exchange ReservesDEC</t>
         </is>
       </c>
       <c r="D2698" t="inlineStr"/>
       <c r="E2698" t="inlineStr">
         <is>
-          <t>49.1</t>
+          <t>$232.2B</t>
         </is>
       </c>
       <c r="F2698" t="inlineStr"/>
-      <c r="G2698" t="inlineStr"/>
+      <c r="G2698" t="inlineStr">
+        <is>
+          <t>$ 230B</t>
+        </is>
+      </c>
       <c r="H2698" t="inlineStr">
         <is>
           <t>3</t>
@@ -87564,27 +87100,31 @@
     <row r="2699">
       <c r="A2699" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2699" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2699" t="inlineStr">
         <is>
-          <t>PPI MoMJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2699" t="inlineStr"/>
       <c r="E2699" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>50.4</t>
         </is>
       </c>
       <c r="F2699" t="inlineStr"/>
-      <c r="G2699" t="inlineStr"/>
+      <c r="G2699" t="inlineStr">
+        <is>
+          <t>49.8</t>
+        </is>
+      </c>
       <c r="H2699" t="inlineStr">
         <is>
           <t>3</t>
@@ -87594,27 +87134,31 @@
     <row r="2700">
       <c r="A2700" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2700" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2700" t="inlineStr">
         <is>
-          <t>PPI YoYJAN</t>
+          <t>SIPMM Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2700" t="inlineStr"/>
       <c r="E2700" t="inlineStr">
         <is>
-          <t>28.52%</t>
+          <t>51.1</t>
         </is>
       </c>
       <c r="F2700" t="inlineStr"/>
-      <c r="G2700" t="inlineStr"/>
+      <c r="G2700" t="inlineStr">
+        <is>
+          <t>51.4</t>
+        </is>
+      </c>
       <c r="H2700" t="inlineStr">
         <is>
           <t>3</t>
@@ -87624,25 +87168,21 @@
     <row r="2701">
       <c r="A2701" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2701" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2701" t="inlineStr">
         <is>
-          <t>Unemployment ChangeJAN</t>
+          <t>Fed Bostic Speech</t>
         </is>
       </c>
       <c r="D2701" t="inlineStr"/>
-      <c r="E2701" t="inlineStr">
-        <is>
-          <t>-25.3K</t>
-        </is>
-      </c>
+      <c r="E2701" t="inlineStr"/>
       <c r="F2701" t="inlineStr"/>
       <c r="G2701" t="inlineStr"/>
       <c r="H2701" t="inlineStr">
@@ -87654,17 +87194,17 @@
     <row r="2702">
       <c r="A2702" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2702" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2702" t="inlineStr">
         <is>
-          <t>Tourist Arrivals YoYDEC</t>
+          <t>12-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2702" t="inlineStr"/>
@@ -87680,95 +87220,79 @@
     <row r="2703">
       <c r="A2703" t="inlineStr">
         <is>
-          <t>01:45 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2703" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2703" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMIJAN</t>
+          <t>3-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2703" t="inlineStr"/>
-      <c r="E2703" t="inlineStr">
-        <is>
-          <t>53.3</t>
-        </is>
-      </c>
+      <c r="E2703" t="inlineStr"/>
       <c r="F2703" t="inlineStr"/>
       <c r="G2703" t="inlineStr"/>
       <c r="H2703" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2704">
       <c r="A2704" t="inlineStr">
         <is>
-          <t>02:15 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2704" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2704" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMIJAN</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2704" t="inlineStr"/>
-      <c r="E2704" t="inlineStr">
-        <is>
-          <t>46.2</t>
-        </is>
-      </c>
+      <c r="E2704" t="inlineStr"/>
       <c r="F2704" t="inlineStr"/>
       <c r="G2704" t="inlineStr"/>
       <c r="H2704" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2705">
       <c r="A2705" t="inlineStr">
         <is>
-          <t>02:20 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B2705" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2705" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2705" t="inlineStr"/>
       <c r="E2705" t="inlineStr">
         <is>
-          <t>41.9</t>
-        </is>
-      </c>
-      <c r="F2705" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
-      <c r="G2705" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
+          <t>52.2</t>
+        </is>
+      </c>
+      <c r="F2705" t="inlineStr"/>
+      <c r="G2705" t="inlineStr"/>
       <c r="H2705" t="inlineStr">
         <is>
           <t>2</t>
@@ -87778,33 +87302,33 @@
     <row r="2706">
       <c r="A2706" t="inlineStr">
         <is>
-          <t>02:25 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B2706" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2706" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2706" t="inlineStr"/>
       <c r="E2706" t="inlineStr">
         <is>
-          <t>42.5</t>
+          <t>49.4</t>
         </is>
       </c>
       <c r="F2706" t="inlineStr">
         <is>
-          <t>44.1</t>
+          <t>50.1</t>
         </is>
       </c>
       <c r="G2706" t="inlineStr">
         <is>
-          <t>44.1</t>
+          <t>50.1</t>
         </is>
       </c>
       <c r="H2706" t="inlineStr">
@@ -87816,127 +87340,111 @@
     <row r="2707">
       <c r="A2707" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2707" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2707" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>ISM Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2707" t="inlineStr"/>
       <c r="E2707" t="inlineStr">
         <is>
-          <t>45.1</t>
-        </is>
-      </c>
-      <c r="F2707" t="inlineStr">
-        <is>
-          <t>46.1</t>
-        </is>
-      </c>
-      <c r="G2707" t="inlineStr">
-        <is>
-          <t>46.1</t>
-        </is>
-      </c>
+          <t>49.3</t>
+        </is>
+      </c>
+      <c r="F2707" t="inlineStr"/>
+      <c r="G2707" t="inlineStr"/>
       <c r="H2707" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2708">
       <c r="A2708" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2708" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2708" t="inlineStr">
         <is>
-          <t>ABSA Manufacturing PMIJAN</t>
+          <t>ISM Manufacturing EmploymentJAN</t>
         </is>
       </c>
       <c r="D2708" t="inlineStr"/>
       <c r="E2708" t="inlineStr">
         <is>
-          <t>46.2</t>
+          <t>45.3</t>
         </is>
       </c>
       <c r="F2708" t="inlineStr"/>
-      <c r="G2708" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
+      <c r="G2708" t="inlineStr"/>
       <c r="H2708" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2709">
       <c r="A2709" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2709" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2709" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
+          <t>Construction Spending MoMDEC</t>
         </is>
       </c>
       <c r="D2709" t="inlineStr"/>
       <c r="E2709" t="inlineStr">
         <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="F2709" t="inlineStr">
-        <is>
-          <t>48.2</t>
-        </is>
-      </c>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F2709" t="inlineStr"/>
       <c r="G2709" t="inlineStr">
         <is>
-          <t>48.2</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H2709" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2710">
       <c r="A2710" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2710" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2710" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FlashJAN</t>
+          <t>ISM Manufacturing New OrdersJAN</t>
         </is>
       </c>
       <c r="D2710" t="inlineStr"/>
@@ -87945,54 +87453,50 @@
       <c r="G2710" t="inlineStr"/>
       <c r="H2710" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2711">
       <c r="A2711" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2711" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2711" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoY FlashJAN</t>
+          <t>ISM Manufacturing PricesJAN</t>
         </is>
       </c>
       <c r="D2711" t="inlineStr"/>
-      <c r="E2711" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
+      <c r="E2711" t="inlineStr"/>
       <c r="F2711" t="inlineStr"/>
       <c r="G2711" t="inlineStr"/>
       <c r="H2711" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2712">
       <c r="A2712" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B2712" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2712" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM FlashJAN</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2712" t="inlineStr"/>
@@ -88001,32 +87505,28 @@
       <c r="G2712" t="inlineStr"/>
       <c r="H2712" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2713">
       <c r="A2713" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B2713" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2713" t="inlineStr">
         <is>
-          <t>CPI FlashJAN</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2713" t="inlineStr"/>
-      <c r="E2713" t="inlineStr">
-        <is>
-          <t>127.07</t>
-        </is>
-      </c>
+      <c r="E2713" t="inlineStr"/>
       <c r="F2713" t="inlineStr"/>
       <c r="G2713" t="inlineStr"/>
       <c r="H2713" t="inlineStr">
@@ -88036,87 +87536,67 @@
       </c>
     </row>
     <row r="2714">
-      <c r="A2714" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
+      <c r="A2714" t="inlineStr"/>
       <c r="B2714" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2714" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelJAN</t>
+          <t>Total New Vehicle SalesJAN</t>
         </is>
       </c>
       <c r="D2714" t="inlineStr"/>
       <c r="E2714" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>41.27K</t>
         </is>
       </c>
       <c r="F2714" t="inlineStr"/>
-      <c r="G2714" t="inlineStr"/>
+      <c r="G2714" t="inlineStr">
+        <is>
+          <t>43.0K</t>
+        </is>
+      </c>
       <c r="H2714" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2715">
       <c r="A2715" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B2715" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C2715" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoM PrelJAN</t>
-        </is>
-      </c>
+          <t>Tuesday February 04 2025</t>
+        </is>
+      </c>
+      <c r="B2715" t="inlineStr"/>
+      <c r="C2715" t="inlineStr"/>
       <c r="D2715" t="inlineStr"/>
-      <c r="E2715" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="E2715" t="inlineStr"/>
       <c r="F2715" t="inlineStr"/>
       <c r="G2715" t="inlineStr"/>
-      <c r="H2715" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="H2715" t="inlineStr"/>
     </row>
     <row r="2716">
       <c r="A2716" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B2716" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2716" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM PrelJAN</t>
+          <t>Treasury Refunding Financing Estimates</t>
         </is>
       </c>
       <c r="D2716" t="inlineStr"/>
-      <c r="E2716" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="E2716" t="inlineStr"/>
       <c r="F2716" t="inlineStr"/>
       <c r="G2716" t="inlineStr"/>
       <c r="H2716" t="inlineStr">
@@ -88128,23 +87608,23 @@
     <row r="2717">
       <c r="A2717" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>03:30 AM</t>
         </is>
       </c>
       <c r="B2717" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C2717" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY PrelJAN</t>
+          <t>Tax RevenueJAN</t>
         </is>
       </c>
       <c r="D2717" t="inlineStr"/>
       <c r="E2717" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>ARS13015B</t>
         </is>
       </c>
       <c r="F2717" t="inlineStr"/>
@@ -88158,31 +87638,27 @@
     <row r="2718">
       <c r="A2718" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>09:05 AM</t>
         </is>
       </c>
       <c r="B2718" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2718" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesDEC</t>
+          <t>10-Year JGB Auction</t>
         </is>
       </c>
       <c r="D2718" t="inlineStr"/>
       <c r="E2718" t="inlineStr">
         <is>
-          <t>$232.2B</t>
+          <t>1.140%</t>
         </is>
       </c>
       <c r="F2718" t="inlineStr"/>
-      <c r="G2718" t="inlineStr">
-        <is>
-          <t>$ 230B</t>
-        </is>
-      </c>
+      <c r="G2718" t="inlineStr"/>
       <c r="H2718" t="inlineStr">
         <is>
           <t>3</t>
@@ -88192,31 +87668,27 @@
     <row r="2719">
       <c r="A2719" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B2719" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C2719" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>Riyad Bank PMIJAN</t>
         </is>
       </c>
       <c r="D2719" t="inlineStr"/>
       <c r="E2719" t="inlineStr">
         <is>
-          <t>50.4</t>
+          <t>58.4</t>
         </is>
       </c>
       <c r="F2719" t="inlineStr"/>
-      <c r="G2719" t="inlineStr">
-        <is>
-          <t>49.8</t>
-        </is>
-      </c>
+      <c r="G2719" t="inlineStr"/>
       <c r="H2719" t="inlineStr">
         <is>
           <t>3</t>
@@ -88226,7 +87698,7 @@
     <row r="2720">
       <c r="A2720" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2720" t="inlineStr">
@@ -88236,21 +87708,13 @@
       </c>
       <c r="C2720" t="inlineStr">
         <is>
-          <t>SIPMM Manufacturing PMIJAN</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D2720" t="inlineStr"/>
-      <c r="E2720" t="inlineStr">
-        <is>
-          <t>51.1</t>
-        </is>
-      </c>
+      <c r="E2720" t="inlineStr"/>
       <c r="F2720" t="inlineStr"/>
-      <c r="G2720" t="inlineStr">
-        <is>
-          <t>51.4</t>
-        </is>
-      </c>
+      <c r="G2720" t="inlineStr"/>
       <c r="H2720" t="inlineStr">
         <is>
           <t>3</t>
@@ -88260,17 +87724,17 @@
     <row r="2721">
       <c r="A2721" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2721" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2721" t="inlineStr">
         <is>
-          <t>Fed Bostic Speech</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D2721" t="inlineStr"/>
@@ -88279,28 +87743,32 @@
       <c r="G2721" t="inlineStr"/>
       <c r="H2721" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2722">
       <c r="A2722" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2722" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2722" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>30-Year KTB Auction</t>
         </is>
       </c>
       <c r="D2722" t="inlineStr"/>
-      <c r="E2722" t="inlineStr"/>
+      <c r="E2722" t="inlineStr">
+        <is>
+          <t>2.705%</t>
+        </is>
+      </c>
       <c r="F2722" t="inlineStr"/>
       <c r="G2722" t="inlineStr"/>
       <c r="H2722" t="inlineStr">
@@ -88312,7 +87780,7 @@
     <row r="2723">
       <c r="A2723" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2723" t="inlineStr">
@@ -88322,11 +87790,15 @@
       </c>
       <c r="C2723" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>Budget BalanceDEC</t>
         </is>
       </c>
       <c r="D2723" t="inlineStr"/>
-      <c r="E2723" t="inlineStr"/>
+      <c r="E2723" t="inlineStr">
+        <is>
+          <t>€-172.5B</t>
+        </is>
+      </c>
       <c r="F2723" t="inlineStr"/>
       <c r="G2723" t="inlineStr"/>
       <c r="H2723" t="inlineStr">
@@ -88338,21 +87810,25 @@
     <row r="2724">
       <c r="A2724" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2724" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2724" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>IPC-Fipe Inflation MoMJAN</t>
         </is>
       </c>
       <c r="D2724" t="inlineStr"/>
-      <c r="E2724" t="inlineStr"/>
+      <c r="E2724" t="inlineStr">
+        <is>
+          <t>0.34%</t>
+        </is>
+      </c>
       <c r="F2724" t="inlineStr"/>
       <c r="G2724" t="inlineStr"/>
       <c r="H2724" t="inlineStr">
@@ -88364,65 +87840,49 @@
     <row r="2725">
       <c r="A2725" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2725" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2725" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>5-Year Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D2725" t="inlineStr"/>
-      <c r="E2725" t="inlineStr">
-        <is>
-          <t>52.2</t>
-        </is>
-      </c>
+      <c r="E2725" t="inlineStr"/>
       <c r="F2725" t="inlineStr"/>
       <c r="G2725" t="inlineStr"/>
       <c r="H2725" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2726">
       <c r="A2726" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B2726" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2726" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
+          <t>BCB Copom Meeting Minutes</t>
         </is>
       </c>
       <c r="D2726" t="inlineStr"/>
-      <c r="E2726" t="inlineStr">
-        <is>
-          <t>49.4</t>
-        </is>
-      </c>
-      <c r="F2726" t="inlineStr">
-        <is>
-          <t>50.1</t>
-        </is>
-      </c>
-      <c r="G2726" t="inlineStr">
-        <is>
-          <t>50.1</t>
-        </is>
-      </c>
+      <c r="E2726" t="inlineStr"/>
+      <c r="F2726" t="inlineStr"/>
+      <c r="G2726" t="inlineStr"/>
       <c r="H2726" t="inlineStr">
         <is>
           <t>2</t>
@@ -88432,101 +87892,105 @@
     <row r="2727">
       <c r="A2727" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2727" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2727" t="inlineStr">
         <is>
-          <t>ISM Manufacturing PMIJAN</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D2727" t="inlineStr"/>
       <c r="E2727" t="inlineStr">
         <is>
-          <t>49.3</t>
+          <t>1.23%</t>
         </is>
       </c>
       <c r="F2727" t="inlineStr"/>
-      <c r="G2727" t="inlineStr"/>
+      <c r="G2727" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H2727" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2728">
       <c r="A2728" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2728" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2728" t="inlineStr">
         <is>
-          <t>ISM Manufacturing EmploymentJAN</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D2728" t="inlineStr"/>
       <c r="E2728" t="inlineStr">
         <is>
-          <t>45.3</t>
+          <t>7.59%</t>
         </is>
       </c>
       <c r="F2728" t="inlineStr"/>
-      <c r="G2728" t="inlineStr"/>
+      <c r="G2728" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
       <c r="H2728" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2729">
       <c r="A2729" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2729" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2729" t="inlineStr">
         <is>
-          <t>Construction Spending MoMDEC</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D2729" t="inlineStr"/>
       <c r="E2729" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>51.2</t>
         </is>
       </c>
       <c r="F2729" t="inlineStr"/>
-      <c r="G2729" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G2729" t="inlineStr"/>
       <c r="H2729" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2730">
       <c r="A2730" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:25 PM</t>
         </is>
       </c>
       <c r="B2730" t="inlineStr">
@@ -88536,7 +88000,7 @@
       </c>
       <c r="C2730" t="inlineStr">
         <is>
-          <t>ISM Manufacturing New OrdersJAN</t>
+          <t>Redbook YoYFEB/01</t>
         </is>
       </c>
       <c r="D2730" t="inlineStr"/>
@@ -88557,16 +88021,20 @@
       </c>
       <c r="B2731" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2731" t="inlineStr">
         <is>
-          <t>ISM Manufacturing PricesJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2731" t="inlineStr"/>
-      <c r="E2731" t="inlineStr"/>
+      <c r="E2731" t="inlineStr">
+        <is>
+          <t>49.8</t>
+        </is>
+      </c>
       <c r="F2731" t="inlineStr"/>
       <c r="G2731" t="inlineStr"/>
       <c r="H2731" t="inlineStr">
@@ -88578,7 +88046,7 @@
     <row r="2732">
       <c r="A2732" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2732" t="inlineStr">
@@ -88588,23 +88056,27 @@
       </c>
       <c r="C2732" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>JOLTs Job OpeningsDEC</t>
         </is>
       </c>
       <c r="D2732" t="inlineStr"/>
       <c r="E2732" t="inlineStr"/>
       <c r="F2732" t="inlineStr"/>
-      <c r="G2732" t="inlineStr"/>
+      <c r="G2732" t="inlineStr">
+        <is>
+          <t>7.6M</t>
+        </is>
+      </c>
       <c r="H2732" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2733">
       <c r="A2733" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2733" t="inlineStr">
@@ -88614,41 +88086,53 @@
       </c>
       <c r="C2733" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Factory Orders MoMDEC</t>
         </is>
       </c>
       <c r="D2733" t="inlineStr"/>
-      <c r="E2733" t="inlineStr"/>
+      <c r="E2733" t="inlineStr">
+        <is>
+          <t>-0.4%</t>
+        </is>
+      </c>
       <c r="F2733" t="inlineStr"/>
-      <c r="G2733" t="inlineStr"/>
+      <c r="G2733" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
       <c r="H2733" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2734">
-      <c r="A2734" t="inlineStr"/>
+      <c r="A2734" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
       <c r="B2734" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2734" t="inlineStr">
         <is>
-          <t>Total New Vehicle SalesJAN</t>
+          <t>Factory Orders ex TransportationDEC</t>
         </is>
       </c>
       <c r="D2734" t="inlineStr"/>
       <c r="E2734" t="inlineStr">
         <is>
-          <t>41.27K</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F2734" t="inlineStr"/>
       <c r="G2734" t="inlineStr">
         <is>
-          <t>43.0K</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="H2734" t="inlineStr">
@@ -88660,21 +88144,33 @@
     <row r="2735">
       <c r="A2735" t="inlineStr">
         <is>
-          <t>Tuesday February 04 2025</t>
-        </is>
-      </c>
-      <c r="B2735" t="inlineStr"/>
-      <c r="C2735" t="inlineStr"/>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B2735" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2735" t="inlineStr">
+        <is>
+          <t>JOLTs Job QuitsDEC</t>
+        </is>
+      </c>
       <c r="D2735" t="inlineStr"/>
       <c r="E2735" t="inlineStr"/>
       <c r="F2735" t="inlineStr"/>
       <c r="G2735" t="inlineStr"/>
-      <c r="H2735" t="inlineStr"/>
+      <c r="H2735" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2736">
       <c r="A2736" t="inlineStr">
         <is>
-          <t>01:30 AM</t>
+          <t>08:40 PM</t>
         </is>
       </c>
       <c r="B2736" t="inlineStr">
@@ -88684,11 +88180,15 @@
       </c>
       <c r="C2736" t="inlineStr">
         <is>
-          <t>Treasury Refunding Financing Estimates</t>
+          <t>RCM/TIPP Economic Optimism IndexFEB</t>
         </is>
       </c>
       <c r="D2736" t="inlineStr"/>
-      <c r="E2736" t="inlineStr"/>
+      <c r="E2736" t="inlineStr">
+        <is>
+          <t>51.9</t>
+        </is>
+      </c>
       <c r="F2736" t="inlineStr"/>
       <c r="G2736" t="inlineStr"/>
       <c r="H2736" t="inlineStr">
@@ -88698,27 +88198,19 @@
       </c>
     </row>
     <row r="2737">
-      <c r="A2737" t="inlineStr">
-        <is>
-          <t>03:30 AM</t>
-        </is>
-      </c>
+      <c r="A2737" t="inlineStr"/>
       <c r="B2737" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2737" t="inlineStr">
         <is>
-          <t>Tax RevenueJAN</t>
+          <t>Balance of Trade PrelJAN</t>
         </is>
       </c>
       <c r="D2737" t="inlineStr"/>
-      <c r="E2737" t="inlineStr">
-        <is>
-          <t>ARS13015B</t>
-        </is>
-      </c>
+      <c r="E2737" t="inlineStr"/>
       <c r="F2737" t="inlineStr"/>
       <c r="G2737" t="inlineStr"/>
       <c r="H2737" t="inlineStr">
@@ -88728,27 +88220,19 @@
       </c>
     </row>
     <row r="2738">
-      <c r="A2738" t="inlineStr">
-        <is>
-          <t>09:05 AM</t>
-        </is>
-      </c>
+      <c r="A2738" t="inlineStr"/>
       <c r="B2738" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2738" t="inlineStr">
         <is>
-          <t>10-Year JGB Auction</t>
+          <t>Exports PrelJAN</t>
         </is>
       </c>
       <c r="D2738" t="inlineStr"/>
-      <c r="E2738" t="inlineStr">
-        <is>
-          <t>1.140%</t>
-        </is>
-      </c>
+      <c r="E2738" t="inlineStr"/>
       <c r="F2738" t="inlineStr"/>
       <c r="G2738" t="inlineStr"/>
       <c r="H2738" t="inlineStr">
@@ -88758,27 +88242,19 @@
       </c>
     </row>
     <row r="2739">
-      <c r="A2739" t="inlineStr">
-        <is>
-          <t>09:45 AM</t>
-        </is>
-      </c>
+      <c r="A2739" t="inlineStr"/>
       <c r="B2739" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2739" t="inlineStr">
         <is>
-          <t>Riyad Bank PMIJAN</t>
+          <t>Imports PrelJAN</t>
         </is>
       </c>
       <c r="D2739" t="inlineStr"/>
-      <c r="E2739" t="inlineStr">
-        <is>
-          <t>58.4</t>
-        </is>
-      </c>
+      <c r="E2739" t="inlineStr"/>
       <c r="F2739" t="inlineStr"/>
       <c r="G2739" t="inlineStr"/>
       <c r="H2739" t="inlineStr">
@@ -88788,564 +88264,26 @@
       </c>
     </row>
     <row r="2740">
-      <c r="A2740" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
+      <c r="A2740" t="inlineStr"/>
       <c r="B2740" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2740" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>LMI Logistics Managers IndexJAN</t>
         </is>
       </c>
       <c r="D2740" t="inlineStr"/>
-      <c r="E2740" t="inlineStr"/>
+      <c r="E2740" t="inlineStr">
+        <is>
+          <t>57.3</t>
+        </is>
+      </c>
       <c r="F2740" t="inlineStr"/>
       <c r="G2740" t="inlineStr"/>
       <c r="H2740" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2741">
-      <c r="A2741" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B2741" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="C2741" t="inlineStr">
-        <is>
-          <t>MAS 4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="D2741" t="inlineStr"/>
-      <c r="E2741" t="inlineStr"/>
-      <c r="F2741" t="inlineStr"/>
-      <c r="G2741" t="inlineStr"/>
-      <c r="H2741" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2742">
-      <c r="A2742" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B2742" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C2742" t="inlineStr">
-        <is>
-          <t>30-Year KTB Auction</t>
-        </is>
-      </c>
-      <c r="D2742" t="inlineStr"/>
-      <c r="E2742" t="inlineStr">
-        <is>
-          <t>2.705%</t>
-        </is>
-      </c>
-      <c r="F2742" t="inlineStr"/>
-      <c r="G2742" t="inlineStr"/>
-      <c r="H2742" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2743">
-      <c r="A2743" t="inlineStr">
-        <is>
-          <t>01:15 PM</t>
-        </is>
-      </c>
-      <c r="B2743" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C2743" t="inlineStr">
-        <is>
-          <t>Budget BalanceDEC</t>
-        </is>
-      </c>
-      <c r="D2743" t="inlineStr"/>
-      <c r="E2743" t="inlineStr">
-        <is>
-          <t>€-172.5B</t>
-        </is>
-      </c>
-      <c r="F2743" t="inlineStr"/>
-      <c r="G2743" t="inlineStr"/>
-      <c r="H2743" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2744">
-      <c r="A2744" t="inlineStr">
-        <is>
-          <t>01:30 PM</t>
-        </is>
-      </c>
-      <c r="B2744" t="inlineStr">
-        <is>
-          <t>BR</t>
-        </is>
-      </c>
-      <c r="C2744" t="inlineStr">
-        <is>
-          <t>IPC-Fipe Inflation MoMJAN</t>
-        </is>
-      </c>
-      <c r="D2744" t="inlineStr"/>
-      <c r="E2744" t="inlineStr">
-        <is>
-          <t>0.34%</t>
-        </is>
-      </c>
-      <c r="F2744" t="inlineStr"/>
-      <c r="G2744" t="inlineStr"/>
-      <c r="H2744" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2745">
-      <c r="A2745" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B2745" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C2745" t="inlineStr">
-        <is>
-          <t>5-Year Treasury Gilt Auction</t>
-        </is>
-      </c>
-      <c r="D2745" t="inlineStr"/>
-      <c r="E2745" t="inlineStr"/>
-      <c r="F2745" t="inlineStr"/>
-      <c r="G2745" t="inlineStr"/>
-      <c r="H2745" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2746">
-      <c r="A2746" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B2746" t="inlineStr">
-        <is>
-          <t>BR</t>
-        </is>
-      </c>
-      <c r="C2746" t="inlineStr">
-        <is>
-          <t>BCB Copom Meeting Minutes</t>
-        </is>
-      </c>
-      <c r="D2746" t="inlineStr"/>
-      <c r="E2746" t="inlineStr"/>
-      <c r="F2746" t="inlineStr"/>
-      <c r="G2746" t="inlineStr"/>
-      <c r="H2746" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2747">
-      <c r="A2747" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B2747" t="inlineStr">
-        <is>
-          <t>BR</t>
-        </is>
-      </c>
-      <c r="C2747" t="inlineStr">
-        <is>
-          <t>PPI MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2747" t="inlineStr"/>
-      <c r="E2747" t="inlineStr">
-        <is>
-          <t>1.23%</t>
-        </is>
-      </c>
-      <c r="F2747" t="inlineStr"/>
-      <c r="G2747" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H2747" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2748">
-      <c r="A2748" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B2748" t="inlineStr">
-        <is>
-          <t>BR</t>
-        </is>
-      </c>
-      <c r="C2748" t="inlineStr">
-        <is>
-          <t>PPI YoYDEC</t>
-        </is>
-      </c>
-      <c r="D2748" t="inlineStr"/>
-      <c r="E2748" t="inlineStr">
-        <is>
-          <t>7.59%</t>
-        </is>
-      </c>
-      <c r="F2748" t="inlineStr"/>
-      <c r="G2748" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
-      <c r="H2748" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2749">
-      <c r="A2749" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B2749" t="inlineStr">
-        <is>
-          <t>MX</t>
-        </is>
-      </c>
-      <c r="C2749" t="inlineStr">
-        <is>
-          <t>Business ConfidenceJAN</t>
-        </is>
-      </c>
-      <c r="D2749" t="inlineStr"/>
-      <c r="E2749" t="inlineStr">
-        <is>
-          <t>51.2</t>
-        </is>
-      </c>
-      <c r="F2749" t="inlineStr"/>
-      <c r="G2749" t="inlineStr"/>
-      <c r="H2749" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2750">
-      <c r="A2750" t="inlineStr">
-        <is>
-          <t>07:25 PM</t>
-        </is>
-      </c>
-      <c r="B2750" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2750" t="inlineStr">
-        <is>
-          <t>Redbook YoYFEB/01</t>
-        </is>
-      </c>
-      <c r="D2750" t="inlineStr"/>
-      <c r="E2750" t="inlineStr"/>
-      <c r="F2750" t="inlineStr"/>
-      <c r="G2750" t="inlineStr"/>
-      <c r="H2750" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2751">
-      <c r="A2751" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2751" t="inlineStr">
-        <is>
-          <t>MX</t>
-        </is>
-      </c>
-      <c r="C2751" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
-        </is>
-      </c>
-      <c r="D2751" t="inlineStr"/>
-      <c r="E2751" t="inlineStr">
-        <is>
-          <t>49.8</t>
-        </is>
-      </c>
-      <c r="F2751" t="inlineStr"/>
-      <c r="G2751" t="inlineStr"/>
-      <c r="H2751" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2752">
-      <c r="A2752" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2752" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2752" t="inlineStr">
-        <is>
-          <t>JOLTs Job OpeningsDEC</t>
-        </is>
-      </c>
-      <c r="D2752" t="inlineStr"/>
-      <c r="E2752" t="inlineStr"/>
-      <c r="F2752" t="inlineStr"/>
-      <c r="G2752" t="inlineStr">
-        <is>
-          <t>7.6M</t>
-        </is>
-      </c>
-      <c r="H2752" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2753">
-      <c r="A2753" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2753" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2753" t="inlineStr">
-        <is>
-          <t>Factory Orders MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2753" t="inlineStr"/>
-      <c r="E2753" t="inlineStr">
-        <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
-      <c r="F2753" t="inlineStr"/>
-      <c r="G2753" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="H2753" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2754">
-      <c r="A2754" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2754" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2754" t="inlineStr">
-        <is>
-          <t>Factory Orders ex TransportationDEC</t>
-        </is>
-      </c>
-      <c r="D2754" t="inlineStr"/>
-      <c r="E2754" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F2754" t="inlineStr"/>
-      <c r="G2754" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="H2754" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2755">
-      <c r="A2755" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2755" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2755" t="inlineStr">
-        <is>
-          <t>JOLTs Job QuitsDEC</t>
-        </is>
-      </c>
-      <c r="D2755" t="inlineStr"/>
-      <c r="E2755" t="inlineStr"/>
-      <c r="F2755" t="inlineStr"/>
-      <c r="G2755" t="inlineStr"/>
-      <c r="H2755" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2756">
-      <c r="A2756" t="inlineStr"/>
-      <c r="B2756" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2756" t="inlineStr">
-        <is>
-          <t>Balance of Trade PrelJAN</t>
-        </is>
-      </c>
-      <c r="D2756" t="inlineStr"/>
-      <c r="E2756" t="inlineStr"/>
-      <c r="F2756" t="inlineStr"/>
-      <c r="G2756" t="inlineStr"/>
-      <c r="H2756" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2757">
-      <c r="A2757" t="inlineStr"/>
-      <c r="B2757" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2757" t="inlineStr">
-        <is>
-          <t>Exports PrelJAN</t>
-        </is>
-      </c>
-      <c r="D2757" t="inlineStr"/>
-      <c r="E2757" t="inlineStr"/>
-      <c r="F2757" t="inlineStr"/>
-      <c r="G2757" t="inlineStr"/>
-      <c r="H2757" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2758">
-      <c r="A2758" t="inlineStr"/>
-      <c r="B2758" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2758" t="inlineStr">
-        <is>
-          <t>Imports PrelJAN</t>
-        </is>
-      </c>
-      <c r="D2758" t="inlineStr"/>
-      <c r="E2758" t="inlineStr"/>
-      <c r="F2758" t="inlineStr"/>
-      <c r="G2758" t="inlineStr"/>
-      <c r="H2758" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2759">
-      <c r="A2759" t="inlineStr"/>
-      <c r="B2759" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2759" t="inlineStr">
-        <is>
-          <t>LMI Logistics Managers IndexJAN</t>
-        </is>
-      </c>
-      <c r="D2759" t="inlineStr"/>
-      <c r="E2759" t="inlineStr">
-        <is>
-          <t>57.3</t>
-        </is>
-      </c>
-      <c r="F2759" t="inlineStr"/>
-      <c r="G2759" t="inlineStr"/>
-      <c r="H2759" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-04.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-04.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2740"/>
+  <dimension ref="A1:H2718"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83127,10 +83127,8 @@
           <t>5.5%</t>
         </is>
       </c>
-      <c r="H2576" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2576" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2577">
@@ -83161,10 +83159,8 @@
           <t>12</t>
         </is>
       </c>
-      <c r="H2577" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2577" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2578">
@@ -83199,10 +83195,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2578" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2578" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2579">
@@ -83233,10 +83227,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="H2579" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2579" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2580">
@@ -83267,10 +83259,8 @@
           <t>$-8.82B</t>
         </is>
       </c>
-      <c r="H2580" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2580" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2581">
@@ -83305,10 +83295,8 @@
           <t>$ 23.46B</t>
         </is>
       </c>
-      <c r="H2581" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2581" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2582">
@@ -83339,10 +83327,8 @@
           <t>$32.29B</t>
         </is>
       </c>
-      <c r="H2582" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2582" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2583">
@@ -83373,10 +83359,8 @@
           <t>$ 23.5B</t>
         </is>
       </c>
-      <c r="H2583" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2583" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2584">
@@ -83407,10 +83391,8 @@
           <t>0.9%</t>
         </is>
       </c>
-      <c r="H2584" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2584" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2585">
@@ -83441,10 +83423,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="H2585" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2585" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2586">
@@ -83475,10 +83455,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H2586" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2586" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2587">
@@ -83513,10 +83491,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2587" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2587" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2588">
@@ -83547,10 +83523,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2588" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2588" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2589">
@@ -83581,10 +83555,8 @@
           <t>2.0%</t>
         </is>
       </c>
-      <c r="H2589" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2589" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2590">
@@ -83615,10 +83587,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2590" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2590" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2591">
@@ -83649,10 +83619,8 @@
           <t>-4.3%</t>
         </is>
       </c>
-      <c r="H2591" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2591" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2592">
@@ -83683,10 +83651,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2592" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2592" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2593">
@@ -83717,10 +83683,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2593" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2593" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2594">
@@ -83747,10 +83711,8 @@
       </c>
       <c r="F2594" t="inlineStr"/>
       <c r="G2594" t="inlineStr"/>
-      <c r="H2594" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2594" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2595">
@@ -83785,10 +83747,8 @@
           <t>7.0K</t>
         </is>
       </c>
-      <c r="H2595" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2595" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2596">
@@ -83819,10 +83779,8 @@
           <t>2.876M</t>
         </is>
       </c>
-      <c r="H2596" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2596" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2597">
@@ -83857,10 +83815,8 @@
           <t>6.2%</t>
         </is>
       </c>
-      <c r="H2597" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2597" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2598">
@@ -83883,10 +83839,8 @@
       <c r="E2598" t="inlineStr"/>
       <c r="F2598" t="inlineStr"/>
       <c r="G2598" t="inlineStr"/>
-      <c r="H2598" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2598" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2599">
@@ -83913,10 +83867,8 @@
       </c>
       <c r="F2599" t="inlineStr"/>
       <c r="G2599" t="inlineStr"/>
-      <c r="H2599" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2599" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2600">
@@ -83943,10 +83895,8 @@
       </c>
       <c r="F2600" t="inlineStr"/>
       <c r="G2600" t="inlineStr"/>
-      <c r="H2600" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2600" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2601">
@@ -83973,10 +83923,8 @@
       </c>
       <c r="F2601" t="inlineStr"/>
       <c r="G2601" t="inlineStr"/>
-      <c r="H2601" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2601" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2602">
@@ -84003,10 +83951,8 @@
       </c>
       <c r="F2602" t="inlineStr"/>
       <c r="G2602" t="inlineStr"/>
-      <c r="H2602" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2602" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2603">
@@ -84033,10 +83979,8 @@
       </c>
       <c r="F2603" t="inlineStr"/>
       <c r="G2603" t="inlineStr"/>
-      <c r="H2603" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2603" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2604">
@@ -84063,10 +84007,8 @@
       </c>
       <c r="F2604" t="inlineStr"/>
       <c r="G2604" t="inlineStr"/>
-      <c r="H2604" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2604" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2605">
@@ -84093,10 +84035,8 @@
       </c>
       <c r="F2605" t="inlineStr"/>
       <c r="G2605" t="inlineStr"/>
-      <c r="H2605" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2605" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2606">
@@ -84123,10 +84063,8 @@
       </c>
       <c r="F2606" t="inlineStr"/>
       <c r="G2606" t="inlineStr"/>
-      <c r="H2606" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2606" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2607">
@@ -84153,10 +84091,8 @@
       </c>
       <c r="F2607" t="inlineStr"/>
       <c r="G2607" t="inlineStr"/>
-      <c r="H2607" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2607" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2608">
@@ -84183,10 +84119,8 @@
       </c>
       <c r="F2608" t="inlineStr"/>
       <c r="G2608" t="inlineStr"/>
-      <c r="H2608" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2608" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2609">
@@ -84213,10 +84147,8 @@
       </c>
       <c r="F2609" t="inlineStr"/>
       <c r="G2609" t="inlineStr"/>
-      <c r="H2609" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2609" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2610">
@@ -84243,10 +84175,8 @@
       </c>
       <c r="F2610" t="inlineStr"/>
       <c r="G2610" t="inlineStr"/>
-      <c r="H2610" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2610" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2611">
@@ -84277,10 +84207,8 @@
           <t>€5.0B</t>
         </is>
       </c>
-      <c r="H2611" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2611" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2612">
@@ -84311,10 +84239,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2612" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2612" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2613">
@@ -84345,10 +84271,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2613" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2613" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2614">
@@ -84379,10 +84303,8 @@
           <t>INR-9700.0B</t>
         </is>
       </c>
-      <c r="H2614" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2614" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2615">
@@ -84413,10 +84335,8 @@
           <t>77.9%</t>
         </is>
       </c>
-      <c r="H2615" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2615" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2616">
@@ -84447,10 +84367,8 @@
           <t>BRL-103.0B</t>
         </is>
       </c>
-      <c r="H2616" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2616" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2617">
@@ -84477,10 +84395,8 @@
       </c>
       <c r="F2617" t="inlineStr"/>
       <c r="G2617" t="inlineStr"/>
-      <c r="H2617" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2617" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2618">
@@ -84507,10 +84423,8 @@
       </c>
       <c r="F2618" t="inlineStr"/>
       <c r="G2618" t="inlineStr"/>
-      <c r="H2618" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2618" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2619">
@@ -84537,10 +84451,8 @@
       </c>
       <c r="F2619" t="inlineStr"/>
       <c r="G2619" t="inlineStr"/>
-      <c r="H2619" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2619" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2620">
@@ -84571,10 +84483,8 @@
           <t>4.8%</t>
         </is>
       </c>
-      <c r="H2620" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2620" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2621">
@@ -84605,10 +84515,8 @@
           <t>6.1%</t>
         </is>
       </c>
-      <c r="H2621" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2621" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2622">
@@ -84639,10 +84547,8 @@
           <t>ZAR 27.0B</t>
         </is>
       </c>
-      <c r="H2622" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2622" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2623">
@@ -84677,10 +84583,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H2623" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2623" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2624">
@@ -84715,10 +84619,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2624" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2624" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2625">
@@ -84749,10 +84651,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2625" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2625" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2626">
@@ -84787,10 +84687,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H2626" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2626" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2627">
@@ -84825,10 +84723,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H2627" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2627" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2628">
@@ -84859,10 +84755,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2628" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2628" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2629">
@@ -84897,10 +84791,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2629" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2629" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2630">
@@ -84935,10 +84827,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2630" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2630" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2631">
@@ -84973,10 +84863,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2631" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2631" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2632">
@@ -85007,10 +84895,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2632" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2632" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2633">
@@ -85041,10 +84927,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2633" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2633" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2634">
@@ -85079,10 +84963,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2634" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2634" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2635">
@@ -85105,10 +84987,8 @@
       <c r="E2635" t="inlineStr"/>
       <c r="F2635" t="inlineStr"/>
       <c r="G2635" t="inlineStr"/>
-      <c r="H2635" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2635" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2636">
@@ -85139,10 +85019,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2636" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2636" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2637">
@@ -85173,10 +85051,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H2637" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2637" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2638">
@@ -85207,10 +85083,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H2638" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2638" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2639">
@@ -85245,10 +85119,8 @@
           <t>37.2</t>
         </is>
       </c>
-      <c r="H2639" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2639" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2640">
@@ -85279,10 +85151,8 @@
           <t>C$-1.9B</t>
         </is>
       </c>
-      <c r="H2640" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2640" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2641">
@@ -85309,10 +85179,8 @@
       </c>
       <c r="F2641" t="inlineStr"/>
       <c r="G2641" t="inlineStr"/>
-      <c r="H2641" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2641" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2642">
@@ -85339,10 +85207,8 @@
       </c>
       <c r="F2642" t="inlineStr"/>
       <c r="G2642" t="inlineStr"/>
-      <c r="H2642" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2642" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2643">
@@ -85369,10 +85235,8 @@
           <t>MXN-1120.0B</t>
         </is>
       </c>
-      <c r="H2643" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2643" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2644">
@@ -85399,10 +85263,8 @@
           <t>0.0%</t>
         </is>
       </c>
-      <c r="H2644" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2644" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2645">
@@ -85429,10 +85291,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H2645" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2645" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2646">
@@ -85459,10 +85319,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H2646" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2646" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2647">
@@ -85489,10 +85347,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H2647" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2647" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2648">
@@ -85519,10 +85375,8 @@
           <t>-4.0%</t>
         </is>
       </c>
-      <c r="H2648" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2648" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2649">
@@ -85549,10 +85403,8 @@
           <t>20.7%</t>
         </is>
       </c>
-      <c r="H2649" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2649" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2650">
@@ -85597,10 +85449,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2651" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2651" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2652">
@@ -85631,10 +85481,8 @@
           <t>$0.9B</t>
         </is>
       </c>
-      <c r="H2652" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2652" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2653">
@@ -85665,46 +85513,60 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H2653" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2653" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2654">
       <c r="A2654" t="inlineStr">
         <is>
-          <t>Monday February 03 2025</t>
-        </is>
-      </c>
-      <c r="B2654" t="inlineStr"/>
-      <c r="C2654" t="inlineStr"/>
+          <t>12:30 PM</t>
+        </is>
+      </c>
+      <c r="B2654" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="C2654" t="inlineStr">
+        <is>
+          <t>Inflation Rate MoMJAN</t>
+        </is>
+      </c>
       <c r="D2654" t="inlineStr"/>
-      <c r="E2654" t="inlineStr"/>
+      <c r="E2654" t="inlineStr">
+        <is>
+          <t>1.03%</t>
+        </is>
+      </c>
       <c r="F2654" t="inlineStr"/>
       <c r="G2654" t="inlineStr"/>
-      <c r="H2654" t="inlineStr"/>
+      <c r="H2654" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="2655">
       <c r="A2655" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2655" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2655" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Manufacturing PMI FinalJAN</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2655" t="inlineStr"/>
       <c r="E2655" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>44.38%</t>
         </is>
       </c>
       <c r="F2655" t="inlineStr"/>
@@ -85718,31 +85580,27 @@
     <row r="2656">
       <c r="A2656" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2656" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2656" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>Istanbul Chamber of Industry Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2656" t="inlineStr"/>
       <c r="E2656" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>49.1</t>
         </is>
       </c>
       <c r="F2656" t="inlineStr"/>
-      <c r="G2656" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
+      <c r="G2656" t="inlineStr"/>
       <c r="H2656" t="inlineStr">
         <is>
           <t>3</t>
@@ -85752,31 +85610,27 @@
     <row r="2657">
       <c r="A2657" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2657" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2657" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>PPI MoMJAN</t>
         </is>
       </c>
       <c r="D2657" t="inlineStr"/>
       <c r="E2657" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F2657" t="inlineStr"/>
-      <c r="G2657" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="G2657" t="inlineStr"/>
       <c r="H2657" t="inlineStr">
         <is>
           <t>3</t>
@@ -85786,31 +85640,27 @@
     <row r="2658">
       <c r="A2658" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2658" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2658" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>PPI YoYJAN</t>
         </is>
       </c>
       <c r="D2658" t="inlineStr"/>
       <c r="E2658" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>28.52%</t>
         </is>
       </c>
       <c r="F2658" t="inlineStr"/>
-      <c r="G2658" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G2658" t="inlineStr"/>
       <c r="H2658" t="inlineStr">
         <is>
           <t>3</t>
@@ -85820,21 +85670,25 @@
     <row r="2659">
       <c r="A2659" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2659" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2659" t="inlineStr">
         <is>
-          <t>BoJ Summary of Opinions</t>
+          <t>Unemployment ChangeJAN</t>
         </is>
       </c>
       <c r="D2659" t="inlineStr"/>
-      <c r="E2659" t="inlineStr"/>
+      <c r="E2659" t="inlineStr">
+        <is>
+          <t>-25.3K</t>
+        </is>
+      </c>
       <c r="F2659" t="inlineStr"/>
       <c r="G2659" t="inlineStr"/>
       <c r="H2659" t="inlineStr">
@@ -85846,65 +85700,53 @@
     <row r="2660">
       <c r="A2660" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2660" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2660" t="inlineStr">
         <is>
-          <t>Building Permits MoM PrelDEC</t>
+          <t>Tourist Arrivals YoYDEC</t>
         </is>
       </c>
       <c r="D2660" t="inlineStr"/>
-      <c r="E2660" t="inlineStr">
-        <is>
-          <t>-3.6%</t>
-        </is>
-      </c>
+      <c r="E2660" t="inlineStr"/>
       <c r="F2660" t="inlineStr"/>
-      <c r="G2660" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
+      <c r="G2660" t="inlineStr"/>
       <c r="H2660" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2661">
       <c r="A2661" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B2661" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2661" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>HCOB Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2661" t="inlineStr"/>
       <c r="E2661" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>53.3</t>
         </is>
       </c>
       <c r="F2661" t="inlineStr"/>
-      <c r="G2661" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G2661" t="inlineStr"/>
       <c r="H2661" t="inlineStr">
         <is>
           <t>2</t>
@@ -85914,127 +85756,139 @@
     <row r="2662">
       <c r="A2662" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:15 PM</t>
         </is>
       </c>
       <c r="B2662" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2662" t="inlineStr">
         <is>
-          <t>ANZ-Indeed Job Ads MoMJAN</t>
+          <t>HCOB Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2662" t="inlineStr"/>
       <c r="E2662" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>46.2</t>
         </is>
       </c>
       <c r="F2662" t="inlineStr"/>
       <c r="G2662" t="inlineStr"/>
       <c r="H2662" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2663">
       <c r="A2663" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:20 PM</t>
         </is>
       </c>
       <c r="B2663" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2663" t="inlineStr">
         <is>
-          <t>Private House Approvals MoM PrelDEC</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2663" t="inlineStr"/>
       <c r="E2663" t="inlineStr">
         <is>
-          <t>-1.7%</t>
-        </is>
-      </c>
-      <c r="F2663" t="inlineStr"/>
-      <c r="G2663" t="inlineStr"/>
+          <t>41.9</t>
+        </is>
+      </c>
+      <c r="F2663" t="inlineStr">
+        <is>
+          <t>45.3</t>
+        </is>
+      </c>
+      <c r="G2663" t="inlineStr">
+        <is>
+          <t>45.3</t>
+        </is>
+      </c>
       <c r="H2663" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2664">
       <c r="A2664" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:25 PM</t>
         </is>
       </c>
       <c r="B2664" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2664" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2664" t="inlineStr"/>
       <c r="E2664" t="inlineStr">
         <is>
-          <t>51.2</t>
-        </is>
-      </c>
-      <c r="F2664" t="inlineStr"/>
+          <t>42.5</t>
+        </is>
+      </c>
+      <c r="F2664" t="inlineStr">
+        <is>
+          <t>44.1</t>
+        </is>
+      </c>
       <c r="G2664" t="inlineStr">
         <is>
-          <t>51.6</t>
+          <t>44.1</t>
         </is>
       </c>
       <c r="H2664" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2665">
       <c r="A2665" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2665" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2665" t="inlineStr">
         <is>
-          <t>Jibun Bank Manufacturing PMI FinalJAN</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2665" t="inlineStr"/>
       <c r="E2665" t="inlineStr">
         <is>
-          <t>49.6</t>
+          <t>45.1</t>
         </is>
       </c>
       <c r="F2665" t="inlineStr">
         <is>
-          <t>48.8</t>
+          <t>46.1</t>
         </is>
       </c>
       <c r="G2665" t="inlineStr">
         <is>
-          <t>48.8</t>
+          <t>46.1</t>
         </is>
       </c>
       <c r="H2665" t="inlineStr">
@@ -86046,205 +85900,181 @@
     <row r="2666">
       <c r="A2666" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2666" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2666" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>ABSA Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2666" t="inlineStr"/>
       <c r="E2666" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>46.2</t>
         </is>
       </c>
       <c r="F2666" t="inlineStr"/>
       <c r="G2666" t="inlineStr">
         <is>
-          <t>49.5</t>
+          <t>47</t>
         </is>
       </c>
       <c r="H2666" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2667">
       <c r="A2667" t="inlineStr">
         <is>
-          <t>07:15 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B2667" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2667" t="inlineStr">
         <is>
-          <t>Caixin Manufacturing PMIJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2667" t="inlineStr"/>
       <c r="E2667" t="inlineStr">
         <is>
-          <t>50.5</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F2667" t="inlineStr">
         <is>
-          <t>50.5</t>
+          <t>48.2</t>
         </is>
       </c>
       <c r="G2667" t="inlineStr">
         <is>
-          <t>50.5</t>
+          <t>48.2</t>
         </is>
       </c>
       <c r="H2667" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2668">
       <c r="A2668" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2668" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2668" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>Inflation Rate YoY FlashJAN</t>
         </is>
       </c>
       <c r="D2668" t="inlineStr"/>
-      <c r="E2668" t="inlineStr">
-        <is>
-          <t>1.57%</t>
-        </is>
-      </c>
+      <c r="E2668" t="inlineStr"/>
       <c r="F2668" t="inlineStr"/>
-      <c r="G2668" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
+      <c r="G2668" t="inlineStr"/>
       <c r="H2668" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2669">
       <c r="A2669" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2669" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2669" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYJAN</t>
+          <t>Core Inflation Rate YoY FlashJAN</t>
         </is>
       </c>
       <c r="D2669" t="inlineStr"/>
       <c r="E2669" t="inlineStr">
         <is>
-          <t>2.26%</t>
+          <t>2.7%</t>
         </is>
       </c>
       <c r="F2669" t="inlineStr"/>
-      <c r="G2669" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
+      <c r="G2669" t="inlineStr"/>
       <c r="H2669" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2670">
       <c r="A2670" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2670" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2670" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Inflation Rate MoM FlashJAN</t>
         </is>
       </c>
       <c r="D2670" t="inlineStr"/>
-      <c r="E2670" t="inlineStr">
-        <is>
-          <t>0.44%</t>
-        </is>
-      </c>
+      <c r="E2670" t="inlineStr"/>
       <c r="F2670" t="inlineStr"/>
-      <c r="G2670" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G2670" t="inlineStr"/>
       <c r="H2670" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2671">
       <c r="A2671" t="inlineStr">
         <is>
-          <t>10:15 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2671" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2671" t="inlineStr">
         <is>
-          <t>Tourist Arrivals YoYDEC</t>
+          <t>CPI FlashJAN</t>
         </is>
       </c>
       <c r="D2671" t="inlineStr"/>
       <c r="E2671" t="inlineStr">
         <is>
-          <t>17.27%</t>
+          <t>127.07</t>
         </is>
       </c>
       <c r="F2671" t="inlineStr"/>
-      <c r="G2671" t="inlineStr">
-        <is>
-          <t>18.0%</t>
-        </is>
-      </c>
+      <c r="G2671" t="inlineStr"/>
       <c r="H2671" t="inlineStr">
         <is>
           <t>3</t>
@@ -86254,91 +86084,83 @@
     <row r="2672">
       <c r="A2672" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2672" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2672" t="inlineStr">
         <is>
-          <t>HSBC Manufacturing PMI FinalJAN</t>
+          <t>Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2672" t="inlineStr"/>
       <c r="E2672" t="inlineStr">
         <is>
-          <t>56.4</t>
-        </is>
-      </c>
-      <c r="F2672" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="G2672" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
+          <t>1.3%</t>
+        </is>
+      </c>
+      <c r="F2672" t="inlineStr"/>
+      <c r="G2672" t="inlineStr"/>
       <c r="H2672" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2673">
       <c r="A2673" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2673" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2673" t="inlineStr">
         <is>
-          <t>2-Year KTB Auction</t>
+          <t>Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2673" t="inlineStr"/>
       <c r="E2673" t="inlineStr">
         <is>
-          <t>2.670%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2673" t="inlineStr"/>
       <c r="G2673" t="inlineStr"/>
       <c r="H2673" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2674">
       <c r="A2674" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2674" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2674" t="inlineStr">
         <is>
-          <t>Commodity Prices YoYJAN</t>
+          <t>Harmonised Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2674" t="inlineStr"/>
       <c r="E2674" t="inlineStr">
         <is>
-          <t>-10.7%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2674" t="inlineStr"/>
@@ -86352,117 +86174,129 @@
     <row r="2675">
       <c r="A2675" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2675" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2675" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>Harmonised Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2675" t="inlineStr"/>
       <c r="E2675" t="inlineStr">
         <is>
-          <t>50.8</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F2675" t="inlineStr"/>
       <c r="G2675" t="inlineStr"/>
       <c r="H2675" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2676">
       <c r="A2676" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2676" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2676" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Foreign Exchange ReservesDEC</t>
         </is>
       </c>
       <c r="D2676" t="inlineStr"/>
       <c r="E2676" t="inlineStr">
         <is>
-          <t>1.03%</t>
+          <t>$232.2B</t>
         </is>
       </c>
       <c r="F2676" t="inlineStr"/>
-      <c r="G2676" t="inlineStr"/>
+      <c r="G2676" t="inlineStr">
+        <is>
+          <t>$ 230B</t>
+        </is>
+      </c>
       <c r="H2676" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2677">
       <c r="A2677" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2677" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2677" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2677" t="inlineStr"/>
       <c r="E2677" t="inlineStr">
         <is>
-          <t>44.38%</t>
+          <t>50.4</t>
         </is>
       </c>
       <c r="F2677" t="inlineStr"/>
-      <c r="G2677" t="inlineStr"/>
+      <c r="G2677" t="inlineStr">
+        <is>
+          <t>49.8</t>
+        </is>
+      </c>
       <c r="H2677" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2678">
       <c r="A2678" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2678" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2678" t="inlineStr">
         <is>
-          <t>Istanbul Chamber of Industry Manufacturing PMIJAN</t>
+          <t>SIPMM Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2678" t="inlineStr"/>
       <c r="E2678" t="inlineStr">
         <is>
-          <t>49.1</t>
+          <t>51.1</t>
         </is>
       </c>
       <c r="F2678" t="inlineStr"/>
-      <c r="G2678" t="inlineStr"/>
+      <c r="G2678" t="inlineStr">
+        <is>
+          <t>51.4</t>
+        </is>
+      </c>
       <c r="H2678" t="inlineStr">
         <is>
           <t>3</t>
@@ -86472,55 +86306,47 @@
     <row r="2679">
       <c r="A2679" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2679" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2679" t="inlineStr">
         <is>
-          <t>PPI MoMJAN</t>
+          <t>Fed Bostic Speech</t>
         </is>
       </c>
       <c r="D2679" t="inlineStr"/>
-      <c r="E2679" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="E2679" t="inlineStr"/>
       <c r="F2679" t="inlineStr"/>
       <c r="G2679" t="inlineStr"/>
       <c r="H2679" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2680">
       <c r="A2680" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2680" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2680" t="inlineStr">
         <is>
-          <t>PPI YoYJAN</t>
+          <t>12-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2680" t="inlineStr"/>
-      <c r="E2680" t="inlineStr">
-        <is>
-          <t>28.52%</t>
-        </is>
-      </c>
+      <c r="E2680" t="inlineStr"/>
       <c r="F2680" t="inlineStr"/>
       <c r="G2680" t="inlineStr"/>
       <c r="H2680" t="inlineStr">
@@ -86532,47 +86358,43 @@
     <row r="2681">
       <c r="A2681" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2681" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2681" t="inlineStr">
         <is>
-          <t>Unemployment ChangeJAN</t>
+          <t>3-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2681" t="inlineStr"/>
-      <c r="E2681" t="inlineStr">
-        <is>
-          <t>-25.3K</t>
-        </is>
-      </c>
+      <c r="E2681" t="inlineStr"/>
       <c r="F2681" t="inlineStr"/>
       <c r="G2681" t="inlineStr"/>
       <c r="H2681" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2682">
       <c r="A2682" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2682" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2682" t="inlineStr">
         <is>
-          <t>Tourist Arrivals YoYDEC</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2682" t="inlineStr"/>
@@ -86588,23 +86410,23 @@
     <row r="2683">
       <c r="A2683" t="inlineStr">
         <is>
-          <t>01:45 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B2683" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2683" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMIJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2683" t="inlineStr"/>
       <c r="E2683" t="inlineStr">
         <is>
-          <t>53.3</t>
+          <t>52.2</t>
         </is>
       </c>
       <c r="F2683" t="inlineStr"/>
@@ -86618,27 +86440,35 @@
     <row r="2684">
       <c r="A2684" t="inlineStr">
         <is>
-          <t>02:15 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B2684" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2684" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMIJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2684" t="inlineStr"/>
       <c r="E2684" t="inlineStr">
         <is>
-          <t>46.2</t>
-        </is>
-      </c>
-      <c r="F2684" t="inlineStr"/>
-      <c r="G2684" t="inlineStr"/>
+          <t>49.4</t>
+        </is>
+      </c>
+      <c r="F2684" t="inlineStr">
+        <is>
+          <t>50.1</t>
+        </is>
+      </c>
+      <c r="G2684" t="inlineStr">
+        <is>
+          <t>50.1</t>
+        </is>
+      </c>
       <c r="H2684" t="inlineStr">
         <is>
           <t>2</t>
@@ -86648,73 +86478,57 @@
     <row r="2685">
       <c r="A2685" t="inlineStr">
         <is>
-          <t>02:20 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2685" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2685" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>ISM Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2685" t="inlineStr"/>
       <c r="E2685" t="inlineStr">
         <is>
-          <t>41.9</t>
-        </is>
-      </c>
-      <c r="F2685" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
-      <c r="G2685" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
+          <t>49.3</t>
+        </is>
+      </c>
+      <c r="F2685" t="inlineStr"/>
+      <c r="G2685" t="inlineStr"/>
       <c r="H2685" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2686">
       <c r="A2686" t="inlineStr">
         <is>
-          <t>02:25 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2686" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2686" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>ISM Manufacturing EmploymentJAN</t>
         </is>
       </c>
       <c r="D2686" t="inlineStr"/>
       <c r="E2686" t="inlineStr">
         <is>
-          <t>42.5</t>
-        </is>
-      </c>
-      <c r="F2686" t="inlineStr">
-        <is>
-          <t>44.1</t>
-        </is>
-      </c>
-      <c r="G2686" t="inlineStr">
-        <is>
-          <t>44.1</t>
-        </is>
-      </c>
+          <t>45.3</t>
+        </is>
+      </c>
+      <c r="F2686" t="inlineStr"/>
+      <c r="G2686" t="inlineStr"/>
       <c r="H2686" t="inlineStr">
         <is>
           <t>2</t>
@@ -86724,69 +86538,57 @@
     <row r="2687">
       <c r="A2687" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2687" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2687" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>Construction Spending MoMDEC</t>
         </is>
       </c>
       <c r="D2687" t="inlineStr"/>
       <c r="E2687" t="inlineStr">
         <is>
-          <t>45.1</t>
-        </is>
-      </c>
-      <c r="F2687" t="inlineStr">
-        <is>
-          <t>46.1</t>
-        </is>
-      </c>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F2687" t="inlineStr"/>
       <c r="G2687" t="inlineStr">
         <is>
-          <t>46.1</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H2687" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2688">
       <c r="A2688" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2688" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2688" t="inlineStr">
         <is>
-          <t>ABSA Manufacturing PMIJAN</t>
+          <t>ISM Manufacturing New OrdersJAN</t>
         </is>
       </c>
       <c r="D2688" t="inlineStr"/>
-      <c r="E2688" t="inlineStr">
-        <is>
-          <t>46.2</t>
-        </is>
-      </c>
+      <c r="E2688" t="inlineStr"/>
       <c r="F2688" t="inlineStr"/>
-      <c r="G2688" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
+      <c r="G2688" t="inlineStr"/>
       <c r="H2688" t="inlineStr">
         <is>
           <t>3</t>
@@ -86796,55 +86598,43 @@
     <row r="2689">
       <c r="A2689" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2689" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2689" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
+          <t>ISM Manufacturing PricesJAN</t>
         </is>
       </c>
       <c r="D2689" t="inlineStr"/>
-      <c r="E2689" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="F2689" t="inlineStr">
-        <is>
-          <t>48.2</t>
-        </is>
-      </c>
-      <c r="G2689" t="inlineStr">
-        <is>
-          <t>48.2</t>
-        </is>
-      </c>
+      <c r="E2689" t="inlineStr"/>
+      <c r="F2689" t="inlineStr"/>
+      <c r="G2689" t="inlineStr"/>
       <c r="H2689" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2690">
       <c r="A2690" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B2690" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2690" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FlashJAN</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2690" t="inlineStr"/>
@@ -86853,176 +86643,156 @@
       <c r="G2690" t="inlineStr"/>
       <c r="H2690" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2691">
       <c r="A2691" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B2691" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2691" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoY FlashJAN</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2691" t="inlineStr"/>
-      <c r="E2691" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
+      <c r="E2691" t="inlineStr"/>
       <c r="F2691" t="inlineStr"/>
       <c r="G2691" t="inlineStr"/>
       <c r="H2691" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2692">
-      <c r="A2692" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
+      <c r="A2692" t="inlineStr"/>
       <c r="B2692" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2692" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM FlashJAN</t>
+          <t>Total New Vehicle SalesJAN</t>
         </is>
       </c>
       <c r="D2692" t="inlineStr"/>
-      <c r="E2692" t="inlineStr"/>
+      <c r="E2692" t="inlineStr">
+        <is>
+          <t>41.27K</t>
+        </is>
+      </c>
       <c r="F2692" t="inlineStr"/>
-      <c r="G2692" t="inlineStr"/>
+      <c r="G2692" t="inlineStr">
+        <is>
+          <t>43.0K</t>
+        </is>
+      </c>
       <c r="H2692" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2693">
       <c r="A2693" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B2693" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C2693" t="inlineStr">
-        <is>
-          <t>CPI FlashJAN</t>
-        </is>
-      </c>
+          <t>Tuesday February 04 2025</t>
+        </is>
+      </c>
+      <c r="B2693" t="inlineStr"/>
+      <c r="C2693" t="inlineStr"/>
       <c r="D2693" t="inlineStr"/>
-      <c r="E2693" t="inlineStr">
-        <is>
-          <t>127.07</t>
-        </is>
-      </c>
+      <c r="E2693" t="inlineStr"/>
       <c r="F2693" t="inlineStr"/>
       <c r="G2693" t="inlineStr"/>
-      <c r="H2693" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H2693" t="inlineStr"/>
     </row>
     <row r="2694">
       <c r="A2694" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B2694" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2694" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelJAN</t>
+          <t>Treasury Refunding Financing Estimates</t>
         </is>
       </c>
       <c r="D2694" t="inlineStr"/>
-      <c r="E2694" t="inlineStr">
-        <is>
-          <t>1.3%</t>
-        </is>
-      </c>
+      <c r="E2694" t="inlineStr"/>
       <c r="F2694" t="inlineStr"/>
       <c r="G2694" t="inlineStr"/>
       <c r="H2694" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2695">
       <c r="A2695" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>03:30 AM</t>
         </is>
       </c>
       <c r="B2695" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C2695" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM PrelJAN</t>
+          <t>Tax RevenueJAN</t>
         </is>
       </c>
       <c r="D2695" t="inlineStr"/>
       <c r="E2695" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>ARS13015B</t>
         </is>
       </c>
       <c r="F2695" t="inlineStr"/>
       <c r="G2695" t="inlineStr"/>
       <c r="H2695" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2696">
       <c r="A2696" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>09:05 AM</t>
         </is>
       </c>
       <c r="B2696" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2696" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM PrelJAN</t>
+          <t>10-Year JGB Auction</t>
         </is>
       </c>
       <c r="D2696" t="inlineStr"/>
       <c r="E2696" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>1.140%</t>
         </is>
       </c>
       <c r="F2696" t="inlineStr"/>
@@ -87036,23 +86806,23 @@
     <row r="2697">
       <c r="A2697" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B2697" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C2697" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY PrelJAN</t>
+          <t>Riyad Bank PMIJAN</t>
         </is>
       </c>
       <c r="D2697" t="inlineStr"/>
       <c r="E2697" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>58.4</t>
         </is>
       </c>
       <c r="F2697" t="inlineStr"/>
@@ -87066,31 +86836,23 @@
     <row r="2698">
       <c r="A2698" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2698" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2698" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesDEC</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D2698" t="inlineStr"/>
-      <c r="E2698" t="inlineStr">
-        <is>
-          <t>$232.2B</t>
-        </is>
-      </c>
+      <c r="E2698" t="inlineStr"/>
       <c r="F2698" t="inlineStr"/>
-      <c r="G2698" t="inlineStr">
-        <is>
-          <t>$ 230B</t>
-        </is>
-      </c>
+      <c r="G2698" t="inlineStr"/>
       <c r="H2698" t="inlineStr">
         <is>
           <t>3</t>
@@ -87100,31 +86862,23 @@
     <row r="2699">
       <c r="A2699" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2699" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2699" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D2699" t="inlineStr"/>
-      <c r="E2699" t="inlineStr">
-        <is>
-          <t>50.4</t>
-        </is>
-      </c>
+      <c r="E2699" t="inlineStr"/>
       <c r="F2699" t="inlineStr"/>
-      <c r="G2699" t="inlineStr">
-        <is>
-          <t>49.8</t>
-        </is>
-      </c>
+      <c r="G2699" t="inlineStr"/>
       <c r="H2699" t="inlineStr">
         <is>
           <t>3</t>
@@ -87134,31 +86888,27 @@
     <row r="2700">
       <c r="A2700" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2700" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2700" t="inlineStr">
         <is>
-          <t>SIPMM Manufacturing PMIJAN</t>
+          <t>30-Year KTB Auction</t>
         </is>
       </c>
       <c r="D2700" t="inlineStr"/>
       <c r="E2700" t="inlineStr">
         <is>
-          <t>51.1</t>
+          <t>2.705%</t>
         </is>
       </c>
       <c r="F2700" t="inlineStr"/>
-      <c r="G2700" t="inlineStr">
-        <is>
-          <t>51.4</t>
-        </is>
-      </c>
+      <c r="G2700" t="inlineStr"/>
       <c r="H2700" t="inlineStr">
         <is>
           <t>3</t>
@@ -87168,47 +86918,55 @@
     <row r="2701">
       <c r="A2701" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2701" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2701" t="inlineStr">
         <is>
-          <t>Fed Bostic Speech</t>
+          <t>Budget BalanceDEC</t>
         </is>
       </c>
       <c r="D2701" t="inlineStr"/>
-      <c r="E2701" t="inlineStr"/>
+      <c r="E2701" t="inlineStr">
+        <is>
+          <t>€-172.5B</t>
+        </is>
+      </c>
       <c r="F2701" t="inlineStr"/>
       <c r="G2701" t="inlineStr"/>
       <c r="H2701" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2702">
       <c r="A2702" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2702" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2702" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>IPC-Fipe Inflation MoMJAN</t>
         </is>
       </c>
       <c r="D2702" t="inlineStr"/>
-      <c r="E2702" t="inlineStr"/>
+      <c r="E2702" t="inlineStr">
+        <is>
+          <t>0.34%</t>
+        </is>
+      </c>
       <c r="F2702" t="inlineStr"/>
       <c r="G2702" t="inlineStr"/>
       <c r="H2702" t="inlineStr">
@@ -87220,17 +86978,17 @@
     <row r="2703">
       <c r="A2703" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2703" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2703" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>5-Year Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D2703" t="inlineStr"/>
@@ -87246,17 +87004,17 @@
     <row r="2704">
       <c r="A2704" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B2704" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2704" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>BCB Copom Meeting Minutes</t>
         </is>
       </c>
       <c r="D2704" t="inlineStr"/>
@@ -87265,112 +87023,112 @@
       <c r="G2704" t="inlineStr"/>
       <c r="H2704" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2705">
       <c r="A2705" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2705" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2705" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D2705" t="inlineStr"/>
       <c r="E2705" t="inlineStr">
         <is>
-          <t>52.2</t>
+          <t>1.23%</t>
         </is>
       </c>
       <c r="F2705" t="inlineStr"/>
-      <c r="G2705" t="inlineStr"/>
+      <c r="G2705" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H2705" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2706">
       <c r="A2706" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2706" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2706" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D2706" t="inlineStr"/>
       <c r="E2706" t="inlineStr">
         <is>
-          <t>49.4</t>
-        </is>
-      </c>
-      <c r="F2706" t="inlineStr">
-        <is>
-          <t>50.1</t>
-        </is>
-      </c>
+          <t>7.59%</t>
+        </is>
+      </c>
+      <c r="F2706" t="inlineStr"/>
       <c r="G2706" t="inlineStr">
         <is>
-          <t>50.1</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="H2706" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2707">
       <c r="A2707" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2707" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2707" t="inlineStr">
         <is>
-          <t>ISM Manufacturing PMIJAN</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D2707" t="inlineStr"/>
       <c r="E2707" t="inlineStr">
         <is>
-          <t>49.3</t>
+          <t>51.2</t>
         </is>
       </c>
       <c r="F2707" t="inlineStr"/>
       <c r="G2707" t="inlineStr"/>
       <c r="H2707" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2708">
       <c r="A2708" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:25 PM</t>
         </is>
       </c>
       <c r="B2708" t="inlineStr">
@@ -87380,20 +87138,16 @@
       </c>
       <c r="C2708" t="inlineStr">
         <is>
-          <t>ISM Manufacturing EmploymentJAN</t>
+          <t>Redbook YoYFEB/01</t>
         </is>
       </c>
       <c r="D2708" t="inlineStr"/>
-      <c r="E2708" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
+      <c r="E2708" t="inlineStr"/>
       <c r="F2708" t="inlineStr"/>
       <c r="G2708" t="inlineStr"/>
       <c r="H2708" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -87405,26 +87159,22 @@
       </c>
       <c r="B2709" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2709" t="inlineStr">
         <is>
-          <t>Construction Spending MoMDEC</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2709" t="inlineStr"/>
       <c r="E2709" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>49.8</t>
         </is>
       </c>
       <c r="F2709" t="inlineStr"/>
-      <c r="G2709" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G2709" t="inlineStr"/>
       <c r="H2709" t="inlineStr">
         <is>
           <t>3</t>
@@ -87444,16 +87194,20 @@
       </c>
       <c r="C2710" t="inlineStr">
         <is>
-          <t>ISM Manufacturing New OrdersJAN</t>
+          <t>JOLTs Job OpeningsDEC</t>
         </is>
       </c>
       <c r="D2710" t="inlineStr"/>
       <c r="E2710" t="inlineStr"/>
       <c r="F2710" t="inlineStr"/>
-      <c r="G2710" t="inlineStr"/>
+      <c r="G2710" t="inlineStr">
+        <is>
+          <t>7.6M</t>
+        </is>
+      </c>
       <c r="H2710" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -87470,23 +87224,31 @@
       </c>
       <c r="C2711" t="inlineStr">
         <is>
-          <t>ISM Manufacturing PricesJAN</t>
+          <t>Factory Orders MoMDEC</t>
         </is>
       </c>
       <c r="D2711" t="inlineStr"/>
-      <c r="E2711" t="inlineStr"/>
+      <c r="E2711" t="inlineStr">
+        <is>
+          <t>-0.4%</t>
+        </is>
+      </c>
       <c r="F2711" t="inlineStr"/>
-      <c r="G2711" t="inlineStr"/>
+      <c r="G2711" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
       <c r="H2711" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2712">
       <c r="A2712" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2712" t="inlineStr">
@@ -87496,13 +87258,21 @@
       </c>
       <c r="C2712" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Factory Orders ex TransportationDEC</t>
         </is>
       </c>
       <c r="D2712" t="inlineStr"/>
-      <c r="E2712" t="inlineStr"/>
+      <c r="E2712" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="F2712" t="inlineStr"/>
-      <c r="G2712" t="inlineStr"/>
+      <c r="G2712" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="H2712" t="inlineStr">
         <is>
           <t>3</t>
@@ -87512,7 +87282,7 @@
     <row r="2713">
       <c r="A2713" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2713" t="inlineStr">
@@ -87522,7 +87292,7 @@
       </c>
       <c r="C2713" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>JOLTs Job QuitsDEC</t>
         </is>
       </c>
       <c r="D2713" t="inlineStr"/>
@@ -87536,29 +87306,29 @@
       </c>
     </row>
     <row r="2714">
-      <c r="A2714" t="inlineStr"/>
+      <c r="A2714" t="inlineStr">
+        <is>
+          <t>08:40 PM</t>
+        </is>
+      </c>
       <c r="B2714" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2714" t="inlineStr">
         <is>
-          <t>Total New Vehicle SalesJAN</t>
+          <t>RCM/TIPP Economic Optimism IndexFEB</t>
         </is>
       </c>
       <c r="D2714" t="inlineStr"/>
       <c r="E2714" t="inlineStr">
         <is>
-          <t>41.27K</t>
+          <t>51.9</t>
         </is>
       </c>
       <c r="F2714" t="inlineStr"/>
-      <c r="G2714" t="inlineStr">
-        <is>
-          <t>43.0K</t>
-        </is>
-      </c>
+      <c r="G2714" t="inlineStr"/>
       <c r="H2714" t="inlineStr">
         <is>
           <t>3</t>
@@ -87566,33 +87336,37 @@
       </c>
     </row>
     <row r="2715">
-      <c r="A2715" t="inlineStr">
-        <is>
-          <t>Tuesday February 04 2025</t>
-        </is>
-      </c>
-      <c r="B2715" t="inlineStr"/>
-      <c r="C2715" t="inlineStr"/>
+      <c r="A2715" t="inlineStr"/>
+      <c r="B2715" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="C2715" t="inlineStr">
+        <is>
+          <t>Balance of Trade PrelJAN</t>
+        </is>
+      </c>
       <c r="D2715" t="inlineStr"/>
       <c r="E2715" t="inlineStr"/>
       <c r="F2715" t="inlineStr"/>
       <c r="G2715" t="inlineStr"/>
-      <c r="H2715" t="inlineStr"/>
+      <c r="H2715" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2716">
-      <c r="A2716" t="inlineStr">
-        <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
+      <c r="A2716" t="inlineStr"/>
       <c r="B2716" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2716" t="inlineStr">
         <is>
-          <t>Treasury Refunding Financing Estimates</t>
+          <t>Exports PrelJAN</t>
         </is>
       </c>
       <c r="D2716" t="inlineStr"/>
@@ -87606,27 +87380,19 @@
       </c>
     </row>
     <row r="2717">
-      <c r="A2717" t="inlineStr">
-        <is>
-          <t>03:30 AM</t>
-        </is>
-      </c>
+      <c r="A2717" t="inlineStr"/>
       <c r="B2717" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2717" t="inlineStr">
         <is>
-          <t>Tax RevenueJAN</t>
+          <t>Imports PrelJAN</t>
         </is>
       </c>
       <c r="D2717" t="inlineStr"/>
-      <c r="E2717" t="inlineStr">
-        <is>
-          <t>ARS13015B</t>
-        </is>
-      </c>
+      <c r="E2717" t="inlineStr"/>
       <c r="F2717" t="inlineStr"/>
       <c r="G2717" t="inlineStr"/>
       <c r="H2717" t="inlineStr">
@@ -87636,654 +87402,26 @@
       </c>
     </row>
     <row r="2718">
-      <c r="A2718" t="inlineStr">
-        <is>
-          <t>09:05 AM</t>
-        </is>
-      </c>
+      <c r="A2718" t="inlineStr"/>
       <c r="B2718" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2718" t="inlineStr">
         <is>
-          <t>10-Year JGB Auction</t>
+          <t>LMI Logistics Managers IndexJAN</t>
         </is>
       </c>
       <c r="D2718" t="inlineStr"/>
       <c r="E2718" t="inlineStr">
         <is>
-          <t>1.140%</t>
+          <t>57.3</t>
         </is>
       </c>
       <c r="F2718" t="inlineStr"/>
       <c r="G2718" t="inlineStr"/>
       <c r="H2718" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2719">
-      <c r="A2719" t="inlineStr">
-        <is>
-          <t>09:45 AM</t>
-        </is>
-      </c>
-      <c r="B2719" t="inlineStr">
-        <is>
-          <t>SA</t>
-        </is>
-      </c>
-      <c r="C2719" t="inlineStr">
-        <is>
-          <t>Riyad Bank PMIJAN</t>
-        </is>
-      </c>
-      <c r="D2719" t="inlineStr"/>
-      <c r="E2719" t="inlineStr">
-        <is>
-          <t>58.4</t>
-        </is>
-      </c>
-      <c r="F2719" t="inlineStr"/>
-      <c r="G2719" t="inlineStr"/>
-      <c r="H2719" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2720">
-      <c r="A2720" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B2720" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="C2720" t="inlineStr">
-        <is>
-          <t>MAS 12-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="D2720" t="inlineStr"/>
-      <c r="E2720" t="inlineStr"/>
-      <c r="F2720" t="inlineStr"/>
-      <c r="G2720" t="inlineStr"/>
-      <c r="H2720" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2721">
-      <c r="A2721" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B2721" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="C2721" t="inlineStr">
-        <is>
-          <t>MAS 4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="D2721" t="inlineStr"/>
-      <c r="E2721" t="inlineStr"/>
-      <c r="F2721" t="inlineStr"/>
-      <c r="G2721" t="inlineStr"/>
-      <c r="H2721" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2722">
-      <c r="A2722" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B2722" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C2722" t="inlineStr">
-        <is>
-          <t>30-Year KTB Auction</t>
-        </is>
-      </c>
-      <c r="D2722" t="inlineStr"/>
-      <c r="E2722" t="inlineStr">
-        <is>
-          <t>2.705%</t>
-        </is>
-      </c>
-      <c r="F2722" t="inlineStr"/>
-      <c r="G2722" t="inlineStr"/>
-      <c r="H2722" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2723">
-      <c r="A2723" t="inlineStr">
-        <is>
-          <t>01:15 PM</t>
-        </is>
-      </c>
-      <c r="B2723" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C2723" t="inlineStr">
-        <is>
-          <t>Budget BalanceDEC</t>
-        </is>
-      </c>
-      <c r="D2723" t="inlineStr"/>
-      <c r="E2723" t="inlineStr">
-        <is>
-          <t>€-172.5B</t>
-        </is>
-      </c>
-      <c r="F2723" t="inlineStr"/>
-      <c r="G2723" t="inlineStr"/>
-      <c r="H2723" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2724">
-      <c r="A2724" t="inlineStr">
-        <is>
-          <t>01:30 PM</t>
-        </is>
-      </c>
-      <c r="B2724" t="inlineStr">
-        <is>
-          <t>BR</t>
-        </is>
-      </c>
-      <c r="C2724" t="inlineStr">
-        <is>
-          <t>IPC-Fipe Inflation MoMJAN</t>
-        </is>
-      </c>
-      <c r="D2724" t="inlineStr"/>
-      <c r="E2724" t="inlineStr">
-        <is>
-          <t>0.34%</t>
-        </is>
-      </c>
-      <c r="F2724" t="inlineStr"/>
-      <c r="G2724" t="inlineStr"/>
-      <c r="H2724" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2725">
-      <c r="A2725" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B2725" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C2725" t="inlineStr">
-        <is>
-          <t>5-Year Treasury Gilt Auction</t>
-        </is>
-      </c>
-      <c r="D2725" t="inlineStr"/>
-      <c r="E2725" t="inlineStr"/>
-      <c r="F2725" t="inlineStr"/>
-      <c r="G2725" t="inlineStr"/>
-      <c r="H2725" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2726">
-      <c r="A2726" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B2726" t="inlineStr">
-        <is>
-          <t>BR</t>
-        </is>
-      </c>
-      <c r="C2726" t="inlineStr">
-        <is>
-          <t>BCB Copom Meeting Minutes</t>
-        </is>
-      </c>
-      <c r="D2726" t="inlineStr"/>
-      <c r="E2726" t="inlineStr"/>
-      <c r="F2726" t="inlineStr"/>
-      <c r="G2726" t="inlineStr"/>
-      <c r="H2726" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2727">
-      <c r="A2727" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B2727" t="inlineStr">
-        <is>
-          <t>BR</t>
-        </is>
-      </c>
-      <c r="C2727" t="inlineStr">
-        <is>
-          <t>PPI MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2727" t="inlineStr"/>
-      <c r="E2727" t="inlineStr">
-        <is>
-          <t>1.23%</t>
-        </is>
-      </c>
-      <c r="F2727" t="inlineStr"/>
-      <c r="G2727" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H2727" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2728">
-      <c r="A2728" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B2728" t="inlineStr">
-        <is>
-          <t>BR</t>
-        </is>
-      </c>
-      <c r="C2728" t="inlineStr">
-        <is>
-          <t>PPI YoYDEC</t>
-        </is>
-      </c>
-      <c r="D2728" t="inlineStr"/>
-      <c r="E2728" t="inlineStr">
-        <is>
-          <t>7.59%</t>
-        </is>
-      </c>
-      <c r="F2728" t="inlineStr"/>
-      <c r="G2728" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
-      <c r="H2728" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2729">
-      <c r="A2729" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B2729" t="inlineStr">
-        <is>
-          <t>MX</t>
-        </is>
-      </c>
-      <c r="C2729" t="inlineStr">
-        <is>
-          <t>Business ConfidenceJAN</t>
-        </is>
-      </c>
-      <c r="D2729" t="inlineStr"/>
-      <c r="E2729" t="inlineStr">
-        <is>
-          <t>51.2</t>
-        </is>
-      </c>
-      <c r="F2729" t="inlineStr"/>
-      <c r="G2729" t="inlineStr"/>
-      <c r="H2729" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2730">
-      <c r="A2730" t="inlineStr">
-        <is>
-          <t>07:25 PM</t>
-        </is>
-      </c>
-      <c r="B2730" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2730" t="inlineStr">
-        <is>
-          <t>Redbook YoYFEB/01</t>
-        </is>
-      </c>
-      <c r="D2730" t="inlineStr"/>
-      <c r="E2730" t="inlineStr"/>
-      <c r="F2730" t="inlineStr"/>
-      <c r="G2730" t="inlineStr"/>
-      <c r="H2730" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2731">
-      <c r="A2731" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2731" t="inlineStr">
-        <is>
-          <t>MX</t>
-        </is>
-      </c>
-      <c r="C2731" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
-        </is>
-      </c>
-      <c r="D2731" t="inlineStr"/>
-      <c r="E2731" t="inlineStr">
-        <is>
-          <t>49.8</t>
-        </is>
-      </c>
-      <c r="F2731" t="inlineStr"/>
-      <c r="G2731" t="inlineStr"/>
-      <c r="H2731" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2732">
-      <c r="A2732" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2732" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2732" t="inlineStr">
-        <is>
-          <t>JOLTs Job OpeningsDEC</t>
-        </is>
-      </c>
-      <c r="D2732" t="inlineStr"/>
-      <c r="E2732" t="inlineStr"/>
-      <c r="F2732" t="inlineStr"/>
-      <c r="G2732" t="inlineStr">
-        <is>
-          <t>7.6M</t>
-        </is>
-      </c>
-      <c r="H2732" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2733">
-      <c r="A2733" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2733" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2733" t="inlineStr">
-        <is>
-          <t>Factory Orders MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2733" t="inlineStr"/>
-      <c r="E2733" t="inlineStr">
-        <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
-      <c r="F2733" t="inlineStr"/>
-      <c r="G2733" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="H2733" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2734">
-      <c r="A2734" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2734" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2734" t="inlineStr">
-        <is>
-          <t>Factory Orders ex TransportationDEC</t>
-        </is>
-      </c>
-      <c r="D2734" t="inlineStr"/>
-      <c r="E2734" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F2734" t="inlineStr"/>
-      <c r="G2734" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="H2734" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2735">
-      <c r="A2735" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2735" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2735" t="inlineStr">
-        <is>
-          <t>JOLTs Job QuitsDEC</t>
-        </is>
-      </c>
-      <c r="D2735" t="inlineStr"/>
-      <c r="E2735" t="inlineStr"/>
-      <c r="F2735" t="inlineStr"/>
-      <c r="G2735" t="inlineStr"/>
-      <c r="H2735" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2736">
-      <c r="A2736" t="inlineStr">
-        <is>
-          <t>08:40 PM</t>
-        </is>
-      </c>
-      <c r="B2736" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2736" t="inlineStr">
-        <is>
-          <t>RCM/TIPP Economic Optimism IndexFEB</t>
-        </is>
-      </c>
-      <c r="D2736" t="inlineStr"/>
-      <c r="E2736" t="inlineStr">
-        <is>
-          <t>51.9</t>
-        </is>
-      </c>
-      <c r="F2736" t="inlineStr"/>
-      <c r="G2736" t="inlineStr"/>
-      <c r="H2736" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2737">
-      <c r="A2737" t="inlineStr"/>
-      <c r="B2737" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2737" t="inlineStr">
-        <is>
-          <t>Balance of Trade PrelJAN</t>
-        </is>
-      </c>
-      <c r="D2737" t="inlineStr"/>
-      <c r="E2737" t="inlineStr"/>
-      <c r="F2737" t="inlineStr"/>
-      <c r="G2737" t="inlineStr"/>
-      <c r="H2737" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2738">
-      <c r="A2738" t="inlineStr"/>
-      <c r="B2738" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2738" t="inlineStr">
-        <is>
-          <t>Exports PrelJAN</t>
-        </is>
-      </c>
-      <c r="D2738" t="inlineStr"/>
-      <c r="E2738" t="inlineStr"/>
-      <c r="F2738" t="inlineStr"/>
-      <c r="G2738" t="inlineStr"/>
-      <c r="H2738" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2739">
-      <c r="A2739" t="inlineStr"/>
-      <c r="B2739" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2739" t="inlineStr">
-        <is>
-          <t>Imports PrelJAN</t>
-        </is>
-      </c>
-      <c r="D2739" t="inlineStr"/>
-      <c r="E2739" t="inlineStr"/>
-      <c r="F2739" t="inlineStr"/>
-      <c r="G2739" t="inlineStr"/>
-      <c r="H2739" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2740">
-      <c r="A2740" t="inlineStr"/>
-      <c r="B2740" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2740" t="inlineStr">
-        <is>
-          <t>LMI Logistics Managers IndexJAN</t>
-        </is>
-      </c>
-      <c r="D2740" t="inlineStr"/>
-      <c r="E2740" t="inlineStr">
-        <is>
-          <t>57.3</t>
-        </is>
-      </c>
-      <c r="F2740" t="inlineStr"/>
-      <c r="G2740" t="inlineStr"/>
-      <c r="H2740" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-04.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-04.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2718"/>
+  <dimension ref="A1:H2760"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76589,8 +76589,10 @@
           <t>50.3</t>
         </is>
       </c>
-      <c r="H2365" t="n">
-        <v>1</v>
+      <c r="H2365" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="2366">
@@ -76621,8 +76623,10 @@
           <t>51.8</t>
         </is>
       </c>
-      <c r="H2366" t="n">
-        <v>2</v>
+      <c r="H2366" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2367">
@@ -76653,8 +76657,10 @@
           <t>-5.0%</t>
         </is>
       </c>
-      <c r="H2367" t="n">
-        <v>3</v>
+      <c r="H2367" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2368">
@@ -76689,8 +76695,10 @@
           <t>51.7</t>
         </is>
       </c>
-      <c r="H2368" t="n">
-        <v>3</v>
+      <c r="H2368" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2369">
@@ -76721,8 +76729,10 @@
           <t>115.3</t>
         </is>
       </c>
-      <c r="H2369" t="n">
-        <v>3</v>
+      <c r="H2369" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2370">
@@ -76757,8 +76767,10 @@
           <t>107</t>
         </is>
       </c>
-      <c r="H2370" t="n">
-        <v>3</v>
+      <c r="H2370" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2371">
@@ -76785,8 +76797,10 @@
       </c>
       <c r="F2371" t="inlineStr"/>
       <c r="G2371" t="inlineStr"/>
-      <c r="H2371" t="n">
-        <v>3</v>
+      <c r="H2371" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2372">
@@ -76813,8 +76827,10 @@
       </c>
       <c r="F2372" t="inlineStr"/>
       <c r="G2372" t="inlineStr"/>
-      <c r="H2372" t="n">
-        <v>3</v>
+      <c r="H2372" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2373">
@@ -76841,8 +76857,10 @@
       </c>
       <c r="F2373" t="inlineStr"/>
       <c r="G2373" t="inlineStr"/>
-      <c r="H2373" t="n">
-        <v>3</v>
+      <c r="H2373" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2374">
@@ -76873,8 +76891,10 @@
           <t>99</t>
         </is>
       </c>
-      <c r="H2374" t="n">
-        <v>2</v>
+      <c r="H2374" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2375">
@@ -76905,8 +76925,10 @@
           <t>75.8%</t>
         </is>
       </c>
-      <c r="H2375" t="n">
-        <v>3</v>
+      <c r="H2375" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2376">
@@ -76941,8 +76963,10 @@
           <t>84.5</t>
         </is>
       </c>
-      <c r="H2376" t="n">
-        <v>1</v>
+      <c r="H2376" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="2377">
@@ -76977,8 +77001,10 @@
           <t>85.2</t>
         </is>
       </c>
-      <c r="H2377" t="n">
-        <v>3</v>
+      <c r="H2377" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2378">
@@ -77013,8 +77039,10 @@
           <t>84</t>
         </is>
       </c>
-      <c r="H2378" t="n">
-        <v>3</v>
+      <c r="H2378" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2379">
@@ -77041,8 +77069,10 @@
       </c>
       <c r="F2379" t="inlineStr"/>
       <c r="G2379" t="inlineStr"/>
-      <c r="H2379" t="n">
-        <v>3</v>
+      <c r="H2379" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2380">
@@ -77069,8 +77099,10 @@
       </c>
       <c r="F2380" t="inlineStr"/>
       <c r="G2380" t="inlineStr"/>
-      <c r="H2380" t="n">
-        <v>3</v>
+      <c r="H2380" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2381">
@@ -77101,8 +77133,10 @@
           <t>91.4</t>
         </is>
       </c>
-      <c r="H2381" t="n">
-        <v>3</v>
+      <c r="H2381" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2382">
@@ -77133,8 +77167,10 @@
           <t>10K</t>
         </is>
       </c>
-      <c r="H2382" t="n">
-        <v>2</v>
+      <c r="H2382" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2383">
@@ -77165,8 +77201,10 @@
           <t>2875K</t>
         </is>
       </c>
-      <c r="H2383" t="n">
-        <v>3</v>
+      <c r="H2383" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2384">
@@ -77197,8 +77235,10 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H2384" t="n">
-        <v>3</v>
+      <c r="H2384" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2385">